--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="203">
   <si>
     <t>ID</t>
   </si>
@@ -82,367 +82,391 @@
     <t>鸡王</t>
   </si>
   <si>
-    <t>500</t>
+    <t>150</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>鹿王</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>75000</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>稻草人王</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>钉耙猫王</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>多钩猫王</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>食人花王</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>半兽统领</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>3000000</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>10007</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>骷髅精灵</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>2500000</t>
+  </si>
+  <si>
+    <t>10008</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>尸王</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>7000000</t>
+  </si>
+  <si>
+    <t>3500000</t>
+  </si>
+  <si>
+    <t>10009</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>王蛇</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>10010</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>狼王</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>20000000</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>巨型沙虫</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>30000000</t>
+  </si>
+  <si>
+    <t>15000000</t>
+  </si>
+  <si>
+    <t>10012</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>鹰王</t>
+  </si>
+  <si>
+    <t>50000000</t>
+  </si>
+  <si>
+    <t>25000000</t>
+  </si>
+  <si>
+    <t>10013</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>巨型多角虫</t>
+  </si>
+  <si>
+    <t>210000</t>
+  </si>
+  <si>
+    <t>70000000</t>
+  </si>
+  <si>
+    <t>35000000</t>
+  </si>
+  <si>
+    <t>10014</t>
+  </si>
+  <si>
+    <t>沃玛卫士</t>
+  </si>
+  <si>
+    <t>100000000</t>
+  </si>
+  <si>
+    <t>10015</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>沃玛教主</t>
+  </si>
+  <si>
+    <t>200000000</t>
+  </si>
+  <si>
+    <t>10016</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>白野猪</t>
+  </si>
+  <si>
+    <t>900000</t>
+  </si>
+  <si>
+    <t>300000000</t>
+  </si>
+  <si>
+    <t>150000000</t>
+  </si>
+  <si>
+    <t>10017</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>猪王</t>
+  </si>
+  <si>
+    <t>500000000</t>
+  </si>
+  <si>
+    <t>250000000</t>
+  </si>
+  <si>
+    <t>10018</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>邪恶蝎蛇</t>
+  </si>
+  <si>
+    <t>2100000</t>
+  </si>
+  <si>
+    <t>700000000</t>
+  </si>
+  <si>
+    <t>350000000</t>
+  </si>
+  <si>
+    <t>10019</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>邪恶蜈蚣</t>
+  </si>
+  <si>
+    <t>1000000000</t>
+  </si>
+  <si>
+    <t>10020</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>巨型钳虫</t>
+  </si>
+  <si>
+    <t>6000000</t>
+  </si>
+  <si>
+    <t>2000000000</t>
+  </si>
+  <si>
+    <t>10021</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>触龙神</t>
+  </si>
+  <si>
+    <t>9000000</t>
+  </si>
+  <si>
+    <t>3000000000</t>
+  </si>
+  <si>
+    <t>1500000000</t>
+  </si>
+  <si>
+    <t>10022</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>祖玛教主</t>
+  </si>
+  <si>
+    <t>5000000000</t>
+  </si>
+  <si>
+    <t>2500000000</t>
+  </si>
+  <si>
+    <t>10023</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>祖玛侍卫</t>
+  </si>
+  <si>
+    <t>21000000</t>
+  </si>
+  <si>
+    <t>7000000000</t>
+  </si>
+  <si>
+    <t>3500000000</t>
+  </si>
+  <si>
+    <t>10024</t>
   </si>
   <si>
     <t>250</t>
   </si>
   <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>鹿王</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>7500</t>
-  </si>
-  <si>
-    <t>10002</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>稻草人王</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>10003</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>钉耙猫王</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>10004</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>多钩猫王</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>10005</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>食人花王</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>200000</t>
-  </si>
-  <si>
-    <t>10006</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>半兽统领</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>150000</t>
-  </si>
-  <si>
-    <t>10007</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>骷髅精灵</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>250000</t>
-  </si>
-  <si>
-    <t>10008</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>尸王</t>
-  </si>
-  <si>
-    <t>70000</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>350000</t>
-  </si>
-  <si>
-    <t>10009</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>王蛇</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>10010</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>狼王</t>
-  </si>
-  <si>
-    <t>2000000</t>
-  </si>
-  <si>
-    <t>10011</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>巨型沙虫</t>
-  </si>
-  <si>
-    <t>3000000</t>
-  </si>
-  <si>
-    <t>1500000</t>
-  </si>
-  <si>
-    <t>10012</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>鹰王</t>
-  </si>
-  <si>
-    <t>5000000</t>
-  </si>
-  <si>
-    <t>2500000</t>
-  </si>
-  <si>
-    <t>10013</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>巨型多角虫</t>
-  </si>
-  <si>
-    <t>7000000</t>
-  </si>
-  <si>
-    <t>3500000</t>
-  </si>
-  <si>
-    <t>10014</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>沃玛卫士</t>
-  </si>
-  <si>
-    <t>10000000</t>
-  </si>
-  <si>
-    <t>10015</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>沃玛教主</t>
-  </si>
-  <si>
-    <t>20000000</t>
-  </si>
-  <si>
-    <t>10016</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>白野猪</t>
-  </si>
-  <si>
-    <t>30000000</t>
-  </si>
-  <si>
-    <t>15000000</t>
-  </si>
-  <si>
-    <t>10017</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>猪王</t>
-  </si>
-  <si>
-    <t>50000000</t>
-  </si>
-  <si>
-    <t>25000000</t>
-  </si>
-  <si>
-    <t>10018</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>邪恶蝎蛇</t>
-  </si>
-  <si>
-    <t>70000000</t>
-  </si>
-  <si>
-    <t>35000000</t>
-  </si>
-  <si>
-    <t>10019</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>邪恶蜈蚣</t>
-  </si>
-  <si>
-    <t>100000000</t>
-  </si>
-  <si>
-    <t>10020</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>巨型钳虫</t>
-  </si>
-  <si>
-    <t>200000000</t>
-  </si>
-  <si>
-    <t>10021</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>触龙神</t>
-  </si>
-  <si>
-    <t>300000000</t>
-  </si>
-  <si>
-    <t>150000000</t>
-  </si>
-  <si>
-    <t>10022</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>祖玛教主</t>
-  </si>
-  <si>
-    <t>500000000</t>
-  </si>
-  <si>
-    <t>250000000</t>
-  </si>
-  <si>
-    <t>10023</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>祖玛侍卫</t>
-  </si>
-  <si>
-    <t>700000000</t>
-  </si>
-  <si>
-    <t>350000000</t>
-  </si>
-  <si>
-    <t>10024</t>
-  </si>
-  <si>
     <t>虹魔猪王</t>
   </si>
   <si>
-    <t>1000000000</t>
+    <t>10000000000</t>
   </si>
   <si>
     <t>10025</t>
@@ -454,7 +478,10 @@
     <t>虹魔蝎卫</t>
   </si>
   <si>
-    <t>2000000000</t>
+    <t>60000000</t>
+  </si>
+  <si>
+    <t>20000000000</t>
   </si>
   <si>
     <t>10026</t>
@@ -466,10 +493,13 @@
     <t>虹魔教主</t>
   </si>
   <si>
-    <t>3000000000</t>
-  </si>
-  <si>
-    <t>1500000000</t>
+    <t>90000000</t>
+  </si>
+  <si>
+    <t>30000000000</t>
+  </si>
+  <si>
+    <t>15000000000</t>
   </si>
   <si>
     <t>10027</t>
@@ -481,10 +511,10 @@
     <t>恶灵尸王</t>
   </si>
   <si>
-    <t>5000000000</t>
-  </si>
-  <si>
-    <t>2500000000</t>
+    <t>50000000000</t>
+  </si>
+  <si>
+    <t>25000000000</t>
   </si>
   <si>
     <t>10028</t>
@@ -496,10 +526,13 @@
     <t>黄泉教主</t>
   </si>
   <si>
-    <t>7000000000</t>
-  </si>
-  <si>
-    <t>3500000000</t>
+    <t>210000000</t>
+  </si>
+  <si>
+    <t>70000000000</t>
+  </si>
+  <si>
+    <t>35000000000</t>
   </si>
   <si>
     <t>10029</t>
@@ -511,7 +544,7 @@
     <t>牛魔王</t>
   </si>
   <si>
-    <t>10000000000</t>
+    <t>100000000000</t>
   </si>
   <si>
     <t>10030</t>
@@ -523,7 +556,10 @@
     <t>双头金刚</t>
   </si>
   <si>
-    <t>20000000000</t>
+    <t>600000000</t>
+  </si>
+  <si>
+    <t>200000000000</t>
   </si>
   <si>
     <t>10031</t>
@@ -535,10 +571,13 @@
     <t>双头巨人</t>
   </si>
   <si>
-    <t>30000000000</t>
-  </si>
-  <si>
-    <t>15000000000</t>
+    <t>900000000</t>
+  </si>
+  <si>
+    <t>300000000000</t>
+  </si>
+  <si>
+    <t>150000000000</t>
   </si>
   <si>
     <t>10032</t>
@@ -550,10 +589,10 @@
     <t>赤月恶魔</t>
   </si>
   <si>
-    <t>50000000000</t>
-  </si>
-  <si>
-    <t>25000000000</t>
+    <t>500000000000</t>
+  </si>
+  <si>
+    <t>250000000000</t>
   </si>
   <si>
     <t>10033</t>
@@ -565,10 +604,13 @@
     <t>魔龙教主</t>
   </si>
   <si>
-    <t>70000000000</t>
-  </si>
-  <si>
-    <t>35000000000</t>
+    <t>2100000000</t>
+  </si>
+  <si>
+    <t>700000000000</t>
+  </si>
+  <si>
+    <t>350000000000</t>
   </si>
   <si>
     <t>10034</t>
@@ -580,7 +622,7 @@
     <t>火龙神</t>
   </si>
   <si>
-    <t>100000000000</t>
+    <t>1000000000000</t>
   </si>
 </sst>
 </file>
@@ -1705,163 +1747,163 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
         <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" ht="24.0" customHeight="true">
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
         <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
         <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
         <v>46</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>55</v>
       </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -1884,7 +1926,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
         <v>61</v>
@@ -1913,33 +1955,33 @@
         <v>67</v>
       </c>
       <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
         <v>68</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" t="s">
         <v>69</v>
-      </c>
-      <c r="I14" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
         <v>71</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>72</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>73</v>
       </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
         <v>74</v>
@@ -1962,16 +2004,16 @@
         <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s">
         <v>74</v>
@@ -1979,626 +2021,626 @@
     </row>
     <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" t="s">
         <v>99</v>
-      </c>
-      <c r="E21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I23" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J23" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="H24" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I24" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J24" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="H25" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I25" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J25" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F26" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26" t="s">
         <v>124</v>
-      </c>
-      <c r="I26" t="s">
-        <v>124</v>
-      </c>
-      <c r="J26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="H27" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I27" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J27" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I28" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="J28" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="G29" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="H29" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I29" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="J29" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F30" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="I30" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="J30" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="H31" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I31" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="J31" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="G32" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="H32" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="I32" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="J32" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E33" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="H33" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I33" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J33" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="H34" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="I34" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="J34" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E35" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="G35" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="H35" t="s">
+        <v>176</v>
+      </c>
+      <c r="I35" t="s">
+        <v>176</v>
+      </c>
+      <c r="J35" t="s">
         <v>165</v>
-      </c>
-      <c r="I35" t="s">
-        <v>165</v>
-      </c>
-      <c r="J35" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E36" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="G36" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="H36" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I36" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="J36" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="E37" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F37" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="G37" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="H37" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="I37" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="J37" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D38" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="F38" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G38" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="H38" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="I38" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="J38" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D39" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E39" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="F39" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="G39" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="H39" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="I39" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="J39" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D40" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="E40" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="G40" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="H40" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="I40" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="J40" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -7,14 +7,15 @@
     <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="生成配置" sheetId="2" r:id="rId1"/>
+    <sheet name="定制配置" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="226">
   <si>
     <t>ID</t>
   </si>
@@ -82,238 +83,256 @@
     <t>鸡王</t>
   </si>
   <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>鹿王</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>175000</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>稻草人王</t>
+  </si>
+  <si>
+    <t>1350</t>
+  </si>
+  <si>
+    <t>450000</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>钉耙猫王</t>
+  </si>
+  <si>
+    <t>3300</t>
+  </si>
+  <si>
+    <t>1100000</t>
+  </si>
+  <si>
+    <t>220000</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>多钩猫王</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>3000000</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>食人花王</t>
+  </si>
+  <si>
+    <t>22500</t>
+  </si>
+  <si>
+    <t>7500000</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>半兽统领</t>
+  </si>
+  <si>
+    <t>51000</t>
+  </si>
+  <si>
+    <t>17000000</t>
+  </si>
+  <si>
+    <t>3400000</t>
+  </si>
+  <si>
+    <t>10007</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>骷髅精灵</t>
+  </si>
+  <si>
+    <t>126000</t>
+  </si>
+  <si>
+    <t>42000000</t>
+  </si>
+  <si>
+    <t>8400000</t>
+  </si>
+  <si>
+    <t>10008</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>尸王</t>
+  </si>
+  <si>
+    <t>297000</t>
+  </si>
+  <si>
+    <t>99000000</t>
+  </si>
+  <si>
+    <t>19800000</t>
+  </si>
+  <si>
+    <t>10009</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>王蛇</t>
+  </si>
+  <si>
+    <t>708000</t>
+  </si>
+  <si>
+    <t>236000000</t>
+  </si>
+  <si>
+    <t>47200000</t>
+  </si>
+  <si>
+    <t>10010</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>狼王</t>
+  </si>
+  <si>
+    <t>1572000</t>
+  </si>
+  <si>
+    <t>524000000</t>
+  </si>
+  <si>
+    <t>104800000</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>巨型沙虫</t>
+  </si>
+  <si>
+    <t>3390000</t>
+  </si>
+  <si>
+    <t>1130000000</t>
+  </si>
+  <si>
+    <t>226000000</t>
+  </si>
+  <si>
+    <t>10012</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>鹰王</t>
+  </si>
+  <si>
+    <t>7320000</t>
+  </si>
+  <si>
+    <t>2440000000</t>
+  </si>
+  <si>
+    <t>488000000</t>
+  </si>
+  <si>
+    <t>10013</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>巨型多角虫</t>
+  </si>
+  <si>
+    <t>15810000</t>
+  </si>
+  <si>
+    <t>5270000000</t>
+  </si>
+  <si>
+    <t>1054000000</t>
+  </si>
+  <si>
+    <t>10014</t>
+  </si>
+  <si>
     <t>150</t>
   </si>
   <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>鹿王</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>150000</t>
-  </si>
-  <si>
-    <t>75000</t>
-  </si>
-  <si>
-    <t>10002</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>稻草人王</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>10003</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>钉耙猫王</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>10004</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>多钩猫王</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>10005</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>食人花王</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>2000000</t>
-  </si>
-  <si>
-    <t>10006</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>半兽统领</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>3000000</t>
-  </si>
-  <si>
-    <t>1500000</t>
-  </si>
-  <si>
-    <t>10007</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>骷髅精灵</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>5000000</t>
-  </si>
-  <si>
-    <t>2500000</t>
-  </si>
-  <si>
-    <t>10008</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>尸王</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>7000000</t>
-  </si>
-  <si>
-    <t>3500000</t>
-  </si>
-  <si>
-    <t>10009</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>王蛇</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>10000000</t>
-  </si>
-  <si>
-    <t>10010</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>狼王</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>20000000</t>
-  </si>
-  <si>
-    <t>10011</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>巨型沙虫</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>30000000</t>
-  </si>
-  <si>
-    <t>15000000</t>
-  </si>
-  <si>
-    <t>10012</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>鹰王</t>
-  </si>
-  <si>
-    <t>50000000</t>
-  </si>
-  <si>
-    <t>25000000</t>
-  </si>
-  <si>
-    <t>10013</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>巨型多角虫</t>
-  </si>
-  <si>
-    <t>210000</t>
-  </si>
-  <si>
-    <t>70000000</t>
-  </si>
-  <si>
-    <t>35000000</t>
-  </si>
-  <si>
-    <t>10014</t>
-  </si>
-  <si>
     <t>沃玛卫士</t>
   </si>
   <si>
-    <t>100000000</t>
+    <t>34170000</t>
+  </si>
+  <si>
+    <t>11390000000</t>
+  </si>
+  <si>
+    <t>2278000000</t>
   </si>
   <si>
     <t>10015</t>
@@ -325,7 +344,13 @@
     <t>沃玛教主</t>
   </si>
   <si>
-    <t>200000000</t>
+    <t>69120000</t>
+  </si>
+  <si>
+    <t>23040000000</t>
+  </si>
+  <si>
+    <t>4608000000</t>
   </si>
   <si>
     <t>10016</t>
@@ -337,13 +362,13 @@
     <t>白野猪</t>
   </si>
   <si>
-    <t>900000</t>
-  </si>
-  <si>
-    <t>300000000</t>
-  </si>
-  <si>
-    <t>150000000</t>
+    <t>135960000</t>
+  </si>
+  <si>
+    <t>45320000000</t>
+  </si>
+  <si>
+    <t>9064000000</t>
   </si>
   <si>
     <t>10017</t>
@@ -355,10 +380,13 @@
     <t>猪王</t>
   </si>
   <si>
-    <t>500000000</t>
-  </si>
-  <si>
-    <t>250000000</t>
+    <t>267480000</t>
+  </si>
+  <si>
+    <t>89160000000</t>
+  </si>
+  <si>
+    <t>17832000000</t>
   </si>
   <si>
     <t>10018</t>
@@ -370,13 +398,13 @@
     <t>邪恶蝎蛇</t>
   </si>
   <si>
-    <t>2100000</t>
-  </si>
-  <si>
-    <t>700000000</t>
-  </si>
-  <si>
-    <t>350000000</t>
+    <t>526170000</t>
+  </si>
+  <si>
+    <t>175390000000</t>
+  </si>
+  <si>
+    <t>35078000000</t>
   </si>
   <si>
     <t>10019</t>
@@ -388,7 +416,13 @@
     <t>邪恶蜈蚣</t>
   </si>
   <si>
-    <t>1000000000</t>
+    <t>1035090000</t>
+  </si>
+  <si>
+    <t>345030000000</t>
+  </si>
+  <si>
+    <t>69006000000</t>
   </si>
   <si>
     <t>10020</t>
@@ -400,10 +434,13 @@
     <t>巨型钳虫</t>
   </si>
   <si>
-    <t>6000000</t>
-  </si>
-  <si>
-    <t>2000000000</t>
+    <t>1906680000</t>
+  </si>
+  <si>
+    <t>635560000000</t>
+  </si>
+  <si>
+    <t>127112000000</t>
   </si>
   <si>
     <t>10021</t>
@@ -415,13 +452,13 @@
     <t>触龙神</t>
   </si>
   <si>
-    <t>9000000</t>
-  </si>
-  <si>
-    <t>3000000000</t>
-  </si>
-  <si>
-    <t>1500000000</t>
+    <t>3414570000</t>
+  </si>
+  <si>
+    <t>1138190000000</t>
+  </si>
+  <si>
+    <t>227638000000</t>
   </si>
   <si>
     <t>10022</t>
@@ -433,10 +470,13 @@
     <t>祖玛教主</t>
   </si>
   <si>
-    <t>5000000000</t>
-  </si>
-  <si>
-    <t>2500000000</t>
+    <t>6114990000</t>
+  </si>
+  <si>
+    <t>2038330000000</t>
+  </si>
+  <si>
+    <t>407666000000</t>
   </si>
   <si>
     <t>10023</t>
@@ -448,13 +488,13 @@
     <t>祖玛侍卫</t>
   </si>
   <si>
-    <t>21000000</t>
-  </si>
-  <si>
-    <t>7000000000</t>
-  </si>
-  <si>
-    <t>3500000000</t>
+    <t>10950990000</t>
+  </si>
+  <si>
+    <t>3650330000000</t>
+  </si>
+  <si>
+    <t>730066000000</t>
   </si>
   <si>
     <t>10024</t>
@@ -466,7 +506,13 @@
     <t>虹魔猪王</t>
   </si>
   <si>
-    <t>10000000000</t>
+    <t>19611600000</t>
+  </si>
+  <si>
+    <t>6537200000000</t>
+  </si>
+  <si>
+    <t>1307440000000</t>
   </si>
   <si>
     <t>10025</t>
@@ -478,10 +524,13 @@
     <t>虹魔蝎卫</t>
   </si>
   <si>
-    <t>60000000</t>
-  </si>
-  <si>
-    <t>20000000000</t>
+    <t>32866680000</t>
+  </si>
+  <si>
+    <t>10955560000000</t>
+  </si>
+  <si>
+    <t>2191112000000</t>
   </si>
   <si>
     <t>10026</t>
@@ -493,13 +542,13 @@
     <t>虹魔教主</t>
   </si>
   <si>
-    <t>90000000</t>
-  </si>
-  <si>
-    <t>30000000000</t>
-  </si>
-  <si>
-    <t>15000000000</t>
+    <t>53536350000</t>
+  </si>
+  <si>
+    <t>17845450000000</t>
+  </si>
+  <si>
+    <t>3569090000000</t>
   </si>
   <si>
     <t>10027</t>
@@ -511,10 +560,13 @@
     <t>恶灵尸王</t>
   </si>
   <si>
-    <t>50000000000</t>
-  </si>
-  <si>
-    <t>25000000000</t>
+    <t>87205080000</t>
+  </si>
+  <si>
+    <t>29068360000000</t>
+  </si>
+  <si>
+    <t>5813672000000</t>
   </si>
   <si>
     <t>10028</t>
@@ -526,13 +578,13 @@
     <t>黄泉教主</t>
   </si>
   <si>
-    <t>210000000</t>
-  </si>
-  <si>
-    <t>70000000000</t>
-  </si>
-  <si>
-    <t>35000000000</t>
+    <t>142047900000</t>
+  </si>
+  <si>
+    <t>47349300000000</t>
+  </si>
+  <si>
+    <t>9469860000000</t>
   </si>
   <si>
     <t>10029</t>
@@ -544,7 +596,13 @@
     <t>牛魔王</t>
   </si>
   <si>
-    <t>100000000000</t>
+    <t>231381060000</t>
+  </si>
+  <si>
+    <t>77127020000000</t>
+  </si>
+  <si>
+    <t>15425404000000</t>
   </si>
   <si>
     <t>10030</t>
@@ -556,10 +614,13 @@
     <t>双头金刚</t>
   </si>
   <si>
-    <t>600000000</t>
-  </si>
-  <si>
-    <t>200000000000</t>
+    <t>352475640000</t>
+  </si>
+  <si>
+    <t>117491880000000</t>
+  </si>
+  <si>
+    <t>23498376000000</t>
   </si>
   <si>
     <t>10031</t>
@@ -571,13 +632,13 @@
     <t>双头巨人</t>
   </si>
   <si>
-    <t>900000000</t>
-  </si>
-  <si>
-    <t>300000000000</t>
-  </si>
-  <si>
-    <t>150000000000</t>
+    <t>521750070000</t>
+  </si>
+  <si>
+    <t>173916690000000</t>
+  </si>
+  <si>
+    <t>34783338000000</t>
   </si>
   <si>
     <t>10032</t>
@@ -589,10 +650,13 @@
     <t>赤月恶魔</t>
   </si>
   <si>
-    <t>500000000000</t>
-  </si>
-  <si>
-    <t>250000000000</t>
+    <t>772317540000</t>
+  </si>
+  <si>
+    <t>257439180000000</t>
+  </si>
+  <si>
+    <t>51487836000000</t>
   </si>
   <si>
     <t>10033</t>
@@ -604,13 +668,13 @@
     <t>魔龙教主</t>
   </si>
   <si>
-    <t>2100000000</t>
-  </si>
-  <si>
-    <t>700000000000</t>
-  </si>
-  <si>
-    <t>350000000000</t>
+    <t>1143218640000</t>
+  </si>
+  <si>
+    <t>381072880000000</t>
+  </si>
+  <si>
+    <t>76214576000000</t>
   </si>
   <si>
     <t>10034</t>
@@ -622,7 +686,13 @@
     <t>火龙神</t>
   </si>
   <si>
-    <t>1000000000000</t>
+    <t>1692242850000</t>
+  </si>
+  <si>
+    <t>564080950000000</t>
+  </si>
+  <si>
+    <t>112816190000000</t>
   </si>
 </sst>
 </file>
@@ -1581,13 +1651,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="2" width="6.875" collapsed="false"/>
     <col min="2" max="2" style="2" width="9.0" collapsed="false"/>
@@ -1733,7 +1803,1059 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" ht="24.0" customHeight="true">
+    <row r="6" customFormat="1">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="24.0" customHeight="true">
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="24.0" customHeight="true">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="24.0" customHeight="true">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" ht="24.0" customHeight="true">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" ht="24.0" customHeight="true">
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" ht="24.0" customHeight="true">
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" ht="24.0" customHeight="true">
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" ht="24.0" customHeight="true">
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" ht="24.0" customHeight="true">
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" ht="24.0" customHeight="true">
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" ht="24.0" customHeight="true">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" ht="24.0" customHeight="true">
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" ht="24.0" customHeight="true">
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" ht="24.0" customHeight="true">
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" ht="24.0" customHeight="true">
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" ht="24.0" customHeight="true">
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" ht="24.0" customHeight="true">
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" ht="24.0" customHeight="true">
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" t="s">
+        <v>134</v>
+      </c>
+      <c r="J24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" ht="24.0" customHeight="true">
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" t="s">
+        <v>140</v>
+      </c>
+      <c r="J25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" ht="24.0" customHeight="true">
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" ht="24.0" customHeight="true">
+      <c r="C27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" t="s">
+        <v>152</v>
+      </c>
+      <c r="J27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" ht="24.0" customHeight="true">
+      <c r="C28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" t="s">
+        <v>158</v>
+      </c>
+      <c r="J28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" ht="24.0" customHeight="true">
+      <c r="C29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" ht="24.0" customHeight="true">
+      <c r="C30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" t="s">
+        <v>169</v>
+      </c>
+      <c r="H30" t="s">
+        <v>170</v>
+      </c>
+      <c r="I30" t="s">
+        <v>170</v>
+      </c>
+      <c r="J30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" ht="24.0" customHeight="true">
+      <c r="C31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" t="s">
+        <v>175</v>
+      </c>
+      <c r="H31" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" t="s">
+        <v>176</v>
+      </c>
+      <c r="J31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" ht="24.0" customHeight="true">
+      <c r="C32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" t="s">
+        <v>182</v>
+      </c>
+      <c r="I32" t="s">
+        <v>182</v>
+      </c>
+      <c r="J32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" ht="24.0" customHeight="true">
+      <c r="C33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" t="s">
+        <v>188</v>
+      </c>
+      <c r="I33" t="s">
+        <v>188</v>
+      </c>
+      <c r="J33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" ht="24.0" customHeight="true">
+      <c r="C34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I34" t="s">
+        <v>194</v>
+      </c>
+      <c r="J34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" ht="24.0" customHeight="true">
+      <c r="C35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" t="s">
+        <v>199</v>
+      </c>
+      <c r="H35" t="s">
+        <v>200</v>
+      </c>
+      <c r="I35" t="s">
+        <v>200</v>
+      </c>
+      <c r="J35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" ht="24.0" customHeight="true">
+      <c r="C36" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" t="s">
+        <v>205</v>
+      </c>
+      <c r="G36" t="s">
+        <v>205</v>
+      </c>
+      <c r="H36" t="s">
+        <v>206</v>
+      </c>
+      <c r="I36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" ht="24.0" customHeight="true">
+      <c r="C37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" t="s">
+        <v>211</v>
+      </c>
+      <c r="G37" t="s">
+        <v>211</v>
+      </c>
+      <c r="H37" t="s">
+        <v>212</v>
+      </c>
+      <c r="I37" t="s">
+        <v>212</v>
+      </c>
+      <c r="J37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" ht="24.0" customHeight="true">
+      <c r="C38" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" t="s">
+        <v>216</v>
+      </c>
+      <c r="F38" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" t="s">
+        <v>217</v>
+      </c>
+      <c r="H38" t="s">
+        <v>218</v>
+      </c>
+      <c r="I38" t="s">
+        <v>218</v>
+      </c>
+      <c r="J38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" ht="24.0" customHeight="true">
+      <c r="C39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" t="s">
+        <v>221</v>
+      </c>
+      <c r="E39" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" t="s">
+        <v>223</v>
+      </c>
+      <c r="G39" t="s">
+        <v>223</v>
+      </c>
+      <c r="H39" t="s">
+        <v>224</v>
+      </c>
+      <c r="I39" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 F3:H4" errorStyle="warning">
+      <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="2" width="6.875" collapsed="false"/>
+    <col min="2" max="2" style="2" width="9.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="9.875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="11.125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="12.125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="2" width="13.375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="2" width="12.125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="2" width="15.875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="2" width="16.375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="2" width="13.0" collapsed="false"/>
+    <col min="11" max="12" style="2" width="9.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="2" width="13.625" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="2" width="8.125" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="2" width="9.625" collapsed="false"/>
+    <col min="16" max="16384" style="2" width="9.0" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:15">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" customFormat="1" ht="24" customHeight="1" spans="1:15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -1743,905 +2865,26 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" ht="24.0" customHeight="true">
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" ht="24.0" customHeight="true">
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" ht="24.0" customHeight="true">
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" ht="24.0" customHeight="true">
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" ht="24.0" customHeight="true">
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" ht="24.0" customHeight="true">
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" ht="24.0" customHeight="true">
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" ht="24.0" customHeight="true">
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" ht="24.0" customHeight="true">
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" ht="24.0" customHeight="true">
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" ht="24.0" customHeight="true">
-      <c r="C17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" ht="24.0" customHeight="true">
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" ht="24.0" customHeight="true">
-      <c r="C19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" ht="24.0" customHeight="true">
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" t="s">
-        <v>99</v>
-      </c>
-      <c r="J20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" ht="24.0" customHeight="true">
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" ht="24.0" customHeight="true">
-      <c r="C22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" t="s">
-        <v>108</v>
-      </c>
-      <c r="I22" t="s">
-        <v>108</v>
-      </c>
-      <c r="J22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" ht="24.0" customHeight="true">
-      <c r="C23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" ht="24.0" customHeight="true">
-      <c r="C24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" t="s">
-        <v>119</v>
-      </c>
-      <c r="J24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" ht="24.0" customHeight="true">
-      <c r="C25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" t="s">
-        <v>124</v>
-      </c>
-      <c r="I25" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" ht="24.0" customHeight="true">
-      <c r="C26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26" t="s">
-        <v>129</v>
-      </c>
-      <c r="I26" t="s">
-        <v>129</v>
-      </c>
-      <c r="J26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" ht="24.0" customHeight="true">
-      <c r="C27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" t="s">
-        <v>133</v>
-      </c>
-      <c r="H27" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" t="s">
-        <v>134</v>
-      </c>
-      <c r="J27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" ht="24.0" customHeight="true">
-      <c r="C28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" t="s">
-        <v>139</v>
-      </c>
-      <c r="I28" t="s">
-        <v>139</v>
-      </c>
-      <c r="J28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" ht="24.0" customHeight="true">
-      <c r="C29" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" t="s">
-        <v>145</v>
-      </c>
-      <c r="I29" t="s">
-        <v>145</v>
-      </c>
-      <c r="J29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" ht="24.0" customHeight="true">
-      <c r="C30" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" t="s">
-        <v>150</v>
-      </c>
-      <c r="I30" t="s">
-        <v>150</v>
-      </c>
-      <c r="J30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" ht="24.0" customHeight="true">
-      <c r="C31" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E31" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" t="s">
-        <v>154</v>
-      </c>
-      <c r="G31" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" t="s">
-        <v>155</v>
-      </c>
-      <c r="I31" t="s">
-        <v>155</v>
-      </c>
-      <c r="J31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" ht="24.0" customHeight="true">
-      <c r="C32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" t="s">
-        <v>158</v>
-      </c>
-      <c r="F32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G32" t="s">
-        <v>159</v>
-      </c>
-      <c r="H32" t="s">
-        <v>160</v>
-      </c>
-      <c r="I32" t="s">
-        <v>160</v>
-      </c>
-      <c r="J32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" ht="24.0" customHeight="true">
-      <c r="C33" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" t="s">
-        <v>163</v>
-      </c>
-      <c r="E33" t="s">
-        <v>164</v>
-      </c>
-      <c r="F33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G33" t="s">
-        <v>109</v>
-      </c>
-      <c r="H33" t="s">
-        <v>165</v>
-      </c>
-      <c r="I33" t="s">
-        <v>165</v>
-      </c>
-      <c r="J33" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" ht="24.0" customHeight="true">
-      <c r="C34" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" t="s">
-        <v>170</v>
-      </c>
-      <c r="H34" t="s">
-        <v>171</v>
-      </c>
-      <c r="I34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J34" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" ht="24.0" customHeight="true">
-      <c r="C35" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H35" t="s">
-        <v>176</v>
-      </c>
-      <c r="I35" t="s">
-        <v>176</v>
-      </c>
-      <c r="J35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" ht="24.0" customHeight="true">
-      <c r="C36" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" t="s">
-        <v>178</v>
-      </c>
-      <c r="E36" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" t="s">
-        <v>180</v>
-      </c>
-      <c r="G36" t="s">
-        <v>180</v>
-      </c>
-      <c r="H36" t="s">
-        <v>181</v>
-      </c>
-      <c r="I36" t="s">
-        <v>181</v>
-      </c>
-      <c r="J36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" ht="24.0" customHeight="true">
-      <c r="C37" t="s">
-        <v>182</v>
-      </c>
-      <c r="D37" t="s">
-        <v>183</v>
-      </c>
-      <c r="E37" t="s">
-        <v>184</v>
-      </c>
-      <c r="F37" t="s">
-        <v>185</v>
-      </c>
-      <c r="G37" t="s">
-        <v>185</v>
-      </c>
-      <c r="H37" t="s">
-        <v>186</v>
-      </c>
-      <c r="I37" t="s">
-        <v>186</v>
-      </c>
-      <c r="J37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" ht="24.0" customHeight="true">
-      <c r="C38" t="s">
-        <v>188</v>
-      </c>
-      <c r="D38" t="s">
-        <v>189</v>
-      </c>
-      <c r="E38" t="s">
-        <v>190</v>
-      </c>
-      <c r="F38" t="s">
-        <v>135</v>
-      </c>
-      <c r="G38" t="s">
-        <v>135</v>
-      </c>
-      <c r="H38" t="s">
-        <v>191</v>
-      </c>
-      <c r="I38" t="s">
-        <v>191</v>
-      </c>
-      <c r="J38" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" ht="24.0" customHeight="true">
-      <c r="C39" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" t="s">
-        <v>194</v>
-      </c>
-      <c r="E39" t="s">
-        <v>195</v>
-      </c>
-      <c r="F39" t="s">
-        <v>196</v>
-      </c>
-      <c r="G39" t="s">
-        <v>196</v>
-      </c>
-      <c r="H39" t="s">
-        <v>197</v>
-      </c>
-      <c r="I39" t="s">
-        <v>197</v>
-      </c>
-      <c r="J39" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="40" ht="24.0" customHeight="true">
-      <c r="C40" t="s">
-        <v>199</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+      <c r="J6">
         <v>200</v>
       </c>
-      <c r="E40" t="s">
-        <v>201</v>
-      </c>
-      <c r="F40" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" t="s">
-        <v>134</v>
-      </c>
-      <c r="H40" t="s">
-        <v>202</v>
-      </c>
-      <c r="I40" t="s">
-        <v>202</v>
-      </c>
-      <c r="J40" t="s">
-        <v>191</v>
-      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="258">
   <si>
     <t>ID</t>
   </si>
@@ -86,613 +86,709 @@
     <t>10001</t>
   </si>
   <si>
+    <t>鹿王</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>6300</t>
+  </si>
+  <si>
+    <t>1260</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
-    <t>鹿王</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>175000</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>10002</t>
+    <t>稻草人王</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>1360</t>
+  </si>
+  <si>
+    <t>40800</t>
+  </si>
+  <si>
+    <t>8160</t>
+  </si>
+  <si>
+    <t>10003</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>稻草人王</t>
-  </si>
-  <si>
-    <t>1350</t>
-  </si>
-  <si>
-    <t>450000</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>10003</t>
+    <t>钉耙猫王</t>
+  </si>
+  <si>
+    <t>1755</t>
+  </si>
+  <si>
+    <t>3510</t>
+  </si>
+  <si>
+    <t>105300</t>
+  </si>
+  <si>
+    <t>21060</t>
+  </si>
+  <si>
+    <t>10004</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>钉耙猫王</t>
-  </si>
-  <si>
-    <t>3300</t>
-  </si>
-  <si>
-    <t>1100000</t>
-  </si>
-  <si>
-    <t>220000</t>
-  </si>
-  <si>
-    <t>10004</t>
+    <t>多钩猫王</t>
+  </si>
+  <si>
+    <t>3330</t>
+  </si>
+  <si>
+    <t>6660</t>
+  </si>
+  <si>
+    <t>199800</t>
+  </si>
+  <si>
+    <t>39960</t>
+  </si>
+  <si>
+    <t>10005</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>多钩猫王</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>3000000</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>10005</t>
+    <t>食人花王</t>
+  </si>
+  <si>
+    <t>5405</t>
+  </si>
+  <si>
+    <t>10810</t>
+  </si>
+  <si>
+    <t>324300</t>
+  </si>
+  <si>
+    <t>64860</t>
+  </si>
+  <si>
+    <t>10006</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>食人花王</t>
-  </si>
-  <si>
-    <t>22500</t>
-  </si>
-  <si>
-    <t>7500000</t>
-  </si>
-  <si>
-    <t>1500000</t>
-  </si>
-  <si>
-    <t>10006</t>
+    <t>半兽统领</t>
+  </si>
+  <si>
+    <t>7980</t>
+  </si>
+  <si>
+    <t>15960</t>
+  </si>
+  <si>
+    <t>478800</t>
+  </si>
+  <si>
+    <t>95760</t>
+  </si>
+  <si>
+    <t>10007</t>
   </si>
   <si>
     <t>70</t>
   </si>
   <si>
-    <t>半兽统领</t>
-  </si>
-  <si>
-    <t>51000</t>
-  </si>
-  <si>
-    <t>17000000</t>
-  </si>
-  <si>
-    <t>3400000</t>
-  </si>
-  <si>
-    <t>10007</t>
+    <t>骷髅精灵</t>
+  </si>
+  <si>
+    <t>11055</t>
+  </si>
+  <si>
+    <t>22110</t>
+  </si>
+  <si>
+    <t>663300</t>
+  </si>
+  <si>
+    <t>132660</t>
+  </si>
+  <si>
+    <t>10008</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t>骷髅精灵</t>
-  </si>
-  <si>
-    <t>126000</t>
-  </si>
-  <si>
-    <t>42000000</t>
-  </si>
-  <si>
-    <t>8400000</t>
-  </si>
-  <si>
-    <t>10008</t>
+    <t>尸王</t>
+  </si>
+  <si>
+    <t>14630</t>
+  </si>
+  <si>
+    <t>29260</t>
+  </si>
+  <si>
+    <t>877800</t>
+  </si>
+  <si>
+    <t>175560</t>
+  </si>
+  <si>
+    <t>10009</t>
   </si>
   <si>
     <t>90</t>
   </si>
   <si>
-    <t>尸王</t>
-  </si>
-  <si>
-    <t>297000</t>
-  </si>
-  <si>
-    <t>99000000</t>
-  </si>
-  <si>
-    <t>19800000</t>
-  </si>
-  <si>
-    <t>10009</t>
+    <t>王蛇</t>
+  </si>
+  <si>
+    <t>18705</t>
+  </si>
+  <si>
+    <t>37410</t>
+  </si>
+  <si>
+    <t>1122300</t>
+  </si>
+  <si>
+    <t>224460</t>
+  </si>
+  <si>
+    <t>10010</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>王蛇</t>
-  </si>
-  <si>
-    <t>708000</t>
-  </si>
-  <si>
-    <t>236000000</t>
-  </si>
-  <si>
-    <t>47200000</t>
-  </si>
-  <si>
-    <t>10010</t>
+    <t>狼王</t>
+  </si>
+  <si>
+    <t>23280</t>
+  </si>
+  <si>
+    <t>46560</t>
+  </si>
+  <si>
+    <t>1396800</t>
+  </si>
+  <si>
+    <t>279360</t>
+  </si>
+  <si>
+    <t>10011</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
-    <t>狼王</t>
-  </si>
-  <si>
-    <t>1572000</t>
-  </si>
-  <si>
-    <t>524000000</t>
-  </si>
-  <si>
-    <t>104800000</t>
-  </si>
-  <si>
-    <t>10011</t>
+    <t>巨型沙虫</t>
+  </si>
+  <si>
+    <t>28355</t>
+  </si>
+  <si>
+    <t>56710</t>
+  </si>
+  <si>
+    <t>1701300</t>
+  </si>
+  <si>
+    <t>340260</t>
+  </si>
+  <si>
+    <t>10012</t>
   </si>
   <si>
     <t>120</t>
   </si>
   <si>
-    <t>巨型沙虫</t>
-  </si>
-  <si>
-    <t>3390000</t>
-  </si>
-  <si>
-    <t>1130000000</t>
-  </si>
-  <si>
-    <t>226000000</t>
-  </si>
-  <si>
-    <t>10012</t>
+    <t>鹰王</t>
+  </si>
+  <si>
+    <t>33930</t>
+  </si>
+  <si>
+    <t>67860</t>
+  </si>
+  <si>
+    <t>2035800</t>
+  </si>
+  <si>
+    <t>407160</t>
+  </si>
+  <si>
+    <t>10013</t>
   </si>
   <si>
     <t>130</t>
   </si>
   <si>
-    <t>鹰王</t>
-  </si>
-  <si>
-    <t>7320000</t>
-  </si>
-  <si>
-    <t>2440000000</t>
-  </si>
-  <si>
-    <t>488000000</t>
-  </si>
-  <si>
-    <t>10013</t>
+    <t>巨型多角虫</t>
+  </si>
+  <si>
+    <t>40005</t>
+  </si>
+  <si>
+    <t>80010</t>
+  </si>
+  <si>
+    <t>2400300</t>
+  </si>
+  <si>
+    <t>480060</t>
+  </si>
+  <si>
+    <t>10014</t>
   </si>
   <si>
     <t>140</t>
   </si>
   <si>
-    <t>巨型多角虫</t>
-  </si>
-  <si>
-    <t>15810000</t>
-  </si>
-  <si>
-    <t>5270000000</t>
-  </si>
-  <si>
-    <t>1054000000</t>
-  </si>
-  <si>
-    <t>10014</t>
+    <t>沃玛卫士</t>
+  </si>
+  <si>
+    <t>46580</t>
+  </si>
+  <si>
+    <t>93160</t>
+  </si>
+  <si>
+    <t>2794800</t>
+  </si>
+  <si>
+    <t>558960</t>
+  </si>
+  <si>
+    <t>10015</t>
   </si>
   <si>
     <t>150</t>
   </si>
   <si>
-    <t>沃玛卫士</t>
-  </si>
-  <si>
-    <t>34170000</t>
-  </si>
-  <si>
-    <t>11390000000</t>
-  </si>
-  <si>
-    <t>2278000000</t>
-  </si>
-  <si>
-    <t>10015</t>
+    <t>沃玛教主</t>
+  </si>
+  <si>
+    <t>53655</t>
+  </si>
+  <si>
+    <t>107310</t>
+  </si>
+  <si>
+    <t>3219300</t>
+  </si>
+  <si>
+    <t>643860</t>
+  </si>
+  <si>
+    <t>10016</t>
   </si>
   <si>
     <t>160</t>
   </si>
   <si>
-    <t>沃玛教主</t>
-  </si>
-  <si>
-    <t>69120000</t>
-  </si>
-  <si>
-    <t>23040000000</t>
-  </si>
-  <si>
-    <t>4608000000</t>
-  </si>
-  <si>
-    <t>10016</t>
+    <t>白野猪</t>
+  </si>
+  <si>
+    <t>61230</t>
+  </si>
+  <si>
+    <t>122460</t>
+  </si>
+  <si>
+    <t>3673800</t>
+  </si>
+  <si>
+    <t>734760</t>
+  </si>
+  <si>
+    <t>10017</t>
   </si>
   <si>
     <t>170</t>
   </si>
   <si>
-    <t>白野猪</t>
-  </si>
-  <si>
-    <t>135960000</t>
-  </si>
-  <si>
-    <t>45320000000</t>
-  </si>
-  <si>
-    <t>9064000000</t>
-  </si>
-  <si>
-    <t>10017</t>
+    <t>猪王</t>
+  </si>
+  <si>
+    <t>69305</t>
+  </si>
+  <si>
+    <t>138610</t>
+  </si>
+  <si>
+    <t>4158300</t>
+  </si>
+  <si>
+    <t>831660</t>
+  </si>
+  <si>
+    <t>10018</t>
   </si>
   <si>
     <t>180</t>
   </si>
   <si>
-    <t>猪王</t>
-  </si>
-  <si>
-    <t>267480000</t>
-  </si>
-  <si>
-    <t>89160000000</t>
-  </si>
-  <si>
-    <t>17832000000</t>
-  </si>
-  <si>
-    <t>10018</t>
+    <t>邪恶蝎蛇</t>
+  </si>
+  <si>
+    <t>77880</t>
+  </si>
+  <si>
+    <t>155760</t>
+  </si>
+  <si>
+    <t>4672800</t>
+  </si>
+  <si>
+    <t>934560</t>
+  </si>
+  <si>
+    <t>10019</t>
   </si>
   <si>
     <t>190</t>
   </si>
   <si>
-    <t>邪恶蝎蛇</t>
-  </si>
-  <si>
-    <t>526170000</t>
-  </si>
-  <si>
-    <t>175390000000</t>
-  </si>
-  <si>
-    <t>35078000000</t>
-  </si>
-  <si>
-    <t>10019</t>
+    <t>邪恶蜈蚣</t>
+  </si>
+  <si>
+    <t>86955</t>
+  </si>
+  <si>
+    <t>173910</t>
+  </si>
+  <si>
+    <t>5217300</t>
+  </si>
+  <si>
+    <t>1043460</t>
+  </si>
+  <si>
+    <t>10020</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t>邪恶蜈蚣</t>
-  </si>
-  <si>
-    <t>1035090000</t>
-  </si>
-  <si>
-    <t>345030000000</t>
-  </si>
-  <si>
-    <t>69006000000</t>
-  </si>
-  <si>
-    <t>10020</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>巨型钳虫</t>
   </si>
   <si>
-    <t>1906680000</t>
-  </si>
-  <si>
-    <t>635560000000</t>
-  </si>
-  <si>
-    <t>127112000000</t>
+    <t>96530</t>
+  </si>
+  <si>
+    <t>193060</t>
+  </si>
+  <si>
+    <t>5791800</t>
+  </si>
+  <si>
+    <t>1158360</t>
   </si>
   <si>
     <t>10021</t>
   </si>
   <si>
+    <t>触龙神</t>
+  </si>
+  <si>
+    <t>106605</t>
+  </si>
+  <si>
+    <t>213210</t>
+  </si>
+  <si>
+    <t>6396300</t>
+  </si>
+  <si>
+    <t>1279260</t>
+  </si>
+  <si>
+    <t>10022</t>
+  </si>
+  <si>
     <t>220</t>
   </si>
   <si>
-    <t>触龙神</t>
-  </si>
-  <si>
-    <t>3414570000</t>
-  </si>
-  <si>
-    <t>1138190000000</t>
-  </si>
-  <si>
-    <t>227638000000</t>
-  </si>
-  <si>
-    <t>10022</t>
+    <t>祖玛教主</t>
+  </si>
+  <si>
+    <t>117180</t>
+  </si>
+  <si>
+    <t>234360</t>
+  </si>
+  <si>
+    <t>7030800</t>
+  </si>
+  <si>
+    <t>1406160</t>
+  </si>
+  <si>
+    <t>10023</t>
   </si>
   <si>
     <t>230</t>
   </si>
   <si>
-    <t>祖玛教主</t>
-  </si>
-  <si>
-    <t>6114990000</t>
-  </si>
-  <si>
-    <t>2038330000000</t>
-  </si>
-  <si>
-    <t>407666000000</t>
-  </si>
-  <si>
-    <t>10023</t>
+    <t>祖玛侍卫</t>
+  </si>
+  <si>
+    <t>128255</t>
+  </si>
+  <si>
+    <t>256510</t>
+  </si>
+  <si>
+    <t>7695300</t>
+  </si>
+  <si>
+    <t>1539060</t>
+  </si>
+  <si>
+    <t>10024</t>
   </si>
   <si>
     <t>240</t>
   </si>
   <si>
-    <t>祖玛侍卫</t>
-  </si>
-  <si>
-    <t>10950990000</t>
-  </si>
-  <si>
-    <t>3650330000000</t>
-  </si>
-  <si>
-    <t>730066000000</t>
-  </si>
-  <si>
-    <t>10024</t>
+    <t>虹魔猪王</t>
+  </si>
+  <si>
+    <t>139830</t>
+  </si>
+  <si>
+    <t>279660</t>
+  </si>
+  <si>
+    <t>8389800</t>
+  </si>
+  <si>
+    <t>1677960</t>
+  </si>
+  <si>
+    <t>10025</t>
   </si>
   <si>
     <t>250</t>
   </si>
   <si>
-    <t>虹魔猪王</t>
-  </si>
-  <si>
-    <t>19611600000</t>
-  </si>
-  <si>
-    <t>6537200000000</t>
-  </si>
-  <si>
-    <t>1307440000000</t>
-  </si>
-  <si>
-    <t>10025</t>
+    <t>虹魔蝎卫</t>
+  </si>
+  <si>
+    <t>151905</t>
+  </si>
+  <si>
+    <t>303810</t>
+  </si>
+  <si>
+    <t>9114300</t>
+  </si>
+  <si>
+    <t>1822860</t>
+  </si>
+  <si>
+    <t>10026</t>
   </si>
   <si>
     <t>260</t>
   </si>
   <si>
-    <t>虹魔蝎卫</t>
-  </si>
-  <si>
-    <t>32866680000</t>
-  </si>
-  <si>
-    <t>10955560000000</t>
-  </si>
-  <si>
-    <t>2191112000000</t>
-  </si>
-  <si>
-    <t>10026</t>
+    <t>虹魔教主</t>
+  </si>
+  <si>
+    <t>164480</t>
+  </si>
+  <si>
+    <t>328960</t>
+  </si>
+  <si>
+    <t>9868800</t>
+  </si>
+  <si>
+    <t>1973760</t>
+  </si>
+  <si>
+    <t>10027</t>
   </si>
   <si>
     <t>270</t>
   </si>
   <si>
-    <t>虹魔教主</t>
-  </si>
-  <si>
-    <t>53536350000</t>
-  </si>
-  <si>
-    <t>17845450000000</t>
-  </si>
-  <si>
-    <t>3569090000000</t>
-  </si>
-  <si>
-    <t>10027</t>
+    <t>恶灵尸王</t>
+  </si>
+  <si>
+    <t>177555</t>
+  </si>
+  <si>
+    <t>355110</t>
+  </si>
+  <si>
+    <t>10653300</t>
+  </si>
+  <si>
+    <t>2130660</t>
+  </si>
+  <si>
+    <t>10028</t>
   </si>
   <si>
     <t>280</t>
   </si>
   <si>
-    <t>恶灵尸王</t>
-  </si>
-  <si>
-    <t>87205080000</t>
-  </si>
-  <si>
-    <t>29068360000000</t>
-  </si>
-  <si>
-    <t>5813672000000</t>
-  </si>
-  <si>
-    <t>10028</t>
+    <t>黄泉教主</t>
+  </si>
+  <si>
+    <t>191130</t>
+  </si>
+  <si>
+    <t>382260</t>
+  </si>
+  <si>
+    <t>11467800</t>
+  </si>
+  <si>
+    <t>2293560</t>
+  </si>
+  <si>
+    <t>10029</t>
   </si>
   <si>
     <t>290</t>
   </si>
   <si>
-    <t>黄泉教主</t>
-  </si>
-  <si>
-    <t>142047900000</t>
-  </si>
-  <si>
-    <t>47349300000000</t>
-  </si>
-  <si>
-    <t>9469860000000</t>
-  </si>
-  <si>
-    <t>10029</t>
+    <t>牛魔王</t>
+  </si>
+  <si>
+    <t>205205</t>
+  </si>
+  <si>
+    <t>410410</t>
+  </si>
+  <si>
+    <t>12312300</t>
+  </si>
+  <si>
+    <t>2462460</t>
+  </si>
+  <si>
+    <t>10030</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
-    <t>牛魔王</t>
-  </si>
-  <si>
-    <t>231381060000</t>
-  </si>
-  <si>
-    <t>77127020000000</t>
-  </si>
-  <si>
-    <t>15425404000000</t>
-  </si>
-  <si>
-    <t>10030</t>
+    <t>双头金刚</t>
+  </si>
+  <si>
+    <t>219780</t>
+  </si>
+  <si>
+    <t>439560</t>
+  </si>
+  <si>
+    <t>13186800</t>
+  </si>
+  <si>
+    <t>2637360</t>
+  </si>
+  <si>
+    <t>10031</t>
   </si>
   <si>
     <t>310</t>
   </si>
   <si>
-    <t>双头金刚</t>
-  </si>
-  <si>
-    <t>352475640000</t>
-  </si>
-  <si>
-    <t>117491880000000</t>
-  </si>
-  <si>
-    <t>23498376000000</t>
-  </si>
-  <si>
-    <t>10031</t>
+    <t>双头巨人</t>
+  </si>
+  <si>
+    <t>234855</t>
+  </si>
+  <si>
+    <t>469710</t>
+  </si>
+  <si>
+    <t>14091300</t>
+  </si>
+  <si>
+    <t>2818260</t>
+  </si>
+  <si>
+    <t>10032</t>
   </si>
   <si>
     <t>320</t>
   </si>
   <si>
-    <t>双头巨人</t>
-  </si>
-  <si>
-    <t>521750070000</t>
-  </si>
-  <si>
-    <t>173916690000000</t>
-  </si>
-  <si>
-    <t>34783338000000</t>
-  </si>
-  <si>
-    <t>10032</t>
+    <t>赤月恶魔</t>
+  </si>
+  <si>
+    <t>250430</t>
+  </si>
+  <si>
+    <t>500860</t>
+  </si>
+  <si>
+    <t>15025800</t>
+  </si>
+  <si>
+    <t>3005160</t>
+  </si>
+  <si>
+    <t>10033</t>
   </si>
   <si>
     <t>330</t>
   </si>
   <si>
-    <t>赤月恶魔</t>
-  </si>
-  <si>
-    <t>772317540000</t>
-  </si>
-  <si>
-    <t>257439180000000</t>
-  </si>
-  <si>
-    <t>51487836000000</t>
-  </si>
-  <si>
-    <t>10033</t>
+    <t>魔龙教主</t>
+  </si>
+  <si>
+    <t>266505</t>
+  </si>
+  <si>
+    <t>533010</t>
+  </si>
+  <si>
+    <t>15990300</t>
+  </si>
+  <si>
+    <t>3198060</t>
+  </si>
+  <si>
+    <t>10034</t>
   </si>
   <si>
     <t>340</t>
   </si>
   <si>
-    <t>魔龙教主</t>
-  </si>
-  <si>
-    <t>1143218640000</t>
-  </si>
-  <si>
-    <t>381072880000000</t>
-  </si>
-  <si>
-    <t>76214576000000</t>
-  </si>
-  <si>
-    <t>10034</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
     <t>火龙神</t>
   </si>
   <si>
-    <t>1692242850000</t>
-  </si>
-  <si>
-    <t>564080950000000</t>
-  </si>
-  <si>
-    <t>112816190000000</t>
+    <t>283080</t>
+  </si>
+  <si>
+    <t>566160</t>
+  </si>
+  <si>
+    <t>16984800</t>
+  </si>
+  <si>
+    <t>3396960</t>
   </si>
 </sst>
 </file>
@@ -1808,13 +1904,13 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -1843,848 +1939,848 @@
         <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="J17" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="J19" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="I20" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="J20" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="I21" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="G22" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="I22" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="J22" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="J23" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="G24" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I24" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="J24" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G25" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="J25" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F26" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="I26" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="J26" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="F27" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="G27" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="H27" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I27" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="J27" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="E28" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="F28" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="G28" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="H28" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="I28" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="J28" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F29" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G29" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="H29" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="I29" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="J29" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E30" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="F30" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="G30" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="H30" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="I30" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="J30" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="D31" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="E31" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F31" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G31" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="H31" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="I31" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="J31" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="E32" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="F32" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="H32" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="I32" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="J32" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="F33" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="G33" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="H33" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="I33" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="J33" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="D34" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="E34" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="F34" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="G34" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="H34" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="I34" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="J34" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="E35" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="F35" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="G35" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="H35" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="I35" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="J35" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="D36" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="E36" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="F36" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="G36" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="H36" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="I36" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="J36" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="D37" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="E37" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="F37" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="G37" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="H37" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="I37" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="J37" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="E38" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="F38" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="G38" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="H38" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="I38" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="J38" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="D39" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="E39" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="F39" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="G39" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="H39" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="I39" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="J39" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -14,8 +14,72 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+掉落ID：几率（万分比）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+掉落ID：几率（万分比）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="275">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +105,12 @@
     <t>掉落金币</t>
   </si>
   <si>
+    <t>地图Id掉落</t>
+  </si>
+  <si>
+    <t>掉落概率列表</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -65,6 +135,12 @@
     <t>Gold</t>
   </si>
   <si>
+    <t>DropIdList</t>
+  </si>
+  <si>
+    <t>DropRateList</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -74,6 +150,9 @@
     <t>long</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>10000</t>
   </si>
   <si>
@@ -101,6 +180,12 @@
     <t>1260</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>10002</t>
   </si>
   <si>
@@ -122,12 +207,12 @@
     <t>8160</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>10003</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>钉耙猫王</t>
   </si>
   <si>
@@ -143,6 +228,9 @@
     <t>21060</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>10004</t>
   </si>
   <si>
@@ -164,6 +252,9 @@
     <t>39960</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>10005</t>
   </si>
   <si>
@@ -185,6 +276,9 @@
     <t>64860</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>10006</t>
   </si>
   <si>
@@ -206,6 +300,9 @@
     <t>95760</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>10007</t>
   </si>
   <si>
@@ -227,6 +324,9 @@
     <t>132660</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>10008</t>
   </si>
   <si>
@@ -269,6 +369,9 @@
     <t>224460</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>10010</t>
   </si>
   <si>
@@ -290,6 +393,9 @@
     <t>279360</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>10011</t>
   </si>
   <si>
@@ -311,6 +417,9 @@
     <t>340260</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>10012</t>
   </si>
   <si>
@@ -332,6 +441,9 @@
     <t>407160</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>10013</t>
   </si>
   <si>
@@ -393,6 +505,9 @@
   </si>
   <si>
     <t>643860</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>10016</t>
@@ -801,7 +916,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,6 +1080,17 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1421,13 +1547,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1750,7 +1877,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1765,7 +1892,8 @@
     <col min="8" max="8" customWidth="true" style="2" width="15.875" collapsed="false"/>
     <col min="9" max="9" customWidth="true" style="2" width="16.375" collapsed="false"/>
     <col min="10" max="10" customWidth="true" style="2" width="13.0" collapsed="false"/>
-    <col min="11" max="12" style="2" width="9.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="1" width="28.75" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="1" width="30.125" collapsed="false"/>
     <col min="13" max="13" customWidth="true" style="2" width="13.625" collapsed="false"/>
     <col min="14" max="14" customWidth="true" style="2" width="8.125" collapsed="false"/>
     <col min="15" max="15" customWidth="true" style="2" width="9.625" collapsed="false"/>
@@ -1780,8 +1908,6 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -1794,8 +1920,6 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1827,8 +1951,12 @@
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1837,31 +1965,35 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1870,917 +2002,1125 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" customFormat="1">
+    <row r="6" customFormat="1" spans="11:12">
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" ht="24.0" customHeight="true">
       <c r="C7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
         <v>33</v>
       </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
+      <c r="L7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>80</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>88</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>103</v>
+      </c>
+      <c r="K15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="I16" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="J16" t="s">
-        <v>97</v>
+        <v>111</v>
+      </c>
+      <c r="K16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="I17" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>119</v>
+      </c>
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="I18" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="J18" t="s">
-        <v>111</v>
+        <v>127</v>
+      </c>
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="J19" t="s">
-        <v>118</v>
+        <v>134</v>
+      </c>
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="H20" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I20" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="J20" t="s">
-        <v>125</v>
+        <v>141</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="I21" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>149</v>
+      </c>
+      <c r="K21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="H22" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="I22" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="J22" t="s">
-        <v>139</v>
+        <v>156</v>
+      </c>
+      <c r="K22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="E23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" t="s">
         <v>142</v>
-      </c>
-      <c r="F23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" t="s">
-        <v>145</v>
-      </c>
-      <c r="I23" t="s">
-        <v>145</v>
-      </c>
-      <c r="J23" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="F24" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="H24" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="I24" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J24" t="s">
-        <v>153</v>
+        <v>170</v>
+      </c>
+      <c r="K24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="G25" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="H25" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="I25" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="J25" t="s">
-        <v>160</v>
+        <v>177</v>
+      </c>
+      <c r="K25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G26" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="I26" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J26" t="s">
-        <v>166</v>
+        <v>183</v>
+      </c>
+      <c r="K26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G27" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="H27" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="I27" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="J27" t="s">
-        <v>173</v>
+        <v>190</v>
+      </c>
+      <c r="K27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D28" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="E28" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="F28" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="G28" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="H28" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="I28" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="J28" t="s">
-        <v>180</v>
+        <v>197</v>
+      </c>
+      <c r="K28" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="E29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F29" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G29" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H29" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="I29" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="J29" t="s">
-        <v>187</v>
+        <v>204</v>
+      </c>
+      <c r="K29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="E30" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="F30" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G30" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H30" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="I30" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="J30" t="s">
-        <v>194</v>
+        <v>211</v>
+      </c>
+      <c r="K30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E31" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F31" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G31" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="H31" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="I31" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="J31" t="s">
-        <v>201</v>
+        <v>218</v>
+      </c>
+      <c r="K31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="D32" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="E32" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="F32" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G32" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="H32" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="I32" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="J32" t="s">
-        <v>208</v>
+        <v>225</v>
+      </c>
+      <c r="K32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D33" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="E33" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F33" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G33" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="H33" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="I33" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="J33" t="s">
-        <v>215</v>
+        <v>232</v>
+      </c>
+      <c r="K33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D34" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="E34" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="F34" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="G34" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="H34" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="I34" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="J34" t="s">
-        <v>222</v>
+        <v>239</v>
+      </c>
+      <c r="K34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D35" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="E35" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F35" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="G35" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="H35" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="I35" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="J35" t="s">
-        <v>229</v>
+        <v>246</v>
+      </c>
+      <c r="K35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="E36" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F36" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="H36" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="I36" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="J36" t="s">
-        <v>236</v>
+        <v>253</v>
+      </c>
+      <c r="K36" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="D37" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="E37" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F37" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G37" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="H37" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="I37" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="J37" t="s">
-        <v>243</v>
+        <v>260</v>
+      </c>
+      <c r="K37" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="E38" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="F38" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="G38" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="H38" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="I38" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="J38" t="s">
-        <v>250</v>
+        <v>267</v>
+      </c>
+      <c r="K38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="D39" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="E39" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="F39" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="G39" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="H39" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="I39" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="J39" t="s">
-        <v>257</v>
+        <v>274</v>
+      </c>
+      <c r="K39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2791,6 +3131,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2800,7 +3141,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -2815,7 +3156,8 @@
     <col min="8" max="8" customWidth="true" style="2" width="15.875" collapsed="false"/>
     <col min="9" max="9" customWidth="true" style="2" width="16.375" collapsed="false"/>
     <col min="10" max="10" customWidth="true" style="2" width="13.0" collapsed="false"/>
-    <col min="11" max="12" style="2" width="9.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="1" width="26.0" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="1" width="30.125" collapsed="false"/>
     <col min="13" max="13" customWidth="true" style="2" width="13.625" collapsed="false"/>
     <col min="14" max="14" customWidth="true" style="2" width="8.125" collapsed="false"/>
     <col min="15" max="15" customWidth="true" style="2" width="9.625" collapsed="false"/>
@@ -2830,8 +3172,6 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -2844,8 +3184,6 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2877,8 +3215,12 @@
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2887,31 +3229,35 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2920,31 +3266,35 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2953,13 +3303,13 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -2976,8 +3326,12 @@
       <c r="J6">
         <v>200</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="K6" s="1">
+        <v>102</v>
+      </c>
+      <c r="L6" s="1">
+        <v>90</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -2990,5 +3344,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -79,12 +79,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="284">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>等级</t>
+    <t>所属地图</t>
   </si>
   <si>
     <t>名称</t>
@@ -114,7 +114,7 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Level</t>
+    <t>MapId</t>
   </si>
   <si>
     <t>Name</t>
@@ -156,217 +156,241 @@
     <t>10000</t>
   </si>
   <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>鸡王</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>55000</t>
+  </si>
+  <si>
+    <t>5500</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>鹿王</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>210000</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>稻草人王</t>
+  </si>
+  <si>
+    <t>4650</t>
+  </si>
+  <si>
+    <t>2325</t>
+  </si>
+  <si>
+    <t>465000</t>
+  </si>
+  <si>
+    <t>46500</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>钉耙猫王</t>
+  </si>
+  <si>
+    <t>8200</t>
+  </si>
+  <si>
+    <t>4100</t>
+  </si>
+  <si>
+    <t>820000</t>
+  </si>
+  <si>
+    <t>82000</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>食人花王</t>
+  </si>
+  <si>
+    <t>12750</t>
+  </si>
+  <si>
+    <t>6375</t>
+  </si>
+  <si>
+    <t>1275000</t>
+  </si>
+  <si>
+    <t>127500</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>巨型蝙蝠</t>
+  </si>
+  <si>
+    <t>18300</t>
+  </si>
+  <si>
+    <t>9150</t>
+  </si>
+  <si>
+    <t>1830000</t>
+  </si>
+  <si>
+    <t>183000</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>骷髅精灵</t>
+  </si>
+  <si>
+    <t>24850</t>
+  </si>
+  <si>
+    <t>12425</t>
+  </si>
+  <si>
+    <t>2485000</t>
+  </si>
+  <si>
+    <t>248500</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10007</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>骷髅王</t>
+  </si>
+  <si>
+    <t>32400</t>
+  </si>
+  <si>
+    <t>16200</t>
+  </si>
+  <si>
+    <t>3240000</t>
+  </si>
+  <si>
+    <t>324000</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10008</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>尸王</t>
+  </si>
+  <si>
+    <t>40950</t>
+  </si>
+  <si>
+    <t>20475</t>
+  </si>
+  <si>
+    <t>4095000</t>
+  </si>
+  <si>
+    <t>409500</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>鸡王</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>鹿王</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>6300</t>
-  </si>
-  <si>
-    <t>1260</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>10002</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>稻草人王</t>
-  </si>
-  <si>
-    <t>680</t>
-  </si>
-  <si>
-    <t>1360</t>
-  </si>
-  <si>
-    <t>40800</t>
-  </si>
-  <si>
-    <t>8160</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>10003</t>
-  </si>
-  <si>
-    <t>钉耙猫王</t>
-  </si>
-  <si>
-    <t>1755</t>
-  </si>
-  <si>
-    <t>3510</t>
-  </si>
-  <si>
-    <t>105300</t>
-  </si>
-  <si>
-    <t>21060</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>10004</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>多钩猫王</t>
-  </si>
-  <si>
-    <t>3330</t>
-  </si>
-  <si>
-    <t>6660</t>
-  </si>
-  <si>
-    <t>199800</t>
-  </si>
-  <si>
-    <t>39960</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>10005</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>食人花王</t>
-  </si>
-  <si>
-    <t>5405</t>
-  </si>
-  <si>
-    <t>10810</t>
-  </si>
-  <si>
-    <t>324300</t>
-  </si>
-  <si>
-    <t>64860</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>10006</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>半兽统领</t>
-  </si>
-  <si>
-    <t>7980</t>
-  </si>
-  <si>
-    <t>15960</t>
-  </si>
-  <si>
-    <t>478800</t>
-  </si>
-  <si>
-    <t>95760</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>10007</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>骷髅精灵</t>
-  </si>
-  <si>
-    <t>11055</t>
-  </si>
-  <si>
-    <t>22110</t>
-  </si>
-  <si>
-    <t>663300</t>
-  </si>
-  <si>
-    <t>132660</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10008</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>尸王</t>
-  </si>
-  <si>
-    <t>14630</t>
-  </si>
-  <si>
-    <t>29260</t>
-  </si>
-  <si>
-    <t>877800</t>
-  </si>
-  <si>
-    <t>175560</t>
-  </si>
-  <si>
     <t>10009</t>
   </si>
   <si>
-    <t>90</t>
+    <t>1009</t>
   </si>
   <si>
     <t>王蛇</t>
   </si>
   <si>
-    <t>18705</t>
-  </si>
-  <si>
-    <t>37410</t>
-  </si>
-  <si>
-    <t>1122300</t>
-  </si>
-  <si>
-    <t>224460</t>
+    <t>50500</t>
+  </si>
+  <si>
+    <t>25250</t>
+  </si>
+  <si>
+    <t>5050000</t>
+  </si>
+  <si>
+    <t>505000</t>
   </si>
   <si>
     <t>9</t>
@@ -375,22 +399,22 @@
     <t>10010</t>
   </si>
   <si>
-    <t>100</t>
+    <t>1010</t>
   </si>
   <si>
     <t>狼王</t>
   </si>
   <si>
-    <t>23280</t>
-  </si>
-  <si>
-    <t>46560</t>
-  </si>
-  <si>
-    <t>1396800</t>
-  </si>
-  <si>
-    <t>279360</t>
+    <t>61050</t>
+  </si>
+  <si>
+    <t>30525</t>
+  </si>
+  <si>
+    <t>6105000</t>
+  </si>
+  <si>
+    <t>610500</t>
   </si>
   <si>
     <t>8</t>
@@ -399,22 +423,22 @@
     <t>10011</t>
   </si>
   <si>
-    <t>110</t>
+    <t>1011</t>
   </si>
   <si>
     <t>巨型沙虫</t>
   </si>
   <si>
-    <t>28355</t>
-  </si>
-  <si>
-    <t>56710</t>
-  </si>
-  <si>
-    <t>1701300</t>
-  </si>
-  <si>
-    <t>340260</t>
+    <t>72600</t>
+  </si>
+  <si>
+    <t>36300</t>
+  </si>
+  <si>
+    <t>7260000</t>
+  </si>
+  <si>
+    <t>726000</t>
   </si>
   <si>
     <t>7</t>
@@ -423,22 +447,22 @@
     <t>10012</t>
   </si>
   <si>
-    <t>120</t>
+    <t>1012</t>
   </si>
   <si>
     <t>鹰王</t>
   </si>
   <si>
-    <t>33930</t>
-  </si>
-  <si>
-    <t>67860</t>
-  </si>
-  <si>
-    <t>2035800</t>
-  </si>
-  <si>
-    <t>407160</t>
+    <t>85150</t>
+  </si>
+  <si>
+    <t>42575</t>
+  </si>
+  <si>
+    <t>8515000</t>
+  </si>
+  <si>
+    <t>851500</t>
   </si>
   <si>
     <t>6</t>
@@ -447,64 +471,64 @@
     <t>10013</t>
   </si>
   <si>
-    <t>130</t>
+    <t>1013</t>
   </si>
   <si>
     <t>巨型多角虫</t>
   </si>
   <si>
-    <t>40005</t>
-  </si>
-  <si>
-    <t>80010</t>
-  </si>
-  <si>
-    <t>2400300</t>
-  </si>
-  <si>
-    <t>480060</t>
+    <t>98700</t>
+  </si>
+  <si>
+    <t>49350</t>
+  </si>
+  <si>
+    <t>9870000</t>
+  </si>
+  <si>
+    <t>987000</t>
   </si>
   <si>
     <t>10014</t>
   </si>
   <si>
-    <t>140</t>
+    <t>1014</t>
   </si>
   <si>
     <t>沃玛卫士</t>
   </si>
   <si>
-    <t>46580</t>
-  </si>
-  <si>
-    <t>93160</t>
-  </si>
-  <si>
-    <t>2794800</t>
-  </si>
-  <si>
-    <t>558960</t>
+    <t>113250</t>
+  </si>
+  <si>
+    <t>56625</t>
+  </si>
+  <si>
+    <t>11325000</t>
+  </si>
+  <si>
+    <t>1132500</t>
   </si>
   <si>
     <t>10015</t>
   </si>
   <si>
-    <t>150</t>
+    <t>1015</t>
   </si>
   <si>
     <t>沃玛教主</t>
   </si>
   <si>
-    <t>53655</t>
-  </si>
-  <si>
-    <t>107310</t>
-  </si>
-  <si>
-    <t>3219300</t>
-  </si>
-  <si>
-    <t>643860</t>
+    <t>128800</t>
+  </si>
+  <si>
+    <t>64400</t>
+  </si>
+  <si>
+    <t>12880000</t>
+  </si>
+  <si>
+    <t>1288000</t>
   </si>
   <si>
     <t>5</t>
@@ -513,403 +537,406 @@
     <t>10016</t>
   </si>
   <si>
-    <t>160</t>
+    <t>1016</t>
   </si>
   <si>
     <t>白野猪</t>
   </si>
   <si>
-    <t>61230</t>
-  </si>
-  <si>
-    <t>122460</t>
-  </si>
-  <si>
-    <t>3673800</t>
-  </si>
-  <si>
-    <t>734760</t>
+    <t>145350</t>
+  </si>
+  <si>
+    <t>72675</t>
+  </si>
+  <si>
+    <t>14535000</t>
+  </si>
+  <si>
+    <t>1453500</t>
   </si>
   <si>
     <t>10017</t>
   </si>
   <si>
-    <t>170</t>
+    <t>1017</t>
   </si>
   <si>
     <t>猪王</t>
   </si>
   <si>
-    <t>69305</t>
-  </si>
-  <si>
-    <t>138610</t>
-  </si>
-  <si>
-    <t>4158300</t>
-  </si>
-  <si>
-    <t>831660</t>
+    <t>162900</t>
+  </si>
+  <si>
+    <t>81450</t>
+  </si>
+  <si>
+    <t>16290000</t>
+  </si>
+  <si>
+    <t>1629000</t>
   </si>
   <si>
     <t>10018</t>
   </si>
   <si>
-    <t>180</t>
+    <t>1018</t>
   </si>
   <si>
     <t>邪恶蝎蛇</t>
   </si>
   <si>
-    <t>77880</t>
-  </si>
-  <si>
-    <t>155760</t>
-  </si>
-  <si>
-    <t>4672800</t>
-  </si>
-  <si>
-    <t>934560</t>
+    <t>181450</t>
+  </si>
+  <si>
+    <t>90725</t>
+  </si>
+  <si>
+    <t>18145000</t>
+  </si>
+  <si>
+    <t>1814500</t>
   </si>
   <si>
     <t>10019</t>
   </si>
   <si>
-    <t>190</t>
+    <t>1019</t>
   </si>
   <si>
     <t>邪恶蜈蚣</t>
   </si>
   <si>
-    <t>86955</t>
-  </si>
-  <si>
-    <t>173910</t>
-  </si>
-  <si>
-    <t>5217300</t>
-  </si>
-  <si>
-    <t>1043460</t>
+    <t>201000</t>
+  </si>
+  <si>
+    <t>100500</t>
+  </si>
+  <si>
+    <t>20100000</t>
+  </si>
+  <si>
+    <t>2010000</t>
   </si>
   <si>
     <t>10020</t>
   </si>
   <si>
-    <t>200</t>
+    <t>1020</t>
   </si>
   <si>
     <t>巨型钳虫</t>
   </si>
   <si>
-    <t>96530</t>
-  </si>
-  <si>
-    <t>193060</t>
-  </si>
-  <si>
-    <t>5791800</t>
-  </si>
-  <si>
-    <t>1158360</t>
+    <t>221550</t>
+  </si>
+  <si>
+    <t>110775</t>
+  </si>
+  <si>
+    <t>22155000</t>
+  </si>
+  <si>
+    <t>2215500</t>
   </si>
   <si>
     <t>10021</t>
   </si>
   <si>
+    <t>1021</t>
+  </si>
+  <si>
     <t>触龙神</t>
   </si>
   <si>
-    <t>106605</t>
-  </si>
-  <si>
-    <t>213210</t>
-  </si>
-  <si>
-    <t>6396300</t>
-  </si>
-  <si>
-    <t>1279260</t>
+    <t>243100</t>
+  </si>
+  <si>
+    <t>121550</t>
+  </si>
+  <si>
+    <t>24310000</t>
+  </si>
+  <si>
+    <t>2431000</t>
   </si>
   <si>
     <t>10022</t>
   </si>
   <si>
-    <t>220</t>
+    <t>1022</t>
   </si>
   <si>
     <t>祖玛教主</t>
   </si>
   <si>
-    <t>117180</t>
-  </si>
-  <si>
-    <t>234360</t>
-  </si>
-  <si>
-    <t>7030800</t>
-  </si>
-  <si>
-    <t>1406160</t>
+    <t>265650</t>
+  </si>
+  <si>
+    <t>132825</t>
+  </si>
+  <si>
+    <t>26565000</t>
+  </si>
+  <si>
+    <t>2656500</t>
   </si>
   <si>
     <t>10023</t>
   </si>
   <si>
-    <t>230</t>
+    <t>1023</t>
   </si>
   <si>
     <t>祖玛侍卫</t>
   </si>
   <si>
-    <t>128255</t>
-  </si>
-  <si>
-    <t>256510</t>
-  </si>
-  <si>
-    <t>7695300</t>
-  </si>
-  <si>
-    <t>1539060</t>
+    <t>289200</t>
+  </si>
+  <si>
+    <t>144600</t>
+  </si>
+  <si>
+    <t>28920000</t>
+  </si>
+  <si>
+    <t>2892000</t>
   </si>
   <si>
     <t>10024</t>
   </si>
   <si>
-    <t>240</t>
+    <t>1024</t>
   </si>
   <si>
     <t>虹魔猪王</t>
   </si>
   <si>
-    <t>139830</t>
-  </si>
-  <si>
-    <t>279660</t>
-  </si>
-  <si>
-    <t>8389800</t>
-  </si>
-  <si>
-    <t>1677960</t>
+    <t>313750</t>
+  </si>
+  <si>
+    <t>156875</t>
+  </si>
+  <si>
+    <t>31375000</t>
+  </si>
+  <si>
+    <t>3137500</t>
   </si>
   <si>
     <t>10025</t>
   </si>
   <si>
-    <t>250</t>
+    <t>1025</t>
   </si>
   <si>
     <t>虹魔蝎卫</t>
   </si>
   <si>
-    <t>151905</t>
-  </si>
-  <si>
-    <t>303810</t>
-  </si>
-  <si>
-    <t>9114300</t>
-  </si>
-  <si>
-    <t>1822860</t>
+    <t>339300</t>
+  </si>
+  <si>
+    <t>169650</t>
+  </si>
+  <si>
+    <t>33930000</t>
+  </si>
+  <si>
+    <t>3393000</t>
   </si>
   <si>
     <t>10026</t>
   </si>
   <si>
-    <t>260</t>
+    <t>1026</t>
   </si>
   <si>
     <t>虹魔教主</t>
   </si>
   <si>
-    <t>164480</t>
-  </si>
-  <si>
-    <t>328960</t>
-  </si>
-  <si>
-    <t>9868800</t>
-  </si>
-  <si>
-    <t>1973760</t>
+    <t>365850</t>
+  </si>
+  <si>
+    <t>182925</t>
+  </si>
+  <si>
+    <t>36585000</t>
+  </si>
+  <si>
+    <t>3658500</t>
   </si>
   <si>
     <t>10027</t>
   </si>
   <si>
-    <t>270</t>
+    <t>1027</t>
   </si>
   <si>
     <t>恶灵尸王</t>
   </si>
   <si>
-    <t>177555</t>
-  </si>
-  <si>
-    <t>355110</t>
-  </si>
-  <si>
-    <t>10653300</t>
-  </si>
-  <si>
-    <t>2130660</t>
+    <t>393400</t>
+  </si>
+  <si>
+    <t>196700</t>
+  </si>
+  <si>
+    <t>39340000</t>
+  </si>
+  <si>
+    <t>3934000</t>
   </si>
   <si>
     <t>10028</t>
   </si>
   <si>
-    <t>280</t>
+    <t>1028</t>
   </si>
   <si>
     <t>黄泉教主</t>
   </si>
   <si>
-    <t>191130</t>
-  </si>
-  <si>
-    <t>382260</t>
-  </si>
-  <si>
-    <t>11467800</t>
-  </si>
-  <si>
-    <t>2293560</t>
+    <t>421950</t>
+  </si>
+  <si>
+    <t>210975</t>
+  </si>
+  <si>
+    <t>42195000</t>
+  </si>
+  <si>
+    <t>4219500</t>
   </si>
   <si>
     <t>10029</t>
   </si>
   <si>
-    <t>290</t>
+    <t>1029</t>
   </si>
   <si>
     <t>牛魔王</t>
   </si>
   <si>
-    <t>205205</t>
-  </si>
-  <si>
-    <t>410410</t>
-  </si>
-  <si>
-    <t>12312300</t>
-  </si>
-  <si>
-    <t>2462460</t>
+    <t>451500</t>
+  </si>
+  <si>
+    <t>225750</t>
+  </si>
+  <si>
+    <t>45150000</t>
+  </si>
+  <si>
+    <t>4515000</t>
   </si>
   <si>
     <t>10030</t>
   </si>
   <si>
-    <t>300</t>
+    <t>1030</t>
   </si>
   <si>
     <t>双头金刚</t>
   </si>
   <si>
-    <t>219780</t>
-  </si>
-  <si>
-    <t>439560</t>
-  </si>
-  <si>
-    <t>13186800</t>
-  </si>
-  <si>
-    <t>2637360</t>
+    <t>482050</t>
+  </si>
+  <si>
+    <t>241025</t>
+  </si>
+  <si>
+    <t>48205000</t>
+  </si>
+  <si>
+    <t>4820500</t>
   </si>
   <si>
     <t>10031</t>
   </si>
   <si>
-    <t>310</t>
+    <t>1031</t>
   </si>
   <si>
     <t>双头巨人</t>
   </si>
   <si>
-    <t>234855</t>
-  </si>
-  <si>
-    <t>469710</t>
-  </si>
-  <si>
-    <t>14091300</t>
-  </si>
-  <si>
-    <t>2818260</t>
+    <t>513600</t>
+  </si>
+  <si>
+    <t>256800</t>
+  </si>
+  <si>
+    <t>51360000</t>
+  </si>
+  <si>
+    <t>5136000</t>
   </si>
   <si>
     <t>10032</t>
   </si>
   <si>
-    <t>320</t>
+    <t>1032</t>
   </si>
   <si>
     <t>赤月恶魔</t>
   </si>
   <si>
-    <t>250430</t>
-  </si>
-  <si>
-    <t>500860</t>
-  </si>
-  <si>
-    <t>15025800</t>
-  </si>
-  <si>
-    <t>3005160</t>
+    <t>546150</t>
+  </si>
+  <si>
+    <t>273075</t>
+  </si>
+  <si>
+    <t>54615000</t>
+  </si>
+  <si>
+    <t>5461500</t>
   </si>
   <si>
     <t>10033</t>
   </si>
   <si>
-    <t>330</t>
+    <t>1033</t>
   </si>
   <si>
     <t>魔龙教主</t>
   </si>
   <si>
-    <t>266505</t>
-  </si>
-  <si>
-    <t>533010</t>
-  </si>
-  <si>
-    <t>15990300</t>
-  </si>
-  <si>
-    <t>3198060</t>
+    <t>579700</t>
+  </si>
+  <si>
+    <t>289850</t>
+  </si>
+  <si>
+    <t>57970000</t>
+  </si>
+  <si>
+    <t>5797000</t>
   </si>
   <si>
     <t>10034</t>
   </si>
   <si>
-    <t>340</t>
+    <t>1034</t>
   </si>
   <si>
     <t>火龙神</t>
   </si>
   <si>
-    <t>283080</t>
-  </si>
-  <si>
-    <t>566160</t>
-  </si>
-  <si>
-    <t>16984800</t>
-  </si>
-  <si>
-    <t>3396960</t>
+    <t>614250</t>
+  </si>
+  <si>
+    <t>307125</t>
+  </si>
+  <si>
+    <t>61425000</t>
+  </si>
+  <si>
+    <t>6142500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -938,34 +965,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -979,14 +978,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1026,6 +1017,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1076,7 +1082,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,55 +1135,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,31 +1159,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,6 +1195,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1234,7 +1219,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,7 +1267,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,6 +1303,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1299,21 +1326,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1346,6 +1358,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1402,148 +1429,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1558,52 +1585,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1874,10 +1901,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -2037,258 +2064,258 @@
     </row>
     <row r="6" customFormat="1" spans="11:12">
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" ht="24.0" customHeight="true">
       <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
         <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>42</v>
       </c>
       <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
         <v>47</v>
       </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
         <v>48</v>
-      </c>
-      <c r="K8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>54</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
         <v>55</v>
       </c>
-      <c r="I9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
         <v>56</v>
-      </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>61</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>62</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
         <v>63</v>
       </c>
-      <c r="I10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
         <v>64</v>
-      </c>
-      <c r="K10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
         <v>66</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>67</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>69</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>70</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" t="s">
         <v>71</v>
       </c>
-      <c r="I11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
         <v>72</v>
-      </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
         <v>74</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>75</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>76</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>77</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>78</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" t="s">
         <v>79</v>
       </c>
-      <c r="I12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
         <v>80</v>
-      </c>
-      <c r="K12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
         <v>82</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>83</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>84</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>85</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>86</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" t="s">
         <v>87</v>
       </c>
-      <c r="I13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
         <v>88</v>
-      </c>
-      <c r="K13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" ht="24.0" customHeight="true">
@@ -2317,7 +2344,7 @@
         <v>95</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L14" t="s">
         <v>96</v>
@@ -2349,7 +2376,7 @@
         <v>103</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
         <v>104</v>
@@ -2381,7 +2408,7 @@
         <v>111</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L16" t="s">
         <v>112</v>
@@ -2413,7 +2440,7 @@
         <v>119</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L17" t="s">
         <v>120</v>
@@ -2445,74 +2472,74 @@
         <v>127</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" t="s">
         <v>128</v>
-      </c>
-      <c r="D19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J19" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L20" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" ht="24.0" customHeight="true">
@@ -2541,586 +2568,618 @@
         <v>149</v>
       </c>
       <c r="K21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L21" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" t="s">
         <v>150</v>
-      </c>
-      <c r="D22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" t="s">
-        <v>154</v>
-      </c>
-      <c r="H22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I22" t="s">
-        <v>155</v>
-      </c>
-      <c r="J22" t="s">
-        <v>156</v>
-      </c>
-      <c r="K22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L23" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L24" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L25" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="E26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L26" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L27" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L28" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D29" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J29" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L29" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L30" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D31" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F31" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L31" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D32" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E32" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G32" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H32" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I32" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D33" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E33" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F33" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G33" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H33" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I33" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J33" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E34" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G34" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H34" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I34" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J34" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L34" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D35" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F35" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G35" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H35" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I35" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J35" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L35" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D36" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E36" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F36" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G36" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H36" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I36" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J36" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L36" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D37" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E37" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F37" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G37" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H37" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I37" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J37" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L37" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D38" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E38" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F38" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G38" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H38" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I38" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J38" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L38" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D39" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F39" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G39" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H39" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I39" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J39" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L39" t="s">
-        <v>142</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" ht="24.0" customHeight="true">
+      <c r="C40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D40" t="s">
+        <v>278</v>
+      </c>
+      <c r="E40" t="s">
+        <v>279</v>
+      </c>
+      <c r="F40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G40" t="s">
+        <v>281</v>
+      </c>
+      <c r="H40" t="s">
+        <v>282</v>
+      </c>
+      <c r="I40" t="s">
+        <v>282</v>
+      </c>
+      <c r="J40" t="s">
+        <v>283</v>
+      </c>
+      <c r="K40" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3141,7 +3200,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -3302,36 +3361,16 @@
     <row r="6" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>1000</v>
-      </c>
-      <c r="I6">
-        <v>1000</v>
-      </c>
-      <c r="J6">
-        <v>200</v>
-      </c>
-      <c r="K6" s="1">
-        <v>102</v>
-      </c>
-      <c r="L6" s="1">
-        <v>90</v>
-      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="279">
   <si>
     <t>ID</t>
   </si>
@@ -162,235 +162,220 @@
     <t>鸡王</t>
   </si>
   <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>275</t>
+    <t>500</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>鹿王</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>稻草人王</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>钉耙猫王</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2500000</t>
+  </si>
+  <si>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>食人花王</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>巨型蝙蝠</t>
+  </si>
+  <si>
+    <t>70000</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>7000000</t>
+  </si>
+  <si>
+    <t>14000000</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>骷髅精灵</t>
+  </si>
+  <si>
+    <t>95000</t>
+  </si>
+  <si>
+    <t>19000</t>
+  </si>
+  <si>
+    <t>9500000</t>
+  </si>
+  <si>
+    <t>19000000</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10007</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>骷髅王</t>
+  </si>
+  <si>
+    <t>135000</t>
+  </si>
+  <si>
+    <t>27000</t>
+  </si>
+  <si>
+    <t>13500000</t>
+  </si>
+  <si>
+    <t>27000000</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10008</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>尸王</t>
+  </si>
+  <si>
+    <t>195000</t>
+  </si>
+  <si>
+    <t>39000</t>
+  </si>
+  <si>
+    <t>19500000</t>
+  </si>
+  <si>
+    <t>39000000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10009</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>王蛇</t>
+  </si>
+  <si>
+    <t>275000</t>
   </si>
   <si>
     <t>55000</t>
   </si>
   <si>
-    <t>5500</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>鹿王</t>
-  </si>
-  <si>
-    <t>2100</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>210000</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>10002</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>稻草人王</t>
-  </si>
-  <si>
-    <t>4650</t>
-  </si>
-  <si>
-    <t>2325</t>
-  </si>
-  <si>
-    <t>465000</t>
-  </si>
-  <si>
-    <t>46500</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>10003</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>钉耙猫王</t>
-  </si>
-  <si>
-    <t>8200</t>
-  </si>
-  <si>
-    <t>4100</t>
-  </si>
-  <si>
-    <t>820000</t>
-  </si>
-  <si>
-    <t>82000</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>10004</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>食人花王</t>
-  </si>
-  <si>
-    <t>12750</t>
-  </si>
-  <si>
-    <t>6375</t>
-  </si>
-  <si>
-    <t>1275000</t>
-  </si>
-  <si>
-    <t>127500</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>10005</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>巨型蝙蝠</t>
-  </si>
-  <si>
-    <t>18300</t>
-  </si>
-  <si>
-    <t>9150</t>
-  </si>
-  <si>
-    <t>1830000</t>
-  </si>
-  <si>
-    <t>183000</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>10006</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>骷髅精灵</t>
-  </si>
-  <si>
-    <t>24850</t>
-  </si>
-  <si>
-    <t>12425</t>
-  </si>
-  <si>
-    <t>2485000</t>
-  </si>
-  <si>
-    <t>248500</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>10007</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>骷髅王</t>
-  </si>
-  <si>
-    <t>32400</t>
-  </si>
-  <si>
-    <t>16200</t>
-  </si>
-  <si>
-    <t>3240000</t>
-  </si>
-  <si>
-    <t>324000</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10008</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>尸王</t>
-  </si>
-  <si>
-    <t>40950</t>
-  </si>
-  <si>
-    <t>20475</t>
-  </si>
-  <si>
-    <t>4095000</t>
-  </si>
-  <si>
-    <t>409500</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>10009</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>王蛇</t>
-  </si>
-  <si>
-    <t>50500</t>
-  </si>
-  <si>
-    <t>25250</t>
-  </si>
-  <si>
-    <t>5050000</t>
-  </si>
-  <si>
-    <t>505000</t>
+    <t>27500000</t>
+  </si>
+  <si>
+    <t>55000000</t>
   </si>
   <si>
     <t>9</t>
@@ -405,16 +390,16 @@
     <t>狼王</t>
   </si>
   <si>
-    <t>61050</t>
-  </si>
-  <si>
-    <t>30525</t>
-  </si>
-  <si>
-    <t>6105000</t>
-  </si>
-  <si>
-    <t>610500</t>
+    <t>385000</t>
+  </si>
+  <si>
+    <t>77000</t>
+  </si>
+  <si>
+    <t>38500000</t>
+  </si>
+  <si>
+    <t>77000000</t>
   </si>
   <si>
     <t>8</t>
@@ -429,16 +414,16 @@
     <t>巨型沙虫</t>
   </si>
   <si>
-    <t>72600</t>
-  </si>
-  <si>
-    <t>36300</t>
-  </si>
-  <si>
-    <t>7260000</t>
-  </si>
-  <si>
-    <t>726000</t>
+    <t>540000</t>
+  </si>
+  <si>
+    <t>108000</t>
+  </si>
+  <si>
+    <t>54000000</t>
+  </si>
+  <si>
+    <t>108000000</t>
   </si>
   <si>
     <t>7</t>
@@ -453,16 +438,16 @@
     <t>鹰王</t>
   </si>
   <si>
-    <t>85150</t>
-  </si>
-  <si>
-    <t>42575</t>
-  </si>
-  <si>
-    <t>8515000</t>
-  </si>
-  <si>
-    <t>851500</t>
+    <t>765000</t>
+  </si>
+  <si>
+    <t>153000</t>
+  </si>
+  <si>
+    <t>76500000</t>
+  </si>
+  <si>
+    <t>153000000</t>
   </si>
   <si>
     <t>6</t>
@@ -477,16 +462,16 @@
     <t>巨型多角虫</t>
   </si>
   <si>
-    <t>98700</t>
-  </si>
-  <si>
-    <t>49350</t>
-  </si>
-  <si>
-    <t>9870000</t>
-  </si>
-  <si>
-    <t>987000</t>
+    <t>1075000</t>
+  </si>
+  <si>
+    <t>215000</t>
+  </si>
+  <si>
+    <t>107500000</t>
+  </si>
+  <si>
+    <t>215000000</t>
   </si>
   <si>
     <t>10014</t>
@@ -498,16 +483,16 @@
     <t>沃玛卫士</t>
   </si>
   <si>
-    <t>113250</t>
-  </si>
-  <si>
-    <t>56625</t>
-  </si>
-  <si>
-    <t>11325000</t>
-  </si>
-  <si>
-    <t>1132500</t>
+    <t>1515000</t>
+  </si>
+  <si>
+    <t>303000</t>
+  </si>
+  <si>
+    <t>151500000</t>
+  </si>
+  <si>
+    <t>303000000</t>
   </si>
   <si>
     <t>10015</t>
@@ -519,16 +504,16 @@
     <t>沃玛教主</t>
   </si>
   <si>
-    <t>128800</t>
-  </si>
-  <si>
-    <t>64400</t>
-  </si>
-  <si>
-    <t>12880000</t>
-  </si>
-  <si>
-    <t>1288000</t>
+    <t>2130000</t>
+  </si>
+  <si>
+    <t>426000</t>
+  </si>
+  <si>
+    <t>213000000</t>
+  </si>
+  <si>
+    <t>426000000</t>
   </si>
   <si>
     <t>5</t>
@@ -543,16 +528,16 @@
     <t>白野猪</t>
   </si>
   <si>
-    <t>145350</t>
-  </si>
-  <si>
-    <t>72675</t>
-  </si>
-  <si>
-    <t>14535000</t>
-  </si>
-  <si>
-    <t>1453500</t>
+    <t>2995000</t>
+  </si>
+  <si>
+    <t>599000</t>
+  </si>
+  <si>
+    <t>299500000</t>
+  </si>
+  <si>
+    <t>599000000</t>
   </si>
   <si>
     <t>10017</t>
@@ -564,16 +549,16 @@
     <t>猪王</t>
   </si>
   <si>
-    <t>162900</t>
-  </si>
-  <si>
-    <t>81450</t>
-  </si>
-  <si>
-    <t>16290000</t>
-  </si>
-  <si>
-    <t>1629000</t>
+    <t>4215000</t>
+  </si>
+  <si>
+    <t>843000</t>
+  </si>
+  <si>
+    <t>421500000</t>
+  </si>
+  <si>
+    <t>843000000</t>
   </si>
   <si>
     <t>10018</t>
@@ -585,16 +570,16 @@
     <t>邪恶蝎蛇</t>
   </si>
   <si>
-    <t>181450</t>
-  </si>
-  <si>
-    <t>90725</t>
-  </si>
-  <si>
-    <t>18145000</t>
-  </si>
-  <si>
-    <t>1814500</t>
+    <t>5900000</t>
+  </si>
+  <si>
+    <t>1180000</t>
+  </si>
+  <si>
+    <t>590000000</t>
+  </si>
+  <si>
+    <t>1180000000</t>
   </si>
   <si>
     <t>10019</t>
@@ -606,16 +591,16 @@
     <t>邪恶蜈蚣</t>
   </si>
   <si>
-    <t>201000</t>
-  </si>
-  <si>
-    <t>100500</t>
-  </si>
-  <si>
-    <t>20100000</t>
-  </si>
-  <si>
-    <t>2010000</t>
+    <t>8300000</t>
+  </si>
+  <si>
+    <t>1660000</t>
+  </si>
+  <si>
+    <t>830000000</t>
+  </si>
+  <si>
+    <t>1660000000</t>
   </si>
   <si>
     <t>10020</t>
@@ -627,16 +612,16 @@
     <t>巨型钳虫</t>
   </si>
   <si>
-    <t>221550</t>
-  </si>
-  <si>
-    <t>110775</t>
-  </si>
-  <si>
-    <t>22155000</t>
-  </si>
-  <si>
-    <t>2215500</t>
+    <t>11700000</t>
+  </si>
+  <si>
+    <t>2340000</t>
+  </si>
+  <si>
+    <t>1170000000</t>
+  </si>
+  <si>
+    <t>2340000000</t>
   </si>
   <si>
     <t>10021</t>
@@ -648,16 +633,16 @@
     <t>触龙神</t>
   </si>
   <si>
-    <t>243100</t>
-  </si>
-  <si>
-    <t>121550</t>
-  </si>
-  <si>
-    <t>24310000</t>
-  </si>
-  <si>
-    <t>2431000</t>
+    <t>16500000</t>
+  </si>
+  <si>
+    <t>3300000</t>
+  </si>
+  <si>
+    <t>1650000000</t>
+  </si>
+  <si>
+    <t>3300000000</t>
   </si>
   <si>
     <t>10022</t>
@@ -669,16 +654,16 @@
     <t>祖玛教主</t>
   </si>
   <si>
-    <t>265650</t>
-  </si>
-  <si>
-    <t>132825</t>
-  </si>
-  <si>
-    <t>26565000</t>
-  </si>
-  <si>
-    <t>2656500</t>
+    <t>23200000</t>
+  </si>
+  <si>
+    <t>4640000</t>
+  </si>
+  <si>
+    <t>2320000000</t>
+  </si>
+  <si>
+    <t>4640000000</t>
   </si>
   <si>
     <t>10023</t>
@@ -690,16 +675,16 @@
     <t>祖玛侍卫</t>
   </si>
   <si>
-    <t>289200</t>
-  </si>
-  <si>
-    <t>144600</t>
-  </si>
-  <si>
-    <t>28920000</t>
-  </si>
-  <si>
-    <t>2892000</t>
+    <t>32600000</t>
+  </si>
+  <si>
+    <t>6520000</t>
+  </si>
+  <si>
+    <t>3260000000</t>
+  </si>
+  <si>
+    <t>6520000000</t>
   </si>
   <si>
     <t>10024</t>
@@ -711,16 +696,16 @@
     <t>虹魔猪王</t>
   </si>
   <si>
-    <t>313750</t>
-  </si>
-  <si>
-    <t>156875</t>
-  </si>
-  <si>
-    <t>31375000</t>
-  </si>
-  <si>
-    <t>3137500</t>
+    <t>45900000</t>
+  </si>
+  <si>
+    <t>9180000</t>
+  </si>
+  <si>
+    <t>4590000000</t>
+  </si>
+  <si>
+    <t>9180000000</t>
   </si>
   <si>
     <t>10025</t>
@@ -732,16 +717,16 @@
     <t>虹魔蝎卫</t>
   </si>
   <si>
-    <t>339300</t>
-  </si>
-  <si>
-    <t>169650</t>
-  </si>
-  <si>
-    <t>33930000</t>
-  </si>
-  <si>
-    <t>3393000</t>
+    <t>64550000</t>
+  </si>
+  <si>
+    <t>12910000</t>
+  </si>
+  <si>
+    <t>6455000000</t>
+  </si>
+  <si>
+    <t>12910000000</t>
   </si>
   <si>
     <t>10026</t>
@@ -753,16 +738,16 @@
     <t>虹魔教主</t>
   </si>
   <si>
-    <t>365850</t>
-  </si>
-  <si>
-    <t>182925</t>
-  </si>
-  <si>
-    <t>36585000</t>
-  </si>
-  <si>
-    <t>3658500</t>
+    <t>90800000</t>
+  </si>
+  <si>
+    <t>18160000</t>
+  </si>
+  <si>
+    <t>9080000000</t>
+  </si>
+  <si>
+    <t>18160000000</t>
   </si>
   <si>
     <t>10027</t>
@@ -774,16 +759,16 @@
     <t>恶灵尸王</t>
   </si>
   <si>
-    <t>393400</t>
-  </si>
-  <si>
-    <t>196700</t>
-  </si>
-  <si>
-    <t>39340000</t>
-  </si>
-  <si>
-    <t>3934000</t>
+    <t>127750000</t>
+  </si>
+  <si>
+    <t>25550000</t>
+  </si>
+  <si>
+    <t>12775000000</t>
+  </si>
+  <si>
+    <t>25550000000</t>
   </si>
   <si>
     <t>10028</t>
@@ -795,16 +780,16 @@
     <t>黄泉教主</t>
   </si>
   <si>
-    <t>421950</t>
-  </si>
-  <si>
-    <t>210975</t>
-  </si>
-  <si>
-    <t>42195000</t>
-  </si>
-  <si>
-    <t>4219500</t>
+    <t>179650000</t>
+  </si>
+  <si>
+    <t>35930000</t>
+  </si>
+  <si>
+    <t>17965000000</t>
+  </si>
+  <si>
+    <t>35930000000</t>
   </si>
   <si>
     <t>10029</t>
@@ -816,16 +801,16 @@
     <t>牛魔王</t>
   </si>
   <si>
-    <t>451500</t>
-  </si>
-  <si>
-    <t>225750</t>
-  </si>
-  <si>
-    <t>45150000</t>
-  </si>
-  <si>
-    <t>4515000</t>
+    <t>252700000</t>
+  </si>
+  <si>
+    <t>50540000</t>
+  </si>
+  <si>
+    <t>25270000000</t>
+  </si>
+  <si>
+    <t>50540000000</t>
   </si>
   <si>
     <t>10030</t>
@@ -837,16 +822,16 @@
     <t>双头金刚</t>
   </si>
   <si>
-    <t>482050</t>
-  </si>
-  <si>
-    <t>241025</t>
-  </si>
-  <si>
-    <t>48205000</t>
-  </si>
-  <si>
-    <t>4820500</t>
+    <t>355450000</t>
+  </si>
+  <si>
+    <t>71090000</t>
+  </si>
+  <si>
+    <t>35545000000</t>
+  </si>
+  <si>
+    <t>71090000000</t>
   </si>
   <si>
     <t>10031</t>
@@ -858,16 +843,16 @@
     <t>双头巨人</t>
   </si>
   <si>
-    <t>513600</t>
-  </si>
-  <si>
-    <t>256800</t>
-  </si>
-  <si>
-    <t>51360000</t>
-  </si>
-  <si>
-    <t>5136000</t>
+    <t>500000000</t>
+  </si>
+  <si>
+    <t>100000000</t>
+  </si>
+  <si>
+    <t>50000000000</t>
+  </si>
+  <si>
+    <t>100000000000</t>
   </si>
   <si>
     <t>10032</t>
@@ -879,16 +864,16 @@
     <t>赤月恶魔</t>
   </si>
   <si>
-    <t>546150</t>
-  </si>
-  <si>
-    <t>273075</t>
-  </si>
-  <si>
-    <t>54615000</t>
-  </si>
-  <si>
-    <t>5461500</t>
+    <t>703250000</t>
+  </si>
+  <si>
+    <t>140650000</t>
+  </si>
+  <si>
+    <t>70325000000</t>
+  </si>
+  <si>
+    <t>140650000000</t>
   </si>
   <si>
     <t>10033</t>
@@ -900,16 +885,16 @@
     <t>魔龙教主</t>
   </si>
   <si>
-    <t>579700</t>
-  </si>
-  <si>
-    <t>289850</t>
-  </si>
-  <si>
-    <t>57970000</t>
-  </si>
-  <si>
-    <t>5797000</t>
+    <t>989150000</t>
+  </si>
+  <si>
+    <t>197830000</t>
+  </si>
+  <si>
+    <t>98915000000</t>
+  </si>
+  <si>
+    <t>197830000000</t>
   </si>
   <si>
     <t>10034</t>
@@ -921,16 +906,16 @@
     <t>火龙神</t>
   </si>
   <si>
-    <t>614250</t>
-  </si>
-  <si>
-    <t>307125</t>
-  </si>
-  <si>
-    <t>61425000</t>
-  </si>
-  <si>
-    <t>6142500</t>
+    <t>1391250000</t>
+  </si>
+  <si>
+    <t>278250000</t>
+  </si>
+  <si>
+    <t>139125000000</t>
+  </si>
+  <si>
+    <t>278250000000</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2067,7 @@
         <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
         <v>30</v>
@@ -2108,1078 +2093,1078 @@
         <v>36</v>
       </c>
       <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
         <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
       </c>
       <c r="I7" t="s">
         <v>38</v>
       </c>
       <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
         <v>39</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>45</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
         <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>51</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>52</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>53</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
         <v>54</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
         <v>58</v>
       </c>
-      <c r="E10" t="s">
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
         <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
         <v>65</v>
       </c>
-      <c r="D11" t="s">
+      <c r="I11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" t="s">
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
         <v>67</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
         <v>73</v>
       </c>
-      <c r="D12" t="s">
+      <c r="I12" t="s">
         <v>74</v>
       </c>
-      <c r="E12" t="s">
+      <c r="J12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
         <v>75</v>
-      </c>
-      <c r="F12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
         <v>81</v>
       </c>
-      <c r="D13" t="s">
+      <c r="I13" t="s">
         <v>82</v>
       </c>
-      <c r="E13" t="s">
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
         <v>83</v>
-      </c>
-      <c r="F13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" t="s">
         <v>89</v>
       </c>
-      <c r="D14" t="s">
+      <c r="I14" t="s">
         <v>90</v>
       </c>
-      <c r="E14" t="s">
+      <c r="J14" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
         <v>91</v>
-      </c>
-      <c r="F14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" t="s">
-        <v>95</v>
-      </c>
-      <c r="K14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
         <v>97</v>
       </c>
-      <c r="D15" t="s">
+      <c r="I15" t="s">
         <v>98</v>
       </c>
-      <c r="E15" t="s">
+      <c r="J15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
         <v>99</v>
-      </c>
-      <c r="F15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" t="s">
         <v>105</v>
       </c>
-      <c r="D16" t="s">
+      <c r="I16" t="s">
         <v>106</v>
       </c>
-      <c r="E16" t="s">
+      <c r="J16" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" t="s">
         <v>113</v>
       </c>
-      <c r="D17" t="s">
+      <c r="I17" t="s">
         <v>114</v>
       </c>
-      <c r="E17" t="s">
+      <c r="J17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" t="s">
-        <v>118</v>
-      </c>
-      <c r="J17" t="s">
-        <v>119</v>
-      </c>
-      <c r="K17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" t="s">
         <v>121</v>
       </c>
-      <c r="D18" t="s">
+      <c r="I18" t="s">
         <v>122</v>
       </c>
-      <c r="E18" t="s">
+      <c r="J18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" t="s">
         <v>123</v>
-      </c>
-      <c r="F18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" t="s">
-        <v>126</v>
-      </c>
-      <c r="I18" t="s">
-        <v>126</v>
-      </c>
-      <c r="J18" t="s">
-        <v>127</v>
-      </c>
-      <c r="K18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" t="s">
         <v>129</v>
       </c>
-      <c r="D19" t="s">
+      <c r="I19" t="s">
         <v>130</v>
       </c>
-      <c r="E19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" t="s">
-        <v>134</v>
-      </c>
       <c r="J19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K19" t="s">
         <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" t="s">
         <v>136</v>
       </c>
-      <c r="D20" t="s">
+      <c r="I20" t="s">
         <v>137</v>
       </c>
-      <c r="E20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" t="s">
-        <v>141</v>
-      </c>
-      <c r="I20" t="s">
-        <v>141</v>
-      </c>
       <c r="J20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K20" t="s">
         <v>31</v>
       </c>
       <c r="L20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" t="s">
         <v>143</v>
       </c>
-      <c r="D21" t="s">
+      <c r="I21" t="s">
         <v>144</v>
       </c>
-      <c r="E21" t="s">
+      <c r="J21" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" t="s">
         <v>145</v>
-      </c>
-      <c r="F21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" t="s">
-        <v>148</v>
-      </c>
-      <c r="J21" t="s">
-        <v>149</v>
-      </c>
-      <c r="K21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" t="s">
         <v>151</v>
       </c>
-      <c r="D22" t="s">
+      <c r="I22" t="s">
         <v>152</v>
       </c>
-      <c r="E22" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" t="s">
-        <v>155</v>
-      </c>
-      <c r="H22" t="s">
-        <v>156</v>
-      </c>
-      <c r="I22" t="s">
-        <v>156</v>
-      </c>
       <c r="J22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K22" t="s">
         <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" t="s">
         <v>158</v>
       </c>
-      <c r="D23" t="s">
+      <c r="I23" t="s">
         <v>159</v>
       </c>
-      <c r="E23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" t="s">
-        <v>162</v>
-      </c>
-      <c r="H23" t="s">
-        <v>163</v>
-      </c>
-      <c r="I23" t="s">
-        <v>163</v>
-      </c>
       <c r="J23" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s">
         <v>31</v>
       </c>
       <c r="L23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" t="s">
         <v>165</v>
       </c>
-      <c r="D24" t="s">
+      <c r="I24" t="s">
         <v>166</v>
       </c>
-      <c r="E24" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" t="s">
-        <v>169</v>
-      </c>
-      <c r="H24" t="s">
-        <v>170</v>
-      </c>
-      <c r="I24" t="s">
-        <v>170</v>
-      </c>
       <c r="J24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K24" t="s">
         <v>31</v>
       </c>
       <c r="L24" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" t="s">
         <v>172</v>
       </c>
-      <c r="D25" t="s">
+      <c r="I25" t="s">
         <v>173</v>
       </c>
-      <c r="E25" t="s">
-        <v>174</v>
-      </c>
-      <c r="F25" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" t="s">
-        <v>176</v>
-      </c>
-      <c r="H25" t="s">
-        <v>177</v>
-      </c>
-      <c r="I25" t="s">
-        <v>177</v>
-      </c>
       <c r="J25" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K25" t="s">
         <v>31</v>
       </c>
       <c r="L25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" t="s">
         <v>179</v>
       </c>
-      <c r="D26" t="s">
+      <c r="I26" t="s">
         <v>180</v>
       </c>
-      <c r="E26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F26" t="s">
-        <v>182</v>
-      </c>
-      <c r="G26" t="s">
-        <v>183</v>
-      </c>
-      <c r="H26" t="s">
-        <v>184</v>
-      </c>
-      <c r="I26" t="s">
-        <v>184</v>
-      </c>
       <c r="J26" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K26" t="s">
         <v>31</v>
       </c>
       <c r="L26" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" t="s">
         <v>186</v>
       </c>
-      <c r="D27" t="s">
+      <c r="I27" t="s">
         <v>187</v>
       </c>
-      <c r="E27" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" t="s">
-        <v>190</v>
-      </c>
-      <c r="H27" t="s">
-        <v>191</v>
-      </c>
-      <c r="I27" t="s">
-        <v>191</v>
-      </c>
       <c r="J27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K27" t="s">
         <v>31</v>
       </c>
       <c r="L27" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" t="s">
+        <v>192</v>
+      </c>
+      <c r="H28" t="s">
         <v>193</v>
       </c>
-      <c r="D28" t="s">
+      <c r="I28" t="s">
         <v>194</v>
       </c>
-      <c r="E28" t="s">
-        <v>195</v>
-      </c>
-      <c r="F28" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" t="s">
-        <v>197</v>
-      </c>
-      <c r="H28" t="s">
-        <v>198</v>
-      </c>
-      <c r="I28" t="s">
-        <v>198</v>
-      </c>
       <c r="J28" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K28" t="s">
         <v>31</v>
       </c>
       <c r="L28" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" t="s">
         <v>200</v>
       </c>
-      <c r="D29" t="s">
+      <c r="I29" t="s">
         <v>201</v>
       </c>
-      <c r="E29" t="s">
-        <v>202</v>
-      </c>
-      <c r="F29" t="s">
-        <v>203</v>
-      </c>
-      <c r="G29" t="s">
-        <v>204</v>
-      </c>
-      <c r="H29" t="s">
-        <v>205</v>
-      </c>
-      <c r="I29" t="s">
-        <v>205</v>
-      </c>
       <c r="J29" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K29" t="s">
         <v>31</v>
       </c>
       <c r="L29" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" t="s">
         <v>207</v>
       </c>
-      <c r="D30" t="s">
+      <c r="I30" t="s">
         <v>208</v>
       </c>
-      <c r="E30" t="s">
-        <v>209</v>
-      </c>
-      <c r="F30" t="s">
-        <v>210</v>
-      </c>
-      <c r="G30" t="s">
-        <v>211</v>
-      </c>
-      <c r="H30" t="s">
-        <v>212</v>
-      </c>
-      <c r="I30" t="s">
-        <v>212</v>
-      </c>
       <c r="J30" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K30" t="s">
         <v>31</v>
       </c>
       <c r="L30" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" t="s">
+        <v>213</v>
+      </c>
+      <c r="H31" t="s">
         <v>214</v>
       </c>
-      <c r="D31" t="s">
+      <c r="I31" t="s">
         <v>215</v>
       </c>
-      <c r="E31" t="s">
-        <v>216</v>
-      </c>
-      <c r="F31" t="s">
-        <v>217</v>
-      </c>
-      <c r="G31" t="s">
-        <v>218</v>
-      </c>
-      <c r="H31" t="s">
-        <v>219</v>
-      </c>
-      <c r="I31" t="s">
-        <v>219</v>
-      </c>
       <c r="J31" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K31" t="s">
         <v>31</v>
       </c>
       <c r="L31" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" t="s">
+        <v>220</v>
+      </c>
+      <c r="H32" t="s">
         <v>221</v>
       </c>
-      <c r="D32" t="s">
+      <c r="I32" t="s">
         <v>222</v>
       </c>
-      <c r="E32" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" t="s">
-        <v>224</v>
-      </c>
-      <c r="G32" t="s">
-        <v>225</v>
-      </c>
-      <c r="H32" t="s">
-        <v>226</v>
-      </c>
-      <c r="I32" t="s">
-        <v>226</v>
-      </c>
       <c r="J32" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K32" t="s">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33" t="s">
+        <v>225</v>
+      </c>
+      <c r="F33" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" t="s">
+        <v>227</v>
+      </c>
+      <c r="H33" t="s">
         <v>228</v>
       </c>
-      <c r="D33" t="s">
+      <c r="I33" t="s">
         <v>229</v>
       </c>
-      <c r="E33" t="s">
-        <v>230</v>
-      </c>
-      <c r="F33" t="s">
-        <v>231</v>
-      </c>
-      <c r="G33" t="s">
-        <v>232</v>
-      </c>
-      <c r="H33" t="s">
-        <v>233</v>
-      </c>
-      <c r="I33" t="s">
-        <v>233</v>
-      </c>
       <c r="J33" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K33" t="s">
         <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" t="s">
+        <v>231</v>
+      </c>
+      <c r="E34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" t="s">
+        <v>234</v>
+      </c>
+      <c r="H34" t="s">
         <v>235</v>
       </c>
-      <c r="D34" t="s">
+      <c r="I34" t="s">
         <v>236</v>
       </c>
-      <c r="E34" t="s">
-        <v>237</v>
-      </c>
-      <c r="F34" t="s">
-        <v>238</v>
-      </c>
-      <c r="G34" t="s">
-        <v>239</v>
-      </c>
-      <c r="H34" t="s">
-        <v>240</v>
-      </c>
-      <c r="I34" t="s">
-        <v>240</v>
-      </c>
       <c r="J34" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K34" t="s">
         <v>31</v>
       </c>
       <c r="L34" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" t="s">
+        <v>241</v>
+      </c>
+      <c r="H35" t="s">
         <v>242</v>
       </c>
-      <c r="D35" t="s">
+      <c r="I35" t="s">
         <v>243</v>
       </c>
-      <c r="E35" t="s">
-        <v>244</v>
-      </c>
-      <c r="F35" t="s">
-        <v>245</v>
-      </c>
-      <c r="G35" t="s">
-        <v>246</v>
-      </c>
-      <c r="H35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I35" t="s">
-        <v>247</v>
-      </c>
       <c r="J35" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="K35" t="s">
         <v>31</v>
       </c>
       <c r="L35" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" t="s">
+        <v>245</v>
+      </c>
+      <c r="E36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" t="s">
+        <v>248</v>
+      </c>
+      <c r="H36" t="s">
         <v>249</v>
       </c>
-      <c r="D36" t="s">
+      <c r="I36" t="s">
         <v>250</v>
       </c>
-      <c r="E36" t="s">
-        <v>251</v>
-      </c>
-      <c r="F36" t="s">
-        <v>252</v>
-      </c>
-      <c r="G36" t="s">
-        <v>253</v>
-      </c>
-      <c r="H36" t="s">
-        <v>254</v>
-      </c>
-      <c r="I36" t="s">
-        <v>254</v>
-      </c>
       <c r="J36" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K36" t="s">
         <v>31</v>
       </c>
       <c r="L36" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" t="s">
+        <v>252</v>
+      </c>
+      <c r="E37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" t="s">
+        <v>255</v>
+      </c>
+      <c r="H37" t="s">
         <v>256</v>
       </c>
-      <c r="D37" t="s">
+      <c r="I37" t="s">
         <v>257</v>
       </c>
-      <c r="E37" t="s">
-        <v>258</v>
-      </c>
-      <c r="F37" t="s">
-        <v>259</v>
-      </c>
-      <c r="G37" t="s">
-        <v>260</v>
-      </c>
-      <c r="H37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I37" t="s">
-        <v>261</v>
-      </c>
       <c r="J37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K37" t="s">
         <v>31</v>
       </c>
       <c r="L37" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" t="s">
+        <v>259</v>
+      </c>
+      <c r="E38" t="s">
+        <v>260</v>
+      </c>
+      <c r="F38" t="s">
+        <v>261</v>
+      </c>
+      <c r="G38" t="s">
+        <v>262</v>
+      </c>
+      <c r="H38" t="s">
         <v>263</v>
       </c>
-      <c r="D38" t="s">
+      <c r="I38" t="s">
         <v>264</v>
       </c>
-      <c r="E38" t="s">
-        <v>265</v>
-      </c>
-      <c r="F38" t="s">
-        <v>266</v>
-      </c>
-      <c r="G38" t="s">
-        <v>267</v>
-      </c>
-      <c r="H38" t="s">
-        <v>268</v>
-      </c>
-      <c r="I38" t="s">
-        <v>268</v>
-      </c>
       <c r="J38" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K38" t="s">
         <v>31</v>
       </c>
       <c r="L38" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
+        <v>265</v>
+      </c>
+      <c r="D39" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" t="s">
+        <v>269</v>
+      </c>
+      <c r="H39" t="s">
         <v>270</v>
       </c>
-      <c r="D39" t="s">
+      <c r="I39" t="s">
         <v>271</v>
       </c>
-      <c r="E39" t="s">
-        <v>272</v>
-      </c>
-      <c r="F39" t="s">
-        <v>273</v>
-      </c>
-      <c r="G39" t="s">
-        <v>274</v>
-      </c>
-      <c r="H39" t="s">
-        <v>275</v>
-      </c>
-      <c r="I39" t="s">
-        <v>275</v>
-      </c>
       <c r="J39" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K39" t="s">
         <v>31</v>
       </c>
       <c r="L39" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" t="s">
+        <v>273</v>
+      </c>
+      <c r="E40" t="s">
+        <v>274</v>
+      </c>
+      <c r="F40" t="s">
+        <v>275</v>
+      </c>
+      <c r="G40" t="s">
+        <v>276</v>
+      </c>
+      <c r="H40" t="s">
         <v>277</v>
       </c>
-      <c r="D40" t="s">
+      <c r="I40" t="s">
         <v>278</v>
       </c>
-      <c r="E40" t="s">
-        <v>279</v>
-      </c>
-      <c r="F40" t="s">
-        <v>280</v>
-      </c>
-      <c r="G40" t="s">
-        <v>281</v>
-      </c>
-      <c r="H40" t="s">
-        <v>282</v>
-      </c>
-      <c r="I40" t="s">
-        <v>282</v>
-      </c>
       <c r="J40" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K40" t="s">
         <v>31</v>
       </c>
       <c r="L40" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="308">
   <si>
     <t>ID</t>
   </si>
@@ -171,93 +171,93 @@
     <t>50000</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>鹿王</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>稻草人王</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>钉耙猫王</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2500000</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
     <t>100000</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>鹿王</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>250000</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>10002</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>稻草人王</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>2000000</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>10003</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>钉耙猫王</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2500000</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>食人花王</t>
   </si>
   <si>
     <t>5000000</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>10004</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>食人花王</t>
-  </si>
-  <si>
-    <t>10000000</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -279,7 +279,10 @@
     <t>7000000</t>
   </si>
   <si>
-    <t>14000000</t>
+    <t>1400000</t>
+  </si>
+  <si>
+    <t>280000</t>
   </si>
   <si>
     <t>15</t>
@@ -303,7 +306,10 @@
     <t>9500000</t>
   </si>
   <si>
-    <t>19000000</t>
+    <t>1900000</t>
+  </si>
+  <si>
+    <t>380000</t>
   </si>
   <si>
     <t>12</t>
@@ -327,7 +333,10 @@
     <t>13500000</t>
   </si>
   <si>
-    <t>27000000</t>
+    <t>2700000</t>
+  </si>
+  <si>
+    <t>540000</t>
   </si>
   <si>
     <t>11</t>
@@ -351,7 +360,10 @@
     <t>19500000</t>
   </si>
   <si>
-    <t>39000000</t>
+    <t>3900000</t>
+  </si>
+  <si>
+    <t>780000</t>
   </si>
   <si>
     <t>10</t>
@@ -375,7 +387,10 @@
     <t>27500000</t>
   </si>
   <si>
-    <t>55000000</t>
+    <t>5500000</t>
+  </si>
+  <si>
+    <t>1100000</t>
   </si>
   <si>
     <t>9</t>
@@ -399,7 +414,10 @@
     <t>38500000</t>
   </si>
   <si>
-    <t>77000000</t>
+    <t>7700000</t>
+  </si>
+  <si>
+    <t>1540000</t>
   </si>
   <si>
     <t>8</t>
@@ -414,16 +432,16 @@
     <t>巨型沙虫</t>
   </si>
   <si>
-    <t>540000</t>
-  </si>
-  <si>
     <t>108000</t>
   </si>
   <si>
     <t>54000000</t>
   </si>
   <si>
-    <t>108000000</t>
+    <t>10800000</t>
+  </si>
+  <si>
+    <t>2160000</t>
   </si>
   <si>
     <t>7</t>
@@ -447,7 +465,10 @@
     <t>76500000</t>
   </si>
   <si>
-    <t>153000000</t>
+    <t>15300000</t>
+  </si>
+  <si>
+    <t>3060000</t>
   </si>
   <si>
     <t>6</t>
@@ -471,7 +492,10 @@
     <t>107500000</t>
   </si>
   <si>
-    <t>215000000</t>
+    <t>21500000</t>
+  </si>
+  <si>
+    <t>4300000</t>
   </si>
   <si>
     <t>10014</t>
@@ -492,7 +516,10 @@
     <t>151500000</t>
   </si>
   <si>
-    <t>303000000</t>
+    <t>30300000</t>
+  </si>
+  <si>
+    <t>6060000</t>
   </si>
   <si>
     <t>10015</t>
@@ -513,7 +540,10 @@
     <t>213000000</t>
   </si>
   <si>
-    <t>426000000</t>
+    <t>42600000</t>
+  </si>
+  <si>
+    <t>8520000</t>
   </si>
   <si>
     <t>5</t>
@@ -537,7 +567,10 @@
     <t>299500000</t>
   </si>
   <si>
-    <t>599000000</t>
+    <t>59900000</t>
+  </si>
+  <si>
+    <t>11980000</t>
   </si>
   <si>
     <t>10017</t>
@@ -558,7 +591,10 @@
     <t>421500000</t>
   </si>
   <si>
-    <t>843000000</t>
+    <t>84300000</t>
+  </si>
+  <si>
+    <t>16860000</t>
   </si>
   <si>
     <t>10018</t>
@@ -579,7 +615,10 @@
     <t>590000000</t>
   </si>
   <si>
-    <t>1180000000</t>
+    <t>118000000</t>
+  </si>
+  <si>
+    <t>23600000</t>
   </si>
   <si>
     <t>10019</t>
@@ -600,7 +639,10 @@
     <t>830000000</t>
   </si>
   <si>
-    <t>1660000000</t>
+    <t>166000000</t>
+  </si>
+  <si>
+    <t>33200000</t>
   </si>
   <si>
     <t>10020</t>
@@ -621,7 +663,10 @@
     <t>1170000000</t>
   </si>
   <si>
-    <t>2340000000</t>
+    <t>234000000</t>
+  </si>
+  <si>
+    <t>46800000</t>
   </si>
   <si>
     <t>10021</t>
@@ -642,7 +687,10 @@
     <t>1650000000</t>
   </si>
   <si>
-    <t>3300000000</t>
+    <t>330000000</t>
+  </si>
+  <si>
+    <t>66000000</t>
   </si>
   <si>
     <t>10022</t>
@@ -663,7 +711,10 @@
     <t>2320000000</t>
   </si>
   <si>
-    <t>4640000000</t>
+    <t>464000000</t>
+  </si>
+  <si>
+    <t>92800000</t>
   </si>
   <si>
     <t>10023</t>
@@ -684,7 +735,10 @@
     <t>3260000000</t>
   </si>
   <si>
-    <t>6520000000</t>
+    <t>652000000</t>
+  </si>
+  <si>
+    <t>130400000</t>
   </si>
   <si>
     <t>10024</t>
@@ -705,7 +759,10 @@
     <t>4590000000</t>
   </si>
   <si>
-    <t>9180000000</t>
+    <t>918000000</t>
+  </si>
+  <si>
+    <t>183600000</t>
   </si>
   <si>
     <t>10025</t>
@@ -726,7 +783,10 @@
     <t>6455000000</t>
   </si>
   <si>
-    <t>12910000000</t>
+    <t>1291000000</t>
+  </si>
+  <si>
+    <t>258200000</t>
   </si>
   <si>
     <t>10026</t>
@@ -747,7 +807,10 @@
     <t>9080000000</t>
   </si>
   <si>
-    <t>18160000000</t>
+    <t>1816000000</t>
+  </si>
+  <si>
+    <t>363200000</t>
   </si>
   <si>
     <t>10027</t>
@@ -768,7 +831,10 @@
     <t>12775000000</t>
   </si>
   <si>
-    <t>25550000000</t>
+    <t>2555000000</t>
+  </si>
+  <si>
+    <t>511000000</t>
   </si>
   <si>
     <t>10028</t>
@@ -789,7 +855,10 @@
     <t>17965000000</t>
   </si>
   <si>
-    <t>35930000000</t>
+    <t>3593000000</t>
+  </si>
+  <si>
+    <t>718600000</t>
   </si>
   <si>
     <t>10029</t>
@@ -810,7 +879,10 @@
     <t>25270000000</t>
   </si>
   <si>
-    <t>50540000000</t>
+    <t>5054000000</t>
+  </si>
+  <si>
+    <t>1010800000</t>
   </si>
   <si>
     <t>10030</t>
@@ -831,7 +903,10 @@
     <t>35545000000</t>
   </si>
   <si>
-    <t>71090000000</t>
+    <t>7109000000</t>
+  </si>
+  <si>
+    <t>1421800000</t>
   </si>
   <si>
     <t>10031</t>
@@ -852,7 +927,10 @@
     <t>50000000000</t>
   </si>
   <si>
-    <t>100000000000</t>
+    <t>10000000000</t>
+  </si>
+  <si>
+    <t>2000000000</t>
   </si>
   <si>
     <t>10032</t>
@@ -873,7 +951,10 @@
     <t>70325000000</t>
   </si>
   <si>
-    <t>140650000000</t>
+    <t>14065000000</t>
+  </si>
+  <si>
+    <t>2813000000</t>
   </si>
   <si>
     <t>10033</t>
@@ -894,7 +975,10 @@
     <t>98915000000</t>
   </si>
   <si>
-    <t>197830000000</t>
+    <t>19783000000</t>
+  </si>
+  <si>
+    <t>3956600000</t>
   </si>
   <si>
     <t>10034</t>
@@ -915,7 +999,10 @@
     <t>139125000000</t>
   </si>
   <si>
-    <t>278250000000</t>
+    <t>27825000000</t>
+  </si>
+  <si>
+    <t>5565000000</t>
   </si>
 </sst>
 </file>
@@ -2067,7 +2154,7 @@
         <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
         <v>30</v>
@@ -2099,71 +2186,71 @@
         <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
         <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
         <v>43</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" t="s">
-        <v>45</v>
       </c>
       <c r="K8" t="s">
         <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>50</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>51</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>53</v>
       </c>
       <c r="J9" t="s">
         <v>53</v>
@@ -2192,13 +2279,13 @@
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="K10" t="s">
         <v>31</v>
@@ -2230,941 +2317,941 @@
         <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s">
         <v>31</v>
       </c>
       <c r="L11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s">
         <v>31</v>
       </c>
       <c r="L12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s">
         <v>31</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s">
         <v>31</v>
       </c>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K15" t="s">
         <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K16" t="s">
         <v>31</v>
       </c>
       <c r="L16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I17" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K17" t="s">
         <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I18" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J18" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K18" t="s">
         <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H19" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="J19" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K19" t="s">
         <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G20" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H20" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="I20" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="J20" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="K20" t="s">
         <v>31</v>
       </c>
       <c r="L20" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F21" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="H21" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I21" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="J21" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K21" t="s">
         <v>31</v>
       </c>
       <c r="L21" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H22" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="I22" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="J22" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="K22" t="s">
         <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F23" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H23" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="I23" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="J23" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="K23" t="s">
         <v>31</v>
       </c>
       <c r="L23" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="G24" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H24" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="I24" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="J24" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="K24" t="s">
         <v>31</v>
       </c>
       <c r="L24" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D25" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="H25" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="I25" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="J25" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="K25" t="s">
         <v>31</v>
       </c>
       <c r="L25" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="E26" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="G26" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="H26" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="I26" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="J26" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="K26" t="s">
         <v>31</v>
       </c>
       <c r="L26" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="E27" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F27" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="G27" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="H27" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="I27" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="J27" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="K27" t="s">
         <v>31</v>
       </c>
       <c r="L27" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E28" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F28" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="G28" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="H28" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="I28" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="J28" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="K28" t="s">
         <v>31</v>
       </c>
       <c r="L28" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E29" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F29" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G29" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="H29" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="I29" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="J29" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="K29" t="s">
         <v>31</v>
       </c>
       <c r="L29" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D30" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="E30" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="F30" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="G30" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="H30" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="I30" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="J30" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s">
         <v>31</v>
       </c>
       <c r="L30" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="D31" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="E31" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="G31" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H31" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="I31" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="J31" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="K31" t="s">
         <v>31</v>
       </c>
       <c r="L31" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="D32" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E32" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="G32" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="H32" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="I32" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="J32" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="K32" t="s">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="D33" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="E33" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="F33" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="G33" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="H33" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="I33" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="J33" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="K33" t="s">
         <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="D34" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="E34" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="G34" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="H34" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="I34" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="J34" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="K34" t="s">
         <v>31</v>
       </c>
       <c r="L34" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="D35" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="E35" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="F35" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="G35" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="H35" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="I35" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="J35" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="K35" t="s">
         <v>31</v>
       </c>
       <c r="L35" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="D36" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="E36" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="F36" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="G36" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="H36" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="I36" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="J36" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="K36" t="s">
         <v>31</v>
       </c>
       <c r="L36" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="D37" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="E37" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="F37" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="G37" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="H37" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="I37" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="J37" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="K37" t="s">
         <v>31</v>
       </c>
       <c r="L37" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="D38" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="E38" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="F38" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="G38" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="H38" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="I38" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="J38" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="K38" t="s">
         <v>31</v>
       </c>
       <c r="L38" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="D39" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="E39" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="F39" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="G39" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="H39" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="I39" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="J39" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s">
         <v>31</v>
       </c>
       <c r="L39" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="D40" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E40" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="F40" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="G40" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="H40" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I40" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="J40" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="K40" t="s">
         <v>31</v>
       </c>
       <c r="L40" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -42,6 +42,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="M3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+-1 没有
+0 随机
+&gt;0 对应模型</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -79,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="310">
   <si>
     <t>ID</t>
   </si>
@@ -111,6 +135,9 @@
     <t>掉落概率列表</t>
   </si>
   <si>
+    <t>模型</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -139,6 +166,9 @@
   </si>
   <si>
     <t>DropRateList</t>
+  </si>
+  <si>
+    <t>ModelType</t>
   </si>
   <si>
     <t>int</t>
@@ -1976,27 +2006,26 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="6.875" collapsed="false"/>
-    <col min="2" max="2" style="2" width="9.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="9.875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="11.125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="12.125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="2" width="13.375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="2" width="12.125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="2" width="15.875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="2" width="16.375" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="2" width="13.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="1" width="28.75" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="1" width="30.125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="2" width="13.625" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="2" width="8.125" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="2" width="9.625" collapsed="false"/>
-    <col min="16" max="16384" style="2" width="9.0" collapsed="false"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="1" customWidth="1"/>
+    <col min="12" max="13" width="30.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:15">
@@ -2007,7 +2036,6 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
@@ -2019,7 +2047,6 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
@@ -2056,7 +2083,9 @@
       <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
@@ -2064,36 +2093,38 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
@@ -2101,1157 +2132,1264 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" customFormat="1" spans="11:12">
+    <row r="6" customFormat="1" spans="3:13">
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:13">
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:13">
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" ht="24.0" customHeight="true">
-      <c r="C7" t="s">
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:13">
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:13">
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
         <v>31</v>
       </c>
-      <c r="L7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" ht="24.0" customHeight="true">
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
         <v>44</v>
       </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="J10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" ht="24.0" customHeight="true">
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" ht="24.0" customHeight="true">
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s">
-        <v>43</v>
-      </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" ht="24.0" customHeight="true">
+        <v>61</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:13">
       <c r="C11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" ht="24.0" customHeight="true">
+        <v>70</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:13">
       <c r="C12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" ht="24.0" customHeight="true">
+        <v>79</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:13">
       <c r="C13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" ht="24.0" customHeight="true">
+        <v>88</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:13">
       <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:13">
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" t="s">
+        <v>106</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:13">
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:13">
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" t="s">
         <v>87</v>
       </c>
-      <c r="D14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" ht="24.0" customHeight="true">
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" ht="24.0" customHeight="true">
-      <c r="C16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" t="s">
-        <v>112</v>
-      </c>
-      <c r="K16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" ht="24.0" customHeight="true">
-      <c r="C17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" t="s">
-        <v>85</v>
-      </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" ht="24.0" customHeight="true">
+        <v>123</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:13">
       <c r="C18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" ht="24.0" customHeight="true">
+        <v>132</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:13">
       <c r="C19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" t="s">
         <v>132</v>
       </c>
-      <c r="E19" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" t="s">
-        <v>138</v>
-      </c>
-      <c r="K19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" ht="24.0" customHeight="true">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:13">
       <c r="C20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" ht="24.0" customHeight="true">
+        <v>132</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:13">
       <c r="C21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" ht="24.0" customHeight="true">
+        <v>157</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:13">
       <c r="C22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" t="s">
         <v>157</v>
       </c>
-      <c r="E22" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" t="s">
-        <v>159</v>
-      </c>
-      <c r="G22" t="s">
-        <v>160</v>
-      </c>
-      <c r="H22" t="s">
-        <v>161</v>
-      </c>
-      <c r="I22" t="s">
-        <v>162</v>
-      </c>
-      <c r="J22" t="s">
-        <v>163</v>
-      </c>
-      <c r="K22" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" ht="24.0" customHeight="true">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:13">
       <c r="C23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" ht="24.0" customHeight="true">
+        <v>157</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:13">
       <c r="C24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" ht="24.0" customHeight="true">
+        <v>157</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:13">
       <c r="C25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G25" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" ht="24.0" customHeight="true">
+        <v>157</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:13">
       <c r="C26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" ht="24.0" customHeight="true">
+        <v>157</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:13">
       <c r="C27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H27" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" ht="24.0" customHeight="true">
+        <v>157</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:13">
       <c r="C28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D28" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F28" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G28" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J28" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" ht="24.0" customHeight="true">
+        <v>157</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:13">
       <c r="C29" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D29" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E29" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G29" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I29" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J29" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" ht="24.0" customHeight="true">
+        <v>157</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:13">
       <c r="C30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D30" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E30" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J30" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" ht="24.0" customHeight="true">
+        <v>157</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:13">
       <c r="C31" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D31" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E31" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G31" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I31" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J31" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" ht="24.0" customHeight="true">
+        <v>157</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:13">
       <c r="C32" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E32" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F32" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G32" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H32" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I32" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J32" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" ht="24.0" customHeight="true">
+        <v>157</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:13">
       <c r="C33" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D33" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E33" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F33" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G33" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H33" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I33" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J33" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" ht="24.0" customHeight="true">
+        <v>157</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:13">
       <c r="C34" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D34" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E34" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F34" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G34" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H34" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I34" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J34" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" ht="24.0" customHeight="true">
+        <v>157</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:13">
       <c r="C35" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D35" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E35" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F35" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H35" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I35" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J35" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" ht="24.0" customHeight="true">
+        <v>157</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:13">
       <c r="C36" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D36" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E36" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F36" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G36" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H36" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I36" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J36" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" ht="24.0" customHeight="true">
+        <v>157</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:13">
       <c r="C37" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E37" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F37" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G37" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H37" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I37" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" ht="24.0" customHeight="true">
+        <v>157</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:13">
       <c r="C38" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D38" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E38" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F38" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G38" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H38" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I38" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J38" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" ht="24.0" customHeight="true">
+        <v>157</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:13">
       <c r="C39" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D39" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E39" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F39" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G39" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H39" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I39" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J39" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" ht="24.0" customHeight="true">
+        <v>157</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:13">
       <c r="C40" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D40" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E40" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F40" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G40" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H40" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I40" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J40" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L40" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3277,22 +3415,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="6.875" collapsed="false"/>
-    <col min="2" max="2" style="2" width="9.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="9.875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="11.125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="12.125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="2" width="13.375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="2" width="12.125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="2" width="15.875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="2" width="16.375" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="2" width="13.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="1" width="26.0" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="1" width="30.125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="2" width="13.625" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="2" width="8.125" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="2" width="9.625" collapsed="false"/>
-    <col min="16" max="16384" style="2" width="9.0" collapsed="false"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:15">
@@ -3360,34 +3498,34 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -3397,34 +3535,34 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -3433,14 +3571,6 @@
     <row r="6" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="2"/>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -20,7 +20,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="256">
   <si>
     <t>ID</t>
   </si>
@@ -123,6 +123,9 @@
     <t>生命</t>
   </si>
   <si>
+    <t>DamageIncrea</t>
+  </si>
+  <si>
     <t>经验</t>
   </si>
   <si>
@@ -201,51 +204,48 @@
     <t>50000</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>鹿王</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>稻草人王</t>
+  </si>
+  <si>
     <t>2000</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>鹿王</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>250000</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>10002</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>稻草人王</t>
-  </si>
-  <si>
     <t>1000000</t>
   </si>
   <si>
     <t>200000</t>
   </si>
   <si>
-    <t>40000</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -270,9 +270,6 @@
     <t>500000</t>
   </si>
   <si>
-    <t>100000</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
@@ -312,9 +309,6 @@
     <t>1400000</t>
   </si>
   <si>
-    <t>280000</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -339,9 +333,6 @@
     <t>1900000</t>
   </si>
   <si>
-    <t>380000</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -366,102 +357,93 @@
     <t>2700000</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10008</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>尸王</t>
+  </si>
+  <si>
+    <t>195000</t>
+  </si>
+  <si>
+    <t>39000</t>
+  </si>
+  <si>
+    <t>19500000</t>
+  </si>
+  <si>
+    <t>3900000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10009</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>王蛇</t>
+  </si>
+  <si>
+    <t>275000</t>
+  </si>
+  <si>
+    <t>55000</t>
+  </si>
+  <si>
+    <t>27500000</t>
+  </si>
+  <si>
+    <t>5500000</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10010</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>狼王</t>
+  </si>
+  <si>
+    <t>385000</t>
+  </si>
+  <si>
+    <t>77000</t>
+  </si>
+  <si>
+    <t>38500000</t>
+  </si>
+  <si>
+    <t>7700000</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>巨型沙虫</t>
+  </si>
+  <si>
     <t>540000</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10008</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>尸王</t>
-  </si>
-  <si>
-    <t>195000</t>
-  </si>
-  <si>
-    <t>39000</t>
-  </si>
-  <si>
-    <t>19500000</t>
-  </si>
-  <si>
-    <t>3900000</t>
-  </si>
-  <si>
-    <t>780000</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>10009</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>王蛇</t>
-  </si>
-  <si>
-    <t>275000</t>
-  </si>
-  <si>
-    <t>55000</t>
-  </si>
-  <si>
-    <t>27500000</t>
-  </si>
-  <si>
-    <t>5500000</t>
-  </si>
-  <si>
-    <t>1100000</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10010</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>狼王</t>
-  </si>
-  <si>
-    <t>385000</t>
-  </si>
-  <si>
-    <t>77000</t>
-  </si>
-  <si>
-    <t>38500000</t>
-  </si>
-  <si>
-    <t>7700000</t>
-  </si>
-  <si>
-    <t>1540000</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10011</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>巨型沙虫</t>
-  </si>
-  <si>
     <t>108000</t>
   </si>
   <si>
@@ -471,9 +453,6 @@
     <t>10800000</t>
   </si>
   <si>
-    <t>2160000</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -495,12 +474,6 @@
     <t>76500000</t>
   </si>
   <si>
-    <t>15300000</t>
-  </si>
-  <si>
-    <t>3060000</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -522,12 +495,6 @@
     <t>107500000</t>
   </si>
   <si>
-    <t>21500000</t>
-  </si>
-  <si>
-    <t>4300000</t>
-  </si>
-  <si>
     <t>10014</t>
   </si>
   <si>
@@ -546,12 +513,6 @@
     <t>151500000</t>
   </si>
   <si>
-    <t>30300000</t>
-  </si>
-  <si>
-    <t>6060000</t>
-  </si>
-  <si>
     <t>10015</t>
   </si>
   <si>
@@ -570,12 +531,6 @@
     <t>213000000</t>
   </si>
   <si>
-    <t>42600000</t>
-  </si>
-  <si>
-    <t>8520000</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -597,12 +552,6 @@
     <t>299500000</t>
   </si>
   <si>
-    <t>59900000</t>
-  </si>
-  <si>
-    <t>11980000</t>
-  </si>
-  <si>
     <t>10017</t>
   </si>
   <si>
@@ -621,12 +570,6 @@
     <t>421500000</t>
   </si>
   <si>
-    <t>84300000</t>
-  </si>
-  <si>
-    <t>16860000</t>
-  </si>
-  <si>
     <t>10018</t>
   </si>
   <si>
@@ -645,12 +588,6 @@
     <t>590000000</t>
   </si>
   <si>
-    <t>118000000</t>
-  </si>
-  <si>
-    <t>23600000</t>
-  </si>
-  <si>
     <t>10019</t>
   </si>
   <si>
@@ -669,12 +606,6 @@
     <t>830000000</t>
   </si>
   <si>
-    <t>166000000</t>
-  </si>
-  <si>
-    <t>33200000</t>
-  </si>
-  <si>
     <t>10020</t>
   </si>
   <si>
@@ -693,12 +624,6 @@
     <t>1170000000</t>
   </si>
   <si>
-    <t>234000000</t>
-  </si>
-  <si>
-    <t>46800000</t>
-  </si>
-  <si>
     <t>10021</t>
   </si>
   <si>
@@ -717,12 +642,6 @@
     <t>1650000000</t>
   </si>
   <si>
-    <t>330000000</t>
-  </si>
-  <si>
-    <t>66000000</t>
-  </si>
-  <si>
     <t>10022</t>
   </si>
   <si>
@@ -741,12 +660,6 @@
     <t>2320000000</t>
   </si>
   <si>
-    <t>464000000</t>
-  </si>
-  <si>
-    <t>92800000</t>
-  </si>
-  <si>
     <t>10023</t>
   </si>
   <si>
@@ -765,12 +678,6 @@
     <t>3260000000</t>
   </si>
   <si>
-    <t>652000000</t>
-  </si>
-  <si>
-    <t>130400000</t>
-  </si>
-  <si>
     <t>10024</t>
   </si>
   <si>
@@ -789,12 +696,6 @@
     <t>4590000000</t>
   </si>
   <si>
-    <t>918000000</t>
-  </si>
-  <si>
-    <t>183600000</t>
-  </si>
-  <si>
     <t>10025</t>
   </si>
   <si>
@@ -813,12 +714,6 @@
     <t>6455000000</t>
   </si>
   <si>
-    <t>1291000000</t>
-  </si>
-  <si>
-    <t>258200000</t>
-  </si>
-  <si>
     <t>10026</t>
   </si>
   <si>
@@ -837,12 +732,6 @@
     <t>9080000000</t>
   </si>
   <si>
-    <t>1816000000</t>
-  </si>
-  <si>
-    <t>363200000</t>
-  </si>
-  <si>
     <t>10027</t>
   </si>
   <si>
@@ -861,12 +750,6 @@
     <t>12775000000</t>
   </si>
   <si>
-    <t>2555000000</t>
-  </si>
-  <si>
-    <t>511000000</t>
-  </si>
-  <si>
     <t>10028</t>
   </si>
   <si>
@@ -885,12 +768,6 @@
     <t>17965000000</t>
   </si>
   <si>
-    <t>3593000000</t>
-  </si>
-  <si>
-    <t>718600000</t>
-  </si>
-  <si>
     <t>10029</t>
   </si>
   <si>
@@ -909,12 +786,6 @@
     <t>25270000000</t>
   </si>
   <si>
-    <t>5054000000</t>
-  </si>
-  <si>
-    <t>1010800000</t>
-  </si>
-  <si>
     <t>10030</t>
   </si>
   <si>
@@ -933,12 +804,6 @@
     <t>35545000000</t>
   </si>
   <si>
-    <t>7109000000</t>
-  </si>
-  <si>
-    <t>1421800000</t>
-  </si>
-  <si>
     <t>10031</t>
   </si>
   <si>
@@ -957,12 +822,6 @@
     <t>50000000000</t>
   </si>
   <si>
-    <t>10000000000</t>
-  </si>
-  <si>
-    <t>2000000000</t>
-  </si>
-  <si>
     <t>10032</t>
   </si>
   <si>
@@ -981,12 +840,6 @@
     <t>70325000000</t>
   </si>
   <si>
-    <t>14065000000</t>
-  </si>
-  <si>
-    <t>2813000000</t>
-  </si>
-  <si>
     <t>10033</t>
   </si>
   <si>
@@ -1005,12 +858,6 @@
     <t>98915000000</t>
   </si>
   <si>
-    <t>19783000000</t>
-  </si>
-  <si>
-    <t>3956600000</t>
-  </si>
-  <si>
     <t>10034</t>
   </si>
   <si>
@@ -1020,19 +867,10 @@
     <t>火龙神</t>
   </si>
   <si>
-    <t>1391250000</t>
-  </si>
-  <si>
     <t>278250000</t>
   </si>
   <si>
     <t>139125000000</t>
-  </si>
-  <si>
-    <t>27825000000</t>
-  </si>
-  <si>
-    <t>5565000000</t>
   </si>
 </sst>
 </file>
@@ -1211,12 +1049,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2003,10 +1841,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2018,17 +1856,17 @@
     <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.75" style="1" customWidth="1"/>
-    <col min="12" max="13" width="30.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="8" max="9" width="15.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.75" style="1" customWidth="1"/>
+    <col min="13" max="14" width="30.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="F1" s="2"/>
@@ -2036,10 +1874,11 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="K1" s="2"/>
       <c r="O1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:15">
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:16">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="F2" s="2"/>
@@ -2047,10 +1886,11 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="K2" s="2"/>
       <c r="O2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:16">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -2077,7 +1917,7 @@
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -2086,37 +1926,40 @@
       <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:15">
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:16">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -2125,84 +1968,93 @@
       <c r="M4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="O4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:16">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="L5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="O5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" spans="3:13">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" customFormat="1" spans="3:14">
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" ht="24" customHeight="1" spans="3:13">
+    <row r="7" ht="24" customHeight="1" spans="3:14">
       <c r="C7" t="s">
         <v>35</v>
       </c>
@@ -2216,28 +2068,31 @@
         <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
       </c>
-      <c r="I7" t="s">
-        <v>31</v>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
         <v>33</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" ht="24" customHeight="1" spans="3:13">
+    <row r="8" ht="24" customHeight="1" spans="3:14">
       <c r="C8" t="s">
         <v>41</v>
       </c>
@@ -2248,31 +2103,34 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s">
         <v>45</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>46</v>
       </c>
       <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
         <v>33</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" ht="24" customHeight="1" spans="3:13">
+    <row r="9" ht="24" customHeight="1" spans="3:14">
       <c r="C9" t="s">
         <v>48</v>
       </c>
@@ -2291,1110 +2149,1229 @@
       <c r="H9" t="s">
         <v>53</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>54</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
         <v>55</v>
       </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:14">
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:13">
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
         <v>59</v>
       </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
       </c>
       <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
         <v>33</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:14">
+      <c r="C11" t="s">
         <v>61</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:13">
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>64</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>65</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>66</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>67</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
         <v>68</v>
       </c>
-      <c r="J11" t="s">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:14">
+      <c r="C12" t="s">
         <v>69</v>
       </c>
-      <c r="K11" t="s">
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" t="s">
         <v>33</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:14">
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:14">
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:14">
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:14">
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:14">
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" t="s">
+        <v>116</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:14">
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>12900000</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:K40" si="0">J12/5</f>
+        <v>380000</v>
+      </c>
+      <c r="L18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:14">
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>15400000</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>540000</v>
+      </c>
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" t="s">
+        <v>123</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:14">
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>18400000</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>780000</v>
+      </c>
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" t="s">
+        <v>123</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:14">
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>22000000</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>1100000</v>
+      </c>
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" t="s">
+        <v>142</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:14">
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>26400000</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>1540000</v>
+      </c>
+      <c r="L22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" t="s">
+        <v>142</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:14">
+      <c r="C23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23">
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <v>31600000</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>2160000</v>
+      </c>
+      <c r="L23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" t="s">
+        <v>142</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:14">
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" t="s">
+        <v>160</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>37900000</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>2580000</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" t="s">
+        <v>142</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:14">
+      <c r="C25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25">
+        <v>25</v>
+      </c>
+      <c r="J25">
+        <v>45400000</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>3080000</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" t="s">
+        <v>142</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:14">
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" t="s">
+        <v>172</v>
+      </c>
+      <c r="I26">
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <v>54400000</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>3680000</v>
+      </c>
+      <c r="L26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" t="s">
+        <v>142</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:14">
+      <c r="C27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" t="s">
+        <v>178</v>
+      </c>
+      <c r="I27">
+        <v>35</v>
+      </c>
+      <c r="J27">
+        <v>65200000</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>4400000</v>
+      </c>
+      <c r="L27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" t="s">
+        <v>142</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:14">
+      <c r="C28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28" t="s">
+        <v>184</v>
+      </c>
+      <c r="I28">
+        <v>40</v>
+      </c>
+      <c r="J28">
+        <v>78200000</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>5280000</v>
+      </c>
+      <c r="L28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" t="s">
+        <v>142</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:14">
+      <c r="C29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" t="s">
+        <v>189</v>
+      </c>
+      <c r="H29" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29">
+        <v>450</v>
+      </c>
+      <c r="J29">
+        <v>93800000</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>6320000</v>
+      </c>
+      <c r="L29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" t="s">
+        <v>142</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:14">
+      <c r="C30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" t="s">
+        <v>195</v>
+      </c>
+      <c r="H30" t="s">
+        <v>196</v>
+      </c>
+      <c r="I30">
+        <v>50</v>
+      </c>
+      <c r="J30">
+        <v>112000000</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>7580000</v>
+      </c>
+      <c r="L30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" t="s">
+        <v>142</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:14">
+      <c r="C31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31" t="s">
+        <v>201</v>
+      </c>
+      <c r="H31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I31">
+        <v>55</v>
+      </c>
+      <c r="J31">
+        <v>134000000</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>9080000</v>
+      </c>
+      <c r="L31" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" t="s">
+        <v>142</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:14">
+      <c r="C32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" t="s">
+        <v>208</v>
+      </c>
+      <c r="I32">
+        <v>60</v>
+      </c>
+      <c r="J32">
+        <v>160000000</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>10880000</v>
+      </c>
+      <c r="L32" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" t="s">
+        <v>142</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:14">
+      <c r="C33" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" t="s">
+        <v>211</v>
+      </c>
+      <c r="F33" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" t="s">
+        <v>213</v>
+      </c>
+      <c r="H33" t="s">
+        <v>214</v>
+      </c>
+      <c r="I33">
+        <v>65</v>
+      </c>
+      <c r="J33">
+        <v>192000000</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>13040000</v>
+      </c>
+      <c r="L33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" t="s">
+        <v>142</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:14">
+      <c r="C34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" t="s">
+        <v>219</v>
+      </c>
+      <c r="H34" t="s">
+        <v>220</v>
+      </c>
+      <c r="I34">
         <v>70</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:13">
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="J34">
+        <v>230000000</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>15640000</v>
+      </c>
+      <c r="L34" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" t="s">
+        <v>142</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:14">
+      <c r="C35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" t="s">
+        <v>224</v>
+      </c>
+      <c r="G35" t="s">
+        <v>225</v>
+      </c>
+      <c r="H35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I35">
         <v>75</v>
       </c>
-      <c r="H12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J35">
+        <v>276000000</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>18760000</v>
+      </c>
+      <c r="L35" t="s">
         <v>33</v>
       </c>
-      <c r="L12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:13">
-      <c r="C13" t="s">
+      <c r="M35" t="s">
+        <v>142</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:14">
+      <c r="C36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" t="s">
+        <v>228</v>
+      </c>
+      <c r="E36" t="s">
+        <v>229</v>
+      </c>
+      <c r="F36" t="s">
+        <v>230</v>
+      </c>
+      <c r="G36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H36" t="s">
+        <v>232</v>
+      </c>
+      <c r="I36">
         <v>80</v>
       </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="J36">
+        <v>331000000</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>22400000</v>
+      </c>
+      <c r="L36" t="s">
+        <v>33</v>
+      </c>
+      <c r="M36" t="s">
+        <v>142</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:14">
+      <c r="C37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" t="s">
+        <v>237</v>
+      </c>
+      <c r="H37" t="s">
+        <v>238</v>
+      </c>
+      <c r="I37">
         <v>85</v>
       </c>
-      <c r="I13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J37">
+        <v>397000000</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>26800000</v>
+      </c>
+      <c r="L37" t="s">
         <v>33</v>
       </c>
-      <c r="L13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:13">
-      <c r="C14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="M37" t="s">
+        <v>142</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:14">
+      <c r="C38" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E38" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38" t="s">
+        <v>243</v>
+      </c>
+      <c r="H38" t="s">
+        <v>244</v>
+      </c>
+      <c r="I38">
         <v>90</v>
       </c>
-      <c r="E14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J38">
+        <v>476000000</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>32000000</v>
+      </c>
+      <c r="L38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38" t="s">
+        <v>142</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:14">
+      <c r="C39" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39" t="s">
+        <v>246</v>
+      </c>
+      <c r="E39" t="s">
+        <v>247</v>
+      </c>
+      <c r="F39" t="s">
+        <v>248</v>
+      </c>
+      <c r="G39" t="s">
+        <v>249</v>
+      </c>
+      <c r="H39" t="s">
+        <v>250</v>
+      </c>
+      <c r="I39">
         <v>95</v>
       </c>
-      <c r="J14" t="s">
-        <v>96</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J39">
+        <v>571000000</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>38400000</v>
+      </c>
+      <c r="L39" t="s">
         <v>33</v>
       </c>
-      <c r="L14" t="s">
-        <v>97</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:13">
-      <c r="C15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="M39" t="s">
+        <v>142</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:14">
+      <c r="C40" t="s">
+        <v>251</v>
+      </c>
+      <c r="D40" t="s">
+        <v>252</v>
+      </c>
+      <c r="E40" t="s">
+        <v>253</v>
+      </c>
+      <c r="F40">
+        <v>1391250000</v>
+      </c>
+      <c r="G40" t="s">
+        <v>254</v>
+      </c>
+      <c r="H40" t="s">
+        <v>255</v>
+      </c>
+      <c r="I40">
         <v>100</v>
       </c>
-      <c r="F15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="J40">
+        <v>685000000</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>46000000</v>
+      </c>
+      <c r="L40" t="s">
         <v>33</v>
       </c>
-      <c r="L15" t="s">
-        <v>106</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:13">
-      <c r="C16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" t="s">
-        <v>114</v>
-      </c>
-      <c r="K16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" t="s">
-        <v>115</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:13">
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" t="s">
-        <v>121</v>
-      </c>
-      <c r="J17" t="s">
-        <v>122</v>
-      </c>
-      <c r="K17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" t="s">
-        <v>123</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:13">
-      <c r="C18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H18" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J18" t="s">
-        <v>131</v>
-      </c>
-      <c r="K18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" t="s">
-        <v>132</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:13">
-      <c r="C19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" t="s">
-        <v>138</v>
-      </c>
-      <c r="I19" t="s">
-        <v>139</v>
-      </c>
-      <c r="J19" t="s">
-        <v>140</v>
-      </c>
-      <c r="K19" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" t="s">
-        <v>132</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:13">
-      <c r="C20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="M40" t="s">
         <v>142</v>
       </c>
-      <c r="E20" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H20" t="s">
-        <v>146</v>
-      </c>
-      <c r="I20" t="s">
-        <v>147</v>
-      </c>
-      <c r="J20" t="s">
-        <v>148</v>
-      </c>
-      <c r="K20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" t="s">
-        <v>132</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:13">
-      <c r="C21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" t="s">
-        <v>152</v>
-      </c>
-      <c r="G21" t="s">
-        <v>153</v>
-      </c>
-      <c r="H21" t="s">
-        <v>154</v>
-      </c>
-      <c r="I21" t="s">
-        <v>155</v>
-      </c>
-      <c r="J21" t="s">
-        <v>156</v>
-      </c>
-      <c r="K21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" t="s">
-        <v>157</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:13">
-      <c r="C22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H22" t="s">
-        <v>163</v>
-      </c>
-      <c r="I22" t="s">
-        <v>164</v>
-      </c>
-      <c r="J22" t="s">
-        <v>165</v>
-      </c>
-      <c r="K22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" t="s">
-        <v>157</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:13">
-      <c r="C23" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" t="s">
-        <v>169</v>
-      </c>
-      <c r="G23" t="s">
-        <v>170</v>
-      </c>
-      <c r="H23" t="s">
-        <v>171</v>
-      </c>
-      <c r="I23" t="s">
-        <v>172</v>
-      </c>
-      <c r="J23" t="s">
-        <v>173</v>
-      </c>
-      <c r="K23" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" t="s">
-        <v>157</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:13">
-      <c r="C24" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" t="s">
-        <v>176</v>
-      </c>
-      <c r="F24" t="s">
-        <v>177</v>
-      </c>
-      <c r="G24" t="s">
-        <v>178</v>
-      </c>
-      <c r="H24" t="s">
-        <v>179</v>
-      </c>
-      <c r="I24" t="s">
-        <v>180</v>
-      </c>
-      <c r="J24" t="s">
-        <v>181</v>
-      </c>
-      <c r="K24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" t="s">
-        <v>157</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:13">
-      <c r="C25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" t="s">
-        <v>183</v>
-      </c>
-      <c r="E25" t="s">
-        <v>184</v>
-      </c>
-      <c r="F25" t="s">
-        <v>185</v>
-      </c>
-      <c r="G25" t="s">
-        <v>186</v>
-      </c>
-      <c r="H25" t="s">
-        <v>187</v>
-      </c>
-      <c r="I25" t="s">
-        <v>188</v>
-      </c>
-      <c r="J25" t="s">
-        <v>189</v>
-      </c>
-      <c r="K25" t="s">
-        <v>33</v>
-      </c>
-      <c r="L25" t="s">
-        <v>157</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:13">
-      <c r="C26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D26" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" t="s">
-        <v>192</v>
-      </c>
-      <c r="F26" t="s">
-        <v>193</v>
-      </c>
-      <c r="G26" t="s">
-        <v>194</v>
-      </c>
-      <c r="H26" t="s">
-        <v>195</v>
-      </c>
-      <c r="I26" t="s">
-        <v>196</v>
-      </c>
-      <c r="J26" t="s">
-        <v>197</v>
-      </c>
-      <c r="K26" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" t="s">
-        <v>157</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:13">
-      <c r="C27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" t="s">
-        <v>199</v>
-      </c>
-      <c r="E27" t="s">
-        <v>200</v>
-      </c>
-      <c r="F27" t="s">
-        <v>201</v>
-      </c>
-      <c r="G27" t="s">
-        <v>202</v>
-      </c>
-      <c r="H27" t="s">
-        <v>203</v>
-      </c>
-      <c r="I27" t="s">
-        <v>204</v>
-      </c>
-      <c r="J27" t="s">
-        <v>205</v>
-      </c>
-      <c r="K27" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" t="s">
-        <v>157</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:13">
-      <c r="C28" t="s">
-        <v>206</v>
-      </c>
-      <c r="D28" t="s">
-        <v>207</v>
-      </c>
-      <c r="E28" t="s">
-        <v>208</v>
-      </c>
-      <c r="F28" t="s">
-        <v>209</v>
-      </c>
-      <c r="G28" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" t="s">
-        <v>211</v>
-      </c>
-      <c r="I28" t="s">
-        <v>212</v>
-      </c>
-      <c r="J28" t="s">
-        <v>213</v>
-      </c>
-      <c r="K28" t="s">
-        <v>33</v>
-      </c>
-      <c r="L28" t="s">
-        <v>157</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:13">
-      <c r="C29" t="s">
-        <v>214</v>
-      </c>
-      <c r="D29" t="s">
-        <v>215</v>
-      </c>
-      <c r="E29" t="s">
-        <v>216</v>
-      </c>
-      <c r="F29" t="s">
-        <v>217</v>
-      </c>
-      <c r="G29" t="s">
-        <v>218</v>
-      </c>
-      <c r="H29" t="s">
-        <v>219</v>
-      </c>
-      <c r="I29" t="s">
-        <v>220</v>
-      </c>
-      <c r="J29" t="s">
-        <v>221</v>
-      </c>
-      <c r="K29" t="s">
-        <v>33</v>
-      </c>
-      <c r="L29" t="s">
-        <v>157</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:13">
-      <c r="C30" t="s">
-        <v>222</v>
-      </c>
-      <c r="D30" t="s">
-        <v>223</v>
-      </c>
-      <c r="E30" t="s">
-        <v>224</v>
-      </c>
-      <c r="F30" t="s">
-        <v>225</v>
-      </c>
-      <c r="G30" t="s">
-        <v>226</v>
-      </c>
-      <c r="H30" t="s">
-        <v>227</v>
-      </c>
-      <c r="I30" t="s">
-        <v>228</v>
-      </c>
-      <c r="J30" t="s">
-        <v>229</v>
-      </c>
-      <c r="K30" t="s">
-        <v>33</v>
-      </c>
-      <c r="L30" t="s">
-        <v>157</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:13">
-      <c r="C31" t="s">
-        <v>230</v>
-      </c>
-      <c r="D31" t="s">
-        <v>231</v>
-      </c>
-      <c r="E31" t="s">
-        <v>232</v>
-      </c>
-      <c r="F31" t="s">
-        <v>233</v>
-      </c>
-      <c r="G31" t="s">
-        <v>234</v>
-      </c>
-      <c r="H31" t="s">
-        <v>235</v>
-      </c>
-      <c r="I31" t="s">
-        <v>236</v>
-      </c>
-      <c r="J31" t="s">
-        <v>237</v>
-      </c>
-      <c r="K31" t="s">
-        <v>33</v>
-      </c>
-      <c r="L31" t="s">
-        <v>157</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:13">
-      <c r="C32" t="s">
-        <v>238</v>
-      </c>
-      <c r="D32" t="s">
-        <v>239</v>
-      </c>
-      <c r="E32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F32" t="s">
-        <v>241</v>
-      </c>
-      <c r="G32" t="s">
-        <v>242</v>
-      </c>
-      <c r="H32" t="s">
-        <v>243</v>
-      </c>
-      <c r="I32" t="s">
-        <v>244</v>
-      </c>
-      <c r="J32" t="s">
-        <v>245</v>
-      </c>
-      <c r="K32" t="s">
-        <v>33</v>
-      </c>
-      <c r="L32" t="s">
-        <v>157</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:13">
-      <c r="C33" t="s">
-        <v>246</v>
-      </c>
-      <c r="D33" t="s">
-        <v>247</v>
-      </c>
-      <c r="E33" t="s">
-        <v>248</v>
-      </c>
-      <c r="F33" t="s">
-        <v>249</v>
-      </c>
-      <c r="G33" t="s">
-        <v>250</v>
-      </c>
-      <c r="H33" t="s">
-        <v>251</v>
-      </c>
-      <c r="I33" t="s">
-        <v>252</v>
-      </c>
-      <c r="J33" t="s">
-        <v>253</v>
-      </c>
-      <c r="K33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L33" t="s">
-        <v>157</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:13">
-      <c r="C34" t="s">
-        <v>254</v>
-      </c>
-      <c r="D34" t="s">
-        <v>255</v>
-      </c>
-      <c r="E34" t="s">
-        <v>256</v>
-      </c>
-      <c r="F34" t="s">
-        <v>257</v>
-      </c>
-      <c r="G34" t="s">
-        <v>258</v>
-      </c>
-      <c r="H34" t="s">
-        <v>259</v>
-      </c>
-      <c r="I34" t="s">
-        <v>260</v>
-      </c>
-      <c r="J34" t="s">
-        <v>261</v>
-      </c>
-      <c r="K34" t="s">
-        <v>33</v>
-      </c>
-      <c r="L34" t="s">
-        <v>157</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:13">
-      <c r="C35" t="s">
-        <v>262</v>
-      </c>
-      <c r="D35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E35" t="s">
-        <v>264</v>
-      </c>
-      <c r="F35" t="s">
-        <v>265</v>
-      </c>
-      <c r="G35" t="s">
-        <v>266</v>
-      </c>
-      <c r="H35" t="s">
-        <v>267</v>
-      </c>
-      <c r="I35" t="s">
-        <v>268</v>
-      </c>
-      <c r="J35" t="s">
-        <v>269</v>
-      </c>
-      <c r="K35" t="s">
-        <v>33</v>
-      </c>
-      <c r="L35" t="s">
-        <v>157</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:13">
-      <c r="C36" t="s">
-        <v>270</v>
-      </c>
-      <c r="D36" t="s">
-        <v>271</v>
-      </c>
-      <c r="E36" t="s">
-        <v>272</v>
-      </c>
-      <c r="F36" t="s">
-        <v>273</v>
-      </c>
-      <c r="G36" t="s">
-        <v>274</v>
-      </c>
-      <c r="H36" t="s">
-        <v>275</v>
-      </c>
-      <c r="I36" t="s">
-        <v>276</v>
-      </c>
-      <c r="J36" t="s">
-        <v>277</v>
-      </c>
-      <c r="K36" t="s">
-        <v>33</v>
-      </c>
-      <c r="L36" t="s">
-        <v>157</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:13">
-      <c r="C37" t="s">
-        <v>278</v>
-      </c>
-      <c r="D37" t="s">
-        <v>279</v>
-      </c>
-      <c r="E37" t="s">
-        <v>280</v>
-      </c>
-      <c r="F37" t="s">
-        <v>281</v>
-      </c>
-      <c r="G37" t="s">
-        <v>282</v>
-      </c>
-      <c r="H37" t="s">
-        <v>283</v>
-      </c>
-      <c r="I37" t="s">
-        <v>284</v>
-      </c>
-      <c r="J37" t="s">
-        <v>285</v>
-      </c>
-      <c r="K37" t="s">
-        <v>33</v>
-      </c>
-      <c r="L37" t="s">
-        <v>157</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:13">
-      <c r="C38" t="s">
-        <v>286</v>
-      </c>
-      <c r="D38" t="s">
-        <v>287</v>
-      </c>
-      <c r="E38" t="s">
-        <v>288</v>
-      </c>
-      <c r="F38" t="s">
-        <v>289</v>
-      </c>
-      <c r="G38" t="s">
-        <v>290</v>
-      </c>
-      <c r="H38" t="s">
-        <v>291</v>
-      </c>
-      <c r="I38" t="s">
-        <v>292</v>
-      </c>
-      <c r="J38" t="s">
-        <v>293</v>
-      </c>
-      <c r="K38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L38" t="s">
-        <v>157</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:13">
-      <c r="C39" t="s">
-        <v>294</v>
-      </c>
-      <c r="D39" t="s">
-        <v>295</v>
-      </c>
-      <c r="E39" t="s">
-        <v>296</v>
-      </c>
-      <c r="F39" t="s">
-        <v>297</v>
-      </c>
-      <c r="G39" t="s">
-        <v>298</v>
-      </c>
-      <c r="H39" t="s">
-        <v>299</v>
-      </c>
-      <c r="I39" t="s">
-        <v>300</v>
-      </c>
-      <c r="J39" t="s">
-        <v>301</v>
-      </c>
-      <c r="K39" t="s">
-        <v>33</v>
-      </c>
-      <c r="L39" t="s">
-        <v>157</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:13">
-      <c r="C40" t="s">
-        <v>302</v>
-      </c>
-      <c r="D40" t="s">
-        <v>303</v>
-      </c>
-      <c r="E40" t="s">
-        <v>304</v>
-      </c>
-      <c r="F40" t="s">
-        <v>305</v>
-      </c>
-      <c r="G40" t="s">
-        <v>306</v>
-      </c>
-      <c r="H40" t="s">
-        <v>307</v>
-      </c>
-      <c r="I40" t="s">
-        <v>308</v>
-      </c>
-      <c r="J40" t="s">
-        <v>309</v>
-      </c>
-      <c r="K40" t="s">
-        <v>33</v>
-      </c>
-      <c r="L40" t="s">
-        <v>157</v>
-      </c>
-      <c r="M40">
+      <c r="N40">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 F3:H4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 K5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 K3:K4 F3:H4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -3479,16 +3456,16 @@
         <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -3498,34 +3475,34 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -3535,34 +3512,34 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="291">
   <si>
     <t>ID</t>
   </si>
@@ -871,6 +871,111 @@
   </si>
   <si>
     <t>139125000000</t>
+  </si>
+  <si>
+    <t>10035</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>幻影鸡王</t>
+  </si>
+  <si>
+    <t>1956850000</t>
+  </si>
+  <si>
+    <t>391370000</t>
+  </si>
+  <si>
+    <t>195685000000</t>
+  </si>
+  <si>
+    <t>528000000</t>
+  </si>
+  <si>
+    <t>10036</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>幻影鹿王</t>
+  </si>
+  <si>
+    <t>2752350000</t>
+  </si>
+  <si>
+    <t>550470000</t>
+  </si>
+  <si>
+    <t>275235000000</t>
+  </si>
+  <si>
+    <t>561000000</t>
+  </si>
+  <si>
+    <t>10037</t>
+  </si>
+  <si>
+    <t>1037</t>
+  </si>
+  <si>
+    <t>幻影草王</t>
+  </si>
+  <si>
+    <t>3871300000</t>
+  </si>
+  <si>
+    <t>774260000</t>
+  </si>
+  <si>
+    <t>387130000000</t>
+  </si>
+  <si>
+    <t>595000000</t>
+  </si>
+  <si>
+    <t>10038</t>
+  </si>
+  <si>
+    <t>1038</t>
+  </si>
+  <si>
+    <t>幻影猫王</t>
+  </si>
+  <si>
+    <t>5445100000</t>
+  </si>
+  <si>
+    <t>1089020000</t>
+  </si>
+  <si>
+    <t>544510000000</t>
+  </si>
+  <si>
+    <t>630000000</t>
+  </si>
+  <si>
+    <t>10039</t>
+  </si>
+  <si>
+    <t>1039</t>
+  </si>
+  <si>
+    <t>幻影花王</t>
+  </si>
+  <si>
+    <t>7658700000</t>
+  </si>
+  <si>
+    <t>1531740000</t>
+  </si>
+  <si>
+    <t>765870000000</t>
+  </si>
+  <si>
+    <t>666000000</t>
   </si>
 </sst>
 </file>
@@ -1841,10 +1946,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2495,11 +2600,11 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12900000</v>
+        <v>30000000</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18:K40" si="0">J12/5</f>
-        <v>380000</v>
+        <f t="shared" ref="K18:K45" si="0">J18/5</f>
+        <v>6000000</v>
       </c>
       <c r="L18" t="s">
         <v>33</v>
@@ -2538,7 +2643,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>540000</v>
+        <v>3080000</v>
       </c>
       <c r="L19" t="s">
         <v>33</v>
@@ -2577,7 +2682,7 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>780000</v>
+        <v>3680000</v>
       </c>
       <c r="L20" t="s">
         <v>33</v>
@@ -2616,7 +2721,7 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>1100000</v>
+        <v>4400000</v>
       </c>
       <c r="L21" t="s">
         <v>33</v>
@@ -2655,7 +2760,7 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>1540000</v>
+        <v>5280000</v>
       </c>
       <c r="L22" t="s">
         <v>33</v>
@@ -2694,7 +2799,7 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>2160000</v>
+        <v>6320000</v>
       </c>
       <c r="L23" t="s">
         <v>33</v>
@@ -2733,7 +2838,7 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>2580000</v>
+        <v>7580000</v>
       </c>
       <c r="L24" t="s">
         <v>33</v>
@@ -2772,7 +2877,7 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>3080000</v>
+        <v>9080000</v>
       </c>
       <c r="L25" t="s">
         <v>33</v>
@@ -2811,7 +2916,7 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>3680000</v>
+        <v>10880000</v>
       </c>
       <c r="L26" t="s">
         <v>33</v>
@@ -2850,7 +2955,7 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>4400000</v>
+        <v>13040000</v>
       </c>
       <c r="L27" t="s">
         <v>33</v>
@@ -2889,7 +2994,7 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>5280000</v>
+        <v>15640000</v>
       </c>
       <c r="L28" t="s">
         <v>33</v>
@@ -2928,7 +3033,7 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>6320000</v>
+        <v>18760000</v>
       </c>
       <c r="L29" t="s">
         <v>33</v>
@@ -2963,11 +3068,11 @@
         <v>50</v>
       </c>
       <c r="J30">
-        <v>112000000</v>
+        <v>100000000</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>7580000</v>
+        <v>20000000</v>
       </c>
       <c r="L30" t="s">
         <v>33</v>
@@ -3002,11 +3107,11 @@
         <v>55</v>
       </c>
       <c r="J31">
-        <v>134000000</v>
+        <v>30000000</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>9080000</v>
+        <v>6000000</v>
       </c>
       <c r="L31" t="s">
         <v>33</v>
@@ -3045,7 +3150,7 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>10880000</v>
+        <v>32000000</v>
       </c>
       <c r="L32" t="s">
         <v>33</v>
@@ -3084,7 +3189,7 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>13040000</v>
+        <v>38400000</v>
       </c>
       <c r="L33" t="s">
         <v>33</v>
@@ -3123,7 +3228,7 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>15640000</v>
+        <v>46000000</v>
       </c>
       <c r="L34" t="s">
         <v>33</v>
@@ -3162,7 +3267,7 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>18760000</v>
+        <v>55200000</v>
       </c>
       <c r="L35" t="s">
         <v>33</v>
@@ -3201,7 +3306,7 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>22400000</v>
+        <v>66200000</v>
       </c>
       <c r="L36" t="s">
         <v>33</v>
@@ -3240,7 +3345,7 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>26800000</v>
+        <v>79400000</v>
       </c>
       <c r="L37" t="s">
         <v>33</v>
@@ -3279,7 +3384,7 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>32000000</v>
+        <v>95200000</v>
       </c>
       <c r="L38" t="s">
         <v>33</v>
@@ -3318,7 +3423,7 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>38400000</v>
+        <v>114200000</v>
       </c>
       <c r="L39" t="s">
         <v>33</v>
@@ -3357,7 +3462,7 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>46000000</v>
+        <v>137000000</v>
       </c>
       <c r="L40" t="s">
         <v>33</v>
@@ -3368,6 +3473,219 @@
       <c r="N40">
         <v>0</v>
       </c>
+    </row>
+    <row r="41" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" t="s">
+        <v>257</v>
+      </c>
+      <c r="E41" t="s">
+        <v>258</v>
+      </c>
+      <c r="F41" t="s">
+        <v>259</v>
+      </c>
+      <c r="G41" t="s">
+        <v>260</v>
+      </c>
+      <c r="H41" t="s">
+        <v>261</v>
+      </c>
+      <c r="I41">
+        <v>105</v>
+      </c>
+      <c r="J41" t="s">
+        <v>262</v>
+      </c>
+      <c r="K41" t="s">
+        <v>262</v>
+      </c>
+      <c r="L41" t="s">
+        <v>33</v>
+      </c>
+      <c r="M41" t="s">
+        <v>142</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" t="s">
+        <v>264</v>
+      </c>
+      <c r="E42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F42" t="s">
+        <v>266</v>
+      </c>
+      <c r="G42" t="s">
+        <v>267</v>
+      </c>
+      <c r="H42" t="s">
+        <v>268</v>
+      </c>
+      <c r="I42">
+        <v>110</v>
+      </c>
+      <c r="J42" t="s">
+        <v>269</v>
+      </c>
+      <c r="K42" t="s">
+        <v>269</v>
+      </c>
+      <c r="L42" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" t="s">
+        <v>142</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" t="s">
+        <v>271</v>
+      </c>
+      <c r="E43" t="s">
+        <v>272</v>
+      </c>
+      <c r="F43" t="s">
+        <v>273</v>
+      </c>
+      <c r="G43" t="s">
+        <v>274</v>
+      </c>
+      <c r="H43" t="s">
+        <v>275</v>
+      </c>
+      <c r="I43">
+        <v>115</v>
+      </c>
+      <c r="J43" t="s">
+        <v>276</v>
+      </c>
+      <c r="K43" t="s">
+        <v>276</v>
+      </c>
+      <c r="L43" t="s">
+        <v>33</v>
+      </c>
+      <c r="M43" t="s">
+        <v>142</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s">
+        <v>277</v>
+      </c>
+      <c r="D44" t="s">
+        <v>278</v>
+      </c>
+      <c r="E44" t="s">
+        <v>279</v>
+      </c>
+      <c r="F44" t="s">
+        <v>280</v>
+      </c>
+      <c r="G44" t="s">
+        <v>281</v>
+      </c>
+      <c r="H44" t="s">
+        <v>282</v>
+      </c>
+      <c r="I44">
+        <v>120</v>
+      </c>
+      <c r="J44" t="s">
+        <v>283</v>
+      </c>
+      <c r="K44" t="s">
+        <v>283</v>
+      </c>
+      <c r="L44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" t="s">
+        <v>142</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s">
+        <v>284</v>
+      </c>
+      <c r="D45" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" t="s">
+        <v>287</v>
+      </c>
+      <c r="G45" t="s">
+        <v>288</v>
+      </c>
+      <c r="H45" t="s">
+        <v>289</v>
+      </c>
+      <c r="I45">
+        <v>125</v>
+      </c>
+      <c r="J45" t="s">
+        <v>290</v>
+      </c>
+      <c r="K45" t="s">
+        <v>290</v>
+      </c>
+      <c r="L45" t="s">
+        <v>33</v>
+      </c>
+      <c r="M45" t="s">
+        <v>142</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="314">
   <si>
     <t>ID</t>
   </si>
@@ -306,7 +306,7 @@
     <t>7000000</t>
   </si>
   <si>
-    <t>1400000</t>
+    <t>3000000</t>
   </si>
   <si>
     <t>15</t>
@@ -330,7 +330,7 @@
     <t>9500000</t>
   </si>
   <si>
-    <t>1900000</t>
+    <t>6000000</t>
   </si>
   <si>
     <t>12</t>
@@ -354,7 +354,7 @@
     <t>13500000</t>
   </si>
   <si>
-    <t>2700000</t>
+    <t>10000000</t>
   </si>
   <si>
     <t>11</t>
@@ -378,7 +378,7 @@
     <t>19500000</t>
   </si>
   <si>
-    <t>3900000</t>
+    <t>15000000</t>
   </si>
   <si>
     <t>10</t>
@@ -402,7 +402,7 @@
     <t>27500000</t>
   </si>
   <si>
-    <t>5500000</t>
+    <t>21000000</t>
   </si>
   <si>
     <t>9</t>
@@ -426,7 +426,7 @@
     <t>38500000</t>
   </si>
   <si>
-    <t>7700000</t>
+    <t>28000000</t>
   </si>
   <si>
     <t>8</t>
@@ -450,7 +450,7 @@
     <t>54000000</t>
   </si>
   <si>
-    <t>10800000</t>
+    <t>36000000</t>
   </si>
   <si>
     <t>7</t>
@@ -474,6 +474,9 @@
     <t>76500000</t>
   </si>
   <si>
+    <t>45000000</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -495,6 +498,9 @@
     <t>107500000</t>
   </si>
   <si>
+    <t>55000000</t>
+  </si>
+  <si>
     <t>10014</t>
   </si>
   <si>
@@ -513,6 +519,9 @@
     <t>151500000</t>
   </si>
   <si>
+    <t>66000000</t>
+  </si>
+  <si>
     <t>10015</t>
   </si>
   <si>
@@ -531,6 +540,9 @@
     <t>213000000</t>
   </si>
   <si>
+    <t>78000000</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -552,6 +564,9 @@
     <t>299500000</t>
   </si>
   <si>
+    <t>91000000</t>
+  </si>
+  <si>
     <t>10017</t>
   </si>
   <si>
@@ -570,6 +585,9 @@
     <t>421500000</t>
   </si>
   <si>
+    <t>105000000</t>
+  </si>
+  <si>
     <t>10018</t>
   </si>
   <si>
@@ -588,6 +606,9 @@
     <t>590000000</t>
   </si>
   <si>
+    <t>120000000</t>
+  </si>
+  <si>
     <t>10019</t>
   </si>
   <si>
@@ -606,6 +627,9 @@
     <t>830000000</t>
   </si>
   <si>
+    <t>136000000</t>
+  </si>
+  <si>
     <t>10020</t>
   </si>
   <si>
@@ -624,6 +648,9 @@
     <t>1170000000</t>
   </si>
   <si>
+    <t>153000000</t>
+  </si>
+  <si>
     <t>10021</t>
   </si>
   <si>
@@ -642,6 +669,9 @@
     <t>1650000000</t>
   </si>
   <si>
+    <t>171000000</t>
+  </si>
+  <si>
     <t>10022</t>
   </si>
   <si>
@@ -660,6 +690,9 @@
     <t>2320000000</t>
   </si>
   <si>
+    <t>190000000</t>
+  </si>
+  <si>
     <t>10023</t>
   </si>
   <si>
@@ -678,6 +711,9 @@
     <t>3260000000</t>
   </si>
   <si>
+    <t>210000000</t>
+  </si>
+  <si>
     <t>10024</t>
   </si>
   <si>
@@ -696,6 +732,9 @@
     <t>4590000000</t>
   </si>
   <si>
+    <t>231000000</t>
+  </si>
+  <si>
     <t>10025</t>
   </si>
   <si>
@@ -714,6 +753,9 @@
     <t>6455000000</t>
   </si>
   <si>
+    <t>253000000</t>
+  </si>
+  <si>
     <t>10026</t>
   </si>
   <si>
@@ -732,6 +774,9 @@
     <t>9080000000</t>
   </si>
   <si>
+    <t>276000000</t>
+  </si>
+  <si>
     <t>10027</t>
   </si>
   <si>
@@ -750,6 +795,9 @@
     <t>12775000000</t>
   </si>
   <si>
+    <t>300000000</t>
+  </si>
+  <si>
     <t>10028</t>
   </si>
   <si>
@@ -768,6 +816,9 @@
     <t>17965000000</t>
   </si>
   <si>
+    <t>325000000</t>
+  </si>
+  <si>
     <t>10029</t>
   </si>
   <si>
@@ -786,6 +837,9 @@
     <t>25270000000</t>
   </si>
   <si>
+    <t>351000000</t>
+  </si>
+  <si>
     <t>10030</t>
   </si>
   <si>
@@ -804,6 +858,9 @@
     <t>35545000000</t>
   </si>
   <si>
+    <t>378000000</t>
+  </si>
+  <si>
     <t>10031</t>
   </si>
   <si>
@@ -822,6 +879,9 @@
     <t>50000000000</t>
   </si>
   <si>
+    <t>406000000</t>
+  </si>
+  <si>
     <t>10032</t>
   </si>
   <si>
@@ -840,6 +900,9 @@
     <t>70325000000</t>
   </si>
   <si>
+    <t>435000000</t>
+  </si>
+  <si>
     <t>10033</t>
   </si>
   <si>
@@ -858,6 +921,9 @@
     <t>98915000000</t>
   </si>
   <si>
+    <t>465000000</t>
+  </si>
+  <si>
     <t>10034</t>
   </si>
   <si>
@@ -871,6 +937,9 @@
   </si>
   <si>
     <t>139125000000</t>
+  </si>
+  <si>
+    <t>496000000</t>
   </si>
   <si>
     <t>10035</t>
@@ -1154,12 +1223,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1948,8 +2017,8 @@
   <sheetPr/>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="K45" sqref="J6:K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2599,18 +2668,17 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>30000000</v>
-      </c>
-      <c r="K18">
-        <f t="shared" ref="K18:K45" si="0">J18/5</f>
-        <v>6000000</v>
+      <c r="J18" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" t="s">
+        <v>123</v>
       </c>
       <c r="L18" t="s">
         <v>33</v>
       </c>
       <c r="M18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2618,38 +2686,37 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:14">
       <c r="C19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>15400000</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
-        <v>3080000</v>
+      <c r="J19" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" t="s">
+        <v>131</v>
       </c>
       <c r="L19" t="s">
         <v>33</v>
       </c>
       <c r="M19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2657,38 +2724,37 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:14">
       <c r="C20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>18400000</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
-        <v>3680000</v>
+      <c r="J20" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" t="s">
+        <v>138</v>
       </c>
       <c r="L20" t="s">
         <v>33</v>
       </c>
       <c r="M20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2696,38 +2762,37 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:14">
       <c r="C21" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I21">
         <v>5</v>
       </c>
-      <c r="J21">
-        <v>22000000</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>4400000</v>
+      <c r="J21" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" t="s">
+        <v>145</v>
       </c>
       <c r="L21" t="s">
         <v>33</v>
       </c>
       <c r="M21" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2735,38 +2800,37 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:14">
       <c r="C22" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E22" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I22">
         <v>10</v>
       </c>
-      <c r="J22">
-        <v>26400000</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="0"/>
-        <v>5280000</v>
+      <c r="J22" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" t="s">
+        <v>153</v>
       </c>
       <c r="L22" t="s">
         <v>33</v>
       </c>
       <c r="M22" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2774,38 +2838,37 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:14">
       <c r="C23" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F23" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G23" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H23" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I23">
         <v>15</v>
       </c>
-      <c r="J23">
-        <v>31600000</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>6320000</v>
+      <c r="J23" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" t="s">
+        <v>160</v>
       </c>
       <c r="L23" t="s">
         <v>33</v>
       </c>
       <c r="M23" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2813,38 +2876,37 @@
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:14">
       <c r="C24" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G24" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H24" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I24">
         <v>20</v>
       </c>
-      <c r="J24">
-        <v>37900000</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>7580000</v>
+      <c r="J24" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" t="s">
+        <v>167</v>
       </c>
       <c r="L24" t="s">
         <v>33</v>
       </c>
       <c r="M24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2852,38 +2914,37 @@
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:14">
       <c r="C25" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G25" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="H25" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="I25">
         <v>25</v>
       </c>
-      <c r="J25">
-        <v>45400000</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>9080000</v>
+      <c r="J25" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" t="s">
+        <v>174</v>
       </c>
       <c r="L25" t="s">
         <v>33</v>
       </c>
       <c r="M25" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2891,38 +2952,37 @@
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:14">
       <c r="C26" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E26" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G26" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="H26" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I26">
         <v>30</v>
       </c>
-      <c r="J26">
-        <v>54400000</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="0"/>
-        <v>10880000</v>
+      <c r="J26" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" t="s">
+        <v>181</v>
       </c>
       <c r="L26" t="s">
         <v>33</v>
       </c>
       <c r="M26" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2930,38 +2990,37 @@
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:14">
       <c r="C27" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D27" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F27" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G27" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H27" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="I27">
         <v>35</v>
       </c>
-      <c r="J27">
-        <v>65200000</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="0"/>
-        <v>13040000</v>
+      <c r="J27" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" t="s">
+        <v>188</v>
       </c>
       <c r="L27" t="s">
         <v>33</v>
       </c>
       <c r="M27" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2969,38 +3028,37 @@
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:14">
       <c r="C28" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E28" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F28" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G28" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="H28" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I28">
         <v>40</v>
       </c>
-      <c r="J28">
-        <v>78200000</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="0"/>
-        <v>15640000</v>
+      <c r="J28" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" t="s">
+        <v>195</v>
       </c>
       <c r="L28" t="s">
         <v>33</v>
       </c>
       <c r="M28" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -3008,38 +3066,37 @@
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:14">
       <c r="C29" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E29" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="F29" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="G29" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="H29" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="I29">
         <v>450</v>
       </c>
-      <c r="J29">
-        <v>93800000</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>18760000</v>
+      <c r="J29" t="s">
+        <v>202</v>
+      </c>
+      <c r="K29" t="s">
+        <v>202</v>
       </c>
       <c r="L29" t="s">
         <v>33</v>
       </c>
       <c r="M29" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -3047,38 +3104,37 @@
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:14">
       <c r="C30" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D30" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F30" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="G30" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="H30" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="I30">
         <v>50</v>
       </c>
-      <c r="J30">
-        <v>100000000</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="0"/>
-        <v>20000000</v>
+      <c r="J30" t="s">
+        <v>209</v>
+      </c>
+      <c r="K30" t="s">
+        <v>209</v>
       </c>
       <c r="L30" t="s">
         <v>33</v>
       </c>
       <c r="M30" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3086,38 +3142,37 @@
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:14">
       <c r="C31" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="D31" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="E31" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="F31" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="G31" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="H31" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="I31">
         <v>55</v>
       </c>
-      <c r="J31">
-        <v>30000000</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="0"/>
-        <v>6000000</v>
+      <c r="J31" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" t="s">
+        <v>216</v>
       </c>
       <c r="L31" t="s">
         <v>33</v>
       </c>
       <c r="M31" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3125,38 +3180,37 @@
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:14">
       <c r="C32" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="D32" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F32" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="G32" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="H32" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="I32">
         <v>60</v>
       </c>
-      <c r="J32">
-        <v>160000000</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="0"/>
-        <v>32000000</v>
+      <c r="J32" t="s">
+        <v>223</v>
+      </c>
+      <c r="K32" t="s">
+        <v>223</v>
       </c>
       <c r="L32" t="s">
         <v>33</v>
       </c>
       <c r="M32" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -3164,38 +3218,37 @@
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:14">
       <c r="C33" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="D33" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="E33" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="F33" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="G33" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="H33" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="I33">
         <v>65</v>
       </c>
-      <c r="J33">
-        <v>192000000</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="0"/>
-        <v>38400000</v>
+      <c r="J33" t="s">
+        <v>230</v>
+      </c>
+      <c r="K33" t="s">
+        <v>230</v>
       </c>
       <c r="L33" t="s">
         <v>33</v>
       </c>
       <c r="M33" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3203,38 +3256,37 @@
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:14">
       <c r="C34" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D34" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="E34" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F34" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G34" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="H34" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="I34">
         <v>70</v>
       </c>
-      <c r="J34">
-        <v>230000000</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="0"/>
-        <v>46000000</v>
+      <c r="J34" t="s">
+        <v>237</v>
+      </c>
+      <c r="K34" t="s">
+        <v>237</v>
       </c>
       <c r="L34" t="s">
         <v>33</v>
       </c>
       <c r="M34" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3242,38 +3294,37 @@
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:14">
       <c r="C35" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="D35" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="E35" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="F35" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G35" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="H35" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="I35">
         <v>75</v>
       </c>
-      <c r="J35">
-        <v>276000000</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="0"/>
-        <v>55200000</v>
+      <c r="J35" t="s">
+        <v>244</v>
+      </c>
+      <c r="K35" t="s">
+        <v>244</v>
       </c>
       <c r="L35" t="s">
         <v>33</v>
       </c>
       <c r="M35" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3281,38 +3332,37 @@
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:14">
       <c r="C36" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="D36" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="E36" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="F36" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="G36" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="H36" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="I36">
         <v>80</v>
       </c>
-      <c r="J36">
-        <v>331000000</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="0"/>
-        <v>66200000</v>
+      <c r="J36" t="s">
+        <v>251</v>
+      </c>
+      <c r="K36" t="s">
+        <v>251</v>
       </c>
       <c r="L36" t="s">
         <v>33</v>
       </c>
       <c r="M36" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3320,38 +3370,37 @@
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:14">
       <c r="C37" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="D37" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="E37" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="F37" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="G37" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="H37" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="I37">
         <v>85</v>
       </c>
-      <c r="J37">
-        <v>397000000</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="0"/>
-        <v>79400000</v>
+      <c r="J37" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" t="s">
+        <v>258</v>
       </c>
       <c r="L37" t="s">
         <v>33</v>
       </c>
       <c r="M37" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3359,38 +3408,37 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:14">
       <c r="C38" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="D38" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E38" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F38" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="G38" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="H38" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="I38">
         <v>90</v>
       </c>
-      <c r="J38">
-        <v>476000000</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="0"/>
-        <v>95200000</v>
+      <c r="J38" t="s">
+        <v>265</v>
+      </c>
+      <c r="K38" t="s">
+        <v>265</v>
       </c>
       <c r="L38" t="s">
         <v>33</v>
       </c>
       <c r="M38" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3398,38 +3446,37 @@
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:14">
       <c r="C39" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="D39" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="E39" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="F39" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="G39" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="H39" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="I39">
         <v>95</v>
       </c>
-      <c r="J39">
-        <v>571000000</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="0"/>
-        <v>114200000</v>
+      <c r="J39" t="s">
+        <v>272</v>
+      </c>
+      <c r="K39" t="s">
+        <v>272</v>
       </c>
       <c r="L39" t="s">
         <v>33</v>
       </c>
       <c r="M39" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3437,38 +3484,37 @@
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:14">
       <c r="C40" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="D40" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="E40" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="F40">
         <v>1391250000</v>
       </c>
       <c r="G40" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="H40" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="I40">
         <v>100</v>
       </c>
-      <c r="J40">
-        <v>685000000</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="0"/>
-        <v>137000000</v>
+      <c r="J40" t="s">
+        <v>278</v>
+      </c>
+      <c r="K40" t="s">
+        <v>278</v>
       </c>
       <c r="L40" t="s">
         <v>33</v>
       </c>
       <c r="M40" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3478,37 +3524,37 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="D41" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="E41" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="F41" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="G41" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="H41" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="I41">
         <v>105</v>
       </c>
       <c r="J41" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="K41" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="L41" t="s">
         <v>33</v>
       </c>
       <c r="M41" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3520,37 +3566,37 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="D42" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E42" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="F42" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="G42" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="H42" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="I42">
         <v>110</v>
       </c>
       <c r="J42" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="K42" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="L42" t="s">
         <v>33</v>
       </c>
       <c r="M42" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3562,37 +3608,37 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="D43" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="E43" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="F43" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="G43" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="H43" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="I43">
         <v>115</v>
       </c>
       <c r="J43" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="K43" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="L43" t="s">
         <v>33</v>
       </c>
       <c r="M43" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3604,37 +3650,37 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="D44" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="E44" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="F44" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="G44" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="H44" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="I44">
         <v>120</v>
       </c>
       <c r="J44" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="K44" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="L44" t="s">
         <v>33</v>
       </c>
       <c r="M44" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3646,37 +3692,37 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="D45" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="E45" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="F45" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="G45" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="H45" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="I45">
         <v>125</v>
       </c>
       <c r="J45" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="K45" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="L45" t="s">
         <v>33</v>
       </c>
       <c r="M45" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N45">
         <v>0</v>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -2017,8 +2017,8 @@
   <sheetPr/>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="K45" sqref="J6:K45"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3084,7 +3084,7 @@
         <v>201</v>
       </c>
       <c r="I29">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s">
         <v>202</v>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -648,7 +648,7 @@
     <t>1170000000</t>
   </si>
   <si>
-    <t>153000000</t>
+    <t>175950000</t>
   </si>
   <si>
     <t>10021</t>
@@ -669,7 +669,7 @@
     <t>1650000000</t>
   </si>
   <si>
-    <t>171000000</t>
+    <t>222300000</t>
   </si>
   <si>
     <t>10022</t>
@@ -690,7 +690,7 @@
     <t>2320000000</t>
   </si>
   <si>
-    <t>190000000</t>
+    <t>275500000</t>
   </si>
   <si>
     <t>10023</t>
@@ -711,7 +711,7 @@
     <t>3260000000</t>
   </si>
   <si>
-    <t>210000000</t>
+    <t>336000000</t>
   </si>
   <si>
     <t>10024</t>
@@ -732,7 +732,7 @@
     <t>4590000000</t>
   </si>
   <si>
-    <t>231000000</t>
+    <t>404250000</t>
   </si>
   <si>
     <t>10025</t>
@@ -753,7 +753,7 @@
     <t>6455000000</t>
   </si>
   <si>
-    <t>253000000</t>
+    <t>480700000</t>
   </si>
   <si>
     <t>10026</t>
@@ -774,7 +774,7 @@
     <t>9080000000</t>
   </si>
   <si>
-    <t>276000000</t>
+    <t>565800000</t>
   </si>
   <si>
     <t>10027</t>
@@ -795,7 +795,7 @@
     <t>12775000000</t>
   </si>
   <si>
-    <t>300000000</t>
+    <t>660000000</t>
   </si>
   <si>
     <t>10028</t>
@@ -816,7 +816,7 @@
     <t>17965000000</t>
   </si>
   <si>
-    <t>325000000</t>
+    <t>763749999</t>
   </si>
   <si>
     <t>10029</t>
@@ -837,7 +837,7 @@
     <t>25270000000</t>
   </si>
   <si>
-    <t>351000000</t>
+    <t>877500000</t>
   </si>
   <si>
     <t>10030</t>
@@ -858,7 +858,7 @@
     <t>35545000000</t>
   </si>
   <si>
-    <t>378000000</t>
+    <t>1001700000</t>
   </si>
   <si>
     <t>10031</t>
@@ -879,7 +879,7 @@
     <t>50000000000</t>
   </si>
   <si>
-    <t>406000000</t>
+    <t>1136800000</t>
   </si>
   <si>
     <t>10032</t>
@@ -900,7 +900,7 @@
     <t>70325000000</t>
   </si>
   <si>
-    <t>435000000</t>
+    <t>1283250000</t>
   </si>
   <si>
     <t>10033</t>
@@ -921,7 +921,7 @@
     <t>98915000000</t>
   </si>
   <si>
-    <t>465000000</t>
+    <t>1441500000</t>
   </si>
   <si>
     <t>10034</t>
@@ -939,7 +939,7 @@
     <t>139125000000</t>
   </si>
   <si>
-    <t>496000000</t>
+    <t>1612000000</t>
   </si>
   <si>
     <t>10035</t>
@@ -960,7 +960,7 @@
     <t>195685000000</t>
   </si>
   <si>
-    <t>528000000</t>
+    <t>1795200000</t>
   </si>
   <si>
     <t>10036</t>
@@ -981,7 +981,7 @@
     <t>275235000000</t>
   </si>
   <si>
-    <t>561000000</t>
+    <t>1991550000</t>
   </si>
   <si>
     <t>10037</t>
@@ -1002,7 +1002,7 @@
     <t>387130000000</t>
   </si>
   <si>
-    <t>595000000</t>
+    <t>2201500000</t>
   </si>
   <si>
     <t>10038</t>
@@ -1023,7 +1023,7 @@
     <t>544510000000</t>
   </si>
   <si>
-    <t>630000000</t>
+    <t>2425500000</t>
   </si>
   <si>
     <t>10039</t>
@@ -1044,7 +1044,7 @@
     <t>765870000000</t>
   </si>
   <si>
-    <t>666000000</t>
+    <t>2664000000</t>
   </si>
 </sst>
 </file>
@@ -2015,10 +2015,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2032,15 +2032,14 @@
     <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
     <col min="8" max="9" width="15.875" style="2" customWidth="1"/>
     <col min="10" max="10" width="16.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13" style="2" customWidth="1"/>
     <col min="12" max="12" width="16.75" style="1" customWidth="1"/>
-    <col min="13" max="14" width="30.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.625" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="13" max="13" width="18.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="F1" s="2"/>
@@ -2049,10 +2048,8 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:16">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="F2" s="2"/>
@@ -2061,10 +2058,8 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:16">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:14">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -2103,10 +2098,8 @@
       <c r="N3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:16">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:14">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -2145,10 +2138,8 @@
       <c r="N4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:16">
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:14">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -2187,8 +2178,6 @@
       <c r="N5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
     </row>
     <row r="6" customFormat="1" spans="3:14">
       <c r="C6" t="s">
@@ -2228,7 +2217,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" ht="24" customHeight="1" spans="3:14">
+    <row r="7" ht="24" customHeight="1" spans="3:15">
       <c r="C7" t="s">
         <v>35</v>
       </c>
@@ -2265,8 +2254,9 @@
       <c r="N7" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:14">
+      <c r="O7"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:15">
       <c r="C8" t="s">
         <v>41</v>
       </c>
@@ -2303,8 +2293,9 @@
       <c r="N8" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:14">
+      <c r="O8"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:15">
       <c r="C9" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2332,9 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:14">
+      <c r="O9"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:15">
       <c r="C10" t="s">
         <v>56</v>
       </c>
@@ -2379,8 +2371,9 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:14">
+      <c r="O10"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:15">
       <c r="C11" t="s">
         <v>61</v>
       </c>
@@ -2417,8 +2410,9 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:14">
+      <c r="O11"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:15">
       <c r="C12" t="s">
         <v>69</v>
       </c>
@@ -2455,8 +2449,9 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:14">
+      <c r="O12"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:15">
       <c r="C13" t="s">
         <v>77</v>
       </c>
@@ -2493,8 +2488,9 @@
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:14">
+      <c r="O13"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:15">
       <c r="C14" t="s">
         <v>85</v>
       </c>
@@ -2531,8 +2527,9 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:14">
+      <c r="O14"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:15">
       <c r="C15" t="s">
         <v>93</v>
       </c>
@@ -2569,8 +2566,9 @@
       <c r="N15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:14">
+      <c r="O15"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:15">
       <c r="C16" t="s">
         <v>101</v>
       </c>
@@ -2607,8 +2605,9 @@
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:14">
+      <c r="O16"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:15">
       <c r="C17" t="s">
         <v>109</v>
       </c>
@@ -2645,8 +2644,9 @@
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:14">
+      <c r="O17"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:15">
       <c r="C18" t="s">
         <v>117</v>
       </c>
@@ -2683,8 +2683,9 @@
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:14">
+      <c r="O18"/>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:15">
       <c r="C19" t="s">
         <v>125</v>
       </c>
@@ -2721,8 +2722,9 @@
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:14">
+      <c r="O19"/>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:15">
       <c r="C20" t="s">
         <v>132</v>
       </c>
@@ -2759,8 +2761,9 @@
       <c r="N20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:14">
+      <c r="O20"/>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:15">
       <c r="C21" t="s">
         <v>139</v>
       </c>
@@ -2780,7 +2783,8 @@
         <v>144</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <f t="shared" ref="I21:I45" si="0">(D21-1014)*3</f>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
         <v>145</v>
@@ -2797,8 +2801,9 @@
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:14">
+      <c r="O21"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:15">
       <c r="C22" t="s">
         <v>147</v>
       </c>
@@ -2818,7 +2823,8 @@
         <v>152</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="J22" t="s">
         <v>153</v>
@@ -2835,8 +2841,9 @@
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:14">
+      <c r="O22"/>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:15">
       <c r="C23" t="s">
         <v>154</v>
       </c>
@@ -2856,7 +2863,8 @@
         <v>159</v>
       </c>
       <c r="I23">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="J23" t="s">
         <v>160</v>
@@ -2873,8 +2881,9 @@
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:14">
+      <c r="O23"/>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:15">
       <c r="C24" t="s">
         <v>161</v>
       </c>
@@ -2894,7 +2903,8 @@
         <v>166</v>
       </c>
       <c r="I24">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="J24" t="s">
         <v>167</v>
@@ -2911,8 +2921,9 @@
       <c r="N24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:14">
+      <c r="O24"/>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:15">
       <c r="C25" t="s">
         <v>168</v>
       </c>
@@ -2932,7 +2943,8 @@
         <v>173</v>
       </c>
       <c r="I25">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J25" t="s">
         <v>174</v>
@@ -2949,8 +2961,9 @@
       <c r="N25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:14">
+      <c r="O25"/>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:15">
       <c r="C26" t="s">
         <v>175</v>
       </c>
@@ -2970,7 +2983,8 @@
         <v>180</v>
       </c>
       <c r="I26">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
         <v>181</v>
@@ -2987,8 +3001,9 @@
       <c r="N26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:14">
+      <c r="O26"/>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:15">
       <c r="C27" t="s">
         <v>182</v>
       </c>
@@ -3008,7 +3023,8 @@
         <v>187</v>
       </c>
       <c r="I27">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
         <v>188</v>
@@ -3025,8 +3041,9 @@
       <c r="N27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:14">
+      <c r="O27"/>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:15">
       <c r="C28" t="s">
         <v>189</v>
       </c>
@@ -3046,7 +3063,8 @@
         <v>194</v>
       </c>
       <c r="I28">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="J28" t="s">
         <v>195</v>
@@ -3063,8 +3081,9 @@
       <c r="N28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:14">
+      <c r="O28"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:15">
       <c r="C29" t="s">
         <v>196</v>
       </c>
@@ -3084,7 +3103,8 @@
         <v>201</v>
       </c>
       <c r="I29">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="J29" t="s">
         <v>202</v>
@@ -3101,8 +3121,9 @@
       <c r="N29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:14">
+      <c r="O29"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:15">
       <c r="C30" t="s">
         <v>203</v>
       </c>
@@ -3122,7 +3143,8 @@
         <v>208</v>
       </c>
       <c r="I30">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="J30" t="s">
         <v>209</v>
@@ -3139,8 +3161,9 @@
       <c r="N30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:14">
+      <c r="O30"/>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:15">
       <c r="C31" t="s">
         <v>210</v>
       </c>
@@ -3160,7 +3183,8 @@
         <v>215</v>
       </c>
       <c r="I31">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="J31" t="s">
         <v>216</v>
@@ -3177,8 +3201,9 @@
       <c r="N31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:14">
+      <c r="O31"/>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:15">
       <c r="C32" t="s">
         <v>217</v>
       </c>
@@ -3198,7 +3223,8 @@
         <v>222</v>
       </c>
       <c r="I32">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="J32" t="s">
         <v>223</v>
@@ -3215,8 +3241,9 @@
       <c r="N32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:14">
+      <c r="O32"/>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:15">
       <c r="C33" t="s">
         <v>224</v>
       </c>
@@ -3236,7 +3263,8 @@
         <v>229</v>
       </c>
       <c r="I33">
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="J33" t="s">
         <v>230</v>
@@ -3253,8 +3281,9 @@
       <c r="N33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:14">
+      <c r="O33"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:15">
       <c r="C34" t="s">
         <v>231</v>
       </c>
@@ -3274,7 +3303,8 @@
         <v>236</v>
       </c>
       <c r="I34">
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="J34" t="s">
         <v>237</v>
@@ -3291,8 +3321,9 @@
       <c r="N34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:14">
+      <c r="O34"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:15">
       <c r="C35" t="s">
         <v>238</v>
       </c>
@@ -3312,7 +3343,8 @@
         <v>243</v>
       </c>
       <c r="I35">
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="J35" t="s">
         <v>244</v>
@@ -3329,8 +3361,9 @@
       <c r="N35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:14">
+      <c r="O35"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:15">
       <c r="C36" t="s">
         <v>245</v>
       </c>
@@ -3350,7 +3383,8 @@
         <v>250</v>
       </c>
       <c r="I36">
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="J36" t="s">
         <v>251</v>
@@ -3367,8 +3401,9 @@
       <c r="N36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:14">
+      <c r="O36"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:15">
       <c r="C37" t="s">
         <v>252</v>
       </c>
@@ -3388,7 +3423,8 @@
         <v>257</v>
       </c>
       <c r="I37">
-        <v>85</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="J37" t="s">
         <v>258</v>
@@ -3405,8 +3441,9 @@
       <c r="N37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:14">
+      <c r="O37"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:15">
       <c r="C38" t="s">
         <v>259</v>
       </c>
@@ -3426,7 +3463,8 @@
         <v>264</v>
       </c>
       <c r="I38">
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="J38" t="s">
         <v>265</v>
@@ -3443,8 +3481,9 @@
       <c r="N38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:14">
+      <c r="O38"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:15">
       <c r="C39" t="s">
         <v>266</v>
       </c>
@@ -3464,7 +3503,8 @@
         <v>271</v>
       </c>
       <c r="I39">
-        <v>95</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="J39" t="s">
         <v>272</v>
@@ -3481,8 +3521,9 @@
       <c r="N39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:14">
+      <c r="O39"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:15">
       <c r="C40" t="s">
         <v>273</v>
       </c>
@@ -3502,7 +3543,8 @@
         <v>277</v>
       </c>
       <c r="I40">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="J40" t="s">
         <v>278</v>
@@ -3519,8 +3561,9 @@
       <c r="N40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="O40"/>
+    </row>
+    <row r="41" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" t="s">
@@ -3542,7 +3585,8 @@
         <v>284</v>
       </c>
       <c r="I41">
-        <v>105</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="J41" t="s">
         <v>285</v>
@@ -3559,10 +3603,8 @@
       <c r="N41">
         <v>0</v>
       </c>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-    </row>
-    <row r="42" customFormat="1" ht="24" customHeight="1" spans="1:16">
+    </row>
+    <row r="42" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" t="s">
@@ -3584,7 +3626,8 @@
         <v>291</v>
       </c>
       <c r="I42">
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="J42" t="s">
         <v>292</v>
@@ -3601,10 +3644,8 @@
       <c r="N42">
         <v>0</v>
       </c>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-    </row>
-    <row r="43" customFormat="1" ht="24" customHeight="1" spans="1:16">
+    </row>
+    <row r="43" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" t="s">
@@ -3626,7 +3667,8 @@
         <v>298</v>
       </c>
       <c r="I43">
-        <v>115</v>
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
       <c r="J43" t="s">
         <v>299</v>
@@ -3643,10 +3685,8 @@
       <c r="N43">
         <v>0</v>
       </c>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-    </row>
-    <row r="44" customFormat="1" ht="24" customHeight="1" spans="1:16">
+    </row>
+    <row r="44" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" t="s">
@@ -3668,7 +3708,8 @@
         <v>305</v>
       </c>
       <c r="I44">
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="J44" t="s">
         <v>306</v>
@@ -3685,10 +3726,8 @@
       <c r="N44">
         <v>0</v>
       </c>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-    </row>
-    <row r="45" customFormat="1" ht="24" customHeight="1" spans="1:16">
+    </row>
+    <row r="45" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
@@ -3710,7 +3749,8 @@
         <v>312</v>
       </c>
       <c r="I45">
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="J45" t="s">
         <v>313</v>
@@ -3727,15 +3767,13 @@
       <c r="N45">
         <v>0</v>
       </c>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
     </row>
     <row r="46" spans="9:9">
       <c r="I46"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 K5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 K3:K4 F3:H4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 C3:C5 D3:D5 E3:E5 I3:I4 F3:H4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="313">
   <si>
     <t>ID</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>50000</t>
-  </si>
-  <si>
-    <t>102</t>
   </si>
   <si>
     <t>90</t>
@@ -1050,7 +1047,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1079,6 +1076,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1092,6 +1117,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1131,21 +1164,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1196,28 +1214,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1249,13 +1246,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,19 +1312,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,18 +1360,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1333,31 +1372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,19 +1396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,12 +1420,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1440,6 +1437,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1472,21 +1484,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1543,148 +1540,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1699,52 +1696,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2017,8 +2014,8 @@
   <sheetPr/>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2207,11 +2204,9 @@
       <c r="K6" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="N6" s="1">
         <v>-1</v>
@@ -2219,22 +2214,22 @@
     </row>
     <row r="7" ht="24" customHeight="1" spans="3:15">
       <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
       </c>
       <c r="G7" t="s">
         <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2245,11 +2240,9 @@
       <c r="K7" t="s">
         <v>32</v>
       </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
+      <c r="L7"/>
       <c r="M7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7" s="1">
         <v>-1</v>
@@ -2258,37 +2251,35 @@
     </row>
     <row r="8" ht="24" customHeight="1" spans="3:15">
       <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
       </c>
       <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>45</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" t="s">
         <v>46</v>
-      </c>
-      <c r="K8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" t="s">
-        <v>47</v>
       </c>
       <c r="N8" s="1">
         <v>-1</v>
@@ -2297,37 +2288,35 @@
     </row>
     <row r="9" ht="24" customHeight="1" spans="3:15">
       <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>50</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>51</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>52</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>53</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9" t="s">
         <v>54</v>
-      </c>
-      <c r="K9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" t="s">
-        <v>55</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2336,13 +2325,13 @@
     </row>
     <row r="10" ht="24" customHeight="1" spans="3:15">
       <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -2351,22 +2340,20 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10" t="s">
         <v>59</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" t="s">
-        <v>60</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2375,37 +2362,35 @@
     </row>
     <row r="11" ht="24" customHeight="1" spans="3:15">
       <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>63</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>64</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>65</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>66</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11" t="s">
         <v>67</v>
-      </c>
-      <c r="K11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" t="s">
-        <v>68</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2414,37 +2399,35 @@
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:15">
       <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>71</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>72</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>73</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>74</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12" t="s">
         <v>75</v>
-      </c>
-      <c r="K12" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" t="s">
-        <v>76</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2453,37 +2436,35 @@
     </row>
     <row r="13" ht="24" customHeight="1" spans="3:15">
       <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
         <v>77</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>78</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>79</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>80</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>81</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>82</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13" t="s">
         <v>83</v>
-      </c>
-      <c r="K13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" t="s">
-        <v>84</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2492,37 +2473,35 @@
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:15">
       <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
         <v>85</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>86</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>87</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>88</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>89</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>90</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" t="s">
-        <v>92</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2531,37 +2510,35 @@
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:15">
       <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>94</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>95</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>96</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>97</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>98</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15" t="s">
         <v>99</v>
-      </c>
-      <c r="K15" t="s">
-        <v>99</v>
-      </c>
-      <c r="L15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" t="s">
-        <v>100</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2570,37 +2547,35 @@
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:15">
       <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
         <v>101</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>102</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>103</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>104</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>105</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
         <v>106</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16" t="s">
         <v>107</v>
-      </c>
-      <c r="K16" t="s">
-        <v>107</v>
-      </c>
-      <c r="L16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" t="s">
-        <v>108</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2609,37 +2584,35 @@
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:15">
       <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
         <v>109</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>110</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>111</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>112</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>113</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>114</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17" t="s">
         <v>115</v>
-      </c>
-      <c r="K17" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" t="s">
-        <v>116</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2648,37 +2621,35 @@
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:15">
       <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
         <v>117</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>118</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>119</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>120</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>121</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>122</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18" t="s">
         <v>123</v>
-      </c>
-      <c r="K18" t="s">
-        <v>123</v>
-      </c>
-      <c r="L18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" t="s">
-        <v>124</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2687,37 +2658,35 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:15">
       <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
         <v>125</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>126</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>127</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>128</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>129</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
         <v>130</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>131</v>
-      </c>
       <c r="K19" t="s">
-        <v>131</v>
-      </c>
-      <c r="L19" t="s">
-        <v>33</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="L19"/>
       <c r="M19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2726,37 +2695,35 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:15">
       <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" t="s">
         <v>132</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>133</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>134</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>135</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>136</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
         <v>137</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>138</v>
-      </c>
       <c r="K20" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" t="s">
-        <v>33</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="L20"/>
       <c r="M20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2765,38 +2732,36 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:15">
       <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" t="s">
         <v>139</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>140</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>141</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>142</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>143</v>
-      </c>
-      <c r="H21" t="s">
-        <v>144</v>
       </c>
       <c r="I21">
         <f t="shared" ref="I21:I45" si="0">(D21-1014)*3</f>
         <v>3</v>
       </c>
       <c r="J21" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21" t="s">
         <v>145</v>
-      </c>
-      <c r="K21" t="s">
-        <v>145</v>
-      </c>
-      <c r="L21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" t="s">
-        <v>146</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2805,38 +2770,36 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:15">
       <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s">
         <v>147</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>148</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>149</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>150</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>151</v>
-      </c>
-      <c r="H22" t="s">
-        <v>152</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K22" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" t="s">
-        <v>33</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="L22"/>
       <c r="M22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2845,38 +2808,36 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:15">
       <c r="C23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" t="s">
         <v>154</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>155</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>156</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>157</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>158</v>
-      </c>
-      <c r="H23" t="s">
-        <v>159</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s">
-        <v>160</v>
-      </c>
-      <c r="L23" t="s">
-        <v>33</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="L23"/>
       <c r="M23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2885,38 +2846,36 @@
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:15">
       <c r="C24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" t="s">
         <v>161</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>162</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>163</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>164</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>165</v>
-      </c>
-      <c r="H24" t="s">
-        <v>166</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K24" t="s">
-        <v>167</v>
-      </c>
-      <c r="L24" t="s">
-        <v>33</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="L24"/>
       <c r="M24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2925,38 +2884,36 @@
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:15">
       <c r="C25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" t="s">
         <v>168</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>169</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>170</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>171</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>172</v>
-      </c>
-      <c r="H25" t="s">
-        <v>173</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="J25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K25" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" t="s">
-        <v>33</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="L25"/>
       <c r="M25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2965,38 +2922,36 @@
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:15">
       <c r="C26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" t="s">
         <v>175</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>176</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>177</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>178</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>179</v>
-      </c>
-      <c r="H26" t="s">
-        <v>180</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K26" t="s">
-        <v>181</v>
-      </c>
-      <c r="L26" t="s">
-        <v>33</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="L26"/>
       <c r="M26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3005,38 +2960,36 @@
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:15">
       <c r="C27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" t="s">
         <v>182</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>183</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>184</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>185</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>186</v>
-      </c>
-      <c r="H27" t="s">
-        <v>187</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K27" t="s">
-        <v>188</v>
-      </c>
-      <c r="L27" t="s">
-        <v>33</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="L27"/>
       <c r="M27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -3045,38 +2998,36 @@
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:15">
       <c r="C28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" t="s">
         <v>189</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>190</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>191</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>192</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>193</v>
-      </c>
-      <c r="H28" t="s">
-        <v>194</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K28" t="s">
-        <v>195</v>
-      </c>
-      <c r="L28" t="s">
-        <v>33</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="L28"/>
       <c r="M28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -3085,38 +3036,36 @@
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:15">
       <c r="C29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" t="s">
         <v>196</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>197</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>198</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>199</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>200</v>
-      </c>
-      <c r="H29" t="s">
-        <v>201</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="J29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K29" t="s">
-        <v>202</v>
-      </c>
-      <c r="L29" t="s">
-        <v>33</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="L29"/>
       <c r="M29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -3125,38 +3074,36 @@
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:15">
       <c r="C30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" t="s">
         <v>203</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>204</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>205</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>206</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>207</v>
-      </c>
-      <c r="H30" t="s">
-        <v>208</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="J30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K30" t="s">
-        <v>209</v>
-      </c>
-      <c r="L30" t="s">
-        <v>33</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="L30"/>
       <c r="M30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3165,38 +3112,36 @@
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:15">
       <c r="C31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" t="s">
         <v>210</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>211</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>212</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>213</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>214</v>
-      </c>
-      <c r="H31" t="s">
-        <v>215</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="J31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K31" t="s">
-        <v>216</v>
-      </c>
-      <c r="L31" t="s">
-        <v>33</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="L31"/>
       <c r="M31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3205,38 +3150,36 @@
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:15">
       <c r="C32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" t="s">
         <v>217</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>218</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>219</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>220</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>221</v>
-      </c>
-      <c r="H32" t="s">
-        <v>222</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="J32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K32" t="s">
-        <v>223</v>
-      </c>
-      <c r="L32" t="s">
-        <v>33</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="L32"/>
       <c r="M32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -3245,38 +3188,36 @@
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:15">
       <c r="C33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" t="s">
         <v>224</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>225</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>226</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>227</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>228</v>
-      </c>
-      <c r="H33" t="s">
-        <v>229</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="J33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K33" t="s">
-        <v>230</v>
-      </c>
-      <c r="L33" t="s">
-        <v>33</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="L33"/>
       <c r="M33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3285,38 +3226,36 @@
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:15">
       <c r="C34" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" t="s">
         <v>231</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>232</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>233</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>234</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>235</v>
-      </c>
-      <c r="H34" t="s">
-        <v>236</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="J34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K34" t="s">
-        <v>237</v>
-      </c>
-      <c r="L34" t="s">
-        <v>33</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="L34"/>
       <c r="M34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3325,38 +3264,36 @@
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:15">
       <c r="C35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" t="s">
         <v>238</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>239</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>240</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>241</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>242</v>
-      </c>
-      <c r="H35" t="s">
-        <v>243</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="J35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K35" t="s">
-        <v>244</v>
-      </c>
-      <c r="L35" t="s">
-        <v>33</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="L35"/>
       <c r="M35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3365,38 +3302,36 @@
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:15">
       <c r="C36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" t="s">
         <v>245</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>246</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>247</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>248</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>249</v>
-      </c>
-      <c r="H36" t="s">
-        <v>250</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="J36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K36" t="s">
-        <v>251</v>
-      </c>
-      <c r="L36" t="s">
-        <v>33</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="L36"/>
       <c r="M36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3405,38 +3340,36 @@
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:15">
       <c r="C37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" t="s">
         <v>252</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>253</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>254</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>255</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>256</v>
-      </c>
-      <c r="H37" t="s">
-        <v>257</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="J37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K37" t="s">
-        <v>258</v>
-      </c>
-      <c r="L37" t="s">
-        <v>33</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="L37"/>
       <c r="M37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3445,38 +3378,36 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:15">
       <c r="C38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" t="s">
         <v>259</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>260</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>261</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>262</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>263</v>
-      </c>
-      <c r="H38" t="s">
-        <v>264</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="J38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K38" t="s">
-        <v>265</v>
-      </c>
-      <c r="L38" t="s">
-        <v>33</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="L38"/>
       <c r="M38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3485,38 +3416,36 @@
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:15">
       <c r="C39" t="s">
+        <v>265</v>
+      </c>
+      <c r="D39" t="s">
         <v>266</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>267</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>268</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>269</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>270</v>
-      </c>
-      <c r="H39" t="s">
-        <v>271</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="J39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K39" t="s">
-        <v>272</v>
-      </c>
-      <c r="L39" t="s">
-        <v>33</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="L39"/>
       <c r="M39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3525,38 +3454,36 @@
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:15">
       <c r="C40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" t="s">
         <v>273</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>274</v>
-      </c>
-      <c r="E40" t="s">
-        <v>275</v>
       </c>
       <c r="F40">
         <v>1391250000</v>
       </c>
       <c r="G40" t="s">
+        <v>275</v>
+      </c>
+      <c r="H40" t="s">
         <v>276</v>
-      </c>
-      <c r="H40" t="s">
-        <v>277</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="J40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K40" t="s">
-        <v>278</v>
-      </c>
-      <c r="L40" t="s">
-        <v>33</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="L40"/>
       <c r="M40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3567,38 +3494,36 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" t="s">
+        <v>278</v>
+      </c>
+      <c r="D41" t="s">
         <v>279</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>280</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>281</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>282</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>283</v>
-      </c>
-      <c r="H41" t="s">
-        <v>284</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="J41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K41" t="s">
-        <v>285</v>
-      </c>
-      <c r="L41" t="s">
-        <v>33</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="L41"/>
       <c r="M41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3608,38 +3533,36 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42" t="s">
         <v>286</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>287</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>288</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>289</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>290</v>
-      </c>
-      <c r="H42" t="s">
-        <v>291</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="J42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K42" t="s">
-        <v>292</v>
-      </c>
-      <c r="L42" t="s">
-        <v>33</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="L42"/>
       <c r="M42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3649,38 +3572,36 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D43" t="s">
         <v>293</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>294</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>295</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>296</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>297</v>
-      </c>
-      <c r="H43" t="s">
-        <v>298</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="J43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K43" t="s">
-        <v>299</v>
-      </c>
-      <c r="L43" t="s">
-        <v>33</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="L43"/>
       <c r="M43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3690,38 +3611,36 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" t="s">
+        <v>299</v>
+      </c>
+      <c r="D44" t="s">
         <v>300</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>301</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>302</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>303</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>304</v>
-      </c>
-      <c r="H44" t="s">
-        <v>305</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="J44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K44" t="s">
-        <v>306</v>
-      </c>
-      <c r="L44" t="s">
-        <v>33</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="L44"/>
       <c r="M44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3731,38 +3650,36 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
+        <v>306</v>
+      </c>
+      <c r="D45" t="s">
         <v>307</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>308</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>309</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>310</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>311</v>
-      </c>
-      <c r="H45" t="s">
-        <v>312</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="J45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K45" t="s">
-        <v>313</v>
-      </c>
-      <c r="L45" t="s">
-        <v>33</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="L45"/>
       <c r="M45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N45">
         <v>0</v>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -2014,8 +2014,8 @@
   <sheetPr/>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2750,8 +2750,8 @@
         <v>143</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:I45" si="0">(D21-1014)*3</f>
-        <v>3</v>
+        <f t="shared" ref="I21:I40" si="0">(D21-1014)*1</f>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>144</v>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>152</v>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>159</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J24" t="s">
         <v>166</v>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J25" t="s">
         <v>173</v>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J26" t="s">
         <v>180</v>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J27" t="s">
         <v>187</v>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J28" t="s">
         <v>194</v>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J29" t="s">
         <v>201</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J30" t="s">
         <v>208</v>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J31" t="s">
         <v>215</v>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J32" t="s">
         <v>222</v>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
         <v>229</v>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="J34" t="s">
         <v>236</v>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J35" t="s">
         <v>243</v>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J36" t="s">
         <v>250</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J37" t="s">
         <v>257</v>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
         <v>264</v>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="J39" t="s">
         <v>271</v>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J40" t="s">
         <v>277</v>
@@ -3512,8 +3512,8 @@
         <v>283</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <f>(D41-1034)*5+20</f>
+        <v>25</v>
       </c>
       <c r="J41" t="s">
         <v>284</v>
@@ -3521,7 +3521,6 @@
       <c r="K41" t="s">
         <v>284</v>
       </c>
-      <c r="L41"/>
       <c r="M41" t="s">
         <v>145</v>
       </c>
@@ -3551,8 +3550,8 @@
         <v>290</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
-        <v>66</v>
+        <f t="shared" ref="I41:I45" si="1">(D42-1034)*4+20</f>
+        <v>28</v>
       </c>
       <c r="J42" t="s">
         <v>291</v>
@@ -3560,7 +3559,6 @@
       <c r="K42" t="s">
         <v>291</v>
       </c>
-      <c r="L42"/>
       <c r="M42" t="s">
         <v>145</v>
       </c>
@@ -3590,8 +3588,8 @@
         <v>297</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="J43" t="s">
         <v>298</v>
@@ -3599,7 +3597,6 @@
       <c r="K43" t="s">
         <v>298</v>
       </c>
-      <c r="L43"/>
       <c r="M43" t="s">
         <v>145</v>
       </c>
@@ -3629,8 +3626,8 @@
         <v>304</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
-        <v>72</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="J44" t="s">
         <v>305</v>
@@ -3638,7 +3635,6 @@
       <c r="K44" t="s">
         <v>305</v>
       </c>
-      <c r="L44"/>
       <c r="M44" t="s">
         <v>145</v>
       </c>
@@ -3668,8 +3664,8 @@
         <v>311</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="J45" t="s">
         <v>312</v>
@@ -3677,7 +3673,6 @@
       <c r="K45" t="s">
         <v>312</v>
       </c>
-      <c r="L45"/>
       <c r="M45" t="s">
         <v>145</v>
       </c>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="348">
   <si>
     <t>ID</t>
   </si>
@@ -291,33 +291,33 @@
     <t>1005</t>
   </si>
   <si>
+    <t>雪王</t>
+  </si>
+  <si>
+    <t>70000</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>7000000</t>
+  </si>
+  <si>
+    <t>3000000</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
     <t>巨型蝙蝠</t>
   </si>
   <si>
-    <t>70000</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>7000000</t>
-  </si>
-  <si>
-    <t>3000000</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>10006</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>骷髅精灵</t>
-  </si>
-  <si>
     <t>95000</t>
   </si>
   <si>
@@ -387,7 +387,7 @@
     <t>1009</t>
   </si>
   <si>
-    <t>王蛇</t>
+    <t>蛇王</t>
   </si>
   <si>
     <t>275000</t>
@@ -504,7 +504,7 @@
     <t>1014</t>
   </si>
   <si>
-    <t>沃玛卫士</t>
+    <t>变异蜈蚣</t>
   </si>
   <si>
     <t>1515000</t>
@@ -525,117 +525,117 @@
     <t>1015</t>
   </si>
   <si>
+    <t>变异钳虫</t>
+  </si>
+  <si>
+    <t>2130000</t>
+  </si>
+  <si>
+    <t>426000</t>
+  </si>
+  <si>
+    <t>213000000</t>
+  </si>
+  <si>
+    <t>78000000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10016</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>触龙神</t>
+  </si>
+  <si>
+    <t>2995000</t>
+  </si>
+  <si>
+    <t>599000</t>
+  </si>
+  <si>
+    <t>299500000</t>
+  </si>
+  <si>
+    <t>91000000</t>
+  </si>
+  <si>
+    <t>10017</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>白野猪</t>
+  </si>
+  <si>
+    <t>4215000</t>
+  </si>
+  <si>
+    <t>843000</t>
+  </si>
+  <si>
+    <t>421500000</t>
+  </si>
+  <si>
+    <t>105000000</t>
+  </si>
+  <si>
+    <t>10018</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>猪王</t>
+  </si>
+  <si>
+    <t>5900000</t>
+  </si>
+  <si>
+    <t>1180000</t>
+  </si>
+  <si>
+    <t>590000000</t>
+  </si>
+  <si>
+    <t>120000000</t>
+  </si>
+  <si>
+    <t>10019</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>邪恶蝎蛇</t>
+  </si>
+  <si>
+    <t>8300000</t>
+  </si>
+  <si>
+    <t>1660000</t>
+  </si>
+  <si>
+    <t>830000000</t>
+  </si>
+  <si>
+    <t>136000000</t>
+  </si>
+  <si>
+    <t>10020</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
     <t>沃玛教主</t>
   </si>
   <si>
-    <t>2130000</t>
-  </si>
-  <si>
-    <t>426000</t>
-  </si>
-  <si>
-    <t>213000000</t>
-  </si>
-  <si>
-    <t>78000000</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>10016</t>
-  </si>
-  <si>
-    <t>1016</t>
-  </si>
-  <si>
-    <t>白野猪</t>
-  </si>
-  <si>
-    <t>2995000</t>
-  </si>
-  <si>
-    <t>599000</t>
-  </si>
-  <si>
-    <t>299500000</t>
-  </si>
-  <si>
-    <t>91000000</t>
-  </si>
-  <si>
-    <t>10017</t>
-  </si>
-  <si>
-    <t>1017</t>
-  </si>
-  <si>
-    <t>猪王</t>
-  </si>
-  <si>
-    <t>4215000</t>
-  </si>
-  <si>
-    <t>843000</t>
-  </si>
-  <si>
-    <t>421500000</t>
-  </si>
-  <si>
-    <t>105000000</t>
-  </si>
-  <si>
-    <t>10018</t>
-  </si>
-  <si>
-    <t>1018</t>
-  </si>
-  <si>
-    <t>邪恶蝎蛇</t>
-  </si>
-  <si>
-    <t>5900000</t>
-  </si>
-  <si>
-    <t>1180000</t>
-  </si>
-  <si>
-    <t>590000000</t>
-  </si>
-  <si>
-    <t>120000000</t>
-  </si>
-  <si>
-    <t>10019</t>
-  </si>
-  <si>
-    <t>1019</t>
-  </si>
-  <si>
-    <t>邪恶蜈蚣</t>
-  </si>
-  <si>
-    <t>8300000</t>
-  </si>
-  <si>
-    <t>1660000</t>
-  </si>
-  <si>
-    <t>830000000</t>
-  </si>
-  <si>
-    <t>136000000</t>
-  </si>
-  <si>
-    <t>10020</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>巨型钳虫</t>
-  </si>
-  <si>
     <t>11700000</t>
   </si>
   <si>
@@ -654,7 +654,7 @@
     <t>1021</t>
   </si>
   <si>
-    <t>触龙神</t>
+    <t>沃玛教皇</t>
   </si>
   <si>
     <t>16500000</t>
@@ -696,7 +696,7 @@
     <t>1023</t>
   </si>
   <si>
-    <t>祖玛侍卫</t>
+    <t>祖玛教皇</t>
   </si>
   <si>
     <t>32600000</t>
@@ -738,7 +738,7 @@
     <t>1025</t>
   </si>
   <si>
-    <t>虹魔蝎卫</t>
+    <t>千年妖王</t>
   </si>
   <si>
     <t>64550000</t>
@@ -1042,12 +1042,117 @@
   </si>
   <si>
     <t>2664000000</t>
+  </si>
+  <si>
+    <t>10040</t>
+  </si>
+  <si>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>幻影雪王</t>
+  </si>
+  <si>
+    <t>10772150000</t>
+  </si>
+  <si>
+    <t>2154430000</t>
+  </si>
+  <si>
+    <t>1077215000000</t>
+  </si>
+  <si>
+    <t>3531650000</t>
+  </si>
+  <si>
+    <t>10041</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>幻影蝠王</t>
+  </si>
+  <si>
+    <t>15151350000</t>
+  </si>
+  <si>
+    <t>3030270000</t>
+  </si>
+  <si>
+    <t>1515135000000</t>
+  </si>
+  <si>
+    <t>4476300000</t>
+  </si>
+  <si>
+    <t>10042</t>
+  </si>
+  <si>
+    <t>1042</t>
+  </si>
+  <si>
+    <t>幻影骷髅王</t>
+  </si>
+  <si>
+    <t>21310750000</t>
+  </si>
+  <si>
+    <t>4262150000</t>
+  </si>
+  <si>
+    <t>2131075000000</t>
+  </si>
+  <si>
+    <t>5500199999</t>
+  </si>
+  <si>
+    <t>10043</t>
+  </si>
+  <si>
+    <t>1043</t>
+  </si>
+  <si>
+    <t>幻影尸王</t>
+  </si>
+  <si>
+    <t>29974200000</t>
+  </si>
+  <si>
+    <t>5994840000</t>
+  </si>
+  <si>
+    <t>2997420000000</t>
+  </si>
+  <si>
+    <t>6605599999</t>
+  </si>
+  <si>
+    <t>10044</t>
+  </si>
+  <si>
+    <t>1044</t>
+  </si>
+  <si>
+    <t>幻影蛇王</t>
+  </si>
+  <si>
+    <t>42159500000</t>
+  </si>
+  <si>
+    <t>8431900000</t>
+  </si>
+  <si>
+    <t>4215950000000</t>
+  </si>
+  <si>
+    <t>7794750000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1076,34 +1181,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1117,14 +1194,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1164,6 +1233,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1214,7 +1298,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1246,55 +1351,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,31 +1375,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,6 +1411,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1372,7 +1435,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,7 +1483,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,6 +1519,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1437,21 +1542,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1484,6 +1574,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1540,148 +1645,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1696,52 +1801,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2012,10 +2117,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3550,7 +3655,7 @@
         <v>290</v>
       </c>
       <c r="I42">
-        <f t="shared" ref="I41:I45" si="1">(D42-1034)*4+20</f>
+        <f t="shared" ref="I41:I50" si="1">(D42-1034)*4+20</f>
         <v>28</v>
       </c>
       <c r="J42" t="s">
@@ -3680,8 +3785,205 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="9:9">
-      <c r="I46"/>
+    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s">
+        <v>313</v>
+      </c>
+      <c r="D46" t="s">
+        <v>314</v>
+      </c>
+      <c r="E46" t="s">
+        <v>315</v>
+      </c>
+      <c r="F46" t="s">
+        <v>316</v>
+      </c>
+      <c r="G46" t="s">
+        <v>317</v>
+      </c>
+      <c r="H46" t="s">
+        <v>318</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J46" t="s">
+        <v>319</v>
+      </c>
+      <c r="K46" t="s">
+        <v>319</v>
+      </c>
+      <c r="M46" t="s">
+        <v>145</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D47" t="s">
+        <v>321</v>
+      </c>
+      <c r="E47" t="s">
+        <v>322</v>
+      </c>
+      <c r="F47" t="s">
+        <v>323</v>
+      </c>
+      <c r="G47" t="s">
+        <v>324</v>
+      </c>
+      <c r="H47" t="s">
+        <v>325</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="J47" t="s">
+        <v>326</v>
+      </c>
+      <c r="K47" t="s">
+        <v>326</v>
+      </c>
+      <c r="M47" t="s">
+        <v>145</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s">
+        <v>327</v>
+      </c>
+      <c r="D48" t="s">
+        <v>328</v>
+      </c>
+      <c r="E48" t="s">
+        <v>329</v>
+      </c>
+      <c r="F48" t="s">
+        <v>330</v>
+      </c>
+      <c r="G48" t="s">
+        <v>331</v>
+      </c>
+      <c r="H48" t="s">
+        <v>332</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="J48" t="s">
+        <v>333</v>
+      </c>
+      <c r="K48" t="s">
+        <v>333</v>
+      </c>
+      <c r="M48" t="s">
+        <v>145</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s">
+        <v>334</v>
+      </c>
+      <c r="D49" t="s">
+        <v>335</v>
+      </c>
+      <c r="E49" t="s">
+        <v>336</v>
+      </c>
+      <c r="F49" t="s">
+        <v>337</v>
+      </c>
+      <c r="G49" t="s">
+        <v>338</v>
+      </c>
+      <c r="H49" t="s">
+        <v>339</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="J49" t="s">
+        <v>340</v>
+      </c>
+      <c r="K49" t="s">
+        <v>340</v>
+      </c>
+      <c r="M49" t="s">
+        <v>145</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s">
+        <v>341</v>
+      </c>
+      <c r="D50" t="s">
+        <v>342</v>
+      </c>
+      <c r="E50" t="s">
+        <v>343</v>
+      </c>
+      <c r="F50" t="s">
+        <v>344</v>
+      </c>
+      <c r="G50" t="s">
+        <v>345</v>
+      </c>
+      <c r="H50" t="s">
+        <v>346</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="J50" t="s">
+        <v>347</v>
+      </c>
+      <c r="K50" t="s">
+        <v>347</v>
+      </c>
+      <c r="M50" t="s">
+        <v>145</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -1062,7 +1062,7 @@
     <t>1077215000000</t>
   </si>
   <si>
-    <t>3531650000</t>
+    <t>3071000000</t>
   </si>
   <si>
     <t>10041</t>
@@ -1083,7 +1083,7 @@
     <t>1515135000000</t>
   </si>
   <si>
-    <t>4476300000</t>
+    <t>3508800000</t>
   </si>
   <si>
     <t>10042</t>
@@ -1104,7 +1104,7 @@
     <t>2131075000000</t>
   </si>
   <si>
-    <t>5500199999</t>
+    <t>3978299999</t>
   </si>
   <si>
     <t>10043</t>
@@ -1125,7 +1125,7 @@
     <t>2997420000000</t>
   </si>
   <si>
-    <t>6605599999</t>
+    <t>4480400000</t>
   </si>
   <si>
     <t>10044</t>
@@ -1146,7 +1146,7 @@
     <t>4215950000000</t>
   </si>
   <si>
-    <t>7794750000</t>
+    <t>5016000000</t>
   </si>
 </sst>
 </file>
@@ -2120,7 +2120,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46:K50"/>
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -20,7 +20,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="387">
   <si>
     <t>ID</t>
   </si>
@@ -126,6 +126,15 @@
     <t>DamageIncrea</t>
   </si>
   <si>
+    <t>DamageResist</t>
+  </si>
+  <si>
+    <t>CritRate</t>
+  </si>
+  <si>
+    <t>CritDamage</t>
+  </si>
+  <si>
     <t>经验</t>
   </si>
   <si>
@@ -1147,6 +1156,114 @@
   </si>
   <si>
     <t>5016000000</t>
+  </si>
+  <si>
+    <t>10045</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>幻影狼王</t>
+  </si>
+  <si>
+    <t>59298550000</t>
+  </si>
+  <si>
+    <t>11859710000</t>
+  </si>
+  <si>
+    <t>8431900000000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5791800000</t>
+  </si>
+  <si>
+    <t>10046</t>
+  </si>
+  <si>
+    <t>1046</t>
+  </si>
+  <si>
+    <t>幻影沙虫王</t>
+  </si>
+  <si>
+    <t>83405000000</t>
+  </si>
+  <si>
+    <t>16681000000</t>
+  </si>
+  <si>
+    <t>16863800000000</t>
+  </si>
+  <si>
+    <t>6620550000</t>
+  </si>
+  <si>
+    <t>10047</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>幻影鹰王</t>
+  </si>
+  <si>
+    <t>117311400000</t>
+  </si>
+  <si>
+    <t>23462280000</t>
+  </si>
+  <si>
+    <t>33727600000000</t>
+  </si>
+  <si>
+    <t>7503600000</t>
+  </si>
+  <si>
+    <t>10048</t>
+  </si>
+  <si>
+    <t>1048</t>
+  </si>
+  <si>
+    <t>幻影角虫王</t>
+  </si>
+  <si>
+    <t>165001700000</t>
+  </si>
+  <si>
+    <t>33000340000</t>
+  </si>
+  <si>
+    <t>67455200000000</t>
+  </si>
+  <si>
+    <t>8442299999</t>
+  </si>
+  <si>
+    <t>10049</t>
+  </si>
+  <si>
+    <t>1049</t>
+  </si>
+  <si>
+    <t>幻影蜈蚣王</t>
+  </si>
+  <si>
+    <t>232079400000</t>
+  </si>
+  <si>
+    <t>46415880000</t>
+  </si>
+  <si>
+    <t>134910400000000</t>
+  </si>
+  <si>
+    <t>9438000000</t>
   </si>
 </sst>
 </file>
@@ -2117,10 +2234,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2133,15 +2250,16 @@
     <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
     <col min="8" max="9" width="15.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="10" max="12" width="12.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="F1" s="2"/>
@@ -2150,8 +2268,11 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="F2" s="2"/>
@@ -2160,8 +2281,11 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:17">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -2191,1803 +2315,2480 @@
       <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:14">
+      <c r="O3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:17">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:14">
+      <c r="O4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:17">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="3:14">
+      <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="3:17">
       <c r="C6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:18">
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="1">
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:15">
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="R7"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:18">
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R8"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:18">
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:18">
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="G10" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7"/>
-      <c r="M7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O7"/>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:15">
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8"/>
-      <c r="M8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O8"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:15">
-      <c r="C9" t="s">
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9"/>
-      <c r="M9" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:15">
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10"/>
-      <c r="M10" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
+      <c r="N10" t="s">
+        <v>47</v>
       </c>
       <c r="O10"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:15">
+      <c r="P10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:18">
       <c r="C11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11"/>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
       <c r="M11" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="N11" t="s">
+        <v>69</v>
       </c>
       <c r="O11"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:15">
+      <c r="P11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:18">
       <c r="C12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12"/>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
       <c r="M12" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="N12" t="s">
+        <v>77</v>
       </c>
       <c r="O12"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:15">
+      <c r="P12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:18">
       <c r="C13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13"/>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
       <c r="M13" t="s">
-        <v>83</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="N13" t="s">
+        <v>85</v>
       </c>
       <c r="O13"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:15">
+      <c r="P13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:18">
       <c r="C14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14"/>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
       <c r="M14" t="s">
-        <v>91</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="N14" t="s">
+        <v>93</v>
       </c>
       <c r="O14"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:15">
+      <c r="P14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:18">
       <c r="C15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
-        <v>98</v>
-      </c>
-      <c r="K15" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15"/>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
       <c r="M15" t="s">
-        <v>99</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="N15" t="s">
+        <v>101</v>
       </c>
       <c r="O15"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:15">
+      <c r="P15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:18">
       <c r="C16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16"/>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
       <c r="M16" t="s">
-        <v>107</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
+        <v>109</v>
+      </c>
+      <c r="N16" t="s">
+        <v>109</v>
       </c>
       <c r="O16"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:15">
+      <c r="P16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:18">
       <c r="C17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17" t="s">
-        <v>114</v>
-      </c>
-      <c r="L17"/>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
       <c r="M17" t="s">
-        <v>115</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="N17" t="s">
+        <v>117</v>
       </c>
       <c r="O17"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:15">
+      <c r="P17" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:18">
       <c r="C18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" t="s">
-        <v>122</v>
-      </c>
-      <c r="K18" t="s">
-        <v>122</v>
-      </c>
-      <c r="L18"/>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
       <c r="M18" t="s">
-        <v>123</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="N18" t="s">
+        <v>125</v>
       </c>
       <c r="O18"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:15">
+      <c r="P18" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18"/>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:18">
       <c r="C19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>133</v>
+      </c>
+      <c r="N19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19" t="s">
         <v>126</v>
       </c>
-      <c r="F19" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" t="s">
-        <v>129</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>130</v>
-      </c>
-      <c r="K19" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19"/>
-      <c r="M19" t="s">
-        <v>123</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19"/>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:15">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19"/>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:18">
       <c r="C20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G20" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" t="s">
-        <v>137</v>
-      </c>
-      <c r="K20" t="s">
-        <v>137</v>
-      </c>
-      <c r="L20"/>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
       <c r="M20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="N20" t="s">
+        <v>140</v>
       </c>
       <c r="O20"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:15">
+      <c r="P20" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20"/>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:18">
       <c r="C21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H21" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I21">
         <f t="shared" ref="I21:I40" si="0">(D21-1014)*1</f>
         <v>1</v>
       </c>
-      <c r="J21" t="s">
-        <v>144</v>
-      </c>
-      <c r="K21" t="s">
-        <v>144</v>
-      </c>
-      <c r="L21"/>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
       <c r="M21" t="s">
-        <v>145</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
+        <v>147</v>
+      </c>
+      <c r="N21" t="s">
+        <v>147</v>
       </c>
       <c r="O21"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:15">
+      <c r="P21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:18">
       <c r="C22" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J22" t="s">
-        <v>152</v>
-      </c>
-      <c r="K22" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22"/>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
       <c r="M22" t="s">
-        <v>145</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="N22" t="s">
+        <v>155</v>
       </c>
       <c r="O22"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:15">
+      <c r="P22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22"/>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:18">
       <c r="C23" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F23" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H23" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J23" t="s">
-        <v>159</v>
-      </c>
-      <c r="K23" t="s">
-        <v>159</v>
-      </c>
-      <c r="L23"/>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
       <c r="M23" t="s">
-        <v>145</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="N23" t="s">
+        <v>162</v>
       </c>
       <c r="O23"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:15">
+      <c r="P23" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23"/>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:18">
       <c r="C24" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H24" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J24" t="s">
-        <v>166</v>
-      </c>
-      <c r="K24" t="s">
-        <v>166</v>
-      </c>
-      <c r="L24"/>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
       <c r="M24" t="s">
-        <v>145</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="N24" t="s">
+        <v>169</v>
       </c>
       <c r="O24"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:15">
+      <c r="P24" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24"/>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:18">
       <c r="C25" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H25" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J25" t="s">
-        <v>173</v>
-      </c>
-      <c r="K25" t="s">
-        <v>173</v>
-      </c>
-      <c r="L25"/>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
       <c r="M25" t="s">
-        <v>145</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="N25" t="s">
+        <v>176</v>
       </c>
       <c r="O25"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:15">
+      <c r="P25" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25"/>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:18">
       <c r="C26" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G26" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H26" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J26" t="s">
-        <v>180</v>
-      </c>
-      <c r="K26" t="s">
-        <v>180</v>
-      </c>
-      <c r="L26"/>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
       <c r="M26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="N26" t="s">
+        <v>183</v>
       </c>
       <c r="O26"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:15">
+      <c r="P26" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26"/>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:18">
       <c r="C27" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F27" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G27" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H27" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J27" t="s">
-        <v>187</v>
-      </c>
-      <c r="K27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L27"/>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
       <c r="M27" t="s">
-        <v>145</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
+        <v>190</v>
+      </c>
+      <c r="N27" t="s">
+        <v>190</v>
       </c>
       <c r="O27"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:15">
+      <c r="P27" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27"/>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:18">
       <c r="C28" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G28" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H28" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J28" t="s">
-        <v>194</v>
-      </c>
-      <c r="K28" t="s">
-        <v>194</v>
-      </c>
-      <c r="L28"/>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
       <c r="M28" t="s">
-        <v>145</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="N28" t="s">
+        <v>197</v>
       </c>
       <c r="O28"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:15">
+      <c r="P28" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:18">
       <c r="C29" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E29" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F29" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G29" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H29" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J29" t="s">
-        <v>201</v>
-      </c>
-      <c r="K29" t="s">
-        <v>201</v>
-      </c>
-      <c r="L29"/>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
       <c r="M29" t="s">
-        <v>145</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="N29" t="s">
+        <v>204</v>
       </c>
       <c r="O29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:15">
+      <c r="P29" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:18">
       <c r="C30" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E30" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F30" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G30" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H30" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J30" t="s">
-        <v>208</v>
-      </c>
-      <c r="K30" t="s">
-        <v>208</v>
-      </c>
-      <c r="L30"/>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
       <c r="M30" t="s">
-        <v>145</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="N30" t="s">
+        <v>211</v>
       </c>
       <c r="O30"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:15">
+      <c r="P30" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30"/>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:18">
       <c r="C31" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E31" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G31" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H31" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J31" t="s">
-        <v>215</v>
-      </c>
-      <c r="K31" t="s">
-        <v>215</v>
-      </c>
-      <c r="L31"/>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
       <c r="M31" t="s">
-        <v>145</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="N31" t="s">
+        <v>218</v>
       </c>
       <c r="O31"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:15">
+      <c r="P31" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31"/>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:18">
       <c r="C32" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D32" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E32" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G32" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H32" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J32" t="s">
-        <v>222</v>
-      </c>
-      <c r="K32" t="s">
-        <v>222</v>
-      </c>
-      <c r="L32"/>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
       <c r="M32" t="s">
-        <v>145</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="N32" t="s">
+        <v>225</v>
       </c>
       <c r="O32"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:15">
+      <c r="P32" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32"/>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:18">
       <c r="C33" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D33" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E33" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F33" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G33" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H33" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J33" t="s">
-        <v>229</v>
-      </c>
-      <c r="K33" t="s">
-        <v>229</v>
-      </c>
-      <c r="L33"/>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
       <c r="M33" t="s">
-        <v>145</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="N33" t="s">
+        <v>232</v>
       </c>
       <c r="O33"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:15">
+      <c r="P33" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:18">
       <c r="C34" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D34" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E34" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G34" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H34" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J34" t="s">
-        <v>236</v>
-      </c>
-      <c r="K34" t="s">
-        <v>236</v>
-      </c>
-      <c r="L34"/>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
       <c r="M34" t="s">
-        <v>145</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
+        <v>239</v>
+      </c>
+      <c r="N34" t="s">
+        <v>239</v>
       </c>
       <c r="O34"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:15">
+      <c r="P34" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:18">
       <c r="C35" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D35" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E35" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F35" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G35" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H35" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J35" t="s">
-        <v>243</v>
-      </c>
-      <c r="K35" t="s">
-        <v>243</v>
-      </c>
-      <c r="L35"/>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
       <c r="M35" t="s">
-        <v>145</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
+        <v>246</v>
+      </c>
+      <c r="N35" t="s">
+        <v>246</v>
       </c>
       <c r="O35"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:15">
+      <c r="P35" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:18">
       <c r="C36" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D36" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E36" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F36" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H36" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J36" t="s">
-        <v>250</v>
-      </c>
-      <c r="K36" t="s">
-        <v>250</v>
-      </c>
-      <c r="L36"/>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
       <c r="M36" t="s">
-        <v>145</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
+        <v>253</v>
+      </c>
+      <c r="N36" t="s">
+        <v>253</v>
       </c>
       <c r="O36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:15">
+      <c r="P36" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:18">
       <c r="C37" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D37" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E37" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F37" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G37" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H37" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J37" t="s">
-        <v>257</v>
-      </c>
-      <c r="K37" t="s">
-        <v>257</v>
-      </c>
-      <c r="L37"/>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
       <c r="M37" t="s">
-        <v>145</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
+        <v>260</v>
+      </c>
+      <c r="N37" t="s">
+        <v>260</v>
       </c>
       <c r="O37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:15">
+      <c r="P37" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:18">
       <c r="C38" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D38" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E38" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F38" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G38" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H38" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J38" t="s">
-        <v>264</v>
-      </c>
-      <c r="K38" t="s">
-        <v>264</v>
-      </c>
-      <c r="L38"/>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
       <c r="M38" t="s">
-        <v>145</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="N38" t="s">
+        <v>267</v>
       </c>
       <c r="O38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:15">
+      <c r="P38" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:18">
       <c r="C39" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D39" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E39" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F39" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G39" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H39" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J39" t="s">
-        <v>271</v>
-      </c>
-      <c r="K39" t="s">
-        <v>271</v>
-      </c>
-      <c r="L39"/>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
       <c r="M39" t="s">
-        <v>145</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
+        <v>274</v>
+      </c>
+      <c r="N39" t="s">
+        <v>274</v>
       </c>
       <c r="O39"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:15">
+      <c r="P39" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:18">
       <c r="C40" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D40" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E40" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F40">
         <v>1391250000</v>
       </c>
       <c r="G40" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H40" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J40" t="s">
-        <v>277</v>
-      </c>
-      <c r="K40" t="s">
-        <v>277</v>
-      </c>
-      <c r="L40"/>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
       <c r="M40" t="s">
-        <v>145</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
+        <v>280</v>
+      </c>
+      <c r="N40" t="s">
+        <v>280</v>
       </c>
       <c r="O40"/>
-    </row>
-    <row r="41" customFormat="1" ht="24" customHeight="1" spans="1:14">
+      <c r="P40" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40"/>
+    </row>
+    <row r="41" customFormat="1" ht="24" customHeight="1" spans="1:17">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D41" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E41" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F41" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G41" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H41" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I41">
         <f>(D41-1034)*5+20</f>
         <v>25</v>
       </c>
-      <c r="J41" t="s">
-        <v>284</v>
-      </c>
-      <c r="K41" t="s">
-        <v>284</v>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>145</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" ht="24" customHeight="1" spans="1:14">
+        <v>287</v>
+      </c>
+      <c r="N41" t="s">
+        <v>287</v>
+      </c>
+      <c r="P41" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" ht="24" customHeight="1" spans="1:17">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D42" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F42" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H42" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I42">
         <f t="shared" ref="I41:I50" si="1">(D42-1034)*4+20</f>
         <v>28</v>
       </c>
-      <c r="J42" t="s">
-        <v>291</v>
-      </c>
-      <c r="K42" t="s">
-        <v>291</v>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>145</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" ht="24" customHeight="1" spans="1:14">
+        <v>294</v>
+      </c>
+      <c r="N42" t="s">
+        <v>294</v>
+      </c>
+      <c r="P42" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" ht="24" customHeight="1" spans="1:17">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D43" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E43" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F43" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G43" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H43" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="J43" t="s">
-        <v>298</v>
-      </c>
-      <c r="K43" t="s">
-        <v>298</v>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>145</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" ht="24" customHeight="1" spans="1:14">
+        <v>301</v>
+      </c>
+      <c r="N43" t="s">
+        <v>301</v>
+      </c>
+      <c r="P43" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" ht="24" customHeight="1" spans="1:17">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D44" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E44" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F44" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G44" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H44" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="J44" t="s">
-        <v>305</v>
-      </c>
-      <c r="K44" t="s">
-        <v>305</v>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>145</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" ht="24" customHeight="1" spans="1:14">
+        <v>308</v>
+      </c>
+      <c r="N44" t="s">
+        <v>308</v>
+      </c>
+      <c r="P44" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" ht="24" customHeight="1" spans="1:17">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D45" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E45" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F45" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G45" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H45" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="J45" t="s">
-        <v>312</v>
-      </c>
-      <c r="K45" t="s">
-        <v>312</v>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>145</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:16">
+        <v>315</v>
+      </c>
+      <c r="N45" t="s">
+        <v>315</v>
+      </c>
+      <c r="P45" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:19">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D46" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E46" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F46" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G46" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H46" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="J46" t="s">
-        <v>319</v>
-      </c>
-      <c r="K46" t="s">
-        <v>319</v>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>145</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-    </row>
-    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:16">
+        <v>322</v>
+      </c>
+      <c r="N46" t="s">
+        <v>322</v>
+      </c>
+      <c r="P46" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+    </row>
+    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:19">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D47" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E47" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F47" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G47" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H47" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="J47" t="s">
-        <v>326</v>
-      </c>
-      <c r="K47" t="s">
-        <v>326</v>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>145</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-    </row>
-    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:16">
+        <v>329</v>
+      </c>
+      <c r="N47" t="s">
+        <v>329</v>
+      </c>
+      <c r="P47" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+    </row>
+    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:19">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D48" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E48" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F48" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G48" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H48" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="J48" t="s">
-        <v>333</v>
-      </c>
-      <c r="K48" t="s">
-        <v>333</v>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>145</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:16">
+        <v>336</v>
+      </c>
+      <c r="N48" t="s">
+        <v>336</v>
+      </c>
+      <c r="P48" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+    </row>
+    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:19">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D49" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E49" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F49" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G49" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H49" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="J49" t="s">
-        <v>340</v>
-      </c>
-      <c r="K49" t="s">
-        <v>340</v>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>145</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:16">
+        <v>343</v>
+      </c>
+      <c r="N49" t="s">
+        <v>343</v>
+      </c>
+      <c r="P49" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+    </row>
+    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:19">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D50" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E50" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F50" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G50" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H50" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="J50" t="s">
-        <v>347</v>
-      </c>
-      <c r="K50" t="s">
-        <v>347</v>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>145</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N50" t="s">
+        <v>350</v>
+      </c>
+      <c r="P50" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+    </row>
+    <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s">
+        <v>351</v>
+      </c>
+      <c r="D51" t="s">
+        <v>352</v>
+      </c>
+      <c r="E51" t="s">
+        <v>353</v>
+      </c>
+      <c r="F51" t="s">
+        <v>354</v>
+      </c>
+      <c r="G51" t="s">
+        <v>355</v>
+      </c>
+      <c r="H51" t="s">
+        <v>356</v>
+      </c>
+      <c r="I51" t="s">
+        <v>357</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>5</v>
+      </c>
+      <c r="M51" t="s">
+        <v>358</v>
+      </c>
+      <c r="N51" t="s">
+        <v>358</v>
+      </c>
+      <c r="O51"/>
+      <c r="P51" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+    </row>
+    <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s">
+        <v>359</v>
+      </c>
+      <c r="D52" t="s">
+        <v>360</v>
+      </c>
+      <c r="E52" t="s">
+        <v>361</v>
+      </c>
+      <c r="F52" t="s">
+        <v>362</v>
+      </c>
+      <c r="G52" t="s">
+        <v>363</v>
+      </c>
+      <c r="H52" t="s">
+        <v>364</v>
+      </c>
+      <c r="I52" t="s">
+        <v>357</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <v>10</v>
+      </c>
+      <c r="L52">
+        <v>10</v>
+      </c>
+      <c r="M52" t="s">
+        <v>365</v>
+      </c>
+      <c r="N52" t="s">
+        <v>365</v>
+      </c>
+      <c r="O52"/>
+      <c r="P52" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+    </row>
+    <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s">
+        <v>366</v>
+      </c>
+      <c r="D53" t="s">
+        <v>367</v>
+      </c>
+      <c r="E53" t="s">
+        <v>368</v>
+      </c>
+      <c r="F53" t="s">
+        <v>369</v>
+      </c>
+      <c r="G53" t="s">
+        <v>370</v>
+      </c>
+      <c r="H53" t="s">
+        <v>371</v>
+      </c>
+      <c r="I53" t="s">
+        <v>357</v>
+      </c>
+      <c r="J53">
+        <v>9</v>
+      </c>
+      <c r="K53">
+        <v>15</v>
+      </c>
+      <c r="L53">
+        <v>15</v>
+      </c>
+      <c r="M53" t="s">
+        <v>372</v>
+      </c>
+      <c r="N53" t="s">
+        <v>372</v>
+      </c>
+      <c r="O53"/>
+      <c r="P53" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+    </row>
+    <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s">
+        <v>373</v>
+      </c>
+      <c r="D54" t="s">
+        <v>374</v>
+      </c>
+      <c r="E54" t="s">
+        <v>375</v>
+      </c>
+      <c r="F54" t="s">
+        <v>376</v>
+      </c>
+      <c r="G54" t="s">
+        <v>377</v>
+      </c>
+      <c r="H54" t="s">
+        <v>378</v>
+      </c>
+      <c r="I54" t="s">
+        <v>357</v>
+      </c>
+      <c r="J54">
+        <v>12</v>
+      </c>
+      <c r="K54">
+        <v>20</v>
+      </c>
+      <c r="L54">
+        <v>20</v>
+      </c>
+      <c r="M54" t="s">
+        <v>379</v>
+      </c>
+      <c r="N54" t="s">
+        <v>379</v>
+      </c>
+      <c r="O54"/>
+      <c r="P54" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+    </row>
+    <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s">
+        <v>380</v>
+      </c>
+      <c r="D55" t="s">
+        <v>381</v>
+      </c>
+      <c r="E55" t="s">
+        <v>382</v>
+      </c>
+      <c r="F55" t="s">
+        <v>383</v>
+      </c>
+      <c r="G55" t="s">
+        <v>384</v>
+      </c>
+      <c r="H55" t="s">
+        <v>385</v>
+      </c>
+      <c r="I55" t="s">
+        <v>357</v>
+      </c>
+      <c r="J55">
+        <v>15</v>
+      </c>
+      <c r="K55">
+        <v>25</v>
+      </c>
+      <c r="L55">
+        <v>25</v>
+      </c>
+      <c r="M55" t="s">
+        <v>386</v>
+      </c>
+      <c r="N55" t="s">
+        <v>386</v>
+      </c>
+      <c r="O55"/>
+      <c r="P55" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 C3:C5 D3:D5 E3:E5 I3:I4 F3:H4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 K5 L5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 K3:K4 L3:L4 F3:H4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -4072,16 +4873,16 @@
         <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -4091,34 +4892,34 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -4128,34 +4929,34 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="386">
   <si>
     <t>ID</t>
   </si>
@@ -1174,9 +1174,6 @@
   </si>
   <si>
     <t>8431900000000</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>5791800000</t>
@@ -2236,8 +2233,8 @@
   <sheetPr/>
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4562,8 +4559,8 @@
       <c r="H51" t="s">
         <v>356</v>
       </c>
-      <c r="I51" t="s">
-        <v>357</v>
+      <c r="I51">
+        <v>65</v>
       </c>
       <c r="J51">
         <v>3</v>
@@ -4575,12 +4572,11 @@
         <v>5</v>
       </c>
       <c r="M51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N51" t="s">
-        <v>358</v>
-      </c>
-      <c r="O51"/>
+        <v>357</v>
+      </c>
       <c r="P51" t="s">
         <v>148</v>
       </c>
@@ -4594,25 +4590,25 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" t="s">
+        <v>358</v>
+      </c>
+      <c r="D52" t="s">
         <v>359</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>360</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>361</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>362</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>363</v>
       </c>
-      <c r="H52" t="s">
-        <v>364</v>
-      </c>
-      <c r="I52" t="s">
-        <v>357</v>
+      <c r="I52">
+        <v>70</v>
       </c>
       <c r="J52">
         <v>6</v>
@@ -4624,12 +4620,11 @@
         <v>10</v>
       </c>
       <c r="M52" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N52" t="s">
-        <v>365</v>
-      </c>
-      <c r="O52"/>
+        <v>364</v>
+      </c>
       <c r="P52" t="s">
         <v>148</v>
       </c>
@@ -4643,25 +4638,25 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" t="s">
+        <v>365</v>
+      </c>
+      <c r="D53" t="s">
         <v>366</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>367</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>368</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>369</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>370</v>
       </c>
-      <c r="H53" t="s">
-        <v>371</v>
-      </c>
-      <c r="I53" t="s">
-        <v>357</v>
+      <c r="I53">
+        <v>75</v>
       </c>
       <c r="J53">
         <v>9</v>
@@ -4673,12 +4668,11 @@
         <v>15</v>
       </c>
       <c r="M53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N53" t="s">
-        <v>372</v>
-      </c>
-      <c r="O53"/>
+        <v>371</v>
+      </c>
       <c r="P53" t="s">
         <v>148</v>
       </c>
@@ -4692,25 +4686,25 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" t="s">
+        <v>372</v>
+      </c>
+      <c r="D54" t="s">
         <v>373</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>374</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>375</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>376</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>377</v>
       </c>
-      <c r="H54" t="s">
-        <v>378</v>
-      </c>
-      <c r="I54" t="s">
-        <v>357</v>
+      <c r="I54">
+        <v>80</v>
       </c>
       <c r="J54">
         <v>12</v>
@@ -4722,12 +4716,11 @@
         <v>20</v>
       </c>
       <c r="M54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N54" t="s">
-        <v>379</v>
-      </c>
-      <c r="O54"/>
+        <v>378</v>
+      </c>
       <c r="P54" t="s">
         <v>148</v>
       </c>
@@ -4741,25 +4734,25 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" t="s">
+        <v>379</v>
+      </c>
+      <c r="D55" t="s">
         <v>380</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>381</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>382</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>383</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>384</v>
       </c>
-      <c r="H55" t="s">
-        <v>385</v>
-      </c>
-      <c r="I55" t="s">
-        <v>357</v>
+      <c r="I55">
+        <v>85</v>
       </c>
       <c r="J55">
         <v>15</v>
@@ -4771,12 +4764,11 @@
         <v>25</v>
       </c>
       <c r="M55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N55" t="s">
-        <v>386</v>
-      </c>
-      <c r="O55"/>
+        <v>385</v>
+      </c>
       <c r="P55" t="s">
         <v>148</v>
       </c>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="421">
   <si>
     <t>ID</t>
   </si>
@@ -1261,6 +1261,111 @@
   </si>
   <si>
     <t>9438000000</t>
+  </si>
+  <si>
+    <t>10050</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>幻影钳虫王</t>
+  </si>
+  <si>
+    <t>326426050000</t>
+  </si>
+  <si>
+    <t>65285210000</t>
+  </si>
+  <si>
+    <t>269820800000000</t>
+  </si>
+  <si>
+    <t>10492049999</t>
+  </si>
+  <si>
+    <t>10051</t>
+  </si>
+  <si>
+    <t>1051</t>
+  </si>
+  <si>
+    <t>幻影触龙神</t>
+  </si>
+  <si>
+    <t>459127100000</t>
+  </si>
+  <si>
+    <t>91825420000</t>
+  </si>
+  <si>
+    <t>539641600000000</t>
+  </si>
+  <si>
+    <t>11605800000</t>
+  </si>
+  <si>
+    <t>10052</t>
+  </si>
+  <si>
+    <t>1052</t>
+  </si>
+  <si>
+    <t>幻影白野猪</t>
+  </si>
+  <si>
+    <t>645774800000</t>
+  </si>
+  <si>
+    <t>129154960000</t>
+  </si>
+  <si>
+    <t>1079283200000000</t>
+  </si>
+  <si>
+    <t>12780600000</t>
+  </si>
+  <si>
+    <t>10053</t>
+  </si>
+  <si>
+    <t>1053</t>
+  </si>
+  <si>
+    <t>幻影猪王</t>
+  </si>
+  <si>
+    <t>908299850000</t>
+  </si>
+  <si>
+    <t>181659970000</t>
+  </si>
+  <si>
+    <t>2158566400000000</t>
+  </si>
+  <si>
+    <t>14017800000</t>
+  </si>
+  <si>
+    <t>10054</t>
+  </si>
+  <si>
+    <t>1054</t>
+  </si>
+  <si>
+    <t>幻影蝎王</t>
+  </si>
+  <si>
+    <t>1277548500000</t>
+  </si>
+  <si>
+    <t>255509700000</t>
+  </si>
+  <si>
+    <t>4317132800000000</t>
+  </si>
+  <si>
+    <t>15318750000</t>
   </si>
 </sst>
 </file>
@@ -2231,10 +2336,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2244,9 +2349,10 @@
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="15.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="2" customWidth="1"/>
     <col min="10" max="12" width="12.125" style="2" customWidth="1"/>
     <col min="13" max="13" width="16.375" style="2" customWidth="1"/>
     <col min="14" max="14" width="13" style="2" customWidth="1"/>
@@ -4566,9 +4672,11 @@
         <v>3</v>
       </c>
       <c r="K51">
+        <f t="shared" ref="K51:K60" si="2">(D51-1044)*5</f>
         <v>5</v>
       </c>
       <c r="L51">
+        <f t="shared" ref="L51:L60" si="3">(D51-1044)*5</f>
         <v>5</v>
       </c>
       <c r="M51" t="s">
@@ -4614,9 +4722,11 @@
         <v>6</v>
       </c>
       <c r="K52">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L52">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M52" t="s">
@@ -4662,9 +4772,11 @@
         <v>9</v>
       </c>
       <c r="K53">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="L53">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="M53" t="s">
@@ -4710,9 +4822,11 @@
         <v>12</v>
       </c>
       <c r="K54">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L54">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="M54" t="s">
@@ -4758,9 +4872,11 @@
         <v>15</v>
       </c>
       <c r="K55">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="L55">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="M55" t="s">
@@ -4777,6 +4893,271 @@
       </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
+    </row>
+    <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s">
+        <v>386</v>
+      </c>
+      <c r="D56" t="s">
+        <v>387</v>
+      </c>
+      <c r="E56" t="s">
+        <v>388</v>
+      </c>
+      <c r="F56" t="s">
+        <v>389</v>
+      </c>
+      <c r="G56" t="s">
+        <v>390</v>
+      </c>
+      <c r="H56" t="s">
+        <v>391</v>
+      </c>
+      <c r="I56">
+        <f t="shared" ref="I56:I60" si="4">(D56-1049)*5+85</f>
+        <v>90</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ref="J56:J60" si="5">(D56-1049)*5+15</f>
+        <v>20</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="M56" t="s">
+        <v>392</v>
+      </c>
+      <c r="N56" t="s">
+        <v>392</v>
+      </c>
+      <c r="O56"/>
+      <c r="P56" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s">
+        <v>393</v>
+      </c>
+      <c r="D57" t="s">
+        <v>394</v>
+      </c>
+      <c r="E57" t="s">
+        <v>395</v>
+      </c>
+      <c r="F57" t="s">
+        <v>396</v>
+      </c>
+      <c r="G57" t="s">
+        <v>397</v>
+      </c>
+      <c r="H57" t="s">
+        <v>398</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="M57" t="s">
+        <v>399</v>
+      </c>
+      <c r="N57" t="s">
+        <v>399</v>
+      </c>
+      <c r="O57"/>
+      <c r="P57" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s">
+        <v>400</v>
+      </c>
+      <c r="D58" t="s">
+        <v>401</v>
+      </c>
+      <c r="E58" t="s">
+        <v>402</v>
+      </c>
+      <c r="F58" t="s">
+        <v>403</v>
+      </c>
+      <c r="G58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="M58" t="s">
+        <v>406</v>
+      </c>
+      <c r="N58" t="s">
+        <v>406</v>
+      </c>
+      <c r="O58"/>
+      <c r="P58" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s">
+        <v>407</v>
+      </c>
+      <c r="D59" t="s">
+        <v>408</v>
+      </c>
+      <c r="E59" t="s">
+        <v>409</v>
+      </c>
+      <c r="F59" t="s">
+        <v>410</v>
+      </c>
+      <c r="G59" t="s">
+        <v>411</v>
+      </c>
+      <c r="H59" t="s">
+        <v>412</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="M59" t="s">
+        <v>413</v>
+      </c>
+      <c r="N59" t="s">
+        <v>413</v>
+      </c>
+      <c r="O59"/>
+      <c r="P59" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+    </row>
+    <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s">
+        <v>414</v>
+      </c>
+      <c r="D60" t="s">
+        <v>415</v>
+      </c>
+      <c r="E60" t="s">
+        <v>416</v>
+      </c>
+      <c r="F60" t="s">
+        <v>417</v>
+      </c>
+      <c r="G60" t="s">
+        <v>418</v>
+      </c>
+      <c r="H60" t="s">
+        <v>419</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="M60" t="s">
+        <v>420</v>
+      </c>
+      <c r="N60" t="s">
+        <v>420</v>
+      </c>
+      <c r="O60"/>
+      <c r="P60" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="420">
   <si>
     <t>ID</t>
   </si>
@@ -204,31 +204,28 @@
     <t>鸡王</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>鹿王</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
     <t>500</t>
   </si>
   <si>
-    <t>100</t>
+    <t>250000</t>
   </si>
   <si>
     <t>50000</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>鹿王</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>250000</t>
   </si>
   <si>
     <t>45</t>
@@ -1544,12 +1541,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2338,8 +2335,8 @@
   <sheetPr/>
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2545,14 +2542,14 @@
       <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>50000</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2574,7 +2571,7 @@
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="1">
         <v>-1</v>
@@ -2582,44 +2579,44 @@
     </row>
     <row r="7" ht="24" customHeight="1" spans="3:18">
       <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O7"/>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="1">
         <v>-1</v>
@@ -2628,44 +2625,44 @@
     </row>
     <row r="8" ht="24" customHeight="1" spans="3:18">
       <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
         <v>47</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>48</v>
-      </c>
       <c r="N8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O8"/>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="1">
         <v>-1</v>
@@ -2674,44 +2671,44 @@
     </row>
     <row r="9" ht="24" customHeight="1" spans="3:18">
       <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>54</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>55</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>56</v>
-      </c>
       <c r="N9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O9"/>
       <c r="P9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2720,22 +2717,22 @@
     </row>
     <row r="10" ht="24" customHeight="1" spans="3:18">
       <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2750,14 +2747,14 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O10"/>
       <c r="P10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2766,44 +2763,44 @@
     </row>
     <row r="11" ht="24" customHeight="1" spans="3:18">
       <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>64</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>65</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>66</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>67</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
         <v>68</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>69</v>
-      </c>
       <c r="N11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O11"/>
       <c r="P11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -2812,44 +2809,44 @@
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:18">
       <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>72</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>73</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>74</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>75</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
         <v>76</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>77</v>
-      </c>
       <c r="N12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O12"/>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2858,44 +2855,44 @@
     </row>
     <row r="13" ht="24" customHeight="1" spans="3:18">
       <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
         <v>79</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>80</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>81</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>82</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>83</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
         <v>84</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>85</v>
-      </c>
       <c r="N13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O13"/>
       <c r="P13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -2904,44 +2901,44 @@
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:18">
       <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
         <v>87</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>88</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>89</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>90</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>91</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
         <v>92</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>93</v>
-      </c>
       <c r="N14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O14"/>
       <c r="P14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -2950,44 +2947,44 @@
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:18">
       <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
         <v>95</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>96</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>97</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>98</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>99</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
         <v>100</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>101</v>
-      </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O15"/>
       <c r="P15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2996,44 +2993,44 @@
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:18">
       <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
         <v>103</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>104</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>105</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>106</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>107</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
         <v>108</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>109</v>
-      </c>
       <c r="N16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O16"/>
       <c r="P16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3042,44 +3039,44 @@
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:18">
       <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
         <v>111</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>112</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>113</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>114</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>115</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
         <v>116</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>117</v>
-      </c>
       <c r="N17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O17"/>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -3088,44 +3085,44 @@
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:18">
       <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
         <v>119</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>120</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>121</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>122</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>123</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
         <v>124</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>125</v>
-      </c>
       <c r="N18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O18"/>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -3134,44 +3131,44 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:18">
       <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
         <v>127</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>128</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>129</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>130</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>131</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
         <v>132</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>133</v>
-      </c>
       <c r="N19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O19"/>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -3180,44 +3177,44 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:18">
       <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" t="s">
         <v>134</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>135</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>136</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>137</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>138</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
         <v>139</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>140</v>
-      </c>
       <c r="N20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O20"/>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -3226,22 +3223,22 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:18">
       <c r="C21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" t="s">
         <v>141</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>142</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>143</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>144</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>145</v>
-      </c>
-      <c r="H21" t="s">
-        <v>146</v>
       </c>
       <c r="I21">
         <f t="shared" ref="I21:I40" si="0">(D21-1014)*1</f>
@@ -3257,14 +3254,14 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O21"/>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -3273,22 +3270,22 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:18">
       <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" t="s">
         <v>149</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>150</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>151</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>152</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>153</v>
-      </c>
-      <c r="H22" t="s">
-        <v>154</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
@@ -3304,14 +3301,14 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O22"/>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -3320,22 +3317,22 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:18">
       <c r="C23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" t="s">
         <v>156</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>157</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>158</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>159</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>160</v>
-      </c>
-      <c r="H23" t="s">
-        <v>161</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
@@ -3351,14 +3348,14 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O23"/>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -3367,22 +3364,22 @@
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:18">
       <c r="C24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" t="s">
         <v>163</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>164</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>165</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>166</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>167</v>
-      </c>
-      <c r="H24" t="s">
-        <v>168</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
@@ -3398,14 +3395,14 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O24"/>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3414,22 +3411,22 @@
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:18">
       <c r="C25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" t="s">
         <v>170</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>171</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>172</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>173</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>174</v>
-      </c>
-      <c r="H25" t="s">
-        <v>175</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
@@ -3445,14 +3442,14 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O25"/>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -3461,22 +3458,22 @@
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:18">
       <c r="C26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" t="s">
         <v>177</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>178</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>179</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>180</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>181</v>
-      </c>
-      <c r="H26" t="s">
-        <v>182</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
@@ -3492,14 +3489,14 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O26"/>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -3508,22 +3505,22 @@
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:18">
       <c r="C27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" t="s">
         <v>184</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>185</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>186</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>187</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>188</v>
-      </c>
-      <c r="H27" t="s">
-        <v>189</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
@@ -3539,14 +3536,14 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O27"/>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -3555,22 +3552,22 @@
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:18">
       <c r="C28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" t="s">
         <v>191</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>192</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>193</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>194</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>195</v>
-      </c>
-      <c r="H28" t="s">
-        <v>196</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
@@ -3586,14 +3583,14 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O28"/>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -3602,22 +3599,22 @@
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:18">
       <c r="C29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" t="s">
         <v>198</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>199</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>200</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>201</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>202</v>
-      </c>
-      <c r="H29" t="s">
-        <v>203</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
@@ -3633,14 +3630,14 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O29"/>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -3649,22 +3646,22 @@
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:18">
       <c r="C30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" t="s">
         <v>205</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>206</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>207</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>208</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>209</v>
-      </c>
-      <c r="H30" t="s">
-        <v>210</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
@@ -3680,14 +3677,14 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O30"/>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -3696,22 +3693,22 @@
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:18">
       <c r="C31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" t="s">
         <v>212</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>213</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>214</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>215</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>216</v>
-      </c>
-      <c r="H31" t="s">
-        <v>217</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
@@ -3727,14 +3724,14 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O31"/>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -3743,22 +3740,22 @@
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:18">
       <c r="C32" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" t="s">
         <v>219</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>220</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>221</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>222</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>223</v>
-      </c>
-      <c r="H32" t="s">
-        <v>224</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
@@ -3774,14 +3771,14 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O32"/>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3790,22 +3787,22 @@
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:18">
       <c r="C33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" t="s">
         <v>226</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>227</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>228</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>229</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>230</v>
-      </c>
-      <c r="H33" t="s">
-        <v>231</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
@@ -3821,14 +3818,14 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O33"/>
       <c r="P33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -3837,22 +3834,22 @@
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:18">
       <c r="C34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34" t="s">
         <v>233</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>234</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>235</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>236</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>237</v>
-      </c>
-      <c r="H34" t="s">
-        <v>238</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
@@ -3868,14 +3865,14 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -3884,22 +3881,22 @@
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:18">
       <c r="C35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" t="s">
         <v>240</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>241</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>242</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>243</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>244</v>
-      </c>
-      <c r="H35" t="s">
-        <v>245</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
@@ -3915,14 +3912,14 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O35"/>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -3931,22 +3928,22 @@
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:18">
       <c r="C36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D36" t="s">
         <v>247</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>248</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>249</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>250</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>251</v>
-      </c>
-      <c r="H36" t="s">
-        <v>252</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
@@ -3962,14 +3959,14 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O36"/>
       <c r="P36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3978,22 +3975,22 @@
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:18">
       <c r="C37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" t="s">
         <v>254</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>255</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>256</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>258</v>
-      </c>
-      <c r="H37" t="s">
-        <v>259</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
@@ -4009,14 +4006,14 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O37"/>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -4025,22 +4022,22 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:18">
       <c r="C38" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" t="s">
         <v>261</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>262</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>263</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>264</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>265</v>
-      </c>
-      <c r="H38" t="s">
-        <v>266</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
@@ -4056,14 +4053,14 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O38"/>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -4072,22 +4069,22 @@
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:18">
       <c r="C39" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" t="s">
         <v>268</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>269</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>270</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>271</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>272</v>
-      </c>
-      <c r="H39" t="s">
-        <v>273</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
@@ -4103,14 +4100,14 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O39"/>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -4119,22 +4116,22 @@
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:18">
       <c r="C40" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" t="s">
         <v>275</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>276</v>
-      </c>
-      <c r="E40" t="s">
-        <v>277</v>
       </c>
       <c r="F40">
         <v>1391250000</v>
       </c>
       <c r="G40" t="s">
+        <v>277</v>
+      </c>
+      <c r="H40" t="s">
         <v>278</v>
-      </c>
-      <c r="H40" t="s">
-        <v>279</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
@@ -4150,14 +4147,14 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O40"/>
       <c r="P40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -4168,22 +4165,22 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" t="s">
+        <v>280</v>
+      </c>
+      <c r="D41" t="s">
         <v>281</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>282</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>283</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>284</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>285</v>
-      </c>
-      <c r="H41" t="s">
-        <v>286</v>
       </c>
       <c r="I41">
         <f>(D41-1034)*5+20</f>
@@ -4199,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -4215,22 +4212,22 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" t="s">
+        <v>287</v>
+      </c>
+      <c r="D42" t="s">
         <v>288</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>289</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>290</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>291</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>292</v>
-      </c>
-      <c r="H42" t="s">
-        <v>293</v>
       </c>
       <c r="I42">
         <f t="shared" ref="I41:I50" si="1">(D42-1034)*4+20</f>
@@ -4246,13 +4243,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -4262,22 +4259,22 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" t="s">
+        <v>294</v>
+      </c>
+      <c r="D43" t="s">
         <v>295</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>296</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>297</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>298</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>299</v>
-      </c>
-      <c r="H43" t="s">
-        <v>300</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
@@ -4293,13 +4290,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -4309,22 +4306,22 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44" t="s">
         <v>302</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>303</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>304</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>305</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>306</v>
-      </c>
-      <c r="H44" t="s">
-        <v>307</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
@@ -4340,13 +4337,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -4356,22 +4353,22 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
+        <v>308</v>
+      </c>
+      <c r="D45" t="s">
         <v>309</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>310</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>311</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>312</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>313</v>
-      </c>
-      <c r="H45" t="s">
-        <v>314</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
@@ -4387,13 +4384,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -4403,22 +4400,22 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" t="s">
+        <v>315</v>
+      </c>
+      <c r="D46" t="s">
         <v>316</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>317</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>318</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>319</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>320</v>
-      </c>
-      <c r="H46" t="s">
-        <v>321</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
@@ -4434,13 +4431,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -4452,22 +4449,22 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" t="s">
+        <v>322</v>
+      </c>
+      <c r="D47" t="s">
         <v>323</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>324</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>325</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>326</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>327</v>
-      </c>
-      <c r="H47" t="s">
-        <v>328</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
@@ -4483,13 +4480,13 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -4501,22 +4498,22 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" t="s">
+        <v>329</v>
+      </c>
+      <c r="D48" t="s">
         <v>330</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>331</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>332</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>333</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>334</v>
-      </c>
-      <c r="H48" t="s">
-        <v>335</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
@@ -4532,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -4550,22 +4547,22 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" t="s">
+        <v>336</v>
+      </c>
+      <c r="D49" t="s">
         <v>337</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>338</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>339</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>341</v>
-      </c>
-      <c r="H49" t="s">
-        <v>342</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
@@ -4581,13 +4578,13 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N49" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -4599,22 +4596,22 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" t="s">
+        <v>343</v>
+      </c>
+      <c r="D50" t="s">
         <v>344</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>345</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>346</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>347</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>348</v>
-      </c>
-      <c r="H50" t="s">
-        <v>349</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
@@ -4630,13 +4627,13 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -4648,22 +4645,22 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" t="s">
+        <v>350</v>
+      </c>
+      <c r="D51" t="s">
         <v>351</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>352</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>353</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>354</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>355</v>
-      </c>
-      <c r="H51" t="s">
-        <v>356</v>
       </c>
       <c r="I51">
         <v>65</v>
@@ -4680,13 +4677,13 @@
         <v>5</v>
       </c>
       <c r="M51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -4698,22 +4695,22 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" t="s">
+        <v>357</v>
+      </c>
+      <c r="D52" t="s">
         <v>358</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>359</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>360</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>361</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>362</v>
-      </c>
-      <c r="H52" t="s">
-        <v>363</v>
       </c>
       <c r="I52">
         <v>70</v>
@@ -4730,13 +4727,13 @@
         <v>10</v>
       </c>
       <c r="M52" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N52" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -4748,22 +4745,22 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" t="s">
+        <v>364</v>
+      </c>
+      <c r="D53" t="s">
         <v>365</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>366</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>367</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>368</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>369</v>
-      </c>
-      <c r="H53" t="s">
-        <v>370</v>
       </c>
       <c r="I53">
         <v>75</v>
@@ -4780,13 +4777,13 @@
         <v>15</v>
       </c>
       <c r="M53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -4798,22 +4795,22 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" t="s">
+        <v>371</v>
+      </c>
+      <c r="D54" t="s">
         <v>372</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>373</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>374</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>375</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>376</v>
-      </c>
-      <c r="H54" t="s">
-        <v>377</v>
       </c>
       <c r="I54">
         <v>80</v>
@@ -4830,13 +4827,13 @@
         <v>20</v>
       </c>
       <c r="M54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -4848,22 +4845,22 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" t="s">
+        <v>378</v>
+      </c>
+      <c r="D55" t="s">
         <v>379</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>380</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>381</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>382</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>383</v>
-      </c>
-      <c r="H55" t="s">
-        <v>384</v>
       </c>
       <c r="I55">
         <v>85</v>
@@ -4880,13 +4877,13 @@
         <v>25</v>
       </c>
       <c r="M55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -4898,22 +4895,22 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" t="s">
+        <v>385</v>
+      </c>
+      <c r="D56" t="s">
         <v>386</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>387</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>388</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>389</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>390</v>
-      </c>
-      <c r="H56" t="s">
-        <v>391</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56:I60" si="4">(D56-1049)*5+85</f>
@@ -4932,14 +4929,13 @@
         <v>30</v>
       </c>
       <c r="M56" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N56" t="s">
-        <v>392</v>
-      </c>
-      <c r="O56"/>
+        <v>391</v>
+      </c>
       <c r="P56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -4951,22 +4947,22 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
+        <v>392</v>
+      </c>
+      <c r="D57" t="s">
         <v>393</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>394</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>395</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>396</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>397</v>
-      </c>
-      <c r="H57" t="s">
-        <v>398</v>
       </c>
       <c r="I57">
         <f t="shared" si="4"/>
@@ -4985,14 +4981,13 @@
         <v>35</v>
       </c>
       <c r="M57" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N57" t="s">
-        <v>399</v>
-      </c>
-      <c r="O57"/>
+        <v>398</v>
+      </c>
       <c r="P57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -5004,22 +4999,22 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" t="s">
+        <v>399</v>
+      </c>
+      <c r="D58" t="s">
         <v>400</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>401</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>402</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>403</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>404</v>
-      </c>
-      <c r="H58" t="s">
-        <v>405</v>
       </c>
       <c r="I58">
         <f t="shared" si="4"/>
@@ -5038,14 +5033,13 @@
         <v>40</v>
       </c>
       <c r="M58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N58" t="s">
-        <v>406</v>
-      </c>
-      <c r="O58"/>
+        <v>405</v>
+      </c>
       <c r="P58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -5057,22 +5051,22 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
+        <v>406</v>
+      </c>
+      <c r="D59" t="s">
         <v>407</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>408</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>409</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>410</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>411</v>
-      </c>
-      <c r="H59" t="s">
-        <v>412</v>
       </c>
       <c r="I59">
         <f t="shared" si="4"/>
@@ -5091,14 +5085,13 @@
         <v>45</v>
       </c>
       <c r="M59" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N59" t="s">
-        <v>413</v>
-      </c>
-      <c r="O59"/>
+        <v>412</v>
+      </c>
       <c r="P59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -5110,22 +5103,22 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" t="s">
+        <v>413</v>
+      </c>
+      <c r="D60" t="s">
         <v>414</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>415</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>416</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>417</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>418</v>
-      </c>
-      <c r="H60" t="s">
-        <v>419</v>
       </c>
       <c r="I60">
         <f t="shared" si="4"/>
@@ -5144,14 +5137,13 @@
         <v>50</v>
       </c>
       <c r="M60" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N60" t="s">
-        <v>420</v>
-      </c>
-      <c r="O60"/>
+        <v>419</v>
+      </c>
       <c r="P60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q60">
         <v>0</v>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="455">
   <si>
     <t>ID</t>
   </si>
@@ -204,6 +204,9 @@
     <t>鸡王</t>
   </si>
   <si>
+    <t>50000</t>
+  </si>
+  <si>
     <t>90</t>
   </si>
   <si>
@@ -225,9 +228,6 @@
     <t>250000</t>
   </si>
   <si>
-    <t>50000</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
@@ -1363,6 +1363,111 @@
   </si>
   <si>
     <t>15318750000</t>
+  </si>
+  <si>
+    <t>10055</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>幻影沃玛教主</t>
+  </si>
+  <si>
+    <t>1796906800000</t>
+  </si>
+  <si>
+    <t>359381360000</t>
+  </si>
+  <si>
+    <t>8202552320000000</t>
+  </si>
+  <si>
+    <t>15692799999</t>
+  </si>
+  <si>
+    <t>10056</t>
+  </si>
+  <si>
+    <t>1056</t>
+  </si>
+  <si>
+    <t>幻影沃玛教皇</t>
+  </si>
+  <si>
+    <t>2527398400000</t>
+  </si>
+  <si>
+    <t>505479680000</t>
+  </si>
+  <si>
+    <t>15584849405000000</t>
+  </si>
+  <si>
+    <t>16073700000</t>
+  </si>
+  <si>
+    <t>10057</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>幻影祖玛教主</t>
+  </si>
+  <si>
+    <t>3554854700000</t>
+  </si>
+  <si>
+    <t>710970940000</t>
+  </si>
+  <si>
+    <t>29611213875000000</t>
+  </si>
+  <si>
+    <t>16461900000</t>
+  </si>
+  <si>
+    <t>10058</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>幻影祖玛教皇</t>
+  </si>
+  <si>
+    <t>5000000000000</t>
+  </si>
+  <si>
+    <t>1000000000000</t>
+  </si>
+  <si>
+    <t>56261306360000000</t>
+  </si>
+  <si>
+    <t>16857850000</t>
+  </si>
+  <si>
+    <t>10059</t>
+  </si>
+  <si>
+    <t>1059</t>
+  </si>
+  <si>
+    <t>幻虹魔猪王</t>
+  </si>
+  <si>
+    <t>7032636200000</t>
+  </si>
+  <si>
+    <t>1406527240000</t>
+  </si>
+  <si>
+    <t>106896482085000000</t>
+  </si>
+  <si>
+    <t>17262000000</t>
   </si>
 </sst>
 </file>
@@ -1541,12 +1646,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2014,6 +2119,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2333,10 +2439,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2548,8 +2654,8 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>50000</v>
+      <c r="H6" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2571,7 +2677,7 @@
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="1">
         <v>-1</v>
@@ -2579,22 +2685,22 @@
     </row>
     <row r="7" ht="24" customHeight="1" spans="3:18">
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2609,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O7"/>
       <c r="P7" t="s">
@@ -2726,7 +2832,7 @@
         <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
@@ -4669,11 +4775,11 @@
         <v>3</v>
       </c>
       <c r="K51">
-        <f t="shared" ref="K51:K60" si="2">(D51-1044)*5</f>
+        <f t="shared" ref="K51:K65" si="2">(D51-1044)*5</f>
         <v>5</v>
       </c>
       <c r="L51">
-        <f t="shared" ref="L51:L60" si="3">(D51-1044)*5</f>
+        <f t="shared" ref="L51:L65" si="3">(D51-1044)*5</f>
         <v>5</v>
       </c>
       <c r="M51" t="s">
@@ -4913,11 +5019,11 @@
         <v>390</v>
       </c>
       <c r="I56">
-        <f t="shared" ref="I56:I60" si="4">(D56-1049)*5+85</f>
+        <f t="shared" ref="I56:I65" si="4">(D56-1049)*5+85</f>
         <v>90</v>
       </c>
       <c r="J56">
-        <f t="shared" ref="J56:J60" si="5">(D56-1049)*5+15</f>
+        <f t="shared" ref="J56:J65" si="5">(D56-1049)*5+15</f>
         <v>20</v>
       </c>
       <c r="K56">
@@ -5150,6 +5256,266 @@
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
+    </row>
+    <row r="61" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s">
+        <v>420</v>
+      </c>
+      <c r="D61" t="s">
+        <v>421</v>
+      </c>
+      <c r="E61" t="s">
+        <v>422</v>
+      </c>
+      <c r="F61" t="s">
+        <v>423</v>
+      </c>
+      <c r="G61" t="s">
+        <v>424</v>
+      </c>
+      <c r="H61" t="s">
+        <v>425</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="M61" t="s">
+        <v>426</v>
+      </c>
+      <c r="N61" t="s">
+        <v>426</v>
+      </c>
+      <c r="P61" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s">
+        <v>427</v>
+      </c>
+      <c r="D62" t="s">
+        <v>428</v>
+      </c>
+      <c r="E62" t="s">
+        <v>429</v>
+      </c>
+      <c r="F62" t="s">
+        <v>430</v>
+      </c>
+      <c r="G62" t="s">
+        <v>431</v>
+      </c>
+      <c r="H62" t="s">
+        <v>432</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="M62" t="s">
+        <v>433</v>
+      </c>
+      <c r="N62" t="s">
+        <v>433</v>
+      </c>
+      <c r="P62" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+    </row>
+    <row r="63" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s">
+        <v>434</v>
+      </c>
+      <c r="D63" t="s">
+        <v>435</v>
+      </c>
+      <c r="E63" t="s">
+        <v>436</v>
+      </c>
+      <c r="F63" t="s">
+        <v>437</v>
+      </c>
+      <c r="G63" t="s">
+        <v>438</v>
+      </c>
+      <c r="H63" t="s">
+        <v>439</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="M63" t="s">
+        <v>440</v>
+      </c>
+      <c r="N63" t="s">
+        <v>440</v>
+      </c>
+      <c r="P63" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+    </row>
+    <row r="64" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s">
+        <v>441</v>
+      </c>
+      <c r="D64" t="s">
+        <v>442</v>
+      </c>
+      <c r="E64" t="s">
+        <v>443</v>
+      </c>
+      <c r="F64" t="s">
+        <v>444</v>
+      </c>
+      <c r="G64" t="s">
+        <v>445</v>
+      </c>
+      <c r="H64" t="s">
+        <v>446</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="M64" t="s">
+        <v>447</v>
+      </c>
+      <c r="N64" t="s">
+        <v>447</v>
+      </c>
+      <c r="P64" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+    </row>
+    <row r="65" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s">
+        <v>448</v>
+      </c>
+      <c r="D65" t="s">
+        <v>449</v>
+      </c>
+      <c r="E65" t="s">
+        <v>450</v>
+      </c>
+      <c r="F65" t="s">
+        <v>451</v>
+      </c>
+      <c r="G65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H65" t="s">
+        <v>453</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="M65" t="s">
+        <v>454</v>
+      </c>
+      <c r="N65" t="s">
+        <v>454</v>
+      </c>
+      <c r="P65" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
     <sheet name="定制配置" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -103,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="485">
   <si>
     <t>ID</t>
   </si>
@@ -1464,16 +1477,106 @@
     <t>1406527240000</t>
   </si>
   <si>
-    <t>106896482085000000</t>
+    <t>100000000000000000</t>
   </si>
   <si>
     <t>17262000000</t>
+  </si>
+  <si>
+    <t>10060</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>幻影千年妖王</t>
+  </si>
+  <si>
+    <t>9891594400000</t>
+  </si>
+  <si>
+    <t>1978318880000</t>
+  </si>
+  <si>
+    <t>17674800000</t>
+  </si>
+  <si>
+    <t>10061</t>
+  </si>
+  <si>
+    <t>1061</t>
+  </si>
+  <si>
+    <t>幻影虹魔教主</t>
+  </si>
+  <si>
+    <t>13912797000000</t>
+  </si>
+  <si>
+    <t>2782559400000</t>
+  </si>
+  <si>
+    <t>18096700000</t>
+  </si>
+  <si>
+    <t>10062</t>
+  </si>
+  <si>
+    <t>1062</t>
+  </si>
+  <si>
+    <t>幻影恶灵尸王</t>
+  </si>
+  <si>
+    <t>19568728000000</t>
+  </si>
+  <si>
+    <t>3913745600000</t>
+  </si>
+  <si>
+    <t>18528150000</t>
+  </si>
+  <si>
+    <t>10063</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>幻影黄泉教主</t>
+  </si>
+  <si>
+    <t>27523949000000</t>
+  </si>
+  <si>
+    <t>5504789800000</t>
+  </si>
+  <si>
+    <t>18969600000</t>
+  </si>
+  <si>
+    <t>10064</t>
+  </si>
+  <si>
+    <t>1064</t>
+  </si>
+  <si>
+    <t>幻影牛魔王</t>
+  </si>
+  <si>
+    <t>38713184100000</t>
+  </si>
+  <si>
+    <t>7742636820000</t>
+  </si>
+  <si>
+    <t>19421500000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1646,12 +1749,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2439,10 +2542,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="Q65" sqref="Q65:Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5483,7 +5586,7 @@
       <c r="G65" t="s">
         <v>452</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="5" t="s">
         <v>453</v>
       </c>
       <c r="I65">
@@ -5516,6 +5619,276 @@
       </c>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
+    </row>
+    <row r="66" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s">
+        <v>455</v>
+      </c>
+      <c r="D66" t="s">
+        <v>456</v>
+      </c>
+      <c r="E66" t="s">
+        <v>457</v>
+      </c>
+      <c r="F66" t="s">
+        <v>458</v>
+      </c>
+      <c r="G66" t="s">
+        <v>459</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ref="H66:H70" si="6">H65*2.2</f>
+        <v>2.2e+17</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ref="I66:L66" si="7">I65+8</f>
+        <v>143</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="7"/>
+        <v>83</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="7"/>
+        <v>83</v>
+      </c>
+      <c r="M66" t="s">
+        <v>460</v>
+      </c>
+      <c r="N66" t="s">
+        <v>460</v>
+      </c>
+      <c r="O66"/>
+      <c r="P66" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+    </row>
+    <row r="67" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s">
+        <v>461</v>
+      </c>
+      <c r="D67" t="s">
+        <v>462</v>
+      </c>
+      <c r="E67" t="s">
+        <v>463</v>
+      </c>
+      <c r="F67" t="s">
+        <v>464</v>
+      </c>
+      <c r="G67" t="s">
+        <v>465</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="6"/>
+        <v>4.84e+17</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I66:I70" si="8">I66+8</f>
+        <v>151</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J70" si="9">J66+8</f>
+        <v>81</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K70" si="10">K66+8</f>
+        <v>91</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L70" si="11">L66+8</f>
+        <v>91</v>
+      </c>
+      <c r="M67" t="s">
+        <v>466</v>
+      </c>
+      <c r="N67" t="s">
+        <v>466</v>
+      </c>
+      <c r="O67"/>
+      <c r="P67" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+    </row>
+    <row r="68" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s">
+        <v>467</v>
+      </c>
+      <c r="D68" t="s">
+        <v>468</v>
+      </c>
+      <c r="E68" t="s">
+        <v>469</v>
+      </c>
+      <c r="F68" t="s">
+        <v>470</v>
+      </c>
+      <c r="G68" t="s">
+        <v>471</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="6"/>
+        <v>1.0648e+18</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="8"/>
+        <v>159</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="11"/>
+        <v>99</v>
+      </c>
+      <c r="M68" t="s">
+        <v>472</v>
+      </c>
+      <c r="N68" t="s">
+        <v>472</v>
+      </c>
+      <c r="O68"/>
+      <c r="P68" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+    </row>
+    <row r="69" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s">
+        <v>473</v>
+      </c>
+      <c r="D69" t="s">
+        <v>474</v>
+      </c>
+      <c r="E69" t="s">
+        <v>475</v>
+      </c>
+      <c r="F69" t="s">
+        <v>476</v>
+      </c>
+      <c r="G69" t="s">
+        <v>477</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="6"/>
+        <v>2.34256e+18</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="8"/>
+        <v>167</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="10"/>
+        <v>107</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="11"/>
+        <v>107</v>
+      </c>
+      <c r="M69" t="s">
+        <v>478</v>
+      </c>
+      <c r="N69" t="s">
+        <v>478</v>
+      </c>
+      <c r="O69"/>
+      <c r="P69" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+    </row>
+    <row r="70" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s">
+        <v>479</v>
+      </c>
+      <c r="D70" t="s">
+        <v>480</v>
+      </c>
+      <c r="E70" t="s">
+        <v>481</v>
+      </c>
+      <c r="F70" t="s">
+        <v>482</v>
+      </c>
+      <c r="G70" t="s">
+        <v>483</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="6"/>
+        <v>5.153632e+18</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="8"/>
+        <v>175</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="9"/>
+        <v>105</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="10"/>
+        <v>115</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="11"/>
+        <v>115</v>
+      </c>
+      <c r="M70" t="s">
+        <v>484</v>
+      </c>
+      <c r="N70" t="s">
+        <v>484</v>
+      </c>
+      <c r="O70"/>
+      <c r="P70" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="486">
   <si>
     <t>ID</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>double</t>
   </si>
   <si>
     <t>long</t>
@@ -1749,12 +1752,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2544,8 +2547,8 @@
   <sheetPr/>
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="Q65" sqref="Q65:Q70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2726,16 +2729,16 @@
         <v>26</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>26</v>
@@ -2743,13 +2746,13 @@
     </row>
     <row r="6" customFormat="1" spans="3:17">
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -2758,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2773,14 +2776,14 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="1">
         <v>-1</v>
@@ -2788,22 +2791,22 @@
     </row>
     <row r="7" ht="24" customHeight="1" spans="3:18">
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2818,14 +2821,14 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O7"/>
       <c r="P7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="1">
         <v>-1</v>
@@ -2834,22 +2837,22 @@
     </row>
     <row r="8" ht="24" customHeight="1" spans="3:18">
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2864,14 +2867,14 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O8"/>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="1">
         <v>-1</v>
@@ -2880,22 +2883,22 @@
     </row>
     <row r="9" ht="24" customHeight="1" spans="3:18">
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2910,14 +2913,14 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O9"/>
       <c r="P9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2926,22 +2929,22 @@
     </row>
     <row r="10" ht="24" customHeight="1" spans="3:18">
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2956,14 +2959,14 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O10"/>
       <c r="P10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2972,22 +2975,22 @@
     </row>
     <row r="11" ht="24" customHeight="1" spans="3:18">
       <c r="C11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -3002,14 +3005,14 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O11"/>
       <c r="P11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3018,22 +3021,22 @@
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:18">
       <c r="C12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3048,14 +3051,14 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O12"/>
       <c r="P12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3064,22 +3067,22 @@
     </row>
     <row r="13" ht="24" customHeight="1" spans="3:18">
       <c r="C13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3094,14 +3097,14 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O13"/>
       <c r="P13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -3110,22 +3113,22 @@
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:18">
       <c r="C14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3140,14 +3143,14 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O14"/>
       <c r="P14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3156,22 +3159,22 @@
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:18">
       <c r="C15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3186,14 +3189,14 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O15"/>
       <c r="P15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3202,22 +3205,22 @@
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:18">
       <c r="C16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3232,14 +3235,14 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O16"/>
       <c r="P16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3248,22 +3251,22 @@
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:18">
       <c r="C17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3278,14 +3281,14 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O17"/>
       <c r="P17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -3294,22 +3297,22 @@
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:18">
       <c r="C18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3324,14 +3327,14 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O18"/>
       <c r="P18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -3340,22 +3343,22 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:18">
       <c r="C19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3370,14 +3373,14 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O19"/>
       <c r="P19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -3386,22 +3389,22 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:18">
       <c r="C20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3416,14 +3419,14 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O20"/>
       <c r="P20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -3432,22 +3435,22 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:18">
       <c r="C21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I21">
         <f t="shared" ref="I21:I40" si="0">(D21-1014)*1</f>
@@ -3463,14 +3466,14 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O21"/>
       <c r="P21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -3479,22 +3482,22 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:18">
       <c r="C22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
@@ -3510,14 +3513,14 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O22"/>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -3526,22 +3529,22 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:18">
       <c r="C23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
@@ -3557,14 +3560,14 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O23"/>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -3573,22 +3576,22 @@
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:18">
       <c r="C24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
@@ -3604,14 +3607,14 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O24"/>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3620,22 +3623,22 @@
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:18">
       <c r="C25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
@@ -3651,14 +3654,14 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O25"/>
       <c r="P25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -3667,22 +3670,22 @@
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:18">
       <c r="C26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
@@ -3698,14 +3701,14 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O26"/>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -3714,22 +3717,22 @@
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:18">
       <c r="C27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
@@ -3745,14 +3748,14 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O27"/>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -3761,22 +3764,22 @@
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:18">
       <c r="C28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
@@ -3792,14 +3795,14 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O28"/>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -3808,22 +3811,22 @@
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:18">
       <c r="C29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
@@ -3839,14 +3842,14 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O29"/>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -3855,22 +3858,22 @@
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:18">
       <c r="C30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
@@ -3886,14 +3889,14 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O30"/>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -3902,22 +3905,22 @@
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:18">
       <c r="C31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
@@ -3933,14 +3936,14 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O31"/>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -3949,22 +3952,22 @@
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:18">
       <c r="C32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
@@ -3980,14 +3983,14 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O32"/>
       <c r="P32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3996,22 +3999,22 @@
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:18">
       <c r="C33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
@@ -4027,14 +4030,14 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O33"/>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -4043,22 +4046,22 @@
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:18">
       <c r="C34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
@@ -4074,14 +4077,14 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -4090,22 +4093,22 @@
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:18">
       <c r="C35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G35" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H35" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
@@ -4121,14 +4124,14 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O35"/>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -4137,22 +4140,22 @@
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:18">
       <c r="C36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D36" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E36" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
@@ -4168,14 +4171,14 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O36"/>
       <c r="P36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -4184,22 +4187,22 @@
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:18">
       <c r="C37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F37" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G37" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H37" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
@@ -4215,14 +4218,14 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N37" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O37"/>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -4231,22 +4234,22 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:18">
       <c r="C38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
@@ -4262,14 +4265,14 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O38"/>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -4278,22 +4281,22 @@
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:18">
       <c r="C39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D39" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F39" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G39" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
@@ -4309,14 +4312,14 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N39" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O39"/>
       <c r="P39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -4325,22 +4328,22 @@
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:18">
       <c r="C40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D40" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E40" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F40">
         <v>1391250000</v>
       </c>
       <c r="G40" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H40" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
@@ -4356,14 +4359,14 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N40" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O40"/>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -4374,22 +4377,22 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E41" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F41" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G41" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I41">
         <f>(D41-1034)*5+20</f>
@@ -4405,13 +4408,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -4421,22 +4424,22 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D42" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I42">
         <f t="shared" ref="I41:I50" si="1">(D42-1034)*4+20</f>
@@ -4452,13 +4455,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -4468,22 +4471,22 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D43" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E43" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F43" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H43" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
@@ -4499,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N43" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -4515,22 +4518,22 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D44" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E44" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F44" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G44" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H44" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
@@ -4546,13 +4549,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -4562,22 +4565,22 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D45" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E45" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F45" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G45" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H45" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
@@ -4593,13 +4596,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N45" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -4609,22 +4612,22 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D46" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E46" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F46" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
@@ -4640,13 +4643,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N46" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -4658,22 +4661,22 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D47" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E47" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F47" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G47" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
@@ -4689,13 +4692,13 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N47" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -4707,22 +4710,22 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D48" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E48" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F48" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G48" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H48" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
@@ -4738,13 +4741,13 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N48" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -4756,22 +4759,22 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D49" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E49" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F49" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G49" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
@@ -4787,13 +4790,13 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N49" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -4805,22 +4808,22 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D50" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E50" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F50" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G50" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H50" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
@@ -4836,13 +4839,13 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N50" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -4854,22 +4857,22 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F51" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I51">
         <v>65</v>
@@ -4886,13 +4889,13 @@
         <v>5</v>
       </c>
       <c r="M51" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N51" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -4904,22 +4907,22 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D52" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E52" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F52" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G52" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H52" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I52">
         <v>70</v>
@@ -4936,13 +4939,13 @@
         <v>10</v>
       </c>
       <c r="M52" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N52" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -4954,22 +4957,22 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E53" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F53" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G53" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H53" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I53">
         <v>75</v>
@@ -4986,13 +4989,13 @@
         <v>15</v>
       </c>
       <c r="M53" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N53" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -5004,22 +5007,22 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D54" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E54" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F54" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G54" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H54" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I54">
         <v>80</v>
@@ -5036,13 +5039,13 @@
         <v>20</v>
       </c>
       <c r="M54" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N54" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P54" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -5054,22 +5057,22 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D55" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E55" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F55" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G55" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H55" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I55">
         <v>85</v>
@@ -5086,13 +5089,13 @@
         <v>25</v>
       </c>
       <c r="M55" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N55" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P55" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -5104,22 +5107,22 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D56" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E56" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F56" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G56" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H56" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56:I65" si="4">(D56-1049)*5+85</f>
@@ -5138,13 +5141,13 @@
         <v>30</v>
       </c>
       <c r="M56" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N56" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -5156,22 +5159,22 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D57" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E57" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F57" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G57" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H57" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I57">
         <f t="shared" si="4"/>
@@ -5190,13 +5193,13 @@
         <v>35</v>
       </c>
       <c r="M57" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N57" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -5208,22 +5211,22 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D58" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E58" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F58" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G58" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H58" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I58">
         <f t="shared" si="4"/>
@@ -5242,13 +5245,13 @@
         <v>40</v>
       </c>
       <c r="M58" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N58" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -5260,22 +5263,22 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D59" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E59" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F59" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G59" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H59" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I59">
         <f t="shared" si="4"/>
@@ -5294,13 +5297,13 @@
         <v>45</v>
       </c>
       <c r="M59" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N59" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -5312,22 +5315,22 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D60" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E60" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F60" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G60" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H60" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I60">
         <f t="shared" si="4"/>
@@ -5346,13 +5349,13 @@
         <v>50</v>
       </c>
       <c r="M60" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N60" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P60" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -5364,22 +5367,22 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D61" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E61" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F61" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G61" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H61" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I61">
         <f t="shared" si="4"/>
@@ -5398,13 +5401,13 @@
         <v>55</v>
       </c>
       <c r="M61" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N61" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -5416,22 +5419,22 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D62" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E62" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F62" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G62" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H62" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I62">
         <f t="shared" si="4"/>
@@ -5450,13 +5453,13 @@
         <v>60</v>
       </c>
       <c r="M62" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N62" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -5468,22 +5471,22 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D63" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E63" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F63" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G63" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H63" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I63">
         <f t="shared" si="4"/>
@@ -5502,13 +5505,13 @@
         <v>65</v>
       </c>
       <c r="M63" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N63" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P63" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -5520,22 +5523,22 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D64" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E64" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F64" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G64" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H64" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I64">
         <f t="shared" si="4"/>
@@ -5554,13 +5557,13 @@
         <v>70</v>
       </c>
       <c r="M64" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N64" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -5572,22 +5575,22 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D65" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E65" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F65" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G65" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I65">
         <f t="shared" si="4"/>
@@ -5606,13 +5609,13 @@
         <v>75</v>
       </c>
       <c r="M65" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N65" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -5624,19 +5627,19 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D66" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E66" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F66" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G66" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H70" si="6">H65*2.2</f>
@@ -5659,14 +5662,13 @@
         <v>83</v>
       </c>
       <c r="M66" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N66" t="s">
-        <v>460</v>
-      </c>
-      <c r="O66"/>
+        <v>461</v>
+      </c>
       <c r="P66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -5678,19 +5680,19 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D67" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E67" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F67" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G67" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H67">
         <f t="shared" si="6"/>
@@ -5713,14 +5715,13 @@
         <v>91</v>
       </c>
       <c r="M67" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N67" t="s">
-        <v>466</v>
-      </c>
-      <c r="O67"/>
+        <v>467</v>
+      </c>
       <c r="P67" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -5732,19 +5733,19 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D68" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E68" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F68" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G68" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H68">
         <f t="shared" si="6"/>
@@ -5767,14 +5768,13 @@
         <v>99</v>
       </c>
       <c r="M68" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N68" t="s">
-        <v>472</v>
-      </c>
-      <c r="O68"/>
+        <v>473</v>
+      </c>
       <c r="P68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -5786,19 +5786,19 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D69" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E69" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F69" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G69" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H69">
         <f t="shared" si="6"/>
@@ -5821,14 +5821,13 @@
         <v>107</v>
       </c>
       <c r="M69" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N69" t="s">
-        <v>478</v>
-      </c>
-      <c r="O69"/>
+        <v>479</v>
+      </c>
       <c r="P69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -5840,19 +5839,19 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D70" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E70" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F70" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G70" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H70">
         <f t="shared" si="6"/>
@@ -5875,14 +5874,13 @@
         <v>115</v>
       </c>
       <c r="M70" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N70" t="s">
-        <v>484</v>
-      </c>
-      <c r="O70"/>
+        <v>485</v>
+      </c>
       <c r="P70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -5892,7 +5890,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 K5 L5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 K3:K4 L3:L4 F3:H4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5:H5 I5 J5 K5 L5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 K3:K4 L3:L4 F3:H4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -6042,25 +6040,25 @@
         <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="514">
   <si>
     <t>ID</t>
   </si>
@@ -1574,17 +1574,102 @@
   </si>
   <si>
     <t>19421500000</t>
+  </si>
+  <si>
+    <t>10065</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>幻影双头金刚</t>
+  </si>
+  <si>
+    <t>10890229620000</t>
+  </si>
+  <si>
+    <t>19836900000</t>
+  </si>
+  <si>
+    <t>10066</t>
+  </si>
+  <si>
+    <t>1066</t>
+  </si>
+  <si>
+    <t>幻影双头巨人</t>
+  </si>
+  <si>
+    <t>15317404630000</t>
+  </si>
+  <si>
+    <t>10101118720000000000</t>
+  </si>
+  <si>
+    <t>20294050000</t>
+  </si>
+  <si>
+    <t>10067</t>
+  </si>
+  <si>
+    <t>1067</t>
+  </si>
+  <si>
+    <t>幻影赤月恶魔</t>
+  </si>
+  <si>
+    <t>21544346900000</t>
+  </si>
+  <si>
+    <t>20101118720000000000.44</t>
+  </si>
+  <si>
+    <t>20795200000</t>
+  </si>
+  <si>
+    <t>10068</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>幻影魔龙教主</t>
+  </si>
+  <si>
+    <t>30302710820000</t>
+  </si>
+  <si>
+    <t>80101118720000000000.44</t>
+  </si>
+  <si>
+    <t>21342600000</t>
+  </si>
+  <si>
+    <t>10069</t>
+  </si>
+  <si>
+    <t>1069</t>
+  </si>
+  <si>
+    <t>幻影火龙神</t>
+  </si>
+  <si>
+    <t>42621588290000</t>
+  </si>
+  <si>
+    <t>21938500000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2217,7 +2302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2225,7 +2310,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2545,10 +2633,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2558,9 +2646,9 @@
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.875" style="2" customWidth="1"/>
     <col min="10" max="12" width="12.125" style="2" customWidth="1"/>
     <col min="13" max="13" width="16.375" style="2" customWidth="1"/>
@@ -2760,7 +2848,7 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I6">
@@ -5589,7 +5677,7 @@
       <c r="G65" t="s">
         <v>453</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H65" s="7" t="s">
         <v>454</v>
       </c>
       <c r="I65">
@@ -5641,8 +5729,8 @@
       <c r="G66" t="s">
         <v>460</v>
       </c>
-      <c r="H66">
-        <f t="shared" ref="H66:H70" si="6">H65*2.2</f>
+      <c r="H66" s="5">
+        <f t="shared" ref="H66:H71" si="6">H65*2.2</f>
         <v>2.2e+17</v>
       </c>
       <c r="I66">
@@ -5694,24 +5782,24 @@
       <c r="G67" t="s">
         <v>466</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="5">
         <f t="shared" si="6"/>
         <v>4.84e+17</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I66:I70" si="8">I66+8</f>
+        <f t="shared" ref="I66:I71" si="8">I66+8</f>
         <v>151</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J70" si="9">J66+8</f>
+        <f t="shared" ref="J67:J75" si="9">J66+8</f>
         <v>81</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K70" si="10">K66+8</f>
+        <f t="shared" ref="K67:K71" si="10">K66+8</f>
         <v>91</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L70" si="11">L66+8</f>
+        <f t="shared" ref="L67:L71" si="11">L66+8</f>
         <v>91</v>
       </c>
       <c r="M67" t="s">
@@ -5747,7 +5835,7 @@
       <c r="G68" t="s">
         <v>472</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="5">
         <f t="shared" si="6"/>
         <v>1.0648e+18</v>
       </c>
@@ -5800,7 +5888,7 @@
       <c r="G69" t="s">
         <v>478</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="5">
         <f t="shared" si="6"/>
         <v>2.34256e+18</v>
       </c>
@@ -5853,7 +5941,7 @@
       <c r="G70" t="s">
         <v>484</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="5">
         <f t="shared" si="6"/>
         <v>5.153632e+18</v>
       </c>
@@ -5887,6 +5975,269 @@
       </c>
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
+    </row>
+    <row r="71" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s">
+        <v>486</v>
+      </c>
+      <c r="D71" t="s">
+        <v>487</v>
+      </c>
+      <c r="E71" t="s">
+        <v>488</v>
+      </c>
+      <c r="F71" s="5">
+        <f t="shared" ref="F71:F75" si="12">F70*2</f>
+        <v>77426368200000</v>
+      </c>
+      <c r="G71" t="s">
+        <v>489</v>
+      </c>
+      <c r="H71" s="5">
+        <f>H70*1.4</f>
+        <v>7.2150848e+18</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ref="I71:I75" si="13">I70+15</f>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="9"/>
+        <v>113</v>
+      </c>
+      <c r="K71">
+        <f t="shared" ref="K71:K75" si="14">K70+15</f>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f t="shared" ref="L71:L75" si="15">L70+15</f>
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
+        <v>490</v>
+      </c>
+      <c r="N71" t="s">
+        <v>490</v>
+      </c>
+      <c r="P71" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+    </row>
+    <row r="72" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s">
+        <v>491</v>
+      </c>
+      <c r="D72" t="s">
+        <v>492</v>
+      </c>
+      <c r="E72" t="s">
+        <v>493</v>
+      </c>
+      <c r="F72" s="5">
+        <f t="shared" si="12"/>
+        <v>154852736400000</v>
+      </c>
+      <c r="G72" t="s">
+        <v>494</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="9"/>
+        <v>121</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>496</v>
+      </c>
+      <c r="N72" t="s">
+        <v>496</v>
+      </c>
+      <c r="P72" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+    </row>
+    <row r="73" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s">
+        <v>497</v>
+      </c>
+      <c r="D73" t="s">
+        <v>498</v>
+      </c>
+      <c r="E73" t="s">
+        <v>499</v>
+      </c>
+      <c r="F73" s="5">
+        <f t="shared" si="12"/>
+        <v>309705472800000</v>
+      </c>
+      <c r="G73" t="s">
+        <v>500</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="9"/>
+        <v>129</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>502</v>
+      </c>
+      <c r="N73" t="s">
+        <v>502</v>
+      </c>
+      <c r="P73" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+    </row>
+    <row r="74" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s">
+        <v>503</v>
+      </c>
+      <c r="D74" t="s">
+        <v>504</v>
+      </c>
+      <c r="E74" t="s">
+        <v>505</v>
+      </c>
+      <c r="F74" s="5">
+        <f t="shared" si="12"/>
+        <v>619410945600000</v>
+      </c>
+      <c r="G74" t="s">
+        <v>506</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="9"/>
+        <v>137</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
+        <v>508</v>
+      </c>
+      <c r="N74" t="s">
+        <v>508</v>
+      </c>
+      <c r="P74" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+    </row>
+    <row r="75" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s">
+        <v>509</v>
+      </c>
+      <c r="D75" t="s">
+        <v>510</v>
+      </c>
+      <c r="E75" t="s">
+        <v>511</v>
+      </c>
+      <c r="F75" s="5">
+        <f t="shared" si="12"/>
+        <v>1238821891200000</v>
+      </c>
+      <c r="G75" t="s">
+        <v>512</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="9"/>
+        <v>145</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
+        <v>513</v>
+      </c>
+      <c r="N75">
+        <v>21938500000</v>
+      </c>
+      <c r="P75" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -1603,7 +1603,7 @@
     <t>15317404630000</t>
   </si>
   <si>
-    <t>10101118720000000000</t>
+    <t>10101118720000000000.22</t>
   </si>
   <si>
     <t>20294050000</t>
@@ -2636,7 +2636,7 @@
   <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="525">
   <si>
     <t>ID</t>
   </si>
@@ -202,9 +202,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>double</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
@@ -1501,6 +1498,9 @@
     <t>1978318880000</t>
   </si>
   <si>
+    <t>220000000000000000</t>
+  </si>
+  <si>
     <t>17674800000</t>
   </si>
   <si>
@@ -1519,6 +1519,9 @@
     <t>2782559400000</t>
   </si>
   <si>
+    <t>484000000000000000</t>
+  </si>
+  <si>
     <t>18096700000</t>
   </si>
   <si>
@@ -1537,6 +1540,9 @@
     <t>3913745600000</t>
   </si>
   <si>
+    <t>1084000000000000000</t>
+  </si>
+  <si>
     <t>18528150000</t>
   </si>
   <si>
@@ -1555,6 +1561,9 @@
     <t>5504789800000</t>
   </si>
   <si>
+    <t>2284000000000000000</t>
+  </si>
+  <si>
     <t>18969600000</t>
   </si>
   <si>
@@ -1573,6 +1582,9 @@
     <t>7742636820000</t>
   </si>
   <si>
+    <t>5084000000000000000</t>
+  </si>
+  <si>
     <t>19421500000</t>
   </si>
   <si>
@@ -1585,7 +1597,13 @@
     <t>幻影双头金刚</t>
   </si>
   <si>
-    <t>10890229620000</t>
+    <t>80000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000</t>
+  </si>
+  <si>
+    <t>7200000000000000000</t>
   </si>
   <si>
     <t>19836900000</t>
@@ -1600,10 +1618,13 @@
     <t>幻影双头巨人</t>
   </si>
   <si>
-    <t>15317404630000</t>
-  </si>
-  <si>
-    <t>10101118720000000000.22</t>
+    <t>160000000000000</t>
+  </si>
+  <si>
+    <t>15000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000000</t>
   </si>
   <si>
     <t>20294050000</t>
@@ -1618,10 +1639,13 @@
     <t>幻影赤月恶魔</t>
   </si>
   <si>
-    <t>21544346900000</t>
-  </si>
-  <si>
-    <t>20101118720000000000.44</t>
+    <t>320000000000000</t>
+  </si>
+  <si>
+    <t>22000000000000</t>
+  </si>
+  <si>
+    <t>14000000000000000000</t>
   </si>
   <si>
     <t>20795200000</t>
@@ -1636,10 +1660,13 @@
     <t>幻影魔龙教主</t>
   </si>
   <si>
-    <t>30302710820000</t>
-  </si>
-  <si>
-    <t>80101118720000000000.44</t>
+    <t>640000000000000</t>
+  </si>
+  <si>
+    <t>30000000000000</t>
+  </si>
+  <si>
+    <t>21000000000000000000</t>
   </si>
   <si>
     <t>21342600000</t>
@@ -1654,7 +1681,13 @@
     <t>幻影火龙神</t>
   </si>
   <si>
-    <t>42621588290000</t>
+    <t>1280000000000000</t>
+  </si>
+  <si>
+    <t>42000000000000</t>
+  </si>
+  <si>
+    <t>40000000000000000000</t>
   </si>
   <si>
     <t>21938500000</t>
@@ -2313,6 +2346,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2635,8 +2669,8 @@
   <sheetPr/>
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2796,13 +2830,13 @@
         <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>26</v>
@@ -2817,16 +2851,16 @@
         <v>26</v>
       </c>
       <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="P5" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>26</v>
@@ -2834,13 +2868,13 @@
     </row>
     <row r="6" customFormat="1" spans="3:17">
       <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -2849,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2864,14 +2898,14 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="1">
         <v>-1</v>
@@ -2879,23 +2913,23 @@
     </row>
     <row r="7" ht="24" customHeight="1" spans="3:18">
       <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>40</v>
       </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
@@ -2909,14 +2943,14 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O7"/>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="1">
         <v>-1</v>
@@ -2925,44 +2959,44 @@
     </row>
     <row r="8" ht="24" customHeight="1" spans="3:18">
       <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
         <v>47</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>48</v>
-      </c>
       <c r="N8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O8"/>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="1">
         <v>-1</v>
@@ -2971,44 +3005,44 @@
     </row>
     <row r="9" ht="24" customHeight="1" spans="3:18">
       <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>54</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>55</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>56</v>
-      </c>
       <c r="N9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O9"/>
       <c r="P9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3017,23 +3051,23 @@
     </row>
     <row r="10" ht="24" customHeight="1" spans="3:18">
       <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>61</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
@@ -3047,14 +3081,14 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O10"/>
       <c r="P10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3063,44 +3097,44 @@
     </row>
     <row r="11" ht="24" customHeight="1" spans="3:18">
       <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>64</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>65</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>66</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>67</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
         <v>68</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>69</v>
-      </c>
       <c r="N11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O11"/>
       <c r="P11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3109,44 +3143,44 @@
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:18">
       <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>72</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>73</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>74</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>75</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
         <v>76</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>77</v>
-      </c>
       <c r="N12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O12"/>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3155,44 +3189,44 @@
     </row>
     <row r="13" ht="24" customHeight="1" spans="3:18">
       <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
         <v>79</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>80</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>81</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>82</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>83</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
         <v>84</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>85</v>
-      </c>
       <c r="N13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O13"/>
       <c r="P13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -3201,44 +3235,44 @@
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:18">
       <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
         <v>87</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>88</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>89</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>90</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>91</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
         <v>92</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>93</v>
-      </c>
       <c r="N14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O14"/>
       <c r="P14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3247,44 +3281,44 @@
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:18">
       <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
         <v>95</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>96</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>97</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>98</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>99</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
         <v>100</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>101</v>
-      </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O15"/>
       <c r="P15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3293,44 +3327,44 @@
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:18">
       <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
         <v>103</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>104</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>105</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>106</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>107</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
         <v>108</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>109</v>
-      </c>
       <c r="N16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O16"/>
       <c r="P16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3339,44 +3373,44 @@
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:18">
       <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
         <v>111</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>112</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>113</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>114</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>115</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
         <v>116</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>117</v>
-      </c>
       <c r="N17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O17"/>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -3385,44 +3419,44 @@
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:18">
       <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
         <v>119</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>120</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>121</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>122</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>123</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
         <v>124</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>125</v>
-      </c>
       <c r="N18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O18"/>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -3431,44 +3465,44 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:18">
       <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
         <v>127</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>128</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>129</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>130</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>131</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
         <v>132</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>133</v>
-      </c>
       <c r="N19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O19"/>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -3477,44 +3511,44 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:18">
       <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" t="s">
         <v>134</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>135</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>136</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>137</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>138</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
         <v>139</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>140</v>
-      </c>
       <c r="N20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O20"/>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -3523,22 +3557,22 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:18">
       <c r="C21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" t="s">
         <v>141</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>142</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>143</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>144</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>145</v>
-      </c>
-      <c r="H21" t="s">
-        <v>146</v>
       </c>
       <c r="I21">
         <f t="shared" ref="I21:I40" si="0">(D21-1014)*1</f>
@@ -3554,14 +3588,14 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O21"/>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -3570,22 +3604,22 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:18">
       <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" t="s">
         <v>149</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>150</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>151</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>152</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>153</v>
-      </c>
-      <c r="H22" t="s">
-        <v>154</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
@@ -3601,14 +3635,14 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O22"/>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -3617,22 +3651,22 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:18">
       <c r="C23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" t="s">
         <v>156</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>157</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>158</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>159</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>160</v>
-      </c>
-      <c r="H23" t="s">
-        <v>161</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
@@ -3648,14 +3682,14 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O23"/>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -3664,22 +3698,22 @@
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:18">
       <c r="C24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" t="s">
         <v>163</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>164</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>165</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>166</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>167</v>
-      </c>
-      <c r="H24" t="s">
-        <v>168</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
@@ -3695,14 +3729,14 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O24"/>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3711,22 +3745,22 @@
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:18">
       <c r="C25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" t="s">
         <v>170</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>171</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>172</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>173</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>174</v>
-      </c>
-      <c r="H25" t="s">
-        <v>175</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
@@ -3742,14 +3776,14 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O25"/>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -3758,22 +3792,22 @@
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:18">
       <c r="C26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" t="s">
         <v>177</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>178</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>179</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>180</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>181</v>
-      </c>
-      <c r="H26" t="s">
-        <v>182</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
@@ -3789,14 +3823,14 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O26"/>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -3805,22 +3839,22 @@
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:18">
       <c r="C27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" t="s">
         <v>184</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>185</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>186</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>187</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>188</v>
-      </c>
-      <c r="H27" t="s">
-        <v>189</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
@@ -3836,14 +3870,14 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O27"/>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -3852,22 +3886,22 @@
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:18">
       <c r="C28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" t="s">
         <v>191</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>192</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>193</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>194</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>195</v>
-      </c>
-      <c r="H28" t="s">
-        <v>196</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
@@ -3883,14 +3917,14 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O28"/>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -3899,22 +3933,22 @@
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:18">
       <c r="C29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" t="s">
         <v>198</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>199</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>200</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>201</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>202</v>
-      </c>
-      <c r="H29" t="s">
-        <v>203</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
@@ -3930,14 +3964,14 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O29"/>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -3946,22 +3980,22 @@
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:18">
       <c r="C30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" t="s">
         <v>205</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>206</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>207</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>208</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>209</v>
-      </c>
-      <c r="H30" t="s">
-        <v>210</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
@@ -3977,14 +4011,14 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O30"/>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -3993,22 +4027,22 @@
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:18">
       <c r="C31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" t="s">
         <v>212</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>213</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>214</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>215</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>216</v>
-      </c>
-      <c r="H31" t="s">
-        <v>217</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
@@ -4024,14 +4058,14 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O31"/>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -4040,22 +4074,22 @@
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:18">
       <c r="C32" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" t="s">
         <v>219</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>220</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>221</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>222</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>223</v>
-      </c>
-      <c r="H32" t="s">
-        <v>224</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
@@ -4071,14 +4105,14 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O32"/>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -4087,22 +4121,22 @@
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:18">
       <c r="C33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" t="s">
         <v>226</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>227</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>228</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>229</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>230</v>
-      </c>
-      <c r="H33" t="s">
-        <v>231</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
@@ -4118,14 +4152,14 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O33"/>
       <c r="P33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -4134,22 +4168,22 @@
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:18">
       <c r="C34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34" t="s">
         <v>233</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>234</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>235</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>236</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>237</v>
-      </c>
-      <c r="H34" t="s">
-        <v>238</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
@@ -4165,14 +4199,14 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -4181,22 +4215,22 @@
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:18">
       <c r="C35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" t="s">
         <v>240</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>241</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>242</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>243</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>244</v>
-      </c>
-      <c r="H35" t="s">
-        <v>245</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
@@ -4212,14 +4246,14 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O35"/>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -4228,22 +4262,22 @@
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:18">
       <c r="C36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D36" t="s">
         <v>247</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>248</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>249</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>250</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>251</v>
-      </c>
-      <c r="H36" t="s">
-        <v>252</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
@@ -4259,14 +4293,14 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O36"/>
       <c r="P36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -4275,22 +4309,22 @@
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:18">
       <c r="C37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" t="s">
         <v>254</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>255</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>256</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>258</v>
-      </c>
-      <c r="H37" t="s">
-        <v>259</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
@@ -4306,14 +4340,14 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O37"/>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -4322,22 +4356,22 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:18">
       <c r="C38" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" t="s">
         <v>261</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>262</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>263</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>264</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>265</v>
-      </c>
-      <c r="H38" t="s">
-        <v>266</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
@@ -4353,14 +4387,14 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O38"/>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -4369,22 +4403,22 @@
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:18">
       <c r="C39" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" t="s">
         <v>268</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>269</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>270</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>271</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>272</v>
-      </c>
-      <c r="H39" t="s">
-        <v>273</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
@@ -4400,14 +4434,14 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O39"/>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -4416,22 +4450,22 @@
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:18">
       <c r="C40" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" t="s">
         <v>275</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>276</v>
-      </c>
-      <c r="E40" t="s">
-        <v>277</v>
       </c>
       <c r="F40">
         <v>1391250000</v>
       </c>
       <c r="G40" t="s">
+        <v>277</v>
+      </c>
+      <c r="H40" t="s">
         <v>278</v>
-      </c>
-      <c r="H40" t="s">
-        <v>279</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
@@ -4447,14 +4481,14 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O40"/>
       <c r="P40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -4465,22 +4499,22 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" t="s">
+        <v>280</v>
+      </c>
+      <c r="D41" t="s">
         <v>281</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>282</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>283</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>284</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>285</v>
-      </c>
-      <c r="H41" t="s">
-        <v>286</v>
       </c>
       <c r="I41">
         <f>(D41-1034)*5+20</f>
@@ -4496,13 +4530,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -4512,22 +4546,22 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" t="s">
+        <v>287</v>
+      </c>
+      <c r="D42" t="s">
         <v>288</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>289</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>290</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>291</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>292</v>
-      </c>
-      <c r="H42" t="s">
-        <v>293</v>
       </c>
       <c r="I42">
         <f t="shared" ref="I41:I50" si="1">(D42-1034)*4+20</f>
@@ -4543,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -4559,22 +4593,22 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" t="s">
+        <v>294</v>
+      </c>
+      <c r="D43" t="s">
         <v>295</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>296</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>297</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>298</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>299</v>
-      </c>
-      <c r="H43" t="s">
-        <v>300</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
@@ -4590,13 +4624,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -4606,22 +4640,22 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44" t="s">
         <v>302</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>303</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>304</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>305</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>306</v>
-      </c>
-      <c r="H44" t="s">
-        <v>307</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
@@ -4637,13 +4671,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -4653,22 +4687,22 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
+        <v>308</v>
+      </c>
+      <c r="D45" t="s">
         <v>309</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>310</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>311</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>312</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>313</v>
-      </c>
-      <c r="H45" t="s">
-        <v>314</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
@@ -4684,13 +4718,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -4700,22 +4734,22 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" t="s">
+        <v>315</v>
+      </c>
+      <c r="D46" t="s">
         <v>316</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>317</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>318</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>319</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>320</v>
-      </c>
-      <c r="H46" t="s">
-        <v>321</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
@@ -4731,13 +4765,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -4749,22 +4783,22 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" t="s">
+        <v>322</v>
+      </c>
+      <c r="D47" t="s">
         <v>323</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>324</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>325</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>326</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>327</v>
-      </c>
-      <c r="H47" t="s">
-        <v>328</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
@@ -4780,13 +4814,13 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -4798,22 +4832,22 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" t="s">
+        <v>329</v>
+      </c>
+      <c r="D48" t="s">
         <v>330</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>331</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>332</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>333</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>334</v>
-      </c>
-      <c r="H48" t="s">
-        <v>335</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
@@ -4829,13 +4863,13 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -4847,22 +4881,22 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" t="s">
+        <v>336</v>
+      </c>
+      <c r="D49" t="s">
         <v>337</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>338</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>339</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>341</v>
-      </c>
-      <c r="H49" t="s">
-        <v>342</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
@@ -4878,13 +4912,13 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N49" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -4896,22 +4930,22 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" t="s">
+        <v>343</v>
+      </c>
+      <c r="D50" t="s">
         <v>344</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>345</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>346</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>347</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>348</v>
-      </c>
-      <c r="H50" t="s">
-        <v>349</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
@@ -4927,13 +4961,13 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -4945,22 +4979,22 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" t="s">
+        <v>350</v>
+      </c>
+      <c r="D51" t="s">
         <v>351</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>352</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>353</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>354</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>355</v>
-      </c>
-      <c r="H51" t="s">
-        <v>356</v>
       </c>
       <c r="I51">
         <v>65</v>
@@ -4977,13 +5011,13 @@
         <v>5</v>
       </c>
       <c r="M51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -4995,22 +5029,22 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" t="s">
+        <v>357</v>
+      </c>
+      <c r="D52" t="s">
         <v>358</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>359</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>360</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>361</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>362</v>
-      </c>
-      <c r="H52" t="s">
-        <v>363</v>
       </c>
       <c r="I52">
         <v>70</v>
@@ -5027,13 +5061,13 @@
         <v>10</v>
       </c>
       <c r="M52" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N52" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -5045,22 +5079,22 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" t="s">
+        <v>364</v>
+      </c>
+      <c r="D53" t="s">
         <v>365</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>366</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>367</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>368</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>369</v>
-      </c>
-      <c r="H53" t="s">
-        <v>370</v>
       </c>
       <c r="I53">
         <v>75</v>
@@ -5077,13 +5111,13 @@
         <v>15</v>
       </c>
       <c r="M53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -5095,22 +5129,22 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" t="s">
+        <v>371</v>
+      </c>
+      <c r="D54" t="s">
         <v>372</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>373</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>374</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>375</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>376</v>
-      </c>
-      <c r="H54" t="s">
-        <v>377</v>
       </c>
       <c r="I54">
         <v>80</v>
@@ -5127,13 +5161,13 @@
         <v>20</v>
       </c>
       <c r="M54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -5145,22 +5179,22 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" t="s">
+        <v>378</v>
+      </c>
+      <c r="D55" t="s">
         <v>379</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>380</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>381</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>382</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>383</v>
-      </c>
-      <c r="H55" t="s">
-        <v>384</v>
       </c>
       <c r="I55">
         <v>85</v>
@@ -5177,13 +5211,13 @@
         <v>25</v>
       </c>
       <c r="M55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -5195,22 +5229,22 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" t="s">
+        <v>385</v>
+      </c>
+      <c r="D56" t="s">
         <v>386</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>387</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>388</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>389</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>390</v>
-      </c>
-      <c r="H56" t="s">
-        <v>391</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56:I65" si="4">(D56-1049)*5+85</f>
@@ -5229,13 +5263,13 @@
         <v>30</v>
       </c>
       <c r="M56" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N56" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -5247,22 +5281,22 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
+        <v>392</v>
+      </c>
+      <c r="D57" t="s">
         <v>393</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>394</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>395</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>396</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>397</v>
-      </c>
-      <c r="H57" t="s">
-        <v>398</v>
       </c>
       <c r="I57">
         <f t="shared" si="4"/>
@@ -5281,13 +5315,13 @@
         <v>35</v>
       </c>
       <c r="M57" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N57" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -5299,22 +5333,22 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" t="s">
+        <v>399</v>
+      </c>
+      <c r="D58" t="s">
         <v>400</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>401</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>402</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>403</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>404</v>
-      </c>
-      <c r="H58" t="s">
-        <v>405</v>
       </c>
       <c r="I58">
         <f t="shared" si="4"/>
@@ -5333,13 +5367,13 @@
         <v>40</v>
       </c>
       <c r="M58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -5351,22 +5385,22 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
+        <v>406</v>
+      </c>
+      <c r="D59" t="s">
         <v>407</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>408</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>409</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>410</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>411</v>
-      </c>
-      <c r="H59" t="s">
-        <v>412</v>
       </c>
       <c r="I59">
         <f t="shared" si="4"/>
@@ -5385,13 +5419,13 @@
         <v>45</v>
       </c>
       <c r="M59" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N59" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -5403,22 +5437,22 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" t="s">
+        <v>413</v>
+      </c>
+      <c r="D60" t="s">
         <v>414</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>415</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>416</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>417</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>418</v>
-      </c>
-      <c r="H60" t="s">
-        <v>419</v>
       </c>
       <c r="I60">
         <f t="shared" si="4"/>
@@ -5437,13 +5471,13 @@
         <v>50</v>
       </c>
       <c r="M60" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N60" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -5455,22 +5489,22 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" t="s">
+        <v>420</v>
+      </c>
+      <c r="D61" t="s">
         <v>421</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>422</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>423</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>424</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>425</v>
-      </c>
-      <c r="H61" t="s">
-        <v>426</v>
       </c>
       <c r="I61">
         <f t="shared" si="4"/>
@@ -5489,13 +5523,13 @@
         <v>55</v>
       </c>
       <c r="M61" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N61" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -5507,22 +5541,22 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" t="s">
+        <v>427</v>
+      </c>
+      <c r="D62" t="s">
         <v>428</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>429</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>430</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>431</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>432</v>
-      </c>
-      <c r="H62" t="s">
-        <v>433</v>
       </c>
       <c r="I62">
         <f t="shared" si="4"/>
@@ -5541,13 +5575,13 @@
         <v>60</v>
       </c>
       <c r="M62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -5559,22 +5593,22 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" t="s">
+        <v>434</v>
+      </c>
+      <c r="D63" t="s">
         <v>435</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>436</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>437</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>438</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>439</v>
-      </c>
-      <c r="H63" t="s">
-        <v>440</v>
       </c>
       <c r="I63">
         <f t="shared" si="4"/>
@@ -5593,13 +5627,13 @@
         <v>65</v>
       </c>
       <c r="M63" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N63" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -5611,22 +5645,22 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" t="s">
+        <v>441</v>
+      </c>
+      <c r="D64" t="s">
         <v>442</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>443</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>444</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>445</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>446</v>
-      </c>
-      <c r="H64" t="s">
-        <v>447</v>
       </c>
       <c r="I64">
         <f t="shared" si="4"/>
@@ -5645,13 +5679,13 @@
         <v>70</v>
       </c>
       <c r="M64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -5663,22 +5697,22 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" t="s">
+        <v>448</v>
+      </c>
+      <c r="D65" t="s">
         <v>449</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>450</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>451</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>452</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="I65">
         <f t="shared" si="4"/>
@@ -5697,13 +5731,13 @@
         <v>75</v>
       </c>
       <c r="M65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -5715,38 +5749,37 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" t="s">
+        <v>455</v>
+      </c>
+      <c r="D66" t="s">
         <v>456</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>457</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>458</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>459</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="H66" s="5">
-        <f t="shared" ref="H66:H71" si="6">H65*2.2</f>
-        <v>2.2e+17</v>
-      </c>
       <c r="I66">
-        <f t="shared" ref="I66:L66" si="7">I65+8</f>
+        <f t="shared" ref="I66:L66" si="6">I65+8</f>
         <v>143</v>
       </c>
       <c r="J66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="K66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="L66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="M66" t="s">
@@ -5756,7 +5789,7 @@
         <v>461</v>
       </c>
       <c r="P66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -5782,34 +5815,33 @@
       <c r="G67" t="s">
         <v>466</v>
       </c>
-      <c r="H67" s="5">
-        <f t="shared" si="6"/>
-        <v>4.84e+17</v>
+      <c r="H67" s="7" t="s">
+        <v>467</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I66:I71" si="8">I66+8</f>
+        <f t="shared" ref="I66:I71" si="7">I66+8</f>
         <v>151</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J75" si="9">J66+8</f>
+        <f t="shared" ref="J67:J75" si="8">J66+8</f>
         <v>81</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K71" si="10">K66+8</f>
+        <f t="shared" ref="K67:K71" si="9">K66+8</f>
         <v>91</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L71" si="11">L66+8</f>
+        <f t="shared" ref="L67:L71" si="10">L66+8</f>
         <v>91</v>
       </c>
       <c r="M67" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N67" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -5821,48 +5853,47 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D68" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E68" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F68" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H68" s="5">
-        <f t="shared" si="6"/>
-        <v>1.0648e+18</v>
+        <v>473</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>474</v>
       </c>
       <c r="I68">
+        <f t="shared" si="7"/>
+        <v>159</v>
+      </c>
+      <c r="J68">
         <f t="shared" si="8"/>
-        <v>159</v>
-      </c>
-      <c r="J68">
+        <v>89</v>
+      </c>
+      <c r="K68">
         <f t="shared" si="9"/>
-        <v>89</v>
-      </c>
-      <c r="K68">
+        <v>99</v>
+      </c>
+      <c r="L68">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="L68">
-        <f t="shared" si="11"/>
-        <v>99</v>
-      </c>
       <c r="M68" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N68" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -5874,48 +5905,47 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D69" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E69" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F69" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G69" t="s">
-        <v>478</v>
-      </c>
-      <c r="H69" s="5">
-        <f t="shared" si="6"/>
-        <v>2.34256e+18</v>
+        <v>480</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>481</v>
       </c>
       <c r="I69">
+        <f t="shared" si="7"/>
+        <v>167</v>
+      </c>
+      <c r="J69">
         <f t="shared" si="8"/>
-        <v>167</v>
-      </c>
-      <c r="J69">
+        <v>97</v>
+      </c>
+      <c r="K69">
         <f t="shared" si="9"/>
-        <v>97</v>
-      </c>
-      <c r="K69">
+        <v>107</v>
+      </c>
+      <c r="L69">
         <f t="shared" si="10"/>
         <v>107</v>
       </c>
-      <c r="L69">
-        <f t="shared" si="11"/>
-        <v>107</v>
-      </c>
       <c r="M69" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="N69" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="P69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -5927,48 +5957,47 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D70" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E70" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F70" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="G70" t="s">
-        <v>484</v>
-      </c>
-      <c r="H70" s="5">
-        <f t="shared" si="6"/>
-        <v>5.153632e+18</v>
+        <v>487</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>488</v>
       </c>
       <c r="I70">
+        <f t="shared" si="7"/>
+        <v>175</v>
+      </c>
+      <c r="J70">
         <f t="shared" si="8"/>
-        <v>175</v>
-      </c>
-      <c r="J70">
+        <v>105</v>
+      </c>
+      <c r="K70">
         <f t="shared" si="9"/>
-        <v>105</v>
-      </c>
-      <c r="K70">
+        <v>115</v>
+      </c>
+      <c r="L70">
         <f t="shared" si="10"/>
         <v>115</v>
       </c>
-      <c r="L70">
-        <f t="shared" si="11"/>
-        <v>115</v>
-      </c>
       <c r="M70" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="N70" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="P70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -5980,49 +6009,47 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D71" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E71" t="s">
-        <v>488</v>
-      </c>
-      <c r="F71" s="5">
-        <f t="shared" ref="F71:F75" si="12">F70*2</f>
-        <v>77426368200000</v>
-      </c>
-      <c r="G71" t="s">
-        <v>489</v>
-      </c>
-      <c r="H71" s="5">
-        <f>H70*1.4</f>
-        <v>7.2150848e+18</v>
+        <v>492</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>495</v>
       </c>
       <c r="I71">
-        <f t="shared" ref="I71:I75" si="13">I70+15</f>
-        <v>0</v>
+        <f t="shared" ref="I71:L71" si="11">I70+15</f>
+        <v>190</v>
       </c>
       <c r="J71">
-        <f t="shared" si="9"/>
-        <v>113</v>
+        <f t="shared" si="11"/>
+        <v>120</v>
       </c>
       <c r="K71">
-        <f t="shared" ref="K71:K75" si="14">K70+15</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>130</v>
       </c>
       <c r="L71">
-        <f t="shared" ref="L71:L75" si="15">L70+15</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>130</v>
       </c>
       <c r="M71" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="N71" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="P71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -6034,48 +6061,47 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D72" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="E72" t="s">
-        <v>493</v>
-      </c>
-      <c r="F72" s="5">
-        <f t="shared" si="12"/>
-        <v>154852736400000</v>
-      </c>
-      <c r="G72" t="s">
-        <v>494</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>495</v>
+        <v>499</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="I72">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" ref="I71:I75" si="12">I71+15</f>
+        <v>205</v>
       </c>
       <c r="J72">
-        <f t="shared" si="9"/>
-        <v>121</v>
+        <f t="shared" ref="J71:J75" si="13">J71+15</f>
+        <v>135</v>
       </c>
       <c r="K72">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" ref="K71:K75" si="14">K71+15</f>
+        <v>145</v>
       </c>
       <c r="L72">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" ref="L71:L75" si="15">L71+15</f>
+        <v>145</v>
       </c>
       <c r="M72" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="N72" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="P72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q72">
         <v>0</v>
@@ -6087,48 +6113,47 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="D73" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="E73" t="s">
-        <v>499</v>
-      </c>
-      <c r="F73" s="5">
+        <v>506</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="12"/>
-        <v>309705472800000</v>
-      </c>
-      <c r="G73" t="s">
-        <v>500</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="I73">
+        <v>220</v>
+      </c>
+      <c r="J73">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="9"/>
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="K73">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L73">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="M73" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="N73" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="P73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -6140,48 +6165,47 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D74" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="E74" t="s">
-        <v>505</v>
-      </c>
-      <c r="F74" s="5">
+        <v>513</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="12"/>
-        <v>619410945600000</v>
-      </c>
-      <c r="G74" t="s">
-        <v>506</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="I74">
+        <v>235</v>
+      </c>
+      <c r="J74">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="9"/>
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="K74">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="L74">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="M74" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="N74" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="P74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -6193,45 +6217,47 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="D75" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="E75" t="s">
-        <v>511</v>
-      </c>
-      <c r="F75" s="5">
+        <v>520</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="12"/>
-        <v>1238821891200000</v>
-      </c>
-      <c r="G75" t="s">
-        <v>512</v>
-      </c>
-      <c r="I75">
+        <v>250</v>
+      </c>
+      <c r="J75">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="9"/>
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="K75">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="L75">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="M75" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="N75">
         <v>21938500000</v>
       </c>
       <c r="P75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -6241,7 +6267,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5:H5 I5 J5 K5 L5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 K3:K4 L3:L4 F3:H4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 K5 L5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 K3:K4 L3:L4 F3:H4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -6391,25 +6417,25 @@
         <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -33,7 +33,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="O3" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="556">
   <si>
     <t>ID</t>
   </si>
@@ -124,6 +124,9 @@
     <t>所属地图</t>
   </si>
   <si>
+    <t>Level</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
@@ -1691,6 +1694,96 @@
   </si>
   <si>
     <t>21938500000</t>
+  </si>
+  <si>
+    <t>10070</t>
+  </si>
+  <si>
+    <t>1070</t>
+  </si>
+  <si>
+    <t>噩梦鸡王</t>
+  </si>
+  <si>
+    <t>2560000000000000</t>
+  </si>
+  <si>
+    <t>58000000000000</t>
+  </si>
+  <si>
+    <t>58000000000000000000</t>
+  </si>
+  <si>
+    <t>10071</t>
+  </si>
+  <si>
+    <t>1071</t>
+  </si>
+  <si>
+    <t>噩梦鹿王</t>
+  </si>
+  <si>
+    <t>5120000000000000</t>
+  </si>
+  <si>
+    <t>82000000000000</t>
+  </si>
+  <si>
+    <t>82000000000000000000</t>
+  </si>
+  <si>
+    <t>10072</t>
+  </si>
+  <si>
+    <t>1072</t>
+  </si>
+  <si>
+    <t>噩梦草王</t>
+  </si>
+  <si>
+    <t>10000000000000000</t>
+  </si>
+  <si>
+    <t>115000000000000</t>
+  </si>
+  <si>
+    <t>115000000000000000000</t>
+  </si>
+  <si>
+    <t>10073</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>噩梦猫王</t>
+  </si>
+  <si>
+    <t>20000000000000000</t>
+  </si>
+  <si>
+    <t>161000000000000</t>
+  </si>
+  <si>
+    <t>161000000000000000000</t>
+  </si>
+  <si>
+    <t>10074</t>
+  </si>
+  <si>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>噩梦花王</t>
+  </si>
+  <si>
+    <t>40000000000000000</t>
+  </si>
+  <si>
+    <t>225000000000000</t>
+  </si>
+  <si>
+    <t>225000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -1870,12 +1963,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2667,10 +2760,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2678,25 +2771,24 @@
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="2" customWidth="1"/>
-    <col min="10" max="12" width="12.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
+    <col min="11" max="13" width="12.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" spans="1:15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2705,11 +2797,11 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2718,8 +2810,9 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:17">
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -2758,7 +2851,7 @@
       <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="P3" s="4" t="s">
@@ -2767,18 +2860,21 @@
       <c r="Q3" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:17">
+      <c r="R3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:18">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>18</v>
@@ -2790,7 +2886,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>7</v>
@@ -2802,12 +2898,12 @@
         <v>9</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -2816,110 +2912,119 @@
       <c r="Q4" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:17">
+      <c r="R4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:18">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="O5" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="P5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="3:17">
+        <v>30</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="3:18">
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
+      <c r="O6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:19">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
         <v>1</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:18">
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -2930,8 +3035,8 @@
       <c r="H7" t="s">
         <v>40</v>
       </c>
-      <c r="I7">
-        <v>0</v>
+      <c r="I7" t="s">
+        <v>41</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2942,42 +3047,45 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>33</v>
+      <c r="M7">
+        <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7"/>
-      <c r="P7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="1">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7"/>
+      <c r="Q7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="1">
         <v>-1</v>
       </c>
-      <c r="R7"/>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:18">
+      <c r="S7"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:19">
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
         <v>44</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="I8">
-        <v>0</v>
+      <c r="I8" t="s">
+        <v>47</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2988,30 +3096,33 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>47</v>
+      <c r="M8">
+        <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8"/>
-      <c r="P8" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8"/>
+      <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="1">
         <v>-1</v>
       </c>
-      <c r="R8"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:18">
+      <c r="S8"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:19">
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
         <v>51</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>52</v>
@@ -3022,8 +3133,8 @@
       <c r="H9" t="s">
         <v>54</v>
       </c>
-      <c r="I9">
-        <v>0</v>
+      <c r="I9" t="s">
+        <v>55</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3034,42 +3145,45 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>55</v>
+      <c r="M9">
+        <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9"/>
-      <c r="P9" t="s">
         <v>56</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:18">
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9"/>
+      <c r="Q9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:19">
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
         <v>59</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3080,30 +3194,33 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>46</v>
+      <c r="M10">
+        <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10"/>
-      <c r="P10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:18">
+        <v>47</v>
+      </c>
+      <c r="O10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:19">
       <c r="C11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
         <v>64</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>65</v>
@@ -3114,8 +3231,8 @@
       <c r="H11" t="s">
         <v>67</v>
       </c>
-      <c r="I11">
-        <v>0</v>
+      <c r="I11" t="s">
+        <v>68</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3126,30 +3243,33 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>68</v>
+      <c r="M11">
+        <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11"/>
-      <c r="P11" t="s">
         <v>69</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:18">
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11"/>
+      <c r="Q11" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:19">
       <c r="C12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" t="s">
         <v>72</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -3160,8 +3280,8 @@
       <c r="H12" t="s">
         <v>75</v>
       </c>
-      <c r="I12">
-        <v>0</v>
+      <c r="I12" t="s">
+        <v>76</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3172,30 +3292,33 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>76</v>
+      <c r="M12">
+        <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>76</v>
-      </c>
-      <c r="O12"/>
-      <c r="P12" t="s">
         <v>77</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:18">
+      <c r="O12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12"/>
+      <c r="Q12" t="s">
+        <v>78</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:19">
       <c r="C13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" t="s">
         <v>80</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>81</v>
@@ -3206,8 +3329,8 @@
       <c r="H13" t="s">
         <v>83</v>
       </c>
-      <c r="I13">
-        <v>0</v>
+      <c r="I13" t="s">
+        <v>84</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3218,30 +3341,33 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" t="s">
-        <v>84</v>
+      <c r="M13">
+        <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>84</v>
-      </c>
-      <c r="O13"/>
-      <c r="P13" t="s">
         <v>85</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:18">
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13"/>
+      <c r="Q13" t="s">
+        <v>86</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:19">
       <c r="C14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" t="s">
         <v>88</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
@@ -3252,8 +3378,8 @@
       <c r="H14" t="s">
         <v>91</v>
       </c>
-      <c r="I14">
-        <v>0</v>
+      <c r="I14" t="s">
+        <v>92</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3264,30 +3390,33 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" t="s">
-        <v>92</v>
+      <c r="M14">
+        <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>92</v>
-      </c>
-      <c r="O14"/>
-      <c r="P14" t="s">
         <v>93</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:18">
+      <c r="O14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14"/>
+      <c r="Q14" t="s">
+        <v>94</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:19">
       <c r="C15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
         <v>96</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>97</v>
@@ -3298,8 +3427,8 @@
       <c r="H15" t="s">
         <v>99</v>
       </c>
-      <c r="I15">
-        <v>0</v>
+      <c r="I15" t="s">
+        <v>100</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3310,30 +3439,33 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>100</v>
+      <c r="M15">
+        <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>100</v>
-      </c>
-      <c r="O15"/>
-      <c r="P15" t="s">
         <v>101</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:18">
+      <c r="O15" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15" t="s">
+        <v>102</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:19">
       <c r="C16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" t="s">
         <v>104</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
@@ -3344,8 +3476,8 @@
       <c r="H16" t="s">
         <v>107</v>
       </c>
-      <c r="I16">
-        <v>0</v>
+      <c r="I16" t="s">
+        <v>108</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3356,30 +3488,33 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
-        <v>108</v>
+      <c r="M16">
+        <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>108</v>
-      </c>
-      <c r="O16"/>
-      <c r="P16" t="s">
         <v>109</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:18">
+      <c r="O16" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16"/>
+      <c r="Q16" t="s">
+        <v>110</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:19">
       <c r="C17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" t="s">
         <v>112</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>113</v>
@@ -3390,8 +3525,8 @@
       <c r="H17" t="s">
         <v>115</v>
       </c>
-      <c r="I17">
-        <v>0</v>
+      <c r="I17" t="s">
+        <v>116</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3402,30 +3537,33 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>116</v>
+      <c r="M17">
+        <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>116</v>
-      </c>
-      <c r="O17"/>
-      <c r="P17" t="s">
         <v>117</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:18">
+      <c r="O17" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17" t="s">
+        <v>118</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:19">
       <c r="C18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" t="s">
         <v>120</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>121</v>
@@ -3436,8 +3574,8 @@
       <c r="H18" t="s">
         <v>123</v>
       </c>
-      <c r="I18">
-        <v>0</v>
+      <c r="I18" t="s">
+        <v>124</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3448,30 +3586,33 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" t="s">
-        <v>124</v>
+      <c r="M18">
+        <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>124</v>
-      </c>
-      <c r="O18"/>
-      <c r="P18" t="s">
         <v>125</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:18">
+      <c r="O18" t="s">
+        <v>125</v>
+      </c>
+      <c r="P18"/>
+      <c r="Q18" t="s">
+        <v>126</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18"/>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:19">
       <c r="C19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" t="s">
         <v>128</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>129</v>
@@ -3482,8 +3623,8 @@
       <c r="H19" t="s">
         <v>131</v>
       </c>
-      <c r="I19">
-        <v>0</v>
+      <c r="I19" t="s">
+        <v>132</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3494,30 +3635,33 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>132</v>
+      <c r="M19">
+        <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>132</v>
-      </c>
-      <c r="O19"/>
-      <c r="P19" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19"/>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:18">
+        <v>133</v>
+      </c>
+      <c r="O19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19" t="s">
+        <v>126</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19"/>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:19">
       <c r="C20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" t="s">
         <v>135</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>136</v>
@@ -3528,8 +3672,8 @@
       <c r="H20" t="s">
         <v>138</v>
       </c>
-      <c r="I20">
-        <v>0</v>
+      <c r="I20" t="s">
+        <v>139</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3540,30 +3684,33 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" t="s">
-        <v>139</v>
+      <c r="M20">
+        <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>139</v>
-      </c>
-      <c r="O20"/>
-      <c r="P20" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:18">
+        <v>140</v>
+      </c>
+      <c r="O20" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20"/>
+      <c r="Q20" t="s">
+        <v>126</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20"/>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:19">
       <c r="C21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" t="s">
         <v>142</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>143</v>
@@ -3574,43 +3721,46 @@
       <c r="H21" t="s">
         <v>145</v>
       </c>
-      <c r="I21">
-        <f t="shared" ref="I21:I40" si="0">(D21-1014)*1</f>
+      <c r="I21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:J40" si="0">(D21-1014)*1</f>
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" t="s">
-        <v>146</v>
+      <c r="M21">
+        <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>146</v>
-      </c>
-      <c r="O21"/>
-      <c r="P21" t="s">
         <v>147</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:18">
+      <c r="O21" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21"/>
+      <c r="Q21" t="s">
+        <v>148</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:19">
       <c r="C22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" t="s">
         <v>150</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>151</v>
@@ -3621,43 +3771,46 @@
       <c r="H22" t="s">
         <v>153</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" t="s">
-        <v>154</v>
+      <c r="M22">
+        <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>154</v>
-      </c>
-      <c r="O22"/>
-      <c r="P22" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:18">
+        <v>155</v>
+      </c>
+      <c r="O22" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22"/>
+      <c r="Q22" t="s">
+        <v>148</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22"/>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:19">
       <c r="C23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" t="s">
         <v>157</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>158</v>
@@ -3668,43 +3821,46 @@
       <c r="H23" t="s">
         <v>160</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23" t="s">
-        <v>161</v>
+      <c r="M23">
+        <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>161</v>
-      </c>
-      <c r="O23"/>
-      <c r="P23" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:18">
+        <v>162</v>
+      </c>
+      <c r="O23" t="s">
+        <v>162</v>
+      </c>
+      <c r="P23"/>
+      <c r="Q23" t="s">
+        <v>148</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23"/>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:19">
       <c r="C24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" t="s">
         <v>164</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>165</v>
@@ -3715,43 +3871,46 @@
       <c r="H24" t="s">
         <v>167</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" t="s">
-        <v>168</v>
+      <c r="M24">
+        <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>168</v>
-      </c>
-      <c r="O24"/>
-      <c r="P24" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:18">
+        <v>169</v>
+      </c>
+      <c r="O24" t="s">
+        <v>169</v>
+      </c>
+      <c r="P24"/>
+      <c r="Q24" t="s">
+        <v>148</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24"/>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:19">
       <c r="C25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" t="s">
         <v>171</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>172</v>
@@ -3762,43 +3921,46 @@
       <c r="H25" t="s">
         <v>174</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25" t="s">
-        <v>175</v>
+      <c r="M25">
+        <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>175</v>
-      </c>
-      <c r="O25"/>
-      <c r="P25" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:18">
+        <v>176</v>
+      </c>
+      <c r="O25" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25"/>
+      <c r="Q25" t="s">
+        <v>148</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25"/>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:19">
       <c r="C26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" t="s">
         <v>178</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>179</v>
@@ -3809,43 +3971,46 @@
       <c r="H26" t="s">
         <v>181</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26" t="s">
-        <v>182</v>
+      <c r="M26">
+        <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>182</v>
-      </c>
-      <c r="O26"/>
-      <c r="P26" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:18">
+        <v>183</v>
+      </c>
+      <c r="O26" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26"/>
+      <c r="Q26" t="s">
+        <v>148</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26"/>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:19">
       <c r="C27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
-      </c>
-      <c r="E27" t="s">
         <v>185</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>186</v>
@@ -3856,43 +4021,46 @@
       <c r="H27" t="s">
         <v>188</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27" t="s">
-        <v>189</v>
+      <c r="M27">
+        <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>189</v>
-      </c>
-      <c r="O27"/>
-      <c r="P27" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:18">
+        <v>190</v>
+      </c>
+      <c r="O27" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27"/>
+      <c r="Q27" t="s">
+        <v>148</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27"/>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:19">
       <c r="C28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D28" t="s">
-        <v>191</v>
-      </c>
-      <c r="E28" t="s">
         <v>192</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>193</v>
@@ -3903,43 +4071,46 @@
       <c r="H28" t="s">
         <v>195</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="s">
+        <v>196</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" t="s">
-        <v>196</v>
+      <c r="M28">
+        <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>196</v>
-      </c>
-      <c r="O28"/>
-      <c r="P28" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:18">
+        <v>197</v>
+      </c>
+      <c r="O28" t="s">
+        <v>197</v>
+      </c>
+      <c r="P28"/>
+      <c r="Q28" t="s">
+        <v>148</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:19">
       <c r="C29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" t="s">
         <v>199</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>200</v>
@@ -3950,43 +4121,46 @@
       <c r="H29" t="s">
         <v>202</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="s">
+        <v>203</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29" t="s">
-        <v>203</v>
+      <c r="M29">
+        <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>203</v>
-      </c>
-      <c r="O29"/>
-      <c r="P29" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:18">
+        <v>204</v>
+      </c>
+      <c r="O29" t="s">
+        <v>204</v>
+      </c>
+      <c r="P29"/>
+      <c r="Q29" t="s">
+        <v>148</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:19">
       <c r="C30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
-        <v>205</v>
-      </c>
-      <c r="E30" t="s">
         <v>206</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>207</v>
@@ -3997,43 +4171,46 @@
       <c r="H30" t="s">
         <v>209</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30" t="s">
-        <v>210</v>
+      <c r="M30">
+        <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>210</v>
-      </c>
-      <c r="O30"/>
-      <c r="P30" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:18">
+        <v>211</v>
+      </c>
+      <c r="O30" t="s">
+        <v>211</v>
+      </c>
+      <c r="P30"/>
+      <c r="Q30" t="s">
+        <v>148</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30"/>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:19">
       <c r="C31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" t="s">
         <v>213</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>214</v>
@@ -4044,43 +4221,46 @@
       <c r="H31" t="s">
         <v>216</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="s">
+        <v>217</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31" t="s">
-        <v>217</v>
+      <c r="M31">
+        <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>217</v>
-      </c>
-      <c r="O31"/>
-      <c r="P31" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:18">
+        <v>218</v>
+      </c>
+      <c r="O31" t="s">
+        <v>218</v>
+      </c>
+      <c r="P31"/>
+      <c r="Q31" t="s">
+        <v>148</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31"/>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:19">
       <c r="C32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D32" t="s">
-        <v>219</v>
-      </c>
-      <c r="E32" t="s">
         <v>220</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>221</v>
@@ -4091,43 +4271,46 @@
       <c r="H32" t="s">
         <v>223</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="s">
+        <v>224</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32" t="s">
-        <v>224</v>
+      <c r="M32">
+        <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>224</v>
-      </c>
-      <c r="O32"/>
-      <c r="P32" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:18">
+        <v>225</v>
+      </c>
+      <c r="O32" t="s">
+        <v>225</v>
+      </c>
+      <c r="P32"/>
+      <c r="Q32" t="s">
+        <v>148</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32"/>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:19">
       <c r="C33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D33" t="s">
-        <v>226</v>
-      </c>
-      <c r="E33" t="s">
         <v>227</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>228</v>
@@ -4138,43 +4321,46 @@
       <c r="H33" t="s">
         <v>230</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33" t="s">
-        <v>231</v>
+      <c r="M33">
+        <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>231</v>
-      </c>
-      <c r="O33"/>
-      <c r="P33" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:18">
+        <v>232</v>
+      </c>
+      <c r="O33" t="s">
+        <v>232</v>
+      </c>
+      <c r="P33"/>
+      <c r="Q33" t="s">
+        <v>148</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:19">
       <c r="C34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D34" t="s">
-        <v>233</v>
-      </c>
-      <c r="E34" t="s">
         <v>234</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>235</v>
@@ -4185,43 +4371,46 @@
       <c r="H34" t="s">
         <v>237</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="s">
+        <v>238</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34" t="s">
-        <v>238</v>
+      <c r="M34">
+        <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>238</v>
-      </c>
-      <c r="O34"/>
-      <c r="P34" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:18">
+        <v>239</v>
+      </c>
+      <c r="O34" t="s">
+        <v>239</v>
+      </c>
+      <c r="P34"/>
+      <c r="Q34" t="s">
+        <v>148</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:19">
       <c r="C35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D35" t="s">
-        <v>240</v>
-      </c>
-      <c r="E35" t="s">
         <v>241</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>242</v>
@@ -4232,43 +4421,46 @@
       <c r="H35" t="s">
         <v>244</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="s">
+        <v>245</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35" t="s">
-        <v>245</v>
+      <c r="M35">
+        <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>245</v>
-      </c>
-      <c r="O35"/>
-      <c r="P35" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:18">
+        <v>246</v>
+      </c>
+      <c r="O35" t="s">
+        <v>246</v>
+      </c>
+      <c r="P35"/>
+      <c r="Q35" t="s">
+        <v>148</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:19">
       <c r="C36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D36" t="s">
-        <v>247</v>
-      </c>
-      <c r="E36" t="s">
         <v>248</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>249</v>
@@ -4279,43 +4471,46 @@
       <c r="H36" t="s">
         <v>251</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="s">
+        <v>252</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36" t="s">
-        <v>252</v>
+      <c r="M36">
+        <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>252</v>
-      </c>
-      <c r="O36"/>
-      <c r="P36" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:18">
+        <v>253</v>
+      </c>
+      <c r="O36" t="s">
+        <v>253</v>
+      </c>
+      <c r="P36"/>
+      <c r="Q36" t="s">
+        <v>148</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:19">
       <c r="C37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D37" t="s">
-        <v>254</v>
-      </c>
-      <c r="E37" t="s">
         <v>255</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>256</v>
@@ -4326,43 +4521,46 @@
       <c r="H37" t="s">
         <v>258</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="s">
+        <v>259</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37" t="s">
-        <v>259</v>
+      <c r="M37">
+        <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>259</v>
-      </c>
-      <c r="O37"/>
-      <c r="P37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:18">
+        <v>260</v>
+      </c>
+      <c r="O37" t="s">
+        <v>260</v>
+      </c>
+      <c r="P37"/>
+      <c r="Q37" t="s">
+        <v>148</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:19">
       <c r="C38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D38" t="s">
-        <v>261</v>
-      </c>
-      <c r="E38" t="s">
         <v>262</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>263</v>
@@ -4373,43 +4571,46 @@
       <c r="H38" t="s">
         <v>265</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="s">
+        <v>266</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38" t="s">
-        <v>266</v>
+      <c r="M38">
+        <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>266</v>
-      </c>
-      <c r="O38"/>
-      <c r="P38" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:18">
+        <v>267</v>
+      </c>
+      <c r="O38" t="s">
+        <v>267</v>
+      </c>
+      <c r="P38"/>
+      <c r="Q38" t="s">
+        <v>148</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:19">
       <c r="C39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D39" t="s">
-        <v>268</v>
-      </c>
-      <c r="E39" t="s">
         <v>269</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>270</v>
@@ -4420,92 +4621,98 @@
       <c r="H39" t="s">
         <v>272</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="M39" t="s">
-        <v>273</v>
+      <c r="M39">
+        <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>273</v>
-      </c>
-      <c r="O39"/>
-      <c r="P39" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:18">
+        <v>274</v>
+      </c>
+      <c r="O39" t="s">
+        <v>274</v>
+      </c>
+      <c r="P39"/>
+      <c r="Q39" t="s">
+        <v>148</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:19">
       <c r="C40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D40" t="s">
-        <v>275</v>
-      </c>
-      <c r="E40" t="s">
         <v>276</v>
       </c>
-      <c r="F40">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40">
         <v>1391250000</v>
-      </c>
-      <c r="G40" t="s">
-        <v>277</v>
       </c>
       <c r="H40" t="s">
         <v>278</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="s">
+        <v>279</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="M40" t="s">
-        <v>279</v>
+      <c r="M40">
+        <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>279</v>
-      </c>
-      <c r="O40"/>
-      <c r="P40" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40"/>
-    </row>
-    <row r="41" customFormat="1" ht="24" customHeight="1" spans="1:17">
+        <v>280</v>
+      </c>
+      <c r="O40" t="s">
+        <v>280</v>
+      </c>
+      <c r="P40"/>
+      <c r="Q40" t="s">
+        <v>148</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40"/>
+    </row>
+    <row r="41" customFormat="1" ht="24" customHeight="1" spans="1:18">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D41" t="s">
-        <v>281</v>
-      </c>
-      <c r="E41" t="s">
         <v>282</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>283</v>
@@ -4516,43 +4723,46 @@
       <c r="H41" t="s">
         <v>285</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="s">
+        <v>286</v>
+      </c>
+      <c r="J41">
         <f>(D41-1034)*5+20</f>
         <v>25</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41" t="s">
-        <v>286</v>
+      <c r="M41">
+        <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>286</v>
-      </c>
-      <c r="P41" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" ht="24" customHeight="1" spans="1:17">
+        <v>287</v>
+      </c>
+      <c r="O41" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>148</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" ht="24" customHeight="1" spans="1:18">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D42" t="s">
-        <v>288</v>
-      </c>
-      <c r="E42" t="s">
         <v>289</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>290</v>
@@ -4563,43 +4773,46 @@
       <c r="H42" t="s">
         <v>292</v>
       </c>
-      <c r="I42">
-        <f t="shared" ref="I41:I50" si="1">(D42-1034)*4+20</f>
+      <c r="I42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ref="J41:J50" si="1">(D42-1034)*4+20</f>
         <v>28</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42" t="s">
-        <v>293</v>
+      <c r="M42">
+        <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>293</v>
-      </c>
-      <c r="P42" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" ht="24" customHeight="1" spans="1:17">
+        <v>294</v>
+      </c>
+      <c r="O42" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>148</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" ht="24" customHeight="1" spans="1:18">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D43" t="s">
-        <v>295</v>
-      </c>
-      <c r="E43" t="s">
         <v>296</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>297</v>
@@ -4610,43 +4823,46 @@
       <c r="H43" t="s">
         <v>299</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="s">
+        <v>300</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="M43" t="s">
-        <v>300</v>
+      <c r="M43">
+        <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>300</v>
-      </c>
-      <c r="P43" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" ht="24" customHeight="1" spans="1:17">
+        <v>301</v>
+      </c>
+      <c r="O43" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>148</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" ht="24" customHeight="1" spans="1:18">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D44" t="s">
-        <v>302</v>
-      </c>
-      <c r="E44" t="s">
         <v>303</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>304</v>
@@ -4657,43 +4873,46 @@
       <c r="H44" t="s">
         <v>306</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="s">
+        <v>307</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44" t="s">
-        <v>307</v>
+      <c r="M44">
+        <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>307</v>
-      </c>
-      <c r="P44" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" ht="24" customHeight="1" spans="1:17">
+        <v>308</v>
+      </c>
+      <c r="O44" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>148</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" ht="24" customHeight="1" spans="1:18">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D45" t="s">
-        <v>309</v>
-      </c>
-      <c r="E45" t="s">
         <v>310</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>311</v>
@@ -4704,43 +4923,46 @@
       <c r="H45" t="s">
         <v>313</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="s">
+        <v>314</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45" t="s">
-        <v>314</v>
+      <c r="M45">
+        <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>314</v>
-      </c>
-      <c r="P45" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:19">
+        <v>315</v>
+      </c>
+      <c r="O45" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>148</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D46" t="s">
-        <v>316</v>
-      </c>
-      <c r="E46" t="s">
         <v>317</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
       </c>
       <c r="F46" t="s">
         <v>318</v>
@@ -4751,45 +4973,48 @@
       <c r="H46" t="s">
         <v>320</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="s">
+        <v>321</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46" t="s">
-        <v>321</v>
+      <c r="M46">
+        <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>321</v>
-      </c>
-      <c r="P46" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="O46" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>148</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
       <c r="S46" s="2"/>
-    </row>
-    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D47" t="s">
-        <v>323</v>
-      </c>
-      <c r="E47" t="s">
         <v>324</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>325</v>
@@ -4800,45 +5025,48 @@
       <c r="H47" t="s">
         <v>327</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="s">
+        <v>328</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="M47" t="s">
-        <v>328</v>
+      <c r="M47">
+        <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>328</v>
-      </c>
-      <c r="P47" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="O47" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>148</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
       <c r="S47" s="2"/>
-    </row>
-    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D48" t="s">
-        <v>330</v>
-      </c>
-      <c r="E48" t="s">
         <v>331</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>332</v>
@@ -4849,45 +5077,48 @@
       <c r="H48" t="s">
         <v>334</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="s">
+        <v>335</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="M48" t="s">
-        <v>335</v>
+      <c r="M48">
+        <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>335</v>
-      </c>
-      <c r="P48" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="O48" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>148</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
       <c r="S48" s="2"/>
-    </row>
-    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D49" t="s">
-        <v>337</v>
-      </c>
-      <c r="E49" t="s">
         <v>338</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
       </c>
       <c r="F49" t="s">
         <v>339</v>
@@ -4898,45 +5129,48 @@
       <c r="H49" t="s">
         <v>341</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="s">
+        <v>342</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
-      <c r="M49" t="s">
-        <v>342</v>
+      <c r="M49">
+        <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>342</v>
-      </c>
-      <c r="P49" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="O49" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>148</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
       <c r="S49" s="2"/>
-    </row>
-    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D50" t="s">
-        <v>344</v>
-      </c>
-      <c r="E50" t="s">
         <v>345</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>346</v>
@@ -4947,45 +5181,48 @@
       <c r="H50" t="s">
         <v>348</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="s">
+        <v>349</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
-      <c r="M50" t="s">
-        <v>349</v>
+      <c r="M50">
+        <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>349</v>
-      </c>
-      <c r="P50" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="O50" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>148</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
       <c r="S50" s="2"/>
-    </row>
-    <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D51" t="s">
-        <v>351</v>
-      </c>
-      <c r="E51" t="s">
         <v>352</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>353</v>
@@ -4996,46 +5233,49 @@
       <c r="H51" t="s">
         <v>355</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="s">
+        <v>356</v>
+      </c>
+      <c r="J51">
         <v>65</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>3</v>
       </c>
-      <c r="K51">
-        <f t="shared" ref="K51:K65" si="2">(D51-1044)*5</f>
+      <c r="L51">
+        <f t="shared" ref="L51:L65" si="2">(D51-1044)*5</f>
         <v>5</v>
       </c>
-      <c r="L51">
-        <f t="shared" ref="L51:L65" si="3">(D51-1044)*5</f>
+      <c r="M51">
+        <f t="shared" ref="M51:M65" si="3">(D51-1044)*5</f>
         <v>5</v>
       </c>
-      <c r="M51" t="s">
-        <v>356</v>
-      </c>
       <c r="N51" t="s">
-        <v>356</v>
-      </c>
-      <c r="P51" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="O51" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>148</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
       <c r="S51" s="2"/>
-    </row>
-    <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D52" t="s">
-        <v>358</v>
-      </c>
-      <c r="E52" t="s">
         <v>359</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>360</v>
@@ -5046,46 +5286,49 @@
       <c r="H52" t="s">
         <v>362</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="s">
+        <v>363</v>
+      </c>
+      <c r="J52">
         <v>70</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>6</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="M52" t="s">
-        <v>363</v>
-      </c>
       <c r="N52" t="s">
-        <v>363</v>
-      </c>
-      <c r="P52" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="O52" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>148</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
       <c r="S52" s="2"/>
-    </row>
-    <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T52" s="2"/>
+    </row>
+    <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D53" t="s">
-        <v>365</v>
-      </c>
-      <c r="E53" t="s">
         <v>366</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>367</v>
@@ -5096,46 +5339,49 @@
       <c r="H53" t="s">
         <v>369</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="s">
+        <v>370</v>
+      </c>
+      <c r="J53">
         <v>75</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>9</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="M53" t="s">
-        <v>370</v>
-      </c>
       <c r="N53" t="s">
-        <v>370</v>
-      </c>
-      <c r="P53" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="O53" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>148</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
       <c r="S53" s="2"/>
-    </row>
-    <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D54" t="s">
-        <v>372</v>
-      </c>
-      <c r="E54" t="s">
         <v>373</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>374</v>
@@ -5146,46 +5392,49 @@
       <c r="H54" t="s">
         <v>376</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="s">
+        <v>377</v>
+      </c>
+      <c r="J54">
         <v>80</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>12</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M54" t="s">
-        <v>377</v>
-      </c>
       <c r="N54" t="s">
-        <v>377</v>
-      </c>
-      <c r="P54" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="O54" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>148</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
       <c r="S54" s="2"/>
-    </row>
-    <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T54" s="2"/>
+    </row>
+    <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D55" t="s">
-        <v>379</v>
-      </c>
-      <c r="E55" t="s">
         <v>380</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>381</v>
@@ -5196,46 +5445,49 @@
       <c r="H55" t="s">
         <v>383</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="s">
+        <v>384</v>
+      </c>
+      <c r="J55">
         <v>85</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>15</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="M55" t="s">
-        <v>384</v>
-      </c>
       <c r="N55" t="s">
-        <v>384</v>
-      </c>
-      <c r="P55" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="O55" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>148</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
       <c r="S55" s="2"/>
-    </row>
-    <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T55" s="2"/>
+    </row>
+    <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D56" t="s">
-        <v>386</v>
-      </c>
-      <c r="E56" t="s">
         <v>387</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>388</v>
@@ -5246,48 +5498,51 @@
       <c r="H56" t="s">
         <v>390</v>
       </c>
-      <c r="I56">
-        <f t="shared" ref="I56:I65" si="4">(D56-1049)*5+85</f>
+      <c r="I56" t="s">
+        <v>391</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ref="J56:J65" si="4">(D56-1049)*5+85</f>
         <v>90</v>
       </c>
-      <c r="J56">
-        <f t="shared" ref="J56:J65" si="5">(D56-1049)*5+15</f>
+      <c r="K56">
+        <f t="shared" ref="K56:K65" si="5">(D56-1049)*5+15</f>
         <v>20</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="M56" t="s">
-        <v>391</v>
-      </c>
       <c r="N56" t="s">
-        <v>391</v>
-      </c>
-      <c r="P56" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="O56" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>148</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
       <c r="S56" s="2"/>
-    </row>
-    <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T56" s="2"/>
+    </row>
+    <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D57" t="s">
-        <v>393</v>
-      </c>
-      <c r="E57" t="s">
         <v>394</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>395</v>
@@ -5298,48 +5553,51 @@
       <c r="H57" t="s">
         <v>397</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="s">
+        <v>398</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="M57" t="s">
-        <v>398</v>
-      </c>
       <c r="N57" t="s">
-        <v>398</v>
-      </c>
-      <c r="P57" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="O57" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>148</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
       <c r="S57" s="2"/>
-    </row>
-    <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D58" t="s">
-        <v>400</v>
-      </c>
-      <c r="E58" t="s">
         <v>401</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
       </c>
       <c r="F58" t="s">
         <v>402</v>
@@ -5350,48 +5608,51 @@
       <c r="H58" t="s">
         <v>404</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J58">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="M58" t="s">
-        <v>405</v>
-      </c>
       <c r="N58" t="s">
-        <v>405</v>
-      </c>
-      <c r="P58" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="O58" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>148</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
       <c r="S58" s="2"/>
-    </row>
-    <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T58" s="2"/>
+    </row>
+    <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D59" t="s">
-        <v>407</v>
-      </c>
-      <c r="E59" t="s">
         <v>408</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>409</v>
@@ -5402,48 +5663,51 @@
       <c r="H59" t="s">
         <v>411</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="s">
+        <v>412</v>
+      </c>
+      <c r="J59">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="M59" t="s">
-        <v>412</v>
-      </c>
       <c r="N59" t="s">
-        <v>412</v>
-      </c>
-      <c r="P59" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="O59" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>148</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
       <c r="S59" s="2"/>
-    </row>
-    <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D60" t="s">
-        <v>414</v>
-      </c>
-      <c r="E60" t="s">
         <v>415</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
       </c>
       <c r="F60" t="s">
         <v>416</v>
@@ -5454,48 +5718,51 @@
       <c r="H60" t="s">
         <v>418</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="s">
+        <v>419</v>
+      </c>
+      <c r="J60">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M60" t="s">
-        <v>419</v>
-      </c>
       <c r="N60" t="s">
-        <v>419</v>
-      </c>
-      <c r="P60" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="O60" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>148</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
       <c r="S60" s="2"/>
-    </row>
-    <row r="61" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T60" s="2"/>
+    </row>
+    <row r="61" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D61" t="s">
-        <v>421</v>
-      </c>
-      <c r="E61" t="s">
         <v>422</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>423</v>
@@ -5506,48 +5773,51 @@
       <c r="H61" t="s">
         <v>425</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="s">
+        <v>426</v>
+      </c>
+      <c r="J61">
         <f t="shared" si="4"/>
         <v>115</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="M61" t="s">
-        <v>426</v>
-      </c>
       <c r="N61" t="s">
-        <v>426</v>
-      </c>
-      <c r="P61" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="O61" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>148</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
       <c r="S61" s="2"/>
-    </row>
-    <row r="62" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D62" t="s">
-        <v>428</v>
-      </c>
-      <c r="E62" t="s">
         <v>429</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>430</v>
@@ -5558,48 +5828,51 @@
       <c r="H62" t="s">
         <v>432</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="s">
+        <v>433</v>
+      </c>
+      <c r="J62">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="M62" t="s">
-        <v>433</v>
-      </c>
       <c r="N62" t="s">
-        <v>433</v>
-      </c>
-      <c r="P62" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="O62" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>148</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
       <c r="S62" s="2"/>
-    </row>
-    <row r="63" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D63" t="s">
-        <v>435</v>
-      </c>
-      <c r="E63" t="s">
         <v>436</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>437</v>
@@ -5610,48 +5883,51 @@
       <c r="H63" t="s">
         <v>439</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="s">
+        <v>440</v>
+      </c>
+      <c r="J63">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="M63" t="s">
-        <v>440</v>
-      </c>
       <c r="N63" t="s">
-        <v>440</v>
-      </c>
-      <c r="P63" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="O63" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>148</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
       <c r="S63" s="2"/>
-    </row>
-    <row r="64" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D64" t="s">
-        <v>442</v>
-      </c>
-      <c r="E64" t="s">
         <v>443</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>444</v>
@@ -5662,48 +5938,51 @@
       <c r="H64" t="s">
         <v>446</v>
       </c>
-      <c r="I64">
+      <c r="I64" t="s">
+        <v>447</v>
+      </c>
+      <c r="J64">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="M64" t="s">
-        <v>447</v>
-      </c>
       <c r="N64" t="s">
-        <v>447</v>
-      </c>
-      <c r="P64" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="O64" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>148</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
       <c r="S64" s="2"/>
-    </row>
-    <row r="65" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D65" t="s">
-        <v>449</v>
-      </c>
-      <c r="E65" t="s">
         <v>450</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>451</v>
@@ -5711,51 +5990,54 @@
       <c r="G65" t="s">
         <v>452</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H65" t="s">
         <v>453</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="J65">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="M65" t="s">
-        <v>454</v>
-      </c>
       <c r="N65" t="s">
-        <v>454</v>
-      </c>
-      <c r="P65" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="O65" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>148</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
       <c r="S65" s="2"/>
-    </row>
-    <row r="66" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D66" t="s">
-        <v>456</v>
-      </c>
-      <c r="E66" t="s">
         <v>457</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
       </c>
       <c r="F66" t="s">
         <v>458</v>
@@ -5763,51 +6045,54 @@
       <c r="G66" t="s">
         <v>459</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" t="s">
         <v>460</v>
       </c>
-      <c r="I66">
-        <f t="shared" ref="I66:L66" si="6">I65+8</f>
+      <c r="I66" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ref="J66:M66" si="6">J65+8</f>
         <v>143</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <f t="shared" si="6"/>
         <v>73</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="6"/>
-        <v>83</v>
       </c>
       <c r="L66">
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="M66" t="s">
-        <v>461</v>
+      <c r="M66">
+        <f t="shared" si="6"/>
+        <v>83</v>
       </c>
       <c r="N66" t="s">
-        <v>461</v>
-      </c>
-      <c r="P66" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="O66" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>148</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
       <c r="S66" s="2"/>
-    </row>
-    <row r="67" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D67" t="s">
-        <v>463</v>
-      </c>
-      <c r="E67" t="s">
         <v>464</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>465</v>
@@ -5815,51 +6100,54 @@
       <c r="G67" t="s">
         <v>466</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H67" t="s">
         <v>467</v>
       </c>
-      <c r="I67">
-        <f t="shared" ref="I66:I71" si="7">I66+8</f>
+      <c r="I67" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J66:J71" si="7">J66+8</f>
         <v>151</v>
       </c>
-      <c r="J67">
-        <f t="shared" ref="J67:J75" si="8">J66+8</f>
+      <c r="K67">
+        <f t="shared" ref="K67:K75" si="8">K66+8</f>
         <v>81</v>
       </c>
-      <c r="K67">
-        <f t="shared" ref="K67:K71" si="9">K66+8</f>
+      <c r="L67">
+        <f t="shared" ref="L67:L71" si="9">L66+8</f>
         <v>91</v>
       </c>
-      <c r="L67">
-        <f t="shared" ref="L67:L71" si="10">L66+8</f>
+      <c r="M67">
+        <f t="shared" ref="M67:M71" si="10">M66+8</f>
         <v>91</v>
       </c>
-      <c r="M67" t="s">
-        <v>468</v>
-      </c>
       <c r="N67" t="s">
-        <v>468</v>
-      </c>
-      <c r="P67" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="O67" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>148</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
       <c r="S67" s="2"/>
-    </row>
-    <row r="68" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D68" t="s">
-        <v>470</v>
-      </c>
-      <c r="E68" t="s">
         <v>471</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>472</v>
@@ -5867,51 +6155,54 @@
       <c r="G68" t="s">
         <v>473</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H68" t="s">
         <v>474</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="J68">
         <f t="shared" si="7"/>
         <v>159</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <f t="shared" si="8"/>
         <v>89</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="M68" t="s">
-        <v>475</v>
-      </c>
       <c r="N68" t="s">
-        <v>475</v>
-      </c>
-      <c r="P68" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="O68" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>148</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
       <c r="S68" s="2"/>
-    </row>
-    <row r="69" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T68" s="2"/>
+    </row>
+    <row r="69" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D69" t="s">
-        <v>477</v>
-      </c>
-      <c r="E69" t="s">
         <v>478</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>479</v>
@@ -5919,51 +6210,54 @@
       <c r="G69" t="s">
         <v>480</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" t="s">
         <v>481</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="J69">
         <f t="shared" si="7"/>
         <v>167</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <f t="shared" si="8"/>
         <v>97</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <f t="shared" si="9"/>
         <v>107</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <f t="shared" si="10"/>
         <v>107</v>
       </c>
-      <c r="M69" t="s">
-        <v>482</v>
-      </c>
       <c r="N69" t="s">
-        <v>482</v>
-      </c>
-      <c r="P69" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="O69" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>148</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
       <c r="S69" s="2"/>
-    </row>
-    <row r="70" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T69" s="2"/>
+    </row>
+    <row r="70" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D70" t="s">
-        <v>484</v>
-      </c>
-      <c r="E70" t="s">
         <v>485</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
       </c>
       <c r="F70" t="s">
         <v>486</v>
@@ -5971,303 +6265,586 @@
       <c r="G70" t="s">
         <v>487</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" t="s">
         <v>488</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="J70">
         <f t="shared" si="7"/>
         <v>175</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <f t="shared" si="9"/>
         <v>115</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <f t="shared" si="10"/>
         <v>115</v>
       </c>
-      <c r="M70" t="s">
-        <v>489</v>
-      </c>
       <c r="N70" t="s">
-        <v>489</v>
-      </c>
-      <c r="P70" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="O70" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>148</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
       <c r="S70" s="2"/>
-    </row>
-    <row r="71" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T70" s="2"/>
+    </row>
+    <row r="71" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D71" t="s">
-        <v>491</v>
-      </c>
-      <c r="E71" t="s">
         <v>492</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
         <v>493</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G71" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="H71" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="I71">
-        <f t="shared" ref="I71:L71" si="11">I70+15</f>
+      <c r="I71" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="J71">
+        <f t="shared" ref="J71:M71" si="11">J70+15</f>
         <v>190</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <f t="shared" si="11"/>
         <v>120</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="11"/>
-        <v>130</v>
       </c>
       <c r="L71">
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
-      <c r="M71" t="s">
-        <v>496</v>
+      <c r="M71">
+        <f t="shared" si="11"/>
+        <v>130</v>
       </c>
       <c r="N71" t="s">
-        <v>496</v>
-      </c>
-      <c r="P71" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="O71" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>148</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
       <c r="S71" s="2"/>
-    </row>
-    <row r="72" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D72" t="s">
-        <v>498</v>
-      </c>
-      <c r="E72" t="s">
         <v>499</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
         <v>500</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G72" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H72" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="I72">
-        <f t="shared" ref="I71:I75" si="12">I71+15</f>
+      <c r="I72" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="J72">
+        <f>J71+15</f>
         <v>205</v>
       </c>
-      <c r="J72">
-        <f t="shared" ref="J71:J75" si="13">J71+15</f>
+      <c r="K72">
+        <f t="shared" ref="K71:K75" si="12">K71+15</f>
         <v>135</v>
       </c>
-      <c r="K72">
-        <f t="shared" ref="K71:K75" si="14">K71+15</f>
+      <c r="L72">
+        <f t="shared" ref="L71:L75" si="13">L71+15</f>
         <v>145</v>
       </c>
-      <c r="L72">
-        <f t="shared" ref="L71:L75" si="15">L71+15</f>
+      <c r="M72">
+        <f t="shared" ref="M71:M75" si="14">M71+15</f>
         <v>145</v>
       </c>
-      <c r="M72" t="s">
-        <v>503</v>
-      </c>
       <c r="N72" t="s">
-        <v>503</v>
-      </c>
-      <c r="P72" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="O72" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>148</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
       <c r="S72" s="2"/>
-    </row>
-    <row r="73" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T72" s="2"/>
+    </row>
+    <row r="73" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D73" t="s">
-        <v>505</v>
-      </c>
-      <c r="E73" t="s">
         <v>506</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
         <v>507</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G73" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H73" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="J73">
+        <f>J72+15</f>
+        <v>220</v>
+      </c>
+      <c r="K73">
         <f t="shared" si="12"/>
-        <v>220</v>
-      </c>
-      <c r="J73">
+        <v>150</v>
+      </c>
+      <c r="L73">
         <f t="shared" si="13"/>
-        <v>150</v>
-      </c>
-      <c r="K73">
+        <v>160</v>
+      </c>
+      <c r="M73">
         <f t="shared" si="14"/>
         <v>160</v>
       </c>
-      <c r="L73">
-        <f t="shared" si="15"/>
-        <v>160</v>
-      </c>
-      <c r="M73" t="s">
-        <v>510</v>
-      </c>
       <c r="N73" t="s">
-        <v>510</v>
-      </c>
-      <c r="P73" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="O73" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>148</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
       <c r="S73" s="2"/>
-    </row>
-    <row r="74" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D74" t="s">
-        <v>512</v>
-      </c>
-      <c r="E74" t="s">
         <v>513</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
         <v>514</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G74" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H74" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="J74">
+        <f>J73+15</f>
+        <v>235</v>
+      </c>
+      <c r="K74">
         <f t="shared" si="12"/>
-        <v>235</v>
-      </c>
-      <c r="J74">
+        <v>165</v>
+      </c>
+      <c r="L74">
         <f t="shared" si="13"/>
-        <v>165</v>
-      </c>
-      <c r="K74">
+        <v>175</v>
+      </c>
+      <c r="M74">
         <f t="shared" si="14"/>
         <v>175</v>
       </c>
-      <c r="L74">
-        <f t="shared" si="15"/>
-        <v>175</v>
-      </c>
-      <c r="M74" t="s">
-        <v>517</v>
-      </c>
       <c r="N74" t="s">
-        <v>517</v>
-      </c>
-      <c r="P74" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="O74" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>148</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
       <c r="S74" s="2"/>
-    </row>
-    <row r="75" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="T74" s="2"/>
+    </row>
+    <row r="75" customFormat="1" ht="24" customHeight="1" spans="1:20">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D75" t="s">
-        <v>519</v>
-      </c>
-      <c r="E75" t="s">
         <v>520</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
         <v>521</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="G75" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H75" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="J75">
+        <f>J74+15</f>
+        <v>250</v>
+      </c>
+      <c r="K75">
         <f t="shared" si="12"/>
-        <v>250</v>
-      </c>
-      <c r="J75">
+        <v>180</v>
+      </c>
+      <c r="L75">
         <f t="shared" si="13"/>
-        <v>180</v>
-      </c>
-      <c r="K75">
+        <v>190</v>
+      </c>
+      <c r="M75">
         <f t="shared" si="14"/>
         <v>190</v>
       </c>
-      <c r="L75">
+      <c r="N75" t="s">
+        <v>525</v>
+      </c>
+      <c r="O75">
+        <v>21938500000</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>148</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+    </row>
+    <row r="76" customFormat="1" ht="24" customHeight="1" spans="1:18">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s">
+        <v>526</v>
+      </c>
+      <c r="D76" t="s">
+        <v>527</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
+        <v>528</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="J76">
+        <f t="shared" ref="J76:J80" si="15">J75+25</f>
+        <v>275</v>
+      </c>
+      <c r="K76">
+        <f t="shared" ref="K76:M76" si="16">K75+25</f>
+        <v>205</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="16"/>
+        <v>215</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="16"/>
+        <v>215</v>
+      </c>
+      <c r="N76" t="s">
+        <v>287</v>
+      </c>
+      <c r="O76" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>148</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" ht="24" customHeight="1" spans="1:18">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s">
+        <v>532</v>
+      </c>
+      <c r="D77" t="s">
+        <v>533</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77" t="s">
+        <v>534</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="J77">
         <f t="shared" si="15"/>
-        <v>190</v>
-      </c>
-      <c r="M75" t="s">
-        <v>524</v>
-      </c>
-      <c r="N75">
-        <v>21938500000</v>
-      </c>
-      <c r="P75" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="K77">
+        <f t="shared" ref="K76:K80" si="17">K76+25</f>
+        <v>230</v>
+      </c>
+      <c r="L77">
+        <f t="shared" ref="L77:L80" si="18">L76+25</f>
+        <v>240</v>
+      </c>
+      <c r="M77">
+        <f t="shared" ref="M77:M80" si="19">M76+25</f>
+        <v>240</v>
+      </c>
+      <c r="N77" t="s">
+        <v>294</v>
+      </c>
+      <c r="O77" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>148</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" ht="24" customHeight="1" spans="1:18">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s">
+        <v>538</v>
+      </c>
+      <c r="D78" t="s">
+        <v>539</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78" t="s">
+        <v>540</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="15"/>
+        <v>325</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="17"/>
+        <v>255</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="18"/>
+        <v>265</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="19"/>
+        <v>265</v>
+      </c>
+      <c r="N78" t="s">
+        <v>301</v>
+      </c>
+      <c r="O78" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>148</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" ht="24" customHeight="1" spans="1:18">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s">
+        <v>544</v>
+      </c>
+      <c r="D79" t="s">
+        <v>545</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79" t="s">
+        <v>546</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="15"/>
+        <v>350</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="17"/>
+        <v>280</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="18"/>
+        <v>290</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="19"/>
+        <v>290</v>
+      </c>
+      <c r="N79" t="s">
+        <v>308</v>
+      </c>
+      <c r="O79" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>148</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" ht="24" customHeight="1" spans="1:18">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s">
+        <v>550</v>
+      </c>
+      <c r="D80" t="s">
+        <v>551</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>552</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="15"/>
+        <v>375</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="17"/>
+        <v>305</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="18"/>
+        <v>315</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="19"/>
+        <v>315</v>
+      </c>
+      <c r="N80" t="s">
+        <v>315</v>
+      </c>
+      <c r="O80" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>148</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 K5 L5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 K3:K4 L3:L4 F3:H4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 E4 E5 G5 H5 I5 J5 K5 L5 M5 C3:C5 D3:D5 F3:F5 J3:J4 K3:K4 L3:L4 M3:M4 G3:I4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -6340,28 +6917,28 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -6371,34 +6948,34 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -6408,34 +6985,34 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -1963,12 +1963,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2762,8 +2762,8 @@
   <sheetPr/>
   <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -124,7 +124,7 @@
     <t>所属地图</t>
   </si>
   <si>
-    <t>Level</t>
+    <t>Layer</t>
   </si>
   <si>
     <t>名称</t>
@@ -2762,8 +2762,8 @@
   <sheetPr/>
   <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="557">
   <si>
     <t>ID</t>
   </si>
@@ -952,6 +952,9 @@
     <t>火龙神</t>
   </si>
   <si>
+    <t>1391250000</t>
+  </si>
+  <si>
     <t>278250000</t>
   </si>
   <si>
@@ -1684,7 +1687,7 @@
     <t>幻影火龙神</t>
   </si>
   <si>
-    <t>1280000000000000</t>
+    <t>1000000000000000</t>
   </si>
   <si>
     <t>42000000000000</t>
@@ -1705,7 +1708,7 @@
     <t>噩梦鸡王</t>
   </si>
   <si>
-    <t>2560000000000000</t>
+    <t>1500000000000000</t>
   </si>
   <si>
     <t>58000000000000</t>
@@ -1723,7 +1726,7 @@
     <t>噩梦鹿王</t>
   </si>
   <si>
-    <t>5120000000000000</t>
+    <t>2200000000000000</t>
   </si>
   <si>
     <t>82000000000000</t>
@@ -1741,7 +1744,7 @@
     <t>噩梦草王</t>
   </si>
   <si>
-    <t>10000000000000000</t>
+    <t>3000000000000000</t>
   </si>
   <si>
     <t>115000000000000</t>
@@ -1759,7 +1762,7 @@
     <t>噩梦猫王</t>
   </si>
   <si>
-    <t>20000000000000000</t>
+    <t>4200000000000000</t>
   </si>
   <si>
     <t>161000000000000</t>
@@ -1777,7 +1780,7 @@
     <t>噩梦花王</t>
   </si>
   <si>
-    <t>40000000000000000</t>
+    <t>5800000000000000</t>
   </si>
   <si>
     <t>225000000000000</t>
@@ -2760,10 +2763,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T80"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71:K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4665,14 +4668,14 @@
       <c r="F40" t="s">
         <v>277</v>
       </c>
-      <c r="G40">
-        <v>1391250000</v>
+      <c r="G40" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="H40" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I40" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
@@ -4688,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P40"/>
       <c r="Q40" t="s">
@@ -4706,25 +4709,25 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D41" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G41" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J41">
         <f>(D41-1034)*5+20</f>
@@ -4740,10 +4743,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O41" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q41" t="s">
         <v>148</v>
@@ -4756,25 +4759,25 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J42">
         <f t="shared" ref="J41:J50" si="1">(D42-1034)*4+20</f>
@@ -4790,10 +4793,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O42" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q42" t="s">
         <v>148</v>
@@ -4806,25 +4809,25 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D43" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H43" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I43" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J43">
         <f t="shared" si="1"/>
@@ -4840,10 +4843,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O43" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q43" t="s">
         <v>148</v>
@@ -4856,25 +4859,25 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D44" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G44" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H44" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
@@ -4890,10 +4893,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O44" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q44" t="s">
         <v>148</v>
@@ -4906,25 +4909,25 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D45" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G45" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H45" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I45" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J45">
         <f t="shared" si="1"/>
@@ -4940,10 +4943,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O45" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q45" t="s">
         <v>148</v>
@@ -4956,25 +4959,25 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D46" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E46">
         <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I46" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J46">
         <f t="shared" si="1"/>
@@ -4990,10 +4993,10 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O46" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q46" t="s">
         <v>148</v>
@@ -5008,25 +5011,25 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D47" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E47">
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G47" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I47" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J47">
         <f t="shared" si="1"/>
@@ -5042,10 +5045,10 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O47" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q47" t="s">
         <v>148</v>
@@ -5060,25 +5063,25 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D48" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G48" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H48" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I48" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J48">
         <f t="shared" si="1"/>
@@ -5094,10 +5097,10 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O48" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q48" t="s">
         <v>148</v>
@@ -5112,25 +5115,25 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D49" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G49" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I49" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J49">
         <f t="shared" si="1"/>
@@ -5146,10 +5149,10 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O49" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q49" t="s">
         <v>148</v>
@@ -5164,25 +5167,25 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D50" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G50" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H50" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I50" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J50">
         <f t="shared" si="1"/>
@@ -5198,10 +5201,10 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O50" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q50" t="s">
         <v>148</v>
@@ -5216,25 +5219,25 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E51">
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I51" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J51">
         <v>65</v>
@@ -5251,10 +5254,10 @@
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O51" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q51" t="s">
         <v>148</v>
@@ -5269,25 +5272,25 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D52" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G52" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H52" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I52" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J52">
         <v>70</v>
@@ -5304,10 +5307,10 @@
         <v>10</v>
       </c>
       <c r="N52" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O52" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q52" t="s">
         <v>148</v>
@@ -5322,25 +5325,25 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D53" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G53" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H53" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I53" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J53">
         <v>75</v>
@@ -5357,10 +5360,10 @@
         <v>15</v>
       </c>
       <c r="N53" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O53" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q53" t="s">
         <v>148</v>
@@ -5375,25 +5378,25 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D54" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G54" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H54" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I54" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J54">
         <v>80</v>
@@ -5410,10 +5413,10 @@
         <v>20</v>
       </c>
       <c r="N54" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O54" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q54" t="s">
         <v>148</v>
@@ -5428,25 +5431,25 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D55" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E55">
         <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G55" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H55" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I55" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J55">
         <v>85</v>
@@ -5463,10 +5466,10 @@
         <v>25</v>
       </c>
       <c r="N55" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O55" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q55" t="s">
         <v>148</v>
@@ -5481,25 +5484,25 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D56" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G56" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H56" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I56" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J56">
         <f t="shared" ref="J56:J65" si="4">(D56-1049)*5+85</f>
@@ -5518,10 +5521,10 @@
         <v>30</v>
       </c>
       <c r="N56" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O56" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q56" t="s">
         <v>148</v>
@@ -5536,25 +5539,25 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D57" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G57" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H57" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I57" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J57">
         <f t="shared" si="4"/>
@@ -5573,10 +5576,10 @@
         <v>35</v>
       </c>
       <c r="N57" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O57" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q57" t="s">
         <v>148</v>
@@ -5591,25 +5594,25 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D58" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E58">
         <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G58" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H58" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I58" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J58">
         <f t="shared" si="4"/>
@@ -5628,10 +5631,10 @@
         <v>40</v>
       </c>
       <c r="N58" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O58" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q58" t="s">
         <v>148</v>
@@ -5646,25 +5649,25 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D59" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E59">
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G59" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H59" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I59" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J59">
         <f t="shared" si="4"/>
@@ -5683,10 +5686,10 @@
         <v>45</v>
       </c>
       <c r="N59" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O59" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q59" t="s">
         <v>148</v>
@@ -5701,25 +5704,25 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D60" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E60">
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G60" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H60" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I60" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J60">
         <f t="shared" si="4"/>
@@ -5738,10 +5741,10 @@
         <v>50</v>
       </c>
       <c r="N60" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O60" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q60" t="s">
         <v>148</v>
@@ -5756,25 +5759,25 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D61" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G61" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H61" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I61" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J61">
         <f t="shared" si="4"/>
@@ -5793,10 +5796,10 @@
         <v>55</v>
       </c>
       <c r="N61" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O61" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q61" t="s">
         <v>148</v>
@@ -5811,25 +5814,25 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D62" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G62" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H62" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I62" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J62">
         <f t="shared" si="4"/>
@@ -5848,10 +5851,10 @@
         <v>60</v>
       </c>
       <c r="N62" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O62" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q62" t="s">
         <v>148</v>
@@ -5866,25 +5869,25 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D63" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E63">
         <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G63" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H63" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I63" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J63">
         <f t="shared" si="4"/>
@@ -5903,10 +5906,10 @@
         <v>65</v>
       </c>
       <c r="N63" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O63" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q63" t="s">
         <v>148</v>
@@ -5921,25 +5924,25 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D64" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E64">
         <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G64" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H64" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I64" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J64">
         <f t="shared" si="4"/>
@@ -5958,10 +5961,10 @@
         <v>70</v>
       </c>
       <c r="N64" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O64" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q64" t="s">
         <v>148</v>
@@ -5976,25 +5979,25 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D65" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G65" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H65" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J65">
         <f t="shared" si="4"/>
@@ -6013,10 +6016,10 @@
         <v>75</v>
       </c>
       <c r="N65" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O65" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q65" t="s">
         <v>148</v>
@@ -6031,25 +6034,25 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D66" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E66">
         <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G66" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H66" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J66">
         <f t="shared" ref="J66:M66" si="6">J65+8</f>
@@ -6068,10 +6071,10 @@
         <v>83</v>
       </c>
       <c r="N66" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O66" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q66" t="s">
         <v>148</v>
@@ -6086,25 +6089,25 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D67" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E67">
         <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G67" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H67" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J67">
         <f t="shared" ref="J66:J71" si="7">J66+8</f>
@@ -6123,10 +6126,10 @@
         <v>91</v>
       </c>
       <c r="N67" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O67" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q67" t="s">
         <v>148</v>
@@ -6141,25 +6144,25 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D68" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G68" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H68" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J68">
         <f t="shared" si="7"/>
@@ -6178,10 +6181,10 @@
         <v>99</v>
       </c>
       <c r="N68" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O68" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q68" t="s">
         <v>148</v>
@@ -6196,25 +6199,25 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D69" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G69" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H69" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J69">
         <f t="shared" si="7"/>
@@ -6233,10 +6236,10 @@
         <v>107</v>
       </c>
       <c r="N69" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O69" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q69" t="s">
         <v>148</v>
@@ -6251,25 +6254,25 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D70" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E70">
         <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G70" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H70" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J70">
         <f t="shared" si="7"/>
@@ -6280,18 +6283,17 @@
         <v>105</v>
       </c>
       <c r="L70">
-        <f t="shared" si="9"/>
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M70">
         <f t="shared" si="10"/>
         <v>115</v>
       </c>
       <c r="N70" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O70" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q70" t="s">
         <v>148</v>
@@ -6306,47 +6308,47 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D71" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E71">
         <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J71">
         <f t="shared" ref="J71:M71" si="11">J70+15</f>
         <v>190</v>
       </c>
       <c r="K71">
-        <f t="shared" si="11"/>
-        <v>120</v>
+        <f t="shared" ref="K71:K80" si="12">K70+5</f>
+        <v>110</v>
       </c>
       <c r="L71">
-        <f t="shared" si="11"/>
-        <v>130</v>
+        <f t="shared" ref="L71:L80" si="13">L70+5</f>
+        <v>115</v>
       </c>
       <c r="M71">
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="N71" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O71" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q71" t="s">
         <v>148</v>
@@ -6361,47 +6363,47 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D72" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E72">
         <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J72">
-        <f>J71+15</f>
+        <f t="shared" ref="J72:J80" si="14">J71+15</f>
         <v>205</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K71:K75" si="12">K71+15</f>
-        <v>135</v>
+        <f t="shared" si="12"/>
+        <v>115</v>
       </c>
       <c r="L72">
-        <f t="shared" ref="L71:L75" si="13">L71+15</f>
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="M72">
+        <f t="shared" ref="M71:M80" si="15">M71+15</f>
         <v>145</v>
       </c>
-      <c r="M72">
-        <f t="shared" ref="M71:M75" si="14">M71+15</f>
-        <v>145</v>
-      </c>
       <c r="N72" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O72" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q72" t="s">
         <v>148</v>
@@ -6416,47 +6418,47 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D73" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E73">
         <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J73">
-        <f>J72+15</f>
+        <f t="shared" si="14"/>
         <v>220</v>
       </c>
       <c r="K73">
         <f t="shared" si="12"/>
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="L73">
         <f t="shared" si="13"/>
+        <v>125</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="15"/>
         <v>160</v>
       </c>
-      <c r="M73">
-        <f t="shared" si="14"/>
-        <v>160</v>
-      </c>
       <c r="N73" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O73" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q73" t="s">
         <v>148</v>
@@ -6471,47 +6473,47 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D74" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E74">
         <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J74">
-        <f>J73+15</f>
+        <f t="shared" si="14"/>
         <v>235</v>
       </c>
       <c r="K74">
         <f t="shared" si="12"/>
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="L74">
         <f t="shared" si="13"/>
+        <v>130</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="15"/>
         <v>175</v>
       </c>
-      <c r="M74">
-        <f t="shared" si="14"/>
-        <v>175</v>
-      </c>
       <c r="N74" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O74" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q74" t="s">
         <v>148</v>
@@ -6526,47 +6528,47 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D75" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E75">
         <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J75">
-        <f>J74+15</f>
+        <f t="shared" si="14"/>
         <v>250</v>
       </c>
       <c r="K75">
         <f t="shared" si="12"/>
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="L75">
         <f t="shared" si="13"/>
+        <v>135</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="15"/>
         <v>190</v>
       </c>
-      <c r="M75">
-        <f t="shared" si="14"/>
-        <v>190</v>
-      </c>
       <c r="N75" t="s">
-        <v>525</v>
-      </c>
-      <c r="O75">
-        <v>21938500000</v>
+        <v>526</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>526</v>
       </c>
       <c r="Q75" t="s">
         <v>148</v>
@@ -6581,47 +6583,47 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D76" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E76">
         <v>3</v>
       </c>
       <c r="F76" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J76">
-        <f t="shared" ref="J76:J80" si="15">J75+25</f>
-        <v>275</v>
+        <f t="shared" si="14"/>
+        <v>265</v>
       </c>
       <c r="K76">
-        <f t="shared" ref="K76:M76" si="16">K75+25</f>
+        <f t="shared" si="12"/>
+        <v>135</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="13"/>
+        <v>140</v>
+      </c>
+      <c r="M76">
+        <f>M75+15</f>
         <v>205</v>
       </c>
-      <c r="L76">
-        <f t="shared" si="16"/>
-        <v>215</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="16"/>
-        <v>215</v>
-      </c>
-      <c r="N76" t="s">
-        <v>287</v>
-      </c>
-      <c r="O76" t="s">
-        <v>287</v>
+      <c r="N76">
+        <v>22938500000</v>
+      </c>
+      <c r="O76">
+        <v>22938500000</v>
       </c>
       <c r="Q76" t="s">
         <v>148</v>
@@ -6634,47 +6636,47 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D77" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E77">
         <v>3</v>
       </c>
       <c r="F77" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J77">
+        <f t="shared" si="14"/>
+        <v>280</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="12"/>
+        <v>140</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="13"/>
+        <v>145</v>
+      </c>
+      <c r="M77">
         <f t="shared" si="15"/>
-        <v>300</v>
-      </c>
-      <c r="K77">
-        <f t="shared" ref="K76:K80" si="17">K76+25</f>
-        <v>230</v>
-      </c>
-      <c r="L77">
-        <f t="shared" ref="L77:L80" si="18">L76+25</f>
-        <v>240</v>
-      </c>
-      <c r="M77">
-        <f t="shared" ref="M77:M80" si="19">M76+25</f>
-        <v>240</v>
-      </c>
-      <c r="N77" t="s">
-        <v>294</v>
-      </c>
-      <c r="O77" t="s">
-        <v>294</v>
+        <v>220</v>
+      </c>
+      <c r="N77">
+        <v>23938500000</v>
+      </c>
+      <c r="O77">
+        <v>23938500000</v>
       </c>
       <c r="Q77" t="s">
         <v>148</v>
@@ -6687,47 +6689,47 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D78" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E78">
         <v>3</v>
       </c>
       <c r="F78" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J78">
+        <f t="shared" si="14"/>
+        <v>295</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="12"/>
+        <v>145</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="13"/>
+        <v>150</v>
+      </c>
+      <c r="M78">
         <f t="shared" si="15"/>
-        <v>325</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="17"/>
-        <v>255</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="18"/>
-        <v>265</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="19"/>
-        <v>265</v>
-      </c>
-      <c r="N78" t="s">
-        <v>301</v>
-      </c>
-      <c r="O78" t="s">
-        <v>301</v>
+        <v>235</v>
+      </c>
+      <c r="N78">
+        <v>24938500000</v>
+      </c>
+      <c r="O78">
+        <v>24938500000</v>
       </c>
       <c r="Q78" t="s">
         <v>148</v>
@@ -6740,47 +6742,47 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D79" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E79">
         <v>3</v>
       </c>
       <c r="F79" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J79">
+        <f t="shared" si="14"/>
+        <v>310</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="13"/>
+        <v>155</v>
+      </c>
+      <c r="M79">
         <f t="shared" si="15"/>
-        <v>350</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="17"/>
-        <v>280</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="18"/>
-        <v>290</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="19"/>
-        <v>290</v>
-      </c>
-      <c r="N79" t="s">
-        <v>308</v>
-      </c>
-      <c r="O79" t="s">
-        <v>308</v>
+        <v>250</v>
+      </c>
+      <c r="N79">
+        <v>25938500000</v>
+      </c>
+      <c r="O79">
+        <v>25938500000</v>
       </c>
       <c r="Q79" t="s">
         <v>148</v>
@@ -6793,47 +6795,47 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D80" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E80">
         <v>3</v>
       </c>
       <c r="F80" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J80">
+        <f t="shared" si="14"/>
+        <v>325</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="12"/>
+        <v>155</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="13"/>
+        <v>160</v>
+      </c>
+      <c r="M80">
         <f t="shared" si="15"/>
-        <v>375</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="17"/>
-        <v>305</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="18"/>
-        <v>315</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="19"/>
-        <v>315</v>
-      </c>
-      <c r="N80" t="s">
-        <v>315</v>
-      </c>
-      <c r="O80" t="s">
-        <v>315</v>
+        <v>265</v>
+      </c>
+      <c r="N80">
+        <v>26938500000</v>
+      </c>
+      <c r="O80">
+        <v>26938500000</v>
       </c>
       <c r="Q80" t="s">
         <v>148</v>
@@ -6841,6 +6843,9 @@
       <c r="R80">
         <v>0</v>
       </c>
+    </row>
+    <row r="81" spans="7:7">
+      <c r="G81"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
-    <sheet name="定制配置" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,40 +82,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>admin</author>
-  </authors>
-  <commentList>
-    <comment ref="K3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-掉落ID：几率（万分比）</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="557">
   <si>
     <t>ID</t>
   </si>
@@ -1811,14 +1778,14 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2431,19 +2398,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2765,250 +2733,250 @@
   <sheetPr/>
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71:K80"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
+    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
-    <col min="11" max="13" width="12.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="3" customWidth="1"/>
+    <col min="11" max="13" width="12.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13" style="3" customWidth="1"/>
     <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="13.375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:18">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:18">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:18">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="3:18">
-      <c r="C6" t="s">
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:18">
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>10</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P6" s="1"/>
@@ -3019,3833 +2987,3833 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" ht="24" customHeight="1" spans="3:19">
-      <c r="C7" t="s">
+    <row r="7" customHeight="1" spans="3:19">
+      <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7" t="s">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="R7" s="1">
         <v>-1</v>
       </c>
-      <c r="S7"/>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:19">
-      <c r="C8" t="s">
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="3:19">
+      <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8" t="s">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="1" t="s">
         <v>49</v>
       </c>
       <c r="R8" s="1">
         <v>-1</v>
       </c>
-      <c r="S8"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:19">
-      <c r="C9" t="s">
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" customHeight="1" spans="3:19">
+      <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P9"/>
-      <c r="Q9" t="s">
+      <c r="P9" s="2"/>
+      <c r="Q9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:19">
-      <c r="C10" t="s">
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" customHeight="1" spans="3:19">
+      <c r="C10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P10"/>
-      <c r="Q10" t="s">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:19">
-      <c r="C11" t="s">
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" customHeight="1" spans="3:19">
+      <c r="C11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P11"/>
-      <c r="Q11" t="s">
+      <c r="P11" s="2"/>
+      <c r="Q11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:19">
-      <c r="C12" t="s">
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" customHeight="1" spans="3:19">
+      <c r="C12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="P12"/>
-      <c r="Q12" t="s">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:19">
-      <c r="C13" t="s">
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" customHeight="1" spans="3:19">
+      <c r="C13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P13"/>
-      <c r="Q13" t="s">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:19">
-      <c r="C14" t="s">
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" customHeight="1" spans="3:19">
+      <c r="C14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14" t="s">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:19">
-      <c r="C15" t="s">
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" customHeight="1" spans="3:19">
+      <c r="C15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15" t="s">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:19">
-      <c r="C16" t="s">
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" customHeight="1" spans="3:19">
+      <c r="C16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16" t="s">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:19">
-      <c r="C17" t="s">
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" customHeight="1" spans="3:19">
+      <c r="C17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17" t="s">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:19">
-      <c r="C18" t="s">
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" customHeight="1" spans="3:19">
+      <c r="C18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18" t="s">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:19">
-      <c r="C19" t="s">
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" customHeight="1" spans="3:19">
+      <c r="C19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19" t="s">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19"/>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:19">
-      <c r="C20" t="s">
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" customHeight="1" spans="3:19">
+      <c r="C20" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20" t="s">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:19">
-      <c r="C21" t="s">
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" customHeight="1" spans="3:19">
+      <c r="C21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <f t="shared" ref="J21:J40" si="0">(D21-1014)*1</f>
         <v>1</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="P21"/>
-      <c r="Q21" t="s">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:19">
-      <c r="C22" t="s">
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" customHeight="1" spans="3:19">
+      <c r="C22" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="P22"/>
-      <c r="Q22" t="s">
+      <c r="P22" s="2"/>
+      <c r="Q22" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:19">
-      <c r="C23" t="s">
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" customHeight="1" spans="3:19">
+      <c r="C23" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="P23"/>
-      <c r="Q23" t="s">
+      <c r="P23" s="2"/>
+      <c r="Q23" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:19">
-      <c r="C24" t="s">
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" customHeight="1" spans="3:19">
+      <c r="C24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="P24"/>
-      <c r="Q24" t="s">
+      <c r="P24" s="2"/>
+      <c r="Q24" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:19">
-      <c r="C25" t="s">
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" customHeight="1" spans="3:19">
+      <c r="C25" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>1</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="P25"/>
-      <c r="Q25" t="s">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:19">
-      <c r="C26" t="s">
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" customHeight="1" spans="3:19">
+      <c r="C26" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O26" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="P26"/>
-      <c r="Q26" t="s">
+      <c r="P26" s="2"/>
+      <c r="Q26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:19">
-      <c r="C27" t="s">
+      <c r="R26" s="2">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" customHeight="1" spans="3:19">
+      <c r="C27" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="P27"/>
-      <c r="Q27" t="s">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:19">
-      <c r="C28" t="s">
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" customHeight="1" spans="3:19">
+      <c r="C28" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="P28"/>
-      <c r="Q28" t="s">
+      <c r="P28" s="2"/>
+      <c r="Q28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:19">
-      <c r="C29" t="s">
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" customHeight="1" spans="3:19">
+      <c r="C29" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="P29"/>
-      <c r="Q29" t="s">
+      <c r="P29" s="2"/>
+      <c r="Q29" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:19">
-      <c r="C30" t="s">
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" customHeight="1" spans="3:19">
+      <c r="C30" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>1</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="P30"/>
-      <c r="Q30" t="s">
+      <c r="P30" s="2"/>
+      <c r="Q30" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:19">
-      <c r="C31" t="s">
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" customHeight="1" spans="3:19">
+      <c r="C31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="P31"/>
-      <c r="Q31" t="s">
+      <c r="P31" s="2"/>
+      <c r="Q31" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:19">
-      <c r="C32" t="s">
+      <c r="R31" s="2">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" customHeight="1" spans="3:19">
+      <c r="C32" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="P32"/>
-      <c r="Q32" t="s">
+      <c r="P32" s="2"/>
+      <c r="Q32" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:19">
-      <c r="C33" t="s">
+      <c r="R32" s="2">
+        <v>0</v>
+      </c>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" customHeight="1" spans="3:19">
+      <c r="C33" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>1</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="P33"/>
-      <c r="Q33" t="s">
+      <c r="P33" s="2"/>
+      <c r="Q33" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:19">
-      <c r="C34" t="s">
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" customHeight="1" spans="3:19">
+      <c r="C34" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="P34"/>
-      <c r="Q34" t="s">
+      <c r="P34" s="2"/>
+      <c r="Q34" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:19">
-      <c r="C35" t="s">
+      <c r="R34" s="2">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" customHeight="1" spans="3:19">
+      <c r="C35" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="P35"/>
-      <c r="Q35" t="s">
+      <c r="P35" s="2"/>
+      <c r="Q35" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:19">
-      <c r="C36" t="s">
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" customHeight="1" spans="3:19">
+      <c r="C36" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>1</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="P36"/>
-      <c r="Q36" t="s">
+      <c r="P36" s="2"/>
+      <c r="Q36" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:19">
-      <c r="C37" t="s">
+      <c r="R36" s="2">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" customHeight="1" spans="3:19">
+      <c r="C37" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>1</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="P37"/>
-      <c r="Q37" t="s">
+      <c r="P37" s="2"/>
+      <c r="Q37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:19">
-      <c r="C38" t="s">
+      <c r="R37" s="2">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" customHeight="1" spans="3:19">
+      <c r="C38" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>1</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="P38"/>
-      <c r="Q38" t="s">
+      <c r="P38" s="2"/>
+      <c r="Q38" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:19">
-      <c r="C39" t="s">
+      <c r="R38" s="2">
+        <v>0</v>
+      </c>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" customHeight="1" spans="3:19">
+      <c r="C39" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>1</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="P39"/>
-      <c r="Q39" t="s">
+      <c r="P39" s="2"/>
+      <c r="Q39" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:19">
-      <c r="C40" t="s">
+      <c r="R39" s="2">
+        <v>0</v>
+      </c>
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" customHeight="1" spans="3:19">
+      <c r="C40" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>1</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="P40"/>
-      <c r="Q40" t="s">
+      <c r="P40" s="2"/>
+      <c r="Q40" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40"/>
-    </row>
-    <row r="41" customFormat="1" ht="24" customHeight="1" spans="1:18">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s">
+      <c r="R40" s="2">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2"/>
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>2</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="2">
         <f>(D41-1034)*5+20</f>
         <v>25</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="Q41" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" ht="24" customHeight="1" spans="1:18">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s">
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>2</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="2">
         <f t="shared" ref="J41:J50" si="1">(D42-1034)*4+20</f>
         <v>28</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O42" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="Q42" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" ht="24" customHeight="1" spans="1:18">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s">
+      <c r="R42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>2</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="2">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="Q43" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" ht="24" customHeight="1" spans="1:18">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s">
+      <c r="R43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>2</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O44" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="Q44" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" ht="24" customHeight="1" spans="1:18">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s">
+      <c r="R44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>2</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="Q45" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s">
+      <c r="R45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>2</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="2">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O46" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="Q46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-    </row>
-    <row r="47" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s">
+      <c r="R46" s="2">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+    </row>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>2</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="2">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O47" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="Q47" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-    </row>
-    <row r="48" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s">
+      <c r="R47" s="2">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+    </row>
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <v>2</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="2">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O48" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="Q48" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-    </row>
-    <row r="49" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s">
+      <c r="R48" s="2">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+    </row>
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>2</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="2">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O49" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="Q49" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-    </row>
-    <row r="50" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s">
+      <c r="R49" s="2">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+    </row>
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>2</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50" t="s">
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O50" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="Q50" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-    </row>
-    <row r="51" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s">
+      <c r="R50" s="2">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+    </row>
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>2</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="2">
         <v>65</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="2">
         <v>3</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="2">
         <f t="shared" ref="L51:L65" si="2">(D51-1044)*5</f>
         <v>5</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="2">
         <f t="shared" ref="M51:M65" si="3">(D51-1044)*5</f>
         <v>5</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O51" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="Q51" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-    </row>
-    <row r="52" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s">
+      <c r="R51" s="2">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+    </row>
+    <row r="52" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>2</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="2">
         <v>70</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="2">
         <v>6</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="2">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N52" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O52" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="Q52" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-    </row>
-    <row r="53" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s">
+      <c r="R52" s="2">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+    </row>
+    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>2</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="2">
         <v>75</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="2">
         <v>9</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="2">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="Q53" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-    </row>
-    <row r="54" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s">
+      <c r="R53" s="2">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+    </row>
+    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>2</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="2">
         <v>80</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="2">
         <v>12</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N54" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O54" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="Q54" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-    </row>
-    <row r="55" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s">
+      <c r="R54" s="2">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+    </row>
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>2</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="2">
         <v>85</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="2">
         <v>15</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="2">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O55" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="Q55" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-    </row>
-    <row r="56" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s">
+      <c r="R55" s="2">
+        <v>0</v>
+      </c>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>2</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="2">
         <f t="shared" ref="J56:J65" si="4">(D56-1049)*5+85</f>
         <v>90</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="2">
         <f t="shared" ref="K56:K65" si="5">(D56-1049)*5+15</f>
         <v>20</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="2">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N56" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O56" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="Q56" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-    </row>
-    <row r="57" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s">
+      <c r="R56" s="2">
+        <v>0</v>
+      </c>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>2</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="2">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="2">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="2">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="2">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="N57" t="s">
+      <c r="N57" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="O57" t="s">
+      <c r="O57" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="Q57" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-    </row>
-    <row r="58" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s">
+      <c r="R57" s="2">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+    </row>
+    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>2</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="2">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="2">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O58" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="Q58" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-    </row>
-    <row r="59" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s">
+      <c r="R58" s="2">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+    </row>
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>2</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="2">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="2">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="2">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="2">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N59" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O59" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="Q59" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-    </row>
-    <row r="60" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s">
+      <c r="R59" s="2">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+    </row>
+    <row r="60" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <v>2</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="2">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="2">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="2">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N60" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="O60" t="s">
+      <c r="O60" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="Q60" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-    </row>
-    <row r="61" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s">
+      <c r="R60" s="2">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+    </row>
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>2</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="2">
         <f t="shared" si="4"/>
         <v>115</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="2">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="2">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="2">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N61" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="O61" t="s">
+      <c r="O61" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="Q61" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-    </row>
-    <row r="62" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s">
+      <c r="R61" s="2">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+    </row>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>2</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="2">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="2">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="2">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="N62" t="s">
+      <c r="N62" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="O62" t="s">
+      <c r="O62" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="Q62" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-    </row>
-    <row r="63" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s">
+      <c r="R62" s="2">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+    </row>
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <v>2</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="2">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="2">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="2">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="2">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N63" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="O63" t="s">
+      <c r="O63" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="Q63" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-    </row>
-    <row r="64" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s">
+      <c r="R63" s="2">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+    </row>
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="2">
         <v>2</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="2">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="2">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="2">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="2">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N64" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="O64" t="s">
+      <c r="O64" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="Q64" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-    </row>
-    <row r="65" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s">
+      <c r="R64" s="2">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+    </row>
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <v>2</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I65" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="2">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="2">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="2">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="2">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="N65" t="s">
+      <c r="N65" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="O65" t="s">
+      <c r="O65" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="Q65" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-    </row>
-    <row r="66" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s">
+      <c r="R65" s="2">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+    </row>
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <v>2</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I66" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="2">
         <f t="shared" ref="J66:M66" si="6">J65+8</f>
         <v>143</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="2">
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="2">
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="2">
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="N66" t="s">
+      <c r="N66" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="O66" t="s">
+      <c r="O66" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="Q66" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-    </row>
-    <row r="67" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s">
+      <c r="R66" s="2">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+    </row>
+    <row r="67" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <v>2</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I67" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="2">
         <f t="shared" ref="J66:J71" si="7">J66+8</f>
         <v>151</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="2">
         <f t="shared" ref="K67:K75" si="8">K66+8</f>
         <v>81</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="2">
         <f t="shared" ref="L67:L71" si="9">L66+8</f>
         <v>91</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="2">
         <f t="shared" ref="M67:M71" si="10">M66+8</f>
         <v>91</v>
       </c>
-      <c r="N67" t="s">
+      <c r="N67" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="O67" t="s">
+      <c r="O67" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="Q67" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-    </row>
-    <row r="68" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s">
+      <c r="R67" s="2">
+        <v>0</v>
+      </c>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <v>2</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I68" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="2">
         <f t="shared" si="7"/>
         <v>159</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="2">
         <f t="shared" si="8"/>
         <v>89</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="2">
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="2">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="N68" t="s">
+      <c r="N68" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="O68" t="s">
+      <c r="O68" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="Q68" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-    </row>
-    <row r="69" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s">
+      <c r="R68" s="2">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+    </row>
+    <row r="69" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <v>2</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I69" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="2">
         <f t="shared" si="7"/>
         <v>167</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="2">
         <f t="shared" si="8"/>
         <v>97</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="2">
         <f t="shared" si="9"/>
         <v>107</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="2">
         <f t="shared" si="10"/>
         <v>107</v>
       </c>
-      <c r="N69" t="s">
+      <c r="N69" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="O69" t="s">
+      <c r="O69" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="Q69" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-    </row>
-    <row r="70" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s">
+      <c r="R69" s="2">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+    </row>
+    <row r="70" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <v>2</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I70" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="2">
         <f t="shared" si="7"/>
         <v>175</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="2">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="2">
         <v>110</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="2">
         <f t="shared" si="10"/>
         <v>115</v>
       </c>
-      <c r="N70" t="s">
+      <c r="N70" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="O70" t="s">
+      <c r="O70" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="Q70" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-    </row>
-    <row r="71" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s">
+      <c r="R70" s="2">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+    </row>
+    <row r="71" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <v>2</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H71" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="I71" s="8" t="s">
+      <c r="I71" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="2">
         <f t="shared" ref="J71:M71" si="11">J70+15</f>
         <v>190</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="2">
         <f t="shared" ref="K71:K80" si="12">K70+5</f>
         <v>110</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="2">
         <f t="shared" ref="L71:L80" si="13">L70+5</f>
         <v>115</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="2">
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
-      <c r="N71" t="s">
+      <c r="N71" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="O71" t="s">
+      <c r="O71" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="Q71" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-    </row>
-    <row r="72" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s">
+      <c r="R71" s="2">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+    </row>
+    <row r="72" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <v>2</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="I72" s="9" t="s">
+      <c r="I72" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="2">
         <f t="shared" ref="J72:J80" si="14">J71+15</f>
         <v>205</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="2">
         <f t="shared" si="12"/>
         <v>115</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="2">
         <f t="shared" si="13"/>
         <v>120</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="2">
         <f t="shared" ref="M71:M80" si="15">M71+15</f>
         <v>145</v>
       </c>
-      <c r="N72" t="s">
+      <c r="N72" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="O72" t="s">
+      <c r="O72" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="Q72" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-    </row>
-    <row r="73" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s">
+      <c r="R72" s="2">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+    </row>
+    <row r="73" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
         <v>2</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G73" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="I73" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="2">
         <f t="shared" si="14"/>
         <v>220</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="2">
         <f t="shared" si="12"/>
         <v>120</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="2">
         <f t="shared" si="13"/>
         <v>125</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="2">
         <f t="shared" si="15"/>
         <v>160</v>
       </c>
-      <c r="N73" t="s">
+      <c r="N73" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="O73" t="s">
+      <c r="O73" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="Q73" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-    </row>
-    <row r="74" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s">
+      <c r="R73" s="2">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+    </row>
+    <row r="74" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2">
         <v>2</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G74" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="I74" s="9" t="s">
+      <c r="I74" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="2">
         <f t="shared" si="14"/>
         <v>235</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="2">
         <f t="shared" si="12"/>
         <v>125</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="2">
         <f t="shared" si="13"/>
         <v>130</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="2">
         <f t="shared" si="15"/>
         <v>175</v>
       </c>
-      <c r="N74" t="s">
+      <c r="N74" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="O74" t="s">
+      <c r="O74" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="Q74" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-    </row>
-    <row r="75" customFormat="1" ht="24" customHeight="1" spans="1:20">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s">
+      <c r="R74" s="2">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+    </row>
+    <row r="75" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <v>2</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H75" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="I75" s="9" t="s">
+      <c r="I75" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="2">
         <f t="shared" si="14"/>
         <v>250</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="2">
         <f t="shared" si="12"/>
         <v>130</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="2">
         <f t="shared" si="13"/>
         <v>135</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="2">
         <f t="shared" si="15"/>
         <v>190</v>
       </c>
-      <c r="N75" t="s">
+      <c r="N75" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="O75" s="7" t="s">
+      <c r="O75" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="Q75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-    </row>
-    <row r="76" customFormat="1" ht="24" customHeight="1" spans="1:18">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s">
+      <c r="R75" s="2">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+    </row>
+    <row r="76" s="2" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <v>3</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="I76" s="9" t="s">
+      <c r="I76" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="2">
         <f t="shared" si="14"/>
         <v>265</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="2">
         <f t="shared" si="12"/>
         <v>135</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="2">
         <f t="shared" si="13"/>
         <v>140</v>
       </c>
-      <c r="M76">
-        <f>M75+15</f>
+      <c r="M76" s="2">
+        <f t="shared" si="15"/>
         <v>205</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="2">
         <v>22938500000</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="2">
         <v>22938500000</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="Q76" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" ht="24" customHeight="1" spans="1:18">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s">
+      <c r="R76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" s="2" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="2">
         <v>3</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H77" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="I77" s="9" t="s">
+      <c r="I77" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="2">
         <f t="shared" si="14"/>
         <v>280</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="2">
         <f t="shared" si="12"/>
         <v>140</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="2">
         <f t="shared" si="13"/>
         <v>145</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="2">
         <f t="shared" si="15"/>
         <v>220</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="2">
         <v>23938500000</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="2">
         <v>23938500000</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="Q77" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" ht="24" customHeight="1" spans="1:18">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s">
+      <c r="R77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="2">
         <v>3</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="I78" s="9" t="s">
+      <c r="I78" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="2">
         <f t="shared" si="14"/>
         <v>295</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="2">
         <f t="shared" si="12"/>
         <v>145</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="2">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="2">
         <f t="shared" si="15"/>
         <v>235</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="2">
         <v>24938500000</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="2">
         <v>24938500000</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="Q78" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" ht="24" customHeight="1" spans="1:18">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s">
+      <c r="R78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
         <v>3</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H79" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="I79" s="9" t="s">
+      <c r="I79" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="2">
         <f t="shared" si="14"/>
         <v>310</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="2">
         <f t="shared" si="12"/>
         <v>150</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="2">
         <f t="shared" si="13"/>
         <v>155</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="2">
         <f t="shared" si="15"/>
         <v>250</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="2">
         <v>25938500000</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="2">
         <v>25938500000</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="Q79" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" ht="24" customHeight="1" spans="1:18">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s">
+      <c r="R79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" s="2" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2">
         <v>3</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I80" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="2">
         <f t="shared" si="14"/>
         <v>325</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="2">
         <f t="shared" si="12"/>
         <v>155</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="2">
         <f t="shared" si="13"/>
         <v>160</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="2">
         <f t="shared" si="15"/>
         <v>265</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="2">
         <v>26938500000</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="2">
         <v>26938500000</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="Q80" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="7:7">
-      <c r="G81"/>
+      <c r="R80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="7:7">
+      <c r="G81" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -6857,189 +6825,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
-  <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" ht="24" customHeight="1" spans="1:15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 F3:H4" errorStyle="warning">
-      <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="585">
   <si>
     <t>ID</t>
   </si>
@@ -1754,6 +1754,90 @@
   </si>
   <si>
     <t>225000000000000000000</t>
+  </si>
+  <si>
+    <t>10075</t>
+  </si>
+  <si>
+    <t>1075</t>
+  </si>
+  <si>
+    <t>噩梦雪王</t>
+  </si>
+  <si>
+    <t>11000000000000000</t>
+  </si>
+  <si>
+    <t>337000000000000</t>
+  </si>
+  <si>
+    <t>382000000000000000000</t>
+  </si>
+  <si>
+    <t>10076</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>噩梦蝠王</t>
+  </si>
+  <si>
+    <t>18700000000000000</t>
+  </si>
+  <si>
+    <t>573000000000000</t>
+  </si>
+  <si>
+    <t>726000000000000000000</t>
+  </si>
+  <si>
+    <t>10077</t>
+  </si>
+  <si>
+    <t>1077</t>
+  </si>
+  <si>
+    <t>噩梦骷髅王</t>
+  </si>
+  <si>
+    <t>28100000000000000</t>
+  </si>
+  <si>
+    <t>1000000000000000000000</t>
+  </si>
+  <si>
+    <t>10078</t>
+  </si>
+  <si>
+    <t>1078</t>
+  </si>
+  <si>
+    <t>噩梦尸王</t>
+  </si>
+  <si>
+    <t>47700000000000000</t>
+  </si>
+  <si>
+    <t>1700000000000000</t>
+  </si>
+  <si>
+    <t>1700000000000000000000</t>
+  </si>
+  <si>
+    <t>10079</t>
+  </si>
+  <si>
+    <t>1079</t>
+  </si>
+  <si>
+    <t>噩梦蛇王</t>
+  </si>
+  <si>
+    <t>2550000000000000</t>
+  </si>
+  <si>
+    <t>3200000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -2398,9 +2482,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2731,246 +2814,246 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="3" customWidth="1"/>
-    <col min="11" max="13" width="12.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="16.375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
+    <col min="11" max="13" width="12.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13" style="2" customWidth="1"/>
     <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="13.375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="3"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:18">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:18">
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>10</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -2979,7 +3062,6 @@
       <c r="O6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
         <v>35</v>
       </c>
@@ -2994,7 +3076,7 @@
       <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -3009,16 +3091,16 @@
       <c r="I7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -3027,14 +3109,13 @@
       <c r="O7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="2"/>
       <c r="Q7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="R7" s="1">
         <v>-1</v>
       </c>
-      <c r="S7" s="2"/>
+      <c r="S7" s="1"/>
     </row>
     <row r="8" customHeight="1" spans="3:19">
       <c r="C8" s="1" t="s">
@@ -3043,7 +3124,7 @@
       <c r="D8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -3058,16 +3139,16 @@
       <c r="I8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -3076,14 +3157,13 @@
       <c r="O8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="2"/>
       <c r="Q8" s="1" t="s">
         <v>49</v>
       </c>
       <c r="R8" s="1">
         <v>-1</v>
       </c>
-      <c r="S8" s="2"/>
+      <c r="S8" s="1"/>
     </row>
     <row r="9" customHeight="1" spans="3:19">
       <c r="C9" s="1" t="s">
@@ -3092,7 +3172,7 @@
       <c r="D9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -3107,16 +3187,16 @@
       <c r="I9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -3125,14 +3205,13 @@
       <c r="O9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="2"/>
       <c r="Q9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2"/>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1"/>
     </row>
     <row r="10" customHeight="1" spans="3:19">
       <c r="C10" s="1" t="s">
@@ -3141,7 +3220,7 @@
       <c r="D10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -3156,16 +3235,16 @@
       <c r="I10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -3174,14 +3253,13 @@
       <c r="O10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="2"/>
       <c r="Q10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2"/>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1"/>
     </row>
     <row r="11" customHeight="1" spans="3:19">
       <c r="C11" s="1" t="s">
@@ -3190,7 +3268,7 @@
       <c r="D11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -3205,16 +3283,16 @@
       <c r="I11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -3223,14 +3301,13 @@
       <c r="O11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="2"/>
       <c r="Q11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2"/>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1"/>
     </row>
     <row r="12" customHeight="1" spans="3:19">
       <c r="C12" s="1" t="s">
@@ -3239,7 +3316,7 @@
       <c r="D12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -3254,16 +3331,16 @@
       <c r="I12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -3272,14 +3349,13 @@
       <c r="O12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="2"/>
       <c r="Q12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2"/>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1"/>
     </row>
     <row r="13" customHeight="1" spans="3:19">
       <c r="C13" s="1" t="s">
@@ -3288,7 +3364,7 @@
       <c r="D13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -3303,16 +3379,16 @@
       <c r="I13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -3321,14 +3397,13 @@
       <c r="O13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="2"/>
       <c r="Q13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2"/>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1"/>
     </row>
     <row r="14" customHeight="1" spans="3:19">
       <c r="C14" s="1" t="s">
@@ -3337,7 +3412,7 @@
       <c r="D14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -3352,16 +3427,16 @@
       <c r="I14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -3370,14 +3445,13 @@
       <c r="O14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="2"/>
       <c r="Q14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="R14" s="2">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2"/>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1"/>
     </row>
     <row r="15" customHeight="1" spans="3:19">
       <c r="C15" s="1" t="s">
@@ -3386,7 +3460,7 @@
       <c r="D15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -3401,16 +3475,16 @@
       <c r="I15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -3419,14 +3493,13 @@
       <c r="O15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P15" s="2"/>
       <c r="Q15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2"/>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1"/>
     </row>
     <row r="16" customHeight="1" spans="3:19">
       <c r="C16" s="1" t="s">
@@ -3435,7 +3508,7 @@
       <c r="D16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -3450,16 +3523,16 @@
       <c r="I16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -3468,14 +3541,13 @@
       <c r="O16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P16" s="2"/>
       <c r="Q16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="R16" s="2">
-        <v>0</v>
-      </c>
-      <c r="S16" s="2"/>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1"/>
     </row>
     <row r="17" customHeight="1" spans="3:19">
       <c r="C17" s="1" t="s">
@@ -3484,7 +3556,7 @@
       <c r="D17" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -3499,16 +3571,16 @@
       <c r="I17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
@@ -3517,14 +3589,13 @@
       <c r="O17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="P17" s="2"/>
       <c r="Q17" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="R17" s="2">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2"/>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1"/>
     </row>
     <row r="18" customHeight="1" spans="3:19">
       <c r="C18" s="1" t="s">
@@ -3533,7 +3604,7 @@
       <c r="D18" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -3548,16 +3619,16 @@
       <c r="I18" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -3566,14 +3637,13 @@
       <c r="O18" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="2"/>
       <c r="Q18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="R18" s="2">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2"/>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1"/>
     </row>
     <row r="19" customHeight="1" spans="3:19">
       <c r="C19" s="1" t="s">
@@ -3582,7 +3652,7 @@
       <c r="D19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -3597,16 +3667,16 @@
       <c r="I19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
         <v>0</v>
       </c>
       <c r="N19" s="1" t="s">
@@ -3615,14 +3685,13 @@
       <c r="O19" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P19" s="2"/>
       <c r="Q19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="R19" s="2">
-        <v>0</v>
-      </c>
-      <c r="S19" s="2"/>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1"/>
     </row>
     <row r="20" customHeight="1" spans="3:19">
       <c r="C20" s="1" t="s">
@@ -3631,7 +3700,7 @@
       <c r="D20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -3646,16 +3715,16 @@
       <c r="I20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
         <v>0</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -3664,14 +3733,13 @@
       <c r="O20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="2"/>
       <c r="Q20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2"/>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1"/>
     </row>
     <row r="21" customHeight="1" spans="3:19">
       <c r="C21" s="1" t="s">
@@ -3680,7 +3748,7 @@
       <c r="D21" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -3695,17 +3763,17 @@
       <c r="I21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <f t="shared" ref="J21:J40" si="0">(D21-1014)*1</f>
         <v>1</v>
       </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
         <v>0</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -3714,14 +3782,13 @@
       <c r="O21" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="2"/>
       <c r="Q21" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2"/>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1"/>
     </row>
     <row r="22" customHeight="1" spans="3:19">
       <c r="C22" s="1" t="s">
@@ -3730,7 +3797,7 @@
       <c r="D22" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -3745,17 +3812,17 @@
       <c r="I22" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
         <v>0</v>
       </c>
       <c r="N22" s="1" t="s">
@@ -3764,14 +3831,13 @@
       <c r="O22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="2"/>
       <c r="Q22" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R22" s="2">
-        <v>0</v>
-      </c>
-      <c r="S22" s="2"/>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1"/>
     </row>
     <row r="23" customHeight="1" spans="3:19">
       <c r="C23" s="1" t="s">
@@ -3780,7 +3846,7 @@
       <c r="D23" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -3795,17 +3861,17 @@
       <c r="I23" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
         <v>0</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -3814,14 +3880,13 @@
       <c r="O23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="P23" s="2"/>
       <c r="Q23" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R23" s="2">
-        <v>0</v>
-      </c>
-      <c r="S23" s="2"/>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1"/>
     </row>
     <row r="24" customHeight="1" spans="3:19">
       <c r="C24" s="1" t="s">
@@ -3830,7 +3895,7 @@
       <c r="D24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -3845,17 +3910,17 @@
       <c r="I24" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
         <v>0</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -3864,14 +3929,13 @@
       <c r="O24" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="P24" s="2"/>
       <c r="Q24" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R24" s="2">
-        <v>0</v>
-      </c>
-      <c r="S24" s="2"/>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1"/>
     </row>
     <row r="25" customHeight="1" spans="3:19">
       <c r="C25" s="1" t="s">
@@ -3880,7 +3944,7 @@
       <c r="D25" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -3895,17 +3959,17 @@
       <c r="I25" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K25" s="2">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
         <v>0</v>
       </c>
       <c r="N25" s="1" t="s">
@@ -3914,14 +3978,13 @@
       <c r="O25" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="2"/>
       <c r="Q25" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R25" s="2">
-        <v>0</v>
-      </c>
-      <c r="S25" s="2"/>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1"/>
     </row>
     <row r="26" customHeight="1" spans="3:19">
       <c r="C26" s="1" t="s">
@@ -3930,7 +3993,7 @@
       <c r="D26" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -3945,17 +4008,17 @@
       <c r="I26" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
         <v>0</v>
       </c>
       <c r="N26" s="1" t="s">
@@ -3964,14 +4027,13 @@
       <c r="O26" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="P26" s="2"/>
       <c r="Q26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R26" s="2">
-        <v>0</v>
-      </c>
-      <c r="S26" s="2"/>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1"/>
     </row>
     <row r="27" customHeight="1" spans="3:19">
       <c r="C27" s="1" t="s">
@@ -3980,7 +4042,7 @@
       <c r="D27" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -3995,17 +4057,17 @@
       <c r="I27" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
         <v>0</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -4014,14 +4076,13 @@
       <c r="O27" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="P27" s="2"/>
       <c r="Q27" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R27" s="2">
-        <v>0</v>
-      </c>
-      <c r="S27" s="2"/>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1"/>
     </row>
     <row r="28" customHeight="1" spans="3:19">
       <c r="C28" s="1" t="s">
@@ -4030,7 +4091,7 @@
       <c r="D28" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -4045,17 +4106,17 @@
       <c r="I28" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
         <v>0</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -4064,14 +4125,13 @@
       <c r="O28" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="P28" s="2"/>
       <c r="Q28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R28" s="2">
-        <v>0</v>
-      </c>
-      <c r="S28" s="2"/>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1"/>
     </row>
     <row r="29" customHeight="1" spans="3:19">
       <c r="C29" s="1" t="s">
@@ -4080,7 +4140,7 @@
       <c r="D29" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -4095,17 +4155,17 @@
       <c r="I29" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
         <v>0</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -4114,14 +4174,13 @@
       <c r="O29" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="P29" s="2"/>
       <c r="Q29" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R29" s="2">
-        <v>0</v>
-      </c>
-      <c r="S29" s="2"/>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1"/>
     </row>
     <row r="30" customHeight="1" spans="3:19">
       <c r="C30" s="1" t="s">
@@ -4130,7 +4189,7 @@
       <c r="D30" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -4145,17 +4204,17 @@
       <c r="I30" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
         <v>0</v>
       </c>
       <c r="N30" s="1" t="s">
@@ -4164,14 +4223,13 @@
       <c r="O30" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="P30" s="2"/>
       <c r="Q30" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R30" s="2">
-        <v>0</v>
-      </c>
-      <c r="S30" s="2"/>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1"/>
     </row>
     <row r="31" customHeight="1" spans="3:19">
       <c r="C31" s="1" t="s">
@@ -4180,7 +4238,7 @@
       <c r="D31" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -4195,17 +4253,17 @@
       <c r="I31" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
         <v>0</v>
       </c>
       <c r="N31" s="1" t="s">
@@ -4214,14 +4272,13 @@
       <c r="O31" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="P31" s="2"/>
       <c r="Q31" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R31" s="2">
-        <v>0</v>
-      </c>
-      <c r="S31" s="2"/>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1"/>
     </row>
     <row r="32" customHeight="1" spans="3:19">
       <c r="C32" s="1" t="s">
@@ -4230,7 +4287,7 @@
       <c r="D32" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -4245,17 +4302,17 @@
       <c r="I32" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
         <v>0</v>
       </c>
       <c r="N32" s="1" t="s">
@@ -4264,14 +4321,13 @@
       <c r="O32" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="P32" s="2"/>
       <c r="Q32" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R32" s="2">
-        <v>0</v>
-      </c>
-      <c r="S32" s="2"/>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1"/>
     </row>
     <row r="33" customHeight="1" spans="3:19">
       <c r="C33" s="1" t="s">
@@ -4280,7 +4336,7 @@
       <c r="D33" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -4295,17 +4351,17 @@
       <c r="I33" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="K33" s="2">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0</v>
-      </c>
-      <c r="M33" s="2">
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
         <v>0</v>
       </c>
       <c r="N33" s="1" t="s">
@@ -4314,14 +4370,13 @@
       <c r="O33" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="P33" s="2"/>
       <c r="Q33" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R33" s="2">
-        <v>0</v>
-      </c>
-      <c r="S33" s="2"/>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1"/>
     </row>
     <row r="34" customHeight="1" spans="3:19">
       <c r="C34" s="1" t="s">
@@ -4330,7 +4385,7 @@
       <c r="D34" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -4345,17 +4400,17 @@
       <c r="I34" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="K34" s="2">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0</v>
-      </c>
-      <c r="M34" s="2">
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
         <v>0</v>
       </c>
       <c r="N34" s="1" t="s">
@@ -4364,14 +4419,13 @@
       <c r="O34" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="P34" s="2"/>
       <c r="Q34" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R34" s="2">
-        <v>0</v>
-      </c>
-      <c r="S34" s="2"/>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1"/>
     </row>
     <row r="35" customHeight="1" spans="3:19">
       <c r="C35" s="1" t="s">
@@ -4380,7 +4434,7 @@
       <c r="D35" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -4395,17 +4449,17 @@
       <c r="I35" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2">
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
         <v>0</v>
       </c>
       <c r="N35" s="1" t="s">
@@ -4414,14 +4468,13 @@
       <c r="O35" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="P35" s="2"/>
       <c r="Q35" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R35" s="2">
-        <v>0</v>
-      </c>
-      <c r="S35" s="2"/>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1"/>
     </row>
     <row r="36" customHeight="1" spans="3:19">
       <c r="C36" s="1" t="s">
@@ -4430,7 +4483,7 @@
       <c r="D36" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -4445,17 +4498,17 @@
       <c r="I36" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K36" s="2">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0</v>
-      </c>
-      <c r="M36" s="2">
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
         <v>0</v>
       </c>
       <c r="N36" s="1" t="s">
@@ -4464,14 +4517,13 @@
       <c r="O36" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="P36" s="2"/>
       <c r="Q36" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R36" s="2">
-        <v>0</v>
-      </c>
-      <c r="S36" s="2"/>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1"/>
     </row>
     <row r="37" customHeight="1" spans="3:19">
       <c r="C37" s="1" t="s">
@@ -4480,7 +4532,7 @@
       <c r="D37" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -4495,17 +4547,17 @@
       <c r="I37" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0</v>
-      </c>
-      <c r="M37" s="2">
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
         <v>0</v>
       </c>
       <c r="N37" s="1" t="s">
@@ -4514,14 +4566,13 @@
       <c r="O37" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="P37" s="2"/>
       <c r="Q37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R37" s="2">
-        <v>0</v>
-      </c>
-      <c r="S37" s="2"/>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1"/>
     </row>
     <row r="38" customHeight="1" spans="3:19">
       <c r="C38" s="1" t="s">
@@ -4530,7 +4581,7 @@
       <c r="D38" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -4545,17 +4596,17 @@
       <c r="I38" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
         <v>0</v>
       </c>
       <c r="N38" s="1" t="s">
@@ -4564,14 +4615,13 @@
       <c r="O38" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="P38" s="2"/>
       <c r="Q38" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R38" s="2">
-        <v>0</v>
-      </c>
-      <c r="S38" s="2"/>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1"/>
     </row>
     <row r="39" customHeight="1" spans="3:19">
       <c r="C39" s="1" t="s">
@@ -4580,7 +4630,7 @@
       <c r="D39" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -4595,17 +4645,17 @@
       <c r="I39" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2">
-        <v>0</v>
-      </c>
-      <c r="M39" s="2">
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
         <v>0</v>
       </c>
       <c r="N39" s="1" t="s">
@@ -4614,14 +4664,13 @@
       <c r="O39" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="P39" s="2"/>
       <c r="Q39" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R39" s="2">
-        <v>0</v>
-      </c>
-      <c r="S39" s="2"/>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1"/>
     </row>
     <row r="40" customHeight="1" spans="3:19">
       <c r="C40" s="1" t="s">
@@ -4630,13 +4679,13 @@
       <c r="D40" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="7" t="s">
         <v>278</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -4645,17 +4694,17 @@
       <c r="I40" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K40" s="2">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
         <v>0</v>
       </c>
       <c r="N40" s="1" t="s">
@@ -4664,25 +4713,24 @@
       <c r="O40" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="P40" s="2"/>
       <c r="Q40" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R40" s="2">
-        <v>0</v>
-      </c>
-      <c r="S40" s="2"/>
-    </row>
-    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="1" t="s">
         <v>282</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -4697,17 +4745,17 @@
       <c r="I41" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <f>(D41-1034)*5+20</f>
         <v>25</v>
       </c>
-      <c r="K41" s="2">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2">
-        <v>0</v>
-      </c>
-      <c r="M41" s="2">
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
         <v>0</v>
       </c>
       <c r="N41" s="1" t="s">
@@ -4719,20 +4767,20 @@
       <c r="Q41" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="1" t="s">
         <v>289</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -4747,17 +4795,17 @@
       <c r="I42" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <f t="shared" ref="J41:J50" si="1">(D42-1034)*4+20</f>
         <v>28</v>
       </c>
-      <c r="K42" s="2">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0</v>
-      </c>
-      <c r="M42" s="2">
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
         <v>0</v>
       </c>
       <c r="N42" s="1" t="s">
@@ -4769,20 +4817,20 @@
       <c r="Q42" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="1" t="s">
         <v>296</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>2</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -4797,17 +4845,17 @@
       <c r="I43" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="1">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
         <v>0</v>
       </c>
       <c r="N43" s="1" t="s">
@@ -4819,20 +4867,20 @@
       <c r="Q43" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -4847,17 +4895,17 @@
       <c r="I44" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
         <v>0</v>
       </c>
       <c r="N44" s="1" t="s">
@@ -4869,20 +4917,20 @@
       <c r="Q44" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="R44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="1" t="s">
         <v>310</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>2</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -4897,17 +4945,17 @@
       <c r="I45" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
         <v>0</v>
       </c>
       <c r="N45" s="1" t="s">
@@ -4919,20 +4967,20 @@
       <c r="Q45" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="R45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="1" t="s">
         <v>317</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -4947,17 +4995,17 @@
       <c r="I46" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
         <v>0</v>
       </c>
       <c r="N46" s="1" t="s">
@@ -4969,22 +5017,22 @@
       <c r="Q46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R46" s="2">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-    </row>
-    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="1" t="s">
         <v>324</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>2</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -4999,17 +5047,17 @@
       <c r="I47" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="1">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
         <v>0</v>
       </c>
       <c r="N47" s="1" t="s">
@@ -5021,22 +5069,22 @@
       <c r="Q47" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R47" s="2">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-    </row>
-    <row r="48" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="1" t="s">
         <v>331</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>2</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -5051,17 +5099,17 @@
       <c r="I48" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="1">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2">
-        <v>0</v>
-      </c>
-      <c r="M48" s="2">
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
         <v>0</v>
       </c>
       <c r="N48" s="1" t="s">
@@ -5073,22 +5121,22 @@
       <c r="Q48" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R48" s="2">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-    </row>
-    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="R48" s="1">
+        <v>0</v>
+      </c>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>2</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -5103,17 +5151,17 @@
       <c r="I49" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="1">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2">
-        <v>0</v>
-      </c>
-      <c r="M49" s="2">
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
         <v>0</v>
       </c>
       <c r="N49" s="1" t="s">
@@ -5125,22 +5173,22 @@
       <c r="Q49" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R49" s="2">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-    </row>
-    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="R49" s="1">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="1" t="s">
         <v>345</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>2</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -5155,17 +5203,17 @@
       <c r="I50" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
         <v>0</v>
       </c>
       <c r="N50" s="1" t="s">
@@ -5177,22 +5225,22 @@
       <c r="Q50" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R50" s="2">
-        <v>0</v>
-      </c>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-    </row>
-    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="R50" s="1">
+        <v>0</v>
+      </c>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="1" t="s">
         <v>352</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>2</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -5207,17 +5255,17 @@
       <c r="I51" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="1">
         <v>65</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="1">
         <v>3</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="1">
         <f t="shared" ref="L51:L65" si="2">(D51-1044)*5</f>
         <v>5</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="1">
         <f t="shared" ref="M51:M65" si="3">(D51-1044)*5</f>
         <v>5</v>
       </c>
@@ -5230,22 +5278,22 @@
       <c r="Q51" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R51" s="2">
-        <v>0</v>
-      </c>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-    </row>
-    <row r="52" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="R51" s="1">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="1" t="s">
         <v>359</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>2</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -5260,17 +5308,17 @@
       <c r="I52" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="1">
         <v>70</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="1">
         <v>6</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -5283,22 +5331,22 @@
       <c r="Q52" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R52" s="2">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-    </row>
-    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+      <c r="R52" s="1">
+        <v>0</v>
+      </c>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="1" t="s">
         <v>366</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>2</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -5313,17 +5361,17 @@
       <c r="I53" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="1">
         <v>75</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="1">
         <v>9</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -5336,22 +5384,22 @@
       <c r="Q53" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R53" s="2">
-        <v>0</v>
-      </c>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-    </row>
-    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="R53" s="1">
+        <v>0</v>
+      </c>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="1" t="s">
         <v>373</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>2</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -5366,17 +5414,17 @@
       <c r="I54" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="1">
         <v>80</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="1">
         <v>12</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="1">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -5389,22 +5437,22 @@
       <c r="Q54" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R54" s="2">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-    </row>
-    <row r="55" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="R54" s="1">
+        <v>0</v>
+      </c>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="1" t="s">
         <v>380</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>2</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -5419,17 +5467,17 @@
       <c r="I55" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="1">
         <v>85</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="1">
         <v>15</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="1">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="1">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -5442,22 +5490,22 @@
       <c r="Q55" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R55" s="2">
-        <v>0</v>
-      </c>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-    </row>
-    <row r="56" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="R55" s="1">
+        <v>0</v>
+      </c>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
       <c r="C56" s="1" t="s">
         <v>387</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>2</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -5472,19 +5520,19 @@
       <c r="I56" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="1">
         <f t="shared" ref="J56:J65" si="4">(D56-1049)*5+85</f>
         <v>90</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="1">
         <f t="shared" ref="K56:K65" si="5">(D56-1049)*5+15</f>
         <v>20</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L56" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56" s="1">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -5497,22 +5545,22 @@
       <c r="Q56" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R56" s="2">
-        <v>0</v>
-      </c>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-    </row>
-    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="R56" s="1">
+        <v>0</v>
+      </c>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
       <c r="C57" s="1" t="s">
         <v>394</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>2</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -5527,19 +5575,19 @@
       <c r="I57" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="1">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="1">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L57" s="1">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M57" s="1">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -5552,22 +5600,22 @@
       <c r="Q57" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R57" s="2">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-    </row>
-    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="R57" s="1">
+        <v>0</v>
+      </c>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="1" t="s">
         <v>401</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>2</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -5582,19 +5630,19 @@
       <c r="I58" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="1">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="1">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L58" s="1">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="M58" s="2">
+      <c r="M58" s="1">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
@@ -5607,22 +5655,22 @@
       <c r="Q58" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R58" s="2">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-    </row>
-    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="R58" s="1">
+        <v>0</v>
+      </c>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="1" t="s">
         <v>408</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>2</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -5637,19 +5685,19 @@
       <c r="I59" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="1">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="1">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L59" s="1">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="M59" s="2">
+      <c r="M59" s="1">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
@@ -5662,22 +5710,22 @@
       <c r="Q59" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R59" s="2">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-    </row>
-    <row r="60" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="R59" s="1">
+        <v>0</v>
+      </c>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
       <c r="C60" s="1" t="s">
         <v>415</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>2</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -5692,19 +5740,19 @@
       <c r="I60" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="1">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="1">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L60" s="1">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M60" s="1">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
@@ -5717,22 +5765,22 @@
       <c r="Q60" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R60" s="2">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-    </row>
-    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="R60" s="1">
+        <v>0</v>
+      </c>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
       <c r="C61" s="1" t="s">
         <v>422</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>2</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -5747,19 +5795,19 @@
       <c r="I61" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="1">
         <f t="shared" si="4"/>
         <v>115</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="1">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L61" s="1">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M61" s="1">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
@@ -5772,22 +5820,22 @@
       <c r="Q61" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R61" s="2">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-    </row>
-    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="R61" s="1">
+        <v>0</v>
+      </c>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
       <c r="C62" s="1" t="s">
         <v>429</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>2</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -5802,19 +5850,19 @@
       <c r="I62" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="1">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="1">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="L62" s="2">
+      <c r="L62" s="1">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M62" s="1">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
@@ -5827,22 +5875,22 @@
       <c r="Q62" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R62" s="2">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-    </row>
-    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+      <c r="R62" s="1">
+        <v>0</v>
+      </c>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
       <c r="C63" s="1" t="s">
         <v>436</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>2</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -5857,19 +5905,19 @@
       <c r="I63" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="1">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="1">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L63" s="1">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M63" s="1">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
@@ -5882,22 +5930,22 @@
       <c r="Q63" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R63" s="2">
-        <v>0</v>
-      </c>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-    </row>
-    <row r="64" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="R63" s="1">
+        <v>0</v>
+      </c>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
       <c r="C64" s="1" t="s">
         <v>443</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>2</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -5912,19 +5960,19 @@
       <c r="I64" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="1">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="1">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L64" s="1">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M64" s="1">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
@@ -5937,22 +5985,22 @@
       <c r="Q64" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R64" s="2">
-        <v>0</v>
-      </c>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-    </row>
-    <row r="65" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="R64" s="1">
+        <v>0</v>
+      </c>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
       <c r="C65" s="1" t="s">
         <v>450</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>2</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -5964,22 +6012,22 @@
       <c r="H65" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I65" s="8" t="s">
+      <c r="I65" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="1">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="1">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="L65" s="2">
+      <c r="L65" s="1">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="M65" s="2">
+      <c r="M65" s="1">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
@@ -5992,22 +6040,22 @@
       <c r="Q65" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R65" s="2">
-        <v>0</v>
-      </c>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-    </row>
-    <row r="66" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+      <c r="R65" s="1">
+        <v>0</v>
+      </c>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
       <c r="C66" s="1" t="s">
         <v>457</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>2</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -6019,22 +6067,22 @@
       <c r="H66" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I66" s="8" t="s">
+      <c r="I66" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="1">
         <f t="shared" ref="J66:M66" si="6">J65+8</f>
         <v>143</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="1">
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L66" s="1">
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66" s="1">
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
@@ -6047,22 +6095,22 @@
       <c r="Q66" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R66" s="2">
-        <v>0</v>
-      </c>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-    </row>
-    <row r="67" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="R66" s="1">
+        <v>0</v>
+      </c>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
       <c r="C67" s="1" t="s">
         <v>464</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>2</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -6074,22 +6122,22 @@
       <c r="H67" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="I67" s="8" t="s">
+      <c r="I67" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="1">
         <f t="shared" ref="J66:J71" si="7">J66+8</f>
         <v>151</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="1">
         <f t="shared" ref="K67:K75" si="8">K66+8</f>
         <v>81</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L67" s="1">
         <f t="shared" ref="L67:L71" si="9">L66+8</f>
         <v>91</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M67" s="1">
         <f t="shared" ref="M67:M71" si="10">M66+8</f>
         <v>91</v>
       </c>
@@ -6102,22 +6150,22 @@
       <c r="Q67" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R67" s="2">
-        <v>0</v>
-      </c>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-    </row>
-    <row r="68" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="R67" s="1">
+        <v>0</v>
+      </c>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
       <c r="C68" s="1" t="s">
         <v>471</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>2</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -6129,22 +6177,22 @@
       <c r="H68" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I68" s="8" t="s">
+      <c r="I68" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="1">
         <f t="shared" si="7"/>
         <v>159</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="1">
         <f t="shared" si="8"/>
         <v>89</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68" s="1">
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68" s="1">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
@@ -6157,22 +6205,22 @@
       <c r="Q68" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R68" s="2">
-        <v>0</v>
-      </c>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-    </row>
-    <row r="69" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="R68" s="1">
+        <v>0</v>
+      </c>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
       <c r="C69" s="1" t="s">
         <v>478</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>2</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -6184,22 +6232,22 @@
       <c r="H69" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I69" s="8" t="s">
+      <c r="I69" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="1">
         <f t="shared" si="7"/>
         <v>167</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="1">
         <f t="shared" si="8"/>
         <v>97</v>
       </c>
-      <c r="L69" s="2">
+      <c r="L69" s="1">
         <f t="shared" si="9"/>
         <v>107</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M69" s="1">
         <f t="shared" si="10"/>
         <v>107</v>
       </c>
@@ -6212,22 +6260,22 @@
       <c r="Q69" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R69" s="2">
-        <v>0</v>
-      </c>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-    </row>
-    <row r="70" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+      <c r="R69" s="1">
+        <v>0</v>
+      </c>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+    </row>
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
       <c r="C70" s="1" t="s">
         <v>485</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>2</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -6239,21 +6287,21 @@
       <c r="H70" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I70" s="8" t="s">
+      <c r="I70" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="1">
         <f t="shared" si="7"/>
         <v>175</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="1">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
-      <c r="L70" s="2">
+      <c r="L70" s="1">
         <v>110</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M70" s="1">
         <f t="shared" si="10"/>
         <v>115</v>
       </c>
@@ -6266,49 +6314,49 @@
       <c r="Q70" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R70" s="2">
-        <v>0</v>
-      </c>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-    </row>
-    <row r="71" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+      <c r="R70" s="1">
+        <v>0</v>
+      </c>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+    </row>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
       <c r="C71" s="1" t="s">
         <v>492</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>2</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="H71" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="I71" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71" s="1">
         <f t="shared" ref="J71:M71" si="11">J70+15</f>
         <v>190</v>
       </c>
-      <c r="K71" s="2">
-        <f t="shared" ref="K71:K80" si="12">K70+5</f>
+      <c r="K71" s="1">
+        <f t="shared" ref="K71:K81" si="12">K70+5</f>
         <v>110</v>
       </c>
-      <c r="L71" s="2">
-        <f t="shared" ref="L71:L80" si="13">L70+5</f>
+      <c r="L71" s="1">
+        <f t="shared" ref="L71:L85" si="13">L70+5</f>
         <v>115</v>
       </c>
-      <c r="M71" s="2">
+      <c r="M71" s="1">
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
@@ -6321,50 +6369,50 @@
       <c r="Q71" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R71" s="2">
-        <v>0</v>
-      </c>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-    </row>
-    <row r="72" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="R71" s="1">
+        <v>0</v>
+      </c>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
       <c r="C72" s="1" t="s">
         <v>499</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>2</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="G72" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="H72" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="I72" s="10" t="s">
+      <c r="I72" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="J72" s="2">
-        <f t="shared" ref="J72:J80" si="14">J71+15</f>
+      <c r="J72" s="1">
+        <f t="shared" ref="J72:J81" si="14">J71+15</f>
         <v>205</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="1">
         <f t="shared" si="12"/>
         <v>115</v>
       </c>
-      <c r="L72" s="2">
+      <c r="L72" s="1">
         <f t="shared" si="13"/>
         <v>120</v>
       </c>
-      <c r="M72" s="2">
-        <f t="shared" ref="M71:M80" si="15">M71+15</f>
+      <c r="M72" s="1">
+        <f t="shared" ref="M71:M85" si="15">M71+15</f>
         <v>145</v>
       </c>
       <c r="N72" s="1" t="s">
@@ -6376,49 +6424,49 @@
       <c r="Q72" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R72" s="2">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-    </row>
-    <row r="73" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="R72" s="1">
+        <v>0</v>
+      </c>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+    </row>
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
       <c r="C73" s="1" t="s">
         <v>506</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>2</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H73" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="I73" s="10" t="s">
+      <c r="I73" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73" s="1">
         <f t="shared" si="14"/>
         <v>220</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="1">
         <f t="shared" si="12"/>
         <v>120</v>
       </c>
-      <c r="L73" s="2">
+      <c r="L73" s="1">
         <f t="shared" si="13"/>
         <v>125</v>
       </c>
-      <c r="M73" s="2">
+      <c r="M73" s="1">
         <f t="shared" si="15"/>
         <v>160</v>
       </c>
@@ -6431,49 +6479,49 @@
       <c r="Q73" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R73" s="2">
-        <v>0</v>
-      </c>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-    </row>
-    <row r="74" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="R73" s="1">
+        <v>0</v>
+      </c>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
       <c r="C74" s="1" t="s">
         <v>513</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="1">
         <v>2</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G74" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="H74" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="I74" s="10" t="s">
+      <c r="I74" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74" s="1">
         <f t="shared" si="14"/>
         <v>235</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="1">
         <f t="shared" si="12"/>
         <v>125</v>
       </c>
-      <c r="L74" s="2">
+      <c r="L74" s="1">
         <f t="shared" si="13"/>
         <v>130</v>
       </c>
-      <c r="M74" s="2">
+      <c r="M74" s="1">
         <f t="shared" si="15"/>
         <v>175</v>
       </c>
@@ -6486,334 +6534,606 @@
       <c r="Q74" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R74" s="2">
-        <v>0</v>
-      </c>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-    </row>
-    <row r="75" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="R74" s="1">
+        <v>0</v>
+      </c>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+    </row>
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
       <c r="C75" s="1" t="s">
         <v>520</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="1">
         <v>2</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G75" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="H75" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="I75" s="10" t="s">
+      <c r="I75" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="1">
         <f t="shared" si="14"/>
         <v>250</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="1">
         <f t="shared" si="12"/>
         <v>130</v>
       </c>
-      <c r="L75" s="2">
+      <c r="L75" s="1">
         <f t="shared" si="13"/>
         <v>135</v>
       </c>
-      <c r="M75" s="2">
+      <c r="M75" s="1">
         <f t="shared" si="15"/>
         <v>190</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="O75" s="8" t="s">
+      <c r="O75" s="7" t="s">
         <v>526</v>
       </c>
       <c r="Q75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R75" s="2">
-        <v>0</v>
-      </c>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-    </row>
-    <row r="76" s="2" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="R75" s="1">
+        <v>0</v>
+      </c>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+    </row>
+    <row r="76" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
       <c r="C76" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="1">
         <v>3</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G76" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="I76" s="10" t="s">
+      <c r="I76" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J76" s="1">
         <f t="shared" si="14"/>
         <v>265</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K76" s="1">
         <f t="shared" si="12"/>
         <v>135</v>
       </c>
-      <c r="L76" s="2">
+      <c r="L76" s="1">
         <f t="shared" si="13"/>
         <v>140</v>
       </c>
-      <c r="M76" s="2">
+      <c r="M76" s="1">
         <f t="shared" si="15"/>
         <v>205</v>
       </c>
-      <c r="N76" s="2">
+      <c r="N76" s="1">
         <v>22938500000</v>
       </c>
-      <c r="O76" s="2">
+      <c r="O76" s="1">
         <v>22938500000</v>
       </c>
       <c r="Q76" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R76" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" s="2" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+      <c r="R76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
       <c r="C77" s="1" t="s">
         <v>533</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="1">
         <v>3</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="G77" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H77" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="I77" s="10" t="s">
+      <c r="I77" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77" s="1">
         <f t="shared" si="14"/>
         <v>280</v>
       </c>
-      <c r="K77" s="2">
+      <c r="K77" s="1">
         <f t="shared" si="12"/>
         <v>140</v>
       </c>
-      <c r="L77" s="2">
+      <c r="L77" s="1">
         <f t="shared" si="13"/>
         <v>145</v>
       </c>
-      <c r="M77" s="2">
+      <c r="M77" s="1">
         <f t="shared" si="15"/>
         <v>220</v>
       </c>
-      <c r="N77" s="2">
+      <c r="N77" s="1">
         <v>23938500000</v>
       </c>
-      <c r="O77" s="2">
+      <c r="O77" s="1">
         <v>23938500000</v>
       </c>
       <c r="Q77" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R77" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" s="2" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="R77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
       <c r="C78" s="1" t="s">
         <v>539</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="1">
         <v>3</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G78" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="H78" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="I78" s="10" t="s">
+      <c r="I78" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="1">
         <f t="shared" si="14"/>
         <v>295</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K78" s="1">
         <f t="shared" si="12"/>
         <v>145</v>
       </c>
-      <c r="L78" s="2">
+      <c r="L78" s="1">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="M78" s="2">
+      <c r="M78" s="1">
         <f t="shared" si="15"/>
         <v>235</v>
       </c>
-      <c r="N78" s="2">
+      <c r="N78" s="1">
         <v>24938500000</v>
       </c>
-      <c r="O78" s="2">
+      <c r="O78" s="1">
         <v>24938500000</v>
       </c>
       <c r="Q78" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R78" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" s="2" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="R78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
       <c r="C79" s="1" t="s">
         <v>545</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="1">
         <v>3</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G79" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="H79" s="8" t="s">
+      <c r="H79" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="I79" s="10" t="s">
+      <c r="I79" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79" s="1">
         <f t="shared" si="14"/>
         <v>310</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K79" s="1">
         <f t="shared" si="12"/>
         <v>150</v>
       </c>
-      <c r="L79" s="2">
+      <c r="L79" s="1">
         <f t="shared" si="13"/>
         <v>155</v>
       </c>
-      <c r="M79" s="2">
+      <c r="M79" s="1">
         <f t="shared" si="15"/>
         <v>250</v>
       </c>
-      <c r="N79" s="2">
+      <c r="N79" s="1">
         <v>25938500000</v>
       </c>
-      <c r="O79" s="2">
+      <c r="O79" s="1">
         <v>25938500000</v>
       </c>
       <c r="Q79" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R79" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" s="2" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="R79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
       <c r="C80" s="1" t="s">
         <v>551</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="1">
         <v>3</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="G80" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="H80" s="8" t="s">
+      <c r="H80" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="I80" s="10" t="s">
+      <c r="I80" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="1">
         <f t="shared" si="14"/>
         <v>325</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="1">
         <f t="shared" si="12"/>
         <v>155</v>
       </c>
-      <c r="L80" s="2">
+      <c r="L80" s="1">
         <f t="shared" si="13"/>
         <v>160</v>
       </c>
-      <c r="M80" s="2">
+      <c r="M80" s="1">
         <f t="shared" si="15"/>
         <v>265</v>
       </c>
-      <c r="N80" s="2">
+      <c r="N80" s="1">
         <v>26938500000</v>
       </c>
-      <c r="O80" s="2">
+      <c r="O80" s="1">
         <v>26938500000</v>
       </c>
       <c r="Q80" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R80" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="7:7">
-      <c r="G81" s="2"/>
+      <c r="R80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E81" s="1">
+        <v>3</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="J81" s="1">
+        <f t="shared" ref="J81:J85" si="16">J80+20</f>
+        <v>345</v>
+      </c>
+      <c r="K81" s="1">
+        <f t="shared" ref="K81:K85" si="17">K80+10</f>
+        <v>165</v>
+      </c>
+      <c r="L81" s="1">
+        <f t="shared" si="13"/>
+        <v>165</v>
+      </c>
+      <c r="M81" s="1">
+        <f t="shared" si="15"/>
+        <v>280</v>
+      </c>
+      <c r="N81" s="1">
+        <v>30000000000</v>
+      </c>
+      <c r="O81" s="1">
+        <v>30000000000</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R81" s="1">
+        <v>0</v>
+      </c>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+    </row>
+    <row r="82" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E82" s="1">
+        <v>3</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="J82" s="1">
+        <f t="shared" si="16"/>
+        <v>365</v>
+      </c>
+      <c r="K82" s="1">
+        <f t="shared" si="17"/>
+        <v>175</v>
+      </c>
+      <c r="L82" s="1">
+        <f t="shared" si="13"/>
+        <v>170</v>
+      </c>
+      <c r="M82" s="1">
+        <f t="shared" si="15"/>
+        <v>295</v>
+      </c>
+      <c r="N82" s="1">
+        <v>32000000000</v>
+      </c>
+      <c r="O82" s="1">
+        <v>32000000000</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R82" s="1">
+        <v>0</v>
+      </c>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+    </row>
+    <row r="83" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E83" s="1">
+        <v>3</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="J83" s="1">
+        <f t="shared" si="16"/>
+        <v>385</v>
+      </c>
+      <c r="K83" s="1">
+        <f t="shared" si="17"/>
+        <v>185</v>
+      </c>
+      <c r="L83" s="1">
+        <f t="shared" si="13"/>
+        <v>175</v>
+      </c>
+      <c r="M83" s="1">
+        <f t="shared" si="15"/>
+        <v>310</v>
+      </c>
+      <c r="N83" s="1">
+        <v>34000000000</v>
+      </c>
+      <c r="O83" s="1">
+        <v>34000000000</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R83" s="1">
+        <v>0</v>
+      </c>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+    </row>
+    <row r="84" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E84" s="1">
+        <v>3</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="J84" s="1">
+        <f t="shared" si="16"/>
+        <v>405</v>
+      </c>
+      <c r="K84" s="1">
+        <f t="shared" si="17"/>
+        <v>195</v>
+      </c>
+      <c r="L84" s="1">
+        <f t="shared" si="13"/>
+        <v>180</v>
+      </c>
+      <c r="M84" s="1">
+        <f t="shared" si="15"/>
+        <v>325</v>
+      </c>
+      <c r="N84" s="1">
+        <v>37000000000</v>
+      </c>
+      <c r="O84" s="1">
+        <v>37000000000</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R84" s="1">
+        <v>0</v>
+      </c>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+    </row>
+    <row r="85" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E85" s="1">
+        <v>3</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="J85" s="1">
+        <f t="shared" si="16"/>
+        <v>425</v>
+      </c>
+      <c r="K85" s="1">
+        <f t="shared" si="17"/>
+        <v>205</v>
+      </c>
+      <c r="L85" s="1">
+        <f t="shared" si="13"/>
+        <v>185</v>
+      </c>
+      <c r="M85" s="1">
+        <f t="shared" si="15"/>
+        <v>340</v>
+      </c>
+      <c r="N85" s="1">
+        <v>40000000000</v>
+      </c>
+      <c r="O85" s="1">
+        <v>40000000000</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R85" s="1">
+        <v>0</v>
+      </c>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="616">
   <si>
     <t>ID</t>
   </si>
@@ -1838,6 +1838,99 @@
   </si>
   <si>
     <t>3200000000000000000000</t>
+  </si>
+  <si>
+    <t>10080</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>噩梦狼王</t>
+  </si>
+  <si>
+    <t>200000000000000000</t>
+  </si>
+  <si>
+    <t>7500000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000000000</t>
+  </si>
+  <si>
+    <t>10081</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>噩梦沙虫王</t>
+  </si>
+  <si>
+    <t>400000000000000000</t>
+  </si>
+  <si>
+    <t>20000000000000000</t>
+  </si>
+  <si>
+    <t>30000000000000000000000</t>
+  </si>
+  <si>
+    <t>10082</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>噩梦鹰王</t>
+  </si>
+  <si>
+    <t>800000000000000000</t>
+  </si>
+  <si>
+    <t>60000000000000000</t>
+  </si>
+  <si>
+    <t>100000000000000000000000</t>
+  </si>
+  <si>
+    <t>10083</t>
+  </si>
+  <si>
+    <t>1083</t>
+  </si>
+  <si>
+    <t>噩梦角虫王</t>
+  </si>
+  <si>
+    <t>1600000000000000000</t>
+  </si>
+  <si>
+    <t>180000000000000000</t>
+  </si>
+  <si>
+    <t>300000000000000000000000</t>
+  </si>
+  <si>
+    <t>10084</t>
+  </si>
+  <si>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>噩梦蜈蚣王</t>
+  </si>
+  <si>
+    <t>3200000000000000000</t>
+  </si>
+  <si>
+    <t>540000000000000000</t>
+  </si>
+  <si>
+    <t>1000000000000000000000000</t>
+  </si>
+  <si>
+    <t>100000000000</t>
   </si>
 </sst>
 </file>
@@ -2814,10 +2907,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T85"/>
+  <dimension ref="A1:T90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+      <selection activeCell="O92" sqref="O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6353,7 +6446,7 @@
         <v>110</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" ref="L71:L85" si="13">L70+5</f>
+        <f t="shared" ref="L71:L90" si="13">L70+5</f>
         <v>115</v>
       </c>
       <c r="M71" s="1">
@@ -6412,7 +6505,7 @@
         <v>120</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" ref="M71:M85" si="15">M71+15</f>
+        <f t="shared" ref="M71:M90" si="15">M71+15</f>
         <v>145</v>
       </c>
       <c r="N72" s="1" t="s">
@@ -6885,11 +6978,11 @@
         <v>562</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" ref="J81:J85" si="16">J80+20</f>
+        <f t="shared" ref="J81:J90" si="16">J80+20</f>
         <v>345</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" ref="K81:K85" si="17">K80+10</f>
+        <f t="shared" ref="K81:K90" si="17">K80+10</f>
         <v>165</v>
       </c>
       <c r="L81" s="1">
@@ -7134,6 +7227,281 @@
       </c>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
+    </row>
+    <row r="86" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E86" s="1">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="J86" s="1">
+        <f t="shared" si="16"/>
+        <v>445</v>
+      </c>
+      <c r="K86" s="1">
+        <f t="shared" si="17"/>
+        <v>215</v>
+      </c>
+      <c r="L86" s="1">
+        <f t="shared" si="13"/>
+        <v>190</v>
+      </c>
+      <c r="M86" s="1">
+        <f t="shared" si="15"/>
+        <v>355</v>
+      </c>
+      <c r="N86" s="1">
+        <v>50000000000</v>
+      </c>
+      <c r="O86" s="1">
+        <v>50000000000</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R86" s="1">
+        <v>0</v>
+      </c>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+    </row>
+    <row r="87" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E87" s="1">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="J87" s="1">
+        <f t="shared" si="16"/>
+        <v>465</v>
+      </c>
+      <c r="K87" s="1">
+        <f t="shared" si="17"/>
+        <v>225</v>
+      </c>
+      <c r="L87" s="1">
+        <f t="shared" si="13"/>
+        <v>195</v>
+      </c>
+      <c r="M87" s="1">
+        <f t="shared" si="15"/>
+        <v>370</v>
+      </c>
+      <c r="N87" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="O87" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R87" s="1">
+        <v>0</v>
+      </c>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+    </row>
+    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E88" s="1">
+        <v>3</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="J88" s="1">
+        <f t="shared" si="16"/>
+        <v>485</v>
+      </c>
+      <c r="K88" s="1">
+        <f t="shared" si="17"/>
+        <v>235</v>
+      </c>
+      <c r="L88" s="1">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+      <c r="M88" s="1">
+        <f t="shared" si="15"/>
+        <v>385</v>
+      </c>
+      <c r="N88" s="1">
+        <v>70000000000</v>
+      </c>
+      <c r="O88" s="1">
+        <v>70000000000</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R88" s="1">
+        <v>0</v>
+      </c>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+    </row>
+    <row r="89" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E89" s="1">
+        <v>3</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="J89" s="1">
+        <f t="shared" si="16"/>
+        <v>505</v>
+      </c>
+      <c r="K89" s="1">
+        <f t="shared" si="17"/>
+        <v>245</v>
+      </c>
+      <c r="L89" s="1">
+        <f t="shared" si="13"/>
+        <v>205</v>
+      </c>
+      <c r="M89" s="1">
+        <f t="shared" si="15"/>
+        <v>400</v>
+      </c>
+      <c r="N89" s="1">
+        <v>80000000000</v>
+      </c>
+      <c r="O89" s="1">
+        <v>80000000000</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R89" s="1">
+        <v>0</v>
+      </c>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+    </row>
+    <row r="90" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E90" s="1">
+        <v>3</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="J90" s="1">
+        <f t="shared" si="16"/>
+        <v>525</v>
+      </c>
+      <c r="K90" s="1">
+        <f t="shared" si="17"/>
+        <v>255</v>
+      </c>
+      <c r="L90" s="1">
+        <f t="shared" si="13"/>
+        <v>210</v>
+      </c>
+      <c r="M90" s="1">
+        <f t="shared" si="15"/>
+        <v>415</v>
+      </c>
+      <c r="N90" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="O90" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R90" s="1">
+        <v>0</v>
+      </c>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="615">
   <si>
     <t>ID</t>
   </si>
@@ -1852,7 +1852,7 @@
     <t>200000000000000000</t>
   </si>
   <si>
-    <t>7500000000000000</t>
+    <t>6000000000000000</t>
   </si>
   <si>
     <t>10000000000000000000000</t>
@@ -1870,7 +1870,7 @@
     <t>400000000000000000</t>
   </si>
   <si>
-    <t>20000000000000000</t>
+    <t>15000000000000000</t>
   </si>
   <si>
     <t>30000000000000000000000</t>
@@ -1888,7 +1888,7 @@
     <t>800000000000000000</t>
   </si>
   <si>
-    <t>60000000000000000</t>
+    <t>40000000000000000</t>
   </si>
   <si>
     <t>100000000000000000000000</t>
@@ -1906,9 +1906,6 @@
     <t>1600000000000000000</t>
   </si>
   <si>
-    <t>180000000000000000</t>
-  </si>
-  <si>
     <t>300000000000000000000000</t>
   </si>
   <si>
@@ -1924,7 +1921,7 @@
     <t>3200000000000000000</t>
   </si>
   <si>
-    <t>540000000000000000</t>
+    <t>250000000000000000</t>
   </si>
   <si>
     <t>1000000000000000000000000</t>
@@ -2909,8 +2906,8 @@
   <sheetPr/>
   <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="O92" sqref="O92"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7412,10 +7409,10 @@
         <v>606</v>
       </c>
       <c r="H89" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I89" s="9" t="s">
         <v>607</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>608</v>
       </c>
       <c r="J89" s="1">
         <f t="shared" si="16"/>
@@ -7452,25 +7449,25 @@
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>610</v>
       </c>
       <c r="E90" s="1">
         <v>3</v>
       </c>
       <c r="F90" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="G90" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="H90" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="I90" s="9" t="s">
         <v>613</v>
-      </c>
-      <c r="I90" s="9" t="s">
-        <v>614</v>
       </c>
       <c r="J90" s="1">
         <f t="shared" si="16"/>
@@ -7489,10 +7486,10 @@
         <v>415</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Q90" s="1" t="s">
         <v>148</v>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="644">
   <si>
     <t>ID</t>
   </si>
@@ -1928,6 +1928,93 @@
   </si>
   <si>
     <t>100000000000</t>
+  </si>
+  <si>
+    <t>10085</t>
+  </si>
+  <si>
+    <t>1085</t>
+  </si>
+  <si>
+    <t>750000000000000000</t>
+  </si>
+  <si>
+    <t>3000000000000000000000000</t>
+  </si>
+  <si>
+    <t>110000000000</t>
+  </si>
+  <si>
+    <t>10086</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>30000000000000000000</t>
+  </si>
+  <si>
+    <t>2150000000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000000000000</t>
+  </si>
+  <si>
+    <t>120000000000</t>
+  </si>
+  <si>
+    <t>10087</t>
+  </si>
+  <si>
+    <t>1087</t>
+  </si>
+  <si>
+    <t>90000000000000000000</t>
+  </si>
+  <si>
+    <t>6000000000000000000</t>
+  </si>
+  <si>
+    <t>30000000000000000000000000</t>
+  </si>
+  <si>
+    <t>130000000000</t>
+  </si>
+  <si>
+    <t>10088</t>
+  </si>
+  <si>
+    <t>1088</t>
+  </si>
+  <si>
+    <t>270000000000000000000</t>
+  </si>
+  <si>
+    <t>18000000000000000000</t>
+  </si>
+  <si>
+    <t>100000000000000000000000000</t>
+  </si>
+  <si>
+    <t>140000000000</t>
+  </si>
+  <si>
+    <t>10089</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>810000000000000000000</t>
+  </si>
+  <si>
+    <t>54000000000000000000</t>
+  </si>
+  <si>
+    <t>300000000000000000000000000</t>
+  </si>
+  <si>
+    <t>150000000000</t>
   </si>
 </sst>
 </file>
@@ -2904,10 +2991,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6443,7 +6530,7 @@
         <v>110</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" ref="L71:L90" si="13">L70+5</f>
+        <f t="shared" ref="L71:L91" si="13">L70+5</f>
         <v>115</v>
       </c>
       <c r="M71" s="1">
@@ -6502,7 +6589,7 @@
         <v>120</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" ref="M71:M90" si="15">M71+15</f>
+        <f t="shared" ref="M71:M95" si="15">M71+15</f>
         <v>145</v>
       </c>
       <c r="N72" s="1" t="s">
@@ -6975,11 +7062,11 @@
         <v>562</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" ref="J81:J90" si="16">J80+20</f>
+        <f t="shared" ref="J81:J91" si="16">J80+20</f>
         <v>345</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" ref="K81:K90" si="17">K80+10</f>
+        <f t="shared" ref="K81:K91" si="17">K80+10</f>
         <v>165</v>
       </c>
       <c r="L81" s="1">
@@ -7499,6 +7586,281 @@
       </c>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
+    </row>
+    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E91" s="1">
+        <v>2</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="J91" s="1">
+        <f t="shared" ref="J91:J95" si="18">J90+25</f>
+        <v>550</v>
+      </c>
+      <c r="K91" s="1">
+        <f t="shared" ref="K91:K95" si="19">K90+15</f>
+        <v>270</v>
+      </c>
+      <c r="L91" s="1">
+        <f t="shared" ref="L91:L95" si="20">L90+10</f>
+        <v>220</v>
+      </c>
+      <c r="M91" s="1">
+        <f t="shared" ref="M91:M95" si="21">M90+20</f>
+        <v>435</v>
+      </c>
+      <c r="N91" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R91" s="1">
+        <v>0</v>
+      </c>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+    </row>
+    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E92" s="1">
+        <v>2</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="J92" s="1">
+        <f t="shared" si="18"/>
+        <v>575</v>
+      </c>
+      <c r="K92" s="1">
+        <f t="shared" si="19"/>
+        <v>285</v>
+      </c>
+      <c r="L92" s="1">
+        <f t="shared" si="20"/>
+        <v>230</v>
+      </c>
+      <c r="M92" s="1">
+        <f t="shared" si="21"/>
+        <v>455</v>
+      </c>
+      <c r="N92" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="O92" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R92" s="1">
+        <v>0</v>
+      </c>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+    </row>
+    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E93" s="1">
+        <v>2</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="J93" s="1">
+        <f t="shared" si="18"/>
+        <v>600</v>
+      </c>
+      <c r="K93" s="1">
+        <f t="shared" si="19"/>
+        <v>300</v>
+      </c>
+      <c r="L93" s="1">
+        <f t="shared" si="20"/>
+        <v>240</v>
+      </c>
+      <c r="M93" s="1">
+        <f t="shared" si="21"/>
+        <v>475</v>
+      </c>
+      <c r="N93" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R93" s="1">
+        <v>0</v>
+      </c>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+    </row>
+    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E94" s="1">
+        <v>2</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="J94" s="1">
+        <f t="shared" si="18"/>
+        <v>625</v>
+      </c>
+      <c r="K94" s="1">
+        <f t="shared" si="19"/>
+        <v>315</v>
+      </c>
+      <c r="L94" s="1">
+        <f t="shared" si="20"/>
+        <v>250</v>
+      </c>
+      <c r="M94" s="1">
+        <f t="shared" si="21"/>
+        <v>495</v>
+      </c>
+      <c r="N94" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="O94" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R94" s="1">
+        <v>0</v>
+      </c>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+    </row>
+    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E95" s="1">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="J95" s="1">
+        <f t="shared" si="18"/>
+        <v>650</v>
+      </c>
+      <c r="K95" s="1">
+        <f t="shared" si="19"/>
+        <v>330</v>
+      </c>
+      <c r="L95" s="1">
+        <f t="shared" si="20"/>
+        <v>260</v>
+      </c>
+      <c r="M95" s="1">
+        <f t="shared" si="21"/>
+        <v>515</v>
+      </c>
+      <c r="N95" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="O95" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R95" s="1">
+        <v>0</v>
+      </c>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -2994,7 +2994,7 @@
   <dimension ref="A1:T95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="N101" sqref="N101"/>
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7597,7 +7597,7 @@
         <v>616</v>
       </c>
       <c r="E91" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>389</v>
@@ -7652,7 +7652,7 @@
         <v>621</v>
       </c>
       <c r="E92" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>396</v>
@@ -7707,7 +7707,7 @@
         <v>627</v>
       </c>
       <c r="E93" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>403</v>
@@ -7762,7 +7762,7 @@
         <v>633</v>
       </c>
       <c r="E94" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>410</v>
@@ -7817,7 +7817,7 @@
         <v>639</v>
       </c>
       <c r="E95" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>417</v>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="649">
   <si>
     <t>ID</t>
   </si>
@@ -1936,6 +1936,9 @@
     <t>1085</t>
   </si>
   <si>
+    <t>噩梦钳虫王</t>
+  </si>
+  <si>
     <t>750000000000000000</t>
   </si>
   <si>
@@ -1951,6 +1954,9 @@
     <t>1086</t>
   </si>
   <si>
+    <t>噩梦触龙神</t>
+  </si>
+  <si>
     <t>30000000000000000000</t>
   </si>
   <si>
@@ -1969,6 +1975,9 @@
     <t>1087</t>
   </si>
   <si>
+    <t>噩梦白野猪</t>
+  </si>
+  <si>
     <t>90000000000000000000</t>
   </si>
   <si>
@@ -1987,6 +1996,9 @@
     <t>1088</t>
   </si>
   <si>
+    <t>噩梦猪王</t>
+  </si>
+  <si>
     <t>270000000000000000000</t>
   </si>
   <si>
@@ -2003,6 +2015,9 @@
   </si>
   <si>
     <t>1089</t>
+  </si>
+  <si>
+    <t>噩梦蝎王</t>
   </si>
   <si>
     <t>810000000000000000000</t>
@@ -2994,7 +3009,7 @@
   <dimension ref="A1:T95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7600,16 +7615,16 @@
         <v>3</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>389</v>
+        <v>617</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>504</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J91" s="1">
         <f t="shared" ref="J91:J95" si="18">J90+25</f>
@@ -7628,10 +7643,10 @@
         <v>435</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Q91" s="1" t="s">
         <v>148</v>
@@ -7646,25 +7661,25 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>396</v>
+        <v>623</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="J92" s="1">
         <f t="shared" si="18"/>
@@ -7683,10 +7698,10 @@
         <v>455</v>
       </c>
       <c r="N92" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="Q92" s="1" t="s">
         <v>148</v>
@@ -7701,25 +7716,25 @@
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E93" s="1">
         <v>3</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>403</v>
+        <v>630</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="J93" s="1">
         <f t="shared" si="18"/>
@@ -7738,10 +7753,10 @@
         <v>475</v>
       </c>
       <c r="N93" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="Q93" s="1" t="s">
         <v>148</v>
@@ -7756,25 +7771,25 @@
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="E94" s="1">
         <v>3</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>410</v>
+        <v>637</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="J94" s="1">
         <f t="shared" si="18"/>
@@ -7793,10 +7808,10 @@
         <v>495</v>
       </c>
       <c r="N94" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="Q94" s="1" t="s">
         <v>148</v>
@@ -7811,25 +7826,25 @@
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="E95" s="1">
         <v>3</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>417</v>
+        <v>644</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="J95" s="1">
         <f t="shared" si="18"/>
@@ -7848,10 +7863,10 @@
         <v>515</v>
       </c>
       <c r="N95" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="Q95" s="1" t="s">
         <v>148</v>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="680">
   <si>
     <t>ID</t>
   </si>
@@ -2030,6 +2030,99 @@
   </si>
   <si>
     <t>150000000000</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>10090</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>2400000000000000000000</t>
+  </si>
+  <si>
+    <t>150000000000000000000</t>
+  </si>
+  <si>
+    <t>1000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>160000000000</t>
+  </si>
+  <si>
+    <t>10091</t>
+  </si>
+  <si>
+    <t>1091</t>
+  </si>
+  <si>
+    <t>7200000000000000000000</t>
+  </si>
+  <si>
+    <t>450000000000000000000</t>
+  </si>
+  <si>
+    <t>3000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>170000000000</t>
+  </si>
+  <si>
+    <t>10092</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>21000000000000000000000</t>
+  </si>
+  <si>
+    <t>1350000000000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>180000000000</t>
+  </si>
+  <si>
+    <t>10093</t>
+  </si>
+  <si>
+    <t>1093</t>
+  </si>
+  <si>
+    <t>63000000000000000000000</t>
+  </si>
+  <si>
+    <t>4000000000000000000000</t>
+  </si>
+  <si>
+    <t>30000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>190000000000</t>
+  </si>
+  <si>
+    <t>10094</t>
+  </si>
+  <si>
+    <t>1094</t>
+  </si>
+  <si>
+    <t>180000000000000000000000</t>
+  </si>
+  <si>
+    <t>12000000000000000000000</t>
+  </si>
+  <si>
+    <t>100000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>200000000000</t>
   </si>
 </sst>
 </file>
@@ -3006,10 +3099,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7627,19 +7720,19 @@
         <v>619</v>
       </c>
       <c r="J91" s="1">
-        <f t="shared" ref="J91:J95" si="18">J90+25</f>
+        <f t="shared" ref="J91:J96" si="18">J90+25</f>
         <v>550</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" ref="K91:K95" si="19">K90+15</f>
+        <f t="shared" ref="K91:K96" si="19">K90+15</f>
         <v>270</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" ref="L91:L95" si="20">L90+10</f>
+        <f t="shared" ref="L91:L96" si="20">L90+10</f>
         <v>220</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" ref="M91:M95" si="21">M90+20</f>
+        <f t="shared" ref="M91:M96" si="21">M90+20</f>
         <v>435</v>
       </c>
       <c r="N91" s="7" t="s">
@@ -7876,6 +7969,291 @@
       </c>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:18">
+      <c r="A96" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E96" s="1">
+        <v>3</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="J96" s="1">
+        <f t="shared" ref="J96:J100" si="22">J95+30</f>
+        <v>680</v>
+      </c>
+      <c r="K96" s="1">
+        <f t="shared" ref="K96:K100" si="23">K95+25</f>
+        <v>355</v>
+      </c>
+      <c r="L96" s="1">
+        <f t="shared" ref="L96:L100" si="24">L95+15</f>
+        <v>275</v>
+      </c>
+      <c r="M96" s="1">
+        <f t="shared" ref="M96:M100" si="25">M95+25</f>
+        <v>540</v>
+      </c>
+      <c r="N96" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="O96" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:18">
+      <c r="A97" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E97" s="1">
+        <v>3</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="J97" s="1">
+        <f t="shared" si="22"/>
+        <v>710</v>
+      </c>
+      <c r="K97" s="1">
+        <f t="shared" si="23"/>
+        <v>380</v>
+      </c>
+      <c r="L97" s="1">
+        <f t="shared" si="24"/>
+        <v>290</v>
+      </c>
+      <c r="M97" s="1">
+        <f t="shared" si="25"/>
+        <v>565</v>
+      </c>
+      <c r="N97" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:18">
+      <c r="A98" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E98" s="1">
+        <v>3</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="J98" s="1">
+        <f t="shared" si="22"/>
+        <v>740</v>
+      </c>
+      <c r="K98" s="1">
+        <f t="shared" si="23"/>
+        <v>405</v>
+      </c>
+      <c r="L98" s="1">
+        <f t="shared" si="24"/>
+        <v>305</v>
+      </c>
+      <c r="M98" s="1">
+        <f t="shared" si="25"/>
+        <v>590</v>
+      </c>
+      <c r="N98" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="O98" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:18">
+      <c r="A99" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E99" s="1">
+        <v>3</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="J99" s="1">
+        <f t="shared" si="22"/>
+        <v>770</v>
+      </c>
+      <c r="K99" s="1">
+        <f t="shared" si="23"/>
+        <v>430</v>
+      </c>
+      <c r="L99" s="1">
+        <f t="shared" si="24"/>
+        <v>320</v>
+      </c>
+      <c r="M99" s="1">
+        <f t="shared" si="25"/>
+        <v>615</v>
+      </c>
+      <c r="N99" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:18">
+      <c r="A100" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E100" s="1">
+        <v>3</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="J100" s="1">
+        <f t="shared" si="22"/>
+        <v>800</v>
+      </c>
+      <c r="K100" s="1">
+        <f t="shared" si="23"/>
+        <v>455</v>
+      </c>
+      <c r="L100" s="1">
+        <f t="shared" si="24"/>
+        <v>335</v>
+      </c>
+      <c r="M100" s="1">
+        <f t="shared" si="25"/>
+        <v>640</v>
+      </c>
+      <c r="N100" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="O100" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R100" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="684">
   <si>
     <t>ID</t>
   </si>
@@ -2032,15 +2032,15 @@
     <t>150000000000</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>10090</t>
   </si>
   <si>
     <t>1090</t>
   </si>
   <si>
+    <t>噩梦沃玛教主</t>
+  </si>
+  <si>
     <t>2400000000000000000000</t>
   </si>
   <si>
@@ -2059,6 +2059,9 @@
     <t>1091</t>
   </si>
   <si>
+    <t>噩梦沃玛教皇</t>
+  </si>
+  <si>
     <t>7200000000000000000000</t>
   </si>
   <si>
@@ -2077,6 +2080,9 @@
     <t>1092</t>
   </si>
   <si>
+    <t>噩梦祖玛教主</t>
+  </si>
+  <si>
     <t>21000000000000000000000</t>
   </si>
   <si>
@@ -2095,6 +2101,9 @@
     <t>1093</t>
   </si>
   <si>
+    <t>噩梦祖玛教皇</t>
+  </si>
+  <si>
     <t>63000000000000000000000</t>
   </si>
   <si>
@@ -2111,6 +2120,9 @@
   </si>
   <si>
     <t>1094</t>
+  </si>
+  <si>
+    <t>噩梦虹魔猪王</t>
   </si>
   <si>
     <t>180000000000000000000000</t>
@@ -3102,7 +3114,7 @@
   <dimension ref="A1:T100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7970,24 +7982,18 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" customHeight="1" spans="1:18">
-      <c r="A96" s="2" t="s">
+    <row r="96" customHeight="1" spans="3:18">
+      <c r="C96" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="E96" s="1">
         <v>3</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>424</v>
+        <v>651</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>652</v>
@@ -8027,13 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:18">
-      <c r="A97" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>649</v>
-      </c>
+    <row r="97" customHeight="1" spans="3:18">
       <c r="C97" s="1" t="s">
         <v>656</v>
       </c>
@@ -8044,16 +8044,16 @@
         <v>3</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>431</v>
+        <v>658</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J97" s="1">
         <f t="shared" si="22"/>
@@ -8072,10 +8072,10 @@
         <v>565</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Q97" s="1" t="s">
         <v>148</v>
@@ -8084,33 +8084,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="1:18">
-      <c r="A98" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>649</v>
-      </c>
+    <row r="98" customHeight="1" spans="3:18">
       <c r="C98" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E98" s="1">
         <v>3</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>438</v>
+        <v>665</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="J98" s="1">
         <f t="shared" si="22"/>
@@ -8129,10 +8123,10 @@
         <v>590</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="Q98" s="1" t="s">
         <v>148</v>
@@ -8141,33 +8135,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="1:18">
-      <c r="A99" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>649</v>
-      </c>
+    <row r="99" customHeight="1" spans="3:18">
       <c r="C99" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E99" s="1">
         <v>3</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>445</v>
+        <v>672</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="J99" s="1">
         <f t="shared" si="22"/>
@@ -8186,10 +8174,10 @@
         <v>615</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="Q99" s="1" t="s">
         <v>148</v>
@@ -8198,33 +8186,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:18">
-      <c r="A100" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>649</v>
-      </c>
+    <row r="100" customHeight="1" spans="3:18">
       <c r="C100" s="1" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>452</v>
+        <v>679</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="J100" s="1">
         <f t="shared" si="22"/>
@@ -8243,10 +8225,10 @@
         <v>640</v>
       </c>
       <c r="N100" s="7" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="Q100" s="1" t="s">
         <v>148</v>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="717">
   <si>
     <t>ID</t>
   </si>
@@ -2135,6 +2135,105 @@
   </si>
   <si>
     <t>200000000000</t>
+  </si>
+  <si>
+    <t>10095</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>噩梦千年妖王</t>
+  </si>
+  <si>
+    <t>540000000000000000000000</t>
+  </si>
+  <si>
+    <t>36000000000000000000000</t>
+  </si>
+  <si>
+    <t>500000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>210000000000</t>
+  </si>
+  <si>
+    <t>10096</t>
+  </si>
+  <si>
+    <t>1096</t>
+  </si>
+  <si>
+    <t>噩梦虹魔教主</t>
+  </si>
+  <si>
+    <t>1600000000000000000000000</t>
+  </si>
+  <si>
+    <t>2500000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>220000000000</t>
+  </si>
+  <si>
+    <t>10097</t>
+  </si>
+  <si>
+    <t>1097</t>
+  </si>
+  <si>
+    <t>噩梦恶灵尸王</t>
+  </si>
+  <si>
+    <t>4800000000000000000000000</t>
+  </si>
+  <si>
+    <t>12500000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>230000000000</t>
+  </si>
+  <si>
+    <t>10098</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>噩梦黄泉教主</t>
+  </si>
+  <si>
+    <t>15000000000000000000000000</t>
+  </si>
+  <si>
+    <t>900000000000000000000000</t>
+  </si>
+  <si>
+    <t>60000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>240000000000</t>
+  </si>
+  <si>
+    <t>10099</t>
+  </si>
+  <si>
+    <t>1099</t>
+  </si>
+  <si>
+    <t>噩梦牛魔王</t>
+  </si>
+  <si>
+    <t>45000000000000000000000000</t>
+  </si>
+  <si>
+    <t>2700000000000000000000000</t>
+  </si>
+  <si>
+    <t>300000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>250000000000</t>
   </si>
 </sst>
 </file>
@@ -2314,12 +2413,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3111,10 +3210,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T100"/>
+  <dimension ref="A1:T105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="N110" sqref="N110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -8237,9 +8336,283 @@
         <v>0</v>
       </c>
     </row>
+    <row r="101" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E101" s="1">
+        <v>2</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="J101" s="1">
+        <f t="shared" ref="J101:M101" si="26">J100+8</f>
+        <v>808</v>
+      </c>
+      <c r="K101" s="1">
+        <f t="shared" si="26"/>
+        <v>463</v>
+      </c>
+      <c r="L101" s="1">
+        <f t="shared" si="26"/>
+        <v>343</v>
+      </c>
+      <c r="M101" s="1">
+        <f t="shared" si="26"/>
+        <v>648</v>
+      </c>
+      <c r="N101" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="O101" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R101" s="1">
+        <v>0</v>
+      </c>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+    </row>
+    <row r="102" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E102" s="1">
+        <v>2</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="J102" s="1">
+        <f t="shared" ref="J102:M102" si="27">J101+8</f>
+        <v>816</v>
+      </c>
+      <c r="K102" s="1">
+        <f t="shared" si="27"/>
+        <v>471</v>
+      </c>
+      <c r="L102" s="1">
+        <f t="shared" si="27"/>
+        <v>351</v>
+      </c>
+      <c r="M102" s="1">
+        <f t="shared" si="27"/>
+        <v>656</v>
+      </c>
+      <c r="N102" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="O102" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R102" s="1">
+        <v>0</v>
+      </c>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+    </row>
+    <row r="103" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E103" s="1">
+        <v>2</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="J103" s="1">
+        <f t="shared" ref="J103:M103" si="28">J102+8</f>
+        <v>824</v>
+      </c>
+      <c r="K103" s="1">
+        <f t="shared" si="28"/>
+        <v>479</v>
+      </c>
+      <c r="L103" s="1">
+        <f t="shared" si="28"/>
+        <v>359</v>
+      </c>
+      <c r="M103" s="1">
+        <f t="shared" si="28"/>
+        <v>664</v>
+      </c>
+      <c r="N103" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="O103" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R103" s="1">
+        <v>0</v>
+      </c>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+    </row>
+    <row r="104" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E104" s="1">
+        <v>2</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="J104" s="1">
+        <f t="shared" ref="J104:M104" si="29">J103+8</f>
+        <v>832</v>
+      </c>
+      <c r="K104" s="1">
+        <f t="shared" si="29"/>
+        <v>487</v>
+      </c>
+      <c r="L104" s="1">
+        <f t="shared" si="29"/>
+        <v>367</v>
+      </c>
+      <c r="M104" s="1">
+        <f t="shared" si="29"/>
+        <v>672</v>
+      </c>
+      <c r="N104" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="O104" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R104" s="1">
+        <v>0</v>
+      </c>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+    </row>
+    <row r="105" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E105" s="1">
+        <v>2</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" ref="J105:M105" si="30">J104+8</f>
+        <v>840</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="30"/>
+        <v>495</v>
+      </c>
+      <c r="L105" s="1">
+        <v>110</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="30"/>
+        <v>680</v>
+      </c>
+      <c r="N105" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="O105" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R105" s="1">
+        <v>0</v>
+      </c>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 E4 E5 G5 H5 I5 J5 K5 L5 M5 C3:C5 D3:D5 F3:F5 J3:J4 K3:K4 L3:L4 M3:M4 G3:I4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:M5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -2413,12 +2413,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3213,7 +3213,7 @@
   <dimension ref="A1:T105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="N110" sqref="N110"/>
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -8346,7 +8346,7 @@
         <v>685</v>
       </c>
       <c r="E101" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>686</v>
@@ -8401,7 +8401,7 @@
         <v>692</v>
       </c>
       <c r="E102" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>693</v>
@@ -8456,7 +8456,7 @@
         <v>698</v>
       </c>
       <c r="E103" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>699</v>
@@ -8511,7 +8511,7 @@
         <v>704</v>
       </c>
       <c r="E104" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>705</v>
@@ -8566,7 +8566,7 @@
         <v>711</v>
       </c>
       <c r="E105" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>712</v>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="752">
   <si>
     <t>ID</t>
   </si>
@@ -2234,6 +2234,111 @@
   </si>
   <si>
     <t>250000000000</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>10100</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>噩梦双头金刚</t>
+  </si>
+  <si>
+    <t>135000000000000000000000000</t>
+  </si>
+  <si>
+    <t>8100000000000000000000000</t>
+  </si>
+  <si>
+    <t>1500000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>260000000000</t>
+  </si>
+  <si>
+    <t>10101</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>噩梦双头巨人</t>
+  </si>
+  <si>
+    <t>400000000000000000000000000</t>
+  </si>
+  <si>
+    <t>24000000000000000000000000</t>
+  </si>
+  <si>
+    <t>7500000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>270000000000</t>
+  </si>
+  <si>
+    <t>10102</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>噩梦赤月恶魔</t>
+  </si>
+  <si>
+    <t>1200000000000000000000000000</t>
+  </si>
+  <si>
+    <t>72000000000000000000000000</t>
+  </si>
+  <si>
+    <t>37000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>280000000000</t>
+  </si>
+  <si>
+    <t>10103</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>噩梦魔龙教主</t>
+  </si>
+  <si>
+    <t>3600000000000000000000000000</t>
+  </si>
+  <si>
+    <t>216000000000000000000000000</t>
+  </si>
+  <si>
+    <t>20000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>290000000000</t>
+  </si>
+  <si>
+    <t>10104</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>噩梦火龙神</t>
+  </si>
+  <si>
+    <t>640000000000000000000000000</t>
+  </si>
+  <si>
+    <t>100000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>300000000000</t>
   </si>
 </sst>
 </file>
@@ -3210,10 +3315,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T105"/>
+  <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="L117" sqref="L117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3223,9 +3328,9 @@
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
     <col min="11" max="13" width="12.125" style="2" customWidth="1"/>
     <col min="14" max="14" width="16.375" style="2" customWidth="1"/>
@@ -8610,6 +8715,301 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
+    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A106" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E106" s="1">
+        <v>3</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="J106" s="1">
+        <f t="shared" ref="J106:J110" si="31">J105+15</f>
+        <v>855</v>
+      </c>
+      <c r="K106" s="1">
+        <f t="shared" ref="K106:K110" si="32">K105+5</f>
+        <v>500</v>
+      </c>
+      <c r="L106" s="1">
+        <f t="shared" ref="L106:L110" si="33">L105+5</f>
+        <v>115</v>
+      </c>
+      <c r="M106" s="1">
+        <f t="shared" ref="M106:M110" si="34">M105+15</f>
+        <v>695</v>
+      </c>
+      <c r="N106" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="O106" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R106" s="1">
+        <v>0</v>
+      </c>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+    </row>
+    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A107" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E107" s="1">
+        <v>3</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="J107" s="1">
+        <f t="shared" si="31"/>
+        <v>870</v>
+      </c>
+      <c r="K107" s="1">
+        <f t="shared" si="32"/>
+        <v>505</v>
+      </c>
+      <c r="L107" s="1">
+        <f t="shared" si="33"/>
+        <v>120</v>
+      </c>
+      <c r="M107" s="1">
+        <f t="shared" si="34"/>
+        <v>710</v>
+      </c>
+      <c r="N107" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="O107" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R107" s="1">
+        <v>0</v>
+      </c>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+    </row>
+    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A108" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E108" s="1">
+        <v>3</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="J108" s="1">
+        <f t="shared" si="31"/>
+        <v>885</v>
+      </c>
+      <c r="K108" s="1">
+        <f t="shared" si="32"/>
+        <v>510</v>
+      </c>
+      <c r="L108" s="1">
+        <f t="shared" si="33"/>
+        <v>125</v>
+      </c>
+      <c r="M108" s="1">
+        <f t="shared" si="34"/>
+        <v>725</v>
+      </c>
+      <c r="N108" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="O108" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R108" s="1">
+        <v>0</v>
+      </c>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+    </row>
+    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A109" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E109" s="1">
+        <v>3</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="J109" s="1">
+        <f t="shared" si="31"/>
+        <v>900</v>
+      </c>
+      <c r="K109" s="1">
+        <f t="shared" si="32"/>
+        <v>515</v>
+      </c>
+      <c r="L109" s="1">
+        <f t="shared" si="33"/>
+        <v>130</v>
+      </c>
+      <c r="M109" s="1">
+        <f t="shared" si="34"/>
+        <v>740</v>
+      </c>
+      <c r="N109" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="O109" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R109" s="1">
+        <v>0</v>
+      </c>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+    </row>
+    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A110" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E110" s="1">
+        <v>3</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="J110" s="1">
+        <f t="shared" si="31"/>
+        <v>915</v>
+      </c>
+      <c r="K110" s="1">
+        <f t="shared" si="32"/>
+        <v>520</v>
+      </c>
+      <c r="L110" s="1">
+        <f t="shared" si="33"/>
+        <v>135</v>
+      </c>
+      <c r="M110" s="1">
+        <f t="shared" si="34"/>
+        <v>755</v>
+      </c>
+      <c r="N110" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="O110" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R110" s="1">
+        <v>0</v>
+      </c>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:M5" errorStyle="warning">

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="751">
   <si>
     <t>ID</t>
   </si>
@@ -2234,9 +2234,6 @@
   </si>
   <si>
     <t>250000000000</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>10100</t>
@@ -3318,7 +3315,7 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="L117" sqref="L117"/>
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -8716,32 +8713,28 @@
       <c r="T105" s="2"/>
     </row>
     <row r="106" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>719</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="G106" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="G106" s="8" t="s">
+      <c r="H106" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="I106" s="9" t="s">
         <v>722</v>
-      </c>
-      <c r="I106" s="9" t="s">
-        <v>723</v>
       </c>
       <c r="J106" s="1">
         <f t="shared" ref="J106:J110" si="31">J105+15</f>
@@ -8760,10 +8753,10 @@
         <v>695</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="Q106" s="1" t="s">
         <v>148</v>
@@ -8775,32 +8768,28 @@
       <c r="T106" s="2"/>
     </row>
     <row r="107" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A107" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>717</v>
-      </c>
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
       <c r="C107" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>726</v>
       </c>
       <c r="E107" s="1">
         <v>3</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G107" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="G107" s="8" t="s">
+      <c r="H107" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="I107" s="9" t="s">
         <v>729</v>
-      </c>
-      <c r="I107" s="9" t="s">
-        <v>730</v>
       </c>
       <c r="J107" s="1">
         <f t="shared" si="31"/>
@@ -8819,10 +8808,10 @@
         <v>710</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Q107" s="1" t="s">
         <v>148</v>
@@ -8834,32 +8823,28 @@
       <c r="T107" s="2"/>
     </row>
     <row r="108" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A108" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>717</v>
-      </c>
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
       <c r="C108" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>733</v>
       </c>
       <c r="E108" s="1">
         <v>3</v>
       </c>
       <c r="F108" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="G108" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="G108" s="8" t="s">
+      <c r="H108" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="I108" s="9" t="s">
         <v>736</v>
-      </c>
-      <c r="I108" s="9" t="s">
-        <v>737</v>
       </c>
       <c r="J108" s="1">
         <f t="shared" si="31"/>
@@ -8878,10 +8863,10 @@
         <v>725</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q108" s="1" t="s">
         <v>148</v>
@@ -8893,32 +8878,28 @@
       <c r="T108" s="2"/>
     </row>
     <row r="109" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A109" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>717</v>
-      </c>
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
       <c r="C109" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G109" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="G109" s="8" t="s">
+      <c r="H109" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="I109" s="9" t="s">
         <v>743</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>744</v>
       </c>
       <c r="J109" s="1">
         <f t="shared" si="31"/>
@@ -8937,10 +8918,10 @@
         <v>740</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="Q109" s="1" t="s">
         <v>148</v>
@@ -8952,32 +8933,28 @@
       <c r="T109" s="2"/>
     </row>
     <row r="110" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A110" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>717</v>
-      </c>
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
       <c r="C110" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>747</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G110" s="8" t="s">
         <v>668</v>
       </c>
       <c r="H110" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="I110" s="9" t="s">
         <v>749</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>750</v>
       </c>
       <c r="J110" s="1">
         <f t="shared" si="31"/>
@@ -8996,10 +8973,10 @@
         <v>755</v>
       </c>
       <c r="N110" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Q110" s="1" t="s">
         <v>148</v>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="752">
   <si>
     <t>ID</t>
   </si>
@@ -2234,6 +2234,9 @@
   </si>
   <si>
     <t>250000000000</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>10100</t>
@@ -3315,7 +3318,7 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -8713,28 +8716,32 @@
       <c r="T105" s="2"/>
     </row>
     <row r="106" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
+      <c r="A106" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>717</v>
+      </c>
       <c r="C106" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="J106" s="1">
         <f t="shared" ref="J106:J110" si="31">J105+15</f>
@@ -8753,10 +8760,10 @@
         <v>695</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="Q106" s="1" t="s">
         <v>148</v>
@@ -8768,28 +8775,32 @@
       <c r="T106" s="2"/>
     </row>
     <row r="107" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
+      <c r="A107" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>717</v>
+      </c>
       <c r="C107" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E107" s="1">
         <v>3</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="J107" s="1">
         <f t="shared" si="31"/>
@@ -8808,10 +8819,10 @@
         <v>710</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Q107" s="1" t="s">
         <v>148</v>
@@ -8823,28 +8834,32 @@
       <c r="T107" s="2"/>
     </row>
     <row r="108" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
+      <c r="A108" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>717</v>
+      </c>
       <c r="C108" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E108" s="1">
         <v>3</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J108" s="1">
         <f t="shared" si="31"/>
@@ -8863,10 +8878,10 @@
         <v>725</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="Q108" s="1" t="s">
         <v>148</v>
@@ -8878,28 +8893,32 @@
       <c r="T108" s="2"/>
     </row>
     <row r="109" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
+      <c r="A109" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>717</v>
+      </c>
       <c r="C109" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J109" s="1">
         <f t="shared" si="31"/>
@@ -8918,10 +8937,10 @@
         <v>740</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Q109" s="1" t="s">
         <v>148</v>
@@ -8933,28 +8952,32 @@
       <c r="T109" s="2"/>
     </row>
     <row r="110" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
+      <c r="A110" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>717</v>
+      </c>
       <c r="C110" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G110" s="8" t="s">
         <v>668</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="J110" s="1">
         <f t="shared" si="31"/>
@@ -8973,10 +8996,10 @@
         <v>755</v>
       </c>
       <c r="N110" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Q110" s="1" t="s">
         <v>148</v>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="891">
   <si>
     <t>ID</t>
   </si>
@@ -2236,9 +2236,6 @@
     <t>250000000000</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>10100</t>
   </si>
   <si>
@@ -2339,6 +2336,426 @@
   </si>
   <si>
     <t>300000000000</t>
+  </si>
+  <si>
+    <t>10105</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>地狱鸡王</t>
+  </si>
+  <si>
+    <t>310000000000</t>
+  </si>
+  <si>
+    <t>10106</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>地狱鹿王</t>
+  </si>
+  <si>
+    <t>320000000000</t>
+  </si>
+  <si>
+    <t>10107</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>地狱草王</t>
+  </si>
+  <si>
+    <t>330000000000</t>
+  </si>
+  <si>
+    <t>10108</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>地狱猫王</t>
+  </si>
+  <si>
+    <t>340000000000</t>
+  </si>
+  <si>
+    <t>10109</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>地狱花王</t>
+  </si>
+  <si>
+    <t>350000000000</t>
+  </si>
+  <si>
+    <t>10110</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>地狱雪王</t>
+  </si>
+  <si>
+    <t>360000000000</t>
+  </si>
+  <si>
+    <t>10111</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>地狱蝠王</t>
+  </si>
+  <si>
+    <t>370000000000</t>
+  </si>
+  <si>
+    <t>10112</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>地狱骷髅王</t>
+  </si>
+  <si>
+    <t>380000000000</t>
+  </si>
+  <si>
+    <t>10113</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>地狱尸王</t>
+  </si>
+  <si>
+    <t>390000000000</t>
+  </si>
+  <si>
+    <t>10114</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>地狱蛇王</t>
+  </si>
+  <si>
+    <t>400000000000</t>
+  </si>
+  <si>
+    <t>10115</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>地狱狼王</t>
+  </si>
+  <si>
+    <t>410000000000</t>
+  </si>
+  <si>
+    <t>10116</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>地狱沙虫王</t>
+  </si>
+  <si>
+    <t>420000000000</t>
+  </si>
+  <si>
+    <t>10117</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>地狱鹰王</t>
+  </si>
+  <si>
+    <t>430000000000</t>
+  </si>
+  <si>
+    <t>10118</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>地狱角虫王</t>
+  </si>
+  <si>
+    <t>440000000000</t>
+  </si>
+  <si>
+    <t>10119</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>地狱蜈蚣王</t>
+  </si>
+  <si>
+    <t>450000000000</t>
+  </si>
+  <si>
+    <t>10120</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>地狱钳虫王</t>
+  </si>
+  <si>
+    <t>460000000000</t>
+  </si>
+  <si>
+    <t>10121</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>地狱触龙神</t>
+  </si>
+  <si>
+    <t>470000000000</t>
+  </si>
+  <si>
+    <t>10122</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>地狱白野猪</t>
+  </si>
+  <si>
+    <t>480000000000</t>
+  </si>
+  <si>
+    <t>10123</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>地狱猪王</t>
+  </si>
+  <si>
+    <t>490000000000</t>
+  </si>
+  <si>
+    <t>10124</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>地狱蝎王</t>
+  </si>
+  <si>
+    <t>500000000000</t>
+  </si>
+  <si>
+    <t>10125</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>地狱沃玛教主</t>
+  </si>
+  <si>
+    <t>510000000000</t>
+  </si>
+  <si>
+    <t>10126</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>地狱沃玛教皇</t>
+  </si>
+  <si>
+    <t>520000000000</t>
+  </si>
+  <si>
+    <t>10127</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>地狱祖玛教主</t>
+  </si>
+  <si>
+    <t>530000000000</t>
+  </si>
+  <si>
+    <t>10128</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>地狱祖玛教皇</t>
+  </si>
+  <si>
+    <t>540000000000</t>
+  </si>
+  <si>
+    <t>10129</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>地狱虹魔猪王</t>
+  </si>
+  <si>
+    <t>550000000000</t>
+  </si>
+  <si>
+    <t>10130</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>地狱千年妖王</t>
+  </si>
+  <si>
+    <t>560000000000</t>
+  </si>
+  <si>
+    <t>10131</t>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>地狱虹魔教主</t>
+  </si>
+  <si>
+    <t>570000000000</t>
+  </si>
+  <si>
+    <t>10132</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>地狱恶灵尸王</t>
+  </si>
+  <si>
+    <t>580000000000</t>
+  </si>
+  <si>
+    <t>10133</t>
+  </si>
+  <si>
+    <t>1133</t>
+  </si>
+  <si>
+    <t>地狱黄泉教主</t>
+  </si>
+  <si>
+    <t>590000000000</t>
+  </si>
+  <si>
+    <t>10134</t>
+  </si>
+  <si>
+    <t>1134</t>
+  </si>
+  <si>
+    <t>地狱牛魔王</t>
+  </si>
+  <si>
+    <t>600000000000</t>
+  </si>
+  <si>
+    <t>10135</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>地狱双头金刚</t>
+  </si>
+  <si>
+    <t>610000000000</t>
+  </si>
+  <si>
+    <t>10136</t>
+  </si>
+  <si>
+    <t>1136</t>
+  </si>
+  <si>
+    <t>地狱双头巨人</t>
+  </si>
+  <si>
+    <t>620000000000</t>
+  </si>
+  <si>
+    <t>10137</t>
+  </si>
+  <si>
+    <t>1137</t>
+  </si>
+  <si>
+    <t>地狱赤月恶魔</t>
+  </si>
+  <si>
+    <t>630000000000</t>
+  </si>
+  <si>
+    <t>10138</t>
+  </si>
+  <si>
+    <t>1138</t>
+  </si>
+  <si>
+    <t>地狱魔龙教主</t>
+  </si>
+  <si>
+    <t>640000000000</t>
+  </si>
+  <si>
+    <t>10139</t>
+  </si>
+  <si>
+    <t>1139</t>
+  </si>
+  <si>
+    <t>地狱火龙神</t>
+  </si>
+  <si>
+    <t>650000000000</t>
   </si>
 </sst>
 </file>
@@ -2983,19 +3400,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3315,215 +3739,215 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="N131" sqref="N131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
+    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
-    <col min="11" max="13" width="12.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="32.25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="3" customWidth="1"/>
+    <col min="11" max="13" width="12.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13" style="3" customWidth="1"/>
     <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="13.375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:18">
+    <row r="6" s="1" customFormat="1" hidden="1" customHeight="1" spans="3:18">
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
@@ -3542,7 +3966,7 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="1">
@@ -3570,7 +3994,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="3:19">
+    <row r="7" hidden="1" customHeight="1" spans="3:19">
       <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
@@ -3618,7 +4042,7 @@
       </c>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" customHeight="1" spans="3:19">
+    <row r="8" hidden="1" customHeight="1" spans="3:19">
       <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
@@ -3666,7 +4090,7 @@
       </c>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" customHeight="1" spans="3:19">
+    <row r="9" hidden="1" customHeight="1" spans="3:19">
       <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
@@ -3714,7 +4138,7 @@
       </c>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" customHeight="1" spans="3:19">
+    <row r="10" hidden="1" customHeight="1" spans="3:19">
       <c r="C10" s="1" t="s">
         <v>58</v>
       </c>
@@ -3762,7 +4186,7 @@
       </c>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" customHeight="1" spans="3:19">
+    <row r="11" hidden="1" customHeight="1" spans="3:19">
       <c r="C11" s="1" t="s">
         <v>63</v>
       </c>
@@ -3810,7 +4234,7 @@
       </c>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" customHeight="1" spans="3:19">
+    <row r="12" hidden="1" customHeight="1" spans="3:19">
       <c r="C12" s="1" t="s">
         <v>71</v>
       </c>
@@ -3858,7 +4282,7 @@
       </c>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" customHeight="1" spans="3:19">
+    <row r="13" hidden="1" customHeight="1" spans="3:19">
       <c r="C13" s="1" t="s">
         <v>79</v>
       </c>
@@ -3906,7 +4330,7 @@
       </c>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" customHeight="1" spans="3:19">
+    <row r="14" hidden="1" customHeight="1" spans="3:19">
       <c r="C14" s="1" t="s">
         <v>87</v>
       </c>
@@ -3954,7 +4378,7 @@
       </c>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" customHeight="1" spans="3:19">
+    <row r="15" hidden="1" customHeight="1" spans="3:19">
       <c r="C15" s="1" t="s">
         <v>95</v>
       </c>
@@ -4002,7 +4426,7 @@
       </c>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" customHeight="1" spans="3:19">
+    <row r="16" hidden="1" customHeight="1" spans="3:19">
       <c r="C16" s="1" t="s">
         <v>103</v>
       </c>
@@ -4050,7 +4474,7 @@
       </c>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" customHeight="1" spans="3:19">
+    <row r="17" hidden="1" customHeight="1" spans="3:19">
       <c r="C17" s="1" t="s">
         <v>111</v>
       </c>
@@ -4098,7 +4522,7 @@
       </c>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" customHeight="1" spans="3:19">
+    <row r="18" hidden="1" customHeight="1" spans="3:19">
       <c r="C18" s="1" t="s">
         <v>119</v>
       </c>
@@ -4146,7 +4570,7 @@
       </c>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" customHeight="1" spans="3:19">
+    <row r="19" hidden="1" customHeight="1" spans="3:19">
       <c r="C19" s="1" t="s">
         <v>127</v>
       </c>
@@ -4194,7 +4618,7 @@
       </c>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" customHeight="1" spans="3:19">
+    <row r="20" hidden="1" customHeight="1" spans="3:19">
       <c r="C20" s="1" t="s">
         <v>134</v>
       </c>
@@ -4242,7 +4666,7 @@
       </c>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" customHeight="1" spans="3:19">
+    <row r="21" hidden="1" customHeight="1" spans="3:19">
       <c r="C21" s="1" t="s">
         <v>141</v>
       </c>
@@ -4291,7 +4715,7 @@
       </c>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" customHeight="1" spans="3:19">
+    <row r="22" hidden="1" customHeight="1" spans="3:19">
       <c r="C22" s="1" t="s">
         <v>149</v>
       </c>
@@ -4340,7 +4764,7 @@
       </c>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" customHeight="1" spans="3:19">
+    <row r="23" hidden="1" customHeight="1" spans="3:19">
       <c r="C23" s="1" t="s">
         <v>156</v>
       </c>
@@ -4389,7 +4813,7 @@
       </c>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" customHeight="1" spans="3:19">
+    <row r="24" hidden="1" customHeight="1" spans="3:19">
       <c r="C24" s="1" t="s">
         <v>163</v>
       </c>
@@ -4438,7 +4862,7 @@
       </c>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" customHeight="1" spans="3:19">
+    <row r="25" hidden="1" customHeight="1" spans="3:19">
       <c r="C25" s="1" t="s">
         <v>170</v>
       </c>
@@ -4487,7 +4911,7 @@
       </c>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" customHeight="1" spans="3:19">
+    <row r="26" hidden="1" customHeight="1" spans="3:19">
       <c r="C26" s="1" t="s">
         <v>177</v>
       </c>
@@ -4536,7 +4960,7 @@
       </c>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" customHeight="1" spans="3:19">
+    <row r="27" hidden="1" customHeight="1" spans="3:19">
       <c r="C27" s="1" t="s">
         <v>184</v>
       </c>
@@ -4585,7 +5009,7 @@
       </c>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" customHeight="1" spans="3:19">
+    <row r="28" hidden="1" customHeight="1" spans="3:19">
       <c r="C28" s="1" t="s">
         <v>191</v>
       </c>
@@ -4634,7 +5058,7 @@
       </c>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" customHeight="1" spans="3:19">
+    <row r="29" hidden="1" customHeight="1" spans="3:19">
       <c r="C29" s="1" t="s">
         <v>198</v>
       </c>
@@ -4683,7 +5107,7 @@
       </c>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" customHeight="1" spans="3:19">
+    <row r="30" hidden="1" customHeight="1" spans="3:19">
       <c r="C30" s="1" t="s">
         <v>205</v>
       </c>
@@ -4732,7 +5156,7 @@
       </c>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" customHeight="1" spans="3:19">
+    <row r="31" hidden="1" customHeight="1" spans="3:19">
       <c r="C31" s="1" t="s">
         <v>212</v>
       </c>
@@ -4781,7 +5205,7 @@
       </c>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" customHeight="1" spans="3:19">
+    <row r="32" hidden="1" customHeight="1" spans="3:19">
       <c r="C32" s="1" t="s">
         <v>219</v>
       </c>
@@ -4830,7 +5254,7 @@
       </c>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" customHeight="1" spans="3:19">
+    <row r="33" hidden="1" customHeight="1" spans="3:19">
       <c r="C33" s="1" t="s">
         <v>226</v>
       </c>
@@ -4879,7 +5303,7 @@
       </c>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" customHeight="1" spans="3:19">
+    <row r="34" hidden="1" customHeight="1" spans="3:19">
       <c r="C34" s="1" t="s">
         <v>233</v>
       </c>
@@ -4928,7 +5352,7 @@
       </c>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" customHeight="1" spans="3:19">
+    <row r="35" hidden="1" customHeight="1" spans="3:19">
       <c r="C35" s="1" t="s">
         <v>240</v>
       </c>
@@ -4977,7 +5401,7 @@
       </c>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" customHeight="1" spans="3:19">
+    <row r="36" hidden="1" customHeight="1" spans="3:19">
       <c r="C36" s="1" t="s">
         <v>247</v>
       </c>
@@ -5026,7 +5450,7 @@
       </c>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" customHeight="1" spans="3:19">
+    <row r="37" hidden="1" customHeight="1" spans="3:19">
       <c r="C37" s="1" t="s">
         <v>254</v>
       </c>
@@ -5075,7 +5499,7 @@
       </c>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" customHeight="1" spans="3:19">
+    <row r="38" hidden="1" customHeight="1" spans="3:19">
       <c r="C38" s="1" t="s">
         <v>261</v>
       </c>
@@ -5124,7 +5548,7 @@
       </c>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" customHeight="1" spans="3:19">
+    <row r="39" hidden="1" customHeight="1" spans="3:19">
       <c r="C39" s="1" t="s">
         <v>268</v>
       </c>
@@ -5173,7 +5597,7 @@
       </c>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" customHeight="1" spans="3:19">
+    <row r="40" hidden="1" customHeight="1" spans="3:19">
       <c r="C40" s="1" t="s">
         <v>275</v>
       </c>
@@ -5186,7 +5610,7 @@
       <c r="F40" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="11" t="s">
         <v>278</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -5222,9 +5646,9 @@
       </c>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+    <row r="41" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:18">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
       <c r="C41" s="1" t="s">
         <v>282</v>
       </c>
@@ -5272,9 +5696,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+    <row r="42" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:18">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="1" t="s">
         <v>289</v>
       </c>
@@ -5322,9 +5746,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+    <row r="43" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:18">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
       <c r="C43" s="1" t="s">
         <v>296</v>
       </c>
@@ -5372,9 +5796,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+    <row r="44" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:18">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
       <c r="C44" s="1" t="s">
         <v>303</v>
       </c>
@@ -5422,9 +5846,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+    <row r="45" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:18">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="1" t="s">
         <v>310</v>
       </c>
@@ -5472,9 +5896,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+    <row r="46" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
       <c r="C46" s="1" t="s">
         <v>317</v>
       </c>
@@ -5521,12 +5945,12 @@
       <c r="R46" s="1">
         <v>0</v>
       </c>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-    </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+    </row>
+    <row r="47" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
       <c r="C47" s="1" t="s">
         <v>324</v>
       </c>
@@ -5573,12 +5997,12 @@
       <c r="R47" s="1">
         <v>0</v>
       </c>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-    </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+    </row>
+    <row r="48" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
       <c r="C48" s="1" t="s">
         <v>331</v>
       </c>
@@ -5625,12 +6049,12 @@
       <c r="R48" s="1">
         <v>0</v>
       </c>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-    </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+    </row>
+    <row r="49" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
       <c r="C49" s="1" t="s">
         <v>338</v>
       </c>
@@ -5677,12 +6101,12 @@
       <c r="R49" s="1">
         <v>0</v>
       </c>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-    </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+    </row>
+    <row r="50" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
       <c r="C50" s="1" t="s">
         <v>345</v>
       </c>
@@ -5729,12 +6153,12 @@
       <c r="R50" s="1">
         <v>0</v>
       </c>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-    </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+    </row>
+    <row r="51" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="1" t="s">
         <v>352</v>
       </c>
@@ -5782,12 +6206,12 @@
       <c r="R51" s="1">
         <v>0</v>
       </c>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-    </row>
-    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+    </row>
+    <row r="52" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
       <c r="C52" s="1" t="s">
         <v>359</v>
       </c>
@@ -5835,12 +6259,12 @@
       <c r="R52" s="1">
         <v>0</v>
       </c>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-    </row>
-    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+    </row>
+    <row r="53" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
       <c r="C53" s="1" t="s">
         <v>366</v>
       </c>
@@ -5888,12 +6312,12 @@
       <c r="R53" s="1">
         <v>0</v>
       </c>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-    </row>
-    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+    </row>
+    <row r="54" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
       <c r="C54" s="1" t="s">
         <v>373</v>
       </c>
@@ -5941,12 +6365,12 @@
       <c r="R54" s="1">
         <v>0</v>
       </c>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-    </row>
-    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+    </row>
+    <row r="55" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
       <c r="C55" s="1" t="s">
         <v>380</v>
       </c>
@@ -5994,12 +6418,12 @@
       <c r="R55" s="1">
         <v>0</v>
       </c>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-    </row>
-    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
       <c r="C56" s="1" t="s">
         <v>387</v>
       </c>
@@ -6049,12 +6473,12 @@
       <c r="R56" s="1">
         <v>0</v>
       </c>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-    </row>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
       <c r="C57" s="1" t="s">
         <v>394</v>
       </c>
@@ -6104,12 +6528,12 @@
       <c r="R57" s="1">
         <v>0</v>
       </c>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-    </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+    </row>
+    <row r="58" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
       <c r="C58" s="1" t="s">
         <v>401</v>
       </c>
@@ -6159,12 +6583,12 @@
       <c r="R58" s="1">
         <v>0</v>
       </c>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-    </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+    </row>
+    <row r="59" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
       <c r="C59" s="1" t="s">
         <v>408</v>
       </c>
@@ -6214,12 +6638,12 @@
       <c r="R59" s="1">
         <v>0</v>
       </c>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-    </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+    </row>
+    <row r="60" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
       <c r="C60" s="1" t="s">
         <v>415</v>
       </c>
@@ -6269,12 +6693,12 @@
       <c r="R60" s="1">
         <v>0</v>
       </c>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-    </row>
-    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+    </row>
+    <row r="61" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
       <c r="C61" s="1" t="s">
         <v>422</v>
       </c>
@@ -6324,12 +6748,12 @@
       <c r="R61" s="1">
         <v>0</v>
       </c>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-    </row>
-    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+    </row>
+    <row r="62" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
       <c r="C62" s="1" t="s">
         <v>429</v>
       </c>
@@ -6379,12 +6803,12 @@
       <c r="R62" s="1">
         <v>0</v>
       </c>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-    </row>
-    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+    </row>
+    <row r="63" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
       <c r="C63" s="1" t="s">
         <v>436</v>
       </c>
@@ -6434,12 +6858,12 @@
       <c r="R63" s="1">
         <v>0</v>
       </c>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-    </row>
-    <row r="64" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+    </row>
+    <row r="64" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
       <c r="C64" s="1" t="s">
         <v>443</v>
       </c>
@@ -6489,12 +6913,12 @@
       <c r="R64" s="1">
         <v>0</v>
       </c>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-    </row>
-    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+    </row>
+    <row r="65" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
       <c r="C65" s="1" t="s">
         <v>450</v>
       </c>
@@ -6513,7 +6937,7 @@
       <c r="H65" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I65" s="11" t="s">
         <v>455</v>
       </c>
       <c r="J65" s="1">
@@ -6544,12 +6968,12 @@
       <c r="R65" s="1">
         <v>0</v>
       </c>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-    </row>
-    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+    </row>
+    <row r="66" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
       <c r="C66" s="1" t="s">
         <v>457</v>
       </c>
@@ -6568,7 +6992,7 @@
       <c r="H66" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I66" s="11" t="s">
         <v>462</v>
       </c>
       <c r="J66" s="1">
@@ -6599,12 +7023,12 @@
       <c r="R66" s="1">
         <v>0</v>
       </c>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-    </row>
-    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+    </row>
+    <row r="67" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
       <c r="C67" s="1" t="s">
         <v>464</v>
       </c>
@@ -6623,7 +7047,7 @@
       <c r="H67" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I67" s="11" t="s">
         <v>469</v>
       </c>
       <c r="J67" s="1">
@@ -6654,12 +7078,12 @@
       <c r="R67" s="1">
         <v>0</v>
       </c>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-    </row>
-    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
       <c r="C68" s="1" t="s">
         <v>471</v>
       </c>
@@ -6678,7 +7102,7 @@
       <c r="H68" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I68" s="11" t="s">
         <v>476</v>
       </c>
       <c r="J68" s="1">
@@ -6709,12 +7133,12 @@
       <c r="R68" s="1">
         <v>0</v>
       </c>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-    </row>
-    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+    </row>
+    <row r="69" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="1" t="s">
         <v>478</v>
       </c>
@@ -6733,7 +7157,7 @@
       <c r="H69" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I69" s="11" t="s">
         <v>483</v>
       </c>
       <c r="J69" s="1">
@@ -6764,12 +7188,12 @@
       <c r="R69" s="1">
         <v>0</v>
       </c>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-    </row>
-    <row r="70" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+    </row>
+    <row r="70" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
       <c r="C70" s="1" t="s">
         <v>485</v>
       </c>
@@ -6788,7 +7212,7 @@
       <c r="H70" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I70" s="11" t="s">
         <v>490</v>
       </c>
       <c r="J70" s="1">
@@ -6818,12 +7242,12 @@
       <c r="R70" s="1">
         <v>0</v>
       </c>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-    </row>
-    <row r="71" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+    </row>
+    <row r="71" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
       <c r="C71" s="1" t="s">
         <v>492</v>
       </c>
@@ -6836,13 +7260,13 @@
       <c r="F71" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H71" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="I71" s="8" t="s">
+      <c r="I71" s="12" t="s">
         <v>497</v>
       </c>
       <c r="J71" s="1">
@@ -6873,12 +7297,12 @@
       <c r="R71" s="1">
         <v>0</v>
       </c>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-    </row>
-    <row r="72" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+    </row>
+    <row r="72" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
       <c r="C72" s="1" t="s">
         <v>499</v>
       </c>
@@ -6891,13 +7315,13 @@
       <c r="F72" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="I72" s="9" t="s">
+      <c r="I72" s="13" t="s">
         <v>504</v>
       </c>
       <c r="J72" s="1">
@@ -6928,12 +7352,12 @@
       <c r="R72" s="1">
         <v>0</v>
       </c>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-    </row>
-    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+    </row>
+    <row r="73" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
       <c r="C73" s="1" t="s">
         <v>506</v>
       </c>
@@ -6946,13 +7370,13 @@
       <c r="F73" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G73" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="I73" s="13" t="s">
         <v>511</v>
       </c>
       <c r="J73" s="1">
@@ -6983,12 +7407,12 @@
       <c r="R73" s="1">
         <v>0</v>
       </c>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-    </row>
-    <row r="74" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+    </row>
+    <row r="74" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
       <c r="C74" s="1" t="s">
         <v>513</v>
       </c>
@@ -7001,13 +7425,13 @@
       <c r="F74" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G74" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="I74" s="9" t="s">
+      <c r="I74" s="13" t="s">
         <v>518</v>
       </c>
       <c r="J74" s="1">
@@ -7038,12 +7462,12 @@
       <c r="R74" s="1">
         <v>0</v>
       </c>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-    </row>
-    <row r="75" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+    </row>
+    <row r="75" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="1" t="s">
         <v>520</v>
       </c>
@@ -7056,13 +7480,13 @@
       <c r="F75" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H75" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="I75" s="9" t="s">
+      <c r="I75" s="13" t="s">
         <v>525</v>
       </c>
       <c r="J75" s="1">
@@ -7084,7 +7508,7 @@
       <c r="N75" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="O75" s="7" t="s">
+      <c r="O75" s="11" t="s">
         <v>526</v>
       </c>
       <c r="Q75" s="1" t="s">
@@ -7093,12 +7517,12 @@
       <c r="R75" s="1">
         <v>0</v>
       </c>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-    </row>
-    <row r="76" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+    </row>
+    <row r="76" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:18">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
       <c r="C76" s="1" t="s">
         <v>527</v>
       </c>
@@ -7111,13 +7535,13 @@
       <c r="F76" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="I76" s="9" t="s">
+      <c r="I76" s="13" t="s">
         <v>532</v>
       </c>
       <c r="J76" s="1">
@@ -7149,9 +7573,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
+    <row r="77" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:18">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
       <c r="C77" s="1" t="s">
         <v>533</v>
       </c>
@@ -7164,13 +7588,13 @@
       <c r="F77" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H77" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="I77" s="9" t="s">
+      <c r="I77" s="13" t="s">
         <v>538</v>
       </c>
       <c r="J77" s="1">
@@ -7202,9 +7626,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
+    <row r="78" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:18">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
       <c r="C78" s="1" t="s">
         <v>539</v>
       </c>
@@ -7217,13 +7641,13 @@
       <c r="F78" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="I78" s="9" t="s">
+      <c r="I78" s="13" t="s">
         <v>544</v>
       </c>
       <c r="J78" s="1">
@@ -7255,9 +7679,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
+    <row r="79" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:18">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
       <c r="C79" s="1" t="s">
         <v>545</v>
       </c>
@@ -7270,13 +7694,13 @@
       <c r="F79" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H79" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="I79" s="9" t="s">
+      <c r="I79" s="13" t="s">
         <v>550</v>
       </c>
       <c r="J79" s="1">
@@ -7308,9 +7732,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
+    <row r="80" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:18">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
       <c r="C80" s="1" t="s">
         <v>551</v>
       </c>
@@ -7323,13 +7747,13 @@
       <c r="F80" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I80" s="13" t="s">
         <v>556</v>
       </c>
       <c r="J80" s="1">
@@ -7361,9 +7785,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
+    <row r="81" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
       <c r="C81" s="1" t="s">
         <v>557</v>
       </c>
@@ -7376,13 +7800,13 @@
       <c r="F81" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G81" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H81" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="I81" s="13" t="s">
         <v>562</v>
       </c>
       <c r="J81" s="1">
@@ -7413,12 +7837,12 @@
       <c r="R81" s="1">
         <v>0</v>
       </c>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-    </row>
-    <row r="82" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+    </row>
+    <row r="82" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
       <c r="C82" s="1" t="s">
         <v>563</v>
       </c>
@@ -7431,13 +7855,13 @@
       <c r="F82" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="G82" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="I82" s="9" t="s">
+      <c r="I82" s="13" t="s">
         <v>568</v>
       </c>
       <c r="J82" s="1">
@@ -7468,12 +7892,12 @@
       <c r="R82" s="1">
         <v>0</v>
       </c>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-    </row>
-    <row r="83" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
       <c r="C83" s="1" t="s">
         <v>569</v>
       </c>
@@ -7486,13 +7910,13 @@
       <c r="F83" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G83" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="I83" s="9" t="s">
+      <c r="I83" s="13" t="s">
         <v>573</v>
       </c>
       <c r="J83" s="1">
@@ -7523,12 +7947,12 @@
       <c r="R83" s="1">
         <v>0</v>
       </c>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-    </row>
-    <row r="84" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+    </row>
+    <row r="84" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
       <c r="C84" s="1" t="s">
         <v>574</v>
       </c>
@@ -7541,13 +7965,13 @@
       <c r="F84" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="I84" s="9" t="s">
+      <c r="I84" s="13" t="s">
         <v>579</v>
       </c>
       <c r="J84" s="1">
@@ -7578,12 +8002,12 @@
       <c r="R84" s="1">
         <v>0</v>
       </c>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-    </row>
-    <row r="85" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+    </row>
+    <row r="85" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
       <c r="C85" s="1" t="s">
         <v>580</v>
       </c>
@@ -7596,13 +8020,13 @@
       <c r="F85" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="G85" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="I85" s="9" t="s">
+      <c r="I85" s="13" t="s">
         <v>584</v>
       </c>
       <c r="J85" s="1">
@@ -7633,12 +8057,12 @@
       <c r="R85" s="1">
         <v>0</v>
       </c>
-      <c r="S85" s="2"/>
-      <c r="T85" s="2"/>
-    </row>
-    <row r="86" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+    </row>
+    <row r="86" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
       <c r="C86" s="1" t="s">
         <v>585</v>
       </c>
@@ -7651,13 +8075,13 @@
       <c r="F86" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G86" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="I86" s="9" t="s">
+      <c r="I86" s="13" t="s">
         <v>590</v>
       </c>
       <c r="J86" s="1">
@@ -7688,12 +8112,12 @@
       <c r="R86" s="1">
         <v>0</v>
       </c>
-      <c r="S86" s="2"/>
-      <c r="T86" s="2"/>
-    </row>
-    <row r="87" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+    </row>
+    <row r="87" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
       <c r="C87" s="1" t="s">
         <v>591</v>
       </c>
@@ -7706,13 +8130,13 @@
       <c r="F87" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="I87" s="9" t="s">
+      <c r="I87" s="13" t="s">
         <v>596</v>
       </c>
       <c r="J87" s="1">
@@ -7743,12 +8167,12 @@
       <c r="R87" s="1">
         <v>0</v>
       </c>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-    </row>
-    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+    </row>
+    <row r="88" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
       <c r="C88" s="1" t="s">
         <v>597</v>
       </c>
@@ -7761,13 +8185,13 @@
       <c r="F88" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H88" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="I88" s="9" t="s">
+      <c r="I88" s="13" t="s">
         <v>602</v>
       </c>
       <c r="J88" s="1">
@@ -7798,12 +8222,12 @@
       <c r="R88" s="1">
         <v>0</v>
       </c>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-    </row>
-    <row r="89" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+    </row>
+    <row r="89" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
       <c r="C89" s="1" t="s">
         <v>603</v>
       </c>
@@ -7816,13 +8240,13 @@
       <c r="F89" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G89" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H89" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="I89" s="9" t="s">
+      <c r="I89" s="13" t="s">
         <v>607</v>
       </c>
       <c r="J89" s="1">
@@ -7853,12 +8277,12 @@
       <c r="R89" s="1">
         <v>0</v>
       </c>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-    </row>
-    <row r="90" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+    </row>
+    <row r="90" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
       <c r="C90" s="1" t="s">
         <v>608</v>
       </c>
@@ -7871,13 +8295,13 @@
       <c r="F90" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G90" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H90" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="I90" s="9" t="s">
+      <c r="I90" s="13" t="s">
         <v>613</v>
       </c>
       <c r="J90" s="1">
@@ -7896,10 +8320,10 @@
         <f t="shared" si="15"/>
         <v>415</v>
       </c>
-      <c r="N90" s="7" t="s">
+      <c r="N90" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="O90" s="7" t="s">
+      <c r="O90" s="11" t="s">
         <v>614</v>
       </c>
       <c r="Q90" s="1" t="s">
@@ -7908,12 +8332,12 @@
       <c r="R90" s="1">
         <v>0</v>
       </c>
-      <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
-    </row>
-    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
       <c r="C91" s="1" t="s">
         <v>615</v>
       </c>
@@ -7926,13 +8350,13 @@
       <c r="F91" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G91" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H91" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="I91" s="9" t="s">
+      <c r="I91" s="13" t="s">
         <v>619</v>
       </c>
       <c r="J91" s="1">
@@ -7951,10 +8375,10 @@
         <f t="shared" ref="M91:M96" si="21">M90+20</f>
         <v>435</v>
       </c>
-      <c r="N91" s="7" t="s">
+      <c r="N91" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="O91" s="7" t="s">
+      <c r="O91" s="11" t="s">
         <v>620</v>
       </c>
       <c r="Q91" s="1" t="s">
@@ -7963,12 +8387,12 @@
       <c r="R91" s="1">
         <v>0</v>
       </c>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
-    </row>
-    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+    </row>
+    <row r="92" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
       <c r="C92" s="1" t="s">
         <v>621</v>
       </c>
@@ -7981,13 +8405,13 @@
       <c r="F92" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G92" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="H92" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="I92" s="9" t="s">
+      <c r="I92" s="13" t="s">
         <v>626</v>
       </c>
       <c r="J92" s="1">
@@ -8006,10 +8430,10 @@
         <f t="shared" si="21"/>
         <v>455</v>
       </c>
-      <c r="N92" s="7" t="s">
+      <c r="N92" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="O92" s="7" t="s">
+      <c r="O92" s="11" t="s">
         <v>627</v>
       </c>
       <c r="Q92" s="1" t="s">
@@ -8018,12 +8442,12 @@
       <c r="R92" s="1">
         <v>0</v>
       </c>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
-    </row>
-    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+    </row>
+    <row r="93" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
       <c r="C93" s="1" t="s">
         <v>628</v>
       </c>
@@ -8036,13 +8460,13 @@
       <c r="F93" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H93" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="I93" s="9" t="s">
+      <c r="I93" s="13" t="s">
         <v>633</v>
       </c>
       <c r="J93" s="1">
@@ -8061,10 +8485,10 @@
         <f t="shared" si="21"/>
         <v>475</v>
       </c>
-      <c r="N93" s="7" t="s">
+      <c r="N93" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="O93" s="7" t="s">
+      <c r="O93" s="11" t="s">
         <v>634</v>
       </c>
       <c r="Q93" s="1" t="s">
@@ -8073,12 +8497,12 @@
       <c r="R93" s="1">
         <v>0</v>
       </c>
-      <c r="S93" s="2"/>
-      <c r="T93" s="2"/>
-    </row>
-    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+    </row>
+    <row r="94" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
       <c r="C94" s="1" t="s">
         <v>635</v>
       </c>
@@ -8091,13 +8515,13 @@
       <c r="F94" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="G94" s="8" t="s">
+      <c r="G94" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="H94" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="I94" s="9" t="s">
+      <c r="I94" s="13" t="s">
         <v>640</v>
       </c>
       <c r="J94" s="1">
@@ -8116,10 +8540,10 @@
         <f t="shared" si="21"/>
         <v>495</v>
       </c>
-      <c r="N94" s="7" t="s">
+      <c r="N94" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="O94" s="7" t="s">
+      <c r="O94" s="11" t="s">
         <v>641</v>
       </c>
       <c r="Q94" s="1" t="s">
@@ -8128,12 +8552,12 @@
       <c r="R94" s="1">
         <v>0</v>
       </c>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-    </row>
-    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+    </row>
+    <row r="95" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
       <c r="C95" s="1" t="s">
         <v>642</v>
       </c>
@@ -8146,13 +8570,13 @@
       <c r="F95" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="12" t="s">
         <v>645</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="H95" s="11" t="s">
         <v>646</v>
       </c>
-      <c r="I95" s="9" t="s">
+      <c r="I95" s="13" t="s">
         <v>647</v>
       </c>
       <c r="J95" s="1">
@@ -8171,10 +8595,10 @@
         <f t="shared" si="21"/>
         <v>515</v>
       </c>
-      <c r="N95" s="7" t="s">
+      <c r="N95" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="O95" s="7" t="s">
+      <c r="O95" s="11" t="s">
         <v>648</v>
       </c>
       <c r="Q95" s="1" t="s">
@@ -8183,10 +8607,10 @@
       <c r="R95" s="1">
         <v>0</v>
       </c>
-      <c r="S95" s="2"/>
-      <c r="T95" s="2"/>
-    </row>
-    <row r="96" customHeight="1" spans="3:18">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" hidden="1" customHeight="1" spans="3:18">
       <c r="C96" s="1" t="s">
         <v>649</v>
       </c>
@@ -8199,13 +8623,13 @@
       <c r="F96" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="G96" s="12" t="s">
         <v>652</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="H96" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="I96" s="9" t="s">
+      <c r="I96" s="13" t="s">
         <v>654</v>
       </c>
       <c r="J96" s="1">
@@ -8224,10 +8648,10 @@
         <f t="shared" ref="M96:M100" si="25">M95+25</f>
         <v>540</v>
       </c>
-      <c r="N96" s="7" t="s">
+      <c r="N96" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="O96" s="7" t="s">
+      <c r="O96" s="11" t="s">
         <v>655</v>
       </c>
       <c r="Q96" s="1" t="s">
@@ -8237,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="3:18">
+    <row r="97" hidden="1" customHeight="1" spans="3:18">
       <c r="C97" s="1" t="s">
         <v>656</v>
       </c>
@@ -8250,13 +8674,13 @@
       <c r="F97" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H97" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="I97" s="9" t="s">
+      <c r="I97" s="13" t="s">
         <v>661</v>
       </c>
       <c r="J97" s="1">
@@ -8275,10 +8699,10 @@
         <f t="shared" si="25"/>
         <v>565</v>
       </c>
-      <c r="N97" s="7" t="s">
+      <c r="N97" s="11" t="s">
         <v>662</v>
       </c>
-      <c r="O97" s="7" t="s">
+      <c r="O97" s="11" t="s">
         <v>662</v>
       </c>
       <c r="Q97" s="1" t="s">
@@ -8288,7 +8712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="3:18">
+    <row r="98" hidden="1" customHeight="1" spans="3:18">
       <c r="C98" s="1" t="s">
         <v>663</v>
       </c>
@@ -8301,13 +8725,13 @@
       <c r="F98" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="G98" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H98" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="I98" s="9" t="s">
+      <c r="I98" s="13" t="s">
         <v>668</v>
       </c>
       <c r="J98" s="1">
@@ -8326,10 +8750,10 @@
         <f t="shared" si="25"/>
         <v>590</v>
       </c>
-      <c r="N98" s="7" t="s">
+      <c r="N98" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="O98" s="7" t="s">
+      <c r="O98" s="11" t="s">
         <v>669</v>
       </c>
       <c r="Q98" s="1" t="s">
@@ -8352,13 +8776,13 @@
       <c r="F99" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="G99" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H99" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="I99" s="9" t="s">
+      <c r="I99" s="13" t="s">
         <v>675</v>
       </c>
       <c r="J99" s="1">
@@ -8377,10 +8801,10 @@
         <f t="shared" si="25"/>
         <v>615</v>
       </c>
-      <c r="N99" s="7" t="s">
+      <c r="N99" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="O99" s="7" t="s">
+      <c r="O99" s="11" t="s">
         <v>676</v>
       </c>
       <c r="Q99" s="1" t="s">
@@ -8403,13 +8827,13 @@
       <c r="F100" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G100" s="12" t="s">
         <v>680</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H100" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="I100" s="9" t="s">
+      <c r="I100" s="13" t="s">
         <v>682</v>
       </c>
       <c r="J100" s="1">
@@ -8428,10 +8852,10 @@
         <f t="shared" si="25"/>
         <v>640</v>
       </c>
-      <c r="N100" s="7" t="s">
+      <c r="N100" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="O100" s="7" t="s">
+      <c r="O100" s="11" t="s">
         <v>683</v>
       </c>
       <c r="Q100" s="1" t="s">
@@ -8442,8 +8866,8 @@
       </c>
     </row>
     <row r="101" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
       <c r="C101" s="1" t="s">
         <v>684</v>
       </c>
@@ -8456,13 +8880,13 @@
       <c r="F101" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="G101" s="12" t="s">
         <v>687</v>
       </c>
-      <c r="H101" s="7" t="s">
+      <c r="H101" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="I101" s="9" t="s">
+      <c r="I101" s="13" t="s">
         <v>689</v>
       </c>
       <c r="J101" s="1">
@@ -8481,10 +8905,10 @@
         <f t="shared" si="26"/>
         <v>648</v>
       </c>
-      <c r="N101" s="7" t="s">
+      <c r="N101" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="O101" s="7" t="s">
+      <c r="O101" s="11" t="s">
         <v>690</v>
       </c>
       <c r="Q101" s="1" t="s">
@@ -8493,12 +8917,12 @@
       <c r="R101" s="1">
         <v>0</v>
       </c>
-      <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
     </row>
     <row r="102" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
       <c r="C102" s="1" t="s">
         <v>691</v>
       </c>
@@ -8511,13 +8935,13 @@
       <c r="F102" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="G102" s="8" t="s">
+      <c r="G102" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="H102" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="I102" s="9" t="s">
+      <c r="I102" s="13" t="s">
         <v>695</v>
       </c>
       <c r="J102" s="1">
@@ -8536,10 +8960,10 @@
         <f t="shared" si="27"/>
         <v>656</v>
       </c>
-      <c r="N102" s="7" t="s">
+      <c r="N102" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="O102" s="7" t="s">
+      <c r="O102" s="11" t="s">
         <v>696</v>
       </c>
       <c r="Q102" s="1" t="s">
@@ -8548,12 +8972,12 @@
       <c r="R102" s="1">
         <v>0</v>
       </c>
-      <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
     </row>
     <row r="103" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
       <c r="C103" s="1" t="s">
         <v>697</v>
       </c>
@@ -8566,13 +8990,13 @@
       <c r="F103" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="G103" s="8" t="s">
+      <c r="G103" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H103" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="I103" s="9" t="s">
+      <c r="I103" s="13" t="s">
         <v>701</v>
       </c>
       <c r="J103" s="1">
@@ -8591,10 +9015,10 @@
         <f t="shared" si="28"/>
         <v>664</v>
       </c>
-      <c r="N103" s="7" t="s">
+      <c r="N103" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="O103" s="7" t="s">
+      <c r="O103" s="11" t="s">
         <v>702</v>
       </c>
       <c r="Q103" s="1" t="s">
@@ -8603,12 +9027,12 @@
       <c r="R103" s="1">
         <v>0</v>
       </c>
-      <c r="S103" s="2"/>
-      <c r="T103" s="2"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
     </row>
     <row r="104" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
       <c r="C104" s="1" t="s">
         <v>703</v>
       </c>
@@ -8621,13 +9045,13 @@
       <c r="F104" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G104" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H104" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="I104" s="9" t="s">
+      <c r="I104" s="13" t="s">
         <v>708</v>
       </c>
       <c r="J104" s="1">
@@ -8646,10 +9070,10 @@
         <f t="shared" si="29"/>
         <v>672</v>
       </c>
-      <c r="N104" s="7" t="s">
+      <c r="N104" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="O104" s="7" t="s">
+      <c r="O104" s="11" t="s">
         <v>709</v>
       </c>
       <c r="Q104" s="1" t="s">
@@ -8658,12 +9082,12 @@
       <c r="R104" s="1">
         <v>0</v>
       </c>
-      <c r="S104" s="2"/>
-      <c r="T104" s="2"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
     </row>
     <row r="105" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
       <c r="C105" s="1" t="s">
         <v>710</v>
       </c>
@@ -8676,13 +9100,13 @@
       <c r="F105" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="H105" s="7" t="s">
+      <c r="H105" s="11" t="s">
         <v>714</v>
       </c>
-      <c r="I105" s="9" t="s">
+      <c r="I105" s="13" t="s">
         <v>715</v>
       </c>
       <c r="J105" s="1">
@@ -8700,10 +9124,10 @@
         <f t="shared" si="30"/>
         <v>680</v>
       </c>
-      <c r="N105" s="7" t="s">
+      <c r="N105" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="O105" s="7" t="s">
+      <c r="O105" s="11" t="s">
         <v>716</v>
       </c>
       <c r="Q105" s="1" t="s">
@@ -8712,95 +9136,87 @@
       <c r="R105" s="1">
         <v>0</v>
       </c>
-      <c r="S105" s="2"/>
-      <c r="T105" s="2"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
     </row>
     <row r="106" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>719</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="G106" s="12" t="s">
         <v>720</v>
       </c>
-      <c r="G106" s="8" t="s">
+      <c r="H106" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="I106" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="I106" s="9" t="s">
+      <c r="J106" s="1">
+        <f t="shared" ref="J106:J115" si="31">J105+15</f>
+        <v>855</v>
+      </c>
+      <c r="K106" s="1">
+        <f t="shared" ref="K106:K115" si="32">K105+5</f>
+        <v>500</v>
+      </c>
+      <c r="L106" s="1">
+        <f t="shared" ref="L106:L125" si="33">L105+5</f>
+        <v>115</v>
+      </c>
+      <c r="M106" s="1">
+        <f t="shared" ref="M106:M125" si="34">M105+15</f>
+        <v>695</v>
+      </c>
+      <c r="N106" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="J106" s="1">
-        <f t="shared" ref="J106:J110" si="31">J105+15</f>
-        <v>855</v>
-      </c>
-      <c r="K106" s="1">
-        <f t="shared" ref="K106:K110" si="32">K105+5</f>
-        <v>500</v>
-      </c>
-      <c r="L106" s="1">
-        <f t="shared" ref="L106:L110" si="33">L105+5</f>
-        <v>115</v>
-      </c>
-      <c r="M106" s="1">
-        <f t="shared" ref="M106:M110" si="34">M105+15</f>
-        <v>695</v>
-      </c>
-      <c r="N106" s="7" t="s">
+      <c r="O106" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R106" s="1">
+        <v>0</v>
+      </c>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+    </row>
+    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="O106" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="Q106" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="R106" s="1">
-        <v>0</v>
-      </c>
-      <c r="S106" s="2"/>
-      <c r="T106" s="2"/>
-    </row>
-    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A107" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>726</v>
       </c>
       <c r="E107" s="1">
         <v>3</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G107" s="12" t="s">
         <v>727</v>
       </c>
-      <c r="G107" s="8" t="s">
+      <c r="H107" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="I107" s="13" t="s">
         <v>729</v>
-      </c>
-      <c r="I107" s="9" t="s">
-        <v>730</v>
       </c>
       <c r="J107" s="1">
         <f t="shared" si="31"/>
@@ -8818,48 +9234,44 @@
         <f t="shared" si="34"/>
         <v>710</v>
       </c>
-      <c r="N107" s="7" t="s">
+      <c r="N107" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="O107" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R107" s="1">
+        <v>0</v>
+      </c>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+    </row>
+    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="O107" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="Q107" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="R107" s="1">
-        <v>0</v>
-      </c>
-      <c r="S107" s="2"/>
-      <c r="T107" s="2"/>
-    </row>
-    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A108" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>733</v>
       </c>
       <c r="E108" s="1">
         <v>3</v>
       </c>
       <c r="F108" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="G108" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="G108" s="8" t="s">
+      <c r="H108" s="11" t="s">
         <v>735</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="I108" s="13" t="s">
         <v>736</v>
-      </c>
-      <c r="I108" s="9" t="s">
-        <v>737</v>
       </c>
       <c r="J108" s="1">
         <f t="shared" si="31"/>
@@ -8877,48 +9289,44 @@
         <f t="shared" si="34"/>
         <v>725</v>
       </c>
-      <c r="N108" s="7" t="s">
+      <c r="N108" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="O108" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R108" s="1">
+        <v>0</v>
+      </c>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+    </row>
+    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="O108" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="R108" s="1">
-        <v>0</v>
-      </c>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-    </row>
-    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A109" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G109" s="12" t="s">
         <v>741</v>
       </c>
-      <c r="G109" s="8" t="s">
+      <c r="H109" s="11" t="s">
         <v>742</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="I109" s="13" t="s">
         <v>743</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>744</v>
       </c>
       <c r="J109" s="1">
         <f t="shared" si="31"/>
@@ -8936,48 +9344,44 @@
         <f t="shared" si="34"/>
         <v>740</v>
       </c>
-      <c r="N109" s="7" t="s">
+      <c r="N109" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="O109" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R109" s="1">
+        <v>0</v>
+      </c>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+    </row>
+    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="O109" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="Q109" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="R109" s="1">
-        <v>0</v>
-      </c>
-      <c r="S109" s="2"/>
-      <c r="T109" s="2"/>
-    </row>
-    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A110" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>747</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
       </c>
       <c r="F110" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H110" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="G110" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="H110" s="7" t="s">
+      <c r="I110" s="13" t="s">
         <v>749</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>750</v>
       </c>
       <c r="J110" s="1">
         <f t="shared" si="31"/>
@@ -8995,20 +9399,1914 @@
         <f t="shared" si="34"/>
         <v>755</v>
       </c>
-      <c r="N110" s="7" t="s">
+      <c r="N110" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="O110" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R110" s="1">
+        <v>0</v>
+      </c>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+    </row>
+    <row r="111" s="2" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="O110" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="Q110" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="R110" s="1">
-        <v>0</v>
-      </c>
-      <c r="S110" s="2"/>
-      <c r="T110" s="2"/>
+      <c r="D111" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="E111" s="2">
+        <v>4</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="I111" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="J111" s="2">
+        <f t="shared" si="31"/>
+        <v>930</v>
+      </c>
+      <c r="K111" s="2">
+        <f t="shared" si="32"/>
+        <v>525</v>
+      </c>
+      <c r="L111" s="2">
+        <f t="shared" si="33"/>
+        <v>140</v>
+      </c>
+      <c r="M111" s="2">
+        <f t="shared" si="34"/>
+        <v>770</v>
+      </c>
+      <c r="N111" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="O111" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q111" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="R111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E112" s="1">
+        <v>4</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J112" s="1">
+        <f t="shared" si="31"/>
+        <v>945</v>
+      </c>
+      <c r="K112" s="1">
+        <f t="shared" si="32"/>
+        <v>530</v>
+      </c>
+      <c r="L112" s="1">
+        <f t="shared" si="33"/>
+        <v>145</v>
+      </c>
+      <c r="M112" s="1">
+        <f t="shared" si="34"/>
+        <v>785</v>
+      </c>
+      <c r="N112" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="O112" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E113" s="1">
+        <v>4</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J113" s="1">
+        <f t="shared" si="31"/>
+        <v>960</v>
+      </c>
+      <c r="K113" s="1">
+        <f t="shared" si="32"/>
+        <v>535</v>
+      </c>
+      <c r="L113" s="1">
+        <f t="shared" si="33"/>
+        <v>150</v>
+      </c>
+      <c r="M113" s="1">
+        <f t="shared" si="34"/>
+        <v>800</v>
+      </c>
+      <c r="N113" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="O113" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E114" s="1">
+        <v>4</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J114" s="1">
+        <f t="shared" si="31"/>
+        <v>975</v>
+      </c>
+      <c r="K114" s="1">
+        <f t="shared" si="32"/>
+        <v>540</v>
+      </c>
+      <c r="L114" s="1">
+        <f t="shared" si="33"/>
+        <v>155</v>
+      </c>
+      <c r="M114" s="1">
+        <f t="shared" si="34"/>
+        <v>815</v>
+      </c>
+      <c r="N114" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="O114" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E115" s="1">
+        <v>4</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I115" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J115" s="1">
+        <f t="shared" si="31"/>
+        <v>990</v>
+      </c>
+      <c r="K115" s="1">
+        <f t="shared" si="32"/>
+        <v>545</v>
+      </c>
+      <c r="L115" s="1">
+        <f t="shared" si="33"/>
+        <v>160</v>
+      </c>
+      <c r="M115" s="1">
+        <f t="shared" si="34"/>
+        <v>830</v>
+      </c>
+      <c r="N115" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="O115" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E116" s="1">
+        <v>4</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I116" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J116" s="1">
+        <f t="shared" ref="J116:J125" si="35">J115+20</f>
+        <v>1010</v>
+      </c>
+      <c r="K116" s="1">
+        <f t="shared" ref="K116:K125" si="36">K115+10</f>
+        <v>555</v>
+      </c>
+      <c r="L116" s="1">
+        <f t="shared" si="33"/>
+        <v>165</v>
+      </c>
+      <c r="M116" s="1">
+        <f t="shared" si="34"/>
+        <v>845</v>
+      </c>
+      <c r="N116" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="O116" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R116" s="1">
+        <v>0</v>
+      </c>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+    </row>
+    <row r="117" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E117" s="1">
+        <v>4</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I117" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J117" s="1">
+        <f t="shared" si="35"/>
+        <v>1030</v>
+      </c>
+      <c r="K117" s="1">
+        <f t="shared" si="36"/>
+        <v>565</v>
+      </c>
+      <c r="L117" s="1">
+        <f t="shared" si="33"/>
+        <v>170</v>
+      </c>
+      <c r="M117" s="1">
+        <f t="shared" si="34"/>
+        <v>860</v>
+      </c>
+      <c r="N117" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="O117" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R117" s="1">
+        <v>0</v>
+      </c>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+    </row>
+    <row r="118" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E118" s="1">
+        <v>4</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J118" s="1">
+        <f t="shared" si="35"/>
+        <v>1050</v>
+      </c>
+      <c r="K118" s="1">
+        <f t="shared" si="36"/>
+        <v>575</v>
+      </c>
+      <c r="L118" s="1">
+        <f t="shared" si="33"/>
+        <v>175</v>
+      </c>
+      <c r="M118" s="1">
+        <f t="shared" si="34"/>
+        <v>875</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="O118" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R118" s="1">
+        <v>0</v>
+      </c>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+    </row>
+    <row r="119" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="E119" s="1">
+        <v>4</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I119" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J119" s="1">
+        <f t="shared" si="35"/>
+        <v>1070</v>
+      </c>
+      <c r="K119" s="1">
+        <f t="shared" si="36"/>
+        <v>585</v>
+      </c>
+      <c r="L119" s="1">
+        <f t="shared" si="33"/>
+        <v>180</v>
+      </c>
+      <c r="M119" s="1">
+        <f t="shared" si="34"/>
+        <v>890</v>
+      </c>
+      <c r="N119" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="O119" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R119" s="1">
+        <v>0</v>
+      </c>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+    </row>
+    <row r="120" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E120" s="1">
+        <v>4</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I120" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J120" s="1">
+        <f t="shared" si="35"/>
+        <v>1090</v>
+      </c>
+      <c r="K120" s="1">
+        <f t="shared" si="36"/>
+        <v>595</v>
+      </c>
+      <c r="L120" s="1">
+        <f t="shared" si="33"/>
+        <v>185</v>
+      </c>
+      <c r="M120" s="1">
+        <f t="shared" si="34"/>
+        <v>905</v>
+      </c>
+      <c r="N120" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="O120" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R120" s="1">
+        <v>0</v>
+      </c>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+    </row>
+    <row r="121" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E121" s="1">
+        <v>4</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I121" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J121" s="1">
+        <f t="shared" si="35"/>
+        <v>1110</v>
+      </c>
+      <c r="K121" s="1">
+        <f t="shared" si="36"/>
+        <v>605</v>
+      </c>
+      <c r="L121" s="1">
+        <f t="shared" si="33"/>
+        <v>190</v>
+      </c>
+      <c r="M121" s="1">
+        <f t="shared" si="34"/>
+        <v>920</v>
+      </c>
+      <c r="N121" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="O121" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R121" s="1">
+        <v>0</v>
+      </c>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+    </row>
+    <row r="122" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E122" s="1">
+        <v>4</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I122" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J122" s="1">
+        <f t="shared" si="35"/>
+        <v>1130</v>
+      </c>
+      <c r="K122" s="1">
+        <f t="shared" si="36"/>
+        <v>615</v>
+      </c>
+      <c r="L122" s="1">
+        <f t="shared" si="33"/>
+        <v>195</v>
+      </c>
+      <c r="M122" s="1">
+        <f t="shared" si="34"/>
+        <v>935</v>
+      </c>
+      <c r="N122" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="O122" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R122" s="1">
+        <v>0</v>
+      </c>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+    </row>
+    <row r="123" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E123" s="1">
+        <v>4</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I123" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J123" s="1">
+        <f t="shared" si="35"/>
+        <v>1150</v>
+      </c>
+      <c r="K123" s="1">
+        <f t="shared" si="36"/>
+        <v>625</v>
+      </c>
+      <c r="L123" s="1">
+        <f t="shared" si="33"/>
+        <v>200</v>
+      </c>
+      <c r="M123" s="1">
+        <f t="shared" si="34"/>
+        <v>950</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="O123" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R123" s="1">
+        <v>0</v>
+      </c>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
+    </row>
+    <row r="124" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E124" s="1">
+        <v>4</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I124" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J124" s="1">
+        <f t="shared" si="35"/>
+        <v>1170</v>
+      </c>
+      <c r="K124" s="1">
+        <f t="shared" si="36"/>
+        <v>635</v>
+      </c>
+      <c r="L124" s="1">
+        <f t="shared" si="33"/>
+        <v>205</v>
+      </c>
+      <c r="M124" s="1">
+        <f t="shared" si="34"/>
+        <v>965</v>
+      </c>
+      <c r="N124" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="O124" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R124" s="1">
+        <v>0</v>
+      </c>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+    </row>
+    <row r="125" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="E125" s="1">
+        <v>4</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I125" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J125" s="1">
+        <f t="shared" si="35"/>
+        <v>1190</v>
+      </c>
+      <c r="K125" s="1">
+        <f t="shared" si="36"/>
+        <v>645</v>
+      </c>
+      <c r="L125" s="1">
+        <f t="shared" si="33"/>
+        <v>210</v>
+      </c>
+      <c r="M125" s="1">
+        <f t="shared" si="34"/>
+        <v>980</v>
+      </c>
+      <c r="N125" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="O125" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R125" s="1">
+        <v>0</v>
+      </c>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+    </row>
+    <row r="126" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E126" s="1">
+        <v>4</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J126" s="1">
+        <f t="shared" ref="J126:J130" si="37">J125+25</f>
+        <v>1215</v>
+      </c>
+      <c r="K126" s="1">
+        <f t="shared" ref="K126:K130" si="38">K125+15</f>
+        <v>660</v>
+      </c>
+      <c r="L126" s="1">
+        <f t="shared" ref="L126:L130" si="39">L125+10</f>
+        <v>220</v>
+      </c>
+      <c r="M126" s="1">
+        <f t="shared" ref="M126:M130" si="40">M125+20</f>
+        <v>1000</v>
+      </c>
+      <c r="N126" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="O126" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q126" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R126" s="1">
+        <v>0</v>
+      </c>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+    </row>
+    <row r="127" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="E127" s="1">
+        <v>4</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I127" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J127" s="1">
+        <f t="shared" si="37"/>
+        <v>1240</v>
+      </c>
+      <c r="K127" s="1">
+        <f t="shared" si="38"/>
+        <v>675</v>
+      </c>
+      <c r="L127" s="1">
+        <f t="shared" si="39"/>
+        <v>230</v>
+      </c>
+      <c r="M127" s="1">
+        <f t="shared" si="40"/>
+        <v>1020</v>
+      </c>
+      <c r="N127" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="O127" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q127" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R127" s="1">
+        <v>0</v>
+      </c>
+      <c r="S127" s="3"/>
+      <c r="T127" s="3"/>
+    </row>
+    <row r="128" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E128" s="1">
+        <v>4</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J128" s="1">
+        <f t="shared" si="37"/>
+        <v>1265</v>
+      </c>
+      <c r="K128" s="1">
+        <f t="shared" si="38"/>
+        <v>690</v>
+      </c>
+      <c r="L128" s="1">
+        <f t="shared" si="39"/>
+        <v>240</v>
+      </c>
+      <c r="M128" s="1">
+        <f t="shared" si="40"/>
+        <v>1040</v>
+      </c>
+      <c r="N128" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="O128" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R128" s="1">
+        <v>0</v>
+      </c>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
+    </row>
+    <row r="129" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E129" s="1">
+        <v>4</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I129" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J129" s="1">
+        <f t="shared" si="37"/>
+        <v>1290</v>
+      </c>
+      <c r="K129" s="1">
+        <f t="shared" si="38"/>
+        <v>705</v>
+      </c>
+      <c r="L129" s="1">
+        <f t="shared" si="39"/>
+        <v>250</v>
+      </c>
+      <c r="M129" s="1">
+        <f t="shared" si="40"/>
+        <v>1060</v>
+      </c>
+      <c r="N129" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="O129" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R129" s="1">
+        <v>0</v>
+      </c>
+      <c r="S129" s="3"/>
+      <c r="T129" s="3"/>
+    </row>
+    <row r="130" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="E130" s="1">
+        <v>4</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I130" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J130" s="1">
+        <f t="shared" si="37"/>
+        <v>1315</v>
+      </c>
+      <c r="K130" s="1">
+        <f t="shared" si="38"/>
+        <v>720</v>
+      </c>
+      <c r="L130" s="1">
+        <f t="shared" si="39"/>
+        <v>260</v>
+      </c>
+      <c r="M130" s="1">
+        <f t="shared" si="40"/>
+        <v>1080</v>
+      </c>
+      <c r="N130" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="O130" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="Q130" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R130" s="1">
+        <v>0</v>
+      </c>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3"/>
+    </row>
+    <row r="131" customHeight="1" spans="3:18">
+      <c r="C131" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E131" s="1">
+        <v>4</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I131" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J131" s="1">
+        <f t="shared" ref="J131:J135" si="41">J130+30</f>
+        <v>1345</v>
+      </c>
+      <c r="K131" s="1">
+        <f t="shared" ref="K131:K135" si="42">K130+25</f>
+        <v>745</v>
+      </c>
+      <c r="L131" s="1">
+        <f t="shared" ref="L131:L135" si="43">L130+15</f>
+        <v>275</v>
+      </c>
+      <c r="M131" s="1">
+        <f t="shared" ref="M131:M135" si="44">M130+25</f>
+        <v>1105</v>
+      </c>
+      <c r="N131" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="O131" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="Q131" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="3:18">
+      <c r="C132" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="E132" s="1">
+        <v>4</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I132" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J132" s="1">
+        <f t="shared" si="41"/>
+        <v>1375</v>
+      </c>
+      <c r="K132" s="1">
+        <f t="shared" si="42"/>
+        <v>770</v>
+      </c>
+      <c r="L132" s="1">
+        <f t="shared" si="43"/>
+        <v>290</v>
+      </c>
+      <c r="M132" s="1">
+        <f t="shared" si="44"/>
+        <v>1130</v>
+      </c>
+      <c r="N132" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="O132" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q132" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="3:18">
+      <c r="C133" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E133" s="1">
+        <v>4</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I133" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J133" s="1">
+        <f t="shared" si="41"/>
+        <v>1405</v>
+      </c>
+      <c r="K133" s="1">
+        <f t="shared" si="42"/>
+        <v>795</v>
+      </c>
+      <c r="L133" s="1">
+        <f t="shared" si="43"/>
+        <v>305</v>
+      </c>
+      <c r="M133" s="1">
+        <f t="shared" si="44"/>
+        <v>1155</v>
+      </c>
+      <c r="N133" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="O133" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="3:18">
+      <c r="C134" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E134" s="1">
+        <v>4</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I134" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J134" s="1">
+        <f t="shared" si="41"/>
+        <v>1435</v>
+      </c>
+      <c r="K134" s="1">
+        <f t="shared" si="42"/>
+        <v>820</v>
+      </c>
+      <c r="L134" s="1">
+        <f t="shared" si="43"/>
+        <v>320</v>
+      </c>
+      <c r="M134" s="1">
+        <f t="shared" si="44"/>
+        <v>1180</v>
+      </c>
+      <c r="N134" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="O134" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="3:18">
+      <c r="C135" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="E135" s="1">
+        <v>4</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I135" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J135" s="1">
+        <f t="shared" si="41"/>
+        <v>1465</v>
+      </c>
+      <c r="K135" s="1">
+        <f t="shared" si="42"/>
+        <v>845</v>
+      </c>
+      <c r="L135" s="1">
+        <f t="shared" si="43"/>
+        <v>335</v>
+      </c>
+      <c r="M135" s="1">
+        <f t="shared" si="44"/>
+        <v>1205</v>
+      </c>
+      <c r="N135" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="O135" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="E136" s="1">
+        <v>4</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J136" s="1">
+        <f t="shared" ref="J136:M136" si="45">J135+8</f>
+        <v>1473</v>
+      </c>
+      <c r="K136" s="1">
+        <f t="shared" si="45"/>
+        <v>853</v>
+      </c>
+      <c r="L136" s="1">
+        <f t="shared" si="45"/>
+        <v>343</v>
+      </c>
+      <c r="M136" s="1">
+        <f t="shared" si="45"/>
+        <v>1213</v>
+      </c>
+      <c r="N136" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="O136" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R136" s="1">
+        <v>0</v>
+      </c>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3"/>
+    </row>
+    <row r="137" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E137" s="1">
+        <v>4</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J137" s="1">
+        <f t="shared" ref="J137:M137" si="46">J136+8</f>
+        <v>1481</v>
+      </c>
+      <c r="K137" s="1">
+        <f t="shared" si="46"/>
+        <v>861</v>
+      </c>
+      <c r="L137" s="1">
+        <f t="shared" si="46"/>
+        <v>351</v>
+      </c>
+      <c r="M137" s="1">
+        <f t="shared" si="46"/>
+        <v>1221</v>
+      </c>
+      <c r="N137" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="O137" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="Q137" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R137" s="1">
+        <v>0</v>
+      </c>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+    </row>
+    <row r="138" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="E138" s="1">
+        <v>4</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I138" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J138" s="1">
+        <f t="shared" ref="J138:M138" si="47">J137+8</f>
+        <v>1489</v>
+      </c>
+      <c r="K138" s="1">
+        <f t="shared" si="47"/>
+        <v>869</v>
+      </c>
+      <c r="L138" s="1">
+        <f t="shared" si="47"/>
+        <v>359</v>
+      </c>
+      <c r="M138" s="1">
+        <f t="shared" si="47"/>
+        <v>1229</v>
+      </c>
+      <c r="N138" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="O138" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="Q138" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R138" s="1">
+        <v>0</v>
+      </c>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3"/>
+    </row>
+    <row r="139" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E139" s="1">
+        <v>4</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I139" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J139" s="1">
+        <f t="shared" ref="J139:M139" si="48">J138+8</f>
+        <v>1497</v>
+      </c>
+      <c r="K139" s="1">
+        <f t="shared" si="48"/>
+        <v>877</v>
+      </c>
+      <c r="L139" s="1">
+        <f t="shared" si="48"/>
+        <v>367</v>
+      </c>
+      <c r="M139" s="1">
+        <f t="shared" si="48"/>
+        <v>1237</v>
+      </c>
+      <c r="N139" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="O139" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="Q139" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R139" s="1">
+        <v>0</v>
+      </c>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+    </row>
+    <row r="140" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="E140" s="1">
+        <v>4</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I140" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J140" s="1">
+        <f t="shared" ref="J140:M140" si="49">J139+8</f>
+        <v>1505</v>
+      </c>
+      <c r="K140" s="1">
+        <f t="shared" si="49"/>
+        <v>885</v>
+      </c>
+      <c r="L140" s="1">
+        <v>110</v>
+      </c>
+      <c r="M140" s="1">
+        <f t="shared" si="49"/>
+        <v>1245</v>
+      </c>
+      <c r="N140" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="O140" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="Q140" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R140" s="1">
+        <v>0</v>
+      </c>
+      <c r="S140" s="3"/>
+      <c r="T140" s="3"/>
+    </row>
+    <row r="141" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="E141" s="1">
+        <v>4</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I141" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J141" s="1">
+        <f t="shared" ref="J141:J145" si="50">J140+15</f>
+        <v>1520</v>
+      </c>
+      <c r="K141" s="1">
+        <f t="shared" ref="K141:K145" si="51">K140+5</f>
+        <v>890</v>
+      </c>
+      <c r="L141" s="1">
+        <f t="shared" ref="L141:L145" si="52">L140+5</f>
+        <v>115</v>
+      </c>
+      <c r="M141" s="1">
+        <f t="shared" ref="M141:M145" si="53">M140+15</f>
+        <v>1260</v>
+      </c>
+      <c r="N141" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="O141" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="Q141" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R141" s="1">
+        <v>0</v>
+      </c>
+      <c r="S141" s="3"/>
+      <c r="T141" s="3"/>
+    </row>
+    <row r="142" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E142" s="1">
+        <v>4</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I142" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J142" s="1">
+        <f t="shared" si="50"/>
+        <v>1535</v>
+      </c>
+      <c r="K142" s="1">
+        <f t="shared" si="51"/>
+        <v>895</v>
+      </c>
+      <c r="L142" s="1">
+        <f t="shared" si="52"/>
+        <v>120</v>
+      </c>
+      <c r="M142" s="1">
+        <f t="shared" si="53"/>
+        <v>1275</v>
+      </c>
+      <c r="N142" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="O142" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R142" s="1">
+        <v>0</v>
+      </c>
+      <c r="S142" s="3"/>
+      <c r="T142" s="3"/>
+    </row>
+    <row r="143" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="E143" s="1">
+        <v>4</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="G143" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I143" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J143" s="1">
+        <f t="shared" si="50"/>
+        <v>1550</v>
+      </c>
+      <c r="K143" s="1">
+        <f t="shared" si="51"/>
+        <v>900</v>
+      </c>
+      <c r="L143" s="1">
+        <f t="shared" si="52"/>
+        <v>125</v>
+      </c>
+      <c r="M143" s="1">
+        <f t="shared" si="53"/>
+        <v>1290</v>
+      </c>
+      <c r="N143" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="O143" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="Q143" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R143" s="1">
+        <v>0</v>
+      </c>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3"/>
+    </row>
+    <row r="144" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="E144" s="1">
+        <v>4</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="G144" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I144" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J144" s="1">
+        <f t="shared" si="50"/>
+        <v>1565</v>
+      </c>
+      <c r="K144" s="1">
+        <f t="shared" si="51"/>
+        <v>905</v>
+      </c>
+      <c r="L144" s="1">
+        <f t="shared" si="52"/>
+        <v>130</v>
+      </c>
+      <c r="M144" s="1">
+        <f t="shared" si="53"/>
+        <v>1305</v>
+      </c>
+      <c r="N144" s="11" t="s">
+        <v>886</v>
+      </c>
+      <c r="O144" s="11" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q144" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R144" s="1">
+        <v>0</v>
+      </c>
+      <c r="S144" s="3"/>
+      <c r="T144" s="3"/>
+    </row>
+    <row r="145" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="E145" s="1">
+        <v>4</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="G145" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I145" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J145" s="1">
+        <f t="shared" si="50"/>
+        <v>1580</v>
+      </c>
+      <c r="K145" s="1">
+        <f t="shared" si="51"/>
+        <v>910</v>
+      </c>
+      <c r="L145" s="1">
+        <f t="shared" si="52"/>
+        <v>135</v>
+      </c>
+      <c r="M145" s="1">
+        <f t="shared" si="53"/>
+        <v>1320</v>
+      </c>
+      <c r="N145" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="O145" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="Q145" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R145" s="1">
+        <v>0</v>
+      </c>
+      <c r="S145" s="3"/>
+      <c r="T145" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="917">
   <si>
     <t>ID</t>
   </si>
@@ -2236,6 +2236,9 @@
     <t>250000000000</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>10100</t>
   </si>
   <si>
@@ -2347,6 +2350,12 @@
     <t>地狱鸡王</t>
   </si>
   <si>
+    <t>10000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000000000000000000000000000</t>
+  </si>
+  <si>
     <t>310000000000</t>
   </si>
   <si>
@@ -2359,6 +2368,15 @@
     <t>地狱鹿王</t>
   </si>
   <si>
+    <t>30000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>300000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>50000000000000000000000000000000000000000</t>
+  </si>
+  <si>
     <t>320000000000</t>
   </si>
   <si>
@@ -2371,6 +2389,15 @@
     <t>地狱草王</t>
   </si>
   <si>
+    <t>100000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>1000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>250000000000000000000000000000000000000000</t>
+  </si>
+  <si>
     <t>330000000000</t>
   </si>
   <si>
@@ -2383,6 +2410,12 @@
     <t>地狱猫王</t>
   </si>
   <si>
+    <t>3000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>1250000000000000000000000000000000000000000</t>
+  </si>
+  <si>
     <t>340000000000</t>
   </si>
   <si>
@@ -2395,6 +2428,12 @@
     <t>地狱花王</t>
   </si>
   <si>
+    <t>1000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>6250000000000000000000000000000000000000000</t>
+  </si>
+  <si>
     <t>350000000000</t>
   </si>
   <si>
@@ -2407,6 +2446,12 @@
     <t>地狱雪王</t>
   </si>
   <si>
+    <t>3000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>30000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
     <t>360000000000</t>
   </si>
   <si>
@@ -2419,6 +2464,12 @@
     <t>地狱蝠王</t>
   </si>
   <si>
+    <t>10000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>150000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
     <t>370000000000</t>
   </si>
   <si>
@@ -2431,6 +2482,12 @@
     <t>地狱骷髅王</t>
   </si>
   <si>
+    <t>30000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>750000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
     <t>380000000000</t>
   </si>
   <si>
@@ -2443,6 +2500,9 @@
     <t>地狱尸王</t>
   </si>
   <si>
+    <t>3750000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
     <t>390000000000</t>
   </si>
   <si>
@@ -2455,6 +2515,12 @@
     <t>地狱蛇王</t>
   </si>
   <si>
+    <t>300000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>15000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
     <t>400000000000</t>
   </si>
   <si>
@@ -2467,6 +2533,12 @@
     <t>地狱狼王</t>
   </si>
   <si>
+    <t>1000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>75000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
     <t>410000000000</t>
   </si>
   <si>
@@ -2477,6 +2549,12 @@
   </si>
   <si>
     <t>地狱沙虫王</t>
+  </si>
+  <si>
+    <t>3000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>375000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>420000000000</t>
@@ -3400,7 +3478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3410,7 +3488,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3741,8 +3818,8 @@
   <sheetPr/>
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="N131" sqref="N131"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3752,9 +3829,9 @@
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="32.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="37.875" style="3" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="3" customWidth="1"/>
     <col min="11" max="13" width="12.125" style="3" customWidth="1"/>
     <col min="14" max="14" width="16.375" style="3" customWidth="1"/>
@@ -3966,7 +4043,7 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="1">
@@ -5610,7 +5687,7 @@
       <c r="F40" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="10" t="s">
         <v>278</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -6937,7 +7014,7 @@
       <c r="H65" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I65" s="11" t="s">
+      <c r="I65" s="10" t="s">
         <v>455</v>
       </c>
       <c r="J65" s="1">
@@ -6992,7 +7069,7 @@
       <c r="H66" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="10" t="s">
         <v>462</v>
       </c>
       <c r="J66" s="1">
@@ -7047,7 +7124,7 @@
       <c r="H67" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="I67" s="10" t="s">
         <v>469</v>
       </c>
       <c r="J67" s="1">
@@ -7102,7 +7179,7 @@
       <c r="H68" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I68" s="11" t="s">
+      <c r="I68" s="10" t="s">
         <v>476</v>
       </c>
       <c r="J68" s="1">
@@ -7157,7 +7234,7 @@
       <c r="H69" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I69" s="11" t="s">
+      <c r="I69" s="10" t="s">
         <v>483</v>
       </c>
       <c r="J69" s="1">
@@ -7212,7 +7289,7 @@
       <c r="H70" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="10" t="s">
         <v>490</v>
       </c>
       <c r="J70" s="1">
@@ -7260,13 +7337,13 @@
       <c r="F71" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="G71" s="12" t="s">
+      <c r="G71" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="H71" s="11" t="s">
+      <c r="H71" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="I71" s="12" t="s">
+      <c r="I71" s="11" t="s">
         <v>497</v>
       </c>
       <c r="J71" s="1">
@@ -7315,13 +7392,13 @@
       <c r="F72" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G72" s="12" t="s">
+      <c r="G72" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="H72" s="11" t="s">
+      <c r="H72" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="I72" s="13" t="s">
+      <c r="I72" s="12" t="s">
         <v>504</v>
       </c>
       <c r="J72" s="1">
@@ -7370,13 +7447,13 @@
       <c r="F73" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G73" s="12" t="s">
+      <c r="G73" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="H73" s="11" t="s">
+      <c r="H73" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="I73" s="13" t="s">
+      <c r="I73" s="12" t="s">
         <v>511</v>
       </c>
       <c r="J73" s="1">
@@ -7425,13 +7502,13 @@
       <c r="F74" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G74" s="12" t="s">
+      <c r="G74" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="H74" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="I74" s="13" t="s">
+      <c r="I74" s="12" t="s">
         <v>518</v>
       </c>
       <c r="J74" s="1">
@@ -7480,13 +7557,13 @@
       <c r="F75" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="G75" s="12" t="s">
+      <c r="G75" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="H75" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="I75" s="13" t="s">
+      <c r="I75" s="12" t="s">
         <v>525</v>
       </c>
       <c r="J75" s="1">
@@ -7508,7 +7585,7 @@
       <c r="N75" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="O75" s="11" t="s">
+      <c r="O75" s="10" t="s">
         <v>526</v>
       </c>
       <c r="Q75" s="1" t="s">
@@ -7535,13 +7612,13 @@
       <c r="F76" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="G76" s="12" t="s">
+      <c r="G76" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="H76" s="11" t="s">
+      <c r="H76" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="I76" s="13" t="s">
+      <c r="I76" s="12" t="s">
         <v>532</v>
       </c>
       <c r="J76" s="1">
@@ -7588,13 +7665,13 @@
       <c r="F77" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="G77" s="12" t="s">
+      <c r="G77" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="H77" s="11" t="s">
+      <c r="H77" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="I77" s="13" t="s">
+      <c r="I77" s="12" t="s">
         <v>538</v>
       </c>
       <c r="J77" s="1">
@@ -7641,13 +7718,13 @@
       <c r="F78" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="G78" s="12" t="s">
+      <c r="G78" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="H78" s="11" t="s">
+      <c r="H78" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="I78" s="13" t="s">
+      <c r="I78" s="12" t="s">
         <v>544</v>
       </c>
       <c r="J78" s="1">
@@ -7694,13 +7771,13 @@
       <c r="F79" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="G79" s="12" t="s">
+      <c r="G79" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="H79" s="11" t="s">
+      <c r="H79" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="I79" s="13" t="s">
+      <c r="I79" s="12" t="s">
         <v>550</v>
       </c>
       <c r="J79" s="1">
@@ -7747,13 +7824,13 @@
       <c r="F80" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="G80" s="12" t="s">
+      <c r="G80" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="H80" s="11" t="s">
+      <c r="H80" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="I80" s="13" t="s">
+      <c r="I80" s="12" t="s">
         <v>556</v>
       </c>
       <c r="J80" s="1">
@@ -7800,13 +7877,13 @@
       <c r="F81" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="G81" s="12" t="s">
+      <c r="G81" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="H81" s="11" t="s">
+      <c r="H81" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="I81" s="13" t="s">
+      <c r="I81" s="12" t="s">
         <v>562</v>
       </c>
       <c r="J81" s="1">
@@ -7855,13 +7932,13 @@
       <c r="F82" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="G82" s="12" t="s">
+      <c r="G82" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="H82" s="11" t="s">
+      <c r="H82" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="I82" s="13" t="s">
+      <c r="I82" s="12" t="s">
         <v>568</v>
       </c>
       <c r="J82" s="1">
@@ -7910,13 +7987,13 @@
       <c r="F83" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="G83" s="12" t="s">
+      <c r="G83" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="H83" s="11" t="s">
+      <c r="H83" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="I83" s="13" t="s">
+      <c r="I83" s="12" t="s">
         <v>573</v>
       </c>
       <c r="J83" s="1">
@@ -7965,13 +8042,13 @@
       <c r="F84" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="G84" s="12" t="s">
+      <c r="G84" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="H84" s="11" t="s">
+      <c r="H84" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="I84" s="13" t="s">
+      <c r="I84" s="12" t="s">
         <v>579</v>
       </c>
       <c r="J84" s="1">
@@ -8020,13 +8097,13 @@
       <c r="F85" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="G85" s="12" t="s">
+      <c r="G85" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="H85" s="11" t="s">
+      <c r="H85" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="I85" s="13" t="s">
+      <c r="I85" s="12" t="s">
         <v>584</v>
       </c>
       <c r="J85" s="1">
@@ -8075,13 +8152,13 @@
       <c r="F86" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="G86" s="12" t="s">
+      <c r="G86" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="H86" s="11" t="s">
+      <c r="H86" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="I86" s="13" t="s">
+      <c r="I86" s="12" t="s">
         <v>590</v>
       </c>
       <c r="J86" s="1">
@@ -8130,13 +8207,13 @@
       <c r="F87" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="G87" s="12" t="s">
+      <c r="G87" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="H87" s="11" t="s">
+      <c r="H87" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="I87" s="13" t="s">
+      <c r="I87" s="12" t="s">
         <v>596</v>
       </c>
       <c r="J87" s="1">
@@ -8185,13 +8262,13 @@
       <c r="F88" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="G88" s="12" t="s">
+      <c r="G88" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="H88" s="11" t="s">
+      <c r="H88" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="I88" s="13" t="s">
+      <c r="I88" s="12" t="s">
         <v>602</v>
       </c>
       <c r="J88" s="1">
@@ -8240,13 +8317,13 @@
       <c r="F89" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="G89" s="12" t="s">
+      <c r="G89" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="H89" s="11" t="s">
+      <c r="H89" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="I89" s="13" t="s">
+      <c r="I89" s="12" t="s">
         <v>607</v>
       </c>
       <c r="J89" s="1">
@@ -8295,13 +8372,13 @@
       <c r="F90" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="G90" s="12" t="s">
+      <c r="G90" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="H90" s="11" t="s">
+      <c r="H90" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="I90" s="13" t="s">
+      <c r="I90" s="12" t="s">
         <v>613</v>
       </c>
       <c r="J90" s="1">
@@ -8320,10 +8397,10 @@
         <f t="shared" si="15"/>
         <v>415</v>
       </c>
-      <c r="N90" s="11" t="s">
+      <c r="N90" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="O90" s="11" t="s">
+      <c r="O90" s="10" t="s">
         <v>614</v>
       </c>
       <c r="Q90" s="1" t="s">
@@ -8350,13 +8427,13 @@
       <c r="F91" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="G91" s="12" t="s">
+      <c r="G91" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="H91" s="11" t="s">
+      <c r="H91" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="I91" s="13" t="s">
+      <c r="I91" s="12" t="s">
         <v>619</v>
       </c>
       <c r="J91" s="1">
@@ -8375,10 +8452,10 @@
         <f t="shared" ref="M91:M96" si="21">M90+20</f>
         <v>435</v>
       </c>
-      <c r="N91" s="11" t="s">
+      <c r="N91" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="O91" s="11" t="s">
+      <c r="O91" s="10" t="s">
         <v>620</v>
       </c>
       <c r="Q91" s="1" t="s">
@@ -8405,13 +8482,13 @@
       <c r="F92" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="G92" s="12" t="s">
+      <c r="G92" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="H92" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="I92" s="13" t="s">
+      <c r="I92" s="12" t="s">
         <v>626</v>
       </c>
       <c r="J92" s="1">
@@ -8430,10 +8507,10 @@
         <f t="shared" si="21"/>
         <v>455</v>
       </c>
-      <c r="N92" s="11" t="s">
+      <c r="N92" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="O92" s="11" t="s">
+      <c r="O92" s="10" t="s">
         <v>627</v>
       </c>
       <c r="Q92" s="1" t="s">
@@ -8460,13 +8537,13 @@
       <c r="F93" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="G93" s="12" t="s">
+      <c r="G93" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="H93" s="11" t="s">
+      <c r="H93" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="I93" s="13" t="s">
+      <c r="I93" s="12" t="s">
         <v>633</v>
       </c>
       <c r="J93" s="1">
@@ -8485,10 +8562,10 @@
         <f t="shared" si="21"/>
         <v>475</v>
       </c>
-      <c r="N93" s="11" t="s">
+      <c r="N93" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="O93" s="11" t="s">
+      <c r="O93" s="10" t="s">
         <v>634</v>
       </c>
       <c r="Q93" s="1" t="s">
@@ -8515,13 +8592,13 @@
       <c r="F94" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="G94" s="12" t="s">
+      <c r="G94" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="H94" s="11" t="s">
+      <c r="H94" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="I94" s="13" t="s">
+      <c r="I94" s="12" t="s">
         <v>640</v>
       </c>
       <c r="J94" s="1">
@@ -8540,10 +8617,10 @@
         <f t="shared" si="21"/>
         <v>495</v>
       </c>
-      <c r="N94" s="11" t="s">
+      <c r="N94" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="O94" s="11" t="s">
+      <c r="O94" s="10" t="s">
         <v>641</v>
       </c>
       <c r="Q94" s="1" t="s">
@@ -8570,13 +8647,13 @@
       <c r="F95" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G95" s="12" t="s">
+      <c r="G95" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="H95" s="11" t="s">
+      <c r="H95" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="I95" s="13" t="s">
+      <c r="I95" s="12" t="s">
         <v>647</v>
       </c>
       <c r="J95" s="1">
@@ -8595,10 +8672,10 @@
         <f t="shared" si="21"/>
         <v>515</v>
       </c>
-      <c r="N95" s="11" t="s">
+      <c r="N95" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="O95" s="11" t="s">
+      <c r="O95" s="10" t="s">
         <v>648</v>
       </c>
       <c r="Q95" s="1" t="s">
@@ -8623,13 +8700,13 @@
       <c r="F96" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="G96" s="12" t="s">
+      <c r="G96" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="H96" s="11" t="s">
+      <c r="H96" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="I96" s="13" t="s">
+      <c r="I96" s="12" t="s">
         <v>654</v>
       </c>
       <c r="J96" s="1">
@@ -8648,10 +8725,10 @@
         <f t="shared" ref="M96:M100" si="25">M95+25</f>
         <v>540</v>
       </c>
-      <c r="N96" s="11" t="s">
+      <c r="N96" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="O96" s="11" t="s">
+      <c r="O96" s="10" t="s">
         <v>655</v>
       </c>
       <c r="Q96" s="1" t="s">
@@ -8674,13 +8751,13 @@
       <c r="F97" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="G97" s="12" t="s">
+      <c r="G97" s="11" t="s">
         <v>659</v>
       </c>
-      <c r="H97" s="11" t="s">
+      <c r="H97" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="I97" s="13" t="s">
+      <c r="I97" s="12" t="s">
         <v>661</v>
       </c>
       <c r="J97" s="1">
@@ -8699,10 +8776,10 @@
         <f t="shared" si="25"/>
         <v>565</v>
       </c>
-      <c r="N97" s="11" t="s">
+      <c r="N97" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="O97" s="11" t="s">
+      <c r="O97" s="10" t="s">
         <v>662</v>
       </c>
       <c r="Q97" s="1" t="s">
@@ -8725,13 +8802,13 @@
       <c r="F98" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="G98" s="12" t="s">
+      <c r="G98" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="H98" s="11" t="s">
+      <c r="H98" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="I98" s="13" t="s">
+      <c r="I98" s="12" t="s">
         <v>668</v>
       </c>
       <c r="J98" s="1">
@@ -8750,10 +8827,10 @@
         <f t="shared" si="25"/>
         <v>590</v>
       </c>
-      <c r="N98" s="11" t="s">
+      <c r="N98" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="O98" s="11" t="s">
+      <c r="O98" s="10" t="s">
         <v>669</v>
       </c>
       <c r="Q98" s="1" t="s">
@@ -8776,13 +8853,13 @@
       <c r="F99" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="G99" s="12" t="s">
+      <c r="G99" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="H99" s="11" t="s">
+      <c r="H99" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="I99" s="13" t="s">
+      <c r="I99" s="12" t="s">
         <v>675</v>
       </c>
       <c r="J99" s="1">
@@ -8801,10 +8878,10 @@
         <f t="shared" si="25"/>
         <v>615</v>
       </c>
-      <c r="N99" s="11" t="s">
+      <c r="N99" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="O99" s="11" t="s">
+      <c r="O99" s="10" t="s">
         <v>676</v>
       </c>
       <c r="Q99" s="1" t="s">
@@ -8827,13 +8904,13 @@
       <c r="F100" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="G100" s="12" t="s">
+      <c r="G100" s="11" t="s">
         <v>680</v>
       </c>
-      <c r="H100" s="11" t="s">
+      <c r="H100" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="I100" s="13" t="s">
+      <c r="I100" s="12" t="s">
         <v>682</v>
       </c>
       <c r="J100" s="1">
@@ -8852,10 +8929,10 @@
         <f t="shared" si="25"/>
         <v>640</v>
       </c>
-      <c r="N100" s="11" t="s">
+      <c r="N100" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="O100" s="11" t="s">
+      <c r="O100" s="10" t="s">
         <v>683</v>
       </c>
       <c r="Q100" s="1" t="s">
@@ -8880,13 +8957,13 @@
       <c r="F101" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="G101" s="12" t="s">
+      <c r="G101" s="11" t="s">
         <v>687</v>
       </c>
-      <c r="H101" s="11" t="s">
+      <c r="H101" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="I101" s="13" t="s">
+      <c r="I101" s="12" t="s">
         <v>689</v>
       </c>
       <c r="J101" s="1">
@@ -8905,10 +8982,10 @@
         <f t="shared" si="26"/>
         <v>648</v>
       </c>
-      <c r="N101" s="11" t="s">
+      <c r="N101" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="O101" s="11" t="s">
+      <c r="O101" s="10" t="s">
         <v>690</v>
       </c>
       <c r="Q101" s="1" t="s">
@@ -8935,13 +9012,13 @@
       <c r="F102" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="G102" s="12" t="s">
+      <c r="G102" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="H102" s="11" t="s">
+      <c r="H102" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="I102" s="13" t="s">
+      <c r="I102" s="12" t="s">
         <v>695</v>
       </c>
       <c r="J102" s="1">
@@ -8960,10 +9037,10 @@
         <f t="shared" si="27"/>
         <v>656</v>
       </c>
-      <c r="N102" s="11" t="s">
+      <c r="N102" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="O102" s="11" t="s">
+      <c r="O102" s="10" t="s">
         <v>696</v>
       </c>
       <c r="Q102" s="1" t="s">
@@ -8990,13 +9067,13 @@
       <c r="F103" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="G103" s="12" t="s">
+      <c r="G103" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="H103" s="11" t="s">
+      <c r="H103" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="I103" s="13" t="s">
+      <c r="I103" s="12" t="s">
         <v>701</v>
       </c>
       <c r="J103" s="1">
@@ -9015,10 +9092,10 @@
         <f t="shared" si="28"/>
         <v>664</v>
       </c>
-      <c r="N103" s="11" t="s">
+      <c r="N103" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="O103" s="11" t="s">
+      <c r="O103" s="10" t="s">
         <v>702</v>
       </c>
       <c r="Q103" s="1" t="s">
@@ -9045,13 +9122,13 @@
       <c r="F104" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="G104" s="12" t="s">
+      <c r="G104" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="H104" s="11" t="s">
+      <c r="H104" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="I104" s="13" t="s">
+      <c r="I104" s="12" t="s">
         <v>708</v>
       </c>
       <c r="J104" s="1">
@@ -9070,10 +9147,10 @@
         <f t="shared" si="29"/>
         <v>672</v>
       </c>
-      <c r="N104" s="11" t="s">
+      <c r="N104" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="O104" s="11" t="s">
+      <c r="O104" s="10" t="s">
         <v>709</v>
       </c>
       <c r="Q104" s="1" t="s">
@@ -9100,13 +9177,13 @@
       <c r="F105" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="G105" s="12" t="s">
+      <c r="G105" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="H105" s="11" t="s">
+      <c r="H105" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="I105" s="13" t="s">
+      <c r="I105" s="12" t="s">
         <v>715</v>
       </c>
       <c r="J105" s="1">
@@ -9124,10 +9201,10 @@
         <f t="shared" si="30"/>
         <v>680</v>
       </c>
-      <c r="N105" s="11" t="s">
+      <c r="N105" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="O105" s="11" t="s">
+      <c r="O105" s="10" t="s">
         <v>716</v>
       </c>
       <c r="Q105" s="1" t="s">
@@ -9140,28 +9217,32 @@
       <c r="T105" s="3"/>
     </row>
     <row r="106" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+      <c r="A106" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C106" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="G106" s="12" t="s">
         <v>720</v>
       </c>
-      <c r="H106" s="11" t="s">
+      <c r="G106" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="I106" s="13" t="s">
+      <c r="H106" s="10" t="s">
         <v>722</v>
+      </c>
+      <c r="I106" s="12" t="s">
+        <v>723</v>
       </c>
       <c r="J106" s="1">
         <f t="shared" ref="J106:J115" si="31">J105+15</f>
@@ -9179,11 +9260,11 @@
         <f t="shared" ref="M106:M125" si="34">M105+15</f>
         <v>695</v>
       </c>
-      <c r="N106" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="O106" s="11" t="s">
-        <v>723</v>
+      <c r="N106" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="O106" s="10" t="s">
+        <v>724</v>
       </c>
       <c r="Q106" s="1" t="s">
         <v>148</v>
@@ -9195,28 +9276,32 @@
       <c r="T106" s="3"/>
     </row>
     <row r="107" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+      <c r="A107" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C107" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E107" s="1">
         <v>3</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="G107" s="12" t="s">
         <v>727</v>
       </c>
-      <c r="H107" s="11" t="s">
+      <c r="G107" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="I107" s="13" t="s">
+      <c r="H107" s="10" t="s">
         <v>729</v>
+      </c>
+      <c r="I107" s="12" t="s">
+        <v>730</v>
       </c>
       <c r="J107" s="1">
         <f t="shared" si="31"/>
@@ -9234,11 +9319,11 @@
         <f t="shared" si="34"/>
         <v>710</v>
       </c>
-      <c r="N107" s="11" t="s">
-        <v>730</v>
-      </c>
-      <c r="O107" s="11" t="s">
-        <v>730</v>
+      <c r="N107" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="O107" s="10" t="s">
+        <v>731</v>
       </c>
       <c r="Q107" s="1" t="s">
         <v>148</v>
@@ -9250,28 +9335,32 @@
       <c r="T107" s="3"/>
     </row>
     <row r="108" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+      <c r="A108" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C108" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E108" s="1">
         <v>3</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="G108" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="H108" s="11" t="s">
+      <c r="G108" s="11" t="s">
         <v>735</v>
       </c>
-      <c r="I108" s="13" t="s">
+      <c r="H108" s="10" t="s">
         <v>736</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>737</v>
       </c>
       <c r="J108" s="1">
         <f t="shared" si="31"/>
@@ -9289,11 +9378,11 @@
         <f t="shared" si="34"/>
         <v>725</v>
       </c>
-      <c r="N108" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="O108" s="11" t="s">
-        <v>737</v>
+      <c r="N108" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="O108" s="10" t="s">
+        <v>738</v>
       </c>
       <c r="Q108" s="1" t="s">
         <v>148</v>
@@ -9305,28 +9394,32 @@
       <c r="T108" s="3"/>
     </row>
     <row r="109" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="A109" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C109" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="G109" s="12" t="s">
         <v>741</v>
       </c>
-      <c r="H109" s="11" t="s">
+      <c r="G109" s="11" t="s">
         <v>742</v>
       </c>
-      <c r="I109" s="13" t="s">
+      <c r="H109" s="10" t="s">
         <v>743</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>744</v>
       </c>
       <c r="J109" s="1">
         <f t="shared" si="31"/>
@@ -9344,11 +9437,11 @@
         <f t="shared" si="34"/>
         <v>740</v>
       </c>
-      <c r="N109" s="11" t="s">
-        <v>744</v>
-      </c>
-      <c r="O109" s="11" t="s">
-        <v>744</v>
+      <c r="N109" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="O109" s="10" t="s">
+        <v>745</v>
       </c>
       <c r="Q109" s="1" t="s">
         <v>148</v>
@@ -9360,28 +9453,32 @@
       <c r="T109" s="3"/>
     </row>
     <row r="110" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+      <c r="A110" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C110" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="G110" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="G110" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H110" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I110" s="13" t="s">
+      <c r="H110" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J110" s="1">
         <f t="shared" si="31"/>
@@ -9399,11 +9496,11 @@
         <f t="shared" si="34"/>
         <v>755</v>
       </c>
-      <c r="N110" s="11" t="s">
-        <v>750</v>
-      </c>
-      <c r="O110" s="11" t="s">
-        <v>750</v>
+      <c r="N110" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="O110" s="10" t="s">
+        <v>751</v>
       </c>
       <c r="Q110" s="1" t="s">
         <v>148</v>
@@ -9415,28 +9512,32 @@
       <c r="T110" s="3"/>
     </row>
     <row r="111" s="2" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
+      <c r="A111" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C111" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E111" s="2">
         <v>4</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="G111" s="14" t="s">
-        <v>668</v>
-      </c>
-      <c r="H111" s="15" t="s">
-        <v>748</v>
-      </c>
-      <c r="I111" s="16" t="s">
-        <v>749</v>
+        <v>754</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="H111" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="I111" s="15" t="s">
+        <v>756</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="31"/>
@@ -9454,11 +9555,11 @@
         <f t="shared" si="34"/>
         <v>770</v>
       </c>
-      <c r="N111" s="15" t="s">
-        <v>754</v>
-      </c>
-      <c r="O111" s="15" t="s">
-        <v>754</v>
+      <c r="N111" s="14" t="s">
+        <v>757</v>
+      </c>
+      <c r="O111" s="14" t="s">
+        <v>757</v>
       </c>
       <c r="Q111" s="2" t="s">
         <v>148</v>
@@ -9468,28 +9569,32 @@
       </c>
     </row>
     <row r="112" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="A112" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C112" s="1" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="E112" s="1">
         <v>4</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="G112" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="H112" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I112" s="13" t="s">
-        <v>749</v>
+        <v>760</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="I112" s="12" t="s">
+        <v>763</v>
       </c>
       <c r="J112" s="1">
         <f t="shared" si="31"/>
@@ -9507,11 +9612,11 @@
         <f t="shared" si="34"/>
         <v>785</v>
       </c>
-      <c r="N112" s="11" t="s">
-        <v>758</v>
-      </c>
-      <c r="O112" s="11" t="s">
-        <v>758</v>
+      <c r="N112" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="O112" s="10" t="s">
+        <v>764</v>
       </c>
       <c r="Q112" s="1" t="s">
         <v>148</v>
@@ -9521,28 +9626,32 @@
       </c>
     </row>
     <row r="113" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+      <c r="A113" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C113" s="1" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="E113" s="1">
         <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="G113" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="H113" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I113" s="13" t="s">
-        <v>749</v>
+        <v>767</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>770</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" si="31"/>
@@ -9560,11 +9669,11 @@
         <f t="shared" si="34"/>
         <v>800</v>
       </c>
-      <c r="N113" s="11" t="s">
-        <v>762</v>
-      </c>
-      <c r="O113" s="11" t="s">
-        <v>762</v>
+      <c r="N113" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="O113" s="10" t="s">
+        <v>771</v>
       </c>
       <c r="Q113" s="1" t="s">
         <v>148</v>
@@ -9574,28 +9683,32 @@
       </c>
     </row>
     <row r="114" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
+      <c r="A114" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C114" s="1" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="E114" s="1">
         <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="G114" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="H114" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I114" s="13" t="s">
-        <v>749</v>
+        <v>774</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="H114" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>776</v>
       </c>
       <c r="J114" s="1">
         <f t="shared" si="31"/>
@@ -9613,11 +9726,11 @@
         <f t="shared" si="34"/>
         <v>815</v>
       </c>
-      <c r="N114" s="11" t="s">
-        <v>766</v>
-      </c>
-      <c r="O114" s="11" t="s">
-        <v>766</v>
+      <c r="N114" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="O114" s="10" t="s">
+        <v>777</v>
       </c>
       <c r="Q114" s="1" t="s">
         <v>148</v>
@@ -9627,28 +9740,32 @@
       </c>
     </row>
     <row r="115" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
+      <c r="A115" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C115" s="1" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
       <c r="E115" s="1">
         <v>4</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="G115" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="H115" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I115" s="13" t="s">
-        <v>749</v>
+        <v>780</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>782</v>
       </c>
       <c r="J115" s="1">
         <f t="shared" si="31"/>
@@ -9666,11 +9783,11 @@
         <f t="shared" si="34"/>
         <v>830</v>
       </c>
-      <c r="N115" s="11" t="s">
-        <v>770</v>
-      </c>
-      <c r="O115" s="11" t="s">
-        <v>770</v>
+      <c r="N115" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="O115" s="10" t="s">
+        <v>783</v>
       </c>
       <c r="Q115" s="1" t="s">
         <v>148</v>
@@ -9680,28 +9797,32 @@
       </c>
     </row>
     <row r="116" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="A116" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C116" s="1" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="E116" s="1">
         <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="H116" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I116" s="13" t="s">
-        <v>749</v>
+        <v>786</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="H116" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="I116" s="12" t="s">
+        <v>788</v>
       </c>
       <c r="J116" s="1">
         <f t="shared" ref="J116:J125" si="35">J115+20</f>
@@ -9719,11 +9840,11 @@
         <f t="shared" si="34"/>
         <v>845</v>
       </c>
-      <c r="N116" s="11" t="s">
-        <v>774</v>
-      </c>
-      <c r="O116" s="11" t="s">
-        <v>774</v>
+      <c r="N116" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="O116" s="10" t="s">
+        <v>789</v>
       </c>
       <c r="Q116" s="1" t="s">
         <v>148</v>
@@ -9735,28 +9856,32 @@
       <c r="T116" s="3"/>
     </row>
     <row r="117" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+      <c r="A117" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C117" s="1" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="E117" s="1">
         <v>4</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="G117" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I117" s="13" t="s">
-        <v>749</v>
+        <v>792</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="I117" s="12" t="s">
+        <v>794</v>
       </c>
       <c r="J117" s="1">
         <f t="shared" si="35"/>
@@ -9774,11 +9899,11 @@
         <f t="shared" si="34"/>
         <v>860</v>
       </c>
-      <c r="N117" s="11" t="s">
-        <v>778</v>
-      </c>
-      <c r="O117" s="11" t="s">
-        <v>778</v>
+      <c r="N117" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="O117" s="10" t="s">
+        <v>795</v>
       </c>
       <c r="Q117" s="1" t="s">
         <v>148</v>
@@ -9790,28 +9915,32 @@
       <c r="T117" s="3"/>
     </row>
     <row r="118" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="A118" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C118" s="1" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
       <c r="E118" s="1">
         <v>4</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="G118" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="H118" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I118" s="13" t="s">
-        <v>749</v>
+        <v>798</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="I118" s="12" t="s">
+        <v>800</v>
       </c>
       <c r="J118" s="1">
         <f t="shared" si="35"/>
@@ -9829,11 +9958,11 @@
         <f t="shared" si="34"/>
         <v>875</v>
       </c>
-      <c r="N118" s="11" t="s">
-        <v>782</v>
-      </c>
-      <c r="O118" s="11" t="s">
-        <v>782</v>
+      <c r="N118" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="O118" s="10" t="s">
+        <v>801</v>
       </c>
       <c r="Q118" s="1" t="s">
         <v>148</v>
@@ -9845,28 +9974,32 @@
       <c r="T118" s="3"/>
     </row>
     <row r="119" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+      <c r="A119" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C119" s="1" t="s">
-        <v>783</v>
+        <v>802</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>784</v>
+        <v>803</v>
       </c>
       <c r="E119" s="1">
         <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="G119" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="H119" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I119" s="13" t="s">
-        <v>749</v>
+        <v>804</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="I119" s="12" t="s">
+        <v>805</v>
       </c>
       <c r="J119" s="1">
         <f t="shared" si="35"/>
@@ -9884,11 +10017,11 @@
         <f t="shared" si="34"/>
         <v>890</v>
       </c>
-      <c r="N119" s="11" t="s">
-        <v>786</v>
-      </c>
-      <c r="O119" s="11" t="s">
-        <v>786</v>
+      <c r="N119" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="O119" s="10" t="s">
+        <v>806</v>
       </c>
       <c r="Q119" s="1" t="s">
         <v>148</v>
@@ -9900,28 +10033,32 @@
       <c r="T119" s="3"/>
     </row>
     <row r="120" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+      <c r="A120" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C120" s="1" t="s">
-        <v>787</v>
+        <v>807</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>788</v>
+        <v>808</v>
       </c>
       <c r="E120" s="1">
         <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="G120" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I120" s="13" t="s">
-        <v>749</v>
+        <v>809</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="I120" s="12" t="s">
+        <v>811</v>
       </c>
       <c r="J120" s="1">
         <f t="shared" si="35"/>
@@ -9939,11 +10076,11 @@
         <f t="shared" si="34"/>
         <v>905</v>
       </c>
-      <c r="N120" s="11" t="s">
-        <v>790</v>
-      </c>
-      <c r="O120" s="11" t="s">
-        <v>790</v>
+      <c r="N120" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="O120" s="10" t="s">
+        <v>812</v>
       </c>
       <c r="Q120" s="1" t="s">
         <v>148</v>
@@ -9955,28 +10092,32 @@
       <c r="T120" s="3"/>
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+      <c r="A121" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C121" s="1" t="s">
-        <v>791</v>
+        <v>813</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>792</v>
+        <v>814</v>
       </c>
       <c r="E121" s="1">
         <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="H121" s="10" t="s">
         <v>793</v>
       </c>
-      <c r="G121" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="H121" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I121" s="13" t="s">
-        <v>749</v>
+      <c r="I121" s="12" t="s">
+        <v>817</v>
       </c>
       <c r="J121" s="1">
         <f t="shared" si="35"/>
@@ -9994,11 +10135,11 @@
         <f t="shared" si="34"/>
         <v>920</v>
       </c>
-      <c r="N121" s="11" t="s">
-        <v>794</v>
-      </c>
-      <c r="O121" s="11" t="s">
-        <v>794</v>
+      <c r="N121" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="O121" s="10" t="s">
+        <v>818</v>
       </c>
       <c r="Q121" s="1" t="s">
         <v>148</v>
@@ -10010,28 +10151,32 @@
       <c r="T121" s="3"/>
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+      <c r="A122" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C122" s="1" t="s">
-        <v>795</v>
+        <v>819</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="E122" s="1">
         <v>4</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="H122" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I122" s="13" t="s">
-        <v>749</v>
+        <v>821</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="I122" s="12" t="s">
+        <v>823</v>
       </c>
       <c r="J122" s="1">
         <f t="shared" si="35"/>
@@ -10049,11 +10194,11 @@
         <f t="shared" si="34"/>
         <v>935</v>
       </c>
-      <c r="N122" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="O122" s="11" t="s">
-        <v>798</v>
+      <c r="N122" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="O122" s="10" t="s">
+        <v>824</v>
       </c>
       <c r="Q122" s="1" t="s">
         <v>148</v>
@@ -10065,28 +10210,32 @@
       <c r="T122" s="3"/>
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+      <c r="A123" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C123" s="1" t="s">
-        <v>799</v>
+        <v>825</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>800</v>
+        <v>826</v>
       </c>
       <c r="E123" s="1">
         <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="G123" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="G123" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H123" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I123" s="13" t="s">
+      <c r="H123" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I123" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J123" s="1">
         <f t="shared" si="35"/>
@@ -10104,11 +10253,11 @@
         <f t="shared" si="34"/>
         <v>950</v>
       </c>
-      <c r="N123" s="11" t="s">
-        <v>802</v>
-      </c>
-      <c r="O123" s="11" t="s">
-        <v>802</v>
+      <c r="N123" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="O123" s="10" t="s">
+        <v>828</v>
       </c>
       <c r="Q123" s="1" t="s">
         <v>148</v>
@@ -10120,28 +10269,32 @@
       <c r="T123" s="3"/>
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="A124" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C124" s="1" t="s">
-        <v>803</v>
+        <v>829</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>804</v>
+        <v>830</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="G124" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="G124" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H124" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I124" s="13" t="s">
+      <c r="H124" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I124" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J124" s="1">
         <f t="shared" si="35"/>
@@ -10159,11 +10312,11 @@
         <f t="shared" si="34"/>
         <v>965</v>
       </c>
-      <c r="N124" s="11" t="s">
-        <v>806</v>
-      </c>
-      <c r="O124" s="11" t="s">
-        <v>806</v>
+      <c r="N124" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="O124" s="10" t="s">
+        <v>832</v>
       </c>
       <c r="Q124" s="1" t="s">
         <v>148</v>
@@ -10175,28 +10328,32 @@
       <c r="T124" s="3"/>
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+      <c r="A125" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C125" s="1" t="s">
-        <v>807</v>
+        <v>833</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>808</v>
+        <v>834</v>
       </c>
       <c r="E125" s="1">
         <v>4</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="G125" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="G125" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H125" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I125" s="13" t="s">
+      <c r="H125" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J125" s="1">
         <f t="shared" si="35"/>
@@ -10214,11 +10371,11 @@
         <f t="shared" si="34"/>
         <v>980</v>
       </c>
-      <c r="N125" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="O125" s="11" t="s">
-        <v>810</v>
+      <c r="N125" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="O125" s="10" t="s">
+        <v>836</v>
       </c>
       <c r="Q125" s="1" t="s">
         <v>148</v>
@@ -10230,28 +10387,32 @@
       <c r="T125" s="3"/>
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
+      <c r="A126" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C126" s="1" t="s">
-        <v>811</v>
+        <v>837</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>812</v>
+        <v>838</v>
       </c>
       <c r="E126" s="1">
         <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="G126" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="G126" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H126" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I126" s="13" t="s">
+      <c r="H126" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J126" s="1">
         <f t="shared" ref="J126:J130" si="37">J125+25</f>
@@ -10269,11 +10430,11 @@
         <f t="shared" ref="M126:M130" si="40">M125+20</f>
         <v>1000</v>
       </c>
-      <c r="N126" s="11" t="s">
-        <v>814</v>
-      </c>
-      <c r="O126" s="11" t="s">
-        <v>814</v>
+      <c r="N126" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="O126" s="10" t="s">
+        <v>840</v>
       </c>
       <c r="Q126" s="1" t="s">
         <v>148</v>
@@ -10285,28 +10446,32 @@
       <c r="T126" s="3"/>
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
+      <c r="A127" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C127" s="1" t="s">
-        <v>815</v>
+        <v>841</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>816</v>
+        <v>842</v>
       </c>
       <c r="E127" s="1">
         <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="G127" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="G127" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H127" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I127" s="13" t="s">
+      <c r="H127" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J127" s="1">
         <f t="shared" si="37"/>
@@ -10324,11 +10489,11 @@
         <f t="shared" si="40"/>
         <v>1020</v>
       </c>
-      <c r="N127" s="11" t="s">
-        <v>818</v>
-      </c>
-      <c r="O127" s="11" t="s">
-        <v>818</v>
+      <c r="N127" s="10" t="s">
+        <v>844</v>
+      </c>
+      <c r="O127" s="10" t="s">
+        <v>844</v>
       </c>
       <c r="Q127" s="1" t="s">
         <v>148</v>
@@ -10340,28 +10505,32 @@
       <c r="T127" s="3"/>
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+      <c r="A128" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C128" s="1" t="s">
-        <v>819</v>
+        <v>845</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="E128" s="1">
         <v>4</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="G128" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="G128" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H128" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I128" s="13" t="s">
+      <c r="H128" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J128" s="1">
         <f t="shared" si="37"/>
@@ -10379,11 +10548,11 @@
         <f t="shared" si="40"/>
         <v>1040</v>
       </c>
-      <c r="N128" s="11" t="s">
-        <v>822</v>
-      </c>
-      <c r="O128" s="11" t="s">
-        <v>822</v>
+      <c r="N128" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="O128" s="10" t="s">
+        <v>848</v>
       </c>
       <c r="Q128" s="1" t="s">
         <v>148</v>
@@ -10395,28 +10564,32 @@
       <c r="T128" s="3"/>
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+      <c r="A129" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C129" s="1" t="s">
-        <v>823</v>
+        <v>849</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>824</v>
+        <v>850</v>
       </c>
       <c r="E129" s="1">
         <v>4</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="G129" s="12" t="s">
+        <v>851</v>
+      </c>
+      <c r="G129" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H129" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I129" s="13" t="s">
+      <c r="H129" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J129" s="1">
         <f t="shared" si="37"/>
@@ -10434,11 +10607,11 @@
         <f t="shared" si="40"/>
         <v>1060</v>
       </c>
-      <c r="N129" s="11" t="s">
-        <v>826</v>
-      </c>
-      <c r="O129" s="11" t="s">
-        <v>826</v>
+      <c r="N129" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="O129" s="10" t="s">
+        <v>852</v>
       </c>
       <c r="Q129" s="1" t="s">
         <v>148</v>
@@ -10450,28 +10623,32 @@
       <c r="T129" s="3"/>
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+      <c r="A130" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C130" s="1" t="s">
-        <v>827</v>
+        <v>853</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>828</v>
+        <v>854</v>
       </c>
       <c r="E130" s="1">
         <v>4</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="G130" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="G130" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H130" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I130" s="13" t="s">
+      <c r="H130" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I130" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J130" s="1">
         <f t="shared" si="37"/>
@@ -10489,11 +10666,11 @@
         <f t="shared" si="40"/>
         <v>1080</v>
       </c>
-      <c r="N130" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="O130" s="11" t="s">
-        <v>830</v>
+      <c r="N130" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="O130" s="10" t="s">
+        <v>856</v>
       </c>
       <c r="Q130" s="1" t="s">
         <v>148</v>
@@ -10504,27 +10681,33 @@
       <c r="S130" s="3"/>
       <c r="T130" s="3"/>
     </row>
-    <row r="131" customHeight="1" spans="3:18">
+    <row r="131" customHeight="1" spans="1:18">
+      <c r="A131" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C131" s="1" t="s">
-        <v>831</v>
+        <v>857</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>832</v>
+        <v>858</v>
       </c>
       <c r="E131" s="1">
         <v>4</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="G131" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="G131" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H131" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I131" s="13" t="s">
+      <c r="H131" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J131" s="1">
         <f t="shared" ref="J131:J135" si="41">J130+30</f>
@@ -10542,11 +10725,11 @@
         <f t="shared" ref="M131:M135" si="44">M130+25</f>
         <v>1105</v>
       </c>
-      <c r="N131" s="11" t="s">
-        <v>834</v>
-      </c>
-      <c r="O131" s="11" t="s">
-        <v>834</v>
+      <c r="N131" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="O131" s="10" t="s">
+        <v>860</v>
       </c>
       <c r="Q131" s="1" t="s">
         <v>148</v>
@@ -10555,27 +10738,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="3:18">
+    <row r="132" customHeight="1" spans="1:18">
+      <c r="A132" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C132" s="1" t="s">
-        <v>835</v>
+        <v>861</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>836</v>
+        <v>862</v>
       </c>
       <c r="E132" s="1">
         <v>4</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="G132" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="G132" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H132" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I132" s="13" t="s">
+      <c r="H132" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J132" s="1">
         <f t="shared" si="41"/>
@@ -10593,11 +10782,11 @@
         <f t="shared" si="44"/>
         <v>1130</v>
       </c>
-      <c r="N132" s="11" t="s">
-        <v>838</v>
-      </c>
-      <c r="O132" s="11" t="s">
-        <v>838</v>
+      <c r="N132" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="O132" s="10" t="s">
+        <v>864</v>
       </c>
       <c r="Q132" s="1" t="s">
         <v>148</v>
@@ -10606,27 +10795,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="3:18">
+    <row r="133" customHeight="1" spans="1:18">
+      <c r="A133" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C133" s="1" t="s">
-        <v>839</v>
+        <v>865</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>840</v>
+        <v>866</v>
       </c>
       <c r="E133" s="1">
         <v>4</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="G133" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="G133" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H133" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I133" s="13" t="s">
+      <c r="H133" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J133" s="1">
         <f t="shared" si="41"/>
@@ -10644,11 +10839,11 @@
         <f t="shared" si="44"/>
         <v>1155</v>
       </c>
-      <c r="N133" s="11" t="s">
-        <v>842</v>
-      </c>
-      <c r="O133" s="11" t="s">
-        <v>842</v>
+      <c r="N133" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="O133" s="10" t="s">
+        <v>868</v>
       </c>
       <c r="Q133" s="1" t="s">
         <v>148</v>
@@ -10657,27 +10852,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="3:18">
+    <row r="134" customHeight="1" spans="1:18">
+      <c r="A134" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C134" s="1" t="s">
-        <v>843</v>
+        <v>869</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>844</v>
+        <v>870</v>
       </c>
       <c r="E134" s="1">
         <v>4</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="G134" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="G134" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H134" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I134" s="13" t="s">
+      <c r="H134" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J134" s="1">
         <f t="shared" si="41"/>
@@ -10695,11 +10896,11 @@
         <f t="shared" si="44"/>
         <v>1180</v>
       </c>
-      <c r="N134" s="11" t="s">
-        <v>846</v>
-      </c>
-      <c r="O134" s="11" t="s">
-        <v>846</v>
+      <c r="N134" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="O134" s="10" t="s">
+        <v>872</v>
       </c>
       <c r="Q134" s="1" t="s">
         <v>148</v>
@@ -10708,27 +10909,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" customHeight="1" spans="3:18">
+    <row r="135" customHeight="1" spans="1:18">
+      <c r="A135" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C135" s="1" t="s">
-        <v>847</v>
+        <v>873</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>848</v>
+        <v>874</v>
       </c>
       <c r="E135" s="1">
         <v>4</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="G135" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="G135" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H135" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I135" s="13" t="s">
+      <c r="H135" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J135" s="1">
         <f t="shared" si="41"/>
@@ -10746,11 +10953,11 @@
         <f t="shared" si="44"/>
         <v>1205</v>
       </c>
-      <c r="N135" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="O135" s="11" t="s">
-        <v>850</v>
+      <c r="N135" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="O135" s="10" t="s">
+        <v>876</v>
       </c>
       <c r="Q135" s="1" t="s">
         <v>148</v>
@@ -10760,28 +10967,32 @@
       </c>
     </row>
     <row r="136" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
+      <c r="A136" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C136" s="1" t="s">
-        <v>851</v>
+        <v>877</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>852</v>
+        <v>878</v>
       </c>
       <c r="E136" s="1">
         <v>4</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="G136" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="G136" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H136" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I136" s="13" t="s">
+      <c r="H136" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I136" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J136" s="1">
         <f t="shared" ref="J136:M136" si="45">J135+8</f>
@@ -10799,11 +11010,11 @@
         <f t="shared" si="45"/>
         <v>1213</v>
       </c>
-      <c r="N136" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="O136" s="11" t="s">
-        <v>854</v>
+      <c r="N136" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="O136" s="10" t="s">
+        <v>880</v>
       </c>
       <c r="Q136" s="1" t="s">
         <v>148</v>
@@ -10815,28 +11026,32 @@
       <c r="T136" s="3"/>
     </row>
     <row r="137" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
+      <c r="A137" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C137" s="1" t="s">
-        <v>855</v>
+        <v>881</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>856</v>
+        <v>882</v>
       </c>
       <c r="E137" s="1">
         <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="G137" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="G137" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H137" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I137" s="13" t="s">
+      <c r="H137" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J137" s="1">
         <f t="shared" ref="J137:M137" si="46">J136+8</f>
@@ -10854,11 +11069,11 @@
         <f t="shared" si="46"/>
         <v>1221</v>
       </c>
-      <c r="N137" s="11" t="s">
-        <v>858</v>
-      </c>
-      <c r="O137" s="11" t="s">
-        <v>858</v>
+      <c r="N137" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="O137" s="10" t="s">
+        <v>884</v>
       </c>
       <c r="Q137" s="1" t="s">
         <v>148</v>
@@ -10870,28 +11085,32 @@
       <c r="T137" s="3"/>
     </row>
     <row r="138" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
+      <c r="A138" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C138" s="1" t="s">
-        <v>859</v>
+        <v>885</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>860</v>
+        <v>886</v>
       </c>
       <c r="E138" s="1">
         <v>4</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="G138" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="G138" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H138" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I138" s="13" t="s">
+      <c r="H138" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I138" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J138" s="1">
         <f t="shared" ref="J138:M138" si="47">J137+8</f>
@@ -10909,11 +11128,11 @@
         <f t="shared" si="47"/>
         <v>1229</v>
       </c>
-      <c r="N138" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="O138" s="11" t="s">
-        <v>862</v>
+      <c r="N138" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="O138" s="10" t="s">
+        <v>888</v>
       </c>
       <c r="Q138" s="1" t="s">
         <v>148</v>
@@ -10925,28 +11144,32 @@
       <c r="T138" s="3"/>
     </row>
     <row r="139" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
+      <c r="A139" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C139" s="1" t="s">
-        <v>863</v>
+        <v>889</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>864</v>
+        <v>890</v>
       </c>
       <c r="E139" s="1">
         <v>4</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="G139" s="12" t="s">
+        <v>891</v>
+      </c>
+      <c r="G139" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H139" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I139" s="13" t="s">
+      <c r="H139" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I139" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J139" s="1">
         <f t="shared" ref="J139:M139" si="48">J138+8</f>
@@ -10964,11 +11187,11 @@
         <f t="shared" si="48"/>
         <v>1237</v>
       </c>
-      <c r="N139" s="11" t="s">
-        <v>866</v>
-      </c>
-      <c r="O139" s="11" t="s">
-        <v>866</v>
+      <c r="N139" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="O139" s="10" t="s">
+        <v>892</v>
       </c>
       <c r="Q139" s="1" t="s">
         <v>148</v>
@@ -10980,28 +11203,32 @@
       <c r="T139" s="3"/>
     </row>
     <row r="140" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
+      <c r="A140" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C140" s="1" t="s">
-        <v>867</v>
+        <v>893</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>868</v>
+        <v>894</v>
       </c>
       <c r="E140" s="1">
         <v>4</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="G140" s="12" t="s">
+        <v>895</v>
+      </c>
+      <c r="G140" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H140" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I140" s="13" t="s">
+      <c r="H140" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I140" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J140" s="1">
         <f t="shared" ref="J140:M140" si="49">J139+8</f>
@@ -11018,11 +11245,11 @@
         <f t="shared" si="49"/>
         <v>1245</v>
       </c>
-      <c r="N140" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="O140" s="11" t="s">
-        <v>870</v>
+      <c r="N140" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="O140" s="10" t="s">
+        <v>896</v>
       </c>
       <c r="Q140" s="1" t="s">
         <v>148</v>
@@ -11034,28 +11261,32 @@
       <c r="T140" s="3"/>
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
+      <c r="A141" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C141" s="1" t="s">
-        <v>871</v>
+        <v>897</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="E141" s="1">
         <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="G141" s="12" t="s">
+        <v>899</v>
+      </c>
+      <c r="G141" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H141" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I141" s="13" t="s">
+      <c r="H141" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J141" s="1">
         <f t="shared" ref="J141:J145" si="50">J140+15</f>
@@ -11073,11 +11304,11 @@
         <f t="shared" ref="M141:M145" si="53">M140+15</f>
         <v>1260</v>
       </c>
-      <c r="N141" s="11" t="s">
-        <v>874</v>
-      </c>
-      <c r="O141" s="11" t="s">
-        <v>874</v>
+      <c r="N141" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="O141" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="Q141" s="1" t="s">
         <v>148</v>
@@ -11089,28 +11320,32 @@
       <c r="T141" s="3"/>
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
+      <c r="A142" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C142" s="1" t="s">
-        <v>875</v>
+        <v>901</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>876</v>
+        <v>902</v>
       </c>
       <c r="E142" s="1">
         <v>4</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="G142" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="G142" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H142" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I142" s="13" t="s">
+      <c r="H142" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J142" s="1">
         <f t="shared" si="50"/>
@@ -11128,11 +11363,11 @@
         <f t="shared" si="53"/>
         <v>1275</v>
       </c>
-      <c r="N142" s="11" t="s">
-        <v>878</v>
-      </c>
-      <c r="O142" s="11" t="s">
-        <v>878</v>
+      <c r="N142" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="O142" s="10" t="s">
+        <v>904</v>
       </c>
       <c r="Q142" s="1" t="s">
         <v>148</v>
@@ -11144,28 +11379,32 @@
       <c r="T142" s="3"/>
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
+      <c r="A143" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C143" s="1" t="s">
-        <v>879</v>
+        <v>905</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>880</v>
+        <v>906</v>
       </c>
       <c r="E143" s="1">
         <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="G143" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="G143" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H143" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I143" s="13" t="s">
+      <c r="H143" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I143" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J143" s="1">
         <f t="shared" si="50"/>
@@ -11183,11 +11422,11 @@
         <f t="shared" si="53"/>
         <v>1290</v>
       </c>
-      <c r="N143" s="11" t="s">
-        <v>882</v>
-      </c>
-      <c r="O143" s="11" t="s">
-        <v>882</v>
+      <c r="N143" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="O143" s="10" t="s">
+        <v>908</v>
       </c>
       <c r="Q143" s="1" t="s">
         <v>148</v>
@@ -11199,28 +11438,32 @@
       <c r="T143" s="3"/>
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
+      <c r="A144" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C144" s="1" t="s">
-        <v>883</v>
+        <v>909</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>884</v>
+        <v>910</v>
       </c>
       <c r="E144" s="1">
         <v>4</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="G144" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="G144" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H144" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I144" s="13" t="s">
+      <c r="H144" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J144" s="1">
         <f t="shared" si="50"/>
@@ -11238,11 +11481,11 @@
         <f t="shared" si="53"/>
         <v>1305</v>
       </c>
-      <c r="N144" s="11" t="s">
-        <v>886</v>
-      </c>
-      <c r="O144" s="11" t="s">
-        <v>886</v>
+      <c r="N144" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="O144" s="10" t="s">
+        <v>912</v>
       </c>
       <c r="Q144" s="1" t="s">
         <v>148</v>
@@ -11254,28 +11497,32 @@
       <c r="T144" s="3"/>
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
+      <c r="A145" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C145" s="1" t="s">
-        <v>887</v>
+        <v>913</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>888</v>
+        <v>914</v>
       </c>
       <c r="E145" s="1">
         <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="G145" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="G145" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H145" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="I145" s="13" t="s">
+      <c r="H145" s="10" t="s">
         <v>749</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>750</v>
       </c>
       <c r="J145" s="1">
         <f t="shared" si="50"/>
@@ -11293,11 +11540,11 @@
         <f t="shared" si="53"/>
         <v>1320</v>
       </c>
-      <c r="N145" s="11" t="s">
-        <v>890</v>
-      </c>
-      <c r="O145" s="11" t="s">
-        <v>890</v>
+      <c r="N145" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="O145" s="10" t="s">
+        <v>916</v>
       </c>
       <c r="Q145" s="1" t="s">
         <v>148</v>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="917">
   <si>
     <t>ID</t>
   </si>
@@ -2236,109 +2236,109 @@
     <t>250000000000</t>
   </si>
   <si>
+    <t>10100</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>噩梦双头金刚</t>
+  </si>
+  <si>
+    <t>135000000000000000000000000</t>
+  </si>
+  <si>
+    <t>8100000000000000000000000</t>
+  </si>
+  <si>
+    <t>1500000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>260000000000</t>
+  </si>
+  <si>
+    <t>10101</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>噩梦双头巨人</t>
+  </si>
+  <si>
+    <t>400000000000000000000000000</t>
+  </si>
+  <si>
+    <t>24000000000000000000000000</t>
+  </si>
+  <si>
+    <t>7500000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>270000000000</t>
+  </si>
+  <si>
+    <t>10102</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>噩梦赤月恶魔</t>
+  </si>
+  <si>
+    <t>1200000000000000000000000000</t>
+  </si>
+  <si>
+    <t>72000000000000000000000000</t>
+  </si>
+  <si>
+    <t>37000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>280000000000</t>
+  </si>
+  <si>
+    <t>10103</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>噩梦魔龙教主</t>
+  </si>
+  <si>
+    <t>3600000000000000000000000000</t>
+  </si>
+  <si>
+    <t>216000000000000000000000000</t>
+  </si>
+  <si>
+    <t>20000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>290000000000</t>
+  </si>
+  <si>
+    <t>10104</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>噩梦火龙神</t>
+  </si>
+  <si>
+    <t>640000000000000000000000000</t>
+  </si>
+  <si>
+    <t>100000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>300000000000</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>10100</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>噩梦双头金刚</t>
-  </si>
-  <si>
-    <t>135000000000000000000000000</t>
-  </si>
-  <si>
-    <t>8100000000000000000000000</t>
-  </si>
-  <si>
-    <t>1500000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>260000000000</t>
-  </si>
-  <si>
-    <t>10101</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>噩梦双头巨人</t>
-  </si>
-  <si>
-    <t>400000000000000000000000000</t>
-  </si>
-  <si>
-    <t>24000000000000000000000000</t>
-  </si>
-  <si>
-    <t>7500000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>270000000000</t>
-  </si>
-  <si>
-    <t>10102</t>
-  </si>
-  <si>
-    <t>1102</t>
-  </si>
-  <si>
-    <t>噩梦赤月恶魔</t>
-  </si>
-  <si>
-    <t>1200000000000000000000000000</t>
-  </si>
-  <si>
-    <t>72000000000000000000000000</t>
-  </si>
-  <si>
-    <t>37000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>280000000000</t>
-  </si>
-  <si>
-    <t>10103</t>
-  </si>
-  <si>
-    <t>1103</t>
-  </si>
-  <si>
-    <t>噩梦魔龙教主</t>
-  </si>
-  <si>
-    <t>3600000000000000000000000000</t>
-  </si>
-  <si>
-    <t>216000000000000000000000000</t>
-  </si>
-  <si>
-    <t>20000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>290000000000</t>
-  </si>
-  <si>
-    <t>10104</t>
-  </si>
-  <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>噩梦火龙神</t>
-  </si>
-  <si>
-    <t>640000000000000000000000000</t>
-  </si>
-  <si>
-    <t>100000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>300000000000</t>
   </si>
   <si>
     <t>10105</t>
@@ -3819,7 +3819,7 @@
   <dimension ref="A1:T145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I124" sqref="I124"/>
+      <selection activeCell="A106" sqref="A106:B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -9217,32 +9217,28 @@
       <c r="T105" s="3"/>
     </row>
     <row r="106" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>719</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="G106" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="G106" s="11" t="s">
+      <c r="H106" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="H106" s="10" t="s">
+      <c r="I106" s="12" t="s">
         <v>722</v>
-      </c>
-      <c r="I106" s="12" t="s">
-        <v>723</v>
       </c>
       <c r="J106" s="1">
         <f t="shared" ref="J106:J115" si="31">J105+15</f>
@@ -9261,10 +9257,10 @@
         <v>695</v>
       </c>
       <c r="N106" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="O106" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="Q106" s="1" t="s">
         <v>148</v>
@@ -9276,32 +9272,28 @@
       <c r="T106" s="3"/>
     </row>
     <row r="107" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A107" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>717</v>
-      </c>
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
       <c r="C107" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>726</v>
       </c>
       <c r="E107" s="1">
         <v>3</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G107" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="G107" s="11" t="s">
+      <c r="H107" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="H107" s="10" t="s">
+      <c r="I107" s="12" t="s">
         <v>729</v>
-      </c>
-      <c r="I107" s="12" t="s">
-        <v>730</v>
       </c>
       <c r="J107" s="1">
         <f t="shared" si="31"/>
@@ -9320,10 +9312,10 @@
         <v>710</v>
       </c>
       <c r="N107" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="O107" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Q107" s="1" t="s">
         <v>148</v>
@@ -9335,32 +9327,28 @@
       <c r="T107" s="3"/>
     </row>
     <row r="108" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A108" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>717</v>
-      </c>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
       <c r="C108" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>733</v>
       </c>
       <c r="E108" s="1">
         <v>3</v>
       </c>
       <c r="F108" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="G108" s="11" t="s">
         <v>734</v>
       </c>
-      <c r="G108" s="11" t="s">
+      <c r="H108" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="H108" s="10" t="s">
+      <c r="I108" s="12" t="s">
         <v>736</v>
-      </c>
-      <c r="I108" s="12" t="s">
-        <v>737</v>
       </c>
       <c r="J108" s="1">
         <f t="shared" si="31"/>
@@ -9379,10 +9367,10 @@
         <v>725</v>
       </c>
       <c r="N108" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O108" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q108" s="1" t="s">
         <v>148</v>
@@ -9394,32 +9382,28 @@
       <c r="T108" s="3"/>
     </row>
     <row r="109" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A109" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>717</v>
-      </c>
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
       <c r="C109" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G109" s="11" t="s">
         <v>741</v>
       </c>
-      <c r="G109" s="11" t="s">
+      <c r="H109" s="10" t="s">
         <v>742</v>
       </c>
-      <c r="H109" s="10" t="s">
+      <c r="I109" s="12" t="s">
         <v>743</v>
-      </c>
-      <c r="I109" s="12" t="s">
-        <v>744</v>
       </c>
       <c r="J109" s="1">
         <f t="shared" si="31"/>
@@ -9438,10 +9422,10 @@
         <v>740</v>
       </c>
       <c r="N109" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O109" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="Q109" s="1" t="s">
         <v>148</v>
@@ -9453,32 +9437,28 @@
       <c r="T109" s="3"/>
     </row>
     <row r="110" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A110" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>717</v>
-      </c>
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
       <c r="C110" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>747</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>668</v>
       </c>
       <c r="H110" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I110" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I110" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J110" s="1">
         <f t="shared" si="31"/>
@@ -9497,10 +9477,10 @@
         <v>755</v>
       </c>
       <c r="N110" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O110" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Q110" s="1" t="s">
         <v>148</v>
@@ -9513,10 +9493,10 @@
     </row>
     <row r="111" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A111" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>752</v>
@@ -9570,10 +9550,10 @@
     </row>
     <row r="112" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A112" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>758</v>
@@ -9627,10 +9607,10 @@
     </row>
     <row r="113" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A113" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>765</v>
@@ -9684,10 +9664,10 @@
     </row>
     <row r="114" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A114" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>772</v>
@@ -9741,10 +9721,10 @@
     </row>
     <row r="115" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A115" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>778</v>
@@ -9798,10 +9778,10 @@
     </row>
     <row r="116" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A116" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>784</v>
@@ -9857,10 +9837,10 @@
     </row>
     <row r="117" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A117" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>790</v>
@@ -9916,10 +9896,10 @@
     </row>
     <row r="118" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A118" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>796</v>
@@ -9975,10 +9955,10 @@
     </row>
     <row r="119" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A119" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>802</v>
@@ -9993,7 +9973,7 @@
         <v>804</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H119" s="10" t="s">
         <v>781</v>
@@ -10034,10 +10014,10 @@
     </row>
     <row r="120" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A120" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>807</v>
@@ -10093,10 +10073,10 @@
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A121" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>813</v>
@@ -10152,10 +10132,10 @@
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A122" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>819</v>
@@ -10211,10 +10191,10 @@
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A123" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>825</v>
@@ -10232,10 +10212,10 @@
         <v>668</v>
       </c>
       <c r="H123" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I123" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I123" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J123" s="1">
         <f t="shared" si="35"/>
@@ -10270,10 +10250,10 @@
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A124" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>829</v>
@@ -10291,10 +10271,10 @@
         <v>668</v>
       </c>
       <c r="H124" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I124" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I124" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J124" s="1">
         <f t="shared" si="35"/>
@@ -10329,10 +10309,10 @@
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A125" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>833</v>
@@ -10350,10 +10330,10 @@
         <v>668</v>
       </c>
       <c r="H125" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I125" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I125" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J125" s="1">
         <f t="shared" si="35"/>
@@ -10388,10 +10368,10 @@
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A126" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>837</v>
@@ -10409,10 +10389,10 @@
         <v>668</v>
       </c>
       <c r="H126" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I126" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I126" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J126" s="1">
         <f t="shared" ref="J126:J130" si="37">J125+25</f>
@@ -10447,10 +10427,10 @@
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A127" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>841</v>
@@ -10468,10 +10448,10 @@
         <v>668</v>
       </c>
       <c r="H127" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I127" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I127" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J127" s="1">
         <f t="shared" si="37"/>
@@ -10506,10 +10486,10 @@
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A128" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>845</v>
@@ -10527,10 +10507,10 @@
         <v>668</v>
       </c>
       <c r="H128" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I128" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I128" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J128" s="1">
         <f t="shared" si="37"/>
@@ -10565,10 +10545,10 @@
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A129" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>849</v>
@@ -10586,10 +10566,10 @@
         <v>668</v>
       </c>
       <c r="H129" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I129" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I129" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J129" s="1">
         <f t="shared" si="37"/>
@@ -10624,10 +10604,10 @@
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A130" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>853</v>
@@ -10645,10 +10625,10 @@
         <v>668</v>
       </c>
       <c r="H130" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I130" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I130" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J130" s="1">
         <f t="shared" si="37"/>
@@ -10683,10 +10663,10 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>857</v>
@@ -10704,10 +10684,10 @@
         <v>668</v>
       </c>
       <c r="H131" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I131" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I131" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J131" s="1">
         <f t="shared" ref="J131:J135" si="41">J130+30</f>
@@ -10740,10 +10720,10 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>861</v>
@@ -10761,10 +10741,10 @@
         <v>668</v>
       </c>
       <c r="H132" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I132" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I132" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J132" s="1">
         <f t="shared" si="41"/>
@@ -10797,10 +10777,10 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>865</v>
@@ -10818,10 +10798,10 @@
         <v>668</v>
       </c>
       <c r="H133" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I133" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I133" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J133" s="1">
         <f t="shared" si="41"/>
@@ -10854,10 +10834,10 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>869</v>
@@ -10875,10 +10855,10 @@
         <v>668</v>
       </c>
       <c r="H134" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I134" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I134" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J134" s="1">
         <f t="shared" si="41"/>
@@ -10911,10 +10891,10 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>873</v>
@@ -10932,10 +10912,10 @@
         <v>668</v>
       </c>
       <c r="H135" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I135" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I135" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J135" s="1">
         <f t="shared" si="41"/>
@@ -10968,10 +10948,10 @@
     </row>
     <row r="136" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A136" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>877</v>
@@ -10989,10 +10969,10 @@
         <v>668</v>
       </c>
       <c r="H136" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I136" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I136" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J136" s="1">
         <f t="shared" ref="J136:M136" si="45">J135+8</f>
@@ -11027,10 +11007,10 @@
     </row>
     <row r="137" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A137" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>881</v>
@@ -11048,10 +11028,10 @@
         <v>668</v>
       </c>
       <c r="H137" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I137" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I137" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J137" s="1">
         <f t="shared" ref="J137:M137" si="46">J136+8</f>
@@ -11086,10 +11066,10 @@
     </row>
     <row r="138" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A138" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>885</v>
@@ -11107,10 +11087,10 @@
         <v>668</v>
       </c>
       <c r="H138" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I138" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I138" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J138" s="1">
         <f t="shared" ref="J138:M138" si="47">J137+8</f>
@@ -11145,10 +11125,10 @@
     </row>
     <row r="139" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A139" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>889</v>
@@ -11166,10 +11146,10 @@
         <v>668</v>
       </c>
       <c r="H139" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I139" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I139" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J139" s="1">
         <f t="shared" ref="J139:M139" si="48">J138+8</f>
@@ -11204,10 +11184,10 @@
     </row>
     <row r="140" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A140" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>893</v>
@@ -11225,10 +11205,10 @@
         <v>668</v>
       </c>
       <c r="H140" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I140" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I140" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J140" s="1">
         <f t="shared" ref="J140:M140" si="49">J139+8</f>
@@ -11262,10 +11242,10 @@
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A141" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>897</v>
@@ -11283,10 +11263,10 @@
         <v>668</v>
       </c>
       <c r="H141" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I141" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I141" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J141" s="1">
         <f t="shared" ref="J141:J145" si="50">J140+15</f>
@@ -11321,10 +11301,10 @@
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A142" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>901</v>
@@ -11342,10 +11322,10 @@
         <v>668</v>
       </c>
       <c r="H142" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I142" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I142" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J142" s="1">
         <f t="shared" si="50"/>
@@ -11380,10 +11360,10 @@
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A143" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>905</v>
@@ -11401,10 +11381,10 @@
         <v>668</v>
       </c>
       <c r="H143" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I143" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I143" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J143" s="1">
         <f t="shared" si="50"/>
@@ -11439,10 +11419,10 @@
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A144" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>909</v>
@@ -11460,10 +11440,10 @@
         <v>668</v>
       </c>
       <c r="H144" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I144" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I144" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J144" s="1">
         <f t="shared" si="50"/>
@@ -11498,10 +11478,10 @@
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A145" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>913</v>
@@ -11519,10 +11499,10 @@
         <v>668</v>
       </c>
       <c r="H145" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I145" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="I145" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="J145" s="1">
         <f t="shared" si="50"/>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="929">
   <si>
     <t>ID</t>
   </si>
@@ -2377,10 +2377,7 @@
     <t>450000000000000000000000000000000</t>
   </si>
   <si>
-    <t>72000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000000000000000</t>
+    <t>200000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>320000000000</t>
@@ -2398,10 +2395,10 @@
     <t>2500000000000000000000000000000000</t>
   </si>
   <si>
-    <t>560000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000000000000000</t>
+    <t>900000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>4000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>330000000000</t>
@@ -2419,10 +2416,10 @@
     <t>12500000000000000000000000000000000</t>
   </si>
   <si>
-    <t>4800000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000000000000000</t>
+    <t>9000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>80000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>340000000000</t>
@@ -2440,114 +2437,123 @@
     <t>600000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>40000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000000000000000000</t>
+    <t>90000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>1600000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>350000000000</t>
   </si>
   <si>
+    <t>10110</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>地狱雪王</t>
+  </si>
+  <si>
+    <t>3000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>32000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>360000000000</t>
+  </si>
+  <si>
+    <t>10111</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>地狱蝠王</t>
+  </si>
+  <si>
+    <t>15000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>640000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>370000000000</t>
+  </si>
+  <si>
+    <t>10112</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>地狱骷髅王</t>
+  </si>
+  <si>
+    <t>75000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>12000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>380000000000</t>
+  </si>
+  <si>
+    <t>10113</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>地狱尸王</t>
+  </si>
+  <si>
+    <t>350000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>240000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>390000000000</t>
+  </si>
+  <si>
+    <t>10114</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>地狱蛇王</t>
+  </si>
+  <si>
+    <t>2000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>4800000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>400000000000</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
-    <t>10110</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>地狱雪王</t>
-  </si>
-  <si>
-    <t>3000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>30000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>30000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>360000000000</t>
-  </si>
-  <si>
-    <t>10111</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>地狱蝠王</t>
-  </si>
-  <si>
-    <t>10000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>100000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>150000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>370000000000</t>
-  </si>
-  <si>
-    <t>10112</t>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>地狱骷髅王</t>
-  </si>
-  <si>
-    <t>30000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>750000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>380000000000</t>
-  </si>
-  <si>
-    <t>10113</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>地狱尸王</t>
-  </si>
-  <si>
-    <t>1000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>3750000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>390000000000</t>
-  </si>
-  <si>
-    <t>10114</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>地狱蛇王</t>
-  </si>
-  <si>
-    <t>300000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>15000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>400000000000</t>
-  </si>
-  <si>
     <t>10115</t>
   </si>
   <si>
@@ -2557,10 +2563,13 @@
     <t>地狱狼王</t>
   </si>
   <si>
-    <t>1000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>75000000000000000000000000000000000000000000000</t>
+    <t>10000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>96000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>410000000000</t>
@@ -2575,10 +2584,13 @@
     <t>地狱沙虫王</t>
   </si>
   <si>
-    <t>3000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>375000000000000000000000000000000000000000000000</t>
+    <t>50000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>200000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>420000000000</t>
@@ -3844,7 +3856,7 @@
   <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+      <selection activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3856,7 +3868,7 @@
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="33.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="39.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="44.875" style="3" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="3" customWidth="1"/>
     <col min="11" max="13" width="12.125" style="3" customWidth="1"/>
     <col min="14" max="14" width="14.125" style="3" customWidth="1"/>
@@ -10248,10 +10260,10 @@
         <v>763</v>
       </c>
       <c r="H112" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="I112" s="13" t="s">
         <v>764</v>
-      </c>
-      <c r="I112" s="13" t="s">
-        <v>765</v>
       </c>
       <c r="J112" s="1">
         <f t="shared" si="31"/>
@@ -10277,10 +10289,10 @@
         <v>0</v>
       </c>
       <c r="P112" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="Q112" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="S112" s="1" t="s">
         <v>150</v>
@@ -10293,25 +10305,25 @@
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>768</v>
       </c>
       <c r="E113" s="1">
         <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="G113" s="12" t="s">
         <v>769</v>
       </c>
-      <c r="G113" s="12" t="s">
+      <c r="H113" s="11" t="s">
         <v>770</v>
       </c>
-      <c r="H113" s="11" t="s">
+      <c r="I113" s="13" t="s">
         <v>771</v>
-      </c>
-      <c r="I113" s="13" t="s">
-        <v>772</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" si="31"/>
@@ -10337,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="P113" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Q113" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="S113" s="1" t="s">
         <v>150</v>
@@ -10353,25 +10365,25 @@
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>775</v>
       </c>
       <c r="E114" s="1">
         <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="G114" s="12" t="s">
         <v>776</v>
       </c>
-      <c r="G114" s="12" t="s">
+      <c r="H114" s="11" t="s">
         <v>777</v>
       </c>
-      <c r="H114" s="11" t="s">
+      <c r="I114" s="13" t="s">
         <v>778</v>
-      </c>
-      <c r="I114" s="13" t="s">
-        <v>779</v>
       </c>
       <c r="J114" s="1">
         <f t="shared" si="31"/>
@@ -10397,10 +10409,10 @@
         <v>0</v>
       </c>
       <c r="P114" s="11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="Q114" s="11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="S114" s="1" t="s">
         <v>150</v>
@@ -10413,25 +10425,25 @@
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>782</v>
       </c>
       <c r="E115" s="1">
         <v>4</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="G115" s="12" t="s">
         <v>783</v>
       </c>
-      <c r="G115" s="12" t="s">
+      <c r="H115" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="H115" s="11" t="s">
+      <c r="I115" s="13" t="s">
         <v>785</v>
-      </c>
-      <c r="I115" s="13" t="s">
-        <v>786</v>
       </c>
       <c r="J115" s="1">
         <f t="shared" si="31"/>
@@ -10457,45 +10469,41 @@
         <v>0</v>
       </c>
       <c r="P115" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q115" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="S115" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="T115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="Q115" s="11" t="s">
-        <v>787</v>
-      </c>
-      <c r="S115" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T115" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A116" s="3" t="s">
+      <c r="D116" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>790</v>
       </c>
       <c r="E116" s="1">
         <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="H116" s="11" t="s">
         <v>791</v>
       </c>
-      <c r="G116" s="12" t="s">
+      <c r="I116" s="13" t="s">
         <v>792</v>
-      </c>
-      <c r="H116" s="11" t="s">
-        <v>793</v>
-      </c>
-      <c r="I116" s="13" t="s">
-        <v>794</v>
       </c>
       <c r="J116" s="1">
         <f t="shared" ref="J116:J125" si="36">J115+20</f>
@@ -10521,10 +10529,10 @@
         <v>0</v>
       </c>
       <c r="P116" s="11" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="Q116" s="11" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S116" s="1" t="s">
         <v>150</v>
@@ -10536,32 +10544,28 @@
       <c r="V116" s="3"/>
     </row>
     <row r="117" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A117" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>788</v>
-      </c>
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
       <c r="C117" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E117" s="1">
         <v>4</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="H117" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="G117" s="12" t="s">
+      <c r="I117" s="13" t="s">
         <v>799</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="I117" s="13" t="s">
-        <v>801</v>
       </c>
       <c r="J117" s="1">
         <f t="shared" si="36"/>
@@ -10587,10 +10591,10 @@
         <v>0</v>
       </c>
       <c r="P117" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="Q117" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="S117" s="1" t="s">
         <v>150</v>
@@ -10602,32 +10606,28 @@
       <c r="V117" s="3"/>
     </row>
     <row r="118" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A118" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>788</v>
-      </c>
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
       <c r="C118" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E118" s="1">
         <v>4</v>
       </c>
       <c r="F118" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="H118" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="G118" s="12" t="s">
+      <c r="I118" s="13" t="s">
         <v>806</v>
-      </c>
-      <c r="H118" s="11" t="s">
-        <v>717</v>
-      </c>
-      <c r="I118" s="13" t="s">
-        <v>807</v>
       </c>
       <c r="J118" s="1">
         <f t="shared" si="36"/>
@@ -10653,10 +10653,10 @@
         <v>0</v>
       </c>
       <c r="P118" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="Q118" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="S118" s="1" t="s">
         <v>150</v>
@@ -10668,26 +10668,22 @@
       <c r="V118" s="3"/>
     </row>
     <row r="119" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A119" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>788</v>
-      </c>
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
       <c r="C119" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>810</v>
       </c>
       <c r="E119" s="1">
         <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G119" s="12" t="s">
         <v>811</v>
-      </c>
-      <c r="G119" s="12" t="s">
-        <v>751</v>
       </c>
       <c r="H119" s="11" t="s">
         <v>812</v>
@@ -10734,12 +10730,8 @@
       <c r="V119" s="3"/>
     </row>
     <row r="120" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A120" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>788</v>
-      </c>
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
       <c r="C120" s="1" t="s">
         <v>815</v>
       </c>
@@ -10756,10 +10748,10 @@
         <v>818</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="I120" s="13" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J120" s="1">
         <f t="shared" si="36"/>
@@ -10785,10 +10777,10 @@
         <v>0</v>
       </c>
       <c r="P120" s="11" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="Q120" s="11" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="S120" s="1" t="s">
         <v>150</v>
@@ -10801,31 +10793,31 @@
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A121" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E121" s="1">
         <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
       <c r="I121" s="13" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="J121" s="1">
         <f t="shared" si="36"/>
@@ -10851,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="P121" s="11" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="Q121" s="11" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="S121" s="1" t="s">
         <v>150</v>
@@ -10867,31 +10859,31 @@
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A122" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="E122" s="1">
         <v>4</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>806</v>
+        <v>834</v>
       </c>
       <c r="I122" s="13" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="J122" s="1">
         <f t="shared" si="36"/>
@@ -10917,10 +10909,10 @@
         <v>0</v>
       </c>
       <c r="P122" s="11" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="Q122" s="11" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="S122" s="1" t="s">
         <v>150</v>
@@ -10933,22 +10925,22 @@
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A123" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="E123" s="1">
         <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="G123" s="12" t="s">
         <v>670</v>
@@ -10983,10 +10975,10 @@
         <v>0</v>
       </c>
       <c r="P123" s="11" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="Q123" s="11" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="S123" s="1" t="s">
         <v>150</v>
@@ -10999,22 +10991,22 @@
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A124" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G124" s="12" t="s">
         <v>670</v>
@@ -11049,10 +11041,10 @@
         <v>0</v>
       </c>
       <c r="P124" s="11" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="Q124" s="11" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="S124" s="1" t="s">
         <v>150</v>
@@ -11065,22 +11057,22 @@
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A125" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="E125" s="1">
         <v>4</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="G125" s="12" t="s">
         <v>670</v>
@@ -11115,10 +11107,10 @@
         <v>0</v>
       </c>
       <c r="P125" s="11" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="Q125" s="11" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="S125" s="1" t="s">
         <v>150</v>
@@ -11131,22 +11123,22 @@
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A126" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="E126" s="1">
         <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="G126" s="12" t="s">
         <v>670</v>
@@ -11181,10 +11173,10 @@
         <v>0</v>
       </c>
       <c r="P126" s="11" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="Q126" s="11" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="S126" s="1" t="s">
         <v>150</v>
@@ -11197,22 +11189,22 @@
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A127" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="E127" s="1">
         <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="G127" s="12" t="s">
         <v>670</v>
@@ -11247,10 +11239,10 @@
         <v>0</v>
       </c>
       <c r="P127" s="11" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="Q127" s="11" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="S127" s="1" t="s">
         <v>150</v>
@@ -11263,22 +11255,22 @@
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A128" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="E128" s="1">
         <v>4</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="G128" s="12" t="s">
         <v>670</v>
@@ -11313,10 +11305,10 @@
         <v>0</v>
       </c>
       <c r="P128" s="11" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="Q128" s="11" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="S128" s="1" t="s">
         <v>150</v>
@@ -11329,22 +11321,22 @@
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A129" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="E129" s="1">
         <v>4</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="G129" s="12" t="s">
         <v>670</v>
@@ -11379,10 +11371,10 @@
         <v>0</v>
       </c>
       <c r="P129" s="11" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="Q129" s="11" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="S129" s="1" t="s">
         <v>150</v>
@@ -11395,22 +11387,22 @@
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A130" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="E130" s="1">
         <v>4</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="G130" s="12" t="s">
         <v>670</v>
@@ -11445,10 +11437,10 @@
         <v>0</v>
       </c>
       <c r="P130" s="11" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="Q130" s="11" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="S130" s="1" t="s">
         <v>150</v>
@@ -11461,22 +11453,22 @@
     </row>
     <row r="131" customHeight="1" spans="1:20">
       <c r="A131" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="E131" s="1">
         <v>4</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="G131" s="12" t="s">
         <v>670</v>
@@ -11511,10 +11503,10 @@
         <v>0</v>
       </c>
       <c r="P131" s="11" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="Q131" s="11" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="S131" s="1" t="s">
         <v>150</v>
@@ -11525,22 +11517,22 @@
     </row>
     <row r="132" customHeight="1" spans="1:20">
       <c r="A132" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E132" s="1">
         <v>4</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="G132" s="12" t="s">
         <v>670</v>
@@ -11575,10 +11567,10 @@
         <v>0</v>
       </c>
       <c r="P132" s="11" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="Q132" s="11" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="S132" s="1" t="s">
         <v>150</v>
@@ -11589,22 +11581,22 @@
     </row>
     <row r="133" customHeight="1" spans="1:20">
       <c r="A133" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="E133" s="1">
         <v>4</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="G133" s="12" t="s">
         <v>670</v>
@@ -11639,10 +11631,10 @@
         <v>0</v>
       </c>
       <c r="P133" s="11" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="Q133" s="11" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="S133" s="1" t="s">
         <v>150</v>
@@ -11653,22 +11645,22 @@
     </row>
     <row r="134" customHeight="1" spans="1:20">
       <c r="A134" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E134" s="1">
         <v>4</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="G134" s="12" t="s">
         <v>670</v>
@@ -11703,10 +11695,10 @@
         <v>0</v>
       </c>
       <c r="P134" s="11" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="Q134" s="11" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="S134" s="1" t="s">
         <v>150</v>
@@ -11717,22 +11709,22 @@
     </row>
     <row r="135" customHeight="1" spans="1:20">
       <c r="A135" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="E135" s="1">
         <v>4</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="G135" s="12" t="s">
         <v>670</v>
@@ -11767,10 +11759,10 @@
         <v>0</v>
       </c>
       <c r="P135" s="11" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="Q135" s="11" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="S135" s="1" t="s">
         <v>150</v>
@@ -11781,22 +11773,22 @@
     </row>
     <row r="136" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A136" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="E136" s="1">
         <v>4</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="G136" s="12" t="s">
         <v>670</v>
@@ -11831,10 +11823,10 @@
         <v>0</v>
       </c>
       <c r="P136" s="11" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="Q136" s="11" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="S136" s="1" t="s">
         <v>150</v>
@@ -11847,22 +11839,22 @@
     </row>
     <row r="137" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A137" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E137" s="1">
         <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="G137" s="12" t="s">
         <v>670</v>
@@ -11897,10 +11889,10 @@
         <v>0</v>
       </c>
       <c r="P137" s="11" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="Q137" s="11" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="S137" s="1" t="s">
         <v>150</v>
@@ -11913,22 +11905,22 @@
     </row>
     <row r="138" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A138" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="E138" s="1">
         <v>4</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="G138" s="12" t="s">
         <v>670</v>
@@ -11963,10 +11955,10 @@
         <v>0</v>
       </c>
       <c r="P138" s="11" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="Q138" s="11" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="S138" s="1" t="s">
         <v>150</v>
@@ -11979,22 +11971,22 @@
     </row>
     <row r="139" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A139" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E139" s="1">
         <v>4</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="G139" s="12" t="s">
         <v>670</v>
@@ -12029,10 +12021,10 @@
         <v>0</v>
       </c>
       <c r="P139" s="11" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="Q139" s="11" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="S139" s="1" t="s">
         <v>150</v>
@@ -12045,22 +12037,22 @@
     </row>
     <row r="140" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A140" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="E140" s="1">
         <v>4</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="G140" s="12" t="s">
         <v>670</v>
@@ -12094,10 +12086,10 @@
         <v>0</v>
       </c>
       <c r="P140" s="11" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="Q140" s="11" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="S140" s="1" t="s">
         <v>150</v>
@@ -12110,22 +12102,22 @@
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A141" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="E141" s="1">
         <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="G141" s="12" t="s">
         <v>670</v>
@@ -12160,10 +12152,10 @@
         <v>0</v>
       </c>
       <c r="P141" s="11" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="Q141" s="11" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="S141" s="1" t="s">
         <v>150</v>
@@ -12176,22 +12168,22 @@
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A142" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="E142" s="1">
         <v>4</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="G142" s="12" t="s">
         <v>670</v>
@@ -12226,10 +12218,10 @@
         <v>0</v>
       </c>
       <c r="P142" s="11" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="Q142" s="11" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="S142" s="1" t="s">
         <v>150</v>
@@ -12242,22 +12234,22 @@
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A143" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="E143" s="1">
         <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="G143" s="12" t="s">
         <v>670</v>
@@ -12292,10 +12284,10 @@
         <v>0</v>
       </c>
       <c r="P143" s="11" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="Q143" s="11" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="S143" s="1" t="s">
         <v>150</v>
@@ -12308,22 +12300,22 @@
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A144" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E144" s="1">
         <v>4</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="G144" s="12" t="s">
         <v>670</v>
@@ -12358,10 +12350,10 @@
         <v>0</v>
       </c>
       <c r="P144" s="11" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="Q144" s="11" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="S144" s="1" t="s">
         <v>150</v>
@@ -12374,22 +12366,22 @@
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A145" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="E145" s="1">
         <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="G145" s="12" t="s">
         <v>670</v>
@@ -12424,10 +12416,10 @@
         <v>0</v>
       </c>
       <c r="P145" s="11" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="Q145" s="11" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="S145" s="1" t="s">
         <v>150</v>
@@ -12440,7 +12432,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="O5 N3:N5 O3:O4 C3:M5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:O5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="924">
   <si>
     <t>ID</t>
   </si>
@@ -2374,7 +2374,7 @@
     <t>地狱鹿王</t>
   </si>
   <si>
-    <t>450000000000000000000000000000000</t>
+    <t>900000000000000000000000000000000</t>
   </si>
   <si>
     <t>200000000000000000000000000000000000000000000</t>
@@ -2392,10 +2392,7 @@
     <t>地狱草王</t>
   </si>
   <si>
-    <t>2500000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000</t>
+    <t>9000000000000000000000000000000000</t>
   </si>
   <si>
     <t>4000000000000000000000000000000000000000000000</t>
@@ -2413,10 +2410,7 @@
     <t>地狱猫王</t>
   </si>
   <si>
-    <t>12500000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000</t>
+    <t>90000000000000000000000000000000000</t>
   </si>
   <si>
     <t>80000000000000000000000000000000000000000000000</t>
@@ -2434,10 +2428,7 @@
     <t>地狱花王</t>
   </si>
   <si>
-    <t>600000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000000</t>
+    <t>900000000000000000000000000000000000</t>
   </si>
   <si>
     <t>1600000000000000000000000000000000000000000000000</t>
@@ -2455,10 +2446,7 @@
     <t>地狱雪王</t>
   </si>
   <si>
-    <t>3000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000000</t>
+    <t>9000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>32000000000000000000000000000000000000000000000000</t>
@@ -2476,10 +2464,7 @@
     <t>地狱蝠王</t>
   </si>
   <si>
-    <t>15000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000000</t>
+    <t>90000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>640000000000000000000000000000000000000000000000000</t>
@@ -2497,10 +2482,7 @@
     <t>地狱骷髅王</t>
   </si>
   <si>
-    <t>75000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000000000</t>
+    <t>900000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>12000000000000000000000000000000000000000000000000000</t>
@@ -2518,10 +2500,7 @@
     <t>地狱尸王</t>
   </si>
   <si>
-    <t>350000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000000000</t>
+    <t>9000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>240000000000000000000000000000000000000000000000000000</t>
@@ -2539,10 +2518,7 @@
     <t>地狱蛇王</t>
   </si>
   <si>
-    <t>2000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000000000</t>
+    <t>90000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>4800000000000000000000000000000000000000000000000000000</t>
@@ -2551,85 +2527,94 @@
     <t>400000000000</t>
   </si>
   <si>
+    <t>10115</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>地狱狼王</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>96000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>410000000000</t>
+  </si>
+  <si>
+    <t>10116</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>地狱沙虫王</t>
+  </si>
+  <si>
+    <t>200000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>420000000000</t>
+  </si>
+  <si>
+    <t>10117</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>地狱鹰王</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>4000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>430000000000</t>
+  </si>
+  <si>
+    <t>10118</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>地狱角虫王</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>80000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>440000000000</t>
+  </si>
+  <si>
+    <t>10119</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>地狱蜈蚣王</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>1600000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>450000000000</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>10115</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>地狱狼王</t>
-  </si>
-  <si>
-    <t>10000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>96000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>410000000000</t>
-  </si>
-  <si>
-    <t>10116</t>
-  </si>
-  <si>
-    <t>1116</t>
-  </si>
-  <si>
-    <t>地狱沙虫王</t>
-  </si>
-  <si>
-    <t>50000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>200000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>420000000000</t>
-  </si>
-  <si>
-    <t>10117</t>
-  </si>
-  <si>
-    <t>1117</t>
-  </si>
-  <si>
-    <t>地狱鹰王</t>
-  </si>
-  <si>
-    <t>430000000000</t>
-  </si>
-  <si>
-    <t>10118</t>
-  </si>
-  <si>
-    <t>1118</t>
-  </si>
-  <si>
-    <t>地狱角虫王</t>
-  </si>
-  <si>
-    <t>440000000000</t>
-  </si>
-  <si>
-    <t>10119</t>
-  </si>
-  <si>
-    <t>1119</t>
-  </si>
-  <si>
-    <t>地狱蜈蚣王</t>
-  </si>
-  <si>
-    <t>450000000000</t>
   </si>
   <si>
     <t>10120</t>
@@ -3519,12 +3504,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3856,7 +3841,7 @@
   <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I120" sqref="I120"/>
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3866,8 +3851,8 @@
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="33.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="37.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="36.125" style="3" customWidth="1"/>
     <col min="9" max="9" width="44.875" style="3" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="3" customWidth="1"/>
     <col min="11" max="13" width="12.125" style="3" customWidth="1"/>
@@ -3884,7 +3869,7 @@
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:17">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -3899,7 +3884,6 @@
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3914,174 +3898,174 @@
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4119,10 +4103,10 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -4172,10 +4156,10 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -4226,10 +4210,10 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -4280,10 +4264,10 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -4334,10 +4318,10 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -4388,10 +4372,10 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
         <v>0</v>
       </c>
       <c r="P11" s="1" t="s">
@@ -4442,10 +4426,10 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
         <v>0</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -4496,10 +4480,10 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="5">
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
         <v>0</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -4550,10 +4534,10 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="O14" s="5">
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
         <v>0</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -4604,10 +4588,10 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5">
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
         <v>0</v>
       </c>
       <c r="P15" s="1" t="s">
@@ -4658,10 +4642,10 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="N16" s="5">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5">
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
         <v>0</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -4712,10 +4696,10 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
-      <c r="N17" s="5">
-        <v>0</v>
-      </c>
-      <c r="O17" s="5">
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
         <v>0</v>
       </c>
       <c r="P17" s="1" t="s">
@@ -4766,10 +4750,10 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
-      <c r="N18" s="5">
-        <v>0</v>
-      </c>
-      <c r="O18" s="5">
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
         <v>0</v>
       </c>
       <c r="P18" s="1" t="s">
@@ -4820,10 +4804,10 @@
       <c r="M19" s="1">
         <v>0</v>
       </c>
-      <c r="N19" s="5">
-        <v>0</v>
-      </c>
-      <c r="O19" s="5">
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
         <v>0</v>
       </c>
       <c r="P19" s="1" t="s">
@@ -4874,10 +4858,10 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="O20" s="5">
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
         <v>0</v>
       </c>
       <c r="P20" s="1" t="s">
@@ -4929,10 +4913,10 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-      <c r="N21" s="5">
-        <v>0</v>
-      </c>
-      <c r="O21" s="5">
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
         <v>0</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -4984,10 +4968,10 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-      <c r="N22" s="5">
-        <v>0</v>
-      </c>
-      <c r="O22" s="5">
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
         <v>0</v>
       </c>
       <c r="P22" s="1" t="s">
@@ -5039,10 +5023,10 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-      <c r="N23" s="5">
-        <v>0</v>
-      </c>
-      <c r="O23" s="5">
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
         <v>0</v>
       </c>
       <c r="P23" s="1" t="s">
@@ -5094,10 +5078,10 @@
       <c r="M24" s="1">
         <v>0</v>
       </c>
-      <c r="N24" s="5">
-        <v>0</v>
-      </c>
-      <c r="O24" s="5">
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
         <v>0</v>
       </c>
       <c r="P24" s="1" t="s">
@@ -5149,10 +5133,10 @@
       <c r="M25" s="1">
         <v>0</v>
       </c>
-      <c r="N25" s="5">
-        <v>0</v>
-      </c>
-      <c r="O25" s="5">
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
         <v>0</v>
       </c>
       <c r="P25" s="1" t="s">
@@ -5204,10 +5188,10 @@
       <c r="M26" s="1">
         <v>0</v>
       </c>
-      <c r="N26" s="5">
-        <v>0</v>
-      </c>
-      <c r="O26" s="5">
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
         <v>0</v>
       </c>
       <c r="P26" s="1" t="s">
@@ -5259,10 +5243,10 @@
       <c r="M27" s="1">
         <v>0</v>
       </c>
-      <c r="N27" s="5">
-        <v>0</v>
-      </c>
-      <c r="O27" s="5">
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
         <v>0</v>
       </c>
       <c r="P27" s="1" t="s">
@@ -5314,10 +5298,10 @@
       <c r="M28" s="1">
         <v>0</v>
       </c>
-      <c r="N28" s="5">
-        <v>0</v>
-      </c>
-      <c r="O28" s="5">
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
         <v>0</v>
       </c>
       <c r="P28" s="1" t="s">
@@ -5369,10 +5353,10 @@
       <c r="M29" s="1">
         <v>0</v>
       </c>
-      <c r="N29" s="5">
-        <v>0</v>
-      </c>
-      <c r="O29" s="5">
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
         <v>0</v>
       </c>
       <c r="P29" s="1" t="s">
@@ -5424,10 +5408,10 @@
       <c r="M30" s="1">
         <v>0</v>
       </c>
-      <c r="N30" s="5">
-        <v>0</v>
-      </c>
-      <c r="O30" s="5">
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
         <v>0</v>
       </c>
       <c r="P30" s="1" t="s">
@@ -5479,10 +5463,10 @@
       <c r="M31" s="1">
         <v>0</v>
       </c>
-      <c r="N31" s="5">
-        <v>0</v>
-      </c>
-      <c r="O31" s="5">
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
         <v>0</v>
       </c>
       <c r="P31" s="1" t="s">
@@ -5534,10 +5518,10 @@
       <c r="M32" s="1">
         <v>0</v>
       </c>
-      <c r="N32" s="5">
-        <v>0</v>
-      </c>
-      <c r="O32" s="5">
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
         <v>0</v>
       </c>
       <c r="P32" s="1" t="s">
@@ -5589,10 +5573,10 @@
       <c r="M33" s="1">
         <v>0</v>
       </c>
-      <c r="N33" s="5">
-        <v>0</v>
-      </c>
-      <c r="O33" s="5">
+      <c r="N33" s="6">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
         <v>0</v>
       </c>
       <c r="P33" s="1" t="s">
@@ -5644,10 +5628,10 @@
       <c r="M34" s="1">
         <v>0</v>
       </c>
-      <c r="N34" s="5">
-        <v>0</v>
-      </c>
-      <c r="O34" s="5">
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
         <v>0</v>
       </c>
       <c r="P34" s="1" t="s">
@@ -5699,10 +5683,10 @@
       <c r="M35" s="1">
         <v>0</v>
       </c>
-      <c r="N35" s="5">
-        <v>0</v>
-      </c>
-      <c r="O35" s="5">
+      <c r="N35" s="6">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
         <v>0</v>
       </c>
       <c r="P35" s="1" t="s">
@@ -5754,10 +5738,10 @@
       <c r="M36" s="1">
         <v>0</v>
       </c>
-      <c r="N36" s="5">
-        <v>0</v>
-      </c>
-      <c r="O36" s="5">
+      <c r="N36" s="6">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
         <v>0</v>
       </c>
       <c r="P36" s="1" t="s">
@@ -5809,10 +5793,10 @@
       <c r="M37" s="1">
         <v>0</v>
       </c>
-      <c r="N37" s="5">
-        <v>0</v>
-      </c>
-      <c r="O37" s="5">
+      <c r="N37" s="6">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
         <v>0</v>
       </c>
       <c r="P37" s="1" t="s">
@@ -5864,10 +5848,10 @@
       <c r="M38" s="1">
         <v>0</v>
       </c>
-      <c r="N38" s="5">
-        <v>0</v>
-      </c>
-      <c r="O38" s="5">
+      <c r="N38" s="6">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6">
         <v>0</v>
       </c>
       <c r="P38" s="1" t="s">
@@ -5919,10 +5903,10 @@
       <c r="M39" s="1">
         <v>0</v>
       </c>
-      <c r="N39" s="5">
-        <v>0</v>
-      </c>
-      <c r="O39" s="5">
+      <c r="N39" s="6">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
         <v>0</v>
       </c>
       <c r="P39" s="1" t="s">
@@ -5974,10 +5958,10 @@
       <c r="M40" s="1">
         <v>0</v>
       </c>
-      <c r="N40" s="5">
-        <v>0</v>
-      </c>
-      <c r="O40" s="5">
+      <c r="N40" s="6">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
         <v>0</v>
       </c>
       <c r="P40" s="1" t="s">
@@ -6031,10 +6015,10 @@
       <c r="M41" s="1">
         <v>0</v>
       </c>
-      <c r="N41" s="5">
-        <v>0</v>
-      </c>
-      <c r="O41" s="5">
+      <c r="N41" s="6">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
         <v>0</v>
       </c>
       <c r="P41" s="1" t="s">
@@ -6087,10 +6071,10 @@
       <c r="M42" s="1">
         <v>0</v>
       </c>
-      <c r="N42" s="5">
-        <v>0</v>
-      </c>
-      <c r="O42" s="5">
+      <c r="N42" s="6">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6">
         <v>0</v>
       </c>
       <c r="P42" s="1" t="s">
@@ -6143,10 +6127,10 @@
       <c r="M43" s="1">
         <v>0</v>
       </c>
-      <c r="N43" s="5">
-        <v>0</v>
-      </c>
-      <c r="O43" s="5">
+      <c r="N43" s="6">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
         <v>0</v>
       </c>
       <c r="P43" s="1" t="s">
@@ -6199,10 +6183,10 @@
       <c r="M44" s="1">
         <v>0</v>
       </c>
-      <c r="N44" s="5">
-        <v>0</v>
-      </c>
-      <c r="O44" s="5">
+      <c r="N44" s="6">
+        <v>0</v>
+      </c>
+      <c r="O44" s="6">
         <v>0</v>
       </c>
       <c r="P44" s="1" t="s">
@@ -6255,10 +6239,10 @@
       <c r="M45" s="1">
         <v>0</v>
       </c>
-      <c r="N45" s="5">
-        <v>0</v>
-      </c>
-      <c r="O45" s="5">
+      <c r="N45" s="6">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
         <v>0</v>
       </c>
       <c r="P45" s="1" t="s">
@@ -6311,10 +6295,10 @@
       <c r="M46" s="1">
         <v>0</v>
       </c>
-      <c r="N46" s="5">
-        <v>0</v>
-      </c>
-      <c r="O46" s="5">
+      <c r="N46" s="6">
+        <v>0</v>
+      </c>
+      <c r="O46" s="6">
         <v>0</v>
       </c>
       <c r="P46" s="1" t="s">
@@ -6369,10 +6353,10 @@
       <c r="M47" s="1">
         <v>0</v>
       </c>
-      <c r="N47" s="5">
-        <v>0</v>
-      </c>
-      <c r="O47" s="5">
+      <c r="N47" s="6">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6">
         <v>0</v>
       </c>
       <c r="P47" s="1" t="s">
@@ -6427,10 +6411,10 @@
       <c r="M48" s="1">
         <v>0</v>
       </c>
-      <c r="N48" s="5">
-        <v>0</v>
-      </c>
-      <c r="O48" s="5">
+      <c r="N48" s="6">
+        <v>0</v>
+      </c>
+      <c r="O48" s="6">
         <v>0</v>
       </c>
       <c r="P48" s="1" t="s">
@@ -6485,10 +6469,10 @@
       <c r="M49" s="1">
         <v>0</v>
       </c>
-      <c r="N49" s="5">
-        <v>0</v>
-      </c>
-      <c r="O49" s="5">
+      <c r="N49" s="6">
+        <v>0</v>
+      </c>
+      <c r="O49" s="6">
         <v>0</v>
       </c>
       <c r="P49" s="1" t="s">
@@ -6543,10 +6527,10 @@
       <c r="M50" s="1">
         <v>0</v>
       </c>
-      <c r="N50" s="5">
-        <v>0</v>
-      </c>
-      <c r="O50" s="5">
+      <c r="N50" s="6">
+        <v>0</v>
+      </c>
+      <c r="O50" s="6">
         <v>0</v>
       </c>
       <c r="P50" s="1" t="s">
@@ -6602,10 +6586,10 @@
         <f t="shared" ref="M51:M65" si="3">(D51-1044)*5</f>
         <v>5</v>
       </c>
-      <c r="N51" s="5">
-        <v>0</v>
-      </c>
-      <c r="O51" s="5">
+      <c r="N51" s="6">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6">
         <v>0</v>
       </c>
       <c r="P51" s="1" t="s">
@@ -6661,10 +6645,10 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="N52" s="5">
-        <v>0</v>
-      </c>
-      <c r="O52" s="5">
+      <c r="N52" s="6">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6">
         <v>0</v>
       </c>
       <c r="P52" s="1" t="s">
@@ -6720,10 +6704,10 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="N53" s="5">
-        <v>0</v>
-      </c>
-      <c r="O53" s="5">
+      <c r="N53" s="6">
+        <v>0</v>
+      </c>
+      <c r="O53" s="6">
         <v>0</v>
       </c>
       <c r="P53" s="1" t="s">
@@ -6779,10 +6763,10 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="N54" s="5">
-        <v>0</v>
-      </c>
-      <c r="O54" s="5">
+      <c r="N54" s="6">
+        <v>0</v>
+      </c>
+      <c r="O54" s="6">
         <v>0</v>
       </c>
       <c r="P54" s="1" t="s">
@@ -6838,10 +6822,10 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="N55" s="5">
-        <v>0</v>
-      </c>
-      <c r="O55" s="5">
+      <c r="N55" s="6">
+        <v>0</v>
+      </c>
+      <c r="O55" s="6">
         <v>0</v>
       </c>
       <c r="P55" s="1" t="s">
@@ -6899,10 +6883,10 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="N56" s="5">
-        <v>0</v>
-      </c>
-      <c r="O56" s="5">
+      <c r="N56" s="6">
+        <v>0</v>
+      </c>
+      <c r="O56" s="6">
         <v>0</v>
       </c>
       <c r="P56" s="1" t="s">
@@ -6960,10 +6944,10 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="N57" s="5">
-        <v>0</v>
-      </c>
-      <c r="O57" s="5">
+      <c r="N57" s="6">
+        <v>0</v>
+      </c>
+      <c r="O57" s="6">
         <v>0</v>
       </c>
       <c r="P57" s="1" t="s">
@@ -7021,10 +7005,10 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="N58" s="5">
-        <v>0</v>
-      </c>
-      <c r="O58" s="5">
+      <c r="N58" s="6">
+        <v>0</v>
+      </c>
+      <c r="O58" s="6">
         <v>0</v>
       </c>
       <c r="P58" s="1" t="s">
@@ -7082,10 +7066,10 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="N59" s="5">
-        <v>0</v>
-      </c>
-      <c r="O59" s="5">
+      <c r="N59" s="6">
+        <v>0</v>
+      </c>
+      <c r="O59" s="6">
         <v>0</v>
       </c>
       <c r="P59" s="1" t="s">
@@ -7143,10 +7127,10 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="N60" s="5">
-        <v>0</v>
-      </c>
-      <c r="O60" s="5">
+      <c r="N60" s="6">
+        <v>0</v>
+      </c>
+      <c r="O60" s="6">
         <v>0</v>
       </c>
       <c r="P60" s="1" t="s">
@@ -7204,10 +7188,10 @@
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="N61" s="5">
-        <v>0</v>
-      </c>
-      <c r="O61" s="5">
+      <c r="N61" s="6">
+        <v>0</v>
+      </c>
+      <c r="O61" s="6">
         <v>0</v>
       </c>
       <c r="P61" s="1" t="s">
@@ -7265,10 +7249,10 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="N62" s="5">
-        <v>0</v>
-      </c>
-      <c r="O62" s="5">
+      <c r="N62" s="6">
+        <v>0</v>
+      </c>
+      <c r="O62" s="6">
         <v>0</v>
       </c>
       <c r="P62" s="1" t="s">
@@ -7326,10 +7310,10 @@
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="N63" s="5">
-        <v>0</v>
-      </c>
-      <c r="O63" s="5">
+      <c r="N63" s="6">
+        <v>0</v>
+      </c>
+      <c r="O63" s="6">
         <v>0</v>
       </c>
       <c r="P63" s="1" t="s">
@@ -7387,10 +7371,10 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="N64" s="5">
-        <v>0</v>
-      </c>
-      <c r="O64" s="5">
+      <c r="N64" s="6">
+        <v>0</v>
+      </c>
+      <c r="O64" s="6">
         <v>0</v>
       </c>
       <c r="P64" s="1" t="s">
@@ -7448,10 +7432,10 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="N65" s="5">
-        <v>0</v>
-      </c>
-      <c r="O65" s="5">
+      <c r="N65" s="6">
+        <v>0</v>
+      </c>
+      <c r="O65" s="6">
         <v>0</v>
       </c>
       <c r="P65" s="1" t="s">
@@ -7509,10 +7493,10 @@
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="N66" s="5">
-        <v>0</v>
-      </c>
-      <c r="O66" s="5">
+      <c r="N66" s="6">
+        <v>0</v>
+      </c>
+      <c r="O66" s="6">
         <v>0</v>
       </c>
       <c r="P66" s="1" t="s">
@@ -7570,10 +7554,10 @@
         <f t="shared" ref="M67:M71" si="10">M66+8</f>
         <v>91</v>
       </c>
-      <c r="N67" s="5">
-        <v>0</v>
-      </c>
-      <c r="O67" s="5">
+      <c r="N67" s="6">
+        <v>0</v>
+      </c>
+      <c r="O67" s="6">
         <v>0</v>
       </c>
       <c r="P67" s="1" t="s">
@@ -7631,10 +7615,10 @@
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="N68" s="5">
-        <v>0</v>
-      </c>
-      <c r="O68" s="5">
+      <c r="N68" s="6">
+        <v>0</v>
+      </c>
+      <c r="O68" s="6">
         <v>0</v>
       </c>
       <c r="P68" s="1" t="s">
@@ -7692,10 +7676,10 @@
         <f t="shared" si="10"/>
         <v>107</v>
       </c>
-      <c r="N69" s="5">
-        <v>0</v>
-      </c>
-      <c r="O69" s="5">
+      <c r="N69" s="6">
+        <v>0</v>
+      </c>
+      <c r="O69" s="6">
         <v>0</v>
       </c>
       <c r="P69" s="1" t="s">
@@ -7752,10 +7736,10 @@
         <f t="shared" si="10"/>
         <v>115</v>
       </c>
-      <c r="N70" s="5">
-        <v>0</v>
-      </c>
-      <c r="O70" s="5">
+      <c r="N70" s="6">
+        <v>0</v>
+      </c>
+      <c r="O70" s="6">
         <v>0</v>
       </c>
       <c r="P70" s="1" t="s">
@@ -7813,10 +7797,10 @@
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
-      <c r="N71" s="5">
-        <v>0</v>
-      </c>
-      <c r="O71" s="5">
+      <c r="N71" s="6">
+        <v>0</v>
+      </c>
+      <c r="O71" s="6">
         <v>0</v>
       </c>
       <c r="P71" s="1" t="s">
@@ -7874,10 +7858,10 @@
         <f t="shared" ref="M71:M95" si="15">M71+15</f>
         <v>145</v>
       </c>
-      <c r="N72" s="5">
-        <v>0</v>
-      </c>
-      <c r="O72" s="5">
+      <c r="N72" s="6">
+        <v>0</v>
+      </c>
+      <c r="O72" s="6">
         <v>0</v>
       </c>
       <c r="P72" s="1" t="s">
@@ -7935,10 +7919,10 @@
         <f t="shared" si="15"/>
         <v>160</v>
       </c>
-      <c r="N73" s="5">
-        <v>0</v>
-      </c>
-      <c r="O73" s="5">
+      <c r="N73" s="6">
+        <v>0</v>
+      </c>
+      <c r="O73" s="6">
         <v>0</v>
       </c>
       <c r="P73" s="1" t="s">
@@ -7996,10 +7980,10 @@
         <f t="shared" si="15"/>
         <v>175</v>
       </c>
-      <c r="N74" s="5">
-        <v>0</v>
-      </c>
-      <c r="O74" s="5">
+      <c r="N74" s="6">
+        <v>0</v>
+      </c>
+      <c r="O74" s="6">
         <v>0</v>
       </c>
       <c r="P74" s="1" t="s">
@@ -8057,10 +8041,10 @@
         <f t="shared" si="15"/>
         <v>190</v>
       </c>
-      <c r="N75" s="5">
-        <v>0</v>
-      </c>
-      <c r="O75" s="5">
+      <c r="N75" s="6">
+        <v>0</v>
+      </c>
+      <c r="O75" s="6">
         <v>0</v>
       </c>
       <c r="P75" s="1" t="s">
@@ -8118,10 +8102,10 @@
         <f t="shared" si="15"/>
         <v>205</v>
       </c>
-      <c r="N76" s="5">
-        <v>0</v>
-      </c>
-      <c r="O76" s="5">
+      <c r="N76" s="6">
+        <v>0</v>
+      </c>
+      <c r="O76" s="6">
         <v>0</v>
       </c>
       <c r="P76" s="1">
@@ -8177,10 +8161,10 @@
         <f t="shared" si="15"/>
         <v>220</v>
       </c>
-      <c r="N77" s="5">
-        <v>0</v>
-      </c>
-      <c r="O77" s="5">
+      <c r="N77" s="6">
+        <v>0</v>
+      </c>
+      <c r="O77" s="6">
         <v>0</v>
       </c>
       <c r="P77" s="1">
@@ -8236,10 +8220,10 @@
         <f t="shared" si="15"/>
         <v>235</v>
       </c>
-      <c r="N78" s="5">
-        <v>0</v>
-      </c>
-      <c r="O78" s="5">
+      <c r="N78" s="6">
+        <v>0</v>
+      </c>
+      <c r="O78" s="6">
         <v>0</v>
       </c>
       <c r="P78" s="1">
@@ -8295,10 +8279,10 @@
         <f t="shared" si="15"/>
         <v>250</v>
       </c>
-      <c r="N79" s="5">
-        <v>0</v>
-      </c>
-      <c r="O79" s="5">
+      <c r="N79" s="6">
+        <v>0</v>
+      </c>
+      <c r="O79" s="6">
         <v>0</v>
       </c>
       <c r="P79" s="1">
@@ -8354,10 +8338,10 @@
         <f t="shared" si="15"/>
         <v>265</v>
       </c>
-      <c r="N80" s="5">
-        <v>0</v>
-      </c>
-      <c r="O80" s="5">
+      <c r="N80" s="6">
+        <v>0</v>
+      </c>
+      <c r="O80" s="6">
         <v>0</v>
       </c>
       <c r="P80" s="1">
@@ -8413,10 +8397,10 @@
         <f t="shared" si="15"/>
         <v>280</v>
       </c>
-      <c r="N81" s="5">
-        <v>0</v>
-      </c>
-      <c r="O81" s="5">
+      <c r="N81" s="6">
+        <v>0</v>
+      </c>
+      <c r="O81" s="6">
         <v>0</v>
       </c>
       <c r="P81" s="1">
@@ -8474,10 +8458,10 @@
         <f t="shared" si="15"/>
         <v>295</v>
       </c>
-      <c r="N82" s="5">
-        <v>0</v>
-      </c>
-      <c r="O82" s="5">
+      <c r="N82" s="6">
+        <v>0</v>
+      </c>
+      <c r="O82" s="6">
         <v>0</v>
       </c>
       <c r="P82" s="1">
@@ -8535,10 +8519,10 @@
         <f t="shared" si="15"/>
         <v>310</v>
       </c>
-      <c r="N83" s="5">
-        <v>0</v>
-      </c>
-      <c r="O83" s="5">
+      <c r="N83" s="6">
+        <v>0</v>
+      </c>
+      <c r="O83" s="6">
         <v>0</v>
       </c>
       <c r="P83" s="1">
@@ -8596,10 +8580,10 @@
         <f t="shared" si="15"/>
         <v>325</v>
       </c>
-      <c r="N84" s="5">
-        <v>0</v>
-      </c>
-      <c r="O84" s="5">
+      <c r="N84" s="6">
+        <v>0</v>
+      </c>
+      <c r="O84" s="6">
         <v>0</v>
       </c>
       <c r="P84" s="1">
@@ -8657,10 +8641,10 @@
         <f t="shared" si="15"/>
         <v>340</v>
       </c>
-      <c r="N85" s="5">
-        <v>0</v>
-      </c>
-      <c r="O85" s="5">
+      <c r="N85" s="6">
+        <v>0</v>
+      </c>
+      <c r="O85" s="6">
         <v>0</v>
       </c>
       <c r="P85" s="1">
@@ -8718,10 +8702,10 @@
         <f t="shared" si="15"/>
         <v>355</v>
       </c>
-      <c r="N86" s="5">
-        <v>0</v>
-      </c>
-      <c r="O86" s="5">
+      <c r="N86" s="6">
+        <v>0</v>
+      </c>
+      <c r="O86" s="6">
         <v>0</v>
       </c>
       <c r="P86" s="1">
@@ -8779,10 +8763,10 @@
         <f t="shared" si="15"/>
         <v>370</v>
       </c>
-      <c r="N87" s="5">
-        <v>0</v>
-      </c>
-      <c r="O87" s="5">
+      <c r="N87" s="6">
+        <v>0</v>
+      </c>
+      <c r="O87" s="6">
         <v>0</v>
       </c>
       <c r="P87" s="1">
@@ -8840,10 +8824,10 @@
         <f t="shared" si="15"/>
         <v>385</v>
       </c>
-      <c r="N88" s="5">
-        <v>0</v>
-      </c>
-      <c r="O88" s="5">
+      <c r="N88" s="6">
+        <v>0</v>
+      </c>
+      <c r="O88" s="6">
         <v>0</v>
       </c>
       <c r="P88" s="1">
@@ -8901,10 +8885,10 @@
         <f t="shared" si="15"/>
         <v>400</v>
       </c>
-      <c r="N89" s="5">
-        <v>0</v>
-      </c>
-      <c r="O89" s="5">
+      <c r="N89" s="6">
+        <v>0</v>
+      </c>
+      <c r="O89" s="6">
         <v>0</v>
       </c>
       <c r="P89" s="1">
@@ -8962,10 +8946,10 @@
         <f t="shared" si="15"/>
         <v>415</v>
       </c>
-      <c r="N90" s="5">
-        <v>0</v>
-      </c>
-      <c r="O90" s="5">
+      <c r="N90" s="6">
+        <v>0</v>
+      </c>
+      <c r="O90" s="6">
         <v>0</v>
       </c>
       <c r="P90" s="11" t="s">
@@ -9023,10 +9007,10 @@
         <f t="shared" ref="M91:M96" si="21">M90+20</f>
         <v>435</v>
       </c>
-      <c r="N91" s="5">
-        <v>0</v>
-      </c>
-      <c r="O91" s="5">
+      <c r="N91" s="6">
+        <v>0</v>
+      </c>
+      <c r="O91" s="6">
         <v>0</v>
       </c>
       <c r="P91" s="11" t="s">
@@ -9084,10 +9068,10 @@
         <f t="shared" si="21"/>
         <v>455</v>
       </c>
-      <c r="N92" s="5">
-        <v>0</v>
-      </c>
-      <c r="O92" s="5">
+      <c r="N92" s="6">
+        <v>0</v>
+      </c>
+      <c r="O92" s="6">
         <v>0</v>
       </c>
       <c r="P92" s="11" t="s">
@@ -9145,10 +9129,10 @@
         <f t="shared" si="21"/>
         <v>475</v>
       </c>
-      <c r="N93" s="5">
-        <v>0</v>
-      </c>
-      <c r="O93" s="5">
+      <c r="N93" s="6">
+        <v>0</v>
+      </c>
+      <c r="O93" s="6">
         <v>0</v>
       </c>
       <c r="P93" s="11" t="s">
@@ -9206,10 +9190,10 @@
         <f t="shared" si="21"/>
         <v>495</v>
       </c>
-      <c r="N94" s="5">
-        <v>0</v>
-      </c>
-      <c r="O94" s="5">
+      <c r="N94" s="6">
+        <v>0</v>
+      </c>
+      <c r="O94" s="6">
         <v>0</v>
       </c>
       <c r="P94" s="11" t="s">
@@ -9267,10 +9251,10 @@
         <f t="shared" si="21"/>
         <v>515</v>
       </c>
-      <c r="N95" s="5">
-        <v>0</v>
-      </c>
-      <c r="O95" s="5">
+      <c r="N95" s="6">
+        <v>0</v>
+      </c>
+      <c r="O95" s="6">
         <v>0</v>
       </c>
       <c r="P95" s="11" t="s">
@@ -9326,10 +9310,10 @@
         <f t="shared" ref="M96:M100" si="25">M95+25</f>
         <v>540</v>
       </c>
-      <c r="N96" s="5">
-        <v>0</v>
-      </c>
-      <c r="O96" s="5">
+      <c r="N96" s="6">
+        <v>0</v>
+      </c>
+      <c r="O96" s="6">
         <v>0</v>
       </c>
       <c r="P96" s="11" t="s">
@@ -9383,10 +9367,10 @@
         <f t="shared" si="25"/>
         <v>565</v>
       </c>
-      <c r="N97" s="5">
-        <v>0</v>
-      </c>
-      <c r="O97" s="5">
+      <c r="N97" s="6">
+        <v>0</v>
+      </c>
+      <c r="O97" s="6">
         <v>0</v>
       </c>
       <c r="P97" s="11" t="s">
@@ -9440,10 +9424,10 @@
         <f t="shared" si="25"/>
         <v>590</v>
       </c>
-      <c r="N98" s="5">
-        <v>0</v>
-      </c>
-      <c r="O98" s="5">
+      <c r="N98" s="6">
+        <v>0</v>
+      </c>
+      <c r="O98" s="6">
         <v>0</v>
       </c>
       <c r="P98" s="11" t="s">
@@ -10225,7 +10209,7 @@
       <c r="N111" s="3">
         <v>35</v>
       </c>
-      <c r="O111" s="5">
+      <c r="O111" s="6">
         <v>0</v>
       </c>
       <c r="P111" s="15" t="s">
@@ -10285,7 +10269,7 @@
         <f t="shared" ref="N112:N145" si="35">N111+1</f>
         <v>36</v>
       </c>
-      <c r="O112" s="5">
+      <c r="O112" s="6">
         <v>0</v>
       </c>
       <c r="P112" s="11" t="s">
@@ -10320,10 +10304,10 @@
         <v>769</v>
       </c>
       <c r="H113" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="I113" s="13" t="s">
         <v>770</v>
-      </c>
-      <c r="I113" s="13" t="s">
-        <v>771</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" si="31"/>
@@ -10345,14 +10329,14 @@
         <f t="shared" si="35"/>
         <v>37</v>
       </c>
-      <c r="O113" s="5">
+      <c r="O113" s="6">
         <v>0</v>
       </c>
       <c r="P113" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="Q113" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="S113" s="1" t="s">
         <v>150</v>
@@ -10365,25 +10349,25 @@
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>774</v>
       </c>
       <c r="E114" s="1">
         <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G114" s="12" t="s">
         <v>775</v>
       </c>
-      <c r="G114" s="12" t="s">
+      <c r="H114" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="I114" s="13" t="s">
         <v>776</v>
-      </c>
-      <c r="H114" s="11" t="s">
-        <v>777</v>
-      </c>
-      <c r="I114" s="13" t="s">
-        <v>778</v>
       </c>
       <c r="J114" s="1">
         <f t="shared" si="31"/>
@@ -10405,14 +10389,14 @@
         <f t="shared" si="35"/>
         <v>38</v>
       </c>
-      <c r="O114" s="5">
+      <c r="O114" s="6">
         <v>0</v>
       </c>
       <c r="P114" s="11" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="Q114" s="11" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="S114" s="1" t="s">
         <v>150</v>
@@ -10425,25 +10409,25 @@
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E115" s="1">
         <v>4</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="I115" s="13" t="s">
         <v>782</v>
-      </c>
-      <c r="G115" s="12" t="s">
-        <v>783</v>
-      </c>
-      <c r="H115" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="I115" s="13" t="s">
-        <v>785</v>
       </c>
       <c r="J115" s="1">
         <f t="shared" si="31"/>
@@ -10465,14 +10449,14 @@
         <f t="shared" si="35"/>
         <v>39</v>
       </c>
-      <c r="O115" s="5">
+      <c r="O115" s="6">
         <v>0</v>
       </c>
       <c r="P115" s="11" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="Q115" s="11" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="S115" s="1" t="s">
         <v>150</v>
@@ -10485,25 +10469,25 @@
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E116" s="1">
         <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="J116" s="1">
         <f t="shared" ref="J116:J125" si="36">J115+20</f>
@@ -10525,14 +10509,14 @@
         <f t="shared" si="35"/>
         <v>40</v>
       </c>
-      <c r="O116" s="5">
+      <c r="O116" s="6">
         <v>0</v>
       </c>
       <c r="P116" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="Q116" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="S116" s="1" t="s">
         <v>150</v>
@@ -10547,25 +10531,25 @@
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="1" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E117" s="1">
         <v>4</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="J117" s="1">
         <f t="shared" si="36"/>
@@ -10587,14 +10571,14 @@
         <f t="shared" si="35"/>
         <v>41</v>
       </c>
-      <c r="O117" s="5">
+      <c r="O117" s="6">
         <v>0</v>
       </c>
       <c r="P117" s="11" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="Q117" s="11" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="S117" s="1" t="s">
         <v>150</v>
@@ -10609,25 +10593,25 @@
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="1" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="E118" s="1">
         <v>4</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="I118" s="13" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="J118" s="1">
         <f t="shared" si="36"/>
@@ -10649,14 +10633,14 @@
         <f t="shared" si="35"/>
         <v>42</v>
       </c>
-      <c r="O118" s="5">
+      <c r="O118" s="6">
         <v>0</v>
       </c>
       <c r="P118" s="11" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="Q118" s="11" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="S118" s="1" t="s">
         <v>150</v>
@@ -10671,25 +10655,25 @@
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="E119" s="1">
         <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="I119" s="13" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="J119" s="1">
         <f t="shared" si="36"/>
@@ -10711,14 +10695,14 @@
         <f t="shared" si="35"/>
         <v>43</v>
       </c>
-      <c r="O119" s="5">
+      <c r="O119" s="6">
         <v>0</v>
       </c>
       <c r="P119" s="11" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="Q119" s="11" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="S119" s="1" t="s">
         <v>150</v>
@@ -10733,25 +10717,25 @@
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="1" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="E120" s="1">
         <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="I120" s="13" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="J120" s="1">
         <f t="shared" si="36"/>
@@ -10773,14 +10757,14 @@
         <f t="shared" si="35"/>
         <v>44</v>
       </c>
-      <c r="O120" s="5">
+      <c r="O120" s="6">
         <v>0</v>
       </c>
       <c r="P120" s="11" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="Q120" s="11" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="S120" s="1" t="s">
         <v>150</v>
@@ -10792,32 +10776,28 @@
       <c r="V120" s="3"/>
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A121" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>822</v>
-      </c>
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
       <c r="C121" s="1" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="E121" s="1">
         <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="I121" s="13" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="J121" s="1">
         <f t="shared" si="36"/>
@@ -10839,14 +10819,14 @@
         <f t="shared" si="35"/>
         <v>45</v>
       </c>
-      <c r="O121" s="5">
+      <c r="O121" s="6">
         <v>0</v>
       </c>
       <c r="P121" s="11" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="Q121" s="11" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="S121" s="1" t="s">
         <v>150</v>
@@ -10858,32 +10838,28 @@
       <c r="V121" s="3"/>
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A122" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>822</v>
-      </c>
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
       <c r="C122" s="1" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="E122" s="1">
         <v>4</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>833</v>
+        <v>758</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="I122" s="13" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="J122" s="1">
         <f t="shared" si="36"/>
@@ -10905,14 +10881,14 @@
         <f t="shared" si="35"/>
         <v>46</v>
       </c>
-      <c r="O122" s="5">
+      <c r="O122" s="6">
         <v>0</v>
       </c>
       <c r="P122" s="11" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="Q122" s="11" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="S122" s="1" t="s">
         <v>150</v>
@@ -10924,32 +10900,28 @@
       <c r="V122" s="3"/>
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A123" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>822</v>
-      </c>
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
       <c r="C123" s="1" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="E123" s="1">
         <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>670</v>
+        <v>828</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="I123" s="13" t="s">
-        <v>751</v>
+        <v>829</v>
       </c>
       <c r="J123" s="1">
         <f t="shared" si="36"/>
@@ -10971,14 +10943,14 @@
         <f t="shared" si="35"/>
         <v>47</v>
       </c>
-      <c r="O123" s="5">
+      <c r="O123" s="6">
         <v>0</v>
       </c>
       <c r="P123" s="11" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="Q123" s="11" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="S123" s="1" t="s">
         <v>150</v>
@@ -10990,32 +10962,28 @@
       <c r="V123" s="3"/>
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A124" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>822</v>
-      </c>
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
       <c r="C124" s="1" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>670</v>
+        <v>834</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>750</v>
+        <v>828</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>751</v>
+        <v>835</v>
       </c>
       <c r="J124" s="1">
         <f t="shared" si="36"/>
@@ -11037,14 +11005,14 @@
         <f t="shared" si="35"/>
         <v>48</v>
       </c>
-      <c r="O124" s="5">
+      <c r="O124" s="6">
         <v>0</v>
       </c>
       <c r="P124" s="11" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="Q124" s="11" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="S124" s="1" t="s">
         <v>150</v>
@@ -11056,32 +11024,28 @@
       <c r="V124" s="3"/>
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A125" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>822</v>
-      </c>
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
       <c r="C125" s="1" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="E125" s="1">
         <v>4</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>670</v>
+        <v>840</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>750</v>
+        <v>834</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>751</v>
+        <v>841</v>
       </c>
       <c r="J125" s="1">
         <f t="shared" si="36"/>
@@ -11103,14 +11067,14 @@
         <f t="shared" si="35"/>
         <v>49</v>
       </c>
-      <c r="O125" s="5">
+      <c r="O125" s="6">
         <v>0</v>
       </c>
       <c r="P125" s="11" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="Q125" s="11" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="S125" s="1" t="s">
         <v>150</v>
@@ -11123,22 +11087,22 @@
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A126" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="E126" s="1">
         <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="G126" s="12" t="s">
         <v>670</v>
@@ -11169,14 +11133,14 @@
         <f t="shared" si="35"/>
         <v>50</v>
       </c>
-      <c r="O126" s="5">
+      <c r="O126" s="6">
         <v>0</v>
       </c>
       <c r="P126" s="11" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q126" s="11" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="S126" s="1" t="s">
         <v>150</v>
@@ -11189,22 +11153,22 @@
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A127" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="E127" s="1">
         <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="G127" s="12" t="s">
         <v>670</v>
@@ -11235,14 +11199,14 @@
         <f t="shared" si="35"/>
         <v>51</v>
       </c>
-      <c r="O127" s="5">
+      <c r="O127" s="6">
         <v>0</v>
       </c>
       <c r="P127" s="11" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="Q127" s="11" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="S127" s="1" t="s">
         <v>150</v>
@@ -11255,22 +11219,22 @@
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A128" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="E128" s="1">
         <v>4</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="G128" s="12" t="s">
         <v>670</v>
@@ -11301,14 +11265,14 @@
         <f t="shared" si="35"/>
         <v>52</v>
       </c>
-      <c r="O128" s="5">
+      <c r="O128" s="6">
         <v>0</v>
       </c>
       <c r="P128" s="11" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="Q128" s="11" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="S128" s="1" t="s">
         <v>150</v>
@@ -11321,22 +11285,22 @@
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A129" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E129" s="1">
         <v>4</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="G129" s="12" t="s">
         <v>670</v>
@@ -11367,14 +11331,14 @@
         <f t="shared" si="35"/>
         <v>53</v>
       </c>
-      <c r="O129" s="5">
+      <c r="O129" s="6">
         <v>0</v>
       </c>
       <c r="P129" s="11" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="Q129" s="11" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="S129" s="1" t="s">
         <v>150</v>
@@ -11387,22 +11351,22 @@
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A130" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="E130" s="1">
         <v>4</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="G130" s="12" t="s">
         <v>670</v>
@@ -11433,14 +11397,14 @@
         <f t="shared" si="35"/>
         <v>54</v>
       </c>
-      <c r="O130" s="5">
+      <c r="O130" s="6">
         <v>0</v>
       </c>
       <c r="P130" s="11" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="Q130" s="11" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="S130" s="1" t="s">
         <v>150</v>
@@ -11453,22 +11417,22 @@
     </row>
     <row r="131" customHeight="1" spans="1:20">
       <c r="A131" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E131" s="1">
         <v>4</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="G131" s="12" t="s">
         <v>670</v>
@@ -11499,14 +11463,14 @@
         <f t="shared" si="35"/>
         <v>55</v>
       </c>
-      <c r="O131" s="5">
+      <c r="O131" s="6">
         <v>0</v>
       </c>
       <c r="P131" s="11" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="Q131" s="11" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="S131" s="1" t="s">
         <v>150</v>
@@ -11517,22 +11481,22 @@
     </row>
     <row r="132" customHeight="1" spans="1:20">
       <c r="A132" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="E132" s="1">
         <v>4</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G132" s="12" t="s">
         <v>670</v>
@@ -11563,14 +11527,14 @@
         <f t="shared" si="35"/>
         <v>56</v>
       </c>
-      <c r="O132" s="5">
+      <c r="O132" s="6">
         <v>0</v>
       </c>
       <c r="P132" s="11" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="Q132" s="11" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="S132" s="1" t="s">
         <v>150</v>
@@ -11581,22 +11545,22 @@
     </row>
     <row r="133" customHeight="1" spans="1:20">
       <c r="A133" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="E133" s="1">
         <v>4</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="G133" s="12" t="s">
         <v>670</v>
@@ -11627,14 +11591,14 @@
         <f t="shared" si="35"/>
         <v>57</v>
       </c>
-      <c r="O133" s="5">
+      <c r="O133" s="6">
         <v>0</v>
       </c>
       <c r="P133" s="11" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="Q133" s="11" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="S133" s="1" t="s">
         <v>150</v>
@@ -11645,22 +11609,22 @@
     </row>
     <row r="134" customHeight="1" spans="1:20">
       <c r="A134" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="E134" s="1">
         <v>4</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="G134" s="12" t="s">
         <v>670</v>
@@ -11691,14 +11655,14 @@
         <f t="shared" si="35"/>
         <v>58</v>
       </c>
-      <c r="O134" s="5">
+      <c r="O134" s="6">
         <v>0</v>
       </c>
       <c r="P134" s="11" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="Q134" s="11" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="S134" s="1" t="s">
         <v>150</v>
@@ -11709,22 +11673,22 @@
     </row>
     <row r="135" customHeight="1" spans="1:20">
       <c r="A135" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="E135" s="1">
         <v>4</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="G135" s="12" t="s">
         <v>670</v>
@@ -11755,14 +11719,14 @@
         <f t="shared" si="35"/>
         <v>59</v>
       </c>
-      <c r="O135" s="5">
+      <c r="O135" s="6">
         <v>0</v>
       </c>
       <c r="P135" s="11" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="Q135" s="11" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="S135" s="1" t="s">
         <v>150</v>
@@ -11773,22 +11737,22 @@
     </row>
     <row r="136" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A136" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E136" s="1">
         <v>4</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="G136" s="12" t="s">
         <v>670</v>
@@ -11819,14 +11783,14 @@
         <f t="shared" si="35"/>
         <v>60</v>
       </c>
-      <c r="O136" s="5">
+      <c r="O136" s="6">
         <v>0</v>
       </c>
       <c r="P136" s="11" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="Q136" s="11" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="S136" s="1" t="s">
         <v>150</v>
@@ -11839,22 +11803,22 @@
     </row>
     <row r="137" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A137" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E137" s="1">
         <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="G137" s="12" t="s">
         <v>670</v>
@@ -11885,14 +11849,14 @@
         <f t="shared" si="35"/>
         <v>61</v>
       </c>
-      <c r="O137" s="5">
+      <c r="O137" s="6">
         <v>0</v>
       </c>
       <c r="P137" s="11" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="Q137" s="11" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="S137" s="1" t="s">
         <v>150</v>
@@ -11905,22 +11869,22 @@
     </row>
     <row r="138" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A138" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="E138" s="1">
         <v>4</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="G138" s="12" t="s">
         <v>670</v>
@@ -11951,14 +11915,14 @@
         <f t="shared" si="35"/>
         <v>62</v>
       </c>
-      <c r="O138" s="5">
+      <c r="O138" s="6">
         <v>0</v>
       </c>
       <c r="P138" s="11" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="Q138" s="11" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="S138" s="1" t="s">
         <v>150</v>
@@ -11971,22 +11935,22 @@
     </row>
     <row r="139" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A139" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="E139" s="1">
         <v>4</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="G139" s="12" t="s">
         <v>670</v>
@@ -12017,14 +11981,14 @@
         <f t="shared" si="35"/>
         <v>63</v>
       </c>
-      <c r="O139" s="5">
+      <c r="O139" s="6">
         <v>0</v>
       </c>
       <c r="P139" s="11" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="Q139" s="11" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="S139" s="1" t="s">
         <v>150</v>
@@ -12037,22 +12001,22 @@
     </row>
     <row r="140" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A140" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="E140" s="1">
         <v>4</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="G140" s="12" t="s">
         <v>670</v>
@@ -12082,14 +12046,14 @@
         <f t="shared" si="35"/>
         <v>64</v>
       </c>
-      <c r="O140" s="5">
+      <c r="O140" s="6">
         <v>0</v>
       </c>
       <c r="P140" s="11" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="Q140" s="11" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="S140" s="1" t="s">
         <v>150</v>
@@ -12102,22 +12066,22 @@
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A141" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="E141" s="1">
         <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="G141" s="12" t="s">
         <v>670</v>
@@ -12148,14 +12112,14 @@
         <f t="shared" si="35"/>
         <v>65</v>
       </c>
-      <c r="O141" s="5">
+      <c r="O141" s="6">
         <v>0</v>
       </c>
       <c r="P141" s="11" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="Q141" s="11" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="S141" s="1" t="s">
         <v>150</v>
@@ -12168,22 +12132,22 @@
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A142" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="E142" s="1">
         <v>4</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="G142" s="12" t="s">
         <v>670</v>
@@ -12214,14 +12178,14 @@
         <f t="shared" si="35"/>
         <v>66</v>
       </c>
-      <c r="O142" s="5">
+      <c r="O142" s="6">
         <v>0</v>
       </c>
       <c r="P142" s="11" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="Q142" s="11" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="S142" s="1" t="s">
         <v>150</v>
@@ -12234,22 +12198,22 @@
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A143" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="E143" s="1">
         <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="G143" s="12" t="s">
         <v>670</v>
@@ -12280,14 +12244,14 @@
         <f t="shared" si="35"/>
         <v>67</v>
       </c>
-      <c r="O143" s="5">
+      <c r="O143" s="6">
         <v>0</v>
       </c>
       <c r="P143" s="11" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="Q143" s="11" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="S143" s="1" t="s">
         <v>150</v>
@@ -12300,22 +12264,22 @@
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A144" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="E144" s="1">
         <v>4</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="G144" s="12" t="s">
         <v>670</v>
@@ -12346,14 +12310,14 @@
         <f t="shared" si="35"/>
         <v>68</v>
       </c>
-      <c r="O144" s="5">
+      <c r="O144" s="6">
         <v>0</v>
       </c>
       <c r="P144" s="11" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="Q144" s="11" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="S144" s="1" t="s">
         <v>150</v>
@@ -12366,22 +12330,22 @@
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A145" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="E145" s="1">
         <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="G145" s="12" t="s">
         <v>670</v>
@@ -12412,14 +12376,14 @@
         <f t="shared" si="35"/>
         <v>69</v>
       </c>
-      <c r="O145" s="5">
+      <c r="O145" s="6">
         <v>0</v>
       </c>
       <c r="P145" s="11" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="Q145" s="11" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="S145" s="1" t="s">
         <v>150</v>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="923">
   <si>
     <t>ID</t>
   </si>
@@ -2353,193 +2353,193 @@
     <t>地狱鸡王</t>
   </si>
   <si>
-    <t>90000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000</t>
+    <t>900000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>310000000000</t>
+  </si>
+  <si>
+    <t>10106</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>地狱鹿王</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>2000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>320000000000</t>
+  </si>
+  <si>
+    <t>10107</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>地狱草王</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>40000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>330000000000</t>
+  </si>
+  <si>
+    <t>10108</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>地狱猫王</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>800000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>340000000000</t>
+  </si>
+  <si>
+    <t>10109</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>地狱花王</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>16000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>350000000000</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>10110</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>地狱雪王</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>320000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>360000000000</t>
+  </si>
+  <si>
+    <t>10111</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>地狱蝠王</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>6400000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>370000000000</t>
+  </si>
+  <si>
+    <t>10112</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>地狱骷髅王</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>120000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>380000000000</t>
+  </si>
+  <si>
+    <t>10113</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>地狱尸王</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>2400000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>390000000000</t>
+  </si>
+  <si>
+    <t>10114</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>地狱蛇王</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>48000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>400000000000</t>
+  </si>
+  <si>
+    <t>10115</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>地狱狼王</t>
   </si>
   <si>
     <t>9000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>310000000000</t>
-  </si>
-  <si>
-    <t>10106</t>
-  </si>
-  <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>地狱鹿王</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>200000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>320000000000</t>
-  </si>
-  <si>
-    <t>10107</t>
-  </si>
-  <si>
-    <t>1107</t>
-  </si>
-  <si>
-    <t>地狱草王</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>4000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>330000000000</t>
-  </si>
-  <si>
-    <t>10108</t>
-  </si>
-  <si>
-    <t>1108</t>
-  </si>
-  <si>
-    <t>地狱猫王</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>80000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>340000000000</t>
-  </si>
-  <si>
-    <t>10109</t>
-  </si>
-  <si>
-    <t>1109</t>
-  </si>
-  <si>
-    <t>地狱花王</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>1600000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>350000000000</t>
-  </si>
-  <si>
-    <t>10110</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>地狱雪王</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>32000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>360000000000</t>
-  </si>
-  <si>
-    <t>10111</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>地狱蝠王</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>640000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>370000000000</t>
-  </si>
-  <si>
-    <t>10112</t>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>地狱骷髅王</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>12000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>380000000000</t>
-  </si>
-  <si>
-    <t>10113</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>地狱尸王</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>240000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>390000000000</t>
-  </si>
-  <si>
-    <t>10114</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>地狱蛇王</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>4800000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>400000000000</t>
-  </si>
-  <si>
-    <t>10115</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>地狱狼王</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>96000000000000000000000000000000000000000000000000000000</t>
+    <t>960000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>410000000000</t>
@@ -2554,7 +2554,10 @@
     <t>地狱沙虫王</t>
   </si>
   <si>
-    <t>200000000000000000000000000000000000000000000000000000000</t>
+    <t>90000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>2000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>420000000000</t>
@@ -2569,10 +2572,10 @@
     <t>地狱鹰王</t>
   </si>
   <si>
-    <t>90000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>4000000000000000000000000000000000000000000000000000000000</t>
+    <t>900000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>40000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>430000000000</t>
@@ -2587,10 +2590,10 @@
     <t>地狱角虫王</t>
   </si>
   <si>
-    <t>900000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>80000000000000000000000000000000000000000000000000000000000</t>
+    <t>9000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>800000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>440000000000</t>
@@ -2605,16 +2608,10 @@
     <t>地狱蜈蚣王</t>
   </si>
   <si>
-    <t>9000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>1600000000000000000000000000000000000000000000000000000000000</t>
+    <t>16000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>450000000000</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>10120</t>
@@ -3841,7 +3838,7 @@
   <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+      <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3849,11 +3846,11 @@
     <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="36.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="44.875" style="3" customWidth="1"/>
+    <col min="7" max="8" width="39.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="49.625" style="3" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="3" customWidth="1"/>
     <col min="11" max="13" width="12.125" style="3" customWidth="1"/>
     <col min="14" max="14" width="14.125" style="3" customWidth="1"/>
@@ -10185,10 +10182,10 @@
         <v>756</v>
       </c>
       <c r="H111" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="I111" s="16" t="s">
         <v>757</v>
-      </c>
-      <c r="I111" s="16" t="s">
-        <v>758</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="31"/>
@@ -10213,10 +10210,10 @@
         <v>0</v>
       </c>
       <c r="P111" s="15" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="Q111" s="15" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="S111" s="2" t="s">
         <v>150</v>
@@ -10229,25 +10226,25 @@
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>761</v>
       </c>
       <c r="E112" s="1">
         <v>4</v>
       </c>
       <c r="F112" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="G112" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="G112" s="12" t="s">
+      <c r="H112" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="I112" s="13" t="s">
         <v>763</v>
-      </c>
-      <c r="H112" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="I112" s="13" t="s">
-        <v>764</v>
       </c>
       <c r="J112" s="1">
         <f t="shared" si="31"/>
@@ -10273,10 +10270,10 @@
         <v>0</v>
       </c>
       <c r="P112" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="Q112" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="S112" s="1" t="s">
         <v>150</v>
@@ -10289,25 +10286,25 @@
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="E113" s="1">
         <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="G113" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="G113" s="12" t="s">
+      <c r="H113" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="I113" s="13" t="s">
         <v>769</v>
-      </c>
-      <c r="H113" s="11" t="s">
-        <v>763</v>
-      </c>
-      <c r="I113" s="13" t="s">
-        <v>770</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" si="31"/>
@@ -10333,10 +10330,10 @@
         <v>0</v>
       </c>
       <c r="P113" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Q113" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="S113" s="1" t="s">
         <v>150</v>
@@ -10349,25 +10346,25 @@
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>773</v>
       </c>
       <c r="E114" s="1">
         <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G114" s="12" t="s">
         <v>774</v>
       </c>
-      <c r="G114" s="12" t="s">
+      <c r="H114" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="I114" s="13" t="s">
         <v>775</v>
-      </c>
-      <c r="H114" s="11" t="s">
-        <v>769</v>
-      </c>
-      <c r="I114" s="13" t="s">
-        <v>776</v>
       </c>
       <c r="J114" s="1">
         <f t="shared" si="31"/>
@@ -10393,10 +10390,10 @@
         <v>0</v>
       </c>
       <c r="P114" s="11" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="Q114" s="11" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="S114" s="1" t="s">
         <v>150</v>
@@ -10409,25 +10406,25 @@
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="E115" s="1">
         <v>4</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="G115" s="12" t="s">
         <v>780</v>
       </c>
-      <c r="G115" s="12" t="s">
+      <c r="H115" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="I115" s="13" t="s">
         <v>781</v>
-      </c>
-      <c r="H115" s="11" t="s">
-        <v>775</v>
-      </c>
-      <c r="I115" s="13" t="s">
-        <v>782</v>
       </c>
       <c r="J115" s="1">
         <f t="shared" si="31"/>
@@ -10453,21 +10450,25 @@
         <v>0</v>
       </c>
       <c r="P115" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="Q115" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="S115" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="T115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A116" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="Q115" s="11" t="s">
+      <c r="B116" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="S115" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T115" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
       <c r="C116" s="1" t="s">
         <v>784</v>
       </c>
@@ -10484,7 +10485,7 @@
         <v>787</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="I116" s="13" t="s">
         <v>788</v>
@@ -10528,8 +10529,12 @@
       <c r="V116" s="3"/>
     </row>
     <row r="117" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+      <c r="A117" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="C117" s="1" t="s">
         <v>790</v>
       </c>
@@ -10546,7 +10551,7 @@
         <v>793</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="I117" s="13" t="s">
         <v>794</v>
@@ -10590,8 +10595,12 @@
       <c r="V117" s="3"/>
     </row>
     <row r="118" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="A118" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="C118" s="1" t="s">
         <v>796</v>
       </c>
@@ -10608,7 +10617,7 @@
         <v>799</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="I118" s="13" t="s">
         <v>800</v>
@@ -10652,8 +10661,12 @@
       <c r="V118" s="3"/>
     </row>
     <row r="119" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+      <c r="A119" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="C119" s="1" t="s">
         <v>802</v>
       </c>
@@ -10670,7 +10683,7 @@
         <v>805</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="I119" s="13" t="s">
         <v>806</v>
@@ -10714,8 +10727,12 @@
       <c r="V119" s="3"/>
     </row>
     <row r="120" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+      <c r="A120" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="C120" s="1" t="s">
         <v>808</v>
       </c>
@@ -10732,7 +10749,7 @@
         <v>811</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="I120" s="13" t="s">
         <v>812</v>
@@ -10776,8 +10793,12 @@
       <c r="V120" s="3"/>
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+      <c r="A121" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="C121" s="1" t="s">
         <v>814</v>
       </c>
@@ -10794,7 +10815,7 @@
         <v>817</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="I121" s="13" t="s">
         <v>818</v>
@@ -10838,8 +10859,12 @@
       <c r="V121" s="3"/>
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+      <c r="A122" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="C122" s="1" t="s">
         <v>820</v>
       </c>
@@ -10853,13 +10878,13 @@
         <v>822</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>758</v>
+        <v>823</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="I122" s="13" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="J122" s="1">
         <f t="shared" si="36"/>
@@ -10885,10 +10910,10 @@
         <v>0</v>
       </c>
       <c r="P122" s="11" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="Q122" s="11" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="S122" s="1" t="s">
         <v>150</v>
@@ -10900,28 +10925,32 @@
       <c r="V122" s="3"/>
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+      <c r="A123" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="C123" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E123" s="1">
         <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>758</v>
+        <v>829</v>
       </c>
       <c r="I123" s="13" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="J123" s="1">
         <f t="shared" si="36"/>
@@ -10947,10 +10976,10 @@
         <v>0</v>
       </c>
       <c r="P123" s="11" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="Q123" s="11" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="S123" s="1" t="s">
         <v>150</v>
@@ -10962,28 +10991,32 @@
       <c r="V123" s="3"/>
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="A124" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="C124" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="J124" s="1">
         <f t="shared" si="36"/>
@@ -11009,10 +11042,10 @@
         <v>0</v>
       </c>
       <c r="P124" s="11" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="Q124" s="11" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="S124" s="1" t="s">
         <v>150</v>
@@ -11024,25 +11057,29 @@
       <c r="V124" s="3"/>
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+      <c r="A125" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="C125" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E125" s="1">
         <v>4</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>840</v>
+        <v>757</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>834</v>
+        <v>757</v>
       </c>
       <c r="I125" s="13" t="s">
         <v>841</v>
@@ -11087,22 +11124,22 @@
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A126" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>844</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>845</v>
       </c>
       <c r="E126" s="1">
         <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G126" s="12" t="s">
         <v>670</v>
@@ -11137,10 +11174,10 @@
         <v>0</v>
       </c>
       <c r="P126" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="Q126" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="S126" s="1" t="s">
         <v>150</v>
@@ -11153,22 +11190,22 @@
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A127" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>849</v>
       </c>
       <c r="E127" s="1">
         <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G127" s="12" t="s">
         <v>670</v>
@@ -11203,10 +11240,10 @@
         <v>0</v>
       </c>
       <c r="P127" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="Q127" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="S127" s="1" t="s">
         <v>150</v>
@@ -11219,22 +11256,22 @@
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A128" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C128" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>852</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>853</v>
       </c>
       <c r="E128" s="1">
         <v>4</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G128" s="12" t="s">
         <v>670</v>
@@ -11269,10 +11306,10 @@
         <v>0</v>
       </c>
       <c r="P128" s="11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q128" s="11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="S128" s="1" t="s">
         <v>150</v>
@@ -11285,22 +11322,22 @@
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A129" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>856</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>857</v>
       </c>
       <c r="E129" s="1">
         <v>4</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G129" s="12" t="s">
         <v>670</v>
@@ -11335,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="P129" s="11" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Q129" s="11" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="S129" s="1" t="s">
         <v>150</v>
@@ -11351,22 +11388,22 @@
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A130" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C130" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>861</v>
       </c>
       <c r="E130" s="1">
         <v>4</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G130" s="12" t="s">
         <v>670</v>
@@ -11401,10 +11438,10 @@
         <v>0</v>
       </c>
       <c r="P130" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Q130" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="S130" s="1" t="s">
         <v>150</v>
@@ -11417,22 +11454,22 @@
     </row>
     <row r="131" customHeight="1" spans="1:20">
       <c r="A131" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>865</v>
       </c>
       <c r="E131" s="1">
         <v>4</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G131" s="12" t="s">
         <v>670</v>
@@ -11467,10 +11504,10 @@
         <v>0</v>
       </c>
       <c r="P131" s="11" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q131" s="11" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="S131" s="1" t="s">
         <v>150</v>
@@ -11481,22 +11518,22 @@
     </row>
     <row r="132" customHeight="1" spans="1:20">
       <c r="A132" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>869</v>
       </c>
       <c r="E132" s="1">
         <v>4</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G132" s="12" t="s">
         <v>670</v>
@@ -11531,10 +11568,10 @@
         <v>0</v>
       </c>
       <c r="P132" s="11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Q132" s="11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="S132" s="1" t="s">
         <v>150</v>
@@ -11545,22 +11582,22 @@
     </row>
     <row r="133" customHeight="1" spans="1:20">
       <c r="A133" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C133" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>873</v>
       </c>
       <c r="E133" s="1">
         <v>4</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G133" s="12" t="s">
         <v>670</v>
@@ -11595,10 +11632,10 @@
         <v>0</v>
       </c>
       <c r="P133" s="11" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Q133" s="11" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="S133" s="1" t="s">
         <v>150</v>
@@ -11609,22 +11646,22 @@
     </row>
     <row r="134" customHeight="1" spans="1:20">
       <c r="A134" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>877</v>
       </c>
       <c r="E134" s="1">
         <v>4</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G134" s="12" t="s">
         <v>670</v>
@@ -11659,10 +11696,10 @@
         <v>0</v>
       </c>
       <c r="P134" s="11" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="Q134" s="11" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="S134" s="1" t="s">
         <v>150</v>
@@ -11673,22 +11710,22 @@
     </row>
     <row r="135" customHeight="1" spans="1:20">
       <c r="A135" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C135" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>881</v>
       </c>
       <c r="E135" s="1">
         <v>4</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G135" s="12" t="s">
         <v>670</v>
@@ -11723,10 +11760,10 @@
         <v>0</v>
       </c>
       <c r="P135" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="Q135" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="S135" s="1" t="s">
         <v>150</v>
@@ -11737,22 +11774,22 @@
     </row>
     <row r="136" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A136" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C136" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>885</v>
       </c>
       <c r="E136" s="1">
         <v>4</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G136" s="12" t="s">
         <v>670</v>
@@ -11787,10 +11824,10 @@
         <v>0</v>
       </c>
       <c r="P136" s="11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="Q136" s="11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="S136" s="1" t="s">
         <v>150</v>
@@ -11803,22 +11840,22 @@
     </row>
     <row r="137" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A137" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>889</v>
       </c>
       <c r="E137" s="1">
         <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G137" s="12" t="s">
         <v>670</v>
@@ -11853,10 +11890,10 @@
         <v>0</v>
       </c>
       <c r="P137" s="11" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="Q137" s="11" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="S137" s="1" t="s">
         <v>150</v>
@@ -11869,22 +11906,22 @@
     </row>
     <row r="138" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A138" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="E138" s="1">
         <v>4</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G138" s="12" t="s">
         <v>670</v>
@@ -11919,10 +11956,10 @@
         <v>0</v>
       </c>
       <c r="P138" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="Q138" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="S138" s="1" t="s">
         <v>150</v>
@@ -11935,22 +11972,22 @@
     </row>
     <row r="139" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A139" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C139" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>897</v>
       </c>
       <c r="E139" s="1">
         <v>4</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G139" s="12" t="s">
         <v>670</v>
@@ -11985,10 +12022,10 @@
         <v>0</v>
       </c>
       <c r="P139" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="Q139" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="S139" s="1" t="s">
         <v>150</v>
@@ -12001,22 +12038,22 @@
     </row>
     <row r="140" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A140" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>901</v>
       </c>
       <c r="E140" s="1">
         <v>4</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G140" s="12" t="s">
         <v>670</v>
@@ -12050,10 +12087,10 @@
         <v>0</v>
       </c>
       <c r="P140" s="11" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="Q140" s="11" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="S140" s="1" t="s">
         <v>150</v>
@@ -12066,22 +12103,22 @@
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A141" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C141" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>905</v>
       </c>
       <c r="E141" s="1">
         <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G141" s="12" t="s">
         <v>670</v>
@@ -12116,10 +12153,10 @@
         <v>0</v>
       </c>
       <c r="P141" s="11" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="Q141" s="11" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="S141" s="1" t="s">
         <v>150</v>
@@ -12132,22 +12169,22 @@
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A142" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C142" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>909</v>
       </c>
       <c r="E142" s="1">
         <v>4</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G142" s="12" t="s">
         <v>670</v>
@@ -12182,10 +12219,10 @@
         <v>0</v>
       </c>
       <c r="P142" s="11" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q142" s="11" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="S142" s="1" t="s">
         <v>150</v>
@@ -12198,22 +12235,22 @@
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A143" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C143" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>913</v>
       </c>
       <c r="E143" s="1">
         <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G143" s="12" t="s">
         <v>670</v>
@@ -12248,10 +12285,10 @@
         <v>0</v>
       </c>
       <c r="P143" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q143" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="S143" s="1" t="s">
         <v>150</v>
@@ -12264,22 +12301,22 @@
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A144" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C144" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>916</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>917</v>
       </c>
       <c r="E144" s="1">
         <v>4</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G144" s="12" t="s">
         <v>670</v>
@@ -12314,10 +12351,10 @@
         <v>0</v>
       </c>
       <c r="P144" s="11" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q144" s="11" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="S144" s="1" t="s">
         <v>150</v>
@@ -12330,22 +12367,22 @@
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A145" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>921</v>
       </c>
       <c r="E145" s="1">
         <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G145" s="12" t="s">
         <v>670</v>
@@ -12380,10 +12417,10 @@
         <v>0</v>
       </c>
       <c r="P145" s="11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="Q145" s="11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="S145" s="1" t="s">
         <v>150</v>

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -3837,8 +3837,8 @@
   <sheetPr/>
   <dimension ref="A1:V145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I125" sqref="I125"/>
+    <sheetView tabSelected="1" topLeftCell="G104" workbookViewId="0">
+      <selection activeCell="O124" sqref="O124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -4066,7 +4066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:20">
+    <row r="6" s="1" customFormat="1" ht="12" spans="3:20">
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" hidden="1" customHeight="1" spans="3:21">
+    <row r="7" customHeight="1" spans="3:21">
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" hidden="1" customHeight="1" spans="3:21">
+    <row r="8" customHeight="1" spans="3:21">
       <c r="C8" s="1" t="s">
         <v>45</v>
       </c>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" hidden="1" customHeight="1" spans="3:21">
+    <row r="9" customHeight="1" spans="3:21">
       <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" hidden="1" customHeight="1" spans="3:21">
+    <row r="10" customHeight="1" spans="3:21">
       <c r="C10" s="1" t="s">
         <v>60</v>
       </c>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" hidden="1" customHeight="1" spans="3:21">
+    <row r="11" customHeight="1" spans="3:21">
       <c r="C11" s="1" t="s">
         <v>65</v>
       </c>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" hidden="1" customHeight="1" spans="3:21">
+    <row r="12" customHeight="1" spans="3:21">
       <c r="C12" s="1" t="s">
         <v>73</v>
       </c>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" hidden="1" customHeight="1" spans="3:21">
+    <row r="13" customHeight="1" spans="3:21">
       <c r="C13" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" hidden="1" customHeight="1" spans="3:21">
+    <row r="14" customHeight="1" spans="3:21">
       <c r="C14" s="1" t="s">
         <v>89</v>
       </c>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" hidden="1" customHeight="1" spans="3:21">
+    <row r="15" customHeight="1" spans="3:21">
       <c r="C15" s="1" t="s">
         <v>97</v>
       </c>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" hidden="1" customHeight="1" spans="3:21">
+    <row r="16" customHeight="1" spans="3:21">
       <c r="C16" s="1" t="s">
         <v>105</v>
       </c>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" hidden="1" customHeight="1" spans="3:21">
+    <row r="17" customHeight="1" spans="3:21">
       <c r="C17" s="1" t="s">
         <v>113</v>
       </c>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" hidden="1" customHeight="1" spans="3:21">
+    <row r="18" customHeight="1" spans="3:21">
       <c r="C18" s="1" t="s">
         <v>121</v>
       </c>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" hidden="1" customHeight="1" spans="3:21">
+    <row r="19" customHeight="1" spans="3:21">
       <c r="C19" s="1" t="s">
         <v>129</v>
       </c>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" hidden="1" customHeight="1" spans="3:21">
+    <row r="20" customHeight="1" spans="3:21">
       <c r="C20" s="1" t="s">
         <v>136</v>
       </c>
@@ -4875,7 +4875,7 @@
       </c>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" hidden="1" customHeight="1" spans="3:21">
+    <row r="21" customHeight="1" spans="3:21">
       <c r="C21" s="1" t="s">
         <v>143</v>
       </c>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" hidden="1" customHeight="1" spans="3:21">
+    <row r="22" customHeight="1" spans="3:21">
       <c r="C22" s="1" t="s">
         <v>151</v>
       </c>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" hidden="1" customHeight="1" spans="3:21">
+    <row r="23" customHeight="1" spans="3:21">
       <c r="C23" s="1" t="s">
         <v>158</v>
       </c>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" hidden="1" customHeight="1" spans="3:21">
+    <row r="24" customHeight="1" spans="3:21">
       <c r="C24" s="1" t="s">
         <v>165</v>
       </c>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" hidden="1" customHeight="1" spans="3:21">
+    <row r="25" customHeight="1" spans="3:21">
       <c r="C25" s="1" t="s">
         <v>172</v>
       </c>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" hidden="1" customHeight="1" spans="3:21">
+    <row r="26" customHeight="1" spans="3:21">
       <c r="C26" s="1" t="s">
         <v>179</v>
       </c>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" hidden="1" customHeight="1" spans="3:21">
+    <row r="27" customHeight="1" spans="3:21">
       <c r="C27" s="1" t="s">
         <v>186</v>
       </c>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" hidden="1" customHeight="1" spans="3:21">
+    <row r="28" customHeight="1" spans="3:21">
       <c r="C28" s="1" t="s">
         <v>193</v>
       </c>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" hidden="1" customHeight="1" spans="3:21">
+    <row r="29" customHeight="1" spans="3:21">
       <c r="C29" s="1" t="s">
         <v>200</v>
       </c>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" hidden="1" customHeight="1" spans="3:21">
+    <row r="30" customHeight="1" spans="3:21">
       <c r="C30" s="1" t="s">
         <v>207</v>
       </c>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" hidden="1" customHeight="1" spans="3:21">
+    <row r="31" customHeight="1" spans="3:21">
       <c r="C31" s="1" t="s">
         <v>214</v>
       </c>
@@ -5480,7 +5480,7 @@
       </c>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" hidden="1" customHeight="1" spans="3:21">
+    <row r="32" customHeight="1" spans="3:21">
       <c r="C32" s="1" t="s">
         <v>221</v>
       </c>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" hidden="1" customHeight="1" spans="3:21">
+    <row r="33" customHeight="1" spans="3:21">
       <c r="C33" s="1" t="s">
         <v>228</v>
       </c>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" hidden="1" customHeight="1" spans="3:21">
+    <row r="34" customHeight="1" spans="3:21">
       <c r="C34" s="1" t="s">
         <v>235</v>
       </c>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" hidden="1" customHeight="1" spans="3:21">
+    <row r="35" customHeight="1" spans="3:21">
       <c r="C35" s="1" t="s">
         <v>242</v>
       </c>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" hidden="1" customHeight="1" spans="3:21">
+    <row r="36" customHeight="1" spans="3:21">
       <c r="C36" s="1" t="s">
         <v>249</v>
       </c>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" hidden="1" customHeight="1" spans="3:21">
+    <row r="37" customHeight="1" spans="3:21">
       <c r="C37" s="1" t="s">
         <v>256</v>
       </c>
@@ -5810,7 +5810,7 @@
       </c>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" hidden="1" customHeight="1" spans="3:21">
+    <row r="38" customHeight="1" spans="3:21">
       <c r="C38" s="1" t="s">
         <v>263</v>
       </c>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" hidden="1" customHeight="1" spans="3:21">
+    <row r="39" customHeight="1" spans="3:21">
       <c r="C39" s="1" t="s">
         <v>270</v>
       </c>
@@ -5920,7 +5920,7 @@
       </c>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" hidden="1" customHeight="1" spans="3:21">
+    <row r="40" customHeight="1" spans="3:21">
       <c r="C40" s="1" t="s">
         <v>277</v>
       </c>
@@ -5975,7 +5975,7 @@
       </c>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="1" t="s">
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="1" t="s">
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="1" t="s">
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="1" t="s">
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="1" t="s">
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="1" t="s">
@@ -6313,7 +6313,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
     </row>
-    <row r="47" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="1" t="s">
@@ -6371,7 +6371,7 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
     </row>
-    <row r="48" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="1" t="s">
@@ -6429,7 +6429,7 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
     </row>
-    <row r="49" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="1" t="s">
@@ -6487,7 +6487,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
     </row>
-    <row r="50" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="1" t="s">
@@ -6545,7 +6545,7 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
     </row>
-    <row r="51" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="1" t="s">
@@ -6604,7 +6604,7 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
     </row>
-    <row r="52" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="1" t="s">
@@ -6663,7 +6663,7 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
     </row>
-    <row r="53" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="1" t="s">
@@ -6722,7 +6722,7 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
     </row>
-    <row r="54" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="1" t="s">
@@ -6781,7 +6781,7 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
     </row>
-    <row r="55" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="1" t="s">
@@ -6840,7 +6840,7 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
     </row>
-    <row r="56" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="1" t="s">
@@ -6901,7 +6901,7 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
     </row>
-    <row r="57" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="1" t="s">
@@ -6962,7 +6962,7 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
     </row>
-    <row r="58" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="1" t="s">
@@ -7023,7 +7023,7 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
     </row>
-    <row r="59" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="1" t="s">
@@ -7084,7 +7084,7 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
     </row>
-    <row r="60" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="1" t="s">
@@ -7145,7 +7145,7 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
     </row>
-    <row r="61" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="1" t="s">
@@ -7206,7 +7206,7 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
     </row>
-    <row r="62" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="1" t="s">
@@ -7267,7 +7267,7 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
     </row>
-    <row r="63" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="1" t="s">
@@ -7328,7 +7328,7 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
     </row>
-    <row r="64" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="64" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="1" t="s">
@@ -7389,7 +7389,7 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
     </row>
-    <row r="65" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="1" t="s">
@@ -7450,7 +7450,7 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
     </row>
-    <row r="66" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="1" t="s">
@@ -7511,7 +7511,7 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
     </row>
-    <row r="67" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="1" t="s">
@@ -7572,7 +7572,7 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
     </row>
-    <row r="68" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="1" t="s">
@@ -7633,7 +7633,7 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
     </row>
-    <row r="69" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="1" t="s">
@@ -7694,7 +7694,7 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
     </row>
-    <row r="70" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="1" t="s">
@@ -7754,7 +7754,7 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
     </row>
-    <row r="71" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="1" t="s">
@@ -7815,7 +7815,7 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
     </row>
-    <row r="72" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="1" t="s">
@@ -7876,7 +7876,7 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
     </row>
-    <row r="73" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="1" t="s">
@@ -7937,7 +7937,7 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
     </row>
-    <row r="74" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="1" t="s">
@@ -7998,7 +7998,7 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
     </row>
-    <row r="75" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="1" t="s">
@@ -8059,7 +8059,7 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
     </row>
-    <row r="76" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+    <row r="76" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="1" t="s">
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+    <row r="77" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="1" t="s">
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+    <row r="78" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="1" t="s">
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+    <row r="79" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="1" t="s">
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+    <row r="80" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="1" t="s">
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="81" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="1" t="s">
@@ -8415,7 +8415,7 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
     </row>
-    <row r="82" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="82" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="1" t="s">
@@ -8476,7 +8476,7 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
     </row>
-    <row r="83" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="83" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="1" t="s">
@@ -8537,7 +8537,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
     </row>
-    <row r="84" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="84" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="1" t="s">
@@ -8598,7 +8598,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
     </row>
-    <row r="85" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="85" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="1" t="s">
@@ -8659,7 +8659,7 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
     </row>
-    <row r="86" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="86" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="1" t="s">
@@ -8720,7 +8720,7 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
     </row>
-    <row r="87" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="87" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="1" t="s">
@@ -8781,7 +8781,7 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
     </row>
-    <row r="88" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="1" t="s">
@@ -8842,7 +8842,7 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
     </row>
-    <row r="89" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="89" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="1" t="s">
@@ -8903,7 +8903,7 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
     </row>
-    <row r="90" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="90" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="1" t="s">
@@ -8964,7 +8964,7 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
     </row>
-    <row r="91" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="1" t="s">
@@ -9025,7 +9025,7 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
     </row>
-    <row r="92" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="1" t="s">
@@ -9086,7 +9086,7 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
     </row>
-    <row r="93" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="1" t="s">
@@ -9147,7 +9147,7 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
     </row>
-    <row r="94" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="1" t="s">
@@ -9208,7 +9208,7 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
     </row>
-    <row r="95" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="1" t="s">
@@ -9269,7 +9269,7 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
     </row>
-    <row r="96" hidden="1" customHeight="1" spans="3:20">
+    <row r="96" customHeight="1" spans="3:20">
       <c r="C96" s="1" t="s">
         <v>651</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" hidden="1" customHeight="1" spans="3:20">
+    <row r="97" customHeight="1" spans="3:20">
       <c r="C97" s="1" t="s">
         <v>658</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" hidden="1" customHeight="1" spans="3:20">
+    <row r="98" customHeight="1" spans="3:20">
       <c r="C98" s="1" t="s">
         <v>665</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" hidden="1" customHeight="1" spans="3:20">
+    <row r="99" customHeight="1" spans="3:20">
       <c r="C99" s="1" t="s">
         <v>672</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" hidden="1" customHeight="1" spans="3:20">
+    <row r="100" customHeight="1" spans="3:20">
       <c r="C100" s="1" t="s">
         <v>679</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="101" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="1" t="s">
@@ -9615,7 +9615,7 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
     </row>
-    <row r="102" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="102" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="1" t="s">
@@ -9676,7 +9676,7 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
     </row>
-    <row r="103" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="103" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="1" t="s">
@@ -9737,7 +9737,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
     </row>
-    <row r="104" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="104" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="1" t="s">
@@ -9798,7 +9798,7 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
     </row>
-    <row r="105" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="105" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="1" t="s">
@@ -9831,7 +9831,8 @@
         <v>495</v>
       </c>
       <c r="L105" s="1">
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>375</v>
       </c>
       <c r="M105" s="1">
         <f t="shared" si="30"/>
@@ -9858,7 +9859,7 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
     </row>
-    <row r="106" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="1" t="s">
@@ -9891,11 +9892,11 @@
         <v>500</v>
       </c>
       <c r="L106" s="1">
-        <f t="shared" ref="L106:L125" si="33">L105+5</f>
-        <v>115</v>
+        <f t="shared" ref="L106:L110" si="33">L105+8</f>
+        <v>383</v>
       </c>
       <c r="M106" s="1">
-        <f t="shared" ref="M106:M125" si="34">M105+15</f>
+        <f>M105+15</f>
         <v>695</v>
       </c>
       <c r="N106" s="3">
@@ -9919,7 +9920,7 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
     </row>
-    <row r="107" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="1" t="s">
@@ -9953,10 +9954,10 @@
       </c>
       <c r="L107" s="1">
         <f t="shared" si="33"/>
-        <v>120</v>
+        <v>391</v>
       </c>
       <c r="M107" s="1">
-        <f t="shared" si="34"/>
+        <f>M106+15</f>
         <v>710</v>
       </c>
       <c r="N107" s="3">
@@ -9980,7 +9981,7 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
     </row>
-    <row r="108" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="1" t="s">
@@ -10014,10 +10015,10 @@
       </c>
       <c r="L108" s="1">
         <f t="shared" si="33"/>
-        <v>125</v>
+        <v>399</v>
       </c>
       <c r="M108" s="1">
-        <f t="shared" si="34"/>
+        <f>M107+15</f>
         <v>725</v>
       </c>
       <c r="N108" s="3">
@@ -10041,7 +10042,7 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
     </row>
-    <row r="109" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="1" t="s">
@@ -10075,10 +10076,10 @@
       </c>
       <c r="L109" s="1">
         <f t="shared" si="33"/>
-        <v>130</v>
+        <v>407</v>
       </c>
       <c r="M109" s="1">
-        <f t="shared" si="34"/>
+        <f>M108+15</f>
         <v>740</v>
       </c>
       <c r="N109" s="3">
@@ -10136,10 +10137,10 @@
       </c>
       <c r="L110" s="1">
         <f t="shared" si="33"/>
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="M110" s="1">
-        <f t="shared" si="34"/>
+        <f>M109+15</f>
         <v>755</v>
       </c>
       <c r="N110" s="3">
@@ -10188,20 +10189,16 @@
         <v>757</v>
       </c>
       <c r="J111" s="2">
-        <f t="shared" si="31"/>
-        <v>930</v>
+        <v>1500</v>
       </c>
       <c r="K111" s="2">
-        <f t="shared" si="32"/>
-        <v>525</v>
+        <v>1200</v>
       </c>
       <c r="L111" s="2">
-        <f t="shared" si="33"/>
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="M111" s="2">
-        <f t="shared" si="34"/>
-        <v>770</v>
+        <v>1000</v>
       </c>
       <c r="N111" s="3">
         <v>35</v>
@@ -10247,23 +10244,23 @@
         <v>763</v>
       </c>
       <c r="J112" s="1">
-        <f t="shared" si="31"/>
-        <v>945</v>
+        <f t="shared" ref="J112:J145" si="34">J111+100</f>
+        <v>1600</v>
       </c>
       <c r="K112" s="1">
-        <f t="shared" si="32"/>
-        <v>530</v>
+        <f t="shared" ref="K112:K145" si="35">K111+100</f>
+        <v>1300</v>
       </c>
       <c r="L112" s="1">
-        <f t="shared" si="33"/>
-        <v>145</v>
+        <f t="shared" ref="L112:L145" si="36">L111+50</f>
+        <v>1050</v>
       </c>
       <c r="M112" s="1">
-        <f t="shared" si="34"/>
-        <v>785</v>
+        <f t="shared" ref="M112:M145" si="37">M111+50</f>
+        <v>1050</v>
       </c>
       <c r="N112" s="3">
-        <f t="shared" ref="N112:N145" si="35">N111+1</f>
+        <f t="shared" ref="N112:N145" si="38">N111+1</f>
         <v>36</v>
       </c>
       <c r="O112" s="6">
@@ -10307,23 +10304,23 @@
         <v>769</v>
       </c>
       <c r="J113" s="1">
-        <f t="shared" si="31"/>
-        <v>960</v>
+        <f t="shared" si="34"/>
+        <v>1700</v>
       </c>
       <c r="K113" s="1">
-        <f t="shared" si="32"/>
-        <v>535</v>
+        <f t="shared" si="35"/>
+        <v>1400</v>
       </c>
       <c r="L113" s="1">
-        <f t="shared" si="33"/>
-        <v>150</v>
+        <f t="shared" si="36"/>
+        <v>1100</v>
       </c>
       <c r="M113" s="1">
-        <f t="shared" si="34"/>
-        <v>800</v>
+        <f t="shared" si="37"/>
+        <v>1100</v>
       </c>
       <c r="N113" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>37</v>
       </c>
       <c r="O113" s="6">
@@ -10367,23 +10364,23 @@
         <v>775</v>
       </c>
       <c r="J114" s="1">
-        <f t="shared" si="31"/>
-        <v>975</v>
+        <f t="shared" si="34"/>
+        <v>1800</v>
       </c>
       <c r="K114" s="1">
-        <f t="shared" si="32"/>
-        <v>540</v>
+        <f t="shared" si="35"/>
+        <v>1500</v>
       </c>
       <c r="L114" s="1">
-        <f t="shared" si="33"/>
-        <v>155</v>
+        <f t="shared" si="36"/>
+        <v>1150</v>
       </c>
       <c r="M114" s="1">
-        <f t="shared" si="34"/>
-        <v>815</v>
+        <f t="shared" si="37"/>
+        <v>1150</v>
       </c>
       <c r="N114" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>38</v>
       </c>
       <c r="O114" s="6">
@@ -10427,23 +10424,23 @@
         <v>781</v>
       </c>
       <c r="J115" s="1">
-        <f t="shared" si="31"/>
-        <v>990</v>
+        <f t="shared" si="34"/>
+        <v>1900</v>
       </c>
       <c r="K115" s="1">
-        <f t="shared" si="32"/>
-        <v>545</v>
+        <f t="shared" si="35"/>
+        <v>1600</v>
       </c>
       <c r="L115" s="1">
-        <f t="shared" si="33"/>
-        <v>160</v>
+        <f t="shared" si="36"/>
+        <v>1200</v>
       </c>
       <c r="M115" s="1">
-        <f t="shared" si="34"/>
-        <v>830</v>
+        <f t="shared" si="37"/>
+        <v>1200</v>
       </c>
       <c r="N115" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>39</v>
       </c>
       <c r="O115" s="6">
@@ -10491,23 +10488,23 @@
         <v>788</v>
       </c>
       <c r="J116" s="1">
-        <f t="shared" ref="J116:J125" si="36">J115+20</f>
-        <v>1010</v>
+        <f t="shared" si="34"/>
+        <v>2000</v>
       </c>
       <c r="K116" s="1">
-        <f t="shared" ref="K116:K125" si="37">K115+10</f>
-        <v>555</v>
+        <f t="shared" si="35"/>
+        <v>1700</v>
       </c>
       <c r="L116" s="1">
-        <f t="shared" si="33"/>
-        <v>165</v>
+        <f t="shared" si="36"/>
+        <v>1250</v>
       </c>
       <c r="M116" s="1">
-        <f t="shared" si="34"/>
-        <v>845</v>
+        <f t="shared" si="37"/>
+        <v>1250</v>
       </c>
       <c r="N116" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>40</v>
       </c>
       <c r="O116" s="6">
@@ -10557,23 +10554,23 @@
         <v>794</v>
       </c>
       <c r="J117" s="1">
+        <f t="shared" si="34"/>
+        <v>2100</v>
+      </c>
+      <c r="K117" s="1">
+        <f t="shared" si="35"/>
+        <v>1800</v>
+      </c>
+      <c r="L117" s="1">
         <f t="shared" si="36"/>
-        <v>1030</v>
-      </c>
-      <c r="K117" s="1">
+        <v>1300</v>
+      </c>
+      <c r="M117" s="1">
         <f t="shared" si="37"/>
-        <v>565</v>
-      </c>
-      <c r="L117" s="1">
-        <f t="shared" si="33"/>
-        <v>170</v>
-      </c>
-      <c r="M117" s="1">
-        <f t="shared" si="34"/>
-        <v>860</v>
+        <v>1300</v>
       </c>
       <c r="N117" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>41</v>
       </c>
       <c r="O117" s="6">
@@ -10623,23 +10620,23 @@
         <v>800</v>
       </c>
       <c r="J118" s="1">
+        <f t="shared" si="34"/>
+        <v>2200</v>
+      </c>
+      <c r="K118" s="1">
+        <f t="shared" si="35"/>
+        <v>1900</v>
+      </c>
+      <c r="L118" s="1">
         <f t="shared" si="36"/>
-        <v>1050</v>
-      </c>
-      <c r="K118" s="1">
+        <v>1350</v>
+      </c>
+      <c r="M118" s="1">
         <f t="shared" si="37"/>
-        <v>575</v>
-      </c>
-      <c r="L118" s="1">
-        <f t="shared" si="33"/>
-        <v>175</v>
-      </c>
-      <c r="M118" s="1">
-        <f t="shared" si="34"/>
-        <v>875</v>
+        <v>1350</v>
       </c>
       <c r="N118" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>42</v>
       </c>
       <c r="O118" s="6">
@@ -10689,23 +10686,23 @@
         <v>806</v>
       </c>
       <c r="J119" s="1">
+        <f t="shared" si="34"/>
+        <v>2300</v>
+      </c>
+      <c r="K119" s="1">
+        <f t="shared" si="35"/>
+        <v>2000</v>
+      </c>
+      <c r="L119" s="1">
         <f t="shared" si="36"/>
-        <v>1070</v>
-      </c>
-      <c r="K119" s="1">
+        <v>1400</v>
+      </c>
+      <c r="M119" s="1">
         <f t="shared" si="37"/>
-        <v>585</v>
-      </c>
-      <c r="L119" s="1">
-        <f t="shared" si="33"/>
-        <v>180</v>
-      </c>
-      <c r="M119" s="1">
-        <f t="shared" si="34"/>
-        <v>890</v>
+        <v>1400</v>
       </c>
       <c r="N119" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>43</v>
       </c>
       <c r="O119" s="6">
@@ -10755,23 +10752,23 @@
         <v>812</v>
       </c>
       <c r="J120" s="1">
+        <f t="shared" si="34"/>
+        <v>2400</v>
+      </c>
+      <c r="K120" s="1">
+        <f t="shared" si="35"/>
+        <v>2100</v>
+      </c>
+      <c r="L120" s="1">
         <f t="shared" si="36"/>
-        <v>1090</v>
-      </c>
-      <c r="K120" s="1">
+        <v>1450</v>
+      </c>
+      <c r="M120" s="1">
         <f t="shared" si="37"/>
-        <v>595</v>
-      </c>
-      <c r="L120" s="1">
-        <f t="shared" si="33"/>
-        <v>185</v>
-      </c>
-      <c r="M120" s="1">
-        <f t="shared" si="34"/>
-        <v>905</v>
+        <v>1450</v>
       </c>
       <c r="N120" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>44</v>
       </c>
       <c r="O120" s="6">
@@ -10821,23 +10818,23 @@
         <v>818</v>
       </c>
       <c r="J121" s="1">
+        <f t="shared" si="34"/>
+        <v>2500</v>
+      </c>
+      <c r="K121" s="1">
+        <f t="shared" si="35"/>
+        <v>2200</v>
+      </c>
+      <c r="L121" s="1">
         <f t="shared" si="36"/>
-        <v>1110</v>
-      </c>
-      <c r="K121" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M121" s="1">
         <f t="shared" si="37"/>
-        <v>605</v>
-      </c>
-      <c r="L121" s="1">
-        <f t="shared" si="33"/>
-        <v>190</v>
-      </c>
-      <c r="M121" s="1">
-        <f t="shared" si="34"/>
-        <v>920</v>
+        <v>1500</v>
       </c>
       <c r="N121" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>45</v>
       </c>
       <c r="O121" s="6">
@@ -10887,23 +10884,23 @@
         <v>824</v>
       </c>
       <c r="J122" s="1">
+        <f t="shared" si="34"/>
+        <v>2600</v>
+      </c>
+      <c r="K122" s="1">
+        <f t="shared" si="35"/>
+        <v>2300</v>
+      </c>
+      <c r="L122" s="1">
         <f t="shared" si="36"/>
-        <v>1130</v>
-      </c>
-      <c r="K122" s="1">
+        <v>1550</v>
+      </c>
+      <c r="M122" s="1">
         <f t="shared" si="37"/>
-        <v>615</v>
-      </c>
-      <c r="L122" s="1">
-        <f t="shared" si="33"/>
-        <v>195</v>
-      </c>
-      <c r="M122" s="1">
-        <f t="shared" si="34"/>
-        <v>935</v>
+        <v>1550</v>
       </c>
       <c r="N122" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>46</v>
       </c>
       <c r="O122" s="6">
@@ -10953,23 +10950,23 @@
         <v>830</v>
       </c>
       <c r="J123" s="1">
+        <f t="shared" si="34"/>
+        <v>2700</v>
+      </c>
+      <c r="K123" s="1">
+        <f t="shared" si="35"/>
+        <v>2400</v>
+      </c>
+      <c r="L123" s="1">
         <f t="shared" si="36"/>
-        <v>1150</v>
-      </c>
-      <c r="K123" s="1">
+        <v>1600</v>
+      </c>
+      <c r="M123" s="1">
         <f t="shared" si="37"/>
-        <v>625</v>
-      </c>
-      <c r="L123" s="1">
-        <f t="shared" si="33"/>
-        <v>200</v>
-      </c>
-      <c r="M123" s="1">
-        <f t="shared" si="34"/>
-        <v>950</v>
+        <v>1600</v>
       </c>
       <c r="N123" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>47</v>
       </c>
       <c r="O123" s="6">
@@ -11019,23 +11016,23 @@
         <v>836</v>
       </c>
       <c r="J124" s="1">
+        <f t="shared" si="34"/>
+        <v>2800</v>
+      </c>
+      <c r="K124" s="1">
+        <f t="shared" si="35"/>
+        <v>2500</v>
+      </c>
+      <c r="L124" s="1">
         <f t="shared" si="36"/>
-        <v>1170</v>
-      </c>
-      <c r="K124" s="1">
+        <v>1650</v>
+      </c>
+      <c r="M124" s="1">
         <f t="shared" si="37"/>
-        <v>635</v>
-      </c>
-      <c r="L124" s="1">
-        <f t="shared" si="33"/>
-        <v>205</v>
-      </c>
-      <c r="M124" s="1">
-        <f t="shared" si="34"/>
-        <v>965</v>
+        <v>1650</v>
       </c>
       <c r="N124" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>48</v>
       </c>
       <c r="O124" s="6">
@@ -11085,23 +11082,23 @@
         <v>841</v>
       </c>
       <c r="J125" s="1">
+        <f t="shared" si="34"/>
+        <v>2900</v>
+      </c>
+      <c r="K125" s="1">
+        <f t="shared" si="35"/>
+        <v>2600</v>
+      </c>
+      <c r="L125" s="1">
         <f t="shared" si="36"/>
-        <v>1190</v>
-      </c>
-      <c r="K125" s="1">
+        <v>1700</v>
+      </c>
+      <c r="M125" s="1">
         <f t="shared" si="37"/>
-        <v>645</v>
-      </c>
-      <c r="L125" s="1">
-        <f t="shared" si="33"/>
-        <v>210</v>
-      </c>
-      <c r="M125" s="1">
-        <f t="shared" si="34"/>
-        <v>980</v>
+        <v>1700</v>
       </c>
       <c r="N125" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>49</v>
       </c>
       <c r="O125" s="6">
@@ -11151,23 +11148,23 @@
         <v>751</v>
       </c>
       <c r="J126" s="1">
-        <f t="shared" ref="J126:J130" si="38">J125+25</f>
-        <v>1215</v>
+        <f t="shared" si="34"/>
+        <v>3000</v>
       </c>
       <c r="K126" s="1">
-        <f t="shared" ref="K126:K130" si="39">K125+15</f>
-        <v>660</v>
+        <f t="shared" si="35"/>
+        <v>2700</v>
       </c>
       <c r="L126" s="1">
-        <f t="shared" ref="L126:L130" si="40">L125+10</f>
-        <v>220</v>
+        <f t="shared" si="36"/>
+        <v>1750</v>
       </c>
       <c r="M126" s="1">
-        <f t="shared" ref="M126:M130" si="41">M125+20</f>
-        <v>1000</v>
+        <f t="shared" si="37"/>
+        <v>1750</v>
       </c>
       <c r="N126" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="O126" s="6">
@@ -11217,23 +11214,23 @@
         <v>751</v>
       </c>
       <c r="J127" s="1">
+        <f t="shared" si="34"/>
+        <v>3100</v>
+      </c>
+      <c r="K127" s="1">
+        <f t="shared" si="35"/>
+        <v>2800</v>
+      </c>
+      <c r="L127" s="1">
+        <f t="shared" si="36"/>
+        <v>1800</v>
+      </c>
+      <c r="M127" s="1">
+        <f t="shared" si="37"/>
+        <v>1800</v>
+      </c>
+      <c r="N127" s="3">
         <f t="shared" si="38"/>
-        <v>1240</v>
-      </c>
-      <c r="K127" s="1">
-        <f t="shared" si="39"/>
-        <v>675</v>
-      </c>
-      <c r="L127" s="1">
-        <f t="shared" si="40"/>
-        <v>230</v>
-      </c>
-      <c r="M127" s="1">
-        <f t="shared" si="41"/>
-        <v>1020</v>
-      </c>
-      <c r="N127" s="3">
-        <f t="shared" si="35"/>
         <v>51</v>
       </c>
       <c r="O127" s="6">
@@ -11283,23 +11280,23 @@
         <v>751</v>
       </c>
       <c r="J128" s="1">
+        <f t="shared" si="34"/>
+        <v>3200</v>
+      </c>
+      <c r="K128" s="1">
+        <f t="shared" si="35"/>
+        <v>2900</v>
+      </c>
+      <c r="L128" s="1">
+        <f t="shared" si="36"/>
+        <v>1850</v>
+      </c>
+      <c r="M128" s="1">
+        <f t="shared" si="37"/>
+        <v>1850</v>
+      </c>
+      <c r="N128" s="3">
         <f t="shared" si="38"/>
-        <v>1265</v>
-      </c>
-      <c r="K128" s="1">
-        <f t="shared" si="39"/>
-        <v>690</v>
-      </c>
-      <c r="L128" s="1">
-        <f t="shared" si="40"/>
-        <v>240</v>
-      </c>
-      <c r="M128" s="1">
-        <f t="shared" si="41"/>
-        <v>1040</v>
-      </c>
-      <c r="N128" s="3">
-        <f t="shared" si="35"/>
         <v>52</v>
       </c>
       <c r="O128" s="6">
@@ -11349,23 +11346,23 @@
         <v>751</v>
       </c>
       <c r="J129" s="1">
+        <f t="shared" si="34"/>
+        <v>3300</v>
+      </c>
+      <c r="K129" s="1">
+        <f t="shared" si="35"/>
+        <v>3000</v>
+      </c>
+      <c r="L129" s="1">
+        <f t="shared" si="36"/>
+        <v>1900</v>
+      </c>
+      <c r="M129" s="1">
+        <f t="shared" si="37"/>
+        <v>1900</v>
+      </c>
+      <c r="N129" s="3">
         <f t="shared" si="38"/>
-        <v>1290</v>
-      </c>
-      <c r="K129" s="1">
-        <f t="shared" si="39"/>
-        <v>705</v>
-      </c>
-      <c r="L129" s="1">
-        <f t="shared" si="40"/>
-        <v>250</v>
-      </c>
-      <c r="M129" s="1">
-        <f t="shared" si="41"/>
-        <v>1060</v>
-      </c>
-      <c r="N129" s="3">
-        <f t="shared" si="35"/>
         <v>53</v>
       </c>
       <c r="O129" s="6">
@@ -11415,23 +11412,23 @@
         <v>751</v>
       </c>
       <c r="J130" s="1">
+        <f t="shared" si="34"/>
+        <v>3400</v>
+      </c>
+      <c r="K130" s="1">
+        <f t="shared" si="35"/>
+        <v>3100</v>
+      </c>
+      <c r="L130" s="1">
+        <f t="shared" si="36"/>
+        <v>1950</v>
+      </c>
+      <c r="M130" s="1">
+        <f t="shared" si="37"/>
+        <v>1950</v>
+      </c>
+      <c r="N130" s="3">
         <f t="shared" si="38"/>
-        <v>1315</v>
-      </c>
-      <c r="K130" s="1">
-        <f t="shared" si="39"/>
-        <v>720</v>
-      </c>
-      <c r="L130" s="1">
-        <f t="shared" si="40"/>
-        <v>260</v>
-      </c>
-      <c r="M130" s="1">
-        <f t="shared" si="41"/>
-        <v>1080</v>
-      </c>
-      <c r="N130" s="3">
-        <f t="shared" si="35"/>
         <v>54</v>
       </c>
       <c r="O130" s="6">
@@ -11481,23 +11478,23 @@
         <v>751</v>
       </c>
       <c r="J131" s="1">
-        <f t="shared" ref="J131:J135" si="42">J130+30</f>
-        <v>1345</v>
+        <f t="shared" si="34"/>
+        <v>3500</v>
       </c>
       <c r="K131" s="1">
-        <f t="shared" ref="K131:K135" si="43">K130+25</f>
-        <v>745</v>
+        <f t="shared" si="35"/>
+        <v>3200</v>
       </c>
       <c r="L131" s="1">
-        <f t="shared" ref="L131:L135" si="44">L130+15</f>
-        <v>275</v>
+        <f t="shared" si="36"/>
+        <v>2000</v>
       </c>
       <c r="M131" s="1">
-        <f t="shared" ref="M131:M135" si="45">M130+25</f>
-        <v>1105</v>
+        <f t="shared" si="37"/>
+        <v>2000</v>
       </c>
       <c r="N131" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>55</v>
       </c>
       <c r="O131" s="6">
@@ -11545,23 +11542,23 @@
         <v>751</v>
       </c>
       <c r="J132" s="1">
-        <f t="shared" si="42"/>
-        <v>1375</v>
+        <f t="shared" si="34"/>
+        <v>3600</v>
       </c>
       <c r="K132" s="1">
-        <f t="shared" si="43"/>
-        <v>770</v>
+        <f t="shared" si="35"/>
+        <v>3300</v>
       </c>
       <c r="L132" s="1">
-        <f t="shared" si="44"/>
-        <v>290</v>
+        <f t="shared" si="36"/>
+        <v>2050</v>
       </c>
       <c r="M132" s="1">
-        <f t="shared" si="45"/>
-        <v>1130</v>
+        <f t="shared" si="37"/>
+        <v>2050</v>
       </c>
       <c r="N132" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>56</v>
       </c>
       <c r="O132" s="6">
@@ -11609,23 +11606,23 @@
         <v>751</v>
       </c>
       <c r="J133" s="1">
-        <f t="shared" si="42"/>
-        <v>1405</v>
+        <f t="shared" si="34"/>
+        <v>3700</v>
       </c>
       <c r="K133" s="1">
-        <f t="shared" si="43"/>
-        <v>795</v>
+        <f t="shared" si="35"/>
+        <v>3400</v>
       </c>
       <c r="L133" s="1">
-        <f t="shared" si="44"/>
-        <v>305</v>
+        <f t="shared" si="36"/>
+        <v>2100</v>
       </c>
       <c r="M133" s="1">
-        <f t="shared" si="45"/>
-        <v>1155</v>
+        <f t="shared" si="37"/>
+        <v>2100</v>
       </c>
       <c r="N133" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>57</v>
       </c>
       <c r="O133" s="6">
@@ -11673,23 +11670,23 @@
         <v>751</v>
       </c>
       <c r="J134" s="1">
-        <f t="shared" si="42"/>
-        <v>1435</v>
+        <f t="shared" si="34"/>
+        <v>3800</v>
       </c>
       <c r="K134" s="1">
-        <f t="shared" si="43"/>
-        <v>820</v>
+        <f t="shared" si="35"/>
+        <v>3500</v>
       </c>
       <c r="L134" s="1">
-        <f t="shared" si="44"/>
-        <v>320</v>
+        <f t="shared" si="36"/>
+        <v>2150</v>
       </c>
       <c r="M134" s="1">
-        <f t="shared" si="45"/>
-        <v>1180</v>
+        <f t="shared" si="37"/>
+        <v>2150</v>
       </c>
       <c r="N134" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>58</v>
       </c>
       <c r="O134" s="6">
@@ -11737,23 +11734,23 @@
         <v>751</v>
       </c>
       <c r="J135" s="1">
-        <f t="shared" si="42"/>
-        <v>1465</v>
+        <f t="shared" si="34"/>
+        <v>3900</v>
       </c>
       <c r="K135" s="1">
-        <f t="shared" si="43"/>
-        <v>845</v>
+        <f t="shared" si="35"/>
+        <v>3600</v>
       </c>
       <c r="L135" s="1">
-        <f t="shared" si="44"/>
-        <v>335</v>
+        <f t="shared" si="36"/>
+        <v>2200</v>
       </c>
       <c r="M135" s="1">
-        <f t="shared" si="45"/>
-        <v>1205</v>
+        <f t="shared" si="37"/>
+        <v>2200</v>
       </c>
       <c r="N135" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>59</v>
       </c>
       <c r="O135" s="6">
@@ -11801,23 +11798,23 @@
         <v>751</v>
       </c>
       <c r="J136" s="1">
-        <f t="shared" ref="J136:M136" si="46">J135+8</f>
-        <v>1473</v>
+        <f t="shared" si="34"/>
+        <v>4000</v>
       </c>
       <c r="K136" s="1">
-        <f t="shared" si="46"/>
-        <v>853</v>
+        <f t="shared" si="35"/>
+        <v>3700</v>
       </c>
       <c r="L136" s="1">
-        <f t="shared" si="46"/>
-        <v>343</v>
+        <f t="shared" si="36"/>
+        <v>2250</v>
       </c>
       <c r="M136" s="1">
-        <f t="shared" si="46"/>
-        <v>1213</v>
+        <f t="shared" si="37"/>
+        <v>2250</v>
       </c>
       <c r="N136" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>60</v>
       </c>
       <c r="O136" s="6">
@@ -11867,23 +11864,23 @@
         <v>751</v>
       </c>
       <c r="J137" s="1">
-        <f t="shared" ref="J137:M137" si="47">J136+8</f>
-        <v>1481</v>
+        <f t="shared" si="34"/>
+        <v>4100</v>
       </c>
       <c r="K137" s="1">
-        <f t="shared" si="47"/>
-        <v>861</v>
+        <f t="shared" si="35"/>
+        <v>3800</v>
       </c>
       <c r="L137" s="1">
-        <f t="shared" si="47"/>
-        <v>351</v>
+        <f t="shared" si="36"/>
+        <v>2300</v>
       </c>
       <c r="M137" s="1">
-        <f t="shared" si="47"/>
-        <v>1221</v>
+        <f t="shared" si="37"/>
+        <v>2300</v>
       </c>
       <c r="N137" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>61</v>
       </c>
       <c r="O137" s="6">
@@ -11933,23 +11930,23 @@
         <v>751</v>
       </c>
       <c r="J138" s="1">
-        <f t="shared" ref="J138:M138" si="48">J137+8</f>
-        <v>1489</v>
+        <f t="shared" si="34"/>
+        <v>4200</v>
       </c>
       <c r="K138" s="1">
-        <f t="shared" si="48"/>
-        <v>869</v>
+        <f t="shared" si="35"/>
+        <v>3900</v>
       </c>
       <c r="L138" s="1">
-        <f t="shared" si="48"/>
-        <v>359</v>
+        <f t="shared" si="36"/>
+        <v>2350</v>
       </c>
       <c r="M138" s="1">
-        <f t="shared" si="48"/>
-        <v>1229</v>
+        <f t="shared" si="37"/>
+        <v>2350</v>
       </c>
       <c r="N138" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>62</v>
       </c>
       <c r="O138" s="6">
@@ -11999,23 +11996,23 @@
         <v>751</v>
       </c>
       <c r="J139" s="1">
-        <f t="shared" ref="J139:M139" si="49">J138+8</f>
-        <v>1497</v>
+        <f t="shared" si="34"/>
+        <v>4300</v>
       </c>
       <c r="K139" s="1">
-        <f t="shared" si="49"/>
-        <v>877</v>
+        <f t="shared" si="35"/>
+        <v>4000</v>
       </c>
       <c r="L139" s="1">
-        <f t="shared" si="49"/>
-        <v>367</v>
+        <f t="shared" si="36"/>
+        <v>2400</v>
       </c>
       <c r="M139" s="1">
-        <f t="shared" si="49"/>
-        <v>1237</v>
+        <f t="shared" si="37"/>
+        <v>2400</v>
       </c>
       <c r="N139" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>63</v>
       </c>
       <c r="O139" s="6">
@@ -12065,22 +12062,23 @@
         <v>751</v>
       </c>
       <c r="J140" s="1">
-        <f t="shared" ref="J140:M140" si="50">J139+8</f>
-        <v>1505</v>
+        <f t="shared" si="34"/>
+        <v>4400</v>
       </c>
       <c r="K140" s="1">
-        <f t="shared" si="50"/>
-        <v>885</v>
+        <f t="shared" si="35"/>
+        <v>4100</v>
       </c>
       <c r="L140" s="1">
-        <v>110</v>
+        <f t="shared" si="36"/>
+        <v>2450</v>
       </c>
       <c r="M140" s="1">
-        <f t="shared" si="50"/>
-        <v>1245</v>
+        <f t="shared" si="37"/>
+        <v>2450</v>
       </c>
       <c r="N140" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>64</v>
       </c>
       <c r="O140" s="6">
@@ -12130,23 +12128,23 @@
         <v>751</v>
       </c>
       <c r="J141" s="1">
-        <f t="shared" ref="J141:J145" si="51">J140+15</f>
-        <v>1520</v>
+        <f t="shared" si="34"/>
+        <v>4500</v>
       </c>
       <c r="K141" s="1">
-        <f t="shared" ref="K141:K145" si="52">K140+5</f>
-        <v>890</v>
+        <f t="shared" si="35"/>
+        <v>4200</v>
       </c>
       <c r="L141" s="1">
-        <f t="shared" ref="L141:L145" si="53">L140+5</f>
-        <v>115</v>
+        <f t="shared" si="36"/>
+        <v>2500</v>
       </c>
       <c r="M141" s="1">
-        <f t="shared" ref="M141:M145" si="54">M140+15</f>
-        <v>1260</v>
+        <f t="shared" si="37"/>
+        <v>2500</v>
       </c>
       <c r="N141" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>65</v>
       </c>
       <c r="O141" s="6">
@@ -12196,23 +12194,23 @@
         <v>751</v>
       </c>
       <c r="J142" s="1">
-        <f t="shared" si="51"/>
-        <v>1535</v>
+        <f t="shared" si="34"/>
+        <v>4600</v>
       </c>
       <c r="K142" s="1">
-        <f t="shared" si="52"/>
-        <v>895</v>
+        <f t="shared" si="35"/>
+        <v>4300</v>
       </c>
       <c r="L142" s="1">
-        <f t="shared" si="53"/>
-        <v>120</v>
+        <f t="shared" si="36"/>
+        <v>2550</v>
       </c>
       <c r="M142" s="1">
-        <f t="shared" si="54"/>
-        <v>1275</v>
+        <f t="shared" si="37"/>
+        <v>2550</v>
       </c>
       <c r="N142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>66</v>
       </c>
       <c r="O142" s="6">
@@ -12262,23 +12260,23 @@
         <v>751</v>
       </c>
       <c r="J143" s="1">
-        <f t="shared" si="51"/>
-        <v>1550</v>
+        <f t="shared" si="34"/>
+        <v>4700</v>
       </c>
       <c r="K143" s="1">
-        <f t="shared" si="52"/>
-        <v>900</v>
+        <f t="shared" si="35"/>
+        <v>4400</v>
       </c>
       <c r="L143" s="1">
-        <f t="shared" si="53"/>
-        <v>125</v>
+        <f t="shared" si="36"/>
+        <v>2600</v>
       </c>
       <c r="M143" s="1">
-        <f t="shared" si="54"/>
-        <v>1290</v>
+        <f t="shared" si="37"/>
+        <v>2600</v>
       </c>
       <c r="N143" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>67</v>
       </c>
       <c r="O143" s="6">
@@ -12328,23 +12326,23 @@
         <v>751</v>
       </c>
       <c r="J144" s="1">
-        <f t="shared" si="51"/>
-        <v>1565</v>
+        <f t="shared" si="34"/>
+        <v>4800</v>
       </c>
       <c r="K144" s="1">
-        <f t="shared" si="52"/>
-        <v>905</v>
+        <f t="shared" si="35"/>
+        <v>4500</v>
       </c>
       <c r="L144" s="1">
-        <f t="shared" si="53"/>
-        <v>130</v>
+        <f t="shared" si="36"/>
+        <v>2650</v>
       </c>
       <c r="M144" s="1">
-        <f t="shared" si="54"/>
-        <v>1305</v>
+        <f t="shared" si="37"/>
+        <v>2650</v>
       </c>
       <c r="N144" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>68</v>
       </c>
       <c r="O144" s="6">
@@ -12394,23 +12392,23 @@
         <v>751</v>
       </c>
       <c r="J145" s="1">
-        <f t="shared" si="51"/>
-        <v>1580</v>
+        <f t="shared" si="34"/>
+        <v>4900</v>
       </c>
       <c r="K145" s="1">
-        <f t="shared" si="52"/>
-        <v>910</v>
+        <f t="shared" si="35"/>
+        <v>4600</v>
       </c>
       <c r="L145" s="1">
-        <f t="shared" si="53"/>
-        <v>135</v>
+        <f t="shared" si="36"/>
+        <v>2700</v>
       </c>
       <c r="M145" s="1">
-        <f t="shared" si="54"/>
-        <v>1320</v>
+        <f t="shared" si="37"/>
+        <v>2700</v>
       </c>
       <c r="N145" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>69</v>
       </c>
       <c r="O145" s="6">

--- a/Excel/BossConfig.xlsx
+++ b/Excel/BossConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="R3" authorId="0">
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0">
+    <comment ref="U3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="905">
   <si>
     <t>ID</t>
   </si>
@@ -124,6 +124,9 @@
     <t>Accuracy</t>
   </si>
   <si>
+    <t>Protect</t>
+  </si>
+  <si>
     <t>经验</t>
   </si>
   <si>
@@ -2353,7 +2356,7 @@
     <t>地狱鸡王</t>
   </si>
   <si>
-    <t>900000000000000000000000000000000</t>
+    <t>9000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>90000000000000000000000000000000000000000000000</t>
@@ -2371,7 +2374,7 @@
     <t>地狱鹿王</t>
   </si>
   <si>
-    <t>9000000000000000000000000000000000</t>
+    <t>90000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>2000000000000000000000000000000000000000000000000</t>
@@ -2389,7 +2392,7 @@
     <t>地狱草王</t>
   </si>
   <si>
-    <t>90000000000000000000000000000000000</t>
+    <t>900000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>40000000000000000000000000000000000000000000000000</t>
@@ -2407,7 +2410,7 @@
     <t>地狱猫王</t>
   </si>
   <si>
-    <t>900000000000000000000000000000000000</t>
+    <t>9000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>800000000000000000000000000000000000000000000000000</t>
@@ -2425,7 +2428,7 @@
     <t>地狱花王</t>
   </si>
   <si>
-    <t>9000000000000000000000000000000000000</t>
+    <t>90000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>16000000000000000000000000000000000000000000000000000</t>
@@ -2446,12 +2449,6 @@
     <t>地狱雪王</t>
   </si>
   <si>
-    <t>90000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>320000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>360000000000</t>
   </si>
   <si>
@@ -2464,12 +2461,6 @@
     <t>地狱蝠王</t>
   </si>
   <si>
-    <t>900000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>6400000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>370000000000</t>
   </si>
   <si>
@@ -2482,12 +2473,6 @@
     <t>地狱骷髅王</t>
   </si>
   <si>
-    <t>9000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>120000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>380000000000</t>
   </si>
   <si>
@@ -2500,12 +2485,6 @@
     <t>地狱尸王</t>
   </si>
   <si>
-    <t>90000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>2400000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>390000000000</t>
   </si>
   <si>
@@ -2518,12 +2497,6 @@
     <t>地狱蛇王</t>
   </si>
   <si>
-    <t>900000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>48000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>400000000000</t>
   </si>
   <si>
@@ -2536,12 +2509,6 @@
     <t>地狱狼王</t>
   </si>
   <si>
-    <t>9000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>960000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>410000000000</t>
   </si>
   <si>
@@ -2554,12 +2521,6 @@
     <t>地狱沙虫王</t>
   </si>
   <si>
-    <t>90000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>2000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>420000000000</t>
   </si>
   <si>
@@ -2572,12 +2533,6 @@
     <t>地狱鹰王</t>
   </si>
   <si>
-    <t>900000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>40000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>430000000000</t>
   </si>
   <si>
@@ -2590,12 +2545,6 @@
     <t>地狱角虫王</t>
   </si>
   <si>
-    <t>9000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>800000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>440000000000</t>
   </si>
   <si>
@@ -2606,9 +2555,6 @@
   </si>
   <si>
     <t>地狱蜈蚣王</t>
-  </si>
-  <si>
-    <t>16000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>450000000000</t>
@@ -3835,10 +3781,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V145"/>
+  <dimension ref="A1:W145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G104" workbookViewId="0">
-      <selection activeCell="O124" sqref="O124"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3853,17 +3799,18 @@
     <col min="9" max="9" width="49.625" style="3" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="3" customWidth="1"/>
     <col min="11" max="13" width="12.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="3" customWidth="1"/>
     <col min="15" max="15" width="7.5" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13" style="3" customWidth="1"/>
-    <col min="18" max="18" width="13.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.375" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="3"/>
+    <col min="16" max="16" width="7.125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="16.375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13" style="3" customWidth="1"/>
+    <col min="19" max="19" width="13.75" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="G1" s="4"/>
@@ -3877,8 +3824,9 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="H2" s="3"/>
@@ -3891,8 +3839,9 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
@@ -3940,7 +3889,7 @@
       <c r="Q3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="S3" s="7" t="s">
@@ -3949,30 +3898,33 @@
       <c r="T3" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>7</v>
@@ -3993,12 +3945,12 @@
         <v>12</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="S4" s="7" t="s">
@@ -4007,77 +3959,83 @@
       <c r="T4" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="N5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="R5" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="S5" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="12" spans="3:20">
+        <v>33</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="12" spans="3:21">
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1">
         <v>10</v>
@@ -4086,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -4106,40 +4064,43 @@
       <c r="O6" s="6">
         <v>0</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>33</v>
+      <c r="P6" s="6">
+        <v>0</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" s="1">
+        <v>34</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="3:21">
+    <row r="7" customHeight="1" spans="3:22">
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -4159,41 +4120,44 @@
       <c r="O7" s="6">
         <v>0</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>36</v>
+      <c r="P7" s="6">
+        <v>0</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="1">
+        <v>37</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" s="1">
         <v>-1</v>
       </c>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" customHeight="1" spans="3:21">
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" customHeight="1" spans="3:22">
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -4213,41 +4177,44 @@
       <c r="O8" s="6">
         <v>0</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>50</v>
+      <c r="P8" s="6">
+        <v>0</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T8" s="1">
+      <c r="R8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="1">
         <v>-1</v>
       </c>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" customHeight="1" spans="3:21">
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" customHeight="1" spans="3:22">
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -4267,41 +4234,44 @@
       <c r="O9" s="6">
         <v>0</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>58</v>
+      <c r="P9" s="6">
+        <v>0</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" customHeight="1" spans="3:21">
+      <c r="R9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" customHeight="1" spans="3:22">
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -4321,41 +4291,44 @@
       <c r="O10" s="6">
         <v>0</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>49</v>
+      <c r="P10" s="6">
+        <v>0</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" customHeight="1" spans="3:21">
+        <v>50</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" customHeight="1" spans="3:22">
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -4375,41 +4348,44 @@
       <c r="O11" s="6">
         <v>0</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>71</v>
+      <c r="P11" s="6">
+        <v>0</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" customHeight="1" spans="3:21">
+      <c r="R11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" customHeight="1" spans="3:22">
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -4429,41 +4405,44 @@
       <c r="O12" s="6">
         <v>0</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>79</v>
+      <c r="P12" s="6">
+        <v>0</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" customHeight="1" spans="3:21">
+      <c r="R12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" customHeight="1" spans="3:22">
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -4483,41 +4462,44 @@
       <c r="O13" s="6">
         <v>0</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>87</v>
+      <c r="P13" s="6">
+        <v>0</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" customHeight="1" spans="3:21">
+      <c r="R13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" customHeight="1" spans="3:22">
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -4537,41 +4519,44 @@
       <c r="O14" s="6">
         <v>0</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>95</v>
+      <c r="P14" s="6">
+        <v>0</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1"/>
-    </row>
-    <row r="15" customHeight="1" spans="3:21">
+      <c r="R14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" customHeight="1" spans="3:22">
       <c r="C15" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -4591,41 +4576,44 @@
       <c r="O15" s="6">
         <v>0</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>103</v>
+      <c r="P15" s="6">
+        <v>0</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1"/>
-    </row>
-    <row r="16" customHeight="1" spans="3:21">
+      <c r="R15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" customHeight="1" spans="3:22">
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -4645,41 +4633,44 @@
       <c r="O16" s="6">
         <v>0</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>111</v>
+      <c r="P16" s="6">
+        <v>0</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="S16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1"/>
-    </row>
-    <row r="17" customHeight="1" spans="3:21">
+      <c r="R16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" customHeight="1" spans="3:22">
       <c r="C17" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -4699,41 +4690,44 @@
       <c r="O17" s="6">
         <v>0</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>119</v>
+      <c r="P17" s="6">
+        <v>0</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="S17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" customHeight="1" spans="3:21">
+      <c r="R17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" customHeight="1" spans="3:22">
       <c r="C18" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -4753,41 +4747,44 @@
       <c r="O18" s="6">
         <v>0</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>127</v>
+      <c r="P18" s="6">
+        <v>0</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="T18" s="1">
-        <v>0</v>
-      </c>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" customHeight="1" spans="3:21">
+      <c r="R18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" customHeight="1" spans="3:22">
       <c r="C19" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -4807,41 +4804,44 @@
       <c r="O19" s="6">
         <v>0</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>135</v>
+      <c r="P19" s="6">
+        <v>0</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1"/>
-    </row>
-    <row r="20" customHeight="1" spans="3:21">
+        <v>136</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" customHeight="1" spans="3:22">
       <c r="C20" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -4861,41 +4861,44 @@
       <c r="O20" s="6">
         <v>0</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>142</v>
+      <c r="P20" s="6">
+        <v>0</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1"/>
-    </row>
-    <row r="21" customHeight="1" spans="3:21">
+        <v>143</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" customHeight="1" spans="3:22">
       <c r="C21" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" ref="J21:J40" si="0">(D21-1014)*1</f>
@@ -4916,41 +4919,44 @@
       <c r="O21" s="6">
         <v>0</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>149</v>
+      <c r="P21" s="6">
+        <v>0</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="S21" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="T21" s="1">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1"/>
-    </row>
-    <row r="22" customHeight="1" spans="3:21">
+      <c r="R21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" customHeight="1" spans="3:22">
       <c r="C22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
@@ -4971,41 +4977,44 @@
       <c r="O22" s="6">
         <v>0</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>157</v>
+      <c r="P22" s="6">
+        <v>0</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1"/>
-    </row>
-    <row r="23" customHeight="1" spans="3:21">
+        <v>158</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" customHeight="1" spans="3:22">
       <c r="C23" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
@@ -5026,41 +5035,44 @@
       <c r="O23" s="6">
         <v>0</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>164</v>
+      <c r="P23" s="6">
+        <v>0</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1"/>
-    </row>
-    <row r="24" customHeight="1" spans="3:21">
+        <v>165</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" customHeight="1" spans="3:22">
       <c r="C24" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
@@ -5081,41 +5093,44 @@
       <c r="O24" s="6">
         <v>0</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>171</v>
+      <c r="P24" s="6">
+        <v>0</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0</v>
-      </c>
-      <c r="U24" s="1"/>
-    </row>
-    <row r="25" customHeight="1" spans="3:21">
+        <v>172</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" customHeight="1" spans="3:22">
       <c r="C25" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="0"/>
@@ -5136,41 +5151,44 @@
       <c r="O25" s="6">
         <v>0</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>178</v>
+      <c r="P25" s="6">
+        <v>0</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0</v>
-      </c>
-      <c r="U25" s="1"/>
-    </row>
-    <row r="26" customHeight="1" spans="3:21">
+        <v>179</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" customHeight="1" spans="3:22">
       <c r="C26" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
@@ -5191,41 +5209,44 @@
       <c r="O26" s="6">
         <v>0</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>185</v>
+      <c r="P26" s="6">
+        <v>0</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T26" s="1">
-        <v>0</v>
-      </c>
-      <c r="U26" s="1"/>
-    </row>
-    <row r="27" customHeight="1" spans="3:21">
+        <v>186</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" customHeight="1" spans="3:22">
       <c r="C27" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
@@ -5246,41 +5267,44 @@
       <c r="O27" s="6">
         <v>0</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>192</v>
+      <c r="P27" s="6">
+        <v>0</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T27" s="1">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1"/>
-    </row>
-    <row r="28" customHeight="1" spans="3:21">
+        <v>193</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" customHeight="1" spans="3:22">
       <c r="C28" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
@@ -5301,41 +5325,44 @@
       <c r="O28" s="6">
         <v>0</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>199</v>
+      <c r="P28" s="6">
+        <v>0</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1"/>
-    </row>
-    <row r="29" customHeight="1" spans="3:21">
+        <v>200</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" customHeight="1" spans="3:22">
       <c r="C29" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
@@ -5356,41 +5383,44 @@
       <c r="O29" s="6">
         <v>0</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>206</v>
+      <c r="P29" s="6">
+        <v>0</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T29" s="1">
-        <v>0</v>
-      </c>
-      <c r="U29" s="1"/>
-    </row>
-    <row r="30" customHeight="1" spans="3:21">
+        <v>207</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" customHeight="1" spans="3:22">
       <c r="C30" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
@@ -5411,41 +5441,44 @@
       <c r="O30" s="6">
         <v>0</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>213</v>
+      <c r="P30" s="6">
+        <v>0</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T30" s="1">
-        <v>0</v>
-      </c>
-      <c r="U30" s="1"/>
-    </row>
-    <row r="31" customHeight="1" spans="3:21">
+        <v>214</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" customHeight="1" spans="3:22">
       <c r="C31" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="0"/>
@@ -5466,41 +5499,44 @@
       <c r="O31" s="6">
         <v>0</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>220</v>
+      <c r="P31" s="6">
+        <v>0</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T31" s="1">
-        <v>0</v>
-      </c>
-      <c r="U31" s="1"/>
-    </row>
-    <row r="32" customHeight="1" spans="3:21">
+        <v>221</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" customHeight="1" spans="3:22">
       <c r="C32" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="0"/>
@@ -5521,41 +5557,44 @@
       <c r="O32" s="6">
         <v>0</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>227</v>
+      <c r="P32" s="6">
+        <v>0</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T32" s="1">
-        <v>0</v>
-      </c>
-      <c r="U32" s="1"/>
-    </row>
-    <row r="33" customHeight="1" spans="3:21">
+        <v>228</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" customHeight="1" spans="3:22">
       <c r="C33" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="0"/>
@@ -5576,41 +5615,44 @@
       <c r="O33" s="6">
         <v>0</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>234</v>
+      <c r="P33" s="6">
+        <v>0</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T33" s="1">
-        <v>0</v>
-      </c>
-      <c r="U33" s="1"/>
-    </row>
-    <row r="34" customHeight="1" spans="3:21">
+        <v>235</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" customHeight="1" spans="3:22">
       <c r="C34" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="0"/>
@@ -5631,41 +5673,44 @@
       <c r="O34" s="6">
         <v>0</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>241</v>
+      <c r="P34" s="6">
+        <v>0</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T34" s="1">
-        <v>0</v>
-      </c>
-      <c r="U34" s="1"/>
-    </row>
-    <row r="35" customHeight="1" spans="3:21">
+        <v>242</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" customHeight="1" spans="3:22">
       <c r="C35" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="0"/>
@@ -5686,41 +5731,44 @@
       <c r="O35" s="6">
         <v>0</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>248</v>
+      <c r="P35" s="6">
+        <v>0</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T35" s="1">
-        <v>0</v>
-      </c>
-      <c r="U35" s="1"/>
-    </row>
-    <row r="36" customHeight="1" spans="3:21">
+        <v>249</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" customHeight="1" spans="3:22">
       <c r="C36" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="0"/>
@@ -5741,41 +5789,44 @@
       <c r="O36" s="6">
         <v>0</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>255</v>
+      <c r="P36" s="6">
+        <v>0</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T36" s="1">
-        <v>0</v>
-      </c>
-      <c r="U36" s="1"/>
-    </row>
-    <row r="37" customHeight="1" spans="3:21">
+        <v>256</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" customHeight="1" spans="3:22">
       <c r="C37" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="0"/>
@@ -5796,41 +5847,44 @@
       <c r="O37" s="6">
         <v>0</v>
       </c>
-      <c r="P37" s="1" t="s">
-        <v>262</v>
+      <c r="P37" s="6">
+        <v>0</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T37" s="1">
-        <v>0</v>
-      </c>
-      <c r="U37" s="1"/>
-    </row>
-    <row r="38" customHeight="1" spans="3:21">
+        <v>263</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" customHeight="1" spans="3:22">
       <c r="C38" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="0"/>
@@ -5851,41 +5905,44 @@
       <c r="O38" s="6">
         <v>0</v>
       </c>
-      <c r="P38" s="1" t="s">
-        <v>269</v>
+      <c r="P38" s="6">
+        <v>0</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T38" s="1">
-        <v>0</v>
-      </c>
-      <c r="U38" s="1"/>
-    </row>
-    <row r="39" customHeight="1" spans="3:21">
+        <v>270</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" customHeight="1" spans="3:22">
       <c r="C39" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="0"/>
@@ -5906,41 +5963,44 @@
       <c r="O39" s="6">
         <v>0</v>
       </c>
-      <c r="P39" s="1" t="s">
-        <v>276</v>
+      <c r="P39" s="6">
+        <v>0</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T39" s="1">
-        <v>0</v>
-      </c>
-      <c r="U39" s="1"/>
-    </row>
-    <row r="40" customHeight="1" spans="3:21">
+        <v>277</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" customHeight="1" spans="3:22">
       <c r="C40" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="0"/>
@@ -5961,43 +6021,46 @@
       <c r="O40" s="6">
         <v>0</v>
       </c>
-      <c r="P40" s="1" t="s">
-        <v>283</v>
+      <c r="P40" s="6">
+        <v>0</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T40" s="1">
-        <v>0</v>
-      </c>
-      <c r="U40" s="1"/>
-    </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:20">
+        <v>284</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1"/>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J41" s="1">
         <f>(D41-1034)*5+20</f>
@@ -6018,42 +6081,45 @@
       <c r="O41" s="6">
         <v>0</v>
       </c>
-      <c r="P41" s="1" t="s">
-        <v>290</v>
+      <c r="P41" s="6">
+        <v>0</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:20">
+        <v>291</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" ref="J41:J50" si="1">(D42-1034)*4+20</f>
@@ -6074,42 +6140,45 @@
       <c r="O42" s="6">
         <v>0</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>297</v>
+      <c r="P42" s="6">
+        <v>0</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:20">
+        <v>298</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43